--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030727-2\ＪＯＢ030727-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030803-1\ＪＯＢ030803-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -2466,6 +2466,24 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,22 +2520,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2526,19 +2532,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2546,18 +2558,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4581,7 +4581,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BT4" sqref="BT4:BT5"/>
+      <selection pane="bottomRight" activeCell="BU4" sqref="BU4:BU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4595,519 +4595,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BA1" s="45" t="s">
+      <c r="BA1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
       <c r="BD1" s="18"/>
       <c r="CD1" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="46"/>
-      <c r="CC2" s="46"/>
-      <c r="CD2" s="46"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
     </row>
     <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47" t="s">
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
     </row>
     <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="W4" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="43" t="s">
+      <c r="Z4" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="43" t="s">
+      <c r="AA4" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AB4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="43" t="s">
+      <c r="AC4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="43" t="s">
+      <c r="AD4" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="43" t="s">
+      <c r="AE4" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="43" t="s">
+      <c r="AF4" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="43" t="s">
+      <c r="AG4" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="AI4" s="43" t="s">
+      <c r="AI4" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="43" t="s">
+      <c r="AJ4" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="43" t="s">
+      <c r="AK4" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="43" t="s">
+      <c r="AL4" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="43" t="s">
+      <c r="AM4" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="43" t="s">
+      <c r="AN4" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="43" t="s">
+      <c r="AO4" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="43" t="s">
+      <c r="AQ4" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AR4" s="48" t="s">
+      <c r="AR4" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="48" t="s">
+      <c r="AS4" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="48" t="s">
+      <c r="AT4" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="48" t="s">
+      <c r="AU4" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="48" t="s">
+      <c r="AV4" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="48" t="s">
+      <c r="AW4" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="48" t="s">
+      <c r="AX4" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="48" t="s">
+      <c r="AY4" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="48" t="s">
+      <c r="AZ4" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="48" t="s">
+      <c r="BA4" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="48" t="s">
+      <c r="BB4" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="48" t="s">
+      <c r="BC4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="48" t="s">
+      <c r="BD4" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="BE4" s="48" t="s">
+      <c r="BE4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="BF4" s="48" t="s">
+      <c r="BF4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="48" t="s">
+      <c r="BG4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="48" t="s">
+      <c r="BH4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="BJ4" s="48" t="s">
+      <c r="BJ4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="BK4" s="48" t="s">
+      <c r="BK4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="48" t="s">
+      <c r="BL4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="48" t="s">
+      <c r="BM4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="BN4" s="48" t="s">
+      <c r="BN4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="BO4" s="48" t="s">
+      <c r="BO4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="48" t="s">
+      <c r="BP4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="BQ4" s="48" t="s">
+      <c r="BQ4" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="BR4" s="48" t="s">
+      <c r="BR4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="BS4" s="48" t="s">
+      <c r="BS4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="BT4" s="48" t="s">
+      <c r="BT4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="BU4" s="48" t="s">
+      <c r="BU4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="BV4" s="48" t="s">
+      <c r="BV4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="48" t="s">
+      <c r="BW4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="48" t="s">
+      <c r="BX4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="48" t="s">
+      <c r="BY4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="48" t="s">
+      <c r="BZ4" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="48" t="s">
+      <c r="CA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="48" t="s">
+      <c r="CB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="48" t="s">
+      <c r="CC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="48" t="s">
+      <c r="CD4" s="33" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
-      <c r="BV5" s="48"/>
-      <c r="BW5" s="48"/>
-      <c r="BX5" s="48"/>
-      <c r="BY5" s="48"/>
-      <c r="BZ5" s="48"/>
-      <c r="CA5" s="48"/>
-      <c r="CB5" s="48"/>
-      <c r="CC5" s="48"/>
-      <c r="CD5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
     </row>
     <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -5324,7 +5324,9 @@
       <c r="BT6" s="8">
         <v>137</v>
       </c>
-      <c r="BU6" s="8"/>
+      <c r="BU6" s="8">
+        <v>116</v>
+      </c>
       <c r="BV6" s="8"/>
       <c r="BW6" s="8"/>
       <c r="BX6" s="8"/>
@@ -5549,7 +5551,9 @@
       <c r="BT7" s="8">
         <v>1</v>
       </c>
-      <c r="BU7" s="8"/>
+      <c r="BU7" s="8">
+        <v>1</v>
+      </c>
       <c r="BV7" s="8"/>
       <c r="BW7" s="8"/>
       <c r="BX7" s="8"/>
@@ -5774,7 +5778,9 @@
       <c r="BT8" s="8">
         <v>7</v>
       </c>
-      <c r="BU8" s="8"/>
+      <c r="BU8" s="8">
+        <v>5</v>
+      </c>
       <c r="BV8" s="8"/>
       <c r="BW8" s="8"/>
       <c r="BX8" s="8"/>
@@ -6000,7 +6006,9 @@
       <c r="BT9" s="8">
         <v>67</v>
       </c>
-      <c r="BU9" s="8"/>
+      <c r="BU9" s="8">
+        <v>44</v>
+      </c>
       <c r="BV9" s="8"/>
       <c r="BW9" s="8"/>
       <c r="BX9" s="8"/>
@@ -6225,7 +6233,9 @@
       <c r="BT10" s="8">
         <v>0</v>
       </c>
-      <c r="BU10" s="8"/>
+      <c r="BU10" s="8">
+        <v>0</v>
+      </c>
       <c r="BV10" s="8"/>
       <c r="BW10" s="8"/>
       <c r="BX10" s="8"/>
@@ -6450,7 +6460,9 @@
       <c r="BT11" s="8">
         <v>7</v>
       </c>
-      <c r="BU11" s="8"/>
+      <c r="BU11" s="8">
+        <v>9</v>
+      </c>
       <c r="BV11" s="8"/>
       <c r="BW11" s="8"/>
       <c r="BX11" s="8"/>
@@ -6675,7 +6687,9 @@
       <c r="BT12" s="8">
         <v>2</v>
       </c>
-      <c r="BU12" s="8"/>
+      <c r="BU12" s="8">
+        <v>4</v>
+      </c>
       <c r="BV12" s="8"/>
       <c r="BW12" s="8"/>
       <c r="BX12" s="8"/>
@@ -6900,7 +6914,9 @@
       <c r="BT13" s="8">
         <v>10</v>
       </c>
-      <c r="BU13" s="8"/>
+      <c r="BU13" s="8">
+        <v>18</v>
+      </c>
       <c r="BV13" s="8"/>
       <c r="BW13" s="8"/>
       <c r="BX13" s="8"/>
@@ -7125,7 +7141,9 @@
       <c r="BT14" s="8">
         <v>6</v>
       </c>
-      <c r="BU14" s="8"/>
+      <c r="BU14" s="8">
+        <v>4</v>
+      </c>
       <c r="BV14" s="8"/>
       <c r="BW14" s="8"/>
       <c r="BX14" s="8"/>
@@ -7350,7 +7368,9 @@
       <c r="BT15" s="8">
         <v>1</v>
       </c>
-      <c r="BU15" s="8"/>
+      <c r="BU15" s="8">
+        <v>0</v>
+      </c>
       <c r="BV15" s="8"/>
       <c r="BW15" s="8"/>
       <c r="BX15" s="8"/>
@@ -7576,7 +7596,9 @@
       <c r="BT16" s="8">
         <v>63</v>
       </c>
-      <c r="BU16" s="8"/>
+      <c r="BU16" s="8">
+        <v>57</v>
+      </c>
       <c r="BV16" s="8"/>
       <c r="BW16" s="8"/>
       <c r="BX16" s="8"/>
@@ -7801,7 +7823,9 @@
       <c r="BT17" s="8">
         <v>85</v>
       </c>
-      <c r="BU17" s="8"/>
+      <c r="BU17" s="8">
+        <v>76</v>
+      </c>
       <c r="BV17" s="8"/>
       <c r="BW17" s="8"/>
       <c r="BX17" s="8"/>
@@ -8027,7 +8051,9 @@
       <c r="BT18" s="8">
         <v>1121</v>
       </c>
-      <c r="BU18" s="8"/>
+      <c r="BU18" s="8">
+        <v>1292</v>
+      </c>
       <c r="BV18" s="8"/>
       <c r="BW18" s="8"/>
       <c r="BX18" s="8"/>
@@ -8040,7 +8066,7 @@
     </row>
     <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -8253,7 +8279,9 @@
       <c r="BT19" s="8">
         <v>29</v>
       </c>
-      <c r="BU19" s="8"/>
+      <c r="BU19" s="8">
+        <v>47</v>
+      </c>
       <c r="BV19" s="8"/>
       <c r="BW19" s="8"/>
       <c r="BX19" s="8"/>
@@ -8266,7 +8294,7 @@
     </row>
     <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -8477,7 +8505,9 @@
       <c r="BT20" s="8">
         <v>135</v>
       </c>
-      <c r="BU20" s="8"/>
+      <c r="BU20" s="8">
+        <v>160</v>
+      </c>
       <c r="BV20" s="8"/>
       <c r="BW20" s="8"/>
       <c r="BX20" s="8"/>
@@ -8490,7 +8520,7 @@
     </row>
     <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -8701,7 +8731,9 @@
       <c r="BT21" s="8">
         <v>20</v>
       </c>
-      <c r="BU21" s="8"/>
+      <c r="BU21" s="8">
+        <v>26</v>
+      </c>
       <c r="BV21" s="8"/>
       <c r="BW21" s="8"/>
       <c r="BX21" s="8"/>
@@ -8926,7 +8958,9 @@
       <c r="BT22" s="8">
         <v>9</v>
       </c>
-      <c r="BU22" s="8"/>
+      <c r="BU22" s="8">
+        <v>7</v>
+      </c>
       <c r="BV22" s="8"/>
       <c r="BW22" s="8"/>
       <c r="BX22" s="8"/>
@@ -9151,7 +9185,9 @@
       <c r="BT23" s="8">
         <v>1</v>
       </c>
-      <c r="BU23" s="8"/>
+      <c r="BU23" s="8">
+        <v>0</v>
+      </c>
       <c r="BV23" s="8"/>
       <c r="BW23" s="8"/>
       <c r="BX23" s="8"/>
@@ -9376,7 +9412,9 @@
       <c r="BT24" s="8">
         <v>8</v>
       </c>
-      <c r="BU24" s="8"/>
+      <c r="BU24" s="8">
+        <v>7</v>
+      </c>
       <c r="BV24" s="8"/>
       <c r="BW24" s="8"/>
       <c r="BX24" s="8"/>
@@ -9601,7 +9639,9 @@
       <c r="BT25" s="8">
         <v>0</v>
       </c>
-      <c r="BU25" s="8"/>
+      <c r="BU25" s="8">
+        <v>0</v>
+      </c>
       <c r="BV25" s="8"/>
       <c r="BW25" s="8"/>
       <c r="BX25" s="8"/>
@@ -9826,7 +9866,9 @@
       <c r="BT26" s="8">
         <v>5</v>
       </c>
-      <c r="BU26" s="8"/>
+      <c r="BU26" s="8">
+        <v>9</v>
+      </c>
       <c r="BV26" s="8"/>
       <c r="BW26" s="8"/>
       <c r="BX26" s="8"/>
@@ -10051,7 +10093,9 @@
       <c r="BT27" s="8">
         <v>1</v>
       </c>
-      <c r="BU27" s="8"/>
+      <c r="BU27" s="8">
+        <v>0</v>
+      </c>
       <c r="BV27" s="8"/>
       <c r="BW27" s="8"/>
       <c r="BX27" s="8"/>
@@ -10276,7 +10320,9 @@
       <c r="BT28" s="8">
         <v>1</v>
       </c>
-      <c r="BU28" s="8"/>
+      <c r="BU28" s="8">
+        <v>0</v>
+      </c>
       <c r="BV28" s="8"/>
       <c r="BW28" s="8"/>
       <c r="BX28" s="8"/>
@@ -10288,7 +10334,7 @@
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -10501,7 +10547,9 @@
       <c r="BT29" s="8">
         <v>4</v>
       </c>
-      <c r="BU29" s="8"/>
+      <c r="BU29" s="8">
+        <v>0</v>
+      </c>
       <c r="BV29" s="8"/>
       <c r="BW29" s="8"/>
       <c r="BX29" s="8"/>
@@ -10513,7 +10561,7 @@
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -10724,7 +10772,9 @@
       <c r="BT30" s="8">
         <v>3</v>
       </c>
-      <c r="BU30" s="8"/>
+      <c r="BU30" s="8">
+        <v>4</v>
+      </c>
       <c r="BV30" s="8"/>
       <c r="BW30" s="8"/>
       <c r="BX30" s="8"/>
@@ -10950,7 +11000,9 @@
       <c r="BT31" s="8">
         <v>16</v>
       </c>
-      <c r="BU31" s="8"/>
+      <c r="BU31" s="8">
+        <v>19</v>
+      </c>
       <c r="BV31" s="8"/>
       <c r="BW31" s="8"/>
       <c r="BX31" s="8"/>
@@ -11175,7 +11227,9 @@
       <c r="BT32" s="8">
         <v>2</v>
       </c>
-      <c r="BU32" s="8"/>
+      <c r="BU32" s="8">
+        <v>0</v>
+      </c>
       <c r="BV32" s="8"/>
       <c r="BW32" s="8"/>
       <c r="BX32" s="8"/>
@@ -11400,7 +11454,9 @@
       <c r="BT33" s="8">
         <v>0</v>
       </c>
-      <c r="BU33" s="8"/>
+      <c r="BU33" s="8">
+        <v>1</v>
+      </c>
       <c r="BV33" s="8"/>
       <c r="BW33" s="8"/>
       <c r="BX33" s="8"/>
@@ -11626,7 +11682,9 @@
       <c r="BT34" s="8">
         <v>29</v>
       </c>
-      <c r="BU34" s="8"/>
+      <c r="BU34" s="8">
+        <v>31</v>
+      </c>
       <c r="BV34" s="8"/>
       <c r="BW34" s="8"/>
       <c r="BX34" s="8"/>
@@ -11639,7 +11697,7 @@
     </row>
     <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -11852,7 +11910,9 @@
       <c r="BT35" s="8">
         <v>255</v>
       </c>
-      <c r="BU35" s="8"/>
+      <c r="BU35" s="8">
+        <v>235</v>
+      </c>
       <c r="BV35" s="8"/>
       <c r="BW35" s="8"/>
       <c r="BX35" s="8"/>
@@ -11864,7 +11924,7 @@
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -12075,7 +12135,9 @@
       <c r="BT36" s="8">
         <v>10</v>
       </c>
-      <c r="BU36" s="8"/>
+      <c r="BU36" s="8">
+        <v>16</v>
+      </c>
       <c r="BV36" s="8"/>
       <c r="BW36" s="8"/>
       <c r="BX36" s="8"/>
@@ -12301,7 +12363,9 @@
       <c r="BT37" s="8">
         <v>29</v>
       </c>
-      <c r="BU37" s="8"/>
+      <c r="BU37" s="8">
+        <v>15</v>
+      </c>
       <c r="BV37" s="8"/>
       <c r="BW37" s="8"/>
       <c r="BX37" s="8"/>
@@ -12526,7 +12590,9 @@
       <c r="BT38" s="8">
         <v>2</v>
       </c>
-      <c r="BU38" s="8"/>
+      <c r="BU38" s="8">
+        <v>5</v>
+      </c>
       <c r="BV38" s="8"/>
       <c r="BW38" s="8"/>
       <c r="BX38" s="8"/>
@@ -12751,7 +12817,9 @@
       <c r="BT39" s="8">
         <v>6</v>
       </c>
-      <c r="BU39" s="8"/>
+      <c r="BU39" s="8">
+        <v>3</v>
+      </c>
       <c r="BV39" s="8"/>
       <c r="BW39" s="8"/>
       <c r="BX39" s="8"/>
@@ -12976,7 +13044,9 @@
       <c r="BT40" s="8">
         <v>0</v>
       </c>
-      <c r="BU40" s="8"/>
+      <c r="BU40" s="8">
+        <v>0</v>
+      </c>
       <c r="BV40" s="8"/>
       <c r="BW40" s="8"/>
       <c r="BX40" s="8"/>
@@ -13201,7 +13271,9 @@
       <c r="BT41" s="8">
         <v>0</v>
       </c>
-      <c r="BU41" s="8"/>
+      <c r="BU41" s="8">
+        <v>0</v>
+      </c>
       <c r="BV41" s="8"/>
       <c r="BW41" s="8"/>
       <c r="BX41" s="8"/>
@@ -13426,7 +13498,9 @@
       <c r="BT42" s="8">
         <v>5</v>
       </c>
-      <c r="BU42" s="8"/>
+      <c r="BU42" s="8">
+        <v>10</v>
+      </c>
       <c r="BV42" s="8"/>
       <c r="BW42" s="8"/>
       <c r="BX42" s="8"/>
@@ -13651,7 +13725,9 @@
       <c r="BT43" s="8">
         <v>40</v>
       </c>
-      <c r="BU43" s="8"/>
+      <c r="BU43" s="8">
+        <v>50</v>
+      </c>
       <c r="BV43" s="8"/>
       <c r="BW43" s="8"/>
       <c r="BX43" s="8"/>
@@ -13876,7 +13952,9 @@
       <c r="BT44" s="8">
         <v>0</v>
       </c>
-      <c r="BU44" s="8"/>
+      <c r="BU44" s="8">
+        <v>3</v>
+      </c>
       <c r="BV44" s="8"/>
       <c r="BW44" s="8"/>
       <c r="BX44" s="8"/>
@@ -14101,7 +14179,9 @@
       <c r="BT45" s="8">
         <v>6</v>
       </c>
-      <c r="BU45" s="8"/>
+      <c r="BU45" s="8">
+        <v>14</v>
+      </c>
       <c r="BV45" s="8"/>
       <c r="BW45" s="8"/>
       <c r="BX45" s="8"/>
@@ -14326,7 +14406,9 @@
       <c r="BT46" s="8">
         <v>12</v>
       </c>
-      <c r="BU46" s="8"/>
+      <c r="BU46" s="8">
+        <v>12</v>
+      </c>
       <c r="BV46" s="8"/>
       <c r="BW46" s="8"/>
       <c r="BX46" s="8"/>
@@ -14551,7 +14633,9 @@
       <c r="BT47" s="8">
         <v>1</v>
       </c>
-      <c r="BU47" s="8"/>
+      <c r="BU47" s="8">
+        <v>2</v>
+      </c>
       <c r="BV47" s="8"/>
       <c r="BW47" s="8"/>
       <c r="BX47" s="8"/>
@@ -14776,7 +14860,9 @@
       <c r="BT48" s="8">
         <v>8</v>
       </c>
-      <c r="BU48" s="8"/>
+      <c r="BU48" s="8">
+        <v>7</v>
+      </c>
       <c r="BV48" s="8"/>
       <c r="BW48" s="8"/>
       <c r="BX48" s="8"/>
@@ -14789,7 +14875,7 @@
     </row>
     <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -15002,7 +15088,9 @@
       <c r="BT49" s="8">
         <v>17</v>
       </c>
-      <c r="BU49" s="8"/>
+      <c r="BU49" s="8">
+        <v>19</v>
+      </c>
       <c r="BV49" s="8"/>
       <c r="BW49" s="8"/>
       <c r="BX49" s="8"/>
@@ -15014,7 +15102,7 @@
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -15225,7 +15313,9 @@
       <c r="BT50" s="8">
         <v>7</v>
       </c>
-      <c r="BU50" s="8"/>
+      <c r="BU50" s="8">
+        <v>7</v>
+      </c>
       <c r="BV50" s="8"/>
       <c r="BW50" s="8"/>
       <c r="BX50" s="8"/>
@@ -15450,7 +15540,9 @@
       <c r="BT51" s="8">
         <v>1</v>
       </c>
-      <c r="BU51" s="8"/>
+      <c r="BU51" s="8">
+        <v>2</v>
+      </c>
       <c r="BV51" s="8"/>
       <c r="BW51" s="8"/>
       <c r="BX51" s="8"/>
@@ -15675,7 +15767,9 @@
       <c r="BT52" s="8">
         <v>7</v>
       </c>
-      <c r="BU52" s="8"/>
+      <c r="BU52" s="8">
+        <v>12</v>
+      </c>
       <c r="BV52" s="8"/>
       <c r="BW52" s="8"/>
       <c r="BX52" s="8"/>
@@ -15900,7 +15994,9 @@
       <c r="BT53" s="8">
         <v>9</v>
       </c>
-      <c r="BU53" s="8"/>
+      <c r="BU53" s="8">
+        <v>17</v>
+      </c>
       <c r="BV53" s="8"/>
       <c r="BW53" s="8"/>
       <c r="BX53" s="8"/>
@@ -16125,7 +16221,9 @@
       <c r="BT54" s="8">
         <v>7</v>
       </c>
-      <c r="BU54" s="8"/>
+      <c r="BU54" s="8">
+        <v>4</v>
+      </c>
       <c r="BV54" s="8"/>
       <c r="BW54" s="8"/>
       <c r="BX54" s="8"/>
@@ -16350,7 +16448,9 @@
       <c r="BT55" s="8">
         <v>10</v>
       </c>
-      <c r="BU55" s="8"/>
+      <c r="BU55" s="8">
+        <v>4</v>
+      </c>
       <c r="BV55" s="8"/>
       <c r="BW55" s="8"/>
       <c r="BX55" s="8"/>
@@ -16575,7 +16675,9 @@
       <c r="BT56" s="8">
         <v>0</v>
       </c>
-      <c r="BU56" s="8"/>
+      <c r="BU56" s="8">
+        <v>2</v>
+      </c>
       <c r="BV56" s="8"/>
       <c r="BW56" s="8"/>
       <c r="BX56" s="8"/>
@@ -16800,7 +16902,9 @@
       <c r="BT57" s="8">
         <v>0</v>
       </c>
-      <c r="BU57" s="8"/>
+      <c r="BU57" s="8">
+        <v>0</v>
+      </c>
       <c r="BV57" s="8"/>
       <c r="BW57" s="8"/>
       <c r="BX57" s="8"/>
@@ -17093,11 +17197,11 @@
         <v>2202</v>
       </c>
       <c r="BU58" s="14">
-        <f t="shared" ref="BU58:CC58" si="3">SUM(BU6:BU57)</f>
-        <v>0</v>
+        <f>SUM(BU6:BU57)</f>
+        <v>2376</v>
       </c>
       <c r="BV58" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="BV58:CC58" si="3">SUM(BV6:BV57)</f>
         <v>0</v>
       </c>
       <c r="BW58" s="14">
@@ -17304,26 +17408,26 @@
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -17386,6 +17490,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D61:W61"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="BO4:BO5"/>
@@ -17402,83 +17583,6 @@
     <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D61:W61"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17494,11 +17598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="BQ53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BU61" sqref="BU61"/>
+      <selection pane="bottomRight" activeCell="BU64" sqref="BU64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17512,519 +17616,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:82" ht="24" x14ac:dyDescent="0.4">
-      <c r="BB1" s="52" t="s">
+      <c r="BB1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="52"/>
+      <c r="BC1" s="49"/>
       <c r="BI1" s="20"/>
-      <c r="CC1" s="52" t="s">
+      <c r="CC1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="CD1" s="52"/>
+      <c r="CD1" s="49"/>
     </row>
     <row r="2" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="46"/>
-      <c r="CC2" s="46"/>
-      <c r="CD2" s="46"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
     </row>
     <row r="3" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47" t="s">
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
     </row>
     <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="49" t="s">
+      <c r="V4" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="49" t="s">
+      <c r="W4" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="49" t="s">
+      <c r="X4" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="49" t="s">
+      <c r="Y4" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="49" t="s">
+      <c r="Z4" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="AA4" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AB4" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="49" t="s">
+      <c r="AC4" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="49" t="s">
+      <c r="AD4" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="49" t="s">
+      <c r="AE4" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="49" t="s">
+      <c r="AF4" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="49" t="s">
+      <c r="AG4" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="49" t="s">
+      <c r="AH4" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="49" t="s">
+      <c r="AI4" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="49" t="s">
+      <c r="AJ4" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="49" t="s">
+      <c r="AK4" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="49" t="s">
+      <c r="AL4" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="49" t="s">
+      <c r="AM4" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="49" t="s">
+      <c r="AN4" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="49" t="s">
+      <c r="AO4" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="49" t="s">
+      <c r="AP4" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="49" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="49" t="s">
+      <c r="AR4" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="49" t="s">
+      <c r="AS4" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="49" t="s">
+      <c r="AT4" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="49" t="s">
+      <c r="AU4" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="49" t="s">
+      <c r="AV4" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="49" t="s">
+      <c r="AW4" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="49" t="s">
+      <c r="AX4" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="49" t="s">
+      <c r="AY4" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="49" t="s">
+      <c r="AZ4" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="49" t="s">
+      <c r="BA4" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="49" t="s">
+      <c r="BB4" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="49" t="s">
+      <c r="BC4" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="43" t="s">
+      <c r="BD4" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="43" t="s">
+      <c r="BE4" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" s="43" t="s">
+      <c r="BF4" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="BG4" s="43" t="s">
+      <c r="BG4" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" s="43" t="s">
+      <c r="BH4" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="BI4" s="43" t="s">
+      <c r="BI4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="43" t="s">
+      <c r="BJ4" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="43" t="s">
+      <c r="BK4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="43" t="s">
+      <c r="BL4" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="43" t="s">
+      <c r="BM4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="43" t="s">
+      <c r="BN4" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="43" t="s">
+      <c r="BO4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="51" t="s">
+      <c r="BP4" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="BQ4" s="51" t="s">
+      <c r="BQ4" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="BR4" s="51" t="s">
+      <c r="BR4" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="BS4" s="51" t="s">
+      <c r="BS4" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="BT4" s="51" t="s">
+      <c r="BT4" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="BU4" s="51" t="s">
+      <c r="BU4" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="BV4" s="51" t="s">
+      <c r="BV4" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="BW4" s="51" t="s">
+      <c r="BW4" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="BX4" s="51" t="s">
+      <c r="BX4" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="BY4" s="51" t="s">
+      <c r="BY4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="BZ4" s="51" t="s">
+      <c r="BZ4" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="CA4" s="51" t="s">
+      <c r="CA4" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="CB4" s="51" t="s">
+      <c r="CB4" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="CC4" s="51" t="s">
+      <c r="CC4" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="CD4" s="43" t="s">
+      <c r="CD4" s="31" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:82" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="44"/>
-      <c r="BW5" s="44"/>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
     </row>
     <row r="6" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
@@ -18240,7 +18344,9 @@
       <c r="BT6" s="8">
         <v>48</v>
       </c>
-      <c r="BU6" s="8"/>
+      <c r="BU6" s="8">
+        <v>49</v>
+      </c>
       <c r="BV6" s="8"/>
       <c r="BW6" s="8"/>
       <c r="BX6" s="8"/>
@@ -18465,7 +18571,9 @@
       <c r="BT7" s="8">
         <v>2</v>
       </c>
-      <c r="BU7" s="8"/>
+      <c r="BU7" s="8">
+        <v>2</v>
+      </c>
       <c r="BV7" s="8"/>
       <c r="BW7" s="8"/>
       <c r="BX7" s="8"/>
@@ -18690,7 +18798,9 @@
       <c r="BT8" s="8">
         <v>1</v>
       </c>
-      <c r="BU8" s="8"/>
+      <c r="BU8" s="8">
+        <v>5</v>
+      </c>
       <c r="BV8" s="8"/>
       <c r="BW8" s="8"/>
       <c r="BX8" s="8"/>
@@ -18915,7 +19025,9 @@
       <c r="BT9" s="8">
         <v>32</v>
       </c>
-      <c r="BU9" s="8"/>
+      <c r="BU9" s="8">
+        <v>24</v>
+      </c>
       <c r="BV9" s="8"/>
       <c r="BW9" s="8"/>
       <c r="BX9" s="8"/>
@@ -19140,7 +19252,9 @@
       <c r="BT10" s="8">
         <v>0</v>
       </c>
-      <c r="BU10" s="8"/>
+      <c r="BU10" s="8">
+        <v>0</v>
+      </c>
       <c r="BV10" s="8"/>
       <c r="BW10" s="8"/>
       <c r="BX10" s="8"/>
@@ -19365,7 +19479,9 @@
       <c r="BT11" s="8">
         <v>4</v>
       </c>
-      <c r="BU11" s="8"/>
+      <c r="BU11" s="8">
+        <v>4</v>
+      </c>
       <c r="BV11" s="8"/>
       <c r="BW11" s="8"/>
       <c r="BX11" s="8"/>
@@ -19590,7 +19706,9 @@
       <c r="BT12" s="8">
         <v>1</v>
       </c>
-      <c r="BU12" s="8"/>
+      <c r="BU12" s="8">
+        <v>1</v>
+      </c>
       <c r="BV12" s="8"/>
       <c r="BW12" s="8"/>
       <c r="BX12" s="8"/>
@@ -19815,7 +19933,9 @@
       <c r="BT13" s="8">
         <v>22</v>
       </c>
-      <c r="BU13" s="8"/>
+      <c r="BU13" s="8">
+        <v>12</v>
+      </c>
       <c r="BV13" s="8"/>
       <c r="BW13" s="8"/>
       <c r="BX13" s="8"/>
@@ -20040,7 +20160,9 @@
       <c r="BT14" s="8">
         <v>5</v>
       </c>
-      <c r="BU14" s="8"/>
+      <c r="BU14" s="8">
+        <v>4</v>
+      </c>
       <c r="BV14" s="8"/>
       <c r="BW14" s="8"/>
       <c r="BX14" s="8"/>
@@ -20265,7 +20387,9 @@
       <c r="BT15" s="8">
         <v>0</v>
       </c>
-      <c r="BU15" s="8"/>
+      <c r="BU15" s="8">
+        <v>0</v>
+      </c>
       <c r="BV15" s="8"/>
       <c r="BW15" s="8"/>
       <c r="BX15" s="8"/>
@@ -20490,7 +20614,9 @@
       <c r="BT16" s="8">
         <v>43</v>
       </c>
-      <c r="BU16" s="8"/>
+      <c r="BU16" s="8">
+        <v>40</v>
+      </c>
       <c r="BV16" s="8"/>
       <c r="BW16" s="8"/>
       <c r="BX16" s="8"/>
@@ -20715,7 +20841,9 @@
       <c r="BT17" s="8">
         <v>79</v>
       </c>
-      <c r="BU17" s="8"/>
+      <c r="BU17" s="8">
+        <v>73</v>
+      </c>
       <c r="BV17" s="8"/>
       <c r="BW17" s="8"/>
       <c r="BX17" s="8"/>
@@ -20940,7 +21068,9 @@
       <c r="BT18" s="8">
         <v>644</v>
       </c>
-      <c r="BU18" s="8"/>
+      <c r="BU18" s="8">
+        <v>497</v>
+      </c>
       <c r="BV18" s="8"/>
       <c r="BW18" s="8"/>
       <c r="BX18" s="8"/>
@@ -20952,7 +21082,7 @@
       <c r="CD18" s="8"/>
     </row>
     <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -21165,7 +21295,9 @@
       <c r="BT19" s="8">
         <v>12</v>
       </c>
-      <c r="BU19" s="8"/>
+      <c r="BU19" s="8">
+        <v>16</v>
+      </c>
       <c r="BV19" s="8"/>
       <c r="BW19" s="8"/>
       <c r="BX19" s="8"/>
@@ -21177,7 +21309,7 @@
       <c r="CD19" s="8"/>
     </row>
     <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -21388,7 +21520,9 @@
       <c r="BT20" s="8">
         <v>90</v>
       </c>
-      <c r="BU20" s="8"/>
+      <c r="BU20" s="8">
+        <v>45</v>
+      </c>
       <c r="BV20" s="8"/>
       <c r="BW20" s="8"/>
       <c r="BX20" s="8"/>
@@ -21400,7 +21534,7 @@
       <c r="CD20" s="8"/>
     </row>
     <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -21611,7 +21745,9 @@
       <c r="BT21" s="8">
         <v>6</v>
       </c>
-      <c r="BU21" s="8"/>
+      <c r="BU21" s="8">
+        <v>12</v>
+      </c>
       <c r="BV21" s="8"/>
       <c r="BW21" s="8"/>
       <c r="BX21" s="8"/>
@@ -21836,7 +21972,9 @@
       <c r="BT22" s="8">
         <v>14</v>
       </c>
-      <c r="BU22" s="8"/>
+      <c r="BU22" s="8">
+        <v>9</v>
+      </c>
       <c r="BV22" s="8"/>
       <c r="BW22" s="8"/>
       <c r="BX22" s="8"/>
@@ -22061,7 +22199,9 @@
       <c r="BT23" s="8">
         <v>0</v>
       </c>
-      <c r="BU23" s="8"/>
+      <c r="BU23" s="8">
+        <v>0</v>
+      </c>
       <c r="BV23" s="8"/>
       <c r="BW23" s="8"/>
       <c r="BX23" s="8"/>
@@ -22286,7 +22426,9 @@
       <c r="BT24" s="8">
         <v>5</v>
       </c>
-      <c r="BU24" s="8"/>
+      <c r="BU24" s="8">
+        <v>4</v>
+      </c>
       <c r="BV24" s="8"/>
       <c r="BW24" s="8"/>
       <c r="BX24" s="8"/>
@@ -22511,7 +22653,9 @@
       <c r="BT25" s="8">
         <v>0</v>
       </c>
-      <c r="BU25" s="8"/>
+      <c r="BU25" s="8">
+        <v>0</v>
+      </c>
       <c r="BV25" s="8"/>
       <c r="BW25" s="8"/>
       <c r="BX25" s="8"/>
@@ -22736,7 +22880,9 @@
       <c r="BT26" s="8">
         <v>4</v>
       </c>
-      <c r="BU26" s="8"/>
+      <c r="BU26" s="8">
+        <v>5</v>
+      </c>
       <c r="BV26" s="8"/>
       <c r="BW26" s="8"/>
       <c r="BX26" s="8"/>
@@ -22961,7 +23107,9 @@
       <c r="BT27" s="8">
         <v>0</v>
       </c>
-      <c r="BU27" s="8"/>
+      <c r="BU27" s="8">
+        <v>1</v>
+      </c>
       <c r="BV27" s="8"/>
       <c r="BW27" s="8"/>
       <c r="BX27" s="8"/>
@@ -23186,7 +23334,9 @@
       <c r="BT28" s="8">
         <v>0</v>
       </c>
-      <c r="BU28" s="8"/>
+      <c r="BU28" s="8">
+        <v>0</v>
+      </c>
       <c r="BV28" s="8"/>
       <c r="BW28" s="8"/>
       <c r="BX28" s="8"/>
@@ -23198,7 +23348,7 @@
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -23411,7 +23561,9 @@
       <c r="BT29" s="8">
         <v>2</v>
       </c>
-      <c r="BU29" s="8"/>
+      <c r="BU29" s="8">
+        <v>0</v>
+      </c>
       <c r="BV29" s="8"/>
       <c r="BW29" s="8"/>
       <c r="BX29" s="8"/>
@@ -23423,7 +23575,7 @@
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -23634,7 +23786,9 @@
       <c r="BT30" s="8">
         <v>4</v>
       </c>
-      <c r="BU30" s="8"/>
+      <c r="BU30" s="8">
+        <v>1</v>
+      </c>
       <c r="BV30" s="8"/>
       <c r="BW30" s="8"/>
       <c r="BX30" s="8"/>
@@ -23859,7 +24013,9 @@
       <c r="BT31" s="8">
         <v>10</v>
       </c>
-      <c r="BU31" s="8"/>
+      <c r="BU31" s="8">
+        <v>14</v>
+      </c>
       <c r="BV31" s="8"/>
       <c r="BW31" s="8"/>
       <c r="BX31" s="8"/>
@@ -24084,7 +24240,9 @@
       <c r="BT32" s="8">
         <v>0</v>
       </c>
-      <c r="BU32" s="8"/>
+      <c r="BU32" s="8">
+        <v>1</v>
+      </c>
       <c r="BV32" s="8"/>
       <c r="BW32" s="8"/>
       <c r="BX32" s="8"/>
@@ -24309,7 +24467,9 @@
       <c r="BT33" s="8">
         <v>0</v>
       </c>
-      <c r="BU33" s="8"/>
+      <c r="BU33" s="8">
+        <v>0</v>
+      </c>
       <c r="BV33" s="8"/>
       <c r="BW33" s="8"/>
       <c r="BX33" s="8"/>
@@ -24534,7 +24694,9 @@
       <c r="BT34" s="8">
         <v>18</v>
       </c>
-      <c r="BU34" s="8"/>
+      <c r="BU34" s="8">
+        <v>13</v>
+      </c>
       <c r="BV34" s="8"/>
       <c r="BW34" s="8"/>
       <c r="BX34" s="8"/>
@@ -24546,7 +24708,7 @@
       <c r="CD34" s="8"/>
     </row>
     <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -24759,7 +24921,9 @@
       <c r="BT35" s="8">
         <v>181</v>
       </c>
-      <c r="BU35" s="8"/>
+      <c r="BU35" s="8">
+        <v>213</v>
+      </c>
       <c r="BV35" s="8"/>
       <c r="BW35" s="8"/>
       <c r="BX35" s="8"/>
@@ -24771,7 +24935,7 @@
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -24982,7 +25146,9 @@
       <c r="BT36" s="8">
         <v>14</v>
       </c>
-      <c r="BU36" s="8"/>
+      <c r="BU36" s="8">
+        <v>13</v>
+      </c>
       <c r="BV36" s="8"/>
       <c r="BW36" s="8"/>
       <c r="BX36" s="8"/>
@@ -25207,7 +25373,9 @@
       <c r="BT37" s="8">
         <v>17</v>
       </c>
-      <c r="BU37" s="8"/>
+      <c r="BU37" s="8">
+        <v>7</v>
+      </c>
       <c r="BV37" s="8"/>
       <c r="BW37" s="8"/>
       <c r="BX37" s="8"/>
@@ -25432,7 +25600,9 @@
       <c r="BT38" s="8">
         <v>5</v>
       </c>
-      <c r="BU38" s="8"/>
+      <c r="BU38" s="8">
+        <v>6</v>
+      </c>
       <c r="BV38" s="8"/>
       <c r="BW38" s="8"/>
       <c r="BX38" s="8"/>
@@ -25657,7 +25827,9 @@
       <c r="BT39" s="8">
         <v>1</v>
       </c>
-      <c r="BU39" s="8"/>
+      <c r="BU39" s="8">
+        <v>3</v>
+      </c>
       <c r="BV39" s="8"/>
       <c r="BW39" s="8"/>
       <c r="BX39" s="8"/>
@@ -25882,7 +26054,9 @@
       <c r="BT40" s="8">
         <v>0</v>
       </c>
-      <c r="BU40" s="8"/>
+      <c r="BU40" s="8">
+        <v>0</v>
+      </c>
       <c r="BV40" s="8"/>
       <c r="BW40" s="8"/>
       <c r="BX40" s="8"/>
@@ -26107,7 +26281,9 @@
       <c r="BT41" s="8">
         <v>0</v>
       </c>
-      <c r="BU41" s="8"/>
+      <c r="BU41" s="8">
+        <v>0</v>
+      </c>
       <c r="BV41" s="8"/>
       <c r="BW41" s="8"/>
       <c r="BX41" s="8"/>
@@ -26332,7 +26508,9 @@
       <c r="BT42" s="8">
         <v>2</v>
       </c>
-      <c r="BU42" s="8"/>
+      <c r="BU42" s="8">
+        <v>2</v>
+      </c>
       <c r="BV42" s="8"/>
       <c r="BW42" s="8"/>
       <c r="BX42" s="8"/>
@@ -26557,7 +26735,9 @@
       <c r="BT43" s="8">
         <v>20</v>
       </c>
-      <c r="BU43" s="8"/>
+      <c r="BU43" s="8">
+        <v>28</v>
+      </c>
       <c r="BV43" s="8"/>
       <c r="BW43" s="8"/>
       <c r="BX43" s="8"/>
@@ -26782,7 +26962,9 @@
       <c r="BT44" s="8">
         <v>1</v>
       </c>
-      <c r="BU44" s="8"/>
+      <c r="BU44" s="8">
+        <v>5</v>
+      </c>
       <c r="BV44" s="8"/>
       <c r="BW44" s="8"/>
       <c r="BX44" s="8"/>
@@ -27007,7 +27189,9 @@
       <c r="BT45" s="8">
         <v>1</v>
       </c>
-      <c r="BU45" s="8"/>
+      <c r="BU45" s="8">
+        <v>3</v>
+      </c>
       <c r="BV45" s="8"/>
       <c r="BW45" s="8"/>
       <c r="BX45" s="8"/>
@@ -27232,7 +27416,9 @@
       <c r="BT46" s="8">
         <v>6</v>
       </c>
-      <c r="BU46" s="8"/>
+      <c r="BU46" s="8">
+        <v>1</v>
+      </c>
       <c r="BV46" s="8"/>
       <c r="BW46" s="8"/>
       <c r="BX46" s="8"/>
@@ -27457,7 +27643,9 @@
       <c r="BT47" s="8">
         <v>0</v>
       </c>
-      <c r="BU47" s="8"/>
+      <c r="BU47" s="8">
+        <v>0</v>
+      </c>
       <c r="BV47" s="8"/>
       <c r="BW47" s="8"/>
       <c r="BX47" s="8"/>
@@ -27682,7 +27870,9 @@
       <c r="BT48" s="8">
         <v>3</v>
       </c>
-      <c r="BU48" s="8"/>
+      <c r="BU48" s="8">
+        <v>7</v>
+      </c>
       <c r="BV48" s="8"/>
       <c r="BW48" s="8"/>
       <c r="BX48" s="8"/>
@@ -27694,7 +27884,7 @@
       <c r="CD48" s="8"/>
     </row>
     <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -27907,7 +28097,9 @@
       <c r="BT49" s="8">
         <v>15</v>
       </c>
-      <c r="BU49" s="8"/>
+      <c r="BU49" s="8">
+        <v>8</v>
+      </c>
       <c r="BV49" s="8"/>
       <c r="BW49" s="8"/>
       <c r="BX49" s="8"/>
@@ -27919,7 +28111,7 @@
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -28130,7 +28322,9 @@
       <c r="BT50" s="8">
         <v>0</v>
       </c>
-      <c r="BU50" s="8"/>
+      <c r="BU50" s="8">
+        <v>3</v>
+      </c>
       <c r="BV50" s="8"/>
       <c r="BW50" s="8"/>
       <c r="BX50" s="8"/>
@@ -28355,7 +28549,9 @@
       <c r="BT51" s="8">
         <v>0</v>
       </c>
-      <c r="BU51" s="8"/>
+      <c r="BU51" s="8">
+        <v>1</v>
+      </c>
       <c r="BV51" s="8"/>
       <c r="BW51" s="8"/>
       <c r="BX51" s="8"/>
@@ -28580,7 +28776,9 @@
       <c r="BT52" s="8">
         <v>4</v>
       </c>
-      <c r="BU52" s="8"/>
+      <c r="BU52" s="8">
+        <v>6</v>
+      </c>
       <c r="BV52" s="8"/>
       <c r="BW52" s="8"/>
       <c r="BX52" s="8"/>
@@ -28805,7 +29003,9 @@
       <c r="BT53" s="8">
         <v>6</v>
       </c>
-      <c r="BU53" s="8"/>
+      <c r="BU53" s="8">
+        <v>8</v>
+      </c>
       <c r="BV53" s="8"/>
       <c r="BW53" s="8"/>
       <c r="BX53" s="8"/>
@@ -29030,7 +29230,9 @@
       <c r="BT54" s="8">
         <v>5</v>
       </c>
-      <c r="BU54" s="8"/>
+      <c r="BU54" s="8">
+        <v>5</v>
+      </c>
       <c r="BV54" s="8"/>
       <c r="BW54" s="8"/>
       <c r="BX54" s="8"/>
@@ -29255,7 +29457,9 @@
       <c r="BT55" s="8">
         <v>13</v>
       </c>
-      <c r="BU55" s="8"/>
+      <c r="BU55" s="8">
+        <v>7</v>
+      </c>
       <c r="BV55" s="8"/>
       <c r="BW55" s="8"/>
       <c r="BX55" s="8"/>
@@ -29480,7 +29684,9 @@
       <c r="BT56" s="8">
         <v>4</v>
       </c>
-      <c r="BU56" s="8"/>
+      <c r="BU56" s="8">
+        <v>2</v>
+      </c>
       <c r="BV56" s="8"/>
       <c r="BW56" s="8"/>
       <c r="BX56" s="8"/>
@@ -29705,7 +29911,9 @@
       <c r="BT57" s="8">
         <v>0</v>
       </c>
-      <c r="BU57" s="8"/>
+      <c r="BU57" s="8">
+        <v>0</v>
+      </c>
       <c r="BV57" s="8"/>
       <c r="BW57" s="8"/>
       <c r="BX57" s="8"/>
@@ -29998,7 +30206,7 @@
       </c>
       <c r="BU58" s="28">
         <f t="shared" ref="BU58:CC58" si="3">SUM(BU6:BU57)</f>
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="BV58" s="28">
         <f t="shared" si="3"/>
@@ -30038,6 +30246,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="BD3:CD3"/>
     <mergeCell ref="BD2:CD2"/>
     <mergeCell ref="BB1:BC1"/>
@@ -30054,83 +30339,6 @@
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30147,10 +30355,10 @@
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA72" sqref="AA72"/>
+      <selection pane="bottomRight" activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30165,43 +30373,43 @@
   <sheetData>
     <row r="1" spans="1:60" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="59" t="s">
+      <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="60"/>
+      <c r="AD1" s="56"/>
     </row>
     <row r="2" spans="1:60" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -30230,37 +30438,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:60" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -30273,200 +30481,200 @@
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
       <c r="AP3" s="23"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
     </row>
     <row r="4" spans="1:60" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
     </row>
     <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="58"/>
-      <c r="BH5" s="58"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
     </row>
     <row r="6" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -30527,7 +30735,9 @@
       <c r="T6" s="8">
         <v>53</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="8">
+        <v>42</v>
+      </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
@@ -30622,7 +30832,9 @@
       <c r="T7" s="8">
         <v>0</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
@@ -30717,7 +30929,9 @@
       <c r="T8" s="8">
         <v>0</v>
       </c>
-      <c r="U8" s="8"/>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
@@ -30813,7 +31027,9 @@
       <c r="T9" s="8">
         <v>6</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="8">
+        <v>5</v>
+      </c>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
@@ -30908,7 +31124,9 @@
       <c r="T10" s="8">
         <v>0</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
@@ -31003,7 +31221,9 @@
       <c r="T11" s="8">
         <v>2</v>
       </c>
-      <c r="U11" s="8"/>
+      <c r="U11" s="8">
+        <v>3</v>
+      </c>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
@@ -31098,7 +31318,9 @@
       <c r="T12" s="8">
         <v>0</v>
       </c>
-      <c r="U12" s="8"/>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
@@ -31193,7 +31415,9 @@
       <c r="T13" s="8">
         <v>7</v>
       </c>
-      <c r="U13" s="8"/>
+      <c r="U13" s="8">
+        <v>8</v>
+      </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
@@ -31288,7 +31512,9 @@
       <c r="T14" s="8">
         <v>2</v>
       </c>
-      <c r="U14" s="8"/>
+      <c r="U14" s="8">
+        <v>0</v>
+      </c>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
@@ -31383,7 +31609,9 @@
       <c r="T15" s="8">
         <v>0</v>
       </c>
-      <c r="U15" s="8"/>
+      <c r="U15" s="8">
+        <v>0</v>
+      </c>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
@@ -31479,7 +31707,9 @@
       <c r="T16" s="8">
         <v>3</v>
       </c>
-      <c r="U16" s="8"/>
+      <c r="U16" s="8">
+        <v>3</v>
+      </c>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
@@ -31574,7 +31804,9 @@
       <c r="T17" s="8">
         <v>38</v>
       </c>
-      <c r="U17" s="8"/>
+      <c r="U17" s="8">
+        <v>42</v>
+      </c>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
@@ -31670,7 +31902,9 @@
       <c r="T18" s="8">
         <v>333</v>
       </c>
-      <c r="U18" s="8"/>
+      <c r="U18" s="8">
+        <v>533</v>
+      </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
@@ -31709,7 +31943,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -31766,7 +32000,9 @@
       <c r="T19" s="8">
         <v>21</v>
       </c>
-      <c r="U19" s="8"/>
+      <c r="U19" s="8">
+        <v>37</v>
+      </c>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
@@ -31805,7 +32041,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -31860,7 +32096,9 @@
       <c r="T20" s="8">
         <v>93</v>
       </c>
-      <c r="U20" s="8"/>
+      <c r="U20" s="8">
+        <v>119</v>
+      </c>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
@@ -31899,7 +32137,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -31954,7 +32192,9 @@
       <c r="T21" s="8">
         <v>8</v>
       </c>
-      <c r="U21" s="8"/>
+      <c r="U21" s="8">
+        <v>17</v>
+      </c>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
@@ -32049,7 +32289,9 @@
       <c r="T22" s="8">
         <v>4</v>
       </c>
-      <c r="U22" s="8"/>
+      <c r="U22" s="8">
+        <v>1</v>
+      </c>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
@@ -32144,7 +32386,9 @@
       <c r="T23" s="8">
         <v>0</v>
       </c>
-      <c r="U23" s="8"/>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
@@ -32239,7 +32483,9 @@
       <c r="T24" s="8">
         <v>1</v>
       </c>
-      <c r="U24" s="8"/>
+      <c r="U24" s="8">
+        <v>0</v>
+      </c>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
@@ -32334,7 +32580,9 @@
       <c r="T25" s="8">
         <v>0</v>
       </c>
-      <c r="U25" s="8"/>
+      <c r="U25" s="8">
+        <v>0</v>
+      </c>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
@@ -32429,7 +32677,9 @@
       <c r="T26" s="8">
         <v>3</v>
       </c>
-      <c r="U26" s="8"/>
+      <c r="U26" s="8">
+        <v>4</v>
+      </c>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
@@ -32524,7 +32774,9 @@
       <c r="T27" s="8">
         <v>0</v>
       </c>
-      <c r="U27" s="8"/>
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
@@ -32619,7 +32871,9 @@
       <c r="T28" s="8">
         <v>0</v>
       </c>
-      <c r="U28" s="8"/>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
@@ -32657,7 +32911,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -32714,7 +32968,9 @@
       <c r="T29" s="8">
         <v>1</v>
       </c>
-      <c r="U29" s="8"/>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
@@ -32752,7 +33008,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -32807,7 +33063,9 @@
       <c r="T30" s="8">
         <v>0</v>
       </c>
-      <c r="U30" s="8"/>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
@@ -32903,7 +33161,9 @@
       <c r="T31" s="8">
         <v>6</v>
       </c>
-      <c r="U31" s="8"/>
+      <c r="U31" s="8">
+        <v>10</v>
+      </c>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
@@ -32998,7 +33258,9 @@
       <c r="T32" s="8">
         <v>0</v>
       </c>
-      <c r="U32" s="8"/>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -33093,7 +33355,9 @@
       <c r="T33" s="8">
         <v>0</v>
       </c>
-      <c r="U33" s="8"/>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
@@ -33189,7 +33453,9 @@
       <c r="T34" s="8">
         <v>4</v>
       </c>
-      <c r="U34" s="8"/>
+      <c r="U34" s="8">
+        <v>9</v>
+      </c>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
@@ -33228,7 +33494,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -33285,7 +33551,9 @@
       <c r="T35" s="8">
         <v>55</v>
       </c>
-      <c r="U35" s="8"/>
+      <c r="U35" s="8">
+        <v>71</v>
+      </c>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
@@ -33323,7 +33591,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -33378,7 +33646,9 @@
       <c r="T36" s="8">
         <v>5</v>
       </c>
-      <c r="U36" s="8"/>
+      <c r="U36" s="8">
+        <v>8</v>
+      </c>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
@@ -33474,7 +33744,9 @@
       <c r="T37" s="8">
         <v>12</v>
       </c>
-      <c r="U37" s="8"/>
+      <c r="U37" s="8">
+        <v>5</v>
+      </c>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
@@ -33569,7 +33841,9 @@
       <c r="T38" s="8">
         <v>0</v>
       </c>
-      <c r="U38" s="8"/>
+      <c r="U38" s="8">
+        <v>0</v>
+      </c>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
@@ -33664,7 +33938,9 @@
       <c r="T39" s="8">
         <v>2</v>
       </c>
-      <c r="U39" s="8"/>
+      <c r="U39" s="8">
+        <v>1</v>
+      </c>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
@@ -33759,7 +34035,9 @@
       <c r="T40" s="8">
         <v>0</v>
       </c>
-      <c r="U40" s="8"/>
+      <c r="U40" s="8">
+        <v>0</v>
+      </c>
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
@@ -33854,7 +34132,9 @@
       <c r="T41" s="8">
         <v>0</v>
       </c>
-      <c r="U41" s="8"/>
+      <c r="U41" s="8">
+        <v>0</v>
+      </c>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
@@ -33949,7 +34229,9 @@
       <c r="T42" s="8">
         <v>2</v>
       </c>
-      <c r="U42" s="8"/>
+      <c r="U42" s="8">
+        <v>4</v>
+      </c>
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
@@ -34044,7 +34326,9 @@
       <c r="T43" s="8">
         <v>21</v>
       </c>
-      <c r="U43" s="8"/>
+      <c r="U43" s="8">
+        <v>30</v>
+      </c>
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
@@ -34139,7 +34423,9 @@
       <c r="T44" s="8">
         <v>0</v>
       </c>
-      <c r="U44" s="8"/>
+      <c r="U44" s="8">
+        <v>2</v>
+      </c>
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
@@ -34234,7 +34520,9 @@
       <c r="T45" s="8">
         <v>1</v>
       </c>
-      <c r="U45" s="8"/>
+      <c r="U45" s="8">
+        <v>3</v>
+      </c>
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
@@ -34329,7 +34617,9 @@
       <c r="T46" s="8">
         <v>2</v>
       </c>
-      <c r="U46" s="8"/>
+      <c r="U46" s="8">
+        <v>1</v>
+      </c>
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
@@ -34424,7 +34714,9 @@
       <c r="T47" s="8">
         <v>0</v>
       </c>
-      <c r="U47" s="8"/>
+      <c r="U47" s="8">
+        <v>1</v>
+      </c>
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
@@ -34519,7 +34811,9 @@
       <c r="T48" s="8">
         <v>2</v>
       </c>
-      <c r="U48" s="8"/>
+      <c r="U48" s="8">
+        <v>5</v>
+      </c>
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
@@ -34558,7 +34852,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -34615,7 +34909,9 @@
       <c r="T49" s="8">
         <v>0</v>
       </c>
-      <c r="U49" s="8"/>
+      <c r="U49" s="8">
+        <v>12</v>
+      </c>
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
@@ -34653,7 +34949,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -34708,7 +35004,9 @@
       <c r="T50" s="8">
         <v>2</v>
       </c>
-      <c r="U50" s="8"/>
+      <c r="U50" s="8">
+        <v>2</v>
+      </c>
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
       <c r="X50" s="8"/>
@@ -34803,7 +35101,9 @@
       <c r="T51" s="8">
         <v>0</v>
       </c>
-      <c r="U51" s="8"/>
+      <c r="U51" s="8">
+        <v>0</v>
+      </c>
       <c r="V51" s="8"/>
       <c r="W51" s="8"/>
       <c r="X51" s="8"/>
@@ -34898,7 +35198,9 @@
       <c r="T52" s="8">
         <v>3</v>
       </c>
-      <c r="U52" s="8"/>
+      <c r="U52" s="8">
+        <v>5</v>
+      </c>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
       <c r="X52" s="8"/>
@@ -34993,7 +35295,9 @@
       <c r="T53" s="8">
         <v>1</v>
       </c>
-      <c r="U53" s="8"/>
+      <c r="U53" s="8">
+        <v>3</v>
+      </c>
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
@@ -35088,7 +35392,9 @@
       <c r="T54" s="8">
         <v>1</v>
       </c>
-      <c r="U54" s="8"/>
+      <c r="U54" s="8">
+        <v>2</v>
+      </c>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
       <c r="X54" s="8"/>
@@ -35183,7 +35489,9 @@
       <c r="T55" s="8">
         <v>4</v>
       </c>
-      <c r="U55" s="8"/>
+      <c r="U55" s="8">
+        <v>3</v>
+      </c>
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
@@ -35278,7 +35586,9 @@
       <c r="T56" s="8">
         <v>0</v>
       </c>
-      <c r="U56" s="8"/>
+      <c r="U56" s="8">
+        <v>0</v>
+      </c>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
@@ -35373,7 +35683,9 @@
       <c r="T57" s="8">
         <v>0</v>
       </c>
-      <c r="U57" s="8"/>
+      <c r="U57" s="8">
+        <v>0</v>
+      </c>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
@@ -35485,7 +35797,7 @@
       </c>
       <c r="U58" s="14">
         <f t="shared" ref="U58:AC58" si="2">SUM(U6:U57)</f>
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="V58" s="14">
         <f t="shared" si="2"/>
@@ -35650,36 +35962,28 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AQ3:BD3"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -35696,28 +36000,36 @@
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="AQ3:BD3"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -35731,10 +36043,10 @@
   <dimension ref="A1:BD61"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4:T5"/>
+      <selection pane="bottomRight" activeCell="AF64" sqref="AF64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35749,43 +36061,43 @@
   <sheetData>
     <row r="1" spans="1:56" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="59" t="s">
+      <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="60"/>
+      <c r="AD1" s="56"/>
     </row>
     <row r="2" spans="1:56" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -35814,37 +36126,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -35873,176 +36185,176 @@
       <c r="BD3" s="23"/>
     </row>
     <row r="4" spans="1:56" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
     </row>
     <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
     </row>
     <row r="6" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -36103,7 +36415,9 @@
       <c r="T6" s="8">
         <v>84</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="8">
+        <v>74</v>
+      </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
@@ -36198,7 +36512,9 @@
       <c r="T7" s="8">
         <v>1</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
@@ -36293,7 +36609,9 @@
       <c r="T8" s="8">
         <v>7</v>
       </c>
-      <c r="U8" s="8"/>
+      <c r="U8" s="8">
+        <v>5</v>
+      </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
@@ -36389,7 +36707,9 @@
       <c r="T9" s="8">
         <v>61</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="8">
+        <v>39</v>
+      </c>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
@@ -36484,7 +36804,9 @@
       <c r="T10" s="8">
         <v>0</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
@@ -36579,7 +36901,9 @@
       <c r="T11" s="8">
         <v>5</v>
       </c>
-      <c r="U11" s="8"/>
+      <c r="U11" s="8">
+        <v>6</v>
+      </c>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
@@ -36674,7 +36998,9 @@
       <c r="T12" s="8">
         <v>2</v>
       </c>
-      <c r="U12" s="8"/>
+      <c r="U12" s="8">
+        <v>4</v>
+      </c>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
@@ -36769,7 +37095,9 @@
       <c r="T13" s="8">
         <v>3</v>
       </c>
-      <c r="U13" s="8"/>
+      <c r="U13" s="8">
+        <v>10</v>
+      </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
@@ -36864,7 +37192,9 @@
       <c r="T14" s="8">
         <v>4</v>
       </c>
-      <c r="U14" s="8"/>
+      <c r="U14" s="8">
+        <v>4</v>
+      </c>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
@@ -36959,7 +37289,9 @@
       <c r="T15" s="8">
         <v>1</v>
       </c>
-      <c r="U15" s="8"/>
+      <c r="U15" s="8">
+        <v>0</v>
+      </c>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
@@ -37055,7 +37387,9 @@
       <c r="T16" s="8">
         <v>60</v>
       </c>
-      <c r="U16" s="8"/>
+      <c r="U16" s="8">
+        <v>54</v>
+      </c>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
@@ -37150,7 +37484,9 @@
       <c r="T17" s="8">
         <v>47</v>
       </c>
-      <c r="U17" s="8"/>
+      <c r="U17" s="8">
+        <v>34</v>
+      </c>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
@@ -37246,7 +37582,9 @@
       <c r="T18" s="8">
         <v>788</v>
       </c>
-      <c r="U18" s="8"/>
+      <c r="U18" s="8">
+        <v>759</v>
+      </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
@@ -37285,7 +37623,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -37342,7 +37680,9 @@
       <c r="T19" s="8">
         <v>8</v>
       </c>
-      <c r="U19" s="8"/>
+      <c r="U19" s="8">
+        <v>10</v>
+      </c>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
@@ -37381,7 +37721,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -37436,7 +37776,9 @@
       <c r="T20" s="8">
         <v>42</v>
       </c>
-      <c r="U20" s="8"/>
+      <c r="U20" s="8">
+        <v>41</v>
+      </c>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
@@ -37475,7 +37817,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -37530,7 +37872,9 @@
       <c r="T21" s="8">
         <v>12</v>
       </c>
-      <c r="U21" s="8"/>
+      <c r="U21" s="8">
+        <v>9</v>
+      </c>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
@@ -37625,7 +37969,9 @@
       <c r="T22" s="8">
         <v>5</v>
       </c>
-      <c r="U22" s="8"/>
+      <c r="U22" s="8">
+        <v>6</v>
+      </c>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
@@ -37720,7 +38066,9 @@
       <c r="T23" s="8">
         <v>1</v>
       </c>
-      <c r="U23" s="8"/>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
@@ -37815,7 +38163,9 @@
       <c r="T24" s="8">
         <v>7</v>
       </c>
-      <c r="U24" s="8"/>
+      <c r="U24" s="8">
+        <v>7</v>
+      </c>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
@@ -37910,7 +38260,9 @@
       <c r="T25" s="8">
         <v>0</v>
       </c>
-      <c r="U25" s="8"/>
+      <c r="U25" s="8">
+        <v>0</v>
+      </c>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
@@ -38005,7 +38357,9 @@
       <c r="T26" s="8">
         <v>2</v>
       </c>
-      <c r="U26" s="8"/>
+      <c r="U26" s="8">
+        <v>5</v>
+      </c>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
@@ -38100,7 +38454,9 @@
       <c r="T27" s="8">
         <v>1</v>
       </c>
-      <c r="U27" s="8"/>
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
@@ -38195,7 +38551,9 @@
       <c r="T28" s="8">
         <v>1</v>
       </c>
-      <c r="U28" s="8"/>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
@@ -38233,7 +38591,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -38290,7 +38648,9 @@
       <c r="T29" s="8">
         <v>3</v>
       </c>
-      <c r="U29" s="8"/>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
@@ -38328,7 +38688,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -38383,7 +38743,9 @@
       <c r="T30" s="8">
         <v>3</v>
       </c>
-      <c r="U30" s="8"/>
+      <c r="U30" s="8">
+        <v>4</v>
+      </c>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
@@ -38479,7 +38841,9 @@
       <c r="T31" s="8">
         <v>10</v>
       </c>
-      <c r="U31" s="8"/>
+      <c r="U31" s="8">
+        <v>9</v>
+      </c>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
@@ -38574,7 +38938,9 @@
       <c r="T32" s="8">
         <v>2</v>
       </c>
-      <c r="U32" s="8"/>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -38669,7 +39035,9 @@
       <c r="T33" s="8">
         <v>0</v>
       </c>
-      <c r="U33" s="8"/>
+      <c r="U33" s="8">
+        <v>1</v>
+      </c>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
@@ -38765,7 +39133,9 @@
       <c r="T34" s="8">
         <v>25</v>
       </c>
-      <c r="U34" s="8"/>
+      <c r="U34" s="8">
+        <v>22</v>
+      </c>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
@@ -38804,7 +39174,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -38861,7 +39231,9 @@
       <c r="T35" s="8">
         <v>200</v>
       </c>
-      <c r="U35" s="8"/>
+      <c r="U35" s="8">
+        <v>164</v>
+      </c>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
@@ -38899,7 +39271,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -38954,7 +39326,9 @@
       <c r="T36" s="8">
         <v>5</v>
       </c>
-      <c r="U36" s="8"/>
+      <c r="U36" s="8">
+        <v>8</v>
+      </c>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
@@ -39050,7 +39424,9 @@
       <c r="T37" s="8">
         <v>17</v>
       </c>
-      <c r="U37" s="8"/>
+      <c r="U37" s="8">
+        <v>10</v>
+      </c>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
@@ -39145,7 +39521,9 @@
       <c r="T38" s="8">
         <v>2</v>
       </c>
-      <c r="U38" s="8"/>
+      <c r="U38" s="8">
+        <v>5</v>
+      </c>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
@@ -39240,7 +39618,9 @@
       <c r="T39" s="8">
         <v>4</v>
       </c>
-      <c r="U39" s="8"/>
+      <c r="U39" s="8">
+        <v>2</v>
+      </c>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
@@ -39335,7 +39715,9 @@
       <c r="T40" s="8">
         <v>0</v>
       </c>
-      <c r="U40" s="8"/>
+      <c r="U40" s="8">
+        <v>0</v>
+      </c>
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
@@ -39430,7 +39812,9 @@
       <c r="T41" s="8">
         <v>0</v>
       </c>
-      <c r="U41" s="8"/>
+      <c r="U41" s="8">
+        <v>0</v>
+      </c>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
@@ -39525,7 +39909,9 @@
       <c r="T42" s="8">
         <v>3</v>
       </c>
-      <c r="U42" s="8"/>
+      <c r="U42" s="8">
+        <v>6</v>
+      </c>
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
@@ -39620,7 +40006,9 @@
       <c r="T43" s="8">
         <v>19</v>
       </c>
-      <c r="U43" s="8"/>
+      <c r="U43" s="8">
+        <v>20</v>
+      </c>
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
@@ -39715,7 +40103,9 @@
       <c r="T44" s="8">
         <v>0</v>
       </c>
-      <c r="U44" s="8"/>
+      <c r="U44" s="8">
+        <v>1</v>
+      </c>
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
@@ -39810,7 +40200,9 @@
       <c r="T45" s="8">
         <v>5</v>
       </c>
-      <c r="U45" s="8"/>
+      <c r="U45" s="8">
+        <v>11</v>
+      </c>
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
@@ -39905,7 +40297,9 @@
       <c r="T46" s="8">
         <v>10</v>
       </c>
-      <c r="U46" s="8"/>
+      <c r="U46" s="8">
+        <v>11</v>
+      </c>
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
@@ -40000,7 +40394,9 @@
       <c r="T47" s="8">
         <v>1</v>
       </c>
-      <c r="U47" s="8"/>
+      <c r="U47" s="8">
+        <v>1</v>
+      </c>
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
@@ -40095,7 +40491,9 @@
       <c r="T48" s="8">
         <v>6</v>
       </c>
-      <c r="U48" s="8"/>
+      <c r="U48" s="8">
+        <v>2</v>
+      </c>
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
@@ -40134,7 +40532,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -40191,7 +40589,9 @@
       <c r="T49" s="8">
         <v>17</v>
       </c>
-      <c r="U49" s="8"/>
+      <c r="U49" s="8">
+        <v>7</v>
+      </c>
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
@@ -40229,7 +40629,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -40284,7 +40684,9 @@
       <c r="T50" s="8">
         <v>5</v>
       </c>
-      <c r="U50" s="8"/>
+      <c r="U50" s="8">
+        <v>5</v>
+      </c>
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
       <c r="X50" s="8"/>
@@ -40379,7 +40781,9 @@
       <c r="T51" s="8">
         <v>1</v>
       </c>
-      <c r="U51" s="8"/>
+      <c r="U51" s="8">
+        <v>2</v>
+      </c>
       <c r="V51" s="8"/>
       <c r="W51" s="8"/>
       <c r="X51" s="8"/>
@@ -40474,7 +40878,9 @@
       <c r="T52" s="8">
         <v>4</v>
       </c>
-      <c r="U52" s="8"/>
+      <c r="U52" s="8">
+        <v>7</v>
+      </c>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
       <c r="X52" s="8"/>
@@ -40569,7 +40975,9 @@
       <c r="T53" s="8">
         <v>8</v>
       </c>
-      <c r="U53" s="8"/>
+      <c r="U53" s="8">
+        <v>14</v>
+      </c>
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
@@ -40664,7 +41072,9 @@
       <c r="T54" s="8">
         <v>6</v>
       </c>
-      <c r="U54" s="8"/>
+      <c r="U54" s="8">
+        <v>2</v>
+      </c>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
       <c r="X54" s="8"/>
@@ -40759,7 +41169,9 @@
       <c r="T55" s="8">
         <v>6</v>
       </c>
-      <c r="U55" s="8"/>
+      <c r="U55" s="8">
+        <v>1</v>
+      </c>
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
@@ -40854,7 +41266,9 @@
       <c r="T56" s="8">
         <v>0</v>
       </c>
-      <c r="U56" s="8"/>
+      <c r="U56" s="8">
+        <v>2</v>
+      </c>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
@@ -40949,7 +41363,9 @@
       <c r="T57" s="8">
         <v>0</v>
       </c>
-      <c r="U57" s="8"/>
+      <c r="U57" s="8">
+        <v>0</v>
+      </c>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
@@ -41061,7 +41477,7 @@
       </c>
       <c r="U58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="V58" s="14">
         <f t="shared" si="0"/>
@@ -41227,31 +41643,28 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="D3:AD3"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="B2:C3"/>
@@ -41268,28 +41681,31 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030803-1\ＪＯＢ030803-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030811-4\ＪＯＢ030811-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19905" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -1721,14 +1721,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3/29(月)～4/4(日)分
-【4月第2週】</t>
-    <rPh sb="18" eb="19">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>6/22(月)～6/28(日)分
 【6月第4週】</t>
     <rPh sb="19" eb="20">
@@ -2049,6 +2041,14 @@
     <t>水戸市消防局</t>
     <rPh sb="5" eb="6">
       <t>キョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/29(月)～4/4(日)分
+【4月第1週】</t>
+    <rPh sb="18" eb="19">
+      <t>ガツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2466,24 +2466,6 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2520,10 +2502,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2532,11 +2526,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2544,20 +2556,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4578,10 +4578,10 @@
   <dimension ref="A1:CD61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BU4" sqref="BU4:BU5"/>
+      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4595,519 +4595,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BA1" s="34" t="s">
+      <c r="BA1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
       <c r="BD1" s="18"/>
       <c r="CD1" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="46"/>
+      <c r="BT2" s="46"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="46"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
     </row>
     <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36" t="s">
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
     </row>
     <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AA4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="31" t="s">
+      <c r="AD4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="31" t="s">
+      <c r="AF4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AG4" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="AI4" s="31" t="s">
+      <c r="AI4" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="31" t="s">
+      <c r="AJ4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="31" t="s">
+      <c r="AM4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="31" t="s">
+      <c r="AN4" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="31" t="s">
+      <c r="AO4" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="31" t="s">
+      <c r="AP4" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="31" t="s">
+      <c r="AQ4" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="AR4" s="33" t="s">
+      <c r="AR4" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="33" t="s">
+      <c r="AS4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="33" t="s">
+      <c r="AT4" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="33" t="s">
+      <c r="AU4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="33" t="s">
+      <c r="AV4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="33" t="s">
+      <c r="AW4" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="33" t="s">
+      <c r="AX4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="33" t="s">
+      <c r="AY4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="33" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="33" t="s">
+      <c r="BA4" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="33" t="s">
+      <c r="BB4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="33" t="s">
+      <c r="BC4" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE4" s="33" t="s">
+      <c r="BD4" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="BF4" s="33" t="s">
+      <c r="BF4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="33" t="s">
+      <c r="BG4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI4" s="33" t="s">
+      <c r="BH4" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="BI4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="BJ4" s="33" t="s">
+      <c r="BJ4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="BK4" s="33" t="s">
+      <c r="BK4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="33" t="s">
+      <c r="BL4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="BN4" s="33" t="s">
+      <c r="BM4" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="BN4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="BO4" s="33" t="s">
+      <c r="BO4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="33" t="s">
+      <c r="BP4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="BQ4" s="33" t="s">
+      <c r="BQ4" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="BR4" s="33" t="s">
+      <c r="BR4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="BS4" s="33" t="s">
+      <c r="BS4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="BT4" s="33" t="s">
+      <c r="BT4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="BU4" s="33" t="s">
+      <c r="BU4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="BV4" s="33" t="s">
+      <c r="BV4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="33" t="s">
+      <c r="BW4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="33" t="s">
+      <c r="BX4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="33" t="s">
+      <c r="BY4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="33" t="s">
+      <c r="BZ4" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="33" t="s">
+      <c r="CA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="33" t="s">
+      <c r="CB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="33" t="s">
+      <c r="CC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="33" t="s">
+      <c r="CD4" s="48" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
     </row>
     <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -5327,7 +5327,9 @@
       <c r="BU6" s="8">
         <v>116</v>
       </c>
-      <c r="BV6" s="8"/>
+      <c r="BV6" s="8">
+        <v>121</v>
+      </c>
       <c r="BW6" s="8"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="8"/>
@@ -5554,7 +5556,9 @@
       <c r="BU7" s="8">
         <v>1</v>
       </c>
-      <c r="BV7" s="8"/>
+      <c r="BV7" s="8">
+        <v>1</v>
+      </c>
       <c r="BW7" s="8"/>
       <c r="BX7" s="8"/>
       <c r="BY7" s="8"/>
@@ -5781,7 +5785,9 @@
       <c r="BU8" s="8">
         <v>5</v>
       </c>
-      <c r="BV8" s="8"/>
+      <c r="BV8" s="8">
+        <v>8</v>
+      </c>
       <c r="BW8" s="8"/>
       <c r="BX8" s="8"/>
       <c r="BY8" s="8"/>
@@ -6009,7 +6015,9 @@
       <c r="BU9" s="8">
         <v>44</v>
       </c>
-      <c r="BV9" s="8"/>
+      <c r="BV9" s="8">
+        <v>60</v>
+      </c>
       <c r="BW9" s="8"/>
       <c r="BX9" s="8"/>
       <c r="BY9" s="8"/>
@@ -6236,7 +6244,9 @@
       <c r="BU10" s="8">
         <v>0</v>
       </c>
-      <c r="BV10" s="8"/>
+      <c r="BV10" s="8">
+        <v>0</v>
+      </c>
       <c r="BW10" s="8"/>
       <c r="BX10" s="8"/>
       <c r="BY10" s="8"/>
@@ -6463,7 +6473,9 @@
       <c r="BU11" s="8">
         <v>9</v>
       </c>
-      <c r="BV11" s="8"/>
+      <c r="BV11" s="8">
+        <v>9</v>
+      </c>
       <c r="BW11" s="8"/>
       <c r="BX11" s="8"/>
       <c r="BY11" s="8"/>
@@ -6690,7 +6702,9 @@
       <c r="BU12" s="8">
         <v>4</v>
       </c>
-      <c r="BV12" s="8"/>
+      <c r="BV12" s="8">
+        <v>6</v>
+      </c>
       <c r="BW12" s="8"/>
       <c r="BX12" s="8"/>
       <c r="BY12" s="8"/>
@@ -6705,7 +6719,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" s="8">
         <v>11</v>
@@ -6917,7 +6931,9 @@
       <c r="BU13" s="8">
         <v>18</v>
       </c>
-      <c r="BV13" s="8"/>
+      <c r="BV13" s="8">
+        <v>11</v>
+      </c>
       <c r="BW13" s="8"/>
       <c r="BX13" s="8"/>
       <c r="BY13" s="8"/>
@@ -7144,7 +7160,9 @@
       <c r="BU14" s="8">
         <v>4</v>
       </c>
-      <c r="BV14" s="8"/>
+      <c r="BV14" s="8">
+        <v>12</v>
+      </c>
       <c r="BW14" s="8"/>
       <c r="BX14" s="8"/>
       <c r="BY14" s="8"/>
@@ -7371,7 +7389,9 @@
       <c r="BU15" s="8">
         <v>0</v>
       </c>
-      <c r="BV15" s="8"/>
+      <c r="BV15" s="8">
+        <v>1</v>
+      </c>
       <c r="BW15" s="8"/>
       <c r="BX15" s="8"/>
       <c r="BY15" s="8"/>
@@ -7599,7 +7619,9 @@
       <c r="BU16" s="8">
         <v>57</v>
       </c>
-      <c r="BV16" s="8"/>
+      <c r="BV16" s="8">
+        <v>72</v>
+      </c>
       <c r="BW16" s="8"/>
       <c r="BX16" s="8"/>
       <c r="BY16" s="8"/>
@@ -7826,7 +7848,9 @@
       <c r="BU17" s="8">
         <v>76</v>
       </c>
-      <c r="BV17" s="8"/>
+      <c r="BV17" s="8">
+        <v>115</v>
+      </c>
       <c r="BW17" s="8"/>
       <c r="BX17" s="8"/>
       <c r="BY17" s="8"/>
@@ -8054,7 +8078,9 @@
       <c r="BU18" s="8">
         <v>1292</v>
       </c>
-      <c r="BV18" s="8"/>
+      <c r="BV18" s="8">
+        <v>1532</v>
+      </c>
       <c r="BW18" s="8"/>
       <c r="BX18" s="8"/>
       <c r="BY18" s="8"/>
@@ -8066,7 +8092,7 @@
     </row>
     <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -8282,7 +8308,9 @@
       <c r="BU19" s="8">
         <v>47</v>
       </c>
-      <c r="BV19" s="8"/>
+      <c r="BV19" s="8">
+        <v>84</v>
+      </c>
       <c r="BW19" s="8"/>
       <c r="BX19" s="8"/>
       <c r="BY19" s="8"/>
@@ -8294,7 +8322,7 @@
     </row>
     <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -8508,7 +8536,9 @@
       <c r="BU20" s="8">
         <v>160</v>
       </c>
-      <c r="BV20" s="8"/>
+      <c r="BV20" s="8">
+        <v>267</v>
+      </c>
       <c r="BW20" s="8"/>
       <c r="BX20" s="8"/>
       <c r="BY20" s="8"/>
@@ -8520,7 +8550,7 @@
     </row>
     <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="43"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -8734,7 +8764,9 @@
       <c r="BU21" s="8">
         <v>26</v>
       </c>
-      <c r="BV21" s="8"/>
+      <c r="BV21" s="8">
+        <v>11</v>
+      </c>
       <c r="BW21" s="8"/>
       <c r="BX21" s="8"/>
       <c r="BY21" s="8"/>
@@ -8961,7 +8993,9 @@
       <c r="BU22" s="8">
         <v>7</v>
       </c>
-      <c r="BV22" s="8"/>
+      <c r="BV22" s="8">
+        <v>12</v>
+      </c>
       <c r="BW22" s="8"/>
       <c r="BX22" s="8"/>
       <c r="BY22" s="8"/>
@@ -9188,7 +9222,9 @@
       <c r="BU23" s="8">
         <v>0</v>
       </c>
-      <c r="BV23" s="8"/>
+      <c r="BV23" s="8">
+        <v>3</v>
+      </c>
       <c r="BW23" s="8"/>
       <c r="BX23" s="8"/>
       <c r="BY23" s="8"/>
@@ -9415,7 +9451,9 @@
       <c r="BU24" s="8">
         <v>7</v>
       </c>
-      <c r="BV24" s="8"/>
+      <c r="BV24" s="8">
+        <v>4</v>
+      </c>
       <c r="BW24" s="8"/>
       <c r="BX24" s="8"/>
       <c r="BY24" s="8"/>
@@ -9642,7 +9680,9 @@
       <c r="BU25" s="8">
         <v>0</v>
       </c>
-      <c r="BV25" s="8"/>
+      <c r="BV25" s="8">
+        <v>0</v>
+      </c>
       <c r="BW25" s="8"/>
       <c r="BX25" s="8"/>
       <c r="BY25" s="8"/>
@@ -9869,7 +9909,9 @@
       <c r="BU26" s="8">
         <v>9</v>
       </c>
-      <c r="BV26" s="8"/>
+      <c r="BV26" s="8">
+        <v>10</v>
+      </c>
       <c r="BW26" s="8"/>
       <c r="BX26" s="8"/>
       <c r="BY26" s="8"/>
@@ -10096,7 +10138,9 @@
       <c r="BU27" s="8">
         <v>0</v>
       </c>
-      <c r="BV27" s="8"/>
+      <c r="BV27" s="8">
+        <v>0</v>
+      </c>
       <c r="BW27" s="8"/>
       <c r="BX27" s="8"/>
       <c r="BY27" s="8"/>
@@ -10323,7 +10367,9 @@
       <c r="BU28" s="8">
         <v>0</v>
       </c>
-      <c r="BV28" s="8"/>
+      <c r="BV28" s="8">
+        <v>1</v>
+      </c>
       <c r="BW28" s="8"/>
       <c r="BX28" s="8"/>
       <c r="BY28" s="8"/>
@@ -10334,7 +10380,7 @@
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -10550,7 +10596,9 @@
       <c r="BU29" s="8">
         <v>0</v>
       </c>
-      <c r="BV29" s="8"/>
+      <c r="BV29" s="8">
+        <v>2</v>
+      </c>
       <c r="BW29" s="8"/>
       <c r="BX29" s="8"/>
       <c r="BY29" s="8"/>
@@ -10561,7 +10609,7 @@
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="44"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -10775,7 +10823,9 @@
       <c r="BU30" s="8">
         <v>4</v>
       </c>
-      <c r="BV30" s="8"/>
+      <c r="BV30" s="8">
+        <v>0</v>
+      </c>
       <c r="BW30" s="8"/>
       <c r="BX30" s="8"/>
       <c r="BY30" s="8"/>
@@ -11003,7 +11053,9 @@
       <c r="BU31" s="8">
         <v>19</v>
       </c>
-      <c r="BV31" s="8"/>
+      <c r="BV31" s="8">
+        <v>28</v>
+      </c>
       <c r="BW31" s="8"/>
       <c r="BX31" s="8"/>
       <c r="BY31" s="8"/>
@@ -11230,7 +11282,9 @@
       <c r="BU32" s="8">
         <v>0</v>
       </c>
-      <c r="BV32" s="8"/>
+      <c r="BV32" s="8">
+        <v>0</v>
+      </c>
       <c r="BW32" s="8"/>
       <c r="BX32" s="8"/>
       <c r="BY32" s="8"/>
@@ -11457,7 +11511,9 @@
       <c r="BU33" s="8">
         <v>1</v>
       </c>
-      <c r="BV33" s="8"/>
+      <c r="BV33" s="8">
+        <v>0</v>
+      </c>
       <c r="BW33" s="8"/>
       <c r="BX33" s="8"/>
       <c r="BY33" s="8"/>
@@ -11685,7 +11741,9 @@
       <c r="BU34" s="8">
         <v>31</v>
       </c>
-      <c r="BV34" s="8"/>
+      <c r="BV34" s="8">
+        <v>36</v>
+      </c>
       <c r="BW34" s="8"/>
       <c r="BX34" s="8"/>
       <c r="BY34" s="8"/>
@@ -11697,7 +11755,7 @@
     </row>
     <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -11913,7 +11971,9 @@
       <c r="BU35" s="8">
         <v>235</v>
       </c>
-      <c r="BV35" s="8"/>
+      <c r="BV35" s="8">
+        <v>279</v>
+      </c>
       <c r="BW35" s="8"/>
       <c r="BX35" s="8"/>
       <c r="BY35" s="8"/>
@@ -11924,7 +11984,7 @@
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="43"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -12138,7 +12198,9 @@
       <c r="BU36" s="8">
         <v>16</v>
       </c>
-      <c r="BV36" s="8"/>
+      <c r="BV36" s="8">
+        <v>28</v>
+      </c>
       <c r="BW36" s="8"/>
       <c r="BX36" s="8"/>
       <c r="BY36" s="8"/>
@@ -12366,7 +12428,9 @@
       <c r="BU37" s="8">
         <v>15</v>
       </c>
-      <c r="BV37" s="8"/>
+      <c r="BV37" s="8">
+        <v>29</v>
+      </c>
       <c r="BW37" s="8"/>
       <c r="BX37" s="8"/>
       <c r="BY37" s="8"/>
@@ -12593,7 +12657,9 @@
       <c r="BU38" s="8">
         <v>5</v>
       </c>
-      <c r="BV38" s="8"/>
+      <c r="BV38" s="8">
+        <v>3</v>
+      </c>
       <c r="BW38" s="8"/>
       <c r="BX38" s="8"/>
       <c r="BY38" s="8"/>
@@ -12820,7 +12886,9 @@
       <c r="BU39" s="8">
         <v>3</v>
       </c>
-      <c r="BV39" s="8"/>
+      <c r="BV39" s="8">
+        <v>6</v>
+      </c>
       <c r="BW39" s="8"/>
       <c r="BX39" s="8"/>
       <c r="BY39" s="8"/>
@@ -13047,7 +13115,9 @@
       <c r="BU40" s="8">
         <v>0</v>
       </c>
-      <c r="BV40" s="8"/>
+      <c r="BV40" s="8">
+        <v>0</v>
+      </c>
       <c r="BW40" s="8"/>
       <c r="BX40" s="8"/>
       <c r="BY40" s="8"/>
@@ -13274,7 +13344,9 @@
       <c r="BU41" s="8">
         <v>0</v>
       </c>
-      <c r="BV41" s="8"/>
+      <c r="BV41" s="8">
+        <v>0</v>
+      </c>
       <c r="BW41" s="8"/>
       <c r="BX41" s="8"/>
       <c r="BY41" s="8"/>
@@ -13501,7 +13573,9 @@
       <c r="BU42" s="8">
         <v>10</v>
       </c>
-      <c r="BV42" s="8"/>
+      <c r="BV42" s="8">
+        <v>6</v>
+      </c>
       <c r="BW42" s="8"/>
       <c r="BX42" s="8"/>
       <c r="BY42" s="8"/>
@@ -13728,7 +13802,9 @@
       <c r="BU43" s="8">
         <v>50</v>
       </c>
-      <c r="BV43" s="8"/>
+      <c r="BV43" s="8">
+        <v>33</v>
+      </c>
       <c r="BW43" s="8"/>
       <c r="BX43" s="8"/>
       <c r="BY43" s="8"/>
@@ -13955,7 +14031,9 @@
       <c r="BU44" s="8">
         <v>3</v>
       </c>
-      <c r="BV44" s="8"/>
+      <c r="BV44" s="8">
+        <v>2</v>
+      </c>
       <c r="BW44" s="8"/>
       <c r="BX44" s="8"/>
       <c r="BY44" s="8"/>
@@ -14182,7 +14260,9 @@
       <c r="BU45" s="8">
         <v>14</v>
       </c>
-      <c r="BV45" s="8"/>
+      <c r="BV45" s="8">
+        <v>4</v>
+      </c>
       <c r="BW45" s="8"/>
       <c r="BX45" s="8"/>
       <c r="BY45" s="8"/>
@@ -14409,7 +14489,9 @@
       <c r="BU46" s="8">
         <v>12</v>
       </c>
-      <c r="BV46" s="8"/>
+      <c r="BV46" s="8">
+        <v>7</v>
+      </c>
       <c r="BW46" s="8"/>
       <c r="BX46" s="8"/>
       <c r="BY46" s="8"/>
@@ -14636,7 +14718,9 @@
       <c r="BU47" s="8">
         <v>2</v>
       </c>
-      <c r="BV47" s="8"/>
+      <c r="BV47" s="8">
+        <v>0</v>
+      </c>
       <c r="BW47" s="8"/>
       <c r="BX47" s="8"/>
       <c r="BY47" s="8"/>
@@ -14863,7 +14947,9 @@
       <c r="BU48" s="8">
         <v>7</v>
       </c>
-      <c r="BV48" s="8"/>
+      <c r="BV48" s="8">
+        <v>2</v>
+      </c>
       <c r="BW48" s="8"/>
       <c r="BX48" s="8"/>
       <c r="BY48" s="8"/>
@@ -14875,7 +14961,7 @@
     </row>
     <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -15091,7 +15177,9 @@
       <c r="BU49" s="8">
         <v>19</v>
       </c>
-      <c r="BV49" s="8"/>
+      <c r="BV49" s="8">
+        <v>45</v>
+      </c>
       <c r="BW49" s="8"/>
       <c r="BX49" s="8"/>
       <c r="BY49" s="8"/>
@@ -15102,7 +15190,7 @@
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -15316,7 +15404,9 @@
       <c r="BU50" s="8">
         <v>7</v>
       </c>
-      <c r="BV50" s="8"/>
+      <c r="BV50" s="8">
+        <v>9</v>
+      </c>
       <c r="BW50" s="8"/>
       <c r="BX50" s="8"/>
       <c r="BY50" s="8"/>
@@ -15543,7 +15633,9 @@
       <c r="BU51" s="8">
         <v>2</v>
       </c>
-      <c r="BV51" s="8"/>
+      <c r="BV51" s="8">
+        <v>1</v>
+      </c>
       <c r="BW51" s="8"/>
       <c r="BX51" s="8"/>
       <c r="BY51" s="8"/>
@@ -15770,7 +15862,9 @@
       <c r="BU52" s="8">
         <v>12</v>
       </c>
-      <c r="BV52" s="8"/>
+      <c r="BV52" s="8">
+        <v>11</v>
+      </c>
       <c r="BW52" s="8"/>
       <c r="BX52" s="8"/>
       <c r="BY52" s="8"/>
@@ -15997,7 +16091,9 @@
       <c r="BU53" s="8">
         <v>17</v>
       </c>
-      <c r="BV53" s="8"/>
+      <c r="BV53" s="8">
+        <v>10</v>
+      </c>
       <c r="BW53" s="8"/>
       <c r="BX53" s="8"/>
       <c r="BY53" s="8"/>
@@ -16224,7 +16320,9 @@
       <c r="BU54" s="8">
         <v>4</v>
       </c>
-      <c r="BV54" s="8"/>
+      <c r="BV54" s="8">
+        <v>9</v>
+      </c>
       <c r="BW54" s="8"/>
       <c r="BX54" s="8"/>
       <c r="BY54" s="8"/>
@@ -16451,7 +16549,9 @@
       <c r="BU55" s="8">
         <v>4</v>
       </c>
-      <c r="BV55" s="8"/>
+      <c r="BV55" s="8">
+        <v>5</v>
+      </c>
       <c r="BW55" s="8"/>
       <c r="BX55" s="8"/>
       <c r="BY55" s="8"/>
@@ -16678,7 +16778,9 @@
       <c r="BU56" s="8">
         <v>2</v>
       </c>
-      <c r="BV56" s="8"/>
+      <c r="BV56" s="8">
+        <v>2</v>
+      </c>
       <c r="BW56" s="8"/>
       <c r="BX56" s="8"/>
       <c r="BY56" s="8"/>
@@ -16905,7 +17007,9 @@
       <c r="BU57" s="8">
         <v>0</v>
       </c>
-      <c r="BV57" s="8"/>
+      <c r="BV57" s="8">
+        <v>0</v>
+      </c>
       <c r="BW57" s="8"/>
       <c r="BX57" s="8"/>
       <c r="BY57" s="8"/>
@@ -17202,7 +17306,7 @@
       </c>
       <c r="BV58" s="14">
         <f t="shared" ref="BV58:CC58" si="3">SUM(BV6:BV57)</f>
-        <v>0</v>
+        <v>2897</v>
       </c>
       <c r="BW58" s="14">
         <f t="shared" si="3"/>
@@ -17408,26 +17512,26 @@
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -17490,6 +17594,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="D3:AQ3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="B49:B50"/>
@@ -17506,83 +17687,6 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17599,10 +17703,10 @@
   <dimension ref="B1:CD58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BQ53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BU64" sqref="BU64"/>
+      <selection pane="bottomRight" activeCell="BV6" sqref="BV6:BV57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17616,519 +17720,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:82" ht="24" x14ac:dyDescent="0.4">
-      <c r="BB1" s="49" t="s">
+      <c r="BB1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="49"/>
+      <c r="BC1" s="52"/>
       <c r="BI1" s="20"/>
-      <c r="CC1" s="49" t="s">
+      <c r="CC1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="CD1" s="49"/>
+      <c r="CD1" s="52"/>
     </row>
     <row r="2" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="46"/>
+      <c r="BT2" s="46"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="46"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
     </row>
     <row r="3" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36" t="s">
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
     </row>
     <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="51" t="s">
+      <c r="Z4" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="51" t="s">
+      <c r="AA4" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="51" t="s">
+      <c r="AK4" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AM4" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="51" t="s">
+      <c r="AO4" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="51" t="s">
+      <c r="AP4" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AR4" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="51" t="s">
+      <c r="AS4" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="51" t="s">
+      <c r="AU4" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="51" t="s">
+      <c r="AV4" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="51" t="s">
+      <c r="AW4" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="51" t="s">
+      <c r="AX4" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="51" t="s">
+      <c r="AY4" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="51" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="51" t="s">
+      <c r="BA4" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="51" t="s">
+      <c r="BB4" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="51" t="s">
+      <c r="BC4" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="31" t="s">
+      <c r="BD4" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="31" t="s">
+      <c r="BE4" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" s="31" t="s">
+      <c r="BF4" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="BG4" s="31" t="s">
+      <c r="BG4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" s="31" t="s">
+      <c r="BH4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="BI4" s="31" t="s">
+      <c r="BI4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="31" t="s">
+      <c r="BJ4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="31" t="s">
+      <c r="BK4" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="31" t="s">
+      <c r="BL4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="31" t="s">
+      <c r="BM4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="31" t="s">
+      <c r="BN4" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="31" t="s">
+      <c r="BO4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="50" t="s">
+      <c r="BP4" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="BQ4" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="BQ4" s="50" t="s">
+      <c r="BR4" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="BR4" s="50" t="s">
+      <c r="BS4" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="BS4" s="50" t="s">
+      <c r="BT4" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="BT4" s="50" t="s">
+      <c r="BU4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="BU4" s="50" t="s">
+      <c r="BV4" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="BV4" s="50" t="s">
+      <c r="BW4" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="BW4" s="50" t="s">
+      <c r="BX4" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="BX4" s="50" t="s">
+      <c r="BY4" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="BY4" s="50" t="s">
+      <c r="BZ4" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="BZ4" s="50" t="s">
+      <c r="CA4" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="CA4" s="50" t="s">
+      <c r="CB4" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="CB4" s="50" t="s">
+      <c r="CC4" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="CC4" s="50" t="s">
+      <c r="CD4" s="43" t="s">
         <v>251</v>
-      </c>
-      <c r="CD4" s="31" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:82" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="44"/>
+      <c r="BW5" s="44"/>
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
     </row>
     <row r="6" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
@@ -18347,7 +18451,9 @@
       <c r="BU6" s="8">
         <v>49</v>
       </c>
-      <c r="BV6" s="8"/>
+      <c r="BV6" s="8">
+        <v>54</v>
+      </c>
       <c r="BW6" s="8"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="8"/>
@@ -18574,7 +18680,9 @@
       <c r="BU7" s="8">
         <v>2</v>
       </c>
-      <c r="BV7" s="8"/>
+      <c r="BV7" s="8">
+        <v>1</v>
+      </c>
       <c r="BW7" s="8"/>
       <c r="BX7" s="8"/>
       <c r="BY7" s="8"/>
@@ -18801,7 +18909,9 @@
       <c r="BU8" s="8">
         <v>5</v>
       </c>
-      <c r="BV8" s="8"/>
+      <c r="BV8" s="8">
+        <v>2</v>
+      </c>
       <c r="BW8" s="8"/>
       <c r="BX8" s="8"/>
       <c r="BY8" s="8"/>
@@ -19028,7 +19138,9 @@
       <c r="BU9" s="8">
         <v>24</v>
       </c>
-      <c r="BV9" s="8"/>
+      <c r="BV9" s="8">
+        <v>41</v>
+      </c>
       <c r="BW9" s="8"/>
       <c r="BX9" s="8"/>
       <c r="BY9" s="8"/>
@@ -19255,7 +19367,9 @@
       <c r="BU10" s="8">
         <v>0</v>
       </c>
-      <c r="BV10" s="8"/>
+      <c r="BV10" s="8">
+        <v>0</v>
+      </c>
       <c r="BW10" s="8"/>
       <c r="BX10" s="8"/>
       <c r="BY10" s="8"/>
@@ -19482,7 +19596,9 @@
       <c r="BU11" s="8">
         <v>4</v>
       </c>
-      <c r="BV11" s="8"/>
+      <c r="BV11" s="8">
+        <v>1</v>
+      </c>
       <c r="BW11" s="8"/>
       <c r="BX11" s="8"/>
       <c r="BY11" s="8"/>
@@ -19709,7 +19825,9 @@
       <c r="BU12" s="8">
         <v>1</v>
       </c>
-      <c r="BV12" s="8"/>
+      <c r="BV12" s="8">
+        <v>4</v>
+      </c>
       <c r="BW12" s="8"/>
       <c r="BX12" s="8"/>
       <c r="BY12" s="8"/>
@@ -19724,7 +19842,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" s="29">
         <v>8</v>
@@ -19936,7 +20054,9 @@
       <c r="BU13" s="8">
         <v>12</v>
       </c>
-      <c r="BV13" s="8"/>
+      <c r="BV13" s="8">
+        <v>14</v>
+      </c>
       <c r="BW13" s="8"/>
       <c r="BX13" s="8"/>
       <c r="BY13" s="8"/>
@@ -20163,7 +20283,9 @@
       <c r="BU14" s="8">
         <v>4</v>
       </c>
-      <c r="BV14" s="8"/>
+      <c r="BV14" s="8">
+        <v>4</v>
+      </c>
       <c r="BW14" s="8"/>
       <c r="BX14" s="8"/>
       <c r="BY14" s="8"/>
@@ -20390,7 +20512,9 @@
       <c r="BU15" s="8">
         <v>0</v>
       </c>
-      <c r="BV15" s="8"/>
+      <c r="BV15" s="8">
+        <v>0</v>
+      </c>
       <c r="BW15" s="8"/>
       <c r="BX15" s="8"/>
       <c r="BY15" s="8"/>
@@ -20617,7 +20741,9 @@
       <c r="BU16" s="8">
         <v>40</v>
       </c>
-      <c r="BV16" s="8"/>
+      <c r="BV16" s="8">
+        <v>37</v>
+      </c>
       <c r="BW16" s="8"/>
       <c r="BX16" s="8"/>
       <c r="BY16" s="8"/>
@@ -20844,7 +20970,9 @@
       <c r="BU17" s="8">
         <v>73</v>
       </c>
-      <c r="BV17" s="8"/>
+      <c r="BV17" s="8">
+        <v>69</v>
+      </c>
       <c r="BW17" s="8"/>
       <c r="BX17" s="8"/>
       <c r="BY17" s="8"/>
@@ -21071,7 +21199,9 @@
       <c r="BU18" s="8">
         <v>497</v>
       </c>
-      <c r="BV18" s="8"/>
+      <c r="BV18" s="8">
+        <v>691</v>
+      </c>
       <c r="BW18" s="8"/>
       <c r="BX18" s="8"/>
       <c r="BY18" s="8"/>
@@ -21082,7 +21212,7 @@
       <c r="CD18" s="8"/>
     </row>
     <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -21298,7 +21428,9 @@
       <c r="BU19" s="8">
         <v>16</v>
       </c>
-      <c r="BV19" s="8"/>
+      <c r="BV19" s="8">
+        <v>17</v>
+      </c>
       <c r="BW19" s="8"/>
       <c r="BX19" s="8"/>
       <c r="BY19" s="8"/>
@@ -21309,7 +21441,7 @@
       <c r="CD19" s="8"/>
     </row>
     <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="43"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -21523,7 +21655,9 @@
       <c r="BU20" s="8">
         <v>45</v>
       </c>
-      <c r="BV20" s="8"/>
+      <c r="BV20" s="8">
+        <v>76</v>
+      </c>
       <c r="BW20" s="8"/>
       <c r="BX20" s="8"/>
       <c r="BY20" s="8"/>
@@ -21534,7 +21668,7 @@
       <c r="CD20" s="8"/>
     </row>
     <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="43"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -21748,7 +21882,9 @@
       <c r="BU21" s="8">
         <v>12</v>
       </c>
-      <c r="BV21" s="8"/>
+      <c r="BV21" s="8">
+        <v>16</v>
+      </c>
       <c r="BW21" s="8"/>
       <c r="BX21" s="8"/>
       <c r="BY21" s="8"/>
@@ -21975,7 +22111,9 @@
       <c r="BU22" s="8">
         <v>9</v>
       </c>
-      <c r="BV22" s="8"/>
+      <c r="BV22" s="8">
+        <v>12</v>
+      </c>
       <c r="BW22" s="8"/>
       <c r="BX22" s="8"/>
       <c r="BY22" s="8"/>
@@ -22202,7 +22340,9 @@
       <c r="BU23" s="8">
         <v>0</v>
       </c>
-      <c r="BV23" s="8"/>
+      <c r="BV23" s="8">
+        <v>0</v>
+      </c>
       <c r="BW23" s="8"/>
       <c r="BX23" s="8"/>
       <c r="BY23" s="8"/>
@@ -22429,7 +22569,9 @@
       <c r="BU24" s="8">
         <v>4</v>
       </c>
-      <c r="BV24" s="8"/>
+      <c r="BV24" s="8">
+        <v>3</v>
+      </c>
       <c r="BW24" s="8"/>
       <c r="BX24" s="8"/>
       <c r="BY24" s="8"/>
@@ -22656,7 +22798,9 @@
       <c r="BU25" s="8">
         <v>0</v>
       </c>
-      <c r="BV25" s="8"/>
+      <c r="BV25" s="8">
+        <v>0</v>
+      </c>
       <c r="BW25" s="8"/>
       <c r="BX25" s="8"/>
       <c r="BY25" s="8"/>
@@ -22883,7 +23027,9 @@
       <c r="BU26" s="8">
         <v>5</v>
       </c>
-      <c r="BV26" s="8"/>
+      <c r="BV26" s="8">
+        <v>6</v>
+      </c>
       <c r="BW26" s="8"/>
       <c r="BX26" s="8"/>
       <c r="BY26" s="8"/>
@@ -23110,7 +23256,9 @@
       <c r="BU27" s="8">
         <v>1</v>
       </c>
-      <c r="BV27" s="8"/>
+      <c r="BV27" s="8">
+        <v>0</v>
+      </c>
       <c r="BW27" s="8"/>
       <c r="BX27" s="8"/>
       <c r="BY27" s="8"/>
@@ -23337,7 +23485,9 @@
       <c r="BU28" s="8">
         <v>0</v>
       </c>
-      <c r="BV28" s="8"/>
+      <c r="BV28" s="8">
+        <v>1</v>
+      </c>
       <c r="BW28" s="8"/>
       <c r="BX28" s="8"/>
       <c r="BY28" s="8"/>
@@ -23348,7 +23498,7 @@
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -23564,7 +23714,9 @@
       <c r="BU29" s="8">
         <v>0</v>
       </c>
-      <c r="BV29" s="8"/>
+      <c r="BV29" s="8">
+        <v>7</v>
+      </c>
       <c r="BW29" s="8"/>
       <c r="BX29" s="8"/>
       <c r="BY29" s="8"/>
@@ -23575,7 +23727,7 @@
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="44"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -23789,7 +23941,9 @@
       <c r="BU30" s="8">
         <v>1</v>
       </c>
-      <c r="BV30" s="8"/>
+      <c r="BV30" s="8">
+        <v>0</v>
+      </c>
       <c r="BW30" s="8"/>
       <c r="BX30" s="8"/>
       <c r="BY30" s="8"/>
@@ -24016,7 +24170,9 @@
       <c r="BU31" s="8">
         <v>14</v>
       </c>
-      <c r="BV31" s="8"/>
+      <c r="BV31" s="8">
+        <v>53</v>
+      </c>
       <c r="BW31" s="8"/>
       <c r="BX31" s="8"/>
       <c r="BY31" s="8"/>
@@ -24243,7 +24399,9 @@
       <c r="BU32" s="8">
         <v>1</v>
       </c>
-      <c r="BV32" s="8"/>
+      <c r="BV32" s="8">
+        <v>4</v>
+      </c>
       <c r="BW32" s="8"/>
       <c r="BX32" s="8"/>
       <c r="BY32" s="8"/>
@@ -24470,7 +24628,9 @@
       <c r="BU33" s="8">
         <v>0</v>
       </c>
-      <c r="BV33" s="8"/>
+      <c r="BV33" s="8">
+        <v>0</v>
+      </c>
       <c r="BW33" s="8"/>
       <c r="BX33" s="8"/>
       <c r="BY33" s="8"/>
@@ -24697,7 +24857,9 @@
       <c r="BU34" s="8">
         <v>13</v>
       </c>
-      <c r="BV34" s="8"/>
+      <c r="BV34" s="8">
+        <v>22</v>
+      </c>
       <c r="BW34" s="8"/>
       <c r="BX34" s="8"/>
       <c r="BY34" s="8"/>
@@ -24708,7 +24870,7 @@
       <c r="CD34" s="8"/>
     </row>
     <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -24924,7 +25086,9 @@
       <c r="BU35" s="8">
         <v>213</v>
       </c>
-      <c r="BV35" s="8"/>
+      <c r="BV35" s="8">
+        <v>228</v>
+      </c>
       <c r="BW35" s="8"/>
       <c r="BX35" s="8"/>
       <c r="BY35" s="8"/>
@@ -24935,7 +25099,7 @@
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="43"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -25149,7 +25313,9 @@
       <c r="BU36" s="8">
         <v>13</v>
       </c>
-      <c r="BV36" s="8"/>
+      <c r="BV36" s="8">
+        <v>15</v>
+      </c>
       <c r="BW36" s="8"/>
       <c r="BX36" s="8"/>
       <c r="BY36" s="8"/>
@@ -25376,7 +25542,9 @@
       <c r="BU37" s="8">
         <v>7</v>
       </c>
-      <c r="BV37" s="8"/>
+      <c r="BV37" s="8">
+        <v>24</v>
+      </c>
       <c r="BW37" s="8"/>
       <c r="BX37" s="8"/>
       <c r="BY37" s="8"/>
@@ -25603,7 +25771,9 @@
       <c r="BU38" s="8">
         <v>6</v>
       </c>
-      <c r="BV38" s="8"/>
+      <c r="BV38" s="8">
+        <v>5</v>
+      </c>
       <c r="BW38" s="8"/>
       <c r="BX38" s="8"/>
       <c r="BY38" s="8"/>
@@ -25830,7 +26000,9 @@
       <c r="BU39" s="8">
         <v>3</v>
       </c>
-      <c r="BV39" s="8"/>
+      <c r="BV39" s="8">
+        <v>3</v>
+      </c>
       <c r="BW39" s="8"/>
       <c r="BX39" s="8"/>
       <c r="BY39" s="8"/>
@@ -26057,7 +26229,9 @@
       <c r="BU40" s="8">
         <v>0</v>
       </c>
-      <c r="BV40" s="8"/>
+      <c r="BV40" s="8">
+        <v>0</v>
+      </c>
       <c r="BW40" s="8"/>
       <c r="BX40" s="8"/>
       <c r="BY40" s="8"/>
@@ -26284,7 +26458,9 @@
       <c r="BU41" s="8">
         <v>0</v>
       </c>
-      <c r="BV41" s="8"/>
+      <c r="BV41" s="8">
+        <v>0</v>
+      </c>
       <c r="BW41" s="8"/>
       <c r="BX41" s="8"/>
       <c r="BY41" s="8"/>
@@ -26511,7 +26687,9 @@
       <c r="BU42" s="8">
         <v>2</v>
       </c>
-      <c r="BV42" s="8"/>
+      <c r="BV42" s="8">
+        <v>1</v>
+      </c>
       <c r="BW42" s="8"/>
       <c r="BX42" s="8"/>
       <c r="BY42" s="8"/>
@@ -26738,7 +26916,9 @@
       <c r="BU43" s="8">
         <v>28</v>
       </c>
-      <c r="BV43" s="8"/>
+      <c r="BV43" s="8">
+        <v>29</v>
+      </c>
       <c r="BW43" s="8"/>
       <c r="BX43" s="8"/>
       <c r="BY43" s="8"/>
@@ -26965,7 +27145,9 @@
       <c r="BU44" s="8">
         <v>5</v>
       </c>
-      <c r="BV44" s="8"/>
+      <c r="BV44" s="8">
+        <v>0</v>
+      </c>
       <c r="BW44" s="8"/>
       <c r="BX44" s="8"/>
       <c r="BY44" s="8"/>
@@ -27192,7 +27374,9 @@
       <c r="BU45" s="8">
         <v>3</v>
       </c>
-      <c r="BV45" s="8"/>
+      <c r="BV45" s="8">
+        <v>1</v>
+      </c>
       <c r="BW45" s="8"/>
       <c r="BX45" s="8"/>
       <c r="BY45" s="8"/>
@@ -27419,7 +27603,9 @@
       <c r="BU46" s="8">
         <v>1</v>
       </c>
-      <c r="BV46" s="8"/>
+      <c r="BV46" s="8">
+        <v>6</v>
+      </c>
       <c r="BW46" s="8"/>
       <c r="BX46" s="8"/>
       <c r="BY46" s="8"/>
@@ -27646,7 +27832,9 @@
       <c r="BU47" s="8">
         <v>0</v>
       </c>
-      <c r="BV47" s="8"/>
+      <c r="BV47" s="8">
+        <v>1</v>
+      </c>
       <c r="BW47" s="8"/>
       <c r="BX47" s="8"/>
       <c r="BY47" s="8"/>
@@ -27873,7 +28061,9 @@
       <c r="BU48" s="8">
         <v>7</v>
       </c>
-      <c r="BV48" s="8"/>
+      <c r="BV48" s="8">
+        <v>1</v>
+      </c>
       <c r="BW48" s="8"/>
       <c r="BX48" s="8"/>
       <c r="BY48" s="8"/>
@@ -27884,7 +28074,7 @@
       <c r="CD48" s="8"/>
     </row>
     <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -28100,7 +28290,9 @@
       <c r="BU49" s="8">
         <v>8</v>
       </c>
-      <c r="BV49" s="8"/>
+      <c r="BV49" s="8">
+        <v>19</v>
+      </c>
       <c r="BW49" s="8"/>
       <c r="BX49" s="8"/>
       <c r="BY49" s="8"/>
@@ -28111,7 +28303,7 @@
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -28325,7 +28517,9 @@
       <c r="BU50" s="8">
         <v>3</v>
       </c>
-      <c r="BV50" s="8"/>
+      <c r="BV50" s="8">
+        <v>7</v>
+      </c>
       <c r="BW50" s="8"/>
       <c r="BX50" s="8"/>
       <c r="BY50" s="8"/>
@@ -28552,7 +28746,9 @@
       <c r="BU51" s="8">
         <v>1</v>
       </c>
-      <c r="BV51" s="8"/>
+      <c r="BV51" s="8">
+        <v>4</v>
+      </c>
       <c r="BW51" s="8"/>
       <c r="BX51" s="8"/>
       <c r="BY51" s="8"/>
@@ -28779,7 +28975,9 @@
       <c r="BU52" s="8">
         <v>6</v>
       </c>
-      <c r="BV52" s="8"/>
+      <c r="BV52" s="8">
+        <v>7</v>
+      </c>
       <c r="BW52" s="8"/>
       <c r="BX52" s="8"/>
       <c r="BY52" s="8"/>
@@ -29006,7 +29204,9 @@
       <c r="BU53" s="8">
         <v>8</v>
       </c>
-      <c r="BV53" s="8"/>
+      <c r="BV53" s="8">
+        <v>8</v>
+      </c>
       <c r="BW53" s="8"/>
       <c r="BX53" s="8"/>
       <c r="BY53" s="8"/>
@@ -29233,7 +29433,9 @@
       <c r="BU54" s="8">
         <v>5</v>
       </c>
-      <c r="BV54" s="8"/>
+      <c r="BV54" s="8">
+        <v>3</v>
+      </c>
       <c r="BW54" s="8"/>
       <c r="BX54" s="8"/>
       <c r="BY54" s="8"/>
@@ -29460,7 +29662,9 @@
       <c r="BU55" s="8">
         <v>7</v>
       </c>
-      <c r="BV55" s="8"/>
+      <c r="BV55" s="8">
+        <v>11</v>
+      </c>
       <c r="BW55" s="8"/>
       <c r="BX55" s="8"/>
       <c r="BY55" s="8"/>
@@ -29687,7 +29891,9 @@
       <c r="BU56" s="8">
         <v>2</v>
       </c>
-      <c r="BV56" s="8"/>
+      <c r="BV56" s="8">
+        <v>1</v>
+      </c>
       <c r="BW56" s="8"/>
       <c r="BX56" s="8"/>
       <c r="BY56" s="8"/>
@@ -29914,7 +30120,9 @@
       <c r="BU57" s="8">
         <v>0</v>
       </c>
-      <c r="BV57" s="8"/>
+      <c r="BV57" s="8">
+        <v>0</v>
+      </c>
       <c r="BW57" s="8"/>
       <c r="BX57" s="8"/>
       <c r="BY57" s="8"/>
@@ -30210,7 +30418,7 @@
       </c>
       <c r="BV58" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1509</v>
       </c>
       <c r="BW58" s="28">
         <f t="shared" si="3"/>
@@ -30246,6 +30454,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:B36"/>
@@ -30262,83 +30547,6 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BQ4:BQ5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30354,11 +30562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W72" sqref="W72"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30373,43 +30581,43 @@
   <sheetData>
     <row r="1" spans="1:60" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="56"/>
+      <c r="AD1" s="60"/>
     </row>
     <row r="2" spans="1:60" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -30438,37 +30646,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:60" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -30481,200 +30689,200 @@
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
       <c r="AP3" s="23"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="54"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61"/>
     </row>
     <row r="4" spans="1:60" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="I4" s="33" t="s">
+      <c r="H4" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="33" t="s">
+      <c r="M4" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="W4" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="X4" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="R4" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="V4" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z4" s="33" t="s">
+      <c r="AA4" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB4" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC4" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AA4" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB4" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC4" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD4" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="58"/>
     </row>
     <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="58"/>
+      <c r="BH5" s="58"/>
     </row>
     <row r="6" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -30738,7 +30946,9 @@
       <c r="U6" s="8">
         <v>42</v>
       </c>
-      <c r="V6" s="8"/>
+      <c r="V6" s="8">
+        <v>56</v>
+      </c>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -30835,7 +31045,9 @@
       <c r="U7" s="8">
         <v>0</v>
       </c>
-      <c r="V7" s="8"/>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
@@ -30932,7 +31144,9 @@
       <c r="U8" s="8">
         <v>0</v>
       </c>
-      <c r="V8" s="8"/>
+      <c r="V8" s="8">
+        <v>0</v>
+      </c>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
@@ -31030,7 +31244,9 @@
       <c r="U9" s="8">
         <v>5</v>
       </c>
-      <c r="V9" s="8"/>
+      <c r="V9" s="8">
+        <v>11</v>
+      </c>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
@@ -31127,7 +31343,9 @@
       <c r="U10" s="8">
         <v>0</v>
       </c>
-      <c r="V10" s="8"/>
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -31224,7 +31442,9 @@
       <c r="U11" s="8">
         <v>3</v>
       </c>
-      <c r="V11" s="8"/>
+      <c r="V11" s="8">
+        <v>3</v>
+      </c>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
@@ -31321,7 +31541,9 @@
       <c r="U12" s="8">
         <v>0</v>
       </c>
-      <c r="V12" s="8"/>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
@@ -31362,7 +31584,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="8">
         <v>3</v>
@@ -31418,7 +31640,9 @@
       <c r="U13" s="8">
         <v>8</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="8">
+        <v>4</v>
+      </c>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
@@ -31515,7 +31739,9 @@
       <c r="U14" s="8">
         <v>0</v>
       </c>
-      <c r="V14" s="8"/>
+      <c r="V14" s="8">
+        <v>3</v>
+      </c>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
@@ -31612,7 +31838,9 @@
       <c r="U15" s="8">
         <v>0</v>
       </c>
-      <c r="V15" s="8"/>
+      <c r="V15" s="8">
+        <v>0</v>
+      </c>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
@@ -31710,7 +31938,9 @@
       <c r="U16" s="8">
         <v>3</v>
       </c>
-      <c r="V16" s="8"/>
+      <c r="V16" s="8">
+        <v>8</v>
+      </c>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
@@ -31807,7 +32037,9 @@
       <c r="U17" s="8">
         <v>42</v>
       </c>
-      <c r="V17" s="8"/>
+      <c r="V17" s="8">
+        <v>72</v>
+      </c>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
@@ -31905,7 +32137,9 @@
       <c r="U18" s="8">
         <v>533</v>
       </c>
-      <c r="V18" s="8"/>
+      <c r="V18" s="8">
+        <v>689</v>
+      </c>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
@@ -31943,7 +32177,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -32003,7 +32237,9 @@
       <c r="U19" s="8">
         <v>37</v>
       </c>
-      <c r="V19" s="8"/>
+      <c r="V19" s="8">
+        <v>75</v>
+      </c>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
@@ -32041,7 +32277,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -32099,7 +32335,9 @@
       <c r="U20" s="8">
         <v>119</v>
       </c>
-      <c r="V20" s="8"/>
+      <c r="V20" s="8">
+        <v>214</v>
+      </c>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -32137,7 +32375,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="58"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -32195,7 +32433,9 @@
       <c r="U21" s="8">
         <v>17</v>
       </c>
-      <c r="V21" s="8"/>
+      <c r="V21" s="8">
+        <v>7</v>
+      </c>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
@@ -32292,7 +32532,9 @@
       <c r="U22" s="8">
         <v>1</v>
       </c>
-      <c r="V22" s="8"/>
+      <c r="V22" s="8">
+        <v>8</v>
+      </c>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
@@ -32389,7 +32631,9 @@
       <c r="U23" s="8">
         <v>0</v>
       </c>
-      <c r="V23" s="8"/>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
@@ -32486,7 +32730,9 @@
       <c r="U24" s="8">
         <v>0</v>
       </c>
-      <c r="V24" s="8"/>
+      <c r="V24" s="8">
+        <v>2</v>
+      </c>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
@@ -32583,7 +32829,9 @@
       <c r="U25" s="8">
         <v>0</v>
       </c>
-      <c r="V25" s="8"/>
+      <c r="V25" s="8">
+        <v>0</v>
+      </c>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
@@ -32680,7 +32928,9 @@
       <c r="U26" s="8">
         <v>4</v>
       </c>
-      <c r="V26" s="8"/>
+      <c r="V26" s="8">
+        <v>5</v>
+      </c>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
@@ -32777,7 +33027,9 @@
       <c r="U27" s="8">
         <v>0</v>
       </c>
-      <c r="V27" s="8"/>
+      <c r="V27" s="8">
+        <v>0</v>
+      </c>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
@@ -32874,7 +33126,9 @@
       <c r="U28" s="8">
         <v>0</v>
       </c>
-      <c r="V28" s="8"/>
+      <c r="V28" s="8">
+        <v>0</v>
+      </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
@@ -32911,7 +33165,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="56" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -32971,7 +33225,9 @@
       <c r="U29" s="8">
         <v>0</v>
       </c>
-      <c r="V29" s="8"/>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
@@ -33008,7 +33264,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -33066,7 +33322,9 @@
       <c r="U30" s="8">
         <v>0</v>
       </c>
-      <c r="V30" s="8"/>
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
@@ -33164,7 +33422,9 @@
       <c r="U31" s="8">
         <v>10</v>
       </c>
-      <c r="V31" s="8"/>
+      <c r="V31" s="8">
+        <v>15</v>
+      </c>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
@@ -33261,7 +33521,9 @@
       <c r="U32" s="8">
         <v>0</v>
       </c>
-      <c r="V32" s="8"/>
+      <c r="V32" s="8">
+        <v>0</v>
+      </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
@@ -33358,7 +33620,9 @@
       <c r="U33" s="8">
         <v>0</v>
       </c>
-      <c r="V33" s="8"/>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
@@ -33456,7 +33720,9 @@
       <c r="U34" s="8">
         <v>9</v>
       </c>
-      <c r="V34" s="8"/>
+      <c r="V34" s="8">
+        <v>14</v>
+      </c>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
@@ -33494,7 +33760,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -33554,7 +33820,9 @@
       <c r="U35" s="8">
         <v>71</v>
       </c>
-      <c r="V35" s="8"/>
+      <c r="V35" s="8">
+        <v>93</v>
+      </c>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
@@ -33591,7 +33859,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="58"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -33649,7 +33917,9 @@
       <c r="U36" s="8">
         <v>8</v>
       </c>
-      <c r="V36" s="8"/>
+      <c r="V36" s="8">
+        <v>16</v>
+      </c>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
@@ -33747,7 +34017,9 @@
       <c r="U37" s="8">
         <v>5</v>
       </c>
-      <c r="V37" s="8"/>
+      <c r="V37" s="8">
+        <v>14</v>
+      </c>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
@@ -33844,7 +34116,9 @@
       <c r="U38" s="8">
         <v>0</v>
       </c>
-      <c r="V38" s="8"/>
+      <c r="V38" s="8">
+        <v>0</v>
+      </c>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
@@ -33941,7 +34215,9 @@
       <c r="U39" s="8">
         <v>1</v>
       </c>
-      <c r="V39" s="8"/>
+      <c r="V39" s="8">
+        <v>1</v>
+      </c>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
@@ -34038,7 +34314,9 @@
       <c r="U40" s="8">
         <v>0</v>
       </c>
-      <c r="V40" s="8"/>
+      <c r="V40" s="8">
+        <v>0</v>
+      </c>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
@@ -34135,7 +34413,9 @@
       <c r="U41" s="8">
         <v>0</v>
       </c>
-      <c r="V41" s="8"/>
+      <c r="V41" s="8">
+        <v>0</v>
+      </c>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
@@ -34232,7 +34512,9 @@
       <c r="U42" s="8">
         <v>4</v>
       </c>
-      <c r="V42" s="8"/>
+      <c r="V42" s="8">
+        <v>4</v>
+      </c>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
@@ -34329,7 +34611,9 @@
       <c r="U43" s="8">
         <v>30</v>
       </c>
-      <c r="V43" s="8"/>
+      <c r="V43" s="8">
+        <v>21</v>
+      </c>
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
@@ -34426,7 +34710,9 @@
       <c r="U44" s="8">
         <v>2</v>
       </c>
-      <c r="V44" s="8"/>
+      <c r="V44" s="8">
+        <v>1</v>
+      </c>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
@@ -34523,7 +34809,9 @@
       <c r="U45" s="8">
         <v>3</v>
       </c>
-      <c r="V45" s="8"/>
+      <c r="V45" s="8">
+        <v>0</v>
+      </c>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
@@ -34620,7 +34908,9 @@
       <c r="U46" s="8">
         <v>1</v>
       </c>
-      <c r="V46" s="8"/>
+      <c r="V46" s="8">
+        <v>1</v>
+      </c>
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
@@ -34717,7 +35007,9 @@
       <c r="U47" s="8">
         <v>1</v>
       </c>
-      <c r="V47" s="8"/>
+      <c r="V47" s="8">
+        <v>0</v>
+      </c>
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
@@ -34814,7 +35106,9 @@
       <c r="U48" s="8">
         <v>5</v>
       </c>
-      <c r="V48" s="8"/>
+      <c r="V48" s="8">
+        <v>1</v>
+      </c>
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
@@ -34852,7 +35146,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -34912,7 +35206,9 @@
       <c r="U49" s="8">
         <v>12</v>
       </c>
-      <c r="V49" s="8"/>
+      <c r="V49" s="8">
+        <v>22</v>
+      </c>
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
@@ -34949,7 +35245,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -35007,7 +35303,9 @@
       <c r="U50" s="8">
         <v>2</v>
       </c>
-      <c r="V50" s="8"/>
+      <c r="V50" s="8">
+        <v>4</v>
+      </c>
       <c r="W50" s="8"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
@@ -35104,7 +35402,9 @@
       <c r="U51" s="8">
         <v>0</v>
       </c>
-      <c r="V51" s="8"/>
+      <c r="V51" s="8">
+        <v>0</v>
+      </c>
       <c r="W51" s="8"/>
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
@@ -35201,7 +35501,9 @@
       <c r="U52" s="8">
         <v>5</v>
       </c>
-      <c r="V52" s="8"/>
+      <c r="V52" s="8">
+        <v>7</v>
+      </c>
       <c r="W52" s="8"/>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
@@ -35298,7 +35600,9 @@
       <c r="U53" s="8">
         <v>3</v>
       </c>
-      <c r="V53" s="8"/>
+      <c r="V53" s="8">
+        <v>5</v>
+      </c>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
@@ -35395,7 +35699,9 @@
       <c r="U54" s="8">
         <v>2</v>
       </c>
-      <c r="V54" s="8"/>
+      <c r="V54" s="8">
+        <v>7</v>
+      </c>
       <c r="W54" s="8"/>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
@@ -35492,7 +35798,9 @@
       <c r="U55" s="8">
         <v>3</v>
       </c>
-      <c r="V55" s="8"/>
+      <c r="V55" s="8">
+        <v>2</v>
+      </c>
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
@@ -35589,7 +35897,9 @@
       <c r="U56" s="8">
         <v>0</v>
       </c>
-      <c r="V56" s="8"/>
+      <c r="V56" s="8">
+        <v>2</v>
+      </c>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
@@ -35686,7 +35996,9 @@
       <c r="U57" s="8">
         <v>0</v>
       </c>
-      <c r="V57" s="8"/>
+      <c r="V57" s="8">
+        <v>0</v>
+      </c>
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
@@ -35801,7 +36113,7 @@
       </c>
       <c r="V58" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="W58" s="14">
         <f t="shared" si="2"/>
@@ -35962,12 +36274,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="AQ3:BD3"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="D3:AD3"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -35984,52 +36336,12 @@
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AQ3:BD3"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -36042,11 +36354,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD61"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF64" sqref="AF64"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -36061,43 +36373,43 @@
   <sheetData>
     <row r="1" spans="1:56" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="56"/>
+      <c r="AD1" s="60"/>
     </row>
     <row r="2" spans="1:56" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -36126,37 +36438,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -36185,176 +36497,176 @@
       <c r="BD3" s="23"/>
     </row>
     <row r="4" spans="1:56" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="I4" s="33" t="s">
+      <c r="H4" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="33" t="s">
+      <c r="M4" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="W4" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="X4" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="R4" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="V4" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z4" s="33" t="s">
+      <c r="AA4" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB4" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC4" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AA4" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB4" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC4" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD4" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
     </row>
     <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
     </row>
     <row r="6" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -36418,7 +36730,9 @@
       <c r="U6" s="8">
         <v>74</v>
       </c>
-      <c r="V6" s="8"/>
+      <c r="V6" s="8">
+        <v>65</v>
+      </c>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -36515,7 +36829,9 @@
       <c r="U7" s="8">
         <v>1</v>
       </c>
-      <c r="V7" s="8"/>
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
@@ -36612,7 +36928,9 @@
       <c r="U8" s="8">
         <v>5</v>
       </c>
-      <c r="V8" s="8"/>
+      <c r="V8" s="8">
+        <v>8</v>
+      </c>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
@@ -36710,7 +37028,9 @@
       <c r="U9" s="8">
         <v>39</v>
       </c>
-      <c r="V9" s="8"/>
+      <c r="V9" s="8">
+        <v>49</v>
+      </c>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
@@ -36807,7 +37127,9 @@
       <c r="U10" s="8">
         <v>0</v>
       </c>
-      <c r="V10" s="8"/>
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -36904,7 +37226,9 @@
       <c r="U11" s="8">
         <v>6</v>
       </c>
-      <c r="V11" s="8"/>
+      <c r="V11" s="8">
+        <v>6</v>
+      </c>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
@@ -37001,7 +37325,9 @@
       <c r="U12" s="8">
         <v>4</v>
       </c>
-      <c r="V12" s="8"/>
+      <c r="V12" s="8">
+        <v>6</v>
+      </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
@@ -37042,7 +37368,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" s="8">
         <v>8</v>
@@ -37098,7 +37424,9 @@
       <c r="U13" s="8">
         <v>10</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="8">
+        <v>7</v>
+      </c>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
@@ -37195,7 +37523,9 @@
       <c r="U14" s="8">
         <v>4</v>
       </c>
-      <c r="V14" s="8"/>
+      <c r="V14" s="8">
+        <v>9</v>
+      </c>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
@@ -37292,7 +37622,9 @@
       <c r="U15" s="8">
         <v>0</v>
       </c>
-      <c r="V15" s="8"/>
+      <c r="V15" s="8">
+        <v>1</v>
+      </c>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
@@ -37390,7 +37722,9 @@
       <c r="U16" s="8">
         <v>54</v>
       </c>
-      <c r="V16" s="8"/>
+      <c r="V16" s="8">
+        <v>64</v>
+      </c>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
@@ -37487,7 +37821,9 @@
       <c r="U17" s="8">
         <v>34</v>
       </c>
-      <c r="V17" s="8"/>
+      <c r="V17" s="8">
+        <v>43</v>
+      </c>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
@@ -37585,7 +37921,9 @@
       <c r="U18" s="8">
         <v>759</v>
       </c>
-      <c r="V18" s="8"/>
+      <c r="V18" s="8">
+        <v>843</v>
+      </c>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
@@ -37623,7 +37961,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -37683,7 +38021,9 @@
       <c r="U19" s="8">
         <v>10</v>
       </c>
-      <c r="V19" s="8"/>
+      <c r="V19" s="8">
+        <v>9</v>
+      </c>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
@@ -37721,7 +38061,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -37779,7 +38119,9 @@
       <c r="U20" s="8">
         <v>41</v>
       </c>
-      <c r="V20" s="8"/>
+      <c r="V20" s="8">
+        <v>53</v>
+      </c>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -37817,7 +38159,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="58"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -37875,7 +38217,9 @@
       <c r="U21" s="8">
         <v>9</v>
       </c>
-      <c r="V21" s="8"/>
+      <c r="V21" s="8">
+        <v>4</v>
+      </c>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
@@ -37972,7 +38316,9 @@
       <c r="U22" s="8">
         <v>6</v>
       </c>
-      <c r="V22" s="8"/>
+      <c r="V22" s="8">
+        <v>4</v>
+      </c>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
@@ -38069,7 +38415,9 @@
       <c r="U23" s="8">
         <v>0</v>
       </c>
-      <c r="V23" s="8"/>
+      <c r="V23" s="8">
+        <v>3</v>
+      </c>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
@@ -38166,7 +38514,9 @@
       <c r="U24" s="8">
         <v>7</v>
       </c>
-      <c r="V24" s="8"/>
+      <c r="V24" s="8">
+        <v>2</v>
+      </c>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
@@ -38263,7 +38613,9 @@
       <c r="U25" s="8">
         <v>0</v>
       </c>
-      <c r="V25" s="8"/>
+      <c r="V25" s="8">
+        <v>0</v>
+      </c>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
@@ -38360,7 +38712,9 @@
       <c r="U26" s="8">
         <v>5</v>
       </c>
-      <c r="V26" s="8"/>
+      <c r="V26" s="8">
+        <v>5</v>
+      </c>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
@@ -38457,7 +38811,9 @@
       <c r="U27" s="8">
         <v>0</v>
       </c>
-      <c r="V27" s="8"/>
+      <c r="V27" s="8">
+        <v>0</v>
+      </c>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
@@ -38554,7 +38910,9 @@
       <c r="U28" s="8">
         <v>0</v>
       </c>
-      <c r="V28" s="8"/>
+      <c r="V28" s="8">
+        <v>1</v>
+      </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
@@ -38591,7 +38949,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="56" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -38651,7 +39009,9 @@
       <c r="U29" s="8">
         <v>0</v>
       </c>
-      <c r="V29" s="8"/>
+      <c r="V29" s="8">
+        <v>2</v>
+      </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
@@ -38688,7 +39048,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -38746,7 +39106,9 @@
       <c r="U30" s="8">
         <v>4</v>
       </c>
-      <c r="V30" s="8"/>
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
@@ -38844,7 +39206,9 @@
       <c r="U31" s="8">
         <v>9</v>
       </c>
-      <c r="V31" s="8"/>
+      <c r="V31" s="8">
+        <v>13</v>
+      </c>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
@@ -38941,7 +39305,9 @@
       <c r="U32" s="8">
         <v>0</v>
       </c>
-      <c r="V32" s="8"/>
+      <c r="V32" s="8">
+        <v>0</v>
+      </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
@@ -39038,7 +39404,9 @@
       <c r="U33" s="8">
         <v>1</v>
       </c>
-      <c r="V33" s="8"/>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
@@ -39136,7 +39504,9 @@
       <c r="U34" s="8">
         <v>22</v>
       </c>
-      <c r="V34" s="8"/>
+      <c r="V34" s="8">
+        <v>22</v>
+      </c>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
@@ -39174,7 +39544,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -39234,7 +39604,9 @@
       <c r="U35" s="8">
         <v>164</v>
       </c>
-      <c r="V35" s="8"/>
+      <c r="V35" s="8">
+        <v>186</v>
+      </c>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
@@ -39271,7 +39643,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="58"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -39329,7 +39701,9 @@
       <c r="U36" s="8">
         <v>8</v>
       </c>
-      <c r="V36" s="8"/>
+      <c r="V36" s="8">
+        <v>12</v>
+      </c>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
@@ -39427,7 +39801,9 @@
       <c r="U37" s="8">
         <v>10</v>
       </c>
-      <c r="V37" s="8"/>
+      <c r="V37" s="8">
+        <v>15</v>
+      </c>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
@@ -39524,7 +39900,9 @@
       <c r="U38" s="8">
         <v>5</v>
       </c>
-      <c r="V38" s="8"/>
+      <c r="V38" s="8">
+        <v>3</v>
+      </c>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
@@ -39621,7 +39999,9 @@
       <c r="U39" s="8">
         <v>2</v>
       </c>
-      <c r="V39" s="8"/>
+      <c r="V39" s="8">
+        <v>5</v>
+      </c>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
@@ -39718,7 +40098,9 @@
       <c r="U40" s="8">
         <v>0</v>
       </c>
-      <c r="V40" s="8"/>
+      <c r="V40" s="8">
+        <v>0</v>
+      </c>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
@@ -39815,7 +40197,9 @@
       <c r="U41" s="8">
         <v>0</v>
       </c>
-      <c r="V41" s="8"/>
+      <c r="V41" s="8">
+        <v>0</v>
+      </c>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
@@ -39912,7 +40296,9 @@
       <c r="U42" s="8">
         <v>6</v>
       </c>
-      <c r="V42" s="8"/>
+      <c r="V42" s="8">
+        <v>2</v>
+      </c>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
@@ -40009,7 +40395,9 @@
       <c r="U43" s="8">
         <v>20</v>
       </c>
-      <c r="V43" s="8"/>
+      <c r="V43" s="8">
+        <v>12</v>
+      </c>
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
@@ -40106,7 +40494,9 @@
       <c r="U44" s="8">
         <v>1</v>
       </c>
-      <c r="V44" s="8"/>
+      <c r="V44" s="8">
+        <v>1</v>
+      </c>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
@@ -40203,7 +40593,9 @@
       <c r="U45" s="8">
         <v>11</v>
       </c>
-      <c r="V45" s="8"/>
+      <c r="V45" s="8">
+        <v>4</v>
+      </c>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
@@ -40300,7 +40692,9 @@
       <c r="U46" s="8">
         <v>11</v>
       </c>
-      <c r="V46" s="8"/>
+      <c r="V46" s="8">
+        <v>6</v>
+      </c>
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
@@ -40397,7 +40791,9 @@
       <c r="U47" s="8">
         <v>1</v>
       </c>
-      <c r="V47" s="8"/>
+      <c r="V47" s="8">
+        <v>0</v>
+      </c>
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
@@ -40494,7 +40890,9 @@
       <c r="U48" s="8">
         <v>2</v>
       </c>
-      <c r="V48" s="8"/>
+      <c r="V48" s="8">
+        <v>1</v>
+      </c>
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
@@ -40532,7 +40930,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -40592,7 +40990,9 @@
       <c r="U49" s="8">
         <v>7</v>
       </c>
-      <c r="V49" s="8"/>
+      <c r="V49" s="8">
+        <v>23</v>
+      </c>
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
@@ -40629,7 +41029,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -40687,7 +41087,9 @@
       <c r="U50" s="8">
         <v>5</v>
       </c>
-      <c r="V50" s="8"/>
+      <c r="V50" s="8">
+        <v>5</v>
+      </c>
       <c r="W50" s="8"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
@@ -40784,7 +41186,9 @@
       <c r="U51" s="8">
         <v>2</v>
       </c>
-      <c r="V51" s="8"/>
+      <c r="V51" s="8">
+        <v>1</v>
+      </c>
       <c r="W51" s="8"/>
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
@@ -40881,7 +41285,9 @@
       <c r="U52" s="8">
         <v>7</v>
       </c>
-      <c r="V52" s="8"/>
+      <c r="V52" s="8">
+        <v>4</v>
+      </c>
       <c r="W52" s="8"/>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
@@ -40978,7 +41384,9 @@
       <c r="U53" s="8">
         <v>14</v>
       </c>
-      <c r="V53" s="8"/>
+      <c r="V53" s="8">
+        <v>5</v>
+      </c>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
@@ -41075,7 +41483,9 @@
       <c r="U54" s="8">
         <v>2</v>
       </c>
-      <c r="V54" s="8"/>
+      <c r="V54" s="8">
+        <v>2</v>
+      </c>
       <c r="W54" s="8"/>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
@@ -41172,7 +41582,9 @@
       <c r="U55" s="8">
         <v>1</v>
       </c>
-      <c r="V55" s="8"/>
+      <c r="V55" s="8">
+        <v>3</v>
+      </c>
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
@@ -41269,7 +41681,9 @@
       <c r="U56" s="8">
         <v>2</v>
       </c>
-      <c r="V56" s="8"/>
+      <c r="V56" s="8">
+        <v>0</v>
+      </c>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
@@ -41366,7 +41780,9 @@
       <c r="U57" s="8">
         <v>0</v>
       </c>
-      <c r="V57" s="8"/>
+      <c r="V57" s="8">
+        <v>0</v>
+      </c>
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
@@ -41481,7 +41897,7 @@
       </c>
       <c r="V58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1510</v>
       </c>
       <c r="W58" s="14">
         <f t="shared" si="0"/>
@@ -41643,6 +42059,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="D3:AD3"/>
     <mergeCell ref="D2:AD2"/>
     <mergeCell ref="B29:B30"/>
@@ -41659,53 +42122,6 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030811-4\ＪＯＢ030811-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\ＪＯＢ030817-5\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19905" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -2466,6 +2466,24 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,22 +2520,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2526,19 +2532,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2546,18 +2558,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4577,11 +4577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BV4" sqref="BV4:BV5"/>
+      <selection pane="bottomRight" activeCell="BW4" sqref="BW4:BW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4595,519 +4595,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BA1" s="45" t="s">
+      <c r="BA1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
       <c r="BD1" s="18"/>
       <c r="CD1" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="46"/>
-      <c r="CC2" s="46"/>
-      <c r="CD2" s="46"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
     </row>
     <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47" t="s">
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
     </row>
     <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="W4" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="43" t="s">
+      <c r="Z4" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="43" t="s">
+      <c r="AA4" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AB4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="43" t="s">
+      <c r="AC4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="43" t="s">
+      <c r="AD4" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="43" t="s">
+      <c r="AE4" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="43" t="s">
+      <c r="AF4" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="43" t="s">
+      <c r="AG4" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="AI4" s="43" t="s">
+      <c r="AI4" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="43" t="s">
+      <c r="AJ4" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="43" t="s">
+      <c r="AK4" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="43" t="s">
+      <c r="AL4" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="43" t="s">
+      <c r="AM4" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="43" t="s">
+      <c r="AN4" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="43" t="s">
+      <c r="AO4" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="43" t="s">
+      <c r="AQ4" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AR4" s="48" t="s">
+      <c r="AR4" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="48" t="s">
+      <c r="AS4" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="48" t="s">
+      <c r="AT4" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="48" t="s">
+      <c r="AU4" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="48" t="s">
+      <c r="AV4" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="48" t="s">
+      <c r="AW4" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="48" t="s">
+      <c r="AX4" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="48" t="s">
+      <c r="AY4" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="48" t="s">
+      <c r="AZ4" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="48" t="s">
+      <c r="BA4" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="48" t="s">
+      <c r="BB4" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="48" t="s">
+      <c r="BC4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="48" t="s">
+      <c r="BD4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="BE4" s="48" t="s">
+      <c r="BE4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="BF4" s="48" t="s">
+      <c r="BF4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="48" t="s">
+      <c r="BG4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="48" t="s">
+      <c r="BH4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="BJ4" s="48" t="s">
+      <c r="BJ4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="BK4" s="48" t="s">
+      <c r="BK4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="48" t="s">
+      <c r="BL4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="48" t="s">
+      <c r="BM4" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="BN4" s="48" t="s">
+      <c r="BN4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="BO4" s="48" t="s">
+      <c r="BO4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="48" t="s">
+      <c r="BP4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="BQ4" s="48" t="s">
+      <c r="BQ4" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="BR4" s="48" t="s">
+      <c r="BR4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="BS4" s="48" t="s">
+      <c r="BS4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="BT4" s="48" t="s">
+      <c r="BT4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="BU4" s="48" t="s">
+      <c r="BU4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="BV4" s="48" t="s">
+      <c r="BV4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="48" t="s">
+      <c r="BW4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="48" t="s">
+      <c r="BX4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="48" t="s">
+      <c r="BY4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="48" t="s">
+      <c r="BZ4" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="48" t="s">
+      <c r="CA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="48" t="s">
+      <c r="CB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="48" t="s">
+      <c r="CC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="48" t="s">
+      <c r="CD4" s="33" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
-      <c r="BV5" s="48"/>
-      <c r="BW5" s="48"/>
-      <c r="BX5" s="48"/>
-      <c r="BY5" s="48"/>
-      <c r="BZ5" s="48"/>
-      <c r="CA5" s="48"/>
-      <c r="CB5" s="48"/>
-      <c r="CC5" s="48"/>
-      <c r="CD5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
     </row>
     <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -5330,7 +5330,9 @@
       <c r="BV6" s="8">
         <v>121</v>
       </c>
-      <c r="BW6" s="8"/>
+      <c r="BW6" s="8">
+        <v>98</v>
+      </c>
       <c r="BX6" s="8"/>
       <c r="BY6" s="8"/>
       <c r="BZ6" s="8"/>
@@ -5559,7 +5561,9 @@
       <c r="BV7" s="8">
         <v>1</v>
       </c>
-      <c r="BW7" s="8"/>
+      <c r="BW7" s="8">
+        <v>0</v>
+      </c>
       <c r="BX7" s="8"/>
       <c r="BY7" s="8"/>
       <c r="BZ7" s="8"/>
@@ -5788,7 +5792,9 @@
       <c r="BV8" s="8">
         <v>8</v>
       </c>
-      <c r="BW8" s="8"/>
+      <c r="BW8" s="8">
+        <v>7</v>
+      </c>
       <c r="BX8" s="8"/>
       <c r="BY8" s="8"/>
       <c r="BZ8" s="8"/>
@@ -6018,7 +6024,9 @@
       <c r="BV9" s="8">
         <v>60</v>
       </c>
-      <c r="BW9" s="8"/>
+      <c r="BW9" s="8">
+        <v>62</v>
+      </c>
       <c r="BX9" s="8"/>
       <c r="BY9" s="8"/>
       <c r="BZ9" s="8"/>
@@ -6247,7 +6255,9 @@
       <c r="BV10" s="8">
         <v>0</v>
       </c>
-      <c r="BW10" s="8"/>
+      <c r="BW10" s="8">
+        <v>0</v>
+      </c>
       <c r="BX10" s="8"/>
       <c r="BY10" s="8"/>
       <c r="BZ10" s="8"/>
@@ -6476,7 +6486,9 @@
       <c r="BV11" s="8">
         <v>9</v>
       </c>
-      <c r="BW11" s="8"/>
+      <c r="BW11" s="8">
+        <v>11</v>
+      </c>
       <c r="BX11" s="8"/>
       <c r="BY11" s="8"/>
       <c r="BZ11" s="8"/>
@@ -6705,7 +6717,9 @@
       <c r="BV12" s="8">
         <v>6</v>
       </c>
-      <c r="BW12" s="8"/>
+      <c r="BW12" s="8">
+        <v>1</v>
+      </c>
       <c r="BX12" s="8"/>
       <c r="BY12" s="8"/>
       <c r="BZ12" s="8"/>
@@ -6934,7 +6948,9 @@
       <c r="BV13" s="8">
         <v>11</v>
       </c>
-      <c r="BW13" s="8"/>
+      <c r="BW13" s="8">
+        <v>14</v>
+      </c>
       <c r="BX13" s="8"/>
       <c r="BY13" s="8"/>
       <c r="BZ13" s="8"/>
@@ -7163,7 +7179,9 @@
       <c r="BV14" s="8">
         <v>12</v>
       </c>
-      <c r="BW14" s="8"/>
+      <c r="BW14" s="8">
+        <v>10</v>
+      </c>
       <c r="BX14" s="8"/>
       <c r="BY14" s="8"/>
       <c r="BZ14" s="8"/>
@@ -7392,7 +7410,9 @@
       <c r="BV15" s="8">
         <v>1</v>
       </c>
-      <c r="BW15" s="8"/>
+      <c r="BW15" s="8">
+        <v>0</v>
+      </c>
       <c r="BX15" s="8"/>
       <c r="BY15" s="8"/>
       <c r="BZ15" s="8"/>
@@ -7622,7 +7642,9 @@
       <c r="BV16" s="8">
         <v>72</v>
       </c>
-      <c r="BW16" s="8"/>
+      <c r="BW16" s="8">
+        <v>73</v>
+      </c>
       <c r="BX16" s="8"/>
       <c r="BY16" s="8"/>
       <c r="BZ16" s="8"/>
@@ -7851,7 +7873,9 @@
       <c r="BV17" s="8">
         <v>115</v>
       </c>
-      <c r="BW17" s="8"/>
+      <c r="BW17" s="8">
+        <v>157</v>
+      </c>
       <c r="BX17" s="8"/>
       <c r="BY17" s="8"/>
       <c r="BZ17" s="8"/>
@@ -8081,7 +8105,9 @@
       <c r="BV18" s="8">
         <v>1532</v>
       </c>
-      <c r="BW18" s="8"/>
+      <c r="BW18" s="8">
+        <v>1837</v>
+      </c>
       <c r="BX18" s="8"/>
       <c r="BY18" s="8"/>
       <c r="BZ18" s="8"/>
@@ -8092,7 +8118,7 @@
     </row>
     <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -8311,7 +8337,9 @@
       <c r="BV19" s="8">
         <v>84</v>
       </c>
-      <c r="BW19" s="8"/>
+      <c r="BW19" s="8">
+        <v>98</v>
+      </c>
       <c r="BX19" s="8"/>
       <c r="BY19" s="8"/>
       <c r="BZ19" s="8"/>
@@ -8322,7 +8350,7 @@
     </row>
     <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -8539,7 +8567,9 @@
       <c r="BV20" s="8">
         <v>267</v>
       </c>
-      <c r="BW20" s="8"/>
+      <c r="BW20" s="8">
+        <v>354</v>
+      </c>
       <c r="BX20" s="8"/>
       <c r="BY20" s="8"/>
       <c r="BZ20" s="8"/>
@@ -8550,7 +8580,7 @@
     </row>
     <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -8767,7 +8797,9 @@
       <c r="BV21" s="8">
         <v>11</v>
       </c>
-      <c r="BW21" s="8"/>
+      <c r="BW21" s="8">
+        <v>53</v>
+      </c>
       <c r="BX21" s="8"/>
       <c r="BY21" s="8"/>
       <c r="BZ21" s="8"/>
@@ -8996,7 +9028,9 @@
       <c r="BV22" s="8">
         <v>12</v>
       </c>
-      <c r="BW22" s="8"/>
+      <c r="BW22" s="8">
+        <v>11</v>
+      </c>
       <c r="BX22" s="8"/>
       <c r="BY22" s="8"/>
       <c r="BZ22" s="8"/>
@@ -9225,7 +9259,9 @@
       <c r="BV23" s="8">
         <v>3</v>
       </c>
-      <c r="BW23" s="8"/>
+      <c r="BW23" s="8">
+        <v>2</v>
+      </c>
       <c r="BX23" s="8"/>
       <c r="BY23" s="8"/>
       <c r="BZ23" s="8"/>
@@ -9454,7 +9490,9 @@
       <c r="BV24" s="8">
         <v>4</v>
       </c>
-      <c r="BW24" s="8"/>
+      <c r="BW24" s="8">
+        <v>2</v>
+      </c>
       <c r="BX24" s="8"/>
       <c r="BY24" s="8"/>
       <c r="BZ24" s="8"/>
@@ -9683,7 +9721,9 @@
       <c r="BV25" s="8">
         <v>0</v>
       </c>
-      <c r="BW25" s="8"/>
+      <c r="BW25" s="8">
+        <v>0</v>
+      </c>
       <c r="BX25" s="8"/>
       <c r="BY25" s="8"/>
       <c r="BZ25" s="8"/>
@@ -9912,7 +9952,9 @@
       <c r="BV26" s="8">
         <v>10</v>
       </c>
-      <c r="BW26" s="8"/>
+      <c r="BW26" s="8">
+        <v>6</v>
+      </c>
       <c r="BX26" s="8"/>
       <c r="BY26" s="8"/>
       <c r="BZ26" s="8"/>
@@ -10141,7 +10183,9 @@
       <c r="BV27" s="8">
         <v>0</v>
       </c>
-      <c r="BW27" s="8"/>
+      <c r="BW27" s="8">
+        <v>0</v>
+      </c>
       <c r="BX27" s="8"/>
       <c r="BY27" s="8"/>
       <c r="BZ27" s="8"/>
@@ -10370,7 +10414,9 @@
       <c r="BV28" s="8">
         <v>1</v>
       </c>
-      <c r="BW28" s="8"/>
+      <c r="BW28" s="8">
+        <v>1</v>
+      </c>
       <c r="BX28" s="8"/>
       <c r="BY28" s="8"/>
       <c r="BZ28" s="8"/>
@@ -10380,7 +10426,7 @@
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -10599,7 +10645,9 @@
       <c r="BV29" s="8">
         <v>2</v>
       </c>
-      <c r="BW29" s="8"/>
+      <c r="BW29" s="8">
+        <v>5</v>
+      </c>
       <c r="BX29" s="8"/>
       <c r="BY29" s="8"/>
       <c r="BZ29" s="8"/>
@@ -10609,7 +10657,7 @@
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -10826,7 +10874,9 @@
       <c r="BV30" s="8">
         <v>0</v>
       </c>
-      <c r="BW30" s="8"/>
+      <c r="BW30" s="8">
+        <v>5</v>
+      </c>
       <c r="BX30" s="8"/>
       <c r="BY30" s="8"/>
       <c r="BZ30" s="8"/>
@@ -11056,7 +11106,9 @@
       <c r="BV31" s="8">
         <v>28</v>
       </c>
-      <c r="BW31" s="8"/>
+      <c r="BW31" s="8">
+        <v>30</v>
+      </c>
       <c r="BX31" s="8"/>
       <c r="BY31" s="8"/>
       <c r="BZ31" s="8"/>
@@ -11285,7 +11337,9 @@
       <c r="BV32" s="8">
         <v>0</v>
       </c>
-      <c r="BW32" s="8"/>
+      <c r="BW32" s="8">
+        <v>2</v>
+      </c>
       <c r="BX32" s="8"/>
       <c r="BY32" s="8"/>
       <c r="BZ32" s="8"/>
@@ -11514,7 +11568,9 @@
       <c r="BV33" s="8">
         <v>0</v>
       </c>
-      <c r="BW33" s="8"/>
+      <c r="BW33" s="8">
+        <v>1</v>
+      </c>
       <c r="BX33" s="8"/>
       <c r="BY33" s="8"/>
       <c r="BZ33" s="8"/>
@@ -11744,7 +11800,9 @@
       <c r="BV34" s="8">
         <v>36</v>
       </c>
-      <c r="BW34" s="8"/>
+      <c r="BW34" s="8">
+        <v>38</v>
+      </c>
       <c r="BX34" s="8"/>
       <c r="BY34" s="8"/>
       <c r="BZ34" s="8"/>
@@ -11755,7 +11813,7 @@
     </row>
     <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -11974,7 +12032,9 @@
       <c r="BV35" s="8">
         <v>279</v>
       </c>
-      <c r="BW35" s="8"/>
+      <c r="BW35" s="8">
+        <v>240</v>
+      </c>
       <c r="BX35" s="8"/>
       <c r="BY35" s="8"/>
       <c r="BZ35" s="8"/>
@@ -11984,7 +12044,7 @@
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -12201,7 +12261,9 @@
       <c r="BV36" s="8">
         <v>28</v>
       </c>
-      <c r="BW36" s="8"/>
+      <c r="BW36" s="8">
+        <v>27</v>
+      </c>
       <c r="BX36" s="8"/>
       <c r="BY36" s="8"/>
       <c r="BZ36" s="8"/>
@@ -12431,7 +12493,9 @@
       <c r="BV37" s="8">
         <v>29</v>
       </c>
-      <c r="BW37" s="8"/>
+      <c r="BW37" s="8">
+        <v>26</v>
+      </c>
       <c r="BX37" s="8"/>
       <c r="BY37" s="8"/>
       <c r="BZ37" s="8"/>
@@ -12660,7 +12724,9 @@
       <c r="BV38" s="8">
         <v>3</v>
       </c>
-      <c r="BW38" s="8"/>
+      <c r="BW38" s="8">
+        <v>4</v>
+      </c>
       <c r="BX38" s="8"/>
       <c r="BY38" s="8"/>
       <c r="BZ38" s="8"/>
@@ -12889,7 +12955,9 @@
       <c r="BV39" s="8">
         <v>6</v>
       </c>
-      <c r="BW39" s="8"/>
+      <c r="BW39" s="8">
+        <v>3</v>
+      </c>
       <c r="BX39" s="8"/>
       <c r="BY39" s="8"/>
       <c r="BZ39" s="8"/>
@@ -13118,7 +13186,9 @@
       <c r="BV40" s="8">
         <v>0</v>
       </c>
-      <c r="BW40" s="8"/>
+      <c r="BW40" s="8">
+        <v>0</v>
+      </c>
       <c r="BX40" s="8"/>
       <c r="BY40" s="8"/>
       <c r="BZ40" s="8"/>
@@ -13347,7 +13417,9 @@
       <c r="BV41" s="8">
         <v>0</v>
       </c>
-      <c r="BW41" s="8"/>
+      <c r="BW41" s="8">
+        <v>0</v>
+      </c>
       <c r="BX41" s="8"/>
       <c r="BY41" s="8"/>
       <c r="BZ41" s="8"/>
@@ -13576,7 +13648,9 @@
       <c r="BV42" s="8">
         <v>6</v>
       </c>
-      <c r="BW42" s="8"/>
+      <c r="BW42" s="8">
+        <v>7</v>
+      </c>
       <c r="BX42" s="8"/>
       <c r="BY42" s="8"/>
       <c r="BZ42" s="8"/>
@@ -13805,7 +13879,9 @@
       <c r="BV43" s="8">
         <v>33</v>
       </c>
-      <c r="BW43" s="8"/>
+      <c r="BW43" s="8">
+        <v>36</v>
+      </c>
       <c r="BX43" s="8"/>
       <c r="BY43" s="8"/>
       <c r="BZ43" s="8"/>
@@ -14034,7 +14110,9 @@
       <c r="BV44" s="8">
         <v>2</v>
       </c>
-      <c r="BW44" s="8"/>
+      <c r="BW44" s="8">
+        <v>5</v>
+      </c>
       <c r="BX44" s="8"/>
       <c r="BY44" s="8"/>
       <c r="BZ44" s="8"/>
@@ -14263,7 +14341,9 @@
       <c r="BV45" s="8">
         <v>4</v>
       </c>
-      <c r="BW45" s="8"/>
+      <c r="BW45" s="8">
+        <v>2</v>
+      </c>
       <c r="BX45" s="8"/>
       <c r="BY45" s="8"/>
       <c r="BZ45" s="8"/>
@@ -14492,7 +14572,9 @@
       <c r="BV46" s="8">
         <v>7</v>
       </c>
-      <c r="BW46" s="8"/>
+      <c r="BW46" s="8">
+        <v>11</v>
+      </c>
       <c r="BX46" s="8"/>
       <c r="BY46" s="8"/>
       <c r="BZ46" s="8"/>
@@ -14721,7 +14803,9 @@
       <c r="BV47" s="8">
         <v>0</v>
       </c>
-      <c r="BW47" s="8"/>
+      <c r="BW47" s="8">
+        <v>1</v>
+      </c>
       <c r="BX47" s="8"/>
       <c r="BY47" s="8"/>
       <c r="BZ47" s="8"/>
@@ -14950,7 +15034,9 @@
       <c r="BV48" s="8">
         <v>2</v>
       </c>
-      <c r="BW48" s="8"/>
+      <c r="BW48" s="8">
+        <v>5</v>
+      </c>
       <c r="BX48" s="8"/>
       <c r="BY48" s="8"/>
       <c r="BZ48" s="8"/>
@@ -14961,7 +15047,7 @@
     </row>
     <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -15180,7 +15266,9 @@
       <c r="BV49" s="8">
         <v>45</v>
       </c>
-      <c r="BW49" s="8"/>
+      <c r="BW49" s="8">
+        <v>55</v>
+      </c>
       <c r="BX49" s="8"/>
       <c r="BY49" s="8"/>
       <c r="BZ49" s="8"/>
@@ -15190,7 +15278,7 @@
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -15407,7 +15495,9 @@
       <c r="BV50" s="8">
         <v>9</v>
       </c>
-      <c r="BW50" s="8"/>
+      <c r="BW50" s="8">
+        <v>11</v>
+      </c>
       <c r="BX50" s="8"/>
       <c r="BY50" s="8"/>
       <c r="BZ50" s="8"/>
@@ -15636,7 +15726,9 @@
       <c r="BV51" s="8">
         <v>1</v>
       </c>
-      <c r="BW51" s="8"/>
+      <c r="BW51" s="8">
+        <v>3</v>
+      </c>
       <c r="BX51" s="8"/>
       <c r="BY51" s="8"/>
       <c r="BZ51" s="8"/>
@@ -15865,7 +15957,9 @@
       <c r="BV52" s="8">
         <v>11</v>
       </c>
-      <c r="BW52" s="8"/>
+      <c r="BW52" s="8">
+        <v>9</v>
+      </c>
       <c r="BX52" s="8"/>
       <c r="BY52" s="8"/>
       <c r="BZ52" s="8"/>
@@ -16094,7 +16188,9 @@
       <c r="BV53" s="8">
         <v>10</v>
       </c>
-      <c r="BW53" s="8"/>
+      <c r="BW53" s="8">
+        <v>20</v>
+      </c>
       <c r="BX53" s="8"/>
       <c r="BY53" s="8"/>
       <c r="BZ53" s="8"/>
@@ -16323,7 +16419,9 @@
       <c r="BV54" s="8">
         <v>9</v>
       </c>
-      <c r="BW54" s="8"/>
+      <c r="BW54" s="8">
+        <v>7</v>
+      </c>
       <c r="BX54" s="8"/>
       <c r="BY54" s="8"/>
       <c r="BZ54" s="8"/>
@@ -16552,7 +16650,9 @@
       <c r="BV55" s="8">
         <v>5</v>
       </c>
-      <c r="BW55" s="8"/>
+      <c r="BW55" s="8">
+        <v>8</v>
+      </c>
       <c r="BX55" s="8"/>
       <c r="BY55" s="8"/>
       <c r="BZ55" s="8"/>
@@ -16781,7 +16881,9 @@
       <c r="BV56" s="8">
         <v>2</v>
       </c>
-      <c r="BW56" s="8"/>
+      <c r="BW56" s="8">
+        <v>3</v>
+      </c>
       <c r="BX56" s="8"/>
       <c r="BY56" s="8"/>
       <c r="BZ56" s="8"/>
@@ -17010,7 +17112,9 @@
       <c r="BV57" s="8">
         <v>0</v>
       </c>
-      <c r="BW57" s="8"/>
+      <c r="BW57" s="8">
+        <v>0</v>
+      </c>
       <c r="BX57" s="8"/>
       <c r="BY57" s="8"/>
       <c r="BZ57" s="8"/>
@@ -17310,7 +17414,7 @@
       </c>
       <c r="BW58" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3361</v>
       </c>
       <c r="BX58" s="14">
         <f t="shared" si="3"/>
@@ -17512,26 +17616,26 @@
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -17594,6 +17698,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D61:W61"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="BO4:BO5"/>
@@ -17610,83 +17791,6 @@
     <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D61:W61"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17703,10 +17807,10 @@
   <dimension ref="B1:CD58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BI56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BV6" sqref="BV6:BV57"/>
+      <selection pane="bottomRight" activeCell="BT65" sqref="BT65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17720,519 +17824,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:82" ht="24" x14ac:dyDescent="0.4">
-      <c r="BB1" s="52" t="s">
+      <c r="BB1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="52"/>
+      <c r="BC1" s="49"/>
       <c r="BI1" s="20"/>
-      <c r="CC1" s="52" t="s">
+      <c r="CC1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="CD1" s="52"/>
+      <c r="CD1" s="49"/>
     </row>
     <row r="2" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="46"/>
-      <c r="CC2" s="46"/>
-      <c r="CD2" s="46"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
     </row>
     <row r="3" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47" t="s">
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
     </row>
     <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="49" t="s">
+      <c r="V4" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="49" t="s">
+      <c r="W4" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="49" t="s">
+      <c r="X4" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="49" t="s">
+      <c r="Y4" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="49" t="s">
+      <c r="Z4" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="AA4" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AB4" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="49" t="s">
+      <c r="AC4" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="49" t="s">
+      <c r="AD4" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="49" t="s">
+      <c r="AE4" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="49" t="s">
+      <c r="AF4" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="49" t="s">
+      <c r="AG4" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="49" t="s">
+      <c r="AH4" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="49" t="s">
+      <c r="AI4" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="49" t="s">
+      <c r="AJ4" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="49" t="s">
+      <c r="AK4" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="49" t="s">
+      <c r="AL4" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="49" t="s">
+      <c r="AM4" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="49" t="s">
+      <c r="AN4" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="49" t="s">
+      <c r="AO4" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="49" t="s">
+      <c r="AP4" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="49" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="49" t="s">
+      <c r="AR4" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="49" t="s">
+      <c r="AS4" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="49" t="s">
+      <c r="AT4" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="49" t="s">
+      <c r="AU4" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="49" t="s">
+      <c r="AV4" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="49" t="s">
+      <c r="AW4" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="49" t="s">
+      <c r="AX4" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="49" t="s">
+      <c r="AY4" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="49" t="s">
+      <c r="AZ4" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="49" t="s">
+      <c r="BA4" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="49" t="s">
+      <c r="BB4" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="49" t="s">
+      <c r="BC4" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="43" t="s">
+      <c r="BD4" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="43" t="s">
+      <c r="BE4" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" s="43" t="s">
+      <c r="BF4" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="BG4" s="43" t="s">
+      <c r="BG4" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" s="43" t="s">
+      <c r="BH4" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="BI4" s="43" t="s">
+      <c r="BI4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="43" t="s">
+      <c r="BJ4" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="43" t="s">
+      <c r="BK4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="43" t="s">
+      <c r="BL4" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="43" t="s">
+      <c r="BM4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="43" t="s">
+      <c r="BN4" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="43" t="s">
+      <c r="BO4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="51" t="s">
+      <c r="BP4" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="BQ4" s="51" t="s">
+      <c r="BQ4" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="BR4" s="51" t="s">
+      <c r="BR4" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="BS4" s="51" t="s">
+      <c r="BS4" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="BT4" s="51" t="s">
+      <c r="BT4" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="BU4" s="51" t="s">
+      <c r="BU4" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="BV4" s="51" t="s">
+      <c r="BV4" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="BW4" s="51" t="s">
+      <c r="BW4" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="BX4" s="51" t="s">
+      <c r="BX4" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="BY4" s="51" t="s">
+      <c r="BY4" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="BZ4" s="51" t="s">
+      <c r="BZ4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="CA4" s="51" t="s">
+      <c r="CA4" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="CB4" s="51" t="s">
+      <c r="CB4" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="51" t="s">
+      <c r="CC4" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="43" t="s">
+      <c r="CD4" s="31" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:82" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="44"/>
-      <c r="BW5" s="44"/>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
     </row>
     <row r="6" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
@@ -18454,7 +18558,9 @@
       <c r="BV6" s="8">
         <v>54</v>
       </c>
-      <c r="BW6" s="8"/>
+      <c r="BW6" s="8">
+        <v>62</v>
+      </c>
       <c r="BX6" s="8"/>
       <c r="BY6" s="8"/>
       <c r="BZ6" s="8"/>
@@ -18683,7 +18789,9 @@
       <c r="BV7" s="8">
         <v>1</v>
       </c>
-      <c r="BW7" s="8"/>
+      <c r="BW7" s="8">
+        <v>0</v>
+      </c>
       <c r="BX7" s="8"/>
       <c r="BY7" s="8"/>
       <c r="BZ7" s="8"/>
@@ -18912,7 +19020,9 @@
       <c r="BV8" s="8">
         <v>2</v>
       </c>
-      <c r="BW8" s="8"/>
+      <c r="BW8" s="8">
+        <v>4</v>
+      </c>
       <c r="BX8" s="8"/>
       <c r="BY8" s="8"/>
       <c r="BZ8" s="8"/>
@@ -19141,7 +19251,9 @@
       <c r="BV9" s="8">
         <v>41</v>
       </c>
-      <c r="BW9" s="8"/>
+      <c r="BW9" s="8">
+        <v>22</v>
+      </c>
       <c r="BX9" s="8"/>
       <c r="BY9" s="8"/>
       <c r="BZ9" s="8"/>
@@ -19370,7 +19482,9 @@
       <c r="BV10" s="8">
         <v>0</v>
       </c>
-      <c r="BW10" s="8"/>
+      <c r="BW10" s="8">
+        <v>0</v>
+      </c>
       <c r="BX10" s="8"/>
       <c r="BY10" s="8"/>
       <c r="BZ10" s="8"/>
@@ -19599,7 +19713,9 @@
       <c r="BV11" s="8">
         <v>1</v>
       </c>
-      <c r="BW11" s="8"/>
+      <c r="BW11" s="8">
+        <v>2</v>
+      </c>
       <c r="BX11" s="8"/>
       <c r="BY11" s="8"/>
       <c r="BZ11" s="8"/>
@@ -19828,7 +19944,9 @@
       <c r="BV12" s="8">
         <v>4</v>
       </c>
-      <c r="BW12" s="8"/>
+      <c r="BW12" s="8">
+        <v>1</v>
+      </c>
       <c r="BX12" s="8"/>
       <c r="BY12" s="8"/>
       <c r="BZ12" s="8"/>
@@ -20057,7 +20175,9 @@
       <c r="BV13" s="8">
         <v>14</v>
       </c>
-      <c r="BW13" s="8"/>
+      <c r="BW13" s="8">
+        <v>29</v>
+      </c>
       <c r="BX13" s="8"/>
       <c r="BY13" s="8"/>
       <c r="BZ13" s="8"/>
@@ -20286,7 +20406,9 @@
       <c r="BV14" s="8">
         <v>4</v>
       </c>
-      <c r="BW14" s="8"/>
+      <c r="BW14" s="8">
+        <v>2</v>
+      </c>
       <c r="BX14" s="8"/>
       <c r="BY14" s="8"/>
       <c r="BZ14" s="8"/>
@@ -20515,7 +20637,9 @@
       <c r="BV15" s="8">
         <v>0</v>
       </c>
-      <c r="BW15" s="8"/>
+      <c r="BW15" s="8">
+        <v>3</v>
+      </c>
       <c r="BX15" s="8"/>
       <c r="BY15" s="8"/>
       <c r="BZ15" s="8"/>
@@ -20744,7 +20868,9 @@
       <c r="BV16" s="8">
         <v>37</v>
       </c>
-      <c r="BW16" s="8"/>
+      <c r="BW16" s="8">
+        <v>48</v>
+      </c>
       <c r="BX16" s="8"/>
       <c r="BY16" s="8"/>
       <c r="BZ16" s="8"/>
@@ -20973,7 +21099,9 @@
       <c r="BV17" s="8">
         <v>69</v>
       </c>
-      <c r="BW17" s="8"/>
+      <c r="BW17" s="8">
+        <v>99</v>
+      </c>
       <c r="BX17" s="8"/>
       <c r="BY17" s="8"/>
       <c r="BZ17" s="8"/>
@@ -21202,7 +21330,9 @@
       <c r="BV18" s="8">
         <v>691</v>
       </c>
-      <c r="BW18" s="8"/>
+      <c r="BW18" s="8">
+        <v>1012</v>
+      </c>
       <c r="BX18" s="8"/>
       <c r="BY18" s="8"/>
       <c r="BZ18" s="8"/>
@@ -21212,7 +21342,7 @@
       <c r="CD18" s="8"/>
     </row>
     <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -21431,7 +21561,9 @@
       <c r="BV19" s="8">
         <v>17</v>
       </c>
-      <c r="BW19" s="8"/>
+      <c r="BW19" s="8">
+        <v>26</v>
+      </c>
       <c r="BX19" s="8"/>
       <c r="BY19" s="8"/>
       <c r="BZ19" s="8"/>
@@ -21441,7 +21573,7 @@
       <c r="CD19" s="8"/>
     </row>
     <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -21658,7 +21790,9 @@
       <c r="BV20" s="8">
         <v>76</v>
       </c>
-      <c r="BW20" s="8"/>
+      <c r="BW20" s="8">
+        <v>152</v>
+      </c>
       <c r="BX20" s="8"/>
       <c r="BY20" s="8"/>
       <c r="BZ20" s="8"/>
@@ -21668,7 +21802,7 @@
       <c r="CD20" s="8"/>
     </row>
     <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -21885,7 +22019,9 @@
       <c r="BV21" s="8">
         <v>16</v>
       </c>
-      <c r="BW21" s="8"/>
+      <c r="BW21" s="8">
+        <v>29</v>
+      </c>
       <c r="BX21" s="8"/>
       <c r="BY21" s="8"/>
       <c r="BZ21" s="8"/>
@@ -22114,7 +22250,9 @@
       <c r="BV22" s="8">
         <v>12</v>
       </c>
-      <c r="BW22" s="8"/>
+      <c r="BW22" s="8">
+        <v>21</v>
+      </c>
       <c r="BX22" s="8"/>
       <c r="BY22" s="8"/>
       <c r="BZ22" s="8"/>
@@ -22343,7 +22481,9 @@
       <c r="BV23" s="8">
         <v>0</v>
       </c>
-      <c r="BW23" s="8"/>
+      <c r="BW23" s="8">
+        <v>0</v>
+      </c>
       <c r="BX23" s="8"/>
       <c r="BY23" s="8"/>
       <c r="BZ23" s="8"/>
@@ -22572,7 +22712,9 @@
       <c r="BV24" s="8">
         <v>3</v>
       </c>
-      <c r="BW24" s="8"/>
+      <c r="BW24" s="8">
+        <v>5</v>
+      </c>
       <c r="BX24" s="8"/>
       <c r="BY24" s="8"/>
       <c r="BZ24" s="8"/>
@@ -22801,7 +22943,9 @@
       <c r="BV25" s="8">
         <v>0</v>
       </c>
-      <c r="BW25" s="8"/>
+      <c r="BW25" s="8">
+        <v>0</v>
+      </c>
       <c r="BX25" s="8"/>
       <c r="BY25" s="8"/>
       <c r="BZ25" s="8"/>
@@ -23030,7 +23174,9 @@
       <c r="BV26" s="8">
         <v>6</v>
       </c>
-      <c r="BW26" s="8"/>
+      <c r="BW26" s="8">
+        <v>12</v>
+      </c>
       <c r="BX26" s="8"/>
       <c r="BY26" s="8"/>
       <c r="BZ26" s="8"/>
@@ -23259,7 +23405,9 @@
       <c r="BV27" s="8">
         <v>0</v>
       </c>
-      <c r="BW27" s="8"/>
+      <c r="BW27" s="8">
+        <v>0</v>
+      </c>
       <c r="BX27" s="8"/>
       <c r="BY27" s="8"/>
       <c r="BZ27" s="8"/>
@@ -23488,7 +23636,9 @@
       <c r="BV28" s="8">
         <v>1</v>
       </c>
-      <c r="BW28" s="8"/>
+      <c r="BW28" s="8">
+        <v>0</v>
+      </c>
       <c r="BX28" s="8"/>
       <c r="BY28" s="8"/>
       <c r="BZ28" s="8"/>
@@ -23498,7 +23648,7 @@
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -23717,7 +23867,9 @@
       <c r="BV29" s="8">
         <v>7</v>
       </c>
-      <c r="BW29" s="8"/>
+      <c r="BW29" s="8">
+        <v>1</v>
+      </c>
       <c r="BX29" s="8"/>
       <c r="BY29" s="8"/>
       <c r="BZ29" s="8"/>
@@ -23727,7 +23879,7 @@
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -23944,7 +24096,9 @@
       <c r="BV30" s="8">
         <v>0</v>
       </c>
-      <c r="BW30" s="8"/>
+      <c r="BW30" s="8">
+        <v>3</v>
+      </c>
       <c r="BX30" s="8"/>
       <c r="BY30" s="8"/>
       <c r="BZ30" s="8"/>
@@ -24173,7 +24327,9 @@
       <c r="BV31" s="8">
         <v>53</v>
       </c>
-      <c r="BW31" s="8"/>
+      <c r="BW31" s="8">
+        <v>35</v>
+      </c>
       <c r="BX31" s="8"/>
       <c r="BY31" s="8"/>
       <c r="BZ31" s="8"/>
@@ -24402,7 +24558,9 @@
       <c r="BV32" s="8">
         <v>4</v>
       </c>
-      <c r="BW32" s="8"/>
+      <c r="BW32" s="8">
+        <v>2</v>
+      </c>
       <c r="BX32" s="8"/>
       <c r="BY32" s="8"/>
       <c r="BZ32" s="8"/>
@@ -24631,7 +24789,9 @@
       <c r="BV33" s="8">
         <v>0</v>
       </c>
-      <c r="BW33" s="8"/>
+      <c r="BW33" s="8">
+        <v>0</v>
+      </c>
       <c r="BX33" s="8"/>
       <c r="BY33" s="8"/>
       <c r="BZ33" s="8"/>
@@ -24860,7 +25020,9 @@
       <c r="BV34" s="8">
         <v>22</v>
       </c>
-      <c r="BW34" s="8"/>
+      <c r="BW34" s="8">
+        <v>34</v>
+      </c>
       <c r="BX34" s="8"/>
       <c r="BY34" s="8"/>
       <c r="BZ34" s="8"/>
@@ -24870,7 +25032,7 @@
       <c r="CD34" s="8"/>
     </row>
     <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -25089,7 +25251,9 @@
       <c r="BV35" s="8">
         <v>228</v>
       </c>
-      <c r="BW35" s="8"/>
+      <c r="BW35" s="8">
+        <v>390</v>
+      </c>
       <c r="BX35" s="8"/>
       <c r="BY35" s="8"/>
       <c r="BZ35" s="8"/>
@@ -25099,7 +25263,7 @@
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -25316,7 +25480,9 @@
       <c r="BV36" s="8">
         <v>15</v>
       </c>
-      <c r="BW36" s="8"/>
+      <c r="BW36" s="8">
+        <v>21</v>
+      </c>
       <c r="BX36" s="8"/>
       <c r="BY36" s="8"/>
       <c r="BZ36" s="8"/>
@@ -25545,7 +25711,9 @@
       <c r="BV37" s="8">
         <v>24</v>
       </c>
-      <c r="BW37" s="8"/>
+      <c r="BW37" s="8">
+        <v>31</v>
+      </c>
       <c r="BX37" s="8"/>
       <c r="BY37" s="8"/>
       <c r="BZ37" s="8"/>
@@ -25774,7 +25942,9 @@
       <c r="BV38" s="8">
         <v>5</v>
       </c>
-      <c r="BW38" s="8"/>
+      <c r="BW38" s="8">
+        <v>8</v>
+      </c>
       <c r="BX38" s="8"/>
       <c r="BY38" s="8"/>
       <c r="BZ38" s="8"/>
@@ -26003,7 +26173,9 @@
       <c r="BV39" s="8">
         <v>3</v>
       </c>
-      <c r="BW39" s="8"/>
+      <c r="BW39" s="8">
+        <v>5</v>
+      </c>
       <c r="BX39" s="8"/>
       <c r="BY39" s="8"/>
       <c r="BZ39" s="8"/>
@@ -26232,7 +26404,9 @@
       <c r="BV40" s="8">
         <v>0</v>
       </c>
-      <c r="BW40" s="8"/>
+      <c r="BW40" s="8">
+        <v>0</v>
+      </c>
       <c r="BX40" s="8"/>
       <c r="BY40" s="8"/>
       <c r="BZ40" s="8"/>
@@ -26461,7 +26635,9 @@
       <c r="BV41" s="8">
         <v>0</v>
       </c>
-      <c r="BW41" s="8"/>
+      <c r="BW41" s="8">
+        <v>1</v>
+      </c>
       <c r="BX41" s="8"/>
       <c r="BY41" s="8"/>
       <c r="BZ41" s="8"/>
@@ -26690,7 +26866,9 @@
       <c r="BV42" s="8">
         <v>1</v>
       </c>
-      <c r="BW42" s="8"/>
+      <c r="BW42" s="8">
+        <v>2</v>
+      </c>
       <c r="BX42" s="8"/>
       <c r="BY42" s="8"/>
       <c r="BZ42" s="8"/>
@@ -26919,7 +27097,9 @@
       <c r="BV43" s="8">
         <v>29</v>
       </c>
-      <c r="BW43" s="8"/>
+      <c r="BW43" s="8">
+        <v>33</v>
+      </c>
       <c r="BX43" s="8"/>
       <c r="BY43" s="8"/>
       <c r="BZ43" s="8"/>
@@ -27148,7 +27328,9 @@
       <c r="BV44" s="8">
         <v>0</v>
       </c>
-      <c r="BW44" s="8"/>
+      <c r="BW44" s="8">
+        <v>1</v>
+      </c>
       <c r="BX44" s="8"/>
       <c r="BY44" s="8"/>
       <c r="BZ44" s="8"/>
@@ -27377,7 +27559,9 @@
       <c r="BV45" s="8">
         <v>1</v>
       </c>
-      <c r="BW45" s="8"/>
+      <c r="BW45" s="8">
+        <v>6</v>
+      </c>
       <c r="BX45" s="8"/>
       <c r="BY45" s="8"/>
       <c r="BZ45" s="8"/>
@@ -27606,7 +27790,9 @@
       <c r="BV46" s="8">
         <v>6</v>
       </c>
-      <c r="BW46" s="8"/>
+      <c r="BW46" s="8">
+        <v>9</v>
+      </c>
       <c r="BX46" s="8"/>
       <c r="BY46" s="8"/>
       <c r="BZ46" s="8"/>
@@ -27835,7 +28021,9 @@
       <c r="BV47" s="8">
         <v>1</v>
       </c>
-      <c r="BW47" s="8"/>
+      <c r="BW47" s="8">
+        <v>1</v>
+      </c>
       <c r="BX47" s="8"/>
       <c r="BY47" s="8"/>
       <c r="BZ47" s="8"/>
@@ -28064,7 +28252,9 @@
       <c r="BV48" s="8">
         <v>1</v>
       </c>
-      <c r="BW48" s="8"/>
+      <c r="BW48" s="8">
+        <v>5</v>
+      </c>
       <c r="BX48" s="8"/>
       <c r="BY48" s="8"/>
       <c r="BZ48" s="8"/>
@@ -28074,7 +28264,7 @@
       <c r="CD48" s="8"/>
     </row>
     <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -28293,7 +28483,9 @@
       <c r="BV49" s="8">
         <v>19</v>
       </c>
-      <c r="BW49" s="8"/>
+      <c r="BW49" s="8">
+        <v>16</v>
+      </c>
       <c r="BX49" s="8"/>
       <c r="BY49" s="8"/>
       <c r="BZ49" s="8"/>
@@ -28303,7 +28495,7 @@
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -28520,7 +28712,9 @@
       <c r="BV50" s="8">
         <v>7</v>
       </c>
-      <c r="BW50" s="8"/>
+      <c r="BW50" s="8">
+        <v>8</v>
+      </c>
       <c r="BX50" s="8"/>
       <c r="BY50" s="8"/>
       <c r="BZ50" s="8"/>
@@ -28749,7 +28943,9 @@
       <c r="BV51" s="8">
         <v>4</v>
       </c>
-      <c r="BW51" s="8"/>
+      <c r="BW51" s="8">
+        <v>4</v>
+      </c>
       <c r="BX51" s="8"/>
       <c r="BY51" s="8"/>
       <c r="BZ51" s="8"/>
@@ -28978,7 +29174,9 @@
       <c r="BV52" s="8">
         <v>7</v>
       </c>
-      <c r="BW52" s="8"/>
+      <c r="BW52" s="8">
+        <v>6</v>
+      </c>
       <c r="BX52" s="8"/>
       <c r="BY52" s="8"/>
       <c r="BZ52" s="8"/>
@@ -29207,7 +29405,9 @@
       <c r="BV53" s="8">
         <v>8</v>
       </c>
-      <c r="BW53" s="8"/>
+      <c r="BW53" s="8">
+        <v>5</v>
+      </c>
       <c r="BX53" s="8"/>
       <c r="BY53" s="8"/>
       <c r="BZ53" s="8"/>
@@ -29436,7 +29636,9 @@
       <c r="BV54" s="8">
         <v>3</v>
       </c>
-      <c r="BW54" s="8"/>
+      <c r="BW54" s="8">
+        <v>5</v>
+      </c>
       <c r="BX54" s="8"/>
       <c r="BY54" s="8"/>
       <c r="BZ54" s="8"/>
@@ -29665,7 +29867,9 @@
       <c r="BV55" s="8">
         <v>11</v>
       </c>
-      <c r="BW55" s="8"/>
+      <c r="BW55" s="8">
+        <v>16</v>
+      </c>
       <c r="BX55" s="8"/>
       <c r="BY55" s="8"/>
       <c r="BZ55" s="8"/>
@@ -29894,7 +30098,9 @@
       <c r="BV56" s="8">
         <v>1</v>
       </c>
-      <c r="BW56" s="8"/>
+      <c r="BW56" s="8">
+        <v>7</v>
+      </c>
       <c r="BX56" s="8"/>
       <c r="BY56" s="8"/>
       <c r="BZ56" s="8"/>
@@ -30123,7 +30329,9 @@
       <c r="BV57" s="8">
         <v>0</v>
       </c>
-      <c r="BW57" s="8"/>
+      <c r="BW57" s="8">
+        <v>1</v>
+      </c>
       <c r="BX57" s="8"/>
       <c r="BY57" s="8"/>
       <c r="BZ57" s="8"/>
@@ -30422,7 +30630,7 @@
       </c>
       <c r="BW58" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="BX58" s="28">
         <f t="shared" si="3"/>
@@ -30454,6 +30662,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="BD3:CD3"/>
     <mergeCell ref="BD2:CD2"/>
     <mergeCell ref="BB1:BC1"/>
@@ -30470,83 +30755,6 @@
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30562,11 +30770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="Q57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D5"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6:W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30581,43 +30789,43 @@
   <sheetData>
     <row r="1" spans="1:60" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="59" t="s">
+      <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="60"/>
+      <c r="AD1" s="56"/>
     </row>
     <row r="2" spans="1:60" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -30646,37 +30854,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:60" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -30689,200 +30897,200 @@
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
       <c r="AP3" s="23"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
     </row>
     <row r="4" spans="1:60" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
     </row>
     <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="58"/>
-      <c r="BH5" s="58"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
     </row>
     <row r="6" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -30949,7 +31157,9 @@
       <c r="V6" s="8">
         <v>56</v>
       </c>
-      <c r="W6" s="8"/>
+      <c r="W6" s="8">
+        <v>35</v>
+      </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -31048,7 +31258,9 @@
       <c r="V7" s="8">
         <v>0</v>
       </c>
-      <c r="W7" s="8"/>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -31147,7 +31359,9 @@
       <c r="V8" s="8">
         <v>0</v>
       </c>
-      <c r="W8" s="8"/>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -31247,7 +31461,9 @@
       <c r="V9" s="8">
         <v>11</v>
       </c>
-      <c r="W9" s="8"/>
+      <c r="W9" s="8">
+        <v>10</v>
+      </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -31346,7 +31562,9 @@
       <c r="V10" s="8">
         <v>0</v>
       </c>
-      <c r="W10" s="8"/>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -31445,7 +31663,9 @@
       <c r="V11" s="8">
         <v>3</v>
       </c>
-      <c r="W11" s="8"/>
+      <c r="W11" s="8">
+        <v>4</v>
+      </c>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -31544,7 +31764,9 @@
       <c r="V12" s="8">
         <v>0</v>
       </c>
-      <c r="W12" s="8"/>
+      <c r="W12" s="8">
+        <v>1</v>
+      </c>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -31643,7 +31865,9 @@
       <c r="V13" s="8">
         <v>4</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="8">
+        <v>8</v>
+      </c>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -31742,7 +31966,9 @@
       <c r="V14" s="8">
         <v>3</v>
       </c>
-      <c r="W14" s="8"/>
+      <c r="W14" s="8">
+        <v>6</v>
+      </c>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
@@ -31841,7 +32067,9 @@
       <c r="V15" s="8">
         <v>0</v>
       </c>
-      <c r="W15" s="8"/>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -31941,7 +32169,9 @@
       <c r="V16" s="8">
         <v>8</v>
       </c>
-      <c r="W16" s="8"/>
+      <c r="W16" s="8">
+        <v>10</v>
+      </c>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -32040,7 +32270,9 @@
       <c r="V17" s="8">
         <v>72</v>
       </c>
-      <c r="W17" s="8"/>
+      <c r="W17" s="8">
+        <v>102</v>
+      </c>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
@@ -32140,7 +32372,9 @@
       <c r="V18" s="8">
         <v>689</v>
       </c>
-      <c r="W18" s="8"/>
+      <c r="W18" s="8">
+        <v>870</v>
+      </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -32177,7 +32411,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -32240,7 +32474,9 @@
       <c r="V19" s="8">
         <v>75</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="8">
+        <v>83</v>
+      </c>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -32277,7 +32513,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -32338,7 +32574,9 @@
       <c r="V20" s="8">
         <v>214</v>
       </c>
-      <c r="W20" s="8"/>
+      <c r="W20" s="8">
+        <v>281</v>
+      </c>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -32375,7 +32613,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -32436,7 +32674,9 @@
       <c r="V21" s="8">
         <v>7</v>
       </c>
-      <c r="W21" s="8"/>
+      <c r="W21" s="8">
+        <v>36</v>
+      </c>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -32535,7 +32775,9 @@
       <c r="V22" s="8">
         <v>8</v>
       </c>
-      <c r="W22" s="8"/>
+      <c r="W22" s="8">
+        <v>7</v>
+      </c>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -32634,7 +32876,9 @@
       <c r="V23" s="8">
         <v>0</v>
       </c>
-      <c r="W23" s="8"/>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
@@ -32733,7 +32977,9 @@
       <c r="V24" s="8">
         <v>2</v>
       </c>
-      <c r="W24" s="8"/>
+      <c r="W24" s="8">
+        <v>1</v>
+      </c>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
@@ -32832,7 +33078,9 @@
       <c r="V25" s="8">
         <v>0</v>
       </c>
-      <c r="W25" s="8"/>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -32931,7 +33179,9 @@
       <c r="V26" s="8">
         <v>5</v>
       </c>
-      <c r="W26" s="8"/>
+      <c r="W26" s="8">
+        <v>1</v>
+      </c>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
@@ -33030,7 +33280,9 @@
       <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="8"/>
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
@@ -33129,7 +33381,9 @@
       <c r="V28" s="8">
         <v>0</v>
       </c>
-      <c r="W28" s="8"/>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
@@ -33165,7 +33419,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -33228,7 +33482,9 @@
       <c r="V29" s="8">
         <v>0</v>
       </c>
-      <c r="W29" s="8"/>
+      <c r="W29" s="8">
+        <v>2</v>
+      </c>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
@@ -33264,7 +33520,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -33325,7 +33581,9 @@
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="8"/>
+      <c r="W30" s="8">
+        <v>1</v>
+      </c>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -33425,7 +33683,9 @@
       <c r="V31" s="8">
         <v>15</v>
       </c>
-      <c r="W31" s="8"/>
+      <c r="W31" s="8">
+        <v>10</v>
+      </c>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
@@ -33524,7 +33784,9 @@
       <c r="V32" s="8">
         <v>0</v>
       </c>
-      <c r="W32" s="8"/>
+      <c r="W32" s="8">
+        <v>2</v>
+      </c>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
@@ -33623,7 +33885,9 @@
       <c r="V33" s="8">
         <v>0</v>
       </c>
-      <c r="W33" s="8"/>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
@@ -33723,7 +33987,9 @@
       <c r="V34" s="8">
         <v>14</v>
       </c>
-      <c r="W34" s="8"/>
+      <c r="W34" s="8">
+        <v>17</v>
+      </c>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
@@ -33760,7 +34026,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -33823,7 +34089,9 @@
       <c r="V35" s="8">
         <v>93</v>
       </c>
-      <c r="W35" s="8"/>
+      <c r="W35" s="8">
+        <v>75</v>
+      </c>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
@@ -33859,7 +34127,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -33920,7 +34188,9 @@
       <c r="V36" s="8">
         <v>16</v>
       </c>
-      <c r="W36" s="8"/>
+      <c r="W36" s="8">
+        <v>18</v>
+      </c>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
@@ -34020,7 +34290,9 @@
       <c r="V37" s="8">
         <v>14</v>
       </c>
-      <c r="W37" s="8"/>
+      <c r="W37" s="8">
+        <v>15</v>
+      </c>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
@@ -34119,7 +34391,9 @@
       <c r="V38" s="8">
         <v>0</v>
       </c>
-      <c r="W38" s="8"/>
+      <c r="W38" s="8">
+        <v>3</v>
+      </c>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
@@ -34218,7 +34492,9 @@
       <c r="V39" s="8">
         <v>1</v>
       </c>
-      <c r="W39" s="8"/>
+      <c r="W39" s="8">
+        <v>1</v>
+      </c>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
@@ -34317,7 +34593,9 @@
       <c r="V40" s="8">
         <v>0</v>
       </c>
-      <c r="W40" s="8"/>
+      <c r="W40" s="8">
+        <v>0</v>
+      </c>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
@@ -34416,7 +34694,9 @@
       <c r="V41" s="8">
         <v>0</v>
       </c>
-      <c r="W41" s="8"/>
+      <c r="W41" s="8">
+        <v>0</v>
+      </c>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
@@ -34515,7 +34795,9 @@
       <c r="V42" s="8">
         <v>4</v>
       </c>
-      <c r="W42" s="8"/>
+      <c r="W42" s="8">
+        <v>4</v>
+      </c>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
@@ -34614,7 +34896,9 @@
       <c r="V43" s="8">
         <v>21</v>
       </c>
-      <c r="W43" s="8"/>
+      <c r="W43" s="8">
+        <v>15</v>
+      </c>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
@@ -34713,7 +34997,9 @@
       <c r="V44" s="8">
         <v>1</v>
       </c>
-      <c r="W44" s="8"/>
+      <c r="W44" s="8">
+        <v>2</v>
+      </c>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
@@ -34812,7 +35098,9 @@
       <c r="V45" s="8">
         <v>0</v>
       </c>
-      <c r="W45" s="8"/>
+      <c r="W45" s="8">
+        <v>0</v>
+      </c>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
@@ -34911,7 +35199,9 @@
       <c r="V46" s="8">
         <v>1</v>
       </c>
-      <c r="W46" s="8"/>
+      <c r="W46" s="8">
+        <v>2</v>
+      </c>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
@@ -35010,7 +35300,9 @@
       <c r="V47" s="8">
         <v>0</v>
       </c>
-      <c r="W47" s="8"/>
+      <c r="W47" s="8">
+        <v>0</v>
+      </c>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
@@ -35109,7 +35401,9 @@
       <c r="V48" s="8">
         <v>1</v>
       </c>
-      <c r="W48" s="8"/>
+      <c r="W48" s="8">
+        <v>4</v>
+      </c>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
@@ -35146,7 +35440,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -35209,7 +35503,9 @@
       <c r="V49" s="8">
         <v>22</v>
       </c>
-      <c r="W49" s="8"/>
+      <c r="W49" s="8">
+        <v>28</v>
+      </c>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
@@ -35245,7 +35541,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -35306,7 +35602,9 @@
       <c r="V50" s="8">
         <v>4</v>
       </c>
-      <c r="W50" s="8"/>
+      <c r="W50" s="8">
+        <v>6</v>
+      </c>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
@@ -35405,7 +35703,9 @@
       <c r="V51" s="8">
         <v>0</v>
       </c>
-      <c r="W51" s="8"/>
+      <c r="W51" s="8">
+        <v>0</v>
+      </c>
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
@@ -35504,7 +35804,9 @@
       <c r="V52" s="8">
         <v>7</v>
       </c>
-      <c r="W52" s="8"/>
+      <c r="W52" s="8">
+        <v>2</v>
+      </c>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
@@ -35603,7 +35905,9 @@
       <c r="V53" s="8">
         <v>5</v>
       </c>
-      <c r="W53" s="8"/>
+      <c r="W53" s="8">
+        <v>9</v>
+      </c>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
@@ -35702,7 +36006,9 @@
       <c r="V54" s="8">
         <v>7</v>
       </c>
-      <c r="W54" s="8"/>
+      <c r="W54" s="8">
+        <v>1</v>
+      </c>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
@@ -35801,7 +36107,9 @@
       <c r="V55" s="8">
         <v>2</v>
       </c>
-      <c r="W55" s="8"/>
+      <c r="W55" s="8">
+        <v>6</v>
+      </c>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
@@ -35900,7 +36208,9 @@
       <c r="V56" s="8">
         <v>2</v>
       </c>
-      <c r="W56" s="8"/>
+      <c r="W56" s="8">
+        <v>1</v>
+      </c>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
@@ -35999,7 +36309,9 @@
       <c r="V57" s="8">
         <v>0</v>
       </c>
-      <c r="W57" s="8"/>
+      <c r="W57" s="8">
+        <v>0</v>
+      </c>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
@@ -36117,7 +36429,7 @@
       </c>
       <c r="W58" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1679</v>
       </c>
       <c r="X58" s="14">
         <f t="shared" si="2"/>
@@ -36274,36 +36586,28 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AQ3:BD3"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -36320,28 +36624,36 @@
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="AQ3:BD3"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -36354,11 +36666,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -36373,43 +36685,43 @@
   <sheetData>
     <row r="1" spans="1:56" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="59" t="s">
+      <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="60"/>
+      <c r="AD1" s="56"/>
     </row>
     <row r="2" spans="1:56" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -36438,37 +36750,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -36497,176 +36809,176 @@
       <c r="BD3" s="23"/>
     </row>
     <row r="4" spans="1:56" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
     </row>
     <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
     </row>
     <row r="6" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -36733,7 +37045,9 @@
       <c r="V6" s="8">
         <v>65</v>
       </c>
-      <c r="W6" s="8"/>
+      <c r="W6" s="8">
+        <v>63</v>
+      </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -36832,7 +37146,9 @@
       <c r="V7" s="8">
         <v>1</v>
       </c>
-      <c r="W7" s="8"/>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -36931,7 +37247,9 @@
       <c r="V8" s="8">
         <v>8</v>
       </c>
-      <c r="W8" s="8"/>
+      <c r="W8" s="8">
+        <v>7</v>
+      </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -37031,7 +37349,9 @@
       <c r="V9" s="8">
         <v>49</v>
       </c>
-      <c r="W9" s="8"/>
+      <c r="W9" s="8">
+        <v>52</v>
+      </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -37130,7 +37450,9 @@
       <c r="V10" s="8">
         <v>0</v>
       </c>
-      <c r="W10" s="8"/>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -37229,7 +37551,9 @@
       <c r="V11" s="8">
         <v>6</v>
       </c>
-      <c r="W11" s="8"/>
+      <c r="W11" s="8">
+        <v>7</v>
+      </c>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -37328,7 +37652,9 @@
       <c r="V12" s="8">
         <v>6</v>
       </c>
-      <c r="W12" s="8"/>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -37427,7 +37753,9 @@
       <c r="V13" s="8">
         <v>7</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="8">
+        <v>6</v>
+      </c>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -37526,7 +37854,9 @@
       <c r="V14" s="8">
         <v>9</v>
       </c>
-      <c r="W14" s="8"/>
+      <c r="W14" s="8">
+        <v>4</v>
+      </c>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
@@ -37625,7 +37955,9 @@
       <c r="V15" s="8">
         <v>1</v>
       </c>
-      <c r="W15" s="8"/>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -37725,7 +38057,9 @@
       <c r="V16" s="8">
         <v>64</v>
       </c>
-      <c r="W16" s="8"/>
+      <c r="W16" s="8">
+        <v>63</v>
+      </c>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -37824,7 +38158,9 @@
       <c r="V17" s="8">
         <v>43</v>
       </c>
-      <c r="W17" s="8"/>
+      <c r="W17" s="8">
+        <v>55</v>
+      </c>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
@@ -37924,7 +38260,9 @@
       <c r="V18" s="8">
         <v>843</v>
       </c>
-      <c r="W18" s="8"/>
+      <c r="W18" s="8">
+        <v>967</v>
+      </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -37961,7 +38299,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -38024,7 +38362,9 @@
       <c r="V19" s="8">
         <v>9</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="8">
+        <v>15</v>
+      </c>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -38061,7 +38401,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -38122,7 +38462,9 @@
       <c r="V20" s="8">
         <v>53</v>
       </c>
-      <c r="W20" s="8"/>
+      <c r="W20" s="8">
+        <v>73</v>
+      </c>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -38159,7 +38501,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -38220,7 +38562,9 @@
       <c r="V21" s="8">
         <v>4</v>
       </c>
-      <c r="W21" s="8"/>
+      <c r="W21" s="8">
+        <v>17</v>
+      </c>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -38319,7 +38663,9 @@
       <c r="V22" s="8">
         <v>4</v>
       </c>
-      <c r="W22" s="8"/>
+      <c r="W22" s="8">
+        <v>4</v>
+      </c>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -38418,7 +38764,9 @@
       <c r="V23" s="8">
         <v>3</v>
       </c>
-      <c r="W23" s="8"/>
+      <c r="W23" s="8">
+        <v>2</v>
+      </c>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
@@ -38517,7 +38865,9 @@
       <c r="V24" s="8">
         <v>2</v>
       </c>
-      <c r="W24" s="8"/>
+      <c r="W24" s="8">
+        <v>1</v>
+      </c>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
@@ -38616,7 +38966,9 @@
       <c r="V25" s="8">
         <v>0</v>
       </c>
-      <c r="W25" s="8"/>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -38715,7 +39067,9 @@
       <c r="V26" s="8">
         <v>5</v>
       </c>
-      <c r="W26" s="8"/>
+      <c r="W26" s="8">
+        <v>5</v>
+      </c>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
@@ -38814,7 +39168,9 @@
       <c r="V27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="8"/>
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
@@ -38913,7 +39269,9 @@
       <c r="V28" s="8">
         <v>1</v>
       </c>
-      <c r="W28" s="8"/>
+      <c r="W28" s="8">
+        <v>1</v>
+      </c>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
@@ -38949,7 +39307,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -39012,7 +39370,9 @@
       <c r="V29" s="8">
         <v>2</v>
       </c>
-      <c r="W29" s="8"/>
+      <c r="W29" s="8">
+        <v>3</v>
+      </c>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
@@ -39048,7 +39408,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -39109,7 +39469,9 @@
       <c r="V30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="8"/>
+      <c r="W30" s="8">
+        <v>4</v>
+      </c>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -39209,7 +39571,9 @@
       <c r="V31" s="8">
         <v>13</v>
       </c>
-      <c r="W31" s="8"/>
+      <c r="W31" s="8">
+        <v>20</v>
+      </c>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
@@ -39308,7 +39672,9 @@
       <c r="V32" s="8">
         <v>0</v>
       </c>
-      <c r="W32" s="8"/>
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
@@ -39407,7 +39773,9 @@
       <c r="V33" s="8">
         <v>0</v>
       </c>
-      <c r="W33" s="8"/>
+      <c r="W33" s="8">
+        <v>1</v>
+      </c>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
@@ -39507,7 +39875,9 @@
       <c r="V34" s="8">
         <v>22</v>
       </c>
-      <c r="W34" s="8"/>
+      <c r="W34" s="8">
+        <v>21</v>
+      </c>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
@@ -39544,7 +39914,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -39607,7 +39977,9 @@
       <c r="V35" s="8">
         <v>186</v>
       </c>
-      <c r="W35" s="8"/>
+      <c r="W35" s="8">
+        <v>165</v>
+      </c>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
@@ -39643,7 +40015,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -39704,7 +40076,9 @@
       <c r="V36" s="8">
         <v>12</v>
       </c>
-      <c r="W36" s="8"/>
+      <c r="W36" s="8">
+        <v>9</v>
+      </c>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
@@ -39804,7 +40178,9 @@
       <c r="V37" s="8">
         <v>15</v>
       </c>
-      <c r="W37" s="8"/>
+      <c r="W37" s="8">
+        <v>11</v>
+      </c>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
@@ -39903,7 +40279,9 @@
       <c r="V38" s="8">
         <v>3</v>
       </c>
-      <c r="W38" s="8"/>
+      <c r="W38" s="8">
+        <v>1</v>
+      </c>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
@@ -40002,7 +40380,9 @@
       <c r="V39" s="8">
         <v>5</v>
       </c>
-      <c r="W39" s="8"/>
+      <c r="W39" s="8">
+        <v>2</v>
+      </c>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
@@ -40101,7 +40481,9 @@
       <c r="V40" s="8">
         <v>0</v>
       </c>
-      <c r="W40" s="8"/>
+      <c r="W40" s="8">
+        <v>0</v>
+      </c>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
@@ -40200,7 +40582,9 @@
       <c r="V41" s="8">
         <v>0</v>
       </c>
-      <c r="W41" s="8"/>
+      <c r="W41" s="8">
+        <v>0</v>
+      </c>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
@@ -40299,7 +40683,9 @@
       <c r="V42" s="8">
         <v>2</v>
       </c>
-      <c r="W42" s="8"/>
+      <c r="W42" s="8">
+        <v>3</v>
+      </c>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
@@ -40398,7 +40784,9 @@
       <c r="V43" s="8">
         <v>12</v>
       </c>
-      <c r="W43" s="8"/>
+      <c r="W43" s="8">
+        <v>21</v>
+      </c>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
@@ -40497,7 +40885,9 @@
       <c r="V44" s="8">
         <v>1</v>
       </c>
-      <c r="W44" s="8"/>
+      <c r="W44" s="8">
+        <v>3</v>
+      </c>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
@@ -40596,7 +40986,9 @@
       <c r="V45" s="8">
         <v>4</v>
       </c>
-      <c r="W45" s="8"/>
+      <c r="W45" s="8">
+        <v>2</v>
+      </c>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
@@ -40695,7 +41087,9 @@
       <c r="V46" s="8">
         <v>6</v>
       </c>
-      <c r="W46" s="8"/>
+      <c r="W46" s="8">
+        <v>9</v>
+      </c>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
@@ -40794,7 +41188,9 @@
       <c r="V47" s="8">
         <v>0</v>
       </c>
-      <c r="W47" s="8"/>
+      <c r="W47" s="8">
+        <v>1</v>
+      </c>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
@@ -40893,7 +41289,9 @@
       <c r="V48" s="8">
         <v>1</v>
       </c>
-      <c r="W48" s="8"/>
+      <c r="W48" s="8">
+        <v>1</v>
+      </c>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
@@ -40930,7 +41328,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -40993,7 +41391,9 @@
       <c r="V49" s="8">
         <v>23</v>
       </c>
-      <c r="W49" s="8"/>
+      <c r="W49" s="8">
+        <v>27</v>
+      </c>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
@@ -41029,7 +41429,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -41090,7 +41490,9 @@
       <c r="V50" s="8">
         <v>5</v>
       </c>
-      <c r="W50" s="8"/>
+      <c r="W50" s="8">
+        <v>5</v>
+      </c>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
@@ -41189,7 +41591,9 @@
       <c r="V51" s="8">
         <v>1</v>
       </c>
-      <c r="W51" s="8"/>
+      <c r="W51" s="8">
+        <v>3</v>
+      </c>
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
@@ -41288,7 +41692,9 @@
       <c r="V52" s="8">
         <v>4</v>
       </c>
-      <c r="W52" s="8"/>
+      <c r="W52" s="8">
+        <v>7</v>
+      </c>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
@@ -41387,7 +41793,9 @@
       <c r="V53" s="8">
         <v>5</v>
       </c>
-      <c r="W53" s="8"/>
+      <c r="W53" s="8">
+        <v>11</v>
+      </c>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
@@ -41486,7 +41894,9 @@
       <c r="V54" s="8">
         <v>2</v>
       </c>
-      <c r="W54" s="8"/>
+      <c r="W54" s="8">
+        <v>6</v>
+      </c>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
@@ -41585,7 +41995,9 @@
       <c r="V55" s="8">
         <v>3</v>
       </c>
-      <c r="W55" s="8"/>
+      <c r="W55" s="8">
+        <v>2</v>
+      </c>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
@@ -41684,7 +42096,9 @@
       <c r="V56" s="8">
         <v>0</v>
       </c>
-      <c r="W56" s="8"/>
+      <c r="W56" s="8">
+        <v>2</v>
+      </c>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
@@ -41783,7 +42197,9 @@
       <c r="V57" s="8">
         <v>0</v>
       </c>
-      <c r="W57" s="8"/>
+      <c r="W57" s="8">
+        <v>0</v>
+      </c>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
@@ -41901,7 +42317,7 @@
       </c>
       <c r="W58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1682</v>
       </c>
       <c r="X58" s="14">
         <f t="shared" si="0"/>
@@ -42059,31 +42475,28 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="D3:AD3"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="B2:C3"/>
@@ -42100,28 +42513,31 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\ＪＯＢ030817-5\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\09【大】感染症関係\【中】新型コロナウイルス感染症関係\【小】令和３年度新型コロナウイルス感染症関係\★ コロナ受入困難事例集計\最新データ\DTホームページ公開\20210824\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94FC807-BA47-4AA7-8D09-2D95BB588B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
     <sheet name="搬送困難事案（前年同期）" sheetId="43" r:id="rId2"/>
     <sheet name="うちコロナ疑い事案（今回）" sheetId="44" r:id="rId3"/>
     <sheet name="うち非コロナ疑い事案（今回）" sheetId="45" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="46" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'うちコロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
@@ -2056,7 +2058,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;&quot;△ &quot;#,##0"/>
   </numFmts>
@@ -2564,7 +2566,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="桁区切り" xfId="3" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4574,27 +4576,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BW4" sqref="BW4:BW5"/>
+      <selection pane="bottomRight" activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
     <col min="4" max="56" width="11" style="1" customWidth="1"/>
-    <col min="57" max="82" width="10.875" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="8.625" style="1"/>
+    <col min="57" max="82" width="10.9140625" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:82" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BA1" s="34" t="s">
         <v>143</v>
       </c>
@@ -4605,7 +4607,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:82" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="35" t="s">
@@ -4692,7 +4694,7 @@
       <c r="CC2" s="35"/>
       <c r="CD2" s="35"/>
     </row>
-    <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:82" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="36" t="s">
@@ -4781,7 +4783,7 @@
       <c r="CC3" s="36"/>
       <c r="CD3" s="36"/>
     </row>
-    <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:82" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="48"/>
       <c r="C5" s="46"/>
       <c r="D5" s="32"/>
@@ -5109,7 +5111,7 @@
       <c r="CC5" s="33"/>
       <c r="CD5" s="33"/>
     </row>
-    <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -5333,7 +5335,9 @@
       <c r="BW6" s="8">
         <v>98</v>
       </c>
-      <c r="BX6" s="8"/>
+      <c r="BX6" s="8">
+        <v>88</v>
+      </c>
       <c r="BY6" s="8"/>
       <c r="BZ6" s="8"/>
       <c r="CA6" s="8"/>
@@ -5341,7 +5345,7 @@
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
     </row>
-    <row r="7" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -5564,7 +5568,9 @@
       <c r="BW7" s="8">
         <v>0</v>
       </c>
-      <c r="BX7" s="8"/>
+      <c r="BX7" s="8">
+        <v>1</v>
+      </c>
       <c r="BY7" s="8"/>
       <c r="BZ7" s="8"/>
       <c r="CA7" s="8"/>
@@ -5572,7 +5578,7 @@
       <c r="CC7" s="8"/>
       <c r="CD7" s="8"/>
     </row>
-    <row r="8" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -5795,7 +5801,9 @@
       <c r="BW8" s="8">
         <v>7</v>
       </c>
-      <c r="BX8" s="8"/>
+      <c r="BX8" s="8">
+        <v>6</v>
+      </c>
       <c r="BY8" s="8"/>
       <c r="BZ8" s="8"/>
       <c r="CA8" s="8"/>
@@ -5803,7 +5811,7 @@
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
     </row>
-    <row r="9" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -6027,7 +6035,9 @@
       <c r="BW9" s="8">
         <v>62</v>
       </c>
-      <c r="BX9" s="8"/>
+      <c r="BX9" s="8">
+        <v>70</v>
+      </c>
       <c r="BY9" s="8"/>
       <c r="BZ9" s="8"/>
       <c r="CA9" s="8"/>
@@ -6035,7 +6045,7 @@
       <c r="CC9" s="8"/>
       <c r="CD9" s="8"/>
     </row>
-    <row r="10" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -6258,7 +6268,9 @@
       <c r="BW10" s="8">
         <v>0</v>
       </c>
-      <c r="BX10" s="8"/>
+      <c r="BX10" s="8">
+        <v>0</v>
+      </c>
       <c r="BY10" s="8"/>
       <c r="BZ10" s="8"/>
       <c r="CA10" s="8"/>
@@ -6266,7 +6278,7 @@
       <c r="CC10" s="8"/>
       <c r="CD10" s="8"/>
     </row>
-    <row r="11" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -6489,7 +6501,9 @@
       <c r="BW11" s="8">
         <v>11</v>
       </c>
-      <c r="BX11" s="8"/>
+      <c r="BX11" s="8">
+        <v>7</v>
+      </c>
       <c r="BY11" s="8"/>
       <c r="BZ11" s="8"/>
       <c r="CA11" s="8"/>
@@ -6497,7 +6511,7 @@
       <c r="CC11" s="8"/>
       <c r="CD11" s="8"/>
     </row>
-    <row r="12" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -6720,7 +6734,9 @@
       <c r="BW12" s="8">
         <v>1</v>
       </c>
-      <c r="BX12" s="8"/>
+      <c r="BX12" s="8">
+        <v>6</v>
+      </c>
       <c r="BY12" s="8"/>
       <c r="BZ12" s="8"/>
       <c r="CA12" s="8"/>
@@ -6728,7 +6744,7 @@
       <c r="CC12" s="8"/>
       <c r="CD12" s="8"/>
     </row>
-    <row r="13" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -6951,7 +6967,9 @@
       <c r="BW13" s="8">
         <v>14</v>
       </c>
-      <c r="BX13" s="8"/>
+      <c r="BX13" s="8">
+        <v>18</v>
+      </c>
       <c r="BY13" s="8"/>
       <c r="BZ13" s="8"/>
       <c r="CA13" s="8"/>
@@ -6959,7 +6977,7 @@
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
     </row>
-    <row r="14" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -7182,7 +7200,9 @@
       <c r="BW14" s="8">
         <v>10</v>
       </c>
-      <c r="BX14" s="8"/>
+      <c r="BX14" s="8">
+        <v>11</v>
+      </c>
       <c r="BY14" s="8"/>
       <c r="BZ14" s="8"/>
       <c r="CA14" s="8"/>
@@ -7190,7 +7210,7 @@
       <c r="CC14" s="8"/>
       <c r="CD14" s="8"/>
     </row>
-    <row r="15" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -7413,7 +7433,9 @@
       <c r="BW15" s="8">
         <v>0</v>
       </c>
-      <c r="BX15" s="8"/>
+      <c r="BX15" s="8">
+        <v>0</v>
+      </c>
       <c r="BY15" s="8"/>
       <c r="BZ15" s="8"/>
       <c r="CA15" s="8"/>
@@ -7421,7 +7443,7 @@
       <c r="CC15" s="8"/>
       <c r="CD15" s="8"/>
     </row>
-    <row r="16" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -7645,7 +7667,9 @@
       <c r="BW16" s="8">
         <v>73</v>
       </c>
-      <c r="BX16" s="8"/>
+      <c r="BX16" s="8">
+        <v>114</v>
+      </c>
       <c r="BY16" s="8"/>
       <c r="BZ16" s="8"/>
       <c r="CA16" s="8"/>
@@ -7653,7 +7677,7 @@
       <c r="CC16" s="8"/>
       <c r="CD16" s="8"/>
     </row>
-    <row r="17" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -7876,7 +7900,9 @@
       <c r="BW17" s="8">
         <v>157</v>
       </c>
-      <c r="BX17" s="8"/>
+      <c r="BX17" s="8">
+        <v>146</v>
+      </c>
       <c r="BY17" s="8"/>
       <c r="BZ17" s="8"/>
       <c r="CA17" s="8"/>
@@ -7884,7 +7910,7 @@
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
     </row>
-    <row r="18" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -8108,7 +8134,9 @@
       <c r="BW18" s="8">
         <v>1837</v>
       </c>
-      <c r="BX18" s="8"/>
+      <c r="BX18" s="8">
+        <v>1645</v>
+      </c>
       <c r="BY18" s="8"/>
       <c r="BZ18" s="8"/>
       <c r="CA18" s="8"/>
@@ -8116,7 +8144,7 @@
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
     </row>
-    <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="43" t="s">
         <v>27</v>
@@ -8340,7 +8368,9 @@
       <c r="BW19" s="8">
         <v>98</v>
       </c>
-      <c r="BX19" s="8"/>
+      <c r="BX19" s="8">
+        <v>92</v>
+      </c>
       <c r="BY19" s="8"/>
       <c r="BZ19" s="8"/>
       <c r="CA19" s="8"/>
@@ -8348,7 +8378,7 @@
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
     </row>
-    <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
@@ -8570,7 +8600,9 @@
       <c r="BW20" s="8">
         <v>354</v>
       </c>
-      <c r="BX20" s="8"/>
+      <c r="BX20" s="8">
+        <v>372</v>
+      </c>
       <c r="BY20" s="8"/>
       <c r="BZ20" s="8"/>
       <c r="CA20" s="8"/>
@@ -8578,7 +8610,7 @@
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
     </row>
-    <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
@@ -8800,7 +8832,9 @@
       <c r="BW21" s="8">
         <v>53</v>
       </c>
-      <c r="BX21" s="8"/>
+      <c r="BX21" s="8">
+        <v>50</v>
+      </c>
       <c r="BY21" s="8"/>
       <c r="BZ21" s="8"/>
       <c r="CA21" s="8"/>
@@ -8808,7 +8842,7 @@
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
     </row>
-    <row r="22" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -9031,7 +9065,9 @@
       <c r="BW22" s="8">
         <v>11</v>
       </c>
-      <c r="BX22" s="8"/>
+      <c r="BX22" s="8">
+        <v>7</v>
+      </c>
       <c r="BY22" s="8"/>
       <c r="BZ22" s="8"/>
       <c r="CA22" s="8"/>
@@ -9039,7 +9075,7 @@
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
     </row>
-    <row r="23" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -9262,7 +9298,9 @@
       <c r="BW23" s="8">
         <v>2</v>
       </c>
-      <c r="BX23" s="8"/>
+      <c r="BX23" s="8">
+        <v>4</v>
+      </c>
       <c r="BY23" s="8"/>
       <c r="BZ23" s="8"/>
       <c r="CA23" s="8"/>
@@ -9270,7 +9308,7 @@
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
     </row>
-    <row r="24" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -9493,7 +9531,9 @@
       <c r="BW24" s="8">
         <v>2</v>
       </c>
-      <c r="BX24" s="8"/>
+      <c r="BX24" s="8">
+        <v>7</v>
+      </c>
       <c r="BY24" s="8"/>
       <c r="BZ24" s="8"/>
       <c r="CA24" s="8"/>
@@ -9501,7 +9541,7 @@
       <c r="CC24" s="8"/>
       <c r="CD24" s="8"/>
     </row>
-    <row r="25" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -9724,7 +9764,9 @@
       <c r="BW25" s="8">
         <v>0</v>
       </c>
-      <c r="BX25" s="8"/>
+      <c r="BX25" s="8">
+        <v>1</v>
+      </c>
       <c r="BY25" s="8"/>
       <c r="BZ25" s="8"/>
       <c r="CA25" s="8"/>
@@ -9732,7 +9774,7 @@
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
     </row>
-    <row r="26" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -9955,7 +9997,9 @@
       <c r="BW26" s="8">
         <v>6</v>
       </c>
-      <c r="BX26" s="8"/>
+      <c r="BX26" s="8">
+        <v>8</v>
+      </c>
       <c r="BY26" s="8"/>
       <c r="BZ26" s="8"/>
       <c r="CA26" s="8"/>
@@ -9963,7 +10007,7 @@
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
     </row>
-    <row r="27" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -10186,7 +10230,9 @@
       <c r="BW27" s="8">
         <v>0</v>
       </c>
-      <c r="BX27" s="8"/>
+      <c r="BX27" s="8">
+        <v>0</v>
+      </c>
       <c r="BY27" s="8"/>
       <c r="BZ27" s="8"/>
       <c r="CA27" s="8"/>
@@ -10194,7 +10240,7 @@
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
     </row>
-    <row r="28" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -10417,7 +10463,9 @@
       <c r="BW28" s="8">
         <v>1</v>
       </c>
-      <c r="BX28" s="8"/>
+      <c r="BX28" s="8">
+        <v>2</v>
+      </c>
       <c r="BY28" s="8"/>
       <c r="BZ28" s="8"/>
       <c r="CA28" s="8"/>
@@ -10425,7 +10473,7 @@
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
     </row>
-    <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
@@ -10648,7 +10696,9 @@
       <c r="BW29" s="8">
         <v>5</v>
       </c>
-      <c r="BX29" s="8"/>
+      <c r="BX29" s="8">
+        <v>6</v>
+      </c>
       <c r="BY29" s="8"/>
       <c r="BZ29" s="8"/>
       <c r="CA29" s="8"/>
@@ -10656,7 +10706,7 @@
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
     </row>
-    <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -10877,7 +10927,9 @@
       <c r="BW30" s="8">
         <v>5</v>
       </c>
-      <c r="BX30" s="8"/>
+      <c r="BX30" s="8">
+        <v>9</v>
+      </c>
       <c r="BY30" s="8"/>
       <c r="BZ30" s="8"/>
       <c r="CA30" s="8"/>
@@ -10885,7 +10937,7 @@
       <c r="CC30" s="8"/>
       <c r="CD30" s="8"/>
     </row>
-    <row r="31" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -11109,7 +11161,9 @@
       <c r="BW31" s="8">
         <v>30</v>
       </c>
-      <c r="BX31" s="8"/>
+      <c r="BX31" s="8">
+        <v>22</v>
+      </c>
       <c r="BY31" s="8"/>
       <c r="BZ31" s="8"/>
       <c r="CA31" s="8"/>
@@ -11117,7 +11171,7 @@
       <c r="CC31" s="8"/>
       <c r="CD31" s="8"/>
     </row>
-    <row r="32" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -11340,7 +11394,9 @@
       <c r="BW32" s="8">
         <v>2</v>
       </c>
-      <c r="BX32" s="8"/>
+      <c r="BX32" s="8">
+        <v>3</v>
+      </c>
       <c r="BY32" s="8"/>
       <c r="BZ32" s="8"/>
       <c r="CA32" s="8"/>
@@ -11348,7 +11404,7 @@
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
     </row>
-    <row r="33" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -11571,7 +11627,9 @@
       <c r="BW33" s="8">
         <v>1</v>
       </c>
-      <c r="BX33" s="8"/>
+      <c r="BX33" s="8">
+        <v>1</v>
+      </c>
       <c r="BY33" s="8"/>
       <c r="BZ33" s="8"/>
       <c r="CA33" s="8"/>
@@ -11579,7 +11637,7 @@
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
     </row>
-    <row r="34" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -11803,7 +11861,9 @@
       <c r="BW34" s="8">
         <v>38</v>
       </c>
-      <c r="BX34" s="8"/>
+      <c r="BX34" s="8">
+        <v>35</v>
+      </c>
       <c r="BY34" s="8"/>
       <c r="BZ34" s="8"/>
       <c r="CA34" s="8"/>
@@ -11811,7 +11871,7 @@
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
-    <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="43" t="s">
         <v>56</v>
@@ -12035,7 +12095,9 @@
       <c r="BW35" s="8">
         <v>240</v>
       </c>
-      <c r="BX35" s="8"/>
+      <c r="BX35" s="8">
+        <v>240</v>
+      </c>
       <c r="BY35" s="8"/>
       <c r="BZ35" s="8"/>
       <c r="CA35" s="8"/>
@@ -12043,7 +12105,7 @@
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
-    <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -12264,7 +12326,9 @@
       <c r="BW36" s="8">
         <v>27</v>
       </c>
-      <c r="BX36" s="8"/>
+      <c r="BX36" s="8">
+        <v>16</v>
+      </c>
       <c r="BY36" s="8"/>
       <c r="BZ36" s="8"/>
       <c r="CA36" s="8"/>
@@ -12272,7 +12336,7 @@
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
     </row>
-    <row r="37" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -12496,7 +12560,9 @@
       <c r="BW37" s="8">
         <v>26</v>
       </c>
-      <c r="BX37" s="8"/>
+      <c r="BX37" s="8">
+        <v>31</v>
+      </c>
       <c r="BY37" s="8"/>
       <c r="BZ37" s="8"/>
       <c r="CA37" s="8"/>
@@ -12504,7 +12570,7 @@
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
     </row>
-    <row r="38" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -12727,7 +12793,9 @@
       <c r="BW38" s="8">
         <v>4</v>
       </c>
-      <c r="BX38" s="8"/>
+      <c r="BX38" s="8">
+        <v>6</v>
+      </c>
       <c r="BY38" s="8"/>
       <c r="BZ38" s="8"/>
       <c r="CA38" s="8"/>
@@ -12735,7 +12803,7 @@
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
     </row>
-    <row r="39" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -12958,7 +13026,9 @@
       <c r="BW39" s="8">
         <v>3</v>
       </c>
-      <c r="BX39" s="8"/>
+      <c r="BX39" s="8">
+        <v>5</v>
+      </c>
       <c r="BY39" s="8"/>
       <c r="BZ39" s="8"/>
       <c r="CA39" s="8"/>
@@ -12966,7 +13036,7 @@
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
     </row>
-    <row r="40" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -13189,7 +13259,9 @@
       <c r="BW40" s="8">
         <v>0</v>
       </c>
-      <c r="BX40" s="8"/>
+      <c r="BX40" s="8">
+        <v>0</v>
+      </c>
       <c r="BY40" s="8"/>
       <c r="BZ40" s="8"/>
       <c r="CA40" s="8"/>
@@ -13197,7 +13269,7 @@
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
     </row>
-    <row r="41" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -13420,7 +13492,9 @@
       <c r="BW41" s="8">
         <v>0</v>
       </c>
-      <c r="BX41" s="8"/>
+      <c r="BX41" s="8">
+        <v>0</v>
+      </c>
       <c r="BY41" s="8"/>
       <c r="BZ41" s="8"/>
       <c r="CA41" s="8"/>
@@ -13428,7 +13502,7 @@
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
     </row>
-    <row r="42" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -13651,7 +13725,9 @@
       <c r="BW42" s="8">
         <v>7</v>
       </c>
-      <c r="BX42" s="8"/>
+      <c r="BX42" s="8">
+        <v>8</v>
+      </c>
       <c r="BY42" s="8"/>
       <c r="BZ42" s="8"/>
       <c r="CA42" s="8"/>
@@ -13659,7 +13735,7 @@
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
     </row>
-    <row r="43" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -13882,7 +13958,9 @@
       <c r="BW43" s="8">
         <v>36</v>
       </c>
-      <c r="BX43" s="8"/>
+      <c r="BX43" s="8">
+        <v>43</v>
+      </c>
       <c r="BY43" s="8"/>
       <c r="BZ43" s="8"/>
       <c r="CA43" s="8"/>
@@ -13890,7 +13968,7 @@
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
     </row>
-    <row r="44" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -14113,7 +14191,9 @@
       <c r="BW44" s="8">
         <v>5</v>
       </c>
-      <c r="BX44" s="8"/>
+      <c r="BX44" s="8">
+        <v>7</v>
+      </c>
       <c r="BY44" s="8"/>
       <c r="BZ44" s="8"/>
       <c r="CA44" s="8"/>
@@ -14121,7 +14201,7 @@
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
     </row>
-    <row r="45" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -14344,7 +14424,9 @@
       <c r="BW45" s="8">
         <v>2</v>
       </c>
-      <c r="BX45" s="8"/>
+      <c r="BX45" s="8">
+        <v>8</v>
+      </c>
       <c r="BY45" s="8"/>
       <c r="BZ45" s="8"/>
       <c r="CA45" s="8"/>
@@ -14352,7 +14434,7 @@
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
     </row>
-    <row r="46" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -14575,7 +14657,9 @@
       <c r="BW46" s="8">
         <v>11</v>
       </c>
-      <c r="BX46" s="8"/>
+      <c r="BX46" s="8">
+        <v>8</v>
+      </c>
       <c r="BY46" s="8"/>
       <c r="BZ46" s="8"/>
       <c r="CA46" s="8"/>
@@ -14583,7 +14667,7 @@
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
     </row>
-    <row r="47" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -14806,7 +14890,9 @@
       <c r="BW47" s="8">
         <v>1</v>
       </c>
-      <c r="BX47" s="8"/>
+      <c r="BX47" s="8">
+        <v>0</v>
+      </c>
       <c r="BY47" s="8"/>
       <c r="BZ47" s="8"/>
       <c r="CA47" s="8"/>
@@ -14814,7 +14900,7 @@
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
     </row>
-    <row r="48" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -15037,7 +15123,9 @@
       <c r="BW48" s="8">
         <v>5</v>
       </c>
-      <c r="BX48" s="8"/>
+      <c r="BX48" s="8">
+        <v>3</v>
+      </c>
       <c r="BY48" s="8"/>
       <c r="BZ48" s="8"/>
       <c r="CA48" s="8"/>
@@ -15045,7 +15133,7 @@
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
     </row>
-    <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
       <c r="B49" s="43" t="s">
         <v>83</v>
@@ -15269,7 +15357,9 @@
       <c r="BW49" s="8">
         <v>55</v>
       </c>
-      <c r="BX49" s="8"/>
+      <c r="BX49" s="8">
+        <v>46</v>
+      </c>
       <c r="BY49" s="8"/>
       <c r="BZ49" s="8"/>
       <c r="CA49" s="8"/>
@@ -15277,7 +15367,7 @@
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
-    <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -15498,7 +15588,9 @@
       <c r="BW50" s="8">
         <v>11</v>
       </c>
-      <c r="BX50" s="8"/>
+      <c r="BX50" s="8">
+        <v>5</v>
+      </c>
       <c r="BY50" s="8"/>
       <c r="BZ50" s="8"/>
       <c r="CA50" s="8"/>
@@ -15506,7 +15598,7 @@
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
-    <row r="51" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -15729,7 +15821,9 @@
       <c r="BW51" s="8">
         <v>3</v>
       </c>
-      <c r="BX51" s="8"/>
+      <c r="BX51" s="8">
+        <v>4</v>
+      </c>
       <c r="BY51" s="8"/>
       <c r="BZ51" s="8"/>
       <c r="CA51" s="8"/>
@@ -15737,7 +15831,7 @@
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
-    <row r="52" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -15960,7 +16054,9 @@
       <c r="BW52" s="8">
         <v>9</v>
       </c>
-      <c r="BX52" s="8"/>
+      <c r="BX52" s="8">
+        <v>6</v>
+      </c>
       <c r="BY52" s="8"/>
       <c r="BZ52" s="8"/>
       <c r="CA52" s="8"/>
@@ -15968,7 +16064,7 @@
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
-    <row r="53" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -16191,7 +16287,9 @@
       <c r="BW53" s="8">
         <v>20</v>
       </c>
-      <c r="BX53" s="8"/>
+      <c r="BX53" s="8">
+        <v>16</v>
+      </c>
       <c r="BY53" s="8"/>
       <c r="BZ53" s="8"/>
       <c r="CA53" s="8"/>
@@ -16199,7 +16297,7 @@
       <c r="CC53" s="8"/>
       <c r="CD53" s="8"/>
     </row>
-    <row r="54" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -16422,7 +16520,9 @@
       <c r="BW54" s="8">
         <v>7</v>
       </c>
-      <c r="BX54" s="8"/>
+      <c r="BX54" s="8">
+        <v>8</v>
+      </c>
       <c r="BY54" s="8"/>
       <c r="BZ54" s="8"/>
       <c r="CA54" s="8"/>
@@ -16430,7 +16530,7 @@
       <c r="CC54" s="8"/>
       <c r="CD54" s="8"/>
     </row>
-    <row r="55" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -16653,7 +16753,9 @@
       <c r="BW55" s="8">
         <v>8</v>
       </c>
-      <c r="BX55" s="8"/>
+      <c r="BX55" s="8">
+        <v>13</v>
+      </c>
       <c r="BY55" s="8"/>
       <c r="BZ55" s="8"/>
       <c r="CA55" s="8"/>
@@ -16661,7 +16763,7 @@
       <c r="CC55" s="8"/>
       <c r="CD55" s="8"/>
     </row>
-    <row r="56" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -16884,7 +16986,9 @@
       <c r="BW56" s="8">
         <v>3</v>
       </c>
-      <c r="BX56" s="8"/>
+      <c r="BX56" s="8">
+        <v>3</v>
+      </c>
       <c r="BY56" s="8"/>
       <c r="BZ56" s="8"/>
       <c r="CA56" s="8"/>
@@ -16892,7 +16996,7 @@
       <c r="CC56" s="8"/>
       <c r="CD56" s="8"/>
     </row>
-    <row r="57" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -17115,7 +17219,9 @@
       <c r="BW57" s="8">
         <v>0</v>
       </c>
-      <c r="BX57" s="8"/>
+      <c r="BX57" s="8">
+        <v>0</v>
+      </c>
       <c r="BY57" s="8"/>
       <c r="BZ57" s="8"/>
       <c r="CA57" s="8"/>
@@ -17123,7 +17229,7 @@
       <c r="CC57" s="8"/>
       <c r="CD57" s="8"/>
     </row>
-    <row r="58" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -17418,7 +17524,7 @@
       </c>
       <c r="BX58" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3207</v>
       </c>
       <c r="BY58" s="14">
         <f t="shared" si="3"/>
@@ -17444,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -17528,7 +17634,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -17612,7 +17718,7 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -17803,27 +17909,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:CD58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BI56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BT65" sqref="BT65"/>
+      <selection pane="bottomRight" activeCell="CA12" sqref="CA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
     <col min="4" max="55" width="11" style="1" customWidth="1"/>
-    <col min="56" max="82" width="10.875" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="8.625" style="1"/>
+    <col min="56" max="82" width="10.9140625" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:82" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:82" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="BB1" s="49" t="s">
         <v>143</v>
       </c>
@@ -17834,7 +17940,7 @@
       </c>
       <c r="CD1" s="49"/>
     </row>
-    <row r="2" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:82" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="35" t="s">
@@ -17921,7 +18027,7 @@
       <c r="CC2" s="35"/>
       <c r="CD2" s="35"/>
     </row>
-    <row r="3" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:82" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="36" t="s">
@@ -18010,7 +18116,7 @@
       <c r="CC3" s="36"/>
       <c r="CD3" s="36"/>
     </row>
-    <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -18255,7 +18361,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="2:82" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:82" ht="54.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="48"/>
       <c r="C5" s="46"/>
       <c r="D5" s="52"/>
@@ -18338,7 +18444,7 @@
       <c r="CC5" s="32"/>
       <c r="CD5" s="32"/>
     </row>
-    <row r="6" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -18561,7 +18667,9 @@
       <c r="BW6" s="8">
         <v>62</v>
       </c>
-      <c r="BX6" s="8"/>
+      <c r="BX6" s="8">
+        <v>61</v>
+      </c>
       <c r="BY6" s="8"/>
       <c r="BZ6" s="8"/>
       <c r="CA6" s="8"/>
@@ -18569,7 +18677,7 @@
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
     </row>
-    <row r="7" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -18792,7 +18900,9 @@
       <c r="BW7" s="8">
         <v>0</v>
       </c>
-      <c r="BX7" s="8"/>
+      <c r="BX7" s="8">
+        <v>3</v>
+      </c>
       <c r="BY7" s="8"/>
       <c r="BZ7" s="8"/>
       <c r="CA7" s="8"/>
@@ -18800,7 +18910,7 @@
       <c r="CC7" s="8"/>
       <c r="CD7" s="8"/>
     </row>
-    <row r="8" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -19023,7 +19133,9 @@
       <c r="BW8" s="8">
         <v>4</v>
       </c>
-      <c r="BX8" s="8"/>
+      <c r="BX8" s="8">
+        <v>2</v>
+      </c>
       <c r="BY8" s="8"/>
       <c r="BZ8" s="8"/>
       <c r="CA8" s="8"/>
@@ -19031,7 +19143,7 @@
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
     </row>
-    <row r="9" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -19254,7 +19366,9 @@
       <c r="BW9" s="8">
         <v>22</v>
       </c>
-      <c r="BX9" s="8"/>
+      <c r="BX9" s="8">
+        <v>18</v>
+      </c>
       <c r="BY9" s="8"/>
       <c r="BZ9" s="8"/>
       <c r="CA9" s="8"/>
@@ -19262,7 +19376,7 @@
       <c r="CC9" s="8"/>
       <c r="CD9" s="8"/>
     </row>
-    <row r="10" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -19485,7 +19599,9 @@
       <c r="BW10" s="8">
         <v>0</v>
       </c>
-      <c r="BX10" s="8"/>
+      <c r="BX10" s="8">
+        <v>0</v>
+      </c>
       <c r="BY10" s="8"/>
       <c r="BZ10" s="8"/>
       <c r="CA10" s="8"/>
@@ -19493,7 +19609,7 @@
       <c r="CC10" s="8"/>
       <c r="CD10" s="8"/>
     </row>
-    <row r="11" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -19716,7 +19832,9 @@
       <c r="BW11" s="8">
         <v>2</v>
       </c>
-      <c r="BX11" s="8"/>
+      <c r="BX11" s="8">
+        <v>2</v>
+      </c>
       <c r="BY11" s="8"/>
       <c r="BZ11" s="8"/>
       <c r="CA11" s="8"/>
@@ -19724,7 +19842,7 @@
       <c r="CC11" s="8"/>
       <c r="CD11" s="8"/>
     </row>
-    <row r="12" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -19947,7 +20065,9 @@
       <c r="BW12" s="8">
         <v>1</v>
       </c>
-      <c r="BX12" s="8"/>
+      <c r="BX12" s="8">
+        <v>2</v>
+      </c>
       <c r="BY12" s="8"/>
       <c r="BZ12" s="8"/>
       <c r="CA12" s="8"/>
@@ -19955,7 +20075,7 @@
       <c r="CC12" s="8"/>
       <c r="CD12" s="8"/>
     </row>
-    <row r="13" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -20178,7 +20298,9 @@
       <c r="BW13" s="8">
         <v>29</v>
       </c>
-      <c r="BX13" s="8"/>
+      <c r="BX13" s="8">
+        <v>25</v>
+      </c>
       <c r="BY13" s="8"/>
       <c r="BZ13" s="8"/>
       <c r="CA13" s="8"/>
@@ -20186,7 +20308,7 @@
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
     </row>
-    <row r="14" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -20409,7 +20531,9 @@
       <c r="BW14" s="8">
         <v>2</v>
       </c>
-      <c r="BX14" s="8"/>
+      <c r="BX14" s="8">
+        <v>2</v>
+      </c>
       <c r="BY14" s="8"/>
       <c r="BZ14" s="8"/>
       <c r="CA14" s="8"/>
@@ -20417,7 +20541,7 @@
       <c r="CC14" s="8"/>
       <c r="CD14" s="8"/>
     </row>
-    <row r="15" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -20640,7 +20764,9 @@
       <c r="BW15" s="8">
         <v>3</v>
       </c>
-      <c r="BX15" s="8"/>
+      <c r="BX15" s="8">
+        <v>0</v>
+      </c>
       <c r="BY15" s="8"/>
       <c r="BZ15" s="8"/>
       <c r="CA15" s="8"/>
@@ -20648,7 +20774,7 @@
       <c r="CC15" s="8"/>
       <c r="CD15" s="8"/>
     </row>
-    <row r="16" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -20871,7 +20997,9 @@
       <c r="BW16" s="8">
         <v>48</v>
       </c>
-      <c r="BX16" s="8"/>
+      <c r="BX16" s="8">
+        <v>35</v>
+      </c>
       <c r="BY16" s="8"/>
       <c r="BZ16" s="8"/>
       <c r="CA16" s="8"/>
@@ -20879,7 +21007,7 @@
       <c r="CC16" s="8"/>
       <c r="CD16" s="8"/>
     </row>
-    <row r="17" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -21102,7 +21230,9 @@
       <c r="BW17" s="8">
         <v>99</v>
       </c>
-      <c r="BX17" s="8"/>
+      <c r="BX17" s="8">
+        <v>97</v>
+      </c>
       <c r="BY17" s="8"/>
       <c r="BZ17" s="8"/>
       <c r="CA17" s="8"/>
@@ -21110,7 +21240,7 @@
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
     </row>
-    <row r="18" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -21333,7 +21463,9 @@
       <c r="BW18" s="8">
         <v>1012</v>
       </c>
-      <c r="BX18" s="8"/>
+      <c r="BX18" s="8">
+        <v>824</v>
+      </c>
       <c r="BY18" s="8"/>
       <c r="BZ18" s="8"/>
       <c r="CA18" s="8"/>
@@ -21341,7 +21473,7 @@
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
     </row>
-    <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
@@ -21564,7 +21696,9 @@
       <c r="BW19" s="8">
         <v>26</v>
       </c>
-      <c r="BX19" s="8"/>
+      <c r="BX19" s="8">
+        <v>34</v>
+      </c>
       <c r="BY19" s="8"/>
       <c r="BZ19" s="8"/>
       <c r="CA19" s="8"/>
@@ -21572,7 +21706,7 @@
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
     </row>
-    <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -21793,7 +21927,9 @@
       <c r="BW20" s="8">
         <v>152</v>
       </c>
-      <c r="BX20" s="8"/>
+      <c r="BX20" s="8">
+        <v>138</v>
+      </c>
       <c r="BY20" s="8"/>
       <c r="BZ20" s="8"/>
       <c r="CA20" s="8"/>
@@ -21801,7 +21937,7 @@
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
     </row>
-    <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -22022,7 +22158,9 @@
       <c r="BW21" s="8">
         <v>29</v>
       </c>
-      <c r="BX21" s="8"/>
+      <c r="BX21" s="8">
+        <v>8</v>
+      </c>
       <c r="BY21" s="8"/>
       <c r="BZ21" s="8"/>
       <c r="CA21" s="8"/>
@@ -22030,7 +22168,7 @@
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
     </row>
-    <row r="22" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -22253,7 +22391,9 @@
       <c r="BW22" s="8">
         <v>21</v>
       </c>
-      <c r="BX22" s="8"/>
+      <c r="BX22" s="8">
+        <v>7</v>
+      </c>
       <c r="BY22" s="8"/>
       <c r="BZ22" s="8"/>
       <c r="CA22" s="8"/>
@@ -22261,7 +22401,7 @@
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
     </row>
-    <row r="23" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -22484,7 +22624,9 @@
       <c r="BW23" s="8">
         <v>0</v>
       </c>
-      <c r="BX23" s="8"/>
+      <c r="BX23" s="8">
+        <v>1</v>
+      </c>
       <c r="BY23" s="8"/>
       <c r="BZ23" s="8"/>
       <c r="CA23" s="8"/>
@@ -22492,7 +22634,7 @@
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
     </row>
-    <row r="24" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -22715,7 +22857,9 @@
       <c r="BW24" s="8">
         <v>5</v>
       </c>
-      <c r="BX24" s="8"/>
+      <c r="BX24" s="8">
+        <v>11</v>
+      </c>
       <c r="BY24" s="8"/>
       <c r="BZ24" s="8"/>
       <c r="CA24" s="8"/>
@@ -22723,7 +22867,7 @@
       <c r="CC24" s="8"/>
       <c r="CD24" s="8"/>
     </row>
-    <row r="25" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -22946,7 +23090,9 @@
       <c r="BW25" s="8">
         <v>0</v>
       </c>
-      <c r="BX25" s="8"/>
+      <c r="BX25" s="8">
+        <v>0</v>
+      </c>
       <c r="BY25" s="8"/>
       <c r="BZ25" s="8"/>
       <c r="CA25" s="8"/>
@@ -22954,7 +23100,7 @@
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
     </row>
-    <row r="26" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -23177,7 +23323,9 @@
       <c r="BW26" s="8">
         <v>12</v>
       </c>
-      <c r="BX26" s="8"/>
+      <c r="BX26" s="8">
+        <v>17</v>
+      </c>
       <c r="BY26" s="8"/>
       <c r="BZ26" s="8"/>
       <c r="CA26" s="8"/>
@@ -23185,7 +23333,7 @@
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
     </row>
-    <row r="27" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -23408,7 +23556,9 @@
       <c r="BW27" s="8">
         <v>0</v>
       </c>
-      <c r="BX27" s="8"/>
+      <c r="BX27" s="8">
+        <v>0</v>
+      </c>
       <c r="BY27" s="8"/>
       <c r="BZ27" s="8"/>
       <c r="CA27" s="8"/>
@@ -23416,7 +23566,7 @@
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
     </row>
-    <row r="28" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -23639,7 +23789,9 @@
       <c r="BW28" s="8">
         <v>0</v>
       </c>
-      <c r="BX28" s="8"/>
+      <c r="BX28" s="8">
+        <v>0</v>
+      </c>
       <c r="BY28" s="8"/>
       <c r="BZ28" s="8"/>
       <c r="CA28" s="8"/>
@@ -23647,7 +23799,7 @@
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
     </row>
-    <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
@@ -23870,7 +24022,9 @@
       <c r="BW29" s="8">
         <v>1</v>
       </c>
-      <c r="BX29" s="8"/>
+      <c r="BX29" s="8">
+        <v>2</v>
+      </c>
       <c r="BY29" s="8"/>
       <c r="BZ29" s="8"/>
       <c r="CA29" s="8"/>
@@ -23878,7 +24032,7 @@
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
     </row>
-    <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -24099,7 +24253,9 @@
       <c r="BW30" s="8">
         <v>3</v>
       </c>
-      <c r="BX30" s="8"/>
+      <c r="BX30" s="8">
+        <v>5</v>
+      </c>
       <c r="BY30" s="8"/>
       <c r="BZ30" s="8"/>
       <c r="CA30" s="8"/>
@@ -24107,7 +24263,7 @@
       <c r="CC30" s="8"/>
       <c r="CD30" s="8"/>
     </row>
-    <row r="31" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -24330,7 +24486,9 @@
       <c r="BW31" s="8">
         <v>35</v>
       </c>
-      <c r="BX31" s="8"/>
+      <c r="BX31" s="8">
+        <v>65</v>
+      </c>
       <c r="BY31" s="8"/>
       <c r="BZ31" s="8"/>
       <c r="CA31" s="8"/>
@@ -24338,7 +24496,7 @@
       <c r="CC31" s="8"/>
       <c r="CD31" s="8"/>
     </row>
-    <row r="32" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -24561,7 +24719,9 @@
       <c r="BW32" s="8">
         <v>2</v>
       </c>
-      <c r="BX32" s="8"/>
+      <c r="BX32" s="8">
+        <v>0</v>
+      </c>
       <c r="BY32" s="8"/>
       <c r="BZ32" s="8"/>
       <c r="CA32" s="8"/>
@@ -24569,7 +24729,7 @@
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
     </row>
-    <row r="33" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -24792,7 +24952,9 @@
       <c r="BW33" s="8">
         <v>0</v>
       </c>
-      <c r="BX33" s="8"/>
+      <c r="BX33" s="8">
+        <v>0</v>
+      </c>
       <c r="BY33" s="8"/>
       <c r="BZ33" s="8"/>
       <c r="CA33" s="8"/>
@@ -24800,7 +24962,7 @@
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
     </row>
-    <row r="34" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -25023,7 +25185,9 @@
       <c r="BW34" s="8">
         <v>34</v>
       </c>
-      <c r="BX34" s="8"/>
+      <c r="BX34" s="8">
+        <v>28</v>
+      </c>
       <c r="BY34" s="8"/>
       <c r="BZ34" s="8"/>
       <c r="CA34" s="8"/>
@@ -25031,7 +25195,7 @@
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
-    <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
@@ -25254,7 +25418,9 @@
       <c r="BW35" s="8">
         <v>390</v>
       </c>
-      <c r="BX35" s="8"/>
+      <c r="BX35" s="8">
+        <v>267</v>
+      </c>
       <c r="BY35" s="8"/>
       <c r="BZ35" s="8"/>
       <c r="CA35" s="8"/>
@@ -25262,7 +25428,7 @@
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
-    <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -25483,7 +25649,9 @@
       <c r="BW36" s="8">
         <v>21</v>
       </c>
-      <c r="BX36" s="8"/>
+      <c r="BX36" s="8">
+        <v>24</v>
+      </c>
       <c r="BY36" s="8"/>
       <c r="BZ36" s="8"/>
       <c r="CA36" s="8"/>
@@ -25491,7 +25659,7 @@
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
     </row>
-    <row r="37" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -25714,7 +25882,9 @@
       <c r="BW37" s="8">
         <v>31</v>
       </c>
-      <c r="BX37" s="8"/>
+      <c r="BX37" s="8">
+        <v>27</v>
+      </c>
       <c r="BY37" s="8"/>
       <c r="BZ37" s="8"/>
       <c r="CA37" s="8"/>
@@ -25722,7 +25892,7 @@
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
     </row>
-    <row r="38" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -25945,7 +26115,9 @@
       <c r="BW38" s="8">
         <v>8</v>
       </c>
-      <c r="BX38" s="8"/>
+      <c r="BX38" s="8">
+        <v>3</v>
+      </c>
       <c r="BY38" s="8"/>
       <c r="BZ38" s="8"/>
       <c r="CA38" s="8"/>
@@ -25953,7 +26125,7 @@
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
     </row>
-    <row r="39" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -26176,7 +26348,9 @@
       <c r="BW39" s="8">
         <v>5</v>
       </c>
-      <c r="BX39" s="8"/>
+      <c r="BX39" s="8">
+        <v>2</v>
+      </c>
       <c r="BY39" s="8"/>
       <c r="BZ39" s="8"/>
       <c r="CA39" s="8"/>
@@ -26184,7 +26358,7 @@
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
     </row>
-    <row r="40" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -26407,7 +26581,9 @@
       <c r="BW40" s="8">
         <v>0</v>
       </c>
-      <c r="BX40" s="8"/>
+      <c r="BX40" s="8">
+        <v>0</v>
+      </c>
       <c r="BY40" s="8"/>
       <c r="BZ40" s="8"/>
       <c r="CA40" s="8"/>
@@ -26415,7 +26591,7 @@
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
     </row>
-    <row r="41" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -26638,7 +26814,9 @@
       <c r="BW41" s="8">
         <v>1</v>
       </c>
-      <c r="BX41" s="8"/>
+      <c r="BX41" s="8">
+        <v>0</v>
+      </c>
       <c r="BY41" s="8"/>
       <c r="BZ41" s="8"/>
       <c r="CA41" s="8"/>
@@ -26646,7 +26824,7 @@
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
     </row>
-    <row r="42" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -26869,7 +27047,9 @@
       <c r="BW42" s="8">
         <v>2</v>
       </c>
-      <c r="BX42" s="8"/>
+      <c r="BX42" s="8">
+        <v>3</v>
+      </c>
       <c r="BY42" s="8"/>
       <c r="BZ42" s="8"/>
       <c r="CA42" s="8"/>
@@ -26877,7 +27057,7 @@
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
     </row>
-    <row r="43" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -27100,7 +27280,9 @@
       <c r="BW43" s="8">
         <v>33</v>
       </c>
-      <c r="BX43" s="8"/>
+      <c r="BX43" s="8">
+        <v>25</v>
+      </c>
       <c r="BY43" s="8"/>
       <c r="BZ43" s="8"/>
       <c r="CA43" s="8"/>
@@ -27108,7 +27290,7 @@
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
     </row>
-    <row r="44" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -27331,7 +27513,9 @@
       <c r="BW44" s="8">
         <v>1</v>
       </c>
-      <c r="BX44" s="8"/>
+      <c r="BX44" s="8">
+        <v>4</v>
+      </c>
       <c r="BY44" s="8"/>
       <c r="BZ44" s="8"/>
       <c r="CA44" s="8"/>
@@ -27339,7 +27523,7 @@
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
     </row>
-    <row r="45" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -27562,7 +27746,9 @@
       <c r="BW45" s="8">
         <v>6</v>
       </c>
-      <c r="BX45" s="8"/>
+      <c r="BX45" s="8">
+        <v>4</v>
+      </c>
       <c r="BY45" s="8"/>
       <c r="BZ45" s="8"/>
       <c r="CA45" s="8"/>
@@ -27570,7 +27756,7 @@
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
     </row>
-    <row r="46" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -27793,7 +27979,9 @@
       <c r="BW46" s="8">
         <v>9</v>
       </c>
-      <c r="BX46" s="8"/>
+      <c r="BX46" s="8">
+        <v>9</v>
+      </c>
       <c r="BY46" s="8"/>
       <c r="BZ46" s="8"/>
       <c r="CA46" s="8"/>
@@ -27801,7 +27989,7 @@
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
     </row>
-    <row r="47" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -28024,7 +28212,9 @@
       <c r="BW47" s="8">
         <v>1</v>
       </c>
-      <c r="BX47" s="8"/>
+      <c r="BX47" s="8">
+        <v>0</v>
+      </c>
       <c r="BY47" s="8"/>
       <c r="BZ47" s="8"/>
       <c r="CA47" s="8"/>
@@ -28032,7 +28222,7 @@
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
     </row>
-    <row r="48" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -28255,7 +28445,9 @@
       <c r="BW48" s="8">
         <v>5</v>
       </c>
-      <c r="BX48" s="8"/>
+      <c r="BX48" s="8">
+        <v>8</v>
+      </c>
       <c r="BY48" s="8"/>
       <c r="BZ48" s="8"/>
       <c r="CA48" s="8"/>
@@ -28263,7 +28455,7 @@
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
     </row>
-    <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="43" t="s">
         <v>83</v>
       </c>
@@ -28486,7 +28678,9 @@
       <c r="BW49" s="8">
         <v>16</v>
       </c>
-      <c r="BX49" s="8"/>
+      <c r="BX49" s="8">
+        <v>19</v>
+      </c>
       <c r="BY49" s="8"/>
       <c r="BZ49" s="8"/>
       <c r="CA49" s="8"/>
@@ -28494,7 +28688,7 @@
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
-    <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -28715,7 +28909,9 @@
       <c r="BW50" s="8">
         <v>8</v>
       </c>
-      <c r="BX50" s="8"/>
+      <c r="BX50" s="8">
+        <v>7</v>
+      </c>
       <c r="BY50" s="8"/>
       <c r="BZ50" s="8"/>
       <c r="CA50" s="8"/>
@@ -28723,7 +28919,7 @@
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
-    <row r="51" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -28946,7 +29142,9 @@
       <c r="BW51" s="8">
         <v>4</v>
       </c>
-      <c r="BX51" s="8"/>
+      <c r="BX51" s="8">
+        <v>3</v>
+      </c>
       <c r="BY51" s="8"/>
       <c r="BZ51" s="8"/>
       <c r="CA51" s="8"/>
@@ -28954,7 +29152,7 @@
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
-    <row r="52" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -29177,7 +29375,9 @@
       <c r="BW52" s="8">
         <v>6</v>
       </c>
-      <c r="BX52" s="8"/>
+      <c r="BX52" s="8">
+        <v>3</v>
+      </c>
       <c r="BY52" s="8"/>
       <c r="BZ52" s="8"/>
       <c r="CA52" s="8"/>
@@ -29185,7 +29385,7 @@
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
-    <row r="53" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -29408,7 +29608,9 @@
       <c r="BW53" s="8">
         <v>5</v>
       </c>
-      <c r="BX53" s="8"/>
+      <c r="BX53" s="8">
+        <v>9</v>
+      </c>
       <c r="BY53" s="8"/>
       <c r="BZ53" s="8"/>
       <c r="CA53" s="8"/>
@@ -29416,7 +29618,7 @@
       <c r="CC53" s="8"/>
       <c r="CD53" s="8"/>
     </row>
-    <row r="54" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -29639,7 +29841,9 @@
       <c r="BW54" s="8">
         <v>5</v>
       </c>
-      <c r="BX54" s="8"/>
+      <c r="BX54" s="8">
+        <v>13</v>
+      </c>
       <c r="BY54" s="8"/>
       <c r="BZ54" s="8"/>
       <c r="CA54" s="8"/>
@@ -29647,7 +29851,7 @@
       <c r="CC54" s="8"/>
       <c r="CD54" s="8"/>
     </row>
-    <row r="55" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -29870,7 +30074,9 @@
       <c r="BW55" s="8">
         <v>16</v>
       </c>
-      <c r="BX55" s="8"/>
+      <c r="BX55" s="8">
+        <v>16</v>
+      </c>
       <c r="BY55" s="8"/>
       <c r="BZ55" s="8"/>
       <c r="CA55" s="8"/>
@@ -29878,7 +30084,7 @@
       <c r="CC55" s="8"/>
       <c r="CD55" s="8"/>
     </row>
-    <row r="56" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -30101,7 +30307,9 @@
       <c r="BW56" s="8">
         <v>7</v>
       </c>
-      <c r="BX56" s="8"/>
+      <c r="BX56" s="8">
+        <v>4</v>
+      </c>
       <c r="BY56" s="8"/>
       <c r="BZ56" s="8"/>
       <c r="CA56" s="8"/>
@@ -30109,7 +30317,7 @@
       <c r="CC56" s="8"/>
       <c r="CD56" s="8"/>
     </row>
-    <row r="57" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -30332,7 +30540,9 @@
       <c r="BW57" s="8">
         <v>1</v>
       </c>
-      <c r="BX57" s="8"/>
+      <c r="BX57" s="8">
+        <v>0</v>
+      </c>
       <c r="BY57" s="8"/>
       <c r="BZ57" s="8"/>
       <c r="CA57" s="8"/>
@@ -30340,7 +30550,7 @@
       <c r="CC57" s="8"/>
       <c r="CD57" s="8"/>
     </row>
-    <row r="58" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -30634,7 +30844,7 @@
       </c>
       <c r="BX58" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1837</v>
       </c>
       <c r="BY58" s="28">
         <f t="shared" si="3"/>
@@ -30767,34 +30977,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="Q57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6:W57"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6:X57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="60" width="10.875" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="8.625" style="1"/>
+    <col min="5" max="60" width="10.9140625" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="21"/>
       <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
       <c r="AD1" s="56"/>
     </row>
-    <row r="2" spans="1:60" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="35" t="s">
@@ -30853,7 +31063,7 @@
       <c r="BC2" s="22"/>
       <c r="BD2" s="22"/>
     </row>
-    <row r="3" spans="1:60" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="36" t="s">
@@ -30912,7 +31122,7 @@
       <c r="BC3" s="54"/>
       <c r="BD3" s="54"/>
     </row>
-    <row r="4" spans="1:60" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -31031,7 +31241,7 @@
       <c r="BG4" s="53"/>
       <c r="BH4" s="53"/>
     </row>
-    <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="48"/>
       <c r="C5" s="46"/>
       <c r="D5" s="33"/>
@@ -31092,7 +31302,7 @@
       <c r="BG5" s="53"/>
       <c r="BH5" s="53"/>
     </row>
-    <row r="6" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -31160,7 +31370,9 @@
       <c r="W6" s="8">
         <v>35</v>
       </c>
-      <c r="X6" s="8"/>
+      <c r="X6" s="8">
+        <v>45</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -31194,7 +31406,7 @@
       <c r="BC6" s="25"/>
       <c r="BD6" s="25"/>
     </row>
-    <row r="7" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -31261,7 +31473,9 @@
       <c r="W7" s="8">
         <v>0</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -31295,7 +31509,7 @@
       <c r="BC7" s="26"/>
       <c r="BD7" s="26"/>
     </row>
-    <row r="8" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -31362,7 +31576,9 @@
       <c r="W8" s="8">
         <v>0</v>
       </c>
-      <c r="X8" s="8"/>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -31396,7 +31612,7 @@
       <c r="BC8" s="26"/>
       <c r="BD8" s="26"/>
     </row>
-    <row r="9" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -31464,7 +31680,9 @@
       <c r="W9" s="8">
         <v>10</v>
       </c>
-      <c r="X9" s="8"/>
+      <c r="X9" s="8">
+        <v>10</v>
+      </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -31498,7 +31716,7 @@
       <c r="BC9" s="26"/>
       <c r="BD9" s="26"/>
     </row>
-    <row r="10" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -31565,7 +31783,9 @@
       <c r="W10" s="8">
         <v>0</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -31599,7 +31819,7 @@
       <c r="BC10" s="26"/>
       <c r="BD10" s="26"/>
     </row>
-    <row r="11" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -31666,7 +31886,9 @@
       <c r="W11" s="8">
         <v>4</v>
       </c>
-      <c r="X11" s="8"/>
+      <c r="X11" s="8">
+        <v>4</v>
+      </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -31700,7 +31922,7 @@
       <c r="BC11" s="26"/>
       <c r="BD11" s="26"/>
     </row>
-    <row r="12" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -31767,7 +31989,9 @@
       <c r="W12" s="8">
         <v>1</v>
       </c>
-      <c r="X12" s="8"/>
+      <c r="X12" s="8">
+        <v>4</v>
+      </c>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -31801,7 +32025,7 @@
       <c r="BC12" s="26"/>
       <c r="BD12" s="26"/>
     </row>
-    <row r="13" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -31868,7 +32092,9 @@
       <c r="W13" s="8">
         <v>8</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8">
+        <v>8</v>
+      </c>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -31902,7 +32128,7 @@
       <c r="BC13" s="25"/>
       <c r="BD13" s="25"/>
     </row>
-    <row r="14" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -31969,7 +32195,9 @@
       <c r="W14" s="8">
         <v>6</v>
       </c>
-      <c r="X14" s="8"/>
+      <c r="X14" s="8">
+        <v>4</v>
+      </c>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -32003,7 +32231,7 @@
       <c r="BC14" s="26"/>
       <c r="BD14" s="26"/>
     </row>
-    <row r="15" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -32070,7 +32298,9 @@
       <c r="W15" s="8">
         <v>0</v>
       </c>
-      <c r="X15" s="8"/>
+      <c r="X15" s="8">
+        <v>0</v>
+      </c>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -32104,7 +32334,7 @@
       <c r="BC15" s="26"/>
       <c r="BD15" s="26"/>
     </row>
-    <row r="16" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -32172,7 +32402,9 @@
       <c r="W16" s="8">
         <v>10</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8">
+        <v>21</v>
+      </c>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -32206,7 +32438,7 @@
       <c r="BC16" s="25"/>
       <c r="BD16" s="25"/>
     </row>
-    <row r="17" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -32273,7 +32505,9 @@
       <c r="W17" s="8">
         <v>102</v>
       </c>
-      <c r="X17" s="8"/>
+      <c r="X17" s="8">
+        <v>80</v>
+      </c>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -32307,7 +32541,7 @@
       <c r="BC17" s="25"/>
       <c r="BD17" s="25"/>
     </row>
-    <row r="18" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -32375,7 +32609,9 @@
       <c r="W18" s="8">
         <v>870</v>
       </c>
-      <c r="X18" s="8"/>
+      <c r="X18" s="8">
+        <v>791</v>
+      </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -32409,7 +32645,7 @@
       <c r="BC18" s="25"/>
       <c r="BD18" s="25"/>
     </row>
-    <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="57" t="s">
         <v>27</v>
@@ -32477,7 +32713,9 @@
       <c r="W19" s="8">
         <v>83</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8">
+        <v>78</v>
+      </c>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
@@ -32511,7 +32749,7 @@
       <c r="BC19" s="25"/>
       <c r="BD19" s="25"/>
     </row>
-    <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
@@ -32577,7 +32815,9 @@
       <c r="W20" s="8">
         <v>281</v>
       </c>
-      <c r="X20" s="8"/>
+      <c r="X20" s="8">
+        <v>295</v>
+      </c>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -32611,7 +32851,7 @@
       <c r="BC20" s="25"/>
       <c r="BD20" s="25"/>
     </row>
-    <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
@@ -32677,7 +32917,9 @@
       <c r="W21" s="8">
         <v>36</v>
       </c>
-      <c r="X21" s="8"/>
+      <c r="X21" s="8">
+        <v>29</v>
+      </c>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -32711,7 +32953,7 @@
       <c r="BC21" s="25"/>
       <c r="BD21" s="25"/>
     </row>
-    <row r="22" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -32778,7 +33020,9 @@
       <c r="W22" s="8">
         <v>7</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="8">
+        <v>3</v>
+      </c>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -32812,7 +33056,7 @@
       <c r="BC22" s="26"/>
       <c r="BD22" s="26"/>
     </row>
-    <row r="23" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -32879,7 +33123,9 @@
       <c r="W23" s="8">
         <v>0</v>
       </c>
-      <c r="X23" s="8"/>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -32913,7 +33159,7 @@
       <c r="BC23" s="26"/>
       <c r="BD23" s="26"/>
     </row>
-    <row r="24" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -32980,7 +33226,9 @@
       <c r="W24" s="8">
         <v>1</v>
       </c>
-      <c r="X24" s="8"/>
+      <c r="X24" s="8">
+        <v>1</v>
+      </c>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -33014,7 +33262,7 @@
       <c r="BC24" s="25"/>
       <c r="BD24" s="25"/>
     </row>
-    <row r="25" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -33081,7 +33329,9 @@
       <c r="W25" s="8">
         <v>0</v>
       </c>
-      <c r="X25" s="8"/>
+      <c r="X25" s="8">
+        <v>0</v>
+      </c>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -33115,7 +33365,7 @@
       <c r="BC25" s="26"/>
       <c r="BD25" s="26"/>
     </row>
-    <row r="26" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -33182,7 +33432,9 @@
       <c r="W26" s="8">
         <v>1</v>
       </c>
-      <c r="X26" s="8"/>
+      <c r="X26" s="8">
+        <v>3</v>
+      </c>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -33216,7 +33468,7 @@
       <c r="BC26" s="26"/>
       <c r="BD26" s="26"/>
     </row>
-    <row r="27" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -33283,7 +33535,9 @@
       <c r="W27" s="8">
         <v>0</v>
       </c>
-      <c r="X27" s="8"/>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -33317,7 +33571,7 @@
       <c r="BC27" s="26"/>
       <c r="BD27" s="26"/>
     </row>
-    <row r="28" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -33384,7 +33638,9 @@
       <c r="W28" s="8">
         <v>0</v>
       </c>
-      <c r="X28" s="8"/>
+      <c r="X28" s="8">
+        <v>2</v>
+      </c>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -33418,7 +33674,7 @@
       <c r="BC28" s="25"/>
       <c r="BD28" s="25"/>
     </row>
-    <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
@@ -33485,7 +33741,9 @@
       <c r="W29" s="8">
         <v>2</v>
       </c>
-      <c r="X29" s="8"/>
+      <c r="X29" s="8">
+        <v>2</v>
+      </c>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -33519,7 +33777,7 @@
       <c r="BC29" s="26"/>
       <c r="BD29" s="26"/>
     </row>
-    <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -33584,7 +33842,9 @@
       <c r="W30" s="8">
         <v>1</v>
       </c>
-      <c r="X30" s="8"/>
+      <c r="X30" s="8">
+        <v>3</v>
+      </c>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -33618,7 +33878,7 @@
       <c r="BC30" s="26"/>
       <c r="BD30" s="26"/>
     </row>
-    <row r="31" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -33686,7 +33946,9 @@
       <c r="W31" s="8">
         <v>10</v>
       </c>
-      <c r="X31" s="8"/>
+      <c r="X31" s="8">
+        <v>15</v>
+      </c>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
@@ -33720,7 +33982,7 @@
       <c r="BC31" s="25"/>
       <c r="BD31" s="25"/>
     </row>
-    <row r="32" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -33787,7 +34049,9 @@
       <c r="W32" s="8">
         <v>2</v>
       </c>
-      <c r="X32" s="8"/>
+      <c r="X32" s="8">
+        <v>2</v>
+      </c>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -33821,7 +34085,7 @@
       <c r="BC32" s="26"/>
       <c r="BD32" s="26"/>
     </row>
-    <row r="33" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -33888,7 +34152,9 @@
       <c r="W33" s="8">
         <v>0</v>
       </c>
-      <c r="X33" s="8"/>
+      <c r="X33" s="8">
+        <v>1</v>
+      </c>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -33922,7 +34188,7 @@
       <c r="BC33" s="26"/>
       <c r="BD33" s="26"/>
     </row>
-    <row r="34" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -33990,7 +34256,9 @@
       <c r="W34" s="8">
         <v>17</v>
       </c>
-      <c r="X34" s="8"/>
+      <c r="X34" s="8">
+        <v>15</v>
+      </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
@@ -34024,7 +34292,7 @@
       <c r="BC34" s="25"/>
       <c r="BD34" s="25"/>
     </row>
-    <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="57" t="s">
         <v>56</v>
@@ -34092,7 +34360,9 @@
       <c r="W35" s="8">
         <v>75</v>
       </c>
-      <c r="X35" s="8"/>
+      <c r="X35" s="8">
+        <v>79</v>
+      </c>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
@@ -34126,7 +34396,7 @@
       <c r="BC35" s="25"/>
       <c r="BD35" s="25"/>
     </row>
-    <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -34191,7 +34461,9 @@
       <c r="W36" s="8">
         <v>18</v>
       </c>
-      <c r="X36" s="8"/>
+      <c r="X36" s="8">
+        <v>8</v>
+      </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
@@ -34225,7 +34497,7 @@
       <c r="BC36" s="25"/>
       <c r="BD36" s="25"/>
     </row>
-    <row r="37" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -34293,7 +34565,9 @@
       <c r="W37" s="8">
         <v>15</v>
       </c>
-      <c r="X37" s="8"/>
+      <c r="X37" s="8">
+        <v>17</v>
+      </c>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
@@ -34327,7 +34601,7 @@
       <c r="BC37" s="25"/>
       <c r="BD37" s="25"/>
     </row>
-    <row r="38" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -34394,7 +34668,9 @@
       <c r="W38" s="8">
         <v>3</v>
       </c>
-      <c r="X38" s="8"/>
+      <c r="X38" s="8">
+        <v>3</v>
+      </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
@@ -34428,7 +34704,7 @@
       <c r="BC38" s="26"/>
       <c r="BD38" s="26"/>
     </row>
-    <row r="39" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -34495,7 +34771,9 @@
       <c r="W39" s="8">
         <v>1</v>
       </c>
-      <c r="X39" s="8"/>
+      <c r="X39" s="8">
+        <v>1</v>
+      </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
@@ -34529,7 +34807,7 @@
       <c r="BC39" s="26"/>
       <c r="BD39" s="26"/>
     </row>
-    <row r="40" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -34596,7 +34874,9 @@
       <c r="W40" s="8">
         <v>0</v>
       </c>
-      <c r="X40" s="8"/>
+      <c r="X40" s="8">
+        <v>0</v>
+      </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
@@ -34630,7 +34910,7 @@
       <c r="BC40" s="26"/>
       <c r="BD40" s="26"/>
     </row>
-    <row r="41" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -34697,7 +34977,9 @@
       <c r="W41" s="8">
         <v>0</v>
       </c>
-      <c r="X41" s="8"/>
+      <c r="X41" s="8">
+        <v>0</v>
+      </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
@@ -34731,7 +35013,7 @@
       <c r="BC41" s="26"/>
       <c r="BD41" s="26"/>
     </row>
-    <row r="42" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -34798,7 +35080,9 @@
       <c r="W42" s="8">
         <v>4</v>
       </c>
-      <c r="X42" s="8"/>
+      <c r="X42" s="8">
+        <v>4</v>
+      </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
@@ -34832,7 +35116,7 @@
       <c r="BC42" s="26"/>
       <c r="BD42" s="26"/>
     </row>
-    <row r="43" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -34899,7 +35183,9 @@
       <c r="W43" s="8">
         <v>15</v>
       </c>
-      <c r="X43" s="8"/>
+      <c r="X43" s="8">
+        <v>32</v>
+      </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
@@ -34933,7 +35219,7 @@
       <c r="BC43" s="26"/>
       <c r="BD43" s="26"/>
     </row>
-    <row r="44" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -35000,7 +35286,9 @@
       <c r="W44" s="8">
         <v>2</v>
       </c>
-      <c r="X44" s="8"/>
+      <c r="X44" s="8">
+        <v>3</v>
+      </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
@@ -35034,7 +35322,7 @@
       <c r="BC44" s="26"/>
       <c r="BD44" s="26"/>
     </row>
-    <row r="45" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -35101,7 +35389,9 @@
       <c r="W45" s="8">
         <v>0</v>
       </c>
-      <c r="X45" s="8"/>
+      <c r="X45" s="8">
+        <v>4</v>
+      </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
@@ -35135,7 +35425,7 @@
       <c r="BC45" s="25"/>
       <c r="BD45" s="25"/>
     </row>
-    <row r="46" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -35202,7 +35492,9 @@
       <c r="W46" s="8">
         <v>2</v>
       </c>
-      <c r="X46" s="8"/>
+      <c r="X46" s="8">
+        <v>3</v>
+      </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
@@ -35236,7 +35528,7 @@
       <c r="BC46" s="26"/>
       <c r="BD46" s="26"/>
     </row>
-    <row r="47" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -35303,7 +35595,9 @@
       <c r="W47" s="8">
         <v>0</v>
       </c>
-      <c r="X47" s="8"/>
+      <c r="X47" s="8">
+        <v>0</v>
+      </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
@@ -35337,7 +35631,7 @@
       <c r="BC47" s="26"/>
       <c r="BD47" s="26"/>
     </row>
-    <row r="48" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -35404,7 +35698,9 @@
       <c r="W48" s="8">
         <v>4</v>
       </c>
-      <c r="X48" s="8"/>
+      <c r="X48" s="8">
+        <v>2</v>
+      </c>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
@@ -35438,7 +35734,7 @@
       <c r="BC48" s="26"/>
       <c r="BD48" s="26"/>
     </row>
-    <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
       <c r="B49" s="57" t="s">
         <v>83</v>
@@ -35506,7 +35802,9 @@
       <c r="W49" s="8">
         <v>28</v>
       </c>
-      <c r="X49" s="8"/>
+      <c r="X49" s="8">
+        <v>20</v>
+      </c>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
@@ -35540,7 +35838,7 @@
       <c r="BC49" s="25"/>
       <c r="BD49" s="25"/>
     </row>
-    <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -35605,7 +35903,9 @@
       <c r="W50" s="8">
         <v>6</v>
       </c>
-      <c r="X50" s="8"/>
+      <c r="X50" s="8">
+        <v>2</v>
+      </c>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
@@ -35639,7 +35939,7 @@
       <c r="BC50" s="25"/>
       <c r="BD50" s="25"/>
     </row>
-    <row r="51" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -35706,7 +36006,9 @@
       <c r="W51" s="8">
         <v>0</v>
       </c>
-      <c r="X51" s="8"/>
+      <c r="X51" s="8">
+        <v>0</v>
+      </c>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
@@ -35740,7 +36042,7 @@
       <c r="BC51" s="26"/>
       <c r="BD51" s="26"/>
     </row>
-    <row r="52" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -35807,7 +36109,9 @@
       <c r="W52" s="8">
         <v>2</v>
       </c>
-      <c r="X52" s="8"/>
+      <c r="X52" s="8">
+        <v>2</v>
+      </c>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
@@ -35841,7 +36145,7 @@
       <c r="BC52" s="26"/>
       <c r="BD52" s="26"/>
     </row>
-    <row r="53" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -35908,7 +36212,9 @@
       <c r="W53" s="8">
         <v>9</v>
       </c>
-      <c r="X53" s="8"/>
+      <c r="X53" s="8">
+        <v>5</v>
+      </c>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
@@ -35942,7 +36248,7 @@
       <c r="BC53" s="26"/>
       <c r="BD53" s="26"/>
     </row>
-    <row r="54" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -36009,7 +36315,9 @@
       <c r="W54" s="8">
         <v>1</v>
       </c>
-      <c r="X54" s="8"/>
+      <c r="X54" s="8">
+        <v>7</v>
+      </c>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
@@ -36043,7 +36351,7 @@
       <c r="BC54" s="26"/>
       <c r="BD54" s="26"/>
     </row>
-    <row r="55" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -36110,7 +36418,9 @@
       <c r="W55" s="8">
         <v>6</v>
       </c>
-      <c r="X55" s="8"/>
+      <c r="X55" s="8">
+        <v>7</v>
+      </c>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
@@ -36144,7 +36454,7 @@
       <c r="BC55" s="26"/>
       <c r="BD55" s="26"/>
     </row>
-    <row r="56" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -36211,7 +36521,9 @@
       <c r="W56" s="8">
         <v>1</v>
       </c>
-      <c r="X56" s="8"/>
+      <c r="X56" s="8">
+        <v>2</v>
+      </c>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
@@ -36245,7 +36557,7 @@
       <c r="BC56" s="26"/>
       <c r="BD56" s="26"/>
     </row>
-    <row r="57" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -36312,7 +36624,9 @@
       <c r="W57" s="8">
         <v>0</v>
       </c>
-      <c r="X57" s="8"/>
+      <c r="X57" s="8">
+        <v>0</v>
+      </c>
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
@@ -36346,7 +36660,7 @@
       <c r="BC57" s="26"/>
       <c r="BD57" s="26"/>
     </row>
-    <row r="58" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -36433,7 +36747,7 @@
       </c>
       <c r="X58" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="Y58" s="14">
         <f t="shared" si="2"/>
@@ -36485,7 +36799,7 @@
       <c r="BC58" s="27"/>
       <c r="BD58" s="27"/>
     </row>
-    <row r="59" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -36518,7 +36832,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -36551,7 +36865,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -36663,34 +36977,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BD61"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4:W5"/>
+      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="56" width="10.875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.625" style="1"/>
+    <col min="5" max="56" width="10.9140625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="21"/>
       <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
       <c r="AD1" s="56"/>
     </row>
-    <row r="2" spans="1:56" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:56" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="35" t="s">
@@ -36749,7 +37063,7 @@
       <c r="BC2" s="22"/>
       <c r="BD2" s="22"/>
     </row>
-    <row r="3" spans="1:56" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:56" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="36" t="s">
@@ -36808,7 +37122,7 @@
       <c r="BC3" s="23"/>
       <c r="BD3" s="23"/>
     </row>
-    <row r="4" spans="1:56" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:56" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -36923,7 +37237,7 @@
       <c r="BC4" s="53"/>
       <c r="BD4" s="53"/>
     </row>
-    <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="48"/>
       <c r="C5" s="46"/>
       <c r="D5" s="33"/>
@@ -36980,7 +37294,7 @@
       <c r="BC5" s="53"/>
       <c r="BD5" s="53"/>
     </row>
-    <row r="6" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -37048,7 +37362,9 @@
       <c r="W6" s="8">
         <v>63</v>
       </c>
-      <c r="X6" s="8"/>
+      <c r="X6" s="8">
+        <v>43</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -37082,7 +37398,7 @@
       <c r="BC6" s="25"/>
       <c r="BD6" s="25"/>
     </row>
-    <row r="7" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -37149,7 +37465,9 @@
       <c r="W7" s="8">
         <v>0</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8">
+        <v>1</v>
+      </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -37183,7 +37501,7 @@
       <c r="BC7" s="26"/>
       <c r="BD7" s="26"/>
     </row>
-    <row r="8" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -37250,7 +37568,9 @@
       <c r="W8" s="8">
         <v>7</v>
       </c>
-      <c r="X8" s="8"/>
+      <c r="X8" s="8">
+        <v>6</v>
+      </c>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -37284,7 +37604,7 @@
       <c r="BC8" s="26"/>
       <c r="BD8" s="26"/>
     </row>
-    <row r="9" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -37352,7 +37672,9 @@
       <c r="W9" s="8">
         <v>52</v>
       </c>
-      <c r="X9" s="8"/>
+      <c r="X9" s="8">
+        <v>60</v>
+      </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -37386,7 +37708,7 @@
       <c r="BC9" s="26"/>
       <c r="BD9" s="26"/>
     </row>
-    <row r="10" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -37453,7 +37775,9 @@
       <c r="W10" s="8">
         <v>0</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -37487,7 +37811,7 @@
       <c r="BC10" s="26"/>
       <c r="BD10" s="26"/>
     </row>
-    <row r="11" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -37554,7 +37878,9 @@
       <c r="W11" s="8">
         <v>7</v>
       </c>
-      <c r="X11" s="8"/>
+      <c r="X11" s="8">
+        <v>3</v>
+      </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -37588,7 +37914,7 @@
       <c r="BC11" s="26"/>
       <c r="BD11" s="26"/>
     </row>
-    <row r="12" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -37655,7 +37981,9 @@
       <c r="W12" s="8">
         <v>0</v>
       </c>
-      <c r="X12" s="8"/>
+      <c r="X12" s="8">
+        <v>2</v>
+      </c>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -37689,7 +38017,7 @@
       <c r="BC12" s="26"/>
       <c r="BD12" s="26"/>
     </row>
-    <row r="13" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -37756,7 +38084,9 @@
       <c r="W13" s="8">
         <v>6</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8">
+        <v>10</v>
+      </c>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -37790,7 +38120,7 @@
       <c r="BC13" s="25"/>
       <c r="BD13" s="25"/>
     </row>
-    <row r="14" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -37857,7 +38187,9 @@
       <c r="W14" s="8">
         <v>4</v>
       </c>
-      <c r="X14" s="8"/>
+      <c r="X14" s="8">
+        <v>7</v>
+      </c>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -37891,7 +38223,7 @@
       <c r="BC14" s="26"/>
       <c r="BD14" s="26"/>
     </row>
-    <row r="15" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -37958,7 +38290,9 @@
       <c r="W15" s="8">
         <v>0</v>
       </c>
-      <c r="X15" s="8"/>
+      <c r="X15" s="8">
+        <v>0</v>
+      </c>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -37992,7 +38326,7 @@
       <c r="BC15" s="26"/>
       <c r="BD15" s="26"/>
     </row>
-    <row r="16" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -38060,7 +38394,9 @@
       <c r="W16" s="8">
         <v>63</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8">
+        <v>93</v>
+      </c>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -38094,7 +38430,7 @@
       <c r="BC16" s="25"/>
       <c r="BD16" s="25"/>
     </row>
-    <row r="17" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -38161,7 +38497,9 @@
       <c r="W17" s="8">
         <v>55</v>
       </c>
-      <c r="X17" s="8"/>
+      <c r="X17" s="8">
+        <v>66</v>
+      </c>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -38195,7 +38533,7 @@
       <c r="BC17" s="25"/>
       <c r="BD17" s="25"/>
     </row>
-    <row r="18" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -38263,7 +38601,9 @@
       <c r="W18" s="8">
         <v>967</v>
       </c>
-      <c r="X18" s="8"/>
+      <c r="X18" s="8">
+        <v>854</v>
+      </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -38297,7 +38637,7 @@
       <c r="BC18" s="25"/>
       <c r="BD18" s="25"/>
     </row>
-    <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="57" t="s">
         <v>27</v>
@@ -38365,7 +38705,9 @@
       <c r="W19" s="8">
         <v>15</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8">
+        <v>14</v>
+      </c>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
@@ -38399,7 +38741,7 @@
       <c r="BC19" s="25"/>
       <c r="BD19" s="25"/>
     </row>
-    <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
@@ -38465,7 +38807,9 @@
       <c r="W20" s="8">
         <v>73</v>
       </c>
-      <c r="X20" s="8"/>
+      <c r="X20" s="8">
+        <v>77</v>
+      </c>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -38499,7 +38843,7 @@
       <c r="BC20" s="25"/>
       <c r="BD20" s="25"/>
     </row>
-    <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
@@ -38565,7 +38909,9 @@
       <c r="W21" s="8">
         <v>17</v>
       </c>
-      <c r="X21" s="8"/>
+      <c r="X21" s="8">
+        <v>21</v>
+      </c>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -38599,7 +38945,7 @@
       <c r="BC21" s="25"/>
       <c r="BD21" s="25"/>
     </row>
-    <row r="22" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -38666,7 +39012,9 @@
       <c r="W22" s="8">
         <v>4</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="8">
+        <v>4</v>
+      </c>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -38700,7 +39048,7 @@
       <c r="BC22" s="26"/>
       <c r="BD22" s="26"/>
     </row>
-    <row r="23" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -38767,7 +39115,9 @@
       <c r="W23" s="8">
         <v>2</v>
       </c>
-      <c r="X23" s="8"/>
+      <c r="X23" s="8">
+        <v>4</v>
+      </c>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -38801,7 +39151,7 @@
       <c r="BC23" s="26"/>
       <c r="BD23" s="26"/>
     </row>
-    <row r="24" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -38868,7 +39218,9 @@
       <c r="W24" s="8">
         <v>1</v>
       </c>
-      <c r="X24" s="8"/>
+      <c r="X24" s="8">
+        <v>6</v>
+      </c>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -38902,7 +39254,7 @@
       <c r="BC24" s="25"/>
       <c r="BD24" s="25"/>
     </row>
-    <row r="25" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -38969,7 +39321,9 @@
       <c r="W25" s="8">
         <v>0</v>
       </c>
-      <c r="X25" s="8"/>
+      <c r="X25" s="8">
+        <v>1</v>
+      </c>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -39003,7 +39357,7 @@
       <c r="BC25" s="26"/>
       <c r="BD25" s="26"/>
     </row>
-    <row r="26" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -39070,7 +39424,9 @@
       <c r="W26" s="8">
         <v>5</v>
       </c>
-      <c r="X26" s="8"/>
+      <c r="X26" s="8">
+        <v>5</v>
+      </c>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -39104,7 +39460,7 @@
       <c r="BC26" s="26"/>
       <c r="BD26" s="26"/>
     </row>
-    <row r="27" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -39171,7 +39527,9 @@
       <c r="W27" s="8">
         <v>0</v>
       </c>
-      <c r="X27" s="8"/>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -39205,7 +39563,7 @@
       <c r="BC27" s="26"/>
       <c r="BD27" s="26"/>
     </row>
-    <row r="28" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -39272,7 +39630,9 @@
       <c r="W28" s="8">
         <v>1</v>
       </c>
-      <c r="X28" s="8"/>
+      <c r="X28" s="8">
+        <v>0</v>
+      </c>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -39306,7 +39666,7 @@
       <c r="BC28" s="25"/>
       <c r="BD28" s="25"/>
     </row>
-    <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
@@ -39373,7 +39733,9 @@
       <c r="W29" s="8">
         <v>3</v>
       </c>
-      <c r="X29" s="8"/>
+      <c r="X29" s="8">
+        <v>4</v>
+      </c>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -39407,7 +39769,7 @@
       <c r="BC29" s="26"/>
       <c r="BD29" s="26"/>
     </row>
-    <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -39472,7 +39834,9 @@
       <c r="W30" s="8">
         <v>4</v>
       </c>
-      <c r="X30" s="8"/>
+      <c r="X30" s="8">
+        <v>6</v>
+      </c>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -39506,7 +39870,7 @@
       <c r="BC30" s="26"/>
       <c r="BD30" s="26"/>
     </row>
-    <row r="31" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -39574,7 +39938,9 @@
       <c r="W31" s="8">
         <v>20</v>
       </c>
-      <c r="X31" s="8"/>
+      <c r="X31" s="8">
+        <v>7</v>
+      </c>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
@@ -39608,7 +39974,7 @@
       <c r="BC31" s="25"/>
       <c r="BD31" s="25"/>
     </row>
-    <row r="32" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -39675,7 +40041,9 @@
       <c r="W32" s="8">
         <v>0</v>
       </c>
-      <c r="X32" s="8"/>
+      <c r="X32" s="8">
+        <v>1</v>
+      </c>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -39709,7 +40077,7 @@
       <c r="BC32" s="26"/>
       <c r="BD32" s="26"/>
     </row>
-    <row r="33" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -39776,7 +40144,9 @@
       <c r="W33" s="8">
         <v>1</v>
       </c>
-      <c r="X33" s="8"/>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -39810,7 +40180,7 @@
       <c r="BC33" s="26"/>
       <c r="BD33" s="26"/>
     </row>
-    <row r="34" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -39878,7 +40248,9 @@
       <c r="W34" s="8">
         <v>21</v>
       </c>
-      <c r="X34" s="8"/>
+      <c r="X34" s="8">
+        <v>20</v>
+      </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
@@ -39912,7 +40284,7 @@
       <c r="BC34" s="25"/>
       <c r="BD34" s="25"/>
     </row>
-    <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="57" t="s">
         <v>56</v>
@@ -39980,7 +40352,9 @@
       <c r="W35" s="8">
         <v>165</v>
       </c>
-      <c r="X35" s="8"/>
+      <c r="X35" s="8">
+        <v>161</v>
+      </c>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
@@ -40014,7 +40388,7 @@
       <c r="BC35" s="25"/>
       <c r="BD35" s="25"/>
     </row>
-    <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -40079,7 +40453,9 @@
       <c r="W36" s="8">
         <v>9</v>
       </c>
-      <c r="X36" s="8"/>
+      <c r="X36" s="8">
+        <v>8</v>
+      </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
@@ -40113,7 +40489,7 @@
       <c r="BC36" s="25"/>
       <c r="BD36" s="25"/>
     </row>
-    <row r="37" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -40181,7 +40557,9 @@
       <c r="W37" s="8">
         <v>11</v>
       </c>
-      <c r="X37" s="8"/>
+      <c r="X37" s="8">
+        <v>14</v>
+      </c>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
@@ -40215,7 +40593,7 @@
       <c r="BC37" s="25"/>
       <c r="BD37" s="25"/>
     </row>
-    <row r="38" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -40282,7 +40660,9 @@
       <c r="W38" s="8">
         <v>1</v>
       </c>
-      <c r="X38" s="8"/>
+      <c r="X38" s="8">
+        <v>3</v>
+      </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
@@ -40316,7 +40696,7 @@
       <c r="BC38" s="26"/>
       <c r="BD38" s="26"/>
     </row>
-    <row r="39" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -40383,7 +40763,9 @@
       <c r="W39" s="8">
         <v>2</v>
       </c>
-      <c r="X39" s="8"/>
+      <c r="X39" s="8">
+        <v>4</v>
+      </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
@@ -40417,7 +40799,7 @@
       <c r="BC39" s="26"/>
       <c r="BD39" s="26"/>
     </row>
-    <row r="40" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -40484,7 +40866,9 @@
       <c r="W40" s="8">
         <v>0</v>
       </c>
-      <c r="X40" s="8"/>
+      <c r="X40" s="8">
+        <v>0</v>
+      </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
@@ -40518,7 +40902,7 @@
       <c r="BC40" s="26"/>
       <c r="BD40" s="26"/>
     </row>
-    <row r="41" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -40585,7 +40969,9 @@
       <c r="W41" s="8">
         <v>0</v>
       </c>
-      <c r="X41" s="8"/>
+      <c r="X41" s="8">
+        <v>0</v>
+      </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
@@ -40619,7 +41005,7 @@
       <c r="BC41" s="26"/>
       <c r="BD41" s="26"/>
     </row>
-    <row r="42" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -40686,7 +41072,9 @@
       <c r="W42" s="8">
         <v>3</v>
       </c>
-      <c r="X42" s="8"/>
+      <c r="X42" s="8">
+        <v>4</v>
+      </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
@@ -40720,7 +41108,7 @@
       <c r="BC42" s="26"/>
       <c r="BD42" s="26"/>
     </row>
-    <row r="43" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -40787,7 +41175,9 @@
       <c r="W43" s="8">
         <v>21</v>
       </c>
-      <c r="X43" s="8"/>
+      <c r="X43" s="8">
+        <v>11</v>
+      </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
@@ -40821,7 +41211,7 @@
       <c r="BC43" s="26"/>
       <c r="BD43" s="26"/>
     </row>
-    <row r="44" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -40888,7 +41278,9 @@
       <c r="W44" s="8">
         <v>3</v>
       </c>
-      <c r="X44" s="8"/>
+      <c r="X44" s="8">
+        <v>4</v>
+      </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
@@ -40922,7 +41314,7 @@
       <c r="BC44" s="26"/>
       <c r="BD44" s="26"/>
     </row>
-    <row r="45" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -40989,7 +41381,9 @@
       <c r="W45" s="8">
         <v>2</v>
       </c>
-      <c r="X45" s="8"/>
+      <c r="X45" s="8">
+        <v>4</v>
+      </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
@@ -41023,7 +41417,7 @@
       <c r="BC45" s="25"/>
       <c r="BD45" s="25"/>
     </row>
-    <row r="46" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -41090,7 +41484,9 @@
       <c r="W46" s="8">
         <v>9</v>
       </c>
-      <c r="X46" s="8"/>
+      <c r="X46" s="8">
+        <v>5</v>
+      </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
@@ -41124,7 +41520,7 @@
       <c r="BC46" s="26"/>
       <c r="BD46" s="26"/>
     </row>
-    <row r="47" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -41191,7 +41587,9 @@
       <c r="W47" s="8">
         <v>1</v>
       </c>
-      <c r="X47" s="8"/>
+      <c r="X47" s="8">
+        <v>0</v>
+      </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
@@ -41225,7 +41623,7 @@
       <c r="BC47" s="26"/>
       <c r="BD47" s="26"/>
     </row>
-    <row r="48" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -41292,7 +41690,9 @@
       <c r="W48" s="8">
         <v>1</v>
       </c>
-      <c r="X48" s="8"/>
+      <c r="X48" s="8">
+        <v>1</v>
+      </c>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
@@ -41326,7 +41726,7 @@
       <c r="BC48" s="26"/>
       <c r="BD48" s="26"/>
     </row>
-    <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
       <c r="B49" s="57" t="s">
         <v>83</v>
@@ -41394,7 +41794,9 @@
       <c r="W49" s="8">
         <v>27</v>
       </c>
-      <c r="X49" s="8"/>
+      <c r="X49" s="8">
+        <v>26</v>
+      </c>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
@@ -41428,7 +41830,7 @@
       <c r="BC49" s="25"/>
       <c r="BD49" s="25"/>
     </row>
-    <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -41493,7 +41895,9 @@
       <c r="W50" s="8">
         <v>5</v>
       </c>
-      <c r="X50" s="8"/>
+      <c r="X50" s="8">
+        <v>3</v>
+      </c>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
@@ -41527,7 +41931,7 @@
       <c r="BC50" s="25"/>
       <c r="BD50" s="25"/>
     </row>
-    <row r="51" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -41594,7 +41998,9 @@
       <c r="W51" s="8">
         <v>3</v>
       </c>
-      <c r="X51" s="8"/>
+      <c r="X51" s="8">
+        <v>4</v>
+      </c>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
@@ -41628,7 +42034,7 @@
       <c r="BC51" s="26"/>
       <c r="BD51" s="26"/>
     </row>
-    <row r="52" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -41695,7 +42101,9 @@
       <c r="W52" s="8">
         <v>7</v>
       </c>
-      <c r="X52" s="8"/>
+      <c r="X52" s="8">
+        <v>4</v>
+      </c>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
@@ -41729,7 +42137,7 @@
       <c r="BC52" s="26"/>
       <c r="BD52" s="26"/>
     </row>
-    <row r="53" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -41796,7 +42204,9 @@
       <c r="W53" s="8">
         <v>11</v>
       </c>
-      <c r="X53" s="8"/>
+      <c r="X53" s="8">
+        <v>11</v>
+      </c>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
@@ -41830,7 +42240,7 @@
       <c r="BC53" s="26"/>
       <c r="BD53" s="26"/>
     </row>
-    <row r="54" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -41897,7 +42307,9 @@
       <c r="W54" s="8">
         <v>6</v>
       </c>
-      <c r="X54" s="8"/>
+      <c r="X54" s="8">
+        <v>1</v>
+      </c>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
@@ -41931,7 +42343,7 @@
       <c r="BC54" s="26"/>
       <c r="BD54" s="26"/>
     </row>
-    <row r="55" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -41998,7 +42410,9 @@
       <c r="W55" s="8">
         <v>2</v>
       </c>
-      <c r="X55" s="8"/>
+      <c r="X55" s="8">
+        <v>6</v>
+      </c>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
@@ -42032,7 +42446,7 @@
       <c r="BC55" s="26"/>
       <c r="BD55" s="26"/>
     </row>
-    <row r="56" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -42099,7 +42513,9 @@
       <c r="W56" s="8">
         <v>2</v>
       </c>
-      <c r="X56" s="8"/>
+      <c r="X56" s="8">
+        <v>1</v>
+      </c>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
@@ -42133,7 +42549,7 @@
       <c r="BC56" s="26"/>
       <c r="BD56" s="26"/>
     </row>
-    <row r="57" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -42200,7 +42616,9 @@
       <c r="W57" s="8">
         <v>0</v>
       </c>
-      <c r="X57" s="8"/>
+      <c r="X57" s="8">
+        <v>0</v>
+      </c>
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
@@ -42234,7 +42652,7 @@
       <c r="BC57" s="26"/>
       <c r="BD57" s="26"/>
     </row>
-    <row r="58" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -42321,7 +42739,7 @@
       </c>
       <c r="X58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="Y58" s="14">
         <f t="shared" si="0"/>
@@ -42374,7 +42792,7 @@
       <c r="BC58" s="27"/>
       <c r="BD58" s="27"/>
     </row>
-    <row r="59" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -42407,7 +42825,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -42440,7 +42858,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -42544,4 +42962,17 @@
   <pageSetup paperSize="8" scale="28" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433CE5E7-911B-40C1-BECF-308EACFE805D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\09【大】感染症関係\【中】新型コロナウイルス感染症関係\【小】令和３年度新型コロナウイルス感染症関係\★ コロナ受入困難事例集計\最新データ\DTホームページ公開\20210824\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\Ｂ030831-3\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94FC807-BA47-4AA7-8D09-2D95BB588B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -2058,7 +2057,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;&quot;△ &quot;#,##0"/>
   </numFmts>
@@ -2566,7 +2565,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="桁区切り" xfId="3" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4576,27 +4575,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="BI42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CA9" sqref="CA9"/>
+      <selection pane="bottomRight" activeCell="BY42" sqref="BY42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="56" width="11" style="1" customWidth="1"/>
-    <col min="57" max="82" width="10.9140625" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="8.6640625" style="1"/>
+    <col min="57" max="82" width="10.875" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BA1" s="34" t="s">
         <v>143</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="32.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="35" t="s">
@@ -4694,7 +4693,7 @@
       <c r="CC2" s="35"/>
       <c r="CD2" s="35"/>
     </row>
-    <row r="3" spans="1:82" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="36" t="s">
@@ -4783,7 +4782,7 @@
       <c r="CC3" s="36"/>
       <c r="CD3" s="36"/>
     </row>
-    <row r="4" spans="1:82" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="48"/>
       <c r="C5" s="46"/>
       <c r="D5" s="32"/>
@@ -5111,7 +5110,7 @@
       <c r="CC5" s="33"/>
       <c r="CD5" s="33"/>
     </row>
-    <row r="6" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -5338,14 +5337,16 @@
       <c r="BX6" s="8">
         <v>88</v>
       </c>
-      <c r="BY6" s="8"/>
+      <c r="BY6" s="8">
+        <v>87</v>
+      </c>
       <c r="BZ6" s="8"/>
       <c r="CA6" s="8"/>
       <c r="CB6" s="15"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
     </row>
-    <row r="7" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -5571,14 +5572,16 @@
       <c r="BX7" s="8">
         <v>1</v>
       </c>
-      <c r="BY7" s="8"/>
+      <c r="BY7" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ7" s="8"/>
       <c r="CA7" s="8"/>
       <c r="CB7" s="15"/>
       <c r="CC7" s="8"/>
       <c r="CD7" s="8"/>
     </row>
-    <row r="8" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -5804,14 +5807,16 @@
       <c r="BX8" s="8">
         <v>6</v>
       </c>
-      <c r="BY8" s="8"/>
+      <c r="BY8" s="8">
+        <v>5</v>
+      </c>
       <c r="BZ8" s="8"/>
       <c r="CA8" s="8"/>
       <c r="CB8" s="15"/>
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
     </row>
-    <row r="9" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -6038,14 +6043,16 @@
       <c r="BX9" s="8">
         <v>70</v>
       </c>
-      <c r="BY9" s="8"/>
+      <c r="BY9" s="8">
+        <v>69</v>
+      </c>
       <c r="BZ9" s="8"/>
       <c r="CA9" s="8"/>
       <c r="CB9" s="15"/>
       <c r="CC9" s="8"/>
       <c r="CD9" s="8"/>
     </row>
-    <row r="10" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -6271,14 +6278,16 @@
       <c r="BX10" s="8">
         <v>0</v>
       </c>
-      <c r="BY10" s="8"/>
+      <c r="BY10" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ10" s="8"/>
       <c r="CA10" s="8"/>
       <c r="CB10" s="15"/>
       <c r="CC10" s="8"/>
       <c r="CD10" s="8"/>
     </row>
-    <row r="11" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -6504,14 +6513,16 @@
       <c r="BX11" s="8">
         <v>7</v>
       </c>
-      <c r="BY11" s="8"/>
+      <c r="BY11" s="8">
+        <v>8</v>
+      </c>
       <c r="BZ11" s="8"/>
       <c r="CA11" s="8"/>
       <c r="CB11" s="15"/>
       <c r="CC11" s="8"/>
       <c r="CD11" s="8"/>
     </row>
-    <row r="12" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -6737,14 +6748,16 @@
       <c r="BX12" s="8">
         <v>6</v>
       </c>
-      <c r="BY12" s="8"/>
+      <c r="BY12" s="8">
+        <v>2</v>
+      </c>
       <c r="BZ12" s="8"/>
       <c r="CA12" s="8"/>
       <c r="CB12" s="15"/>
       <c r="CC12" s="8"/>
       <c r="CD12" s="8"/>
     </row>
-    <row r="13" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -6970,14 +6983,16 @@
       <c r="BX13" s="8">
         <v>18</v>
       </c>
-      <c r="BY13" s="8"/>
+      <c r="BY13" s="8">
+        <v>9</v>
+      </c>
       <c r="BZ13" s="8"/>
       <c r="CA13" s="8"/>
       <c r="CB13" s="15"/>
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
     </row>
-    <row r="14" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -7203,14 +7218,16 @@
       <c r="BX14" s="8">
         <v>11</v>
       </c>
-      <c r="BY14" s="8"/>
+      <c r="BY14" s="8">
+        <v>9</v>
+      </c>
       <c r="BZ14" s="8"/>
       <c r="CA14" s="8"/>
       <c r="CB14" s="15"/>
       <c r="CC14" s="8"/>
       <c r="CD14" s="8"/>
     </row>
-    <row r="15" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -7436,14 +7453,16 @@
       <c r="BX15" s="8">
         <v>0</v>
       </c>
-      <c r="BY15" s="8"/>
+      <c r="BY15" s="8">
+        <v>1</v>
+      </c>
       <c r="BZ15" s="8"/>
       <c r="CA15" s="8"/>
       <c r="CB15" s="15"/>
       <c r="CC15" s="8"/>
       <c r="CD15" s="8"/>
     </row>
-    <row r="16" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -7670,14 +7689,16 @@
       <c r="BX16" s="8">
         <v>114</v>
       </c>
-      <c r="BY16" s="8"/>
+      <c r="BY16" s="8">
+        <v>90</v>
+      </c>
       <c r="BZ16" s="8"/>
       <c r="CA16" s="8"/>
       <c r="CB16" s="15"/>
       <c r="CC16" s="8"/>
       <c r="CD16" s="8"/>
     </row>
-    <row r="17" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -7903,14 +7924,16 @@
       <c r="BX17" s="8">
         <v>146</v>
       </c>
-      <c r="BY17" s="8"/>
+      <c r="BY17" s="8">
+        <v>111</v>
+      </c>
       <c r="BZ17" s="8"/>
       <c r="CA17" s="8"/>
       <c r="CB17" s="16"/>
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
     </row>
-    <row r="18" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -8137,14 +8160,16 @@
       <c r="BX18" s="8">
         <v>1645</v>
       </c>
-      <c r="BY18" s="8"/>
+      <c r="BY18" s="8">
+        <v>1703</v>
+      </c>
       <c r="BZ18" s="8"/>
       <c r="CA18" s="8"/>
       <c r="CB18" s="17"/>
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
     </row>
-    <row r="19" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="43" t="s">
         <v>27</v>
@@ -8371,14 +8396,16 @@
       <c r="BX19" s="8">
         <v>92</v>
       </c>
-      <c r="BY19" s="8"/>
+      <c r="BY19" s="8">
+        <v>77</v>
+      </c>
       <c r="BZ19" s="8"/>
       <c r="CA19" s="8"/>
       <c r="CB19" s="15"/>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
     </row>
-    <row r="20" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
@@ -8603,14 +8630,16 @@
       <c r="BX20" s="8">
         <v>372</v>
       </c>
-      <c r="BY20" s="8"/>
+      <c r="BY20" s="8">
+        <v>386</v>
+      </c>
       <c r="BZ20" s="8"/>
       <c r="CA20" s="8"/>
       <c r="CB20" s="16"/>
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
     </row>
-    <row r="21" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
@@ -8835,14 +8864,16 @@
       <c r="BX21" s="8">
         <v>50</v>
       </c>
-      <c r="BY21" s="8"/>
+      <c r="BY21" s="8">
+        <v>33</v>
+      </c>
       <c r="BZ21" s="8"/>
       <c r="CA21" s="8"/>
       <c r="CB21" s="15"/>
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
     </row>
-    <row r="22" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -9068,14 +9099,16 @@
       <c r="BX22" s="8">
         <v>7</v>
       </c>
-      <c r="BY22" s="8"/>
+      <c r="BY22" s="8">
+        <v>7</v>
+      </c>
       <c r="BZ22" s="8"/>
       <c r="CA22" s="8"/>
       <c r="CB22" s="15"/>
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
     </row>
-    <row r="23" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -9301,14 +9334,16 @@
       <c r="BX23" s="8">
         <v>4</v>
       </c>
-      <c r="BY23" s="8"/>
+      <c r="BY23" s="8">
+        <v>1</v>
+      </c>
       <c r="BZ23" s="8"/>
       <c r="CA23" s="8"/>
       <c r="CB23" s="15"/>
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
     </row>
-    <row r="24" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -9534,14 +9569,16 @@
       <c r="BX24" s="8">
         <v>7</v>
       </c>
-      <c r="BY24" s="8"/>
+      <c r="BY24" s="8">
+        <v>6</v>
+      </c>
       <c r="BZ24" s="8"/>
       <c r="CA24" s="8"/>
       <c r="CB24" s="15"/>
       <c r="CC24" s="8"/>
       <c r="CD24" s="8"/>
     </row>
-    <row r="25" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -9767,14 +9804,16 @@
       <c r="BX25" s="8">
         <v>1</v>
       </c>
-      <c r="BY25" s="8"/>
+      <c r="BY25" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ25" s="8"/>
       <c r="CA25" s="8"/>
       <c r="CB25" s="15"/>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
     </row>
-    <row r="26" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -10000,14 +10039,16 @@
       <c r="BX26" s="8">
         <v>8</v>
       </c>
-      <c r="BY26" s="8"/>
+      <c r="BY26" s="8">
+        <v>6</v>
+      </c>
       <c r="BZ26" s="8"/>
       <c r="CA26" s="8"/>
       <c r="CB26" s="15"/>
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
     </row>
-    <row r="27" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -10233,14 +10274,16 @@
       <c r="BX27" s="8">
         <v>0</v>
       </c>
-      <c r="BY27" s="8"/>
+      <c r="BY27" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ27" s="8"/>
       <c r="CA27" s="8"/>
       <c r="CB27" s="15"/>
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
     </row>
-    <row r="28" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -10466,14 +10509,16 @@
       <c r="BX28" s="8">
         <v>2</v>
       </c>
-      <c r="BY28" s="8"/>
+      <c r="BY28" s="8">
+        <v>1</v>
+      </c>
       <c r="BZ28" s="8"/>
       <c r="CA28" s="8"/>
       <c r="CB28" s="15"/>
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
     </row>
-    <row r="29" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
@@ -10699,14 +10744,16 @@
       <c r="BX29" s="8">
         <v>6</v>
       </c>
-      <c r="BY29" s="8"/>
+      <c r="BY29" s="8">
+        <v>11</v>
+      </c>
       <c r="BZ29" s="8"/>
       <c r="CA29" s="8"/>
       <c r="CB29" s="15"/>
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
     </row>
-    <row r="30" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -10930,14 +10977,16 @@
       <c r="BX30" s="8">
         <v>9</v>
       </c>
-      <c r="BY30" s="8"/>
+      <c r="BY30" s="8">
+        <v>9</v>
+      </c>
       <c r="BZ30" s="8"/>
       <c r="CA30" s="8"/>
       <c r="CB30" s="15"/>
       <c r="CC30" s="8"/>
       <c r="CD30" s="8"/>
     </row>
-    <row r="31" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -11164,14 +11213,16 @@
       <c r="BX31" s="8">
         <v>22</v>
       </c>
-      <c r="BY31" s="8"/>
+      <c r="BY31" s="8">
+        <v>30</v>
+      </c>
       <c r="BZ31" s="8"/>
       <c r="CA31" s="8"/>
       <c r="CB31" s="15"/>
       <c r="CC31" s="8"/>
       <c r="CD31" s="8"/>
     </row>
-    <row r="32" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -11397,14 +11448,16 @@
       <c r="BX32" s="8">
         <v>3</v>
       </c>
-      <c r="BY32" s="8"/>
+      <c r="BY32" s="8">
+        <v>5</v>
+      </c>
       <c r="BZ32" s="8"/>
       <c r="CA32" s="8"/>
       <c r="CB32" s="15"/>
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
     </row>
-    <row r="33" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -11630,14 +11683,16 @@
       <c r="BX33" s="8">
         <v>1</v>
       </c>
-      <c r="BY33" s="8"/>
+      <c r="BY33" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ33" s="8"/>
       <c r="CA33" s="8"/>
       <c r="CB33" s="15"/>
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
     </row>
-    <row r="34" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -11864,14 +11919,16 @@
       <c r="BX34" s="8">
         <v>35</v>
       </c>
-      <c r="BY34" s="8"/>
+      <c r="BY34" s="8">
+        <v>53</v>
+      </c>
       <c r="BZ34" s="8"/>
       <c r="CA34" s="8"/>
       <c r="CB34" s="15"/>
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
-    <row r="35" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="43" t="s">
         <v>56</v>
@@ -12098,14 +12155,16 @@
       <c r="BX35" s="8">
         <v>240</v>
       </c>
-      <c r="BY35" s="8"/>
+      <c r="BY35" s="8">
+        <v>209</v>
+      </c>
       <c r="BZ35" s="8"/>
       <c r="CA35" s="8"/>
       <c r="CB35" s="16"/>
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
-    <row r="36" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -12329,14 +12388,16 @@
       <c r="BX36" s="8">
         <v>16</v>
       </c>
-      <c r="BY36" s="8"/>
+      <c r="BY36" s="8">
+        <v>25</v>
+      </c>
       <c r="BZ36" s="8"/>
       <c r="CA36" s="8"/>
       <c r="CB36" s="16"/>
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
     </row>
-    <row r="37" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -12563,14 +12624,16 @@
       <c r="BX37" s="8">
         <v>31</v>
       </c>
-      <c r="BY37" s="8"/>
+      <c r="BY37" s="8">
+        <v>33</v>
+      </c>
       <c r="BZ37" s="8"/>
       <c r="CA37" s="8"/>
       <c r="CB37" s="15"/>
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
     </row>
-    <row r="38" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -12796,14 +12859,16 @@
       <c r="BX38" s="8">
         <v>6</v>
       </c>
-      <c r="BY38" s="8"/>
+      <c r="BY38" s="8">
+        <v>7</v>
+      </c>
       <c r="BZ38" s="8"/>
       <c r="CA38" s="8"/>
       <c r="CB38" s="15"/>
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
     </row>
-    <row r="39" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -13029,14 +13094,16 @@
       <c r="BX39" s="8">
         <v>5</v>
       </c>
-      <c r="BY39" s="8"/>
+      <c r="BY39" s="8">
+        <v>6</v>
+      </c>
       <c r="BZ39" s="8"/>
       <c r="CA39" s="8"/>
       <c r="CB39" s="15"/>
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
     </row>
-    <row r="40" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -13262,14 +13329,16 @@
       <c r="BX40" s="8">
         <v>0</v>
       </c>
-      <c r="BY40" s="8"/>
+      <c r="BY40" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ40" s="8"/>
       <c r="CA40" s="8"/>
       <c r="CB40" s="15"/>
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
     </row>
-    <row r="41" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -13495,14 +13564,16 @@
       <c r="BX41" s="8">
         <v>0</v>
       </c>
-      <c r="BY41" s="8"/>
+      <c r="BY41" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ41" s="8"/>
       <c r="CA41" s="8"/>
       <c r="CB41" s="15"/>
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
     </row>
-    <row r="42" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -13728,14 +13799,16 @@
       <c r="BX42" s="8">
         <v>8</v>
       </c>
-      <c r="BY42" s="8"/>
+      <c r="BY42" s="8">
+        <v>8</v>
+      </c>
       <c r="BZ42" s="8"/>
       <c r="CA42" s="8"/>
       <c r="CB42" s="15"/>
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
     </row>
-    <row r="43" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -13961,14 +14034,16 @@
       <c r="BX43" s="8">
         <v>43</v>
       </c>
-      <c r="BY43" s="8"/>
+      <c r="BY43" s="8">
+        <v>46</v>
+      </c>
       <c r="BZ43" s="8"/>
       <c r="CA43" s="8"/>
       <c r="CB43" s="15"/>
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
     </row>
-    <row r="44" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -14194,14 +14269,16 @@
       <c r="BX44" s="8">
         <v>7</v>
       </c>
-      <c r="BY44" s="8"/>
+      <c r="BY44" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ44" s="8"/>
       <c r="CA44" s="8"/>
       <c r="CB44" s="15"/>
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
     </row>
-    <row r="45" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -14427,14 +14504,16 @@
       <c r="BX45" s="8">
         <v>8</v>
       </c>
-      <c r="BY45" s="8"/>
+      <c r="BY45" s="8">
+        <v>10</v>
+      </c>
       <c r="BZ45" s="8"/>
       <c r="CA45" s="8"/>
       <c r="CB45" s="15"/>
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
     </row>
-    <row r="46" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -14660,14 +14739,16 @@
       <c r="BX46" s="8">
         <v>8</v>
       </c>
-      <c r="BY46" s="8"/>
+      <c r="BY46" s="8">
+        <v>8</v>
+      </c>
       <c r="BZ46" s="8"/>
       <c r="CA46" s="8"/>
       <c r="CB46" s="15"/>
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
     </row>
-    <row r="47" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -14893,14 +14974,16 @@
       <c r="BX47" s="8">
         <v>0</v>
       </c>
-      <c r="BY47" s="8"/>
+      <c r="BY47" s="8">
+        <v>2</v>
+      </c>
       <c r="BZ47" s="8"/>
       <c r="CA47" s="8"/>
       <c r="CB47" s="15"/>
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
     </row>
-    <row r="48" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -15126,14 +15209,16 @@
       <c r="BX48" s="8">
         <v>3</v>
       </c>
-      <c r="BY48" s="8"/>
+      <c r="BY48" s="8">
+        <v>6</v>
+      </c>
       <c r="BZ48" s="8"/>
       <c r="CA48" s="8"/>
       <c r="CB48" s="15"/>
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
     </row>
-    <row r="49" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="43" t="s">
         <v>83</v>
@@ -15360,14 +15445,16 @@
       <c r="BX49" s="8">
         <v>46</v>
       </c>
-      <c r="BY49" s="8"/>
+      <c r="BY49" s="8">
+        <v>32</v>
+      </c>
       <c r="BZ49" s="8"/>
       <c r="CA49" s="8"/>
       <c r="CB49" s="15"/>
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
-    <row r="50" spans="1:82" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -15591,14 +15678,16 @@
       <c r="BX50" s="8">
         <v>5</v>
       </c>
-      <c r="BY50" s="8"/>
+      <c r="BY50" s="8">
+        <v>7</v>
+      </c>
       <c r="BZ50" s="8"/>
       <c r="CA50" s="8"/>
       <c r="CB50" s="15"/>
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
-    <row r="51" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -15824,14 +15913,16 @@
       <c r="BX51" s="8">
         <v>4</v>
       </c>
-      <c r="BY51" s="8"/>
+      <c r="BY51" s="8">
+        <v>2</v>
+      </c>
       <c r="BZ51" s="8"/>
       <c r="CA51" s="8"/>
       <c r="CB51" s="15"/>
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
-    <row r="52" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -16057,14 +16148,16 @@
       <c r="BX52" s="8">
         <v>6</v>
       </c>
-      <c r="BY52" s="8"/>
+      <c r="BY52" s="8">
+        <v>4</v>
+      </c>
       <c r="BZ52" s="8"/>
       <c r="CA52" s="8"/>
       <c r="CB52" s="15"/>
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
-    <row r="53" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -16290,14 +16383,16 @@
       <c r="BX53" s="8">
         <v>16</v>
       </c>
-      <c r="BY53" s="8"/>
+      <c r="BY53" s="8">
+        <v>8</v>
+      </c>
       <c r="BZ53" s="8"/>
       <c r="CA53" s="8"/>
       <c r="CB53" s="15"/>
       <c r="CC53" s="8"/>
       <c r="CD53" s="8"/>
     </row>
-    <row r="54" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -16523,14 +16618,16 @@
       <c r="BX54" s="8">
         <v>8</v>
       </c>
-      <c r="BY54" s="8"/>
+      <c r="BY54" s="8">
+        <v>7</v>
+      </c>
       <c r="BZ54" s="8"/>
       <c r="CA54" s="8"/>
       <c r="CB54" s="15"/>
       <c r="CC54" s="8"/>
       <c r="CD54" s="8"/>
     </row>
-    <row r="55" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -16756,14 +16853,16 @@
       <c r="BX55" s="8">
         <v>13</v>
       </c>
-      <c r="BY55" s="8"/>
+      <c r="BY55" s="8">
+        <v>10</v>
+      </c>
       <c r="BZ55" s="8"/>
       <c r="CA55" s="8"/>
       <c r="CB55" s="15"/>
       <c r="CC55" s="8"/>
       <c r="CD55" s="8"/>
     </row>
-    <row r="56" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -16989,14 +17088,16 @@
       <c r="BX56" s="8">
         <v>3</v>
       </c>
-      <c r="BY56" s="8"/>
+      <c r="BY56" s="8">
+        <v>1</v>
+      </c>
       <c r="BZ56" s="8"/>
       <c r="CA56" s="8"/>
       <c r="CB56" s="15"/>
       <c r="CC56" s="8"/>
       <c r="CD56" s="8"/>
     </row>
-    <row r="57" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -17222,14 +17323,16 @@
       <c r="BX57" s="8">
         <v>0</v>
       </c>
-      <c r="BY57" s="8"/>
+      <c r="BY57" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ57" s="8"/>
       <c r="CA57" s="8"/>
       <c r="CB57" s="15"/>
       <c r="CC57" s="8"/>
       <c r="CD57" s="8"/>
     </row>
-    <row r="58" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -17528,7 +17631,7 @@
       </c>
       <c r="BY58" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3153</v>
       </c>
       <c r="BZ58" s="14">
         <f t="shared" si="3"/>
@@ -17550,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -17634,7 +17737,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -17718,7 +17821,7 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:82" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -17909,27 +18012,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BQ53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CA12" sqref="CA12"/>
+      <selection pane="bottomRight" activeCell="CB61" sqref="CB61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="55" width="11" style="1" customWidth="1"/>
-    <col min="56" max="82" width="10.9140625" style="1" customWidth="1"/>
-    <col min="83" max="16384" width="8.6640625" style="1"/>
+    <col min="56" max="82" width="10.875" style="1" customWidth="1"/>
+    <col min="83" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:82" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:82" ht="24" x14ac:dyDescent="0.4">
       <c r="BB1" s="49" t="s">
         <v>143</v>
       </c>
@@ -17940,7 +18043,7 @@
       </c>
       <c r="CD1" s="49"/>
     </row>
-    <row r="2" spans="2:82" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="35" t="s">
@@ -18027,7 +18130,7 @@
       <c r="CC2" s="35"/>
       <c r="CD2" s="35"/>
     </row>
-    <row r="3" spans="2:82" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="36" t="s">
@@ -18116,7 +18219,7 @@
       <c r="CC3" s="36"/>
       <c r="CD3" s="36"/>
     </row>
-    <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -18361,7 +18464,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="2:82" ht="54.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:82" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="48"/>
       <c r="C5" s="46"/>
       <c r="D5" s="52"/>
@@ -18444,7 +18547,7 @@
       <c r="CC5" s="32"/>
       <c r="CD5" s="32"/>
     </row>
-    <row r="6" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -18670,14 +18773,16 @@
       <c r="BX6" s="8">
         <v>61</v>
       </c>
-      <c r="BY6" s="8"/>
+      <c r="BY6" s="8">
+        <v>76</v>
+      </c>
       <c r="BZ6" s="8"/>
       <c r="CA6" s="8"/>
       <c r="CB6" s="15"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
     </row>
-    <row r="7" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -18903,14 +19008,16 @@
       <c r="BX7" s="8">
         <v>3</v>
       </c>
-      <c r="BY7" s="8"/>
+      <c r="BY7" s="8">
+        <v>1</v>
+      </c>
       <c r="BZ7" s="8"/>
       <c r="CA7" s="8"/>
       <c r="CB7" s="15"/>
       <c r="CC7" s="8"/>
       <c r="CD7" s="8"/>
     </row>
-    <row r="8" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -19136,14 +19243,16 @@
       <c r="BX8" s="8">
         <v>2</v>
       </c>
-      <c r="BY8" s="8"/>
+      <c r="BY8" s="8">
+        <v>2</v>
+      </c>
       <c r="BZ8" s="8"/>
       <c r="CA8" s="8"/>
       <c r="CB8" s="15"/>
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
     </row>
-    <row r="9" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -19369,14 +19478,16 @@
       <c r="BX9" s="8">
         <v>18</v>
       </c>
-      <c r="BY9" s="8"/>
+      <c r="BY9" s="8">
+        <v>28</v>
+      </c>
       <c r="BZ9" s="8"/>
       <c r="CA9" s="8"/>
       <c r="CB9" s="15"/>
       <c r="CC9" s="8"/>
       <c r="CD9" s="8"/>
     </row>
-    <row r="10" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -19602,14 +19713,16 @@
       <c r="BX10" s="8">
         <v>0</v>
       </c>
-      <c r="BY10" s="8"/>
+      <c r="BY10" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ10" s="8"/>
       <c r="CA10" s="8"/>
       <c r="CB10" s="15"/>
       <c r="CC10" s="8"/>
       <c r="CD10" s="8"/>
     </row>
-    <row r="11" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -19835,14 +19948,16 @@
       <c r="BX11" s="8">
         <v>2</v>
       </c>
-      <c r="BY11" s="8"/>
+      <c r="BY11" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ11" s="8"/>
       <c r="CA11" s="8"/>
       <c r="CB11" s="15"/>
       <c r="CC11" s="8"/>
       <c r="CD11" s="8"/>
     </row>
-    <row r="12" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -20068,14 +20183,16 @@
       <c r="BX12" s="8">
         <v>2</v>
       </c>
-      <c r="BY12" s="8"/>
+      <c r="BY12" s="8">
+        <v>5</v>
+      </c>
       <c r="BZ12" s="8"/>
       <c r="CA12" s="8"/>
       <c r="CB12" s="15"/>
       <c r="CC12" s="8"/>
       <c r="CD12" s="8"/>
     </row>
-    <row r="13" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -20301,14 +20418,16 @@
       <c r="BX13" s="8">
         <v>25</v>
       </c>
-      <c r="BY13" s="8"/>
+      <c r="BY13" s="8">
+        <v>25</v>
+      </c>
       <c r="BZ13" s="8"/>
       <c r="CA13" s="8"/>
       <c r="CB13" s="15"/>
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
     </row>
-    <row r="14" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -20534,14 +20653,16 @@
       <c r="BX14" s="8">
         <v>2</v>
       </c>
-      <c r="BY14" s="8"/>
+      <c r="BY14" s="8">
+        <v>6</v>
+      </c>
       <c r="BZ14" s="8"/>
       <c r="CA14" s="8"/>
       <c r="CB14" s="15"/>
       <c r="CC14" s="8"/>
       <c r="CD14" s="8"/>
     </row>
-    <row r="15" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -20767,14 +20888,16 @@
       <c r="BX15" s="8">
         <v>0</v>
       </c>
-      <c r="BY15" s="8"/>
+      <c r="BY15" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ15" s="8"/>
       <c r="CA15" s="8"/>
       <c r="CB15" s="15"/>
       <c r="CC15" s="8"/>
       <c r="CD15" s="8"/>
     </row>
-    <row r="16" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -21000,14 +21123,16 @@
       <c r="BX16" s="8">
         <v>35</v>
       </c>
-      <c r="BY16" s="8"/>
+      <c r="BY16" s="8">
+        <v>27</v>
+      </c>
       <c r="BZ16" s="8"/>
       <c r="CA16" s="8"/>
       <c r="CB16" s="15"/>
       <c r="CC16" s="8"/>
       <c r="CD16" s="8"/>
     </row>
-    <row r="17" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -21233,14 +21358,16 @@
       <c r="BX17" s="8">
         <v>97</v>
       </c>
-      <c r="BY17" s="8"/>
+      <c r="BY17" s="8">
+        <v>76</v>
+      </c>
       <c r="BZ17" s="8"/>
       <c r="CA17" s="8"/>
       <c r="CB17" s="16"/>
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
     </row>
-    <row r="18" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -21466,14 +21593,16 @@
       <c r="BX18" s="8">
         <v>824</v>
       </c>
-      <c r="BY18" s="8"/>
+      <c r="BY18" s="8">
+        <v>650</v>
+      </c>
       <c r="BZ18" s="8"/>
       <c r="CA18" s="8"/>
       <c r="CB18" s="17"/>
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
     </row>
-    <row r="19" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
@@ -21699,14 +21828,16 @@
       <c r="BX19" s="8">
         <v>34</v>
       </c>
-      <c r="BY19" s="8"/>
+      <c r="BY19" s="8">
+        <v>18</v>
+      </c>
       <c r="BZ19" s="8"/>
       <c r="CA19" s="8"/>
       <c r="CB19" s="15"/>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
     </row>
-    <row r="20" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -21930,14 +22061,16 @@
       <c r="BX20" s="8">
         <v>138</v>
       </c>
-      <c r="BY20" s="8"/>
+      <c r="BY20" s="8">
+        <v>78</v>
+      </c>
       <c r="BZ20" s="8"/>
       <c r="CA20" s="8"/>
       <c r="CB20" s="16"/>
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
     </row>
-    <row r="21" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -22161,14 +22294,16 @@
       <c r="BX21" s="8">
         <v>8</v>
       </c>
-      <c r="BY21" s="8"/>
+      <c r="BY21" s="8">
+        <v>13</v>
+      </c>
       <c r="BZ21" s="8"/>
       <c r="CA21" s="8"/>
       <c r="CB21" s="15"/>
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
     </row>
-    <row r="22" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -22394,14 +22529,16 @@
       <c r="BX22" s="8">
         <v>7</v>
       </c>
-      <c r="BY22" s="8"/>
+      <c r="BY22" s="8">
+        <v>22</v>
+      </c>
       <c r="BZ22" s="8"/>
       <c r="CA22" s="8"/>
       <c r="CB22" s="15"/>
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
     </row>
-    <row r="23" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -22627,14 +22764,16 @@
       <c r="BX23" s="8">
         <v>1</v>
       </c>
-      <c r="BY23" s="8"/>
+      <c r="BY23" s="8">
+        <v>2</v>
+      </c>
       <c r="BZ23" s="8"/>
       <c r="CA23" s="8"/>
       <c r="CB23" s="15"/>
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
     </row>
-    <row r="24" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -22860,14 +22999,16 @@
       <c r="BX24" s="8">
         <v>11</v>
       </c>
-      <c r="BY24" s="8"/>
+      <c r="BY24" s="8">
+        <v>5</v>
+      </c>
       <c r="BZ24" s="8"/>
       <c r="CA24" s="8"/>
       <c r="CB24" s="15"/>
       <c r="CC24" s="8"/>
       <c r="CD24" s="8"/>
     </row>
-    <row r="25" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -23093,14 +23234,16 @@
       <c r="BX25" s="8">
         <v>0</v>
       </c>
-      <c r="BY25" s="8"/>
+      <c r="BY25" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ25" s="8"/>
       <c r="CA25" s="8"/>
       <c r="CB25" s="15"/>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
     </row>
-    <row r="26" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -23326,14 +23469,16 @@
       <c r="BX26" s="8">
         <v>17</v>
       </c>
-      <c r="BY26" s="8"/>
+      <c r="BY26" s="8">
+        <v>9</v>
+      </c>
       <c r="BZ26" s="8"/>
       <c r="CA26" s="8"/>
       <c r="CB26" s="15"/>
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
     </row>
-    <row r="27" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -23559,14 +23704,16 @@
       <c r="BX27" s="8">
         <v>0</v>
       </c>
-      <c r="BY27" s="8"/>
+      <c r="BY27" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ27" s="8"/>
       <c r="CA27" s="8"/>
       <c r="CB27" s="15"/>
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
     </row>
-    <row r="28" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -23792,14 +23939,16 @@
       <c r="BX28" s="8">
         <v>0</v>
       </c>
-      <c r="BY28" s="8"/>
+      <c r="BY28" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ28" s="8"/>
       <c r="CA28" s="8"/>
       <c r="CB28" s="15"/>
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
     </row>
-    <row r="29" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
@@ -24025,14 +24174,16 @@
       <c r="BX29" s="8">
         <v>2</v>
       </c>
-      <c r="BY29" s="8"/>
+      <c r="BY29" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ29" s="8"/>
       <c r="CA29" s="8"/>
       <c r="CB29" s="15"/>
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
     </row>
-    <row r="30" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -24256,14 +24407,16 @@
       <c r="BX30" s="8">
         <v>5</v>
       </c>
-      <c r="BY30" s="8"/>
+      <c r="BY30" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ30" s="8"/>
       <c r="CA30" s="8"/>
       <c r="CB30" s="15"/>
       <c r="CC30" s="8"/>
       <c r="CD30" s="8"/>
     </row>
-    <row r="31" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -24489,14 +24642,16 @@
       <c r="BX31" s="8">
         <v>65</v>
       </c>
-      <c r="BY31" s="8"/>
+      <c r="BY31" s="8">
+        <v>16</v>
+      </c>
       <c r="BZ31" s="8"/>
       <c r="CA31" s="8"/>
       <c r="CB31" s="15"/>
       <c r="CC31" s="8"/>
       <c r="CD31" s="8"/>
     </row>
-    <row r="32" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -24722,14 +24877,16 @@
       <c r="BX32" s="8">
         <v>0</v>
       </c>
-      <c r="BY32" s="8"/>
+      <c r="BY32" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ32" s="8"/>
       <c r="CA32" s="8"/>
       <c r="CB32" s="15"/>
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
     </row>
-    <row r="33" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -24955,14 +25112,16 @@
       <c r="BX33" s="8">
         <v>0</v>
       </c>
-      <c r="BY33" s="8"/>
+      <c r="BY33" s="8">
+        <v>1</v>
+      </c>
       <c r="BZ33" s="8"/>
       <c r="CA33" s="8"/>
       <c r="CB33" s="15"/>
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
     </row>
-    <row r="34" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -25188,14 +25347,16 @@
       <c r="BX34" s="8">
         <v>28</v>
       </c>
-      <c r="BY34" s="8"/>
+      <c r="BY34" s="8">
+        <v>17</v>
+      </c>
       <c r="BZ34" s="8"/>
       <c r="CA34" s="8"/>
       <c r="CB34" s="15"/>
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
-    <row r="35" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
@@ -25421,14 +25582,16 @@
       <c r="BX35" s="8">
         <v>267</v>
       </c>
-      <c r="BY35" s="8"/>
+      <c r="BY35" s="8">
+        <v>187</v>
+      </c>
       <c r="BZ35" s="8"/>
       <c r="CA35" s="8"/>
       <c r="CB35" s="16"/>
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
-    <row r="36" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -25652,14 +25815,16 @@
       <c r="BX36" s="8">
         <v>24</v>
       </c>
-      <c r="BY36" s="8"/>
+      <c r="BY36" s="8">
+        <v>22</v>
+      </c>
       <c r="BZ36" s="8"/>
       <c r="CA36" s="8"/>
       <c r="CB36" s="16"/>
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
     </row>
-    <row r="37" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -25885,14 +26050,16 @@
       <c r="BX37" s="8">
         <v>27</v>
       </c>
-      <c r="BY37" s="8"/>
+      <c r="BY37" s="8">
+        <v>18</v>
+      </c>
       <c r="BZ37" s="8"/>
       <c r="CA37" s="8"/>
       <c r="CB37" s="15"/>
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
     </row>
-    <row r="38" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -26118,14 +26285,16 @@
       <c r="BX38" s="8">
         <v>3</v>
       </c>
-      <c r="BY38" s="8"/>
+      <c r="BY38" s="8">
+        <v>4</v>
+      </c>
       <c r="BZ38" s="8"/>
       <c r="CA38" s="8"/>
       <c r="CB38" s="15"/>
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
     </row>
-    <row r="39" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -26351,14 +26520,16 @@
       <c r="BX39" s="8">
         <v>2</v>
       </c>
-      <c r="BY39" s="8"/>
+      <c r="BY39" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ39" s="8"/>
       <c r="CA39" s="8"/>
       <c r="CB39" s="15"/>
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
     </row>
-    <row r="40" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -26584,14 +26755,16 @@
       <c r="BX40" s="8">
         <v>0</v>
       </c>
-      <c r="BY40" s="8"/>
+      <c r="BY40" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ40" s="8"/>
       <c r="CA40" s="8"/>
       <c r="CB40" s="15"/>
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
     </row>
-    <row r="41" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -26817,14 +26990,16 @@
       <c r="BX41" s="8">
         <v>0</v>
       </c>
-      <c r="BY41" s="8"/>
+      <c r="BY41" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ41" s="8"/>
       <c r="CA41" s="8"/>
       <c r="CB41" s="15"/>
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
     </row>
-    <row r="42" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -27050,14 +27225,16 @@
       <c r="BX42" s="8">
         <v>3</v>
       </c>
-      <c r="BY42" s="8"/>
+      <c r="BY42" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ42" s="8"/>
       <c r="CA42" s="8"/>
       <c r="CB42" s="15"/>
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
     </row>
-    <row r="43" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -27283,14 +27460,16 @@
       <c r="BX43" s="8">
         <v>25</v>
       </c>
-      <c r="BY43" s="8"/>
+      <c r="BY43" s="8">
+        <v>17</v>
+      </c>
       <c r="BZ43" s="8"/>
       <c r="CA43" s="8"/>
       <c r="CB43" s="15"/>
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
     </row>
-    <row r="44" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -27516,14 +27695,16 @@
       <c r="BX44" s="8">
         <v>4</v>
       </c>
-      <c r="BY44" s="8"/>
+      <c r="BY44" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ44" s="8"/>
       <c r="CA44" s="8"/>
       <c r="CB44" s="15"/>
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
     </row>
-    <row r="45" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -27749,14 +27930,16 @@
       <c r="BX45" s="8">
         <v>4</v>
       </c>
-      <c r="BY45" s="8"/>
+      <c r="BY45" s="8">
+        <v>6</v>
+      </c>
       <c r="BZ45" s="8"/>
       <c r="CA45" s="8"/>
       <c r="CB45" s="15"/>
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
     </row>
-    <row r="46" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -27982,14 +28165,16 @@
       <c r="BX46" s="8">
         <v>9</v>
       </c>
-      <c r="BY46" s="8"/>
+      <c r="BY46" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ46" s="8"/>
       <c r="CA46" s="8"/>
       <c r="CB46" s="15"/>
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
     </row>
-    <row r="47" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -28215,14 +28400,16 @@
       <c r="BX47" s="8">
         <v>0</v>
       </c>
-      <c r="BY47" s="8"/>
+      <c r="BY47" s="8">
+        <v>2</v>
+      </c>
       <c r="BZ47" s="8"/>
       <c r="CA47" s="8"/>
       <c r="CB47" s="15"/>
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
     </row>
-    <row r="48" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -28448,14 +28635,16 @@
       <c r="BX48" s="8">
         <v>8</v>
       </c>
-      <c r="BY48" s="8"/>
+      <c r="BY48" s="8">
+        <v>4</v>
+      </c>
       <c r="BZ48" s="8"/>
       <c r="CA48" s="8"/>
       <c r="CB48" s="15"/>
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
     </row>
-    <row r="49" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="43" t="s">
         <v>83</v>
       </c>
@@ -28681,14 +28870,16 @@
       <c r="BX49" s="8">
         <v>19</v>
       </c>
-      <c r="BY49" s="8"/>
+      <c r="BY49" s="8">
+        <v>23</v>
+      </c>
       <c r="BZ49" s="8"/>
       <c r="CA49" s="8"/>
       <c r="CB49" s="15"/>
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
-    <row r="50" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -28912,14 +29103,16 @@
       <c r="BX50" s="8">
         <v>7</v>
       </c>
-      <c r="BY50" s="8"/>
+      <c r="BY50" s="8">
+        <v>4</v>
+      </c>
       <c r="BZ50" s="8"/>
       <c r="CA50" s="8"/>
       <c r="CB50" s="15"/>
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
-    <row r="51" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -29145,14 +29338,16 @@
       <c r="BX51" s="8">
         <v>3</v>
       </c>
-      <c r="BY51" s="8"/>
+      <c r="BY51" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ51" s="8"/>
       <c r="CA51" s="8"/>
       <c r="CB51" s="15"/>
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
-    <row r="52" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -29378,14 +29573,16 @@
       <c r="BX52" s="8">
         <v>3</v>
       </c>
-      <c r="BY52" s="8"/>
+      <c r="BY52" s="8">
+        <v>3</v>
+      </c>
       <c r="BZ52" s="8"/>
       <c r="CA52" s="8"/>
       <c r="CB52" s="15"/>
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
-    <row r="53" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -29611,14 +29808,16 @@
       <c r="BX53" s="8">
         <v>9</v>
       </c>
-      <c r="BY53" s="8"/>
+      <c r="BY53" s="8">
+        <v>10</v>
+      </c>
       <c r="BZ53" s="8"/>
       <c r="CA53" s="8"/>
       <c r="CB53" s="15"/>
       <c r="CC53" s="8"/>
       <c r="CD53" s="8"/>
     </row>
-    <row r="54" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -29844,14 +30043,16 @@
       <c r="BX54" s="8">
         <v>13</v>
       </c>
-      <c r="BY54" s="8"/>
+      <c r="BY54" s="8">
+        <v>14</v>
+      </c>
       <c r="BZ54" s="8"/>
       <c r="CA54" s="8"/>
       <c r="CB54" s="15"/>
       <c r="CC54" s="8"/>
       <c r="CD54" s="8"/>
     </row>
-    <row r="55" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -30077,14 +30278,16 @@
       <c r="BX55" s="8">
         <v>16</v>
       </c>
-      <c r="BY55" s="8"/>
+      <c r="BY55" s="8">
+        <v>5</v>
+      </c>
       <c r="BZ55" s="8"/>
       <c r="CA55" s="8"/>
       <c r="CB55" s="15"/>
       <c r="CC55" s="8"/>
       <c r="CD55" s="8"/>
     </row>
-    <row r="56" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -30310,14 +30513,16 @@
       <c r="BX56" s="8">
         <v>4</v>
       </c>
-      <c r="BY56" s="8"/>
+      <c r="BY56" s="8">
+        <v>4</v>
+      </c>
       <c r="BZ56" s="8"/>
       <c r="CA56" s="8"/>
       <c r="CB56" s="15"/>
       <c r="CC56" s="8"/>
       <c r="CD56" s="8"/>
     </row>
-    <row r="57" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -30543,14 +30748,16 @@
       <c r="BX57" s="8">
         <v>0</v>
       </c>
-      <c r="BY57" s="8"/>
+      <c r="BY57" s="8">
+        <v>0</v>
+      </c>
       <c r="BZ57" s="8"/>
       <c r="CA57" s="8"/>
       <c r="CB57" s="15"/>
       <c r="CC57" s="8"/>
       <c r="CD57" s="8"/>
     </row>
-    <row r="58" spans="2:82" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -30848,7 +31055,7 @@
       </c>
       <c r="BY58" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1424</v>
       </c>
       <c r="BZ58" s="28">
         <f t="shared" si="3"/>
@@ -30977,34 +31184,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="S54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6:X57"/>
+      <selection pane="bottomRight" activeCell="AE61" sqref="AE61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="60" width="10.9140625" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="60" width="10.875" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:60" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
       <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
       <c r="AD1" s="56"/>
     </row>
-    <row r="2" spans="1:60" ht="32.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:60" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="35" t="s">
@@ -31063,7 +31270,7 @@
       <c r="BC2" s="22"/>
       <c r="BD2" s="22"/>
     </row>
-    <row r="3" spans="1:60" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:60" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="36" t="s">
@@ -31122,7 +31329,7 @@
       <c r="BC3" s="54"/>
       <c r="BD3" s="54"/>
     </row>
-    <row r="4" spans="1:60" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:60" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -31241,7 +31448,7 @@
       <c r="BG4" s="53"/>
       <c r="BH4" s="53"/>
     </row>
-    <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="48"/>
       <c r="C5" s="46"/>
       <c r="D5" s="33"/>
@@ -31302,7 +31509,7 @@
       <c r="BG5" s="53"/>
       <c r="BH5" s="53"/>
     </row>
-    <row r="6" spans="1:60" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -31373,7 +31580,9 @@
       <c r="X6" s="8">
         <v>45</v>
       </c>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="8">
+        <v>35</v>
+      </c>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="15"/>
@@ -31406,7 +31615,7 @@
       <c r="BC6" s="25"/>
       <c r="BD6" s="25"/>
     </row>
-    <row r="7" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -31476,7 +31685,9 @@
       <c r="X7" s="8">
         <v>0</v>
       </c>
-      <c r="Y7" s="8"/>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15"/>
@@ -31509,7 +31720,7 @@
       <c r="BC7" s="26"/>
       <c r="BD7" s="26"/>
     </row>
-    <row r="8" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -31579,7 +31790,9 @@
       <c r="X8" s="8">
         <v>0</v>
       </c>
-      <c r="Y8" s="8"/>
+      <c r="Y8" s="8">
+        <v>1</v>
+      </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15"/>
@@ -31612,7 +31825,7 @@
       <c r="BC8" s="26"/>
       <c r="BD8" s="26"/>
     </row>
-    <row r="9" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -31683,7 +31896,9 @@
       <c r="X9" s="8">
         <v>10</v>
       </c>
-      <c r="Y9" s="8"/>
+      <c r="Y9" s="8">
+        <v>5</v>
+      </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15"/>
@@ -31716,7 +31931,7 @@
       <c r="BC9" s="26"/>
       <c r="BD9" s="26"/>
     </row>
-    <row r="10" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -31786,7 +32001,9 @@
       <c r="X10" s="8">
         <v>0</v>
       </c>
-      <c r="Y10" s="8"/>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15"/>
@@ -31819,7 +32036,7 @@
       <c r="BC10" s="26"/>
       <c r="BD10" s="26"/>
     </row>
-    <row r="11" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -31889,7 +32106,9 @@
       <c r="X11" s="8">
         <v>4</v>
       </c>
-      <c r="Y11" s="8"/>
+      <c r="Y11" s="8">
+        <v>3</v>
+      </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15"/>
@@ -31922,7 +32141,7 @@
       <c r="BC11" s="26"/>
       <c r="BD11" s="26"/>
     </row>
-    <row r="12" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -31992,7 +32211,9 @@
       <c r="X12" s="8">
         <v>4</v>
       </c>
-      <c r="Y12" s="8"/>
+      <c r="Y12" s="8">
+        <v>1</v>
+      </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="15"/>
@@ -32025,7 +32246,7 @@
       <c r="BC12" s="26"/>
       <c r="BD12" s="26"/>
     </row>
-    <row r="13" spans="1:60" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -32095,7 +32316,9 @@
       <c r="X13" s="8">
         <v>8</v>
       </c>
-      <c r="Y13" s="8"/>
+      <c r="Y13" s="8">
+        <v>6</v>
+      </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="15"/>
@@ -32128,7 +32351,7 @@
       <c r="BC13" s="25"/>
       <c r="BD13" s="25"/>
     </row>
-    <row r="14" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -32198,7 +32421,9 @@
       <c r="X14" s="8">
         <v>4</v>
       </c>
-      <c r="Y14" s="8"/>
+      <c r="Y14" s="8">
+        <v>1</v>
+      </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="15"/>
@@ -32231,7 +32456,7 @@
       <c r="BC14" s="26"/>
       <c r="BD14" s="26"/>
     </row>
-    <row r="15" spans="1:60" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:60" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -32301,7 +32526,9 @@
       <c r="X15" s="8">
         <v>0</v>
       </c>
-      <c r="Y15" s="8"/>
+      <c r="Y15" s="8">
+        <v>1</v>
+      </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="15"/>
@@ -32334,7 +32561,7 @@
       <c r="BC15" s="26"/>
       <c r="BD15" s="26"/>
     </row>
-    <row r="16" spans="1:60" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -32405,7 +32632,9 @@
       <c r="X16" s="8">
         <v>21</v>
       </c>
-      <c r="Y16" s="8"/>
+      <c r="Y16" s="8">
+        <v>7</v>
+      </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="15"/>
@@ -32438,7 +32667,7 @@
       <c r="BC16" s="25"/>
       <c r="BD16" s="25"/>
     </row>
-    <row r="17" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -32508,7 +32737,9 @@
       <c r="X17" s="8">
         <v>80</v>
       </c>
-      <c r="Y17" s="8"/>
+      <c r="Y17" s="8">
+        <v>72</v>
+      </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="16"/>
@@ -32541,7 +32772,7 @@
       <c r="BC17" s="25"/>
       <c r="BD17" s="25"/>
     </row>
-    <row r="18" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -32612,7 +32843,9 @@
       <c r="X18" s="8">
         <v>791</v>
       </c>
-      <c r="Y18" s="8"/>
+      <c r="Y18" s="8">
+        <v>714</v>
+      </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="17"/>
@@ -32645,7 +32878,7 @@
       <c r="BC18" s="25"/>
       <c r="BD18" s="25"/>
     </row>
-    <row r="19" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="57" t="s">
         <v>27</v>
@@ -32716,7 +32949,9 @@
       <c r="X19" s="8">
         <v>78</v>
       </c>
-      <c r="Y19" s="8"/>
+      <c r="Y19" s="8">
+        <v>66</v>
+      </c>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="15"/>
@@ -32749,7 +32984,7 @@
       <c r="BC19" s="25"/>
       <c r="BD19" s="25"/>
     </row>
-    <row r="20" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
@@ -32818,7 +33053,9 @@
       <c r="X20" s="8">
         <v>295</v>
       </c>
-      <c r="Y20" s="8"/>
+      <c r="Y20" s="8">
+        <v>285</v>
+      </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="16"/>
@@ -32851,7 +33088,7 @@
       <c r="BC20" s="25"/>
       <c r="BD20" s="25"/>
     </row>
-    <row r="21" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
@@ -32920,7 +33157,9 @@
       <c r="X21" s="8">
         <v>29</v>
       </c>
-      <c r="Y21" s="8"/>
+      <c r="Y21" s="8">
+        <v>22</v>
+      </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="15"/>
@@ -32953,7 +33192,7 @@
       <c r="BC21" s="25"/>
       <c r="BD21" s="25"/>
     </row>
-    <row r="22" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -33023,7 +33262,9 @@
       <c r="X22" s="8">
         <v>3</v>
       </c>
-      <c r="Y22" s="8"/>
+      <c r="Y22" s="8">
+        <v>3</v>
+      </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="15"/>
@@ -33056,7 +33297,7 @@
       <c r="BC22" s="26"/>
       <c r="BD22" s="26"/>
     </row>
-    <row r="23" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -33126,7 +33367,9 @@
       <c r="X23" s="8">
         <v>0</v>
       </c>
-      <c r="Y23" s="8"/>
+      <c r="Y23" s="8">
+        <v>0</v>
+      </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="15"/>
@@ -33159,7 +33402,7 @@
       <c r="BC23" s="26"/>
       <c r="BD23" s="26"/>
     </row>
-    <row r="24" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -33229,7 +33472,9 @@
       <c r="X24" s="8">
         <v>1</v>
       </c>
-      <c r="Y24" s="8"/>
+      <c r="Y24" s="8">
+        <v>2</v>
+      </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="15"/>
@@ -33262,7 +33507,7 @@
       <c r="BC24" s="25"/>
       <c r="BD24" s="25"/>
     </row>
-    <row r="25" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -33332,7 +33577,9 @@
       <c r="X25" s="8">
         <v>0</v>
       </c>
-      <c r="Y25" s="8"/>
+      <c r="Y25" s="8">
+        <v>0</v>
+      </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="15"/>
@@ -33365,7 +33612,7 @@
       <c r="BC25" s="26"/>
       <c r="BD25" s="26"/>
     </row>
-    <row r="26" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -33435,7 +33682,9 @@
       <c r="X26" s="8">
         <v>3</v>
       </c>
-      <c r="Y26" s="8"/>
+      <c r="Y26" s="8">
+        <v>3</v>
+      </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="15"/>
@@ -33468,7 +33717,7 @@
       <c r="BC26" s="26"/>
       <c r="BD26" s="26"/>
     </row>
-    <row r="27" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -33538,7 +33787,9 @@
       <c r="X27" s="8">
         <v>0</v>
       </c>
-      <c r="Y27" s="8"/>
+      <c r="Y27" s="8">
+        <v>0</v>
+      </c>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="15"/>
@@ -33571,7 +33822,7 @@
       <c r="BC27" s="26"/>
       <c r="BD27" s="26"/>
     </row>
-    <row r="28" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -33641,7 +33892,9 @@
       <c r="X28" s="8">
         <v>2</v>
       </c>
-      <c r="Y28" s="8"/>
+      <c r="Y28" s="8">
+        <v>1</v>
+      </c>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="15"/>
@@ -33674,7 +33927,7 @@
       <c r="BC28" s="25"/>
       <c r="BD28" s="25"/>
     </row>
-    <row r="29" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
@@ -33744,7 +33997,9 @@
       <c r="X29" s="8">
         <v>2</v>
       </c>
-      <c r="Y29" s="8"/>
+      <c r="Y29" s="8">
+        <v>4</v>
+      </c>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="15"/>
@@ -33777,7 +34032,7 @@
       <c r="BC29" s="26"/>
       <c r="BD29" s="26"/>
     </row>
-    <row r="30" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -33845,7 +34100,9 @@
       <c r="X30" s="8">
         <v>3</v>
       </c>
-      <c r="Y30" s="8"/>
+      <c r="Y30" s="8">
+        <v>2</v>
+      </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="15"/>
@@ -33878,7 +34135,7 @@
       <c r="BC30" s="26"/>
       <c r="BD30" s="26"/>
     </row>
-    <row r="31" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -33949,7 +34206,9 @@
       <c r="X31" s="8">
         <v>15</v>
       </c>
-      <c r="Y31" s="8"/>
+      <c r="Y31" s="8">
+        <v>13</v>
+      </c>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="15"/>
@@ -33982,7 +34241,7 @@
       <c r="BC31" s="25"/>
       <c r="BD31" s="25"/>
     </row>
-    <row r="32" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -34052,7 +34311,9 @@
       <c r="X32" s="8">
         <v>2</v>
       </c>
-      <c r="Y32" s="8"/>
+      <c r="Y32" s="8">
+        <v>5</v>
+      </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
       <c r="AB32" s="15"/>
@@ -34085,7 +34346,7 @@
       <c r="BC32" s="26"/>
       <c r="BD32" s="26"/>
     </row>
-    <row r="33" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -34155,7 +34416,9 @@
       <c r="X33" s="8">
         <v>1</v>
       </c>
-      <c r="Y33" s="8"/>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="15"/>
@@ -34188,7 +34451,7 @@
       <c r="BC33" s="26"/>
       <c r="BD33" s="26"/>
     </row>
-    <row r="34" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -34259,7 +34522,9 @@
       <c r="X34" s="8">
         <v>15</v>
       </c>
-      <c r="Y34" s="8"/>
+      <c r="Y34" s="8">
+        <v>7</v>
+      </c>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="15"/>
@@ -34292,7 +34557,7 @@
       <c r="BC34" s="25"/>
       <c r="BD34" s="25"/>
     </row>
-    <row r="35" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="57" t="s">
         <v>56</v>
@@ -34363,7 +34628,9 @@
       <c r="X35" s="8">
         <v>79</v>
       </c>
-      <c r="Y35" s="8"/>
+      <c r="Y35" s="8">
+        <v>83</v>
+      </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="16"/>
@@ -34396,7 +34663,7 @@
       <c r="BC35" s="25"/>
       <c r="BD35" s="25"/>
     </row>
-    <row r="36" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -34464,7 +34731,9 @@
       <c r="X36" s="8">
         <v>8</v>
       </c>
-      <c r="Y36" s="8"/>
+      <c r="Y36" s="8">
+        <v>15</v>
+      </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="16"/>
@@ -34497,7 +34766,7 @@
       <c r="BC36" s="25"/>
       <c r="BD36" s="25"/>
     </row>
-    <row r="37" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -34568,7 +34837,9 @@
       <c r="X37" s="8">
         <v>17</v>
       </c>
-      <c r="Y37" s="8"/>
+      <c r="Y37" s="8">
+        <v>19</v>
+      </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
       <c r="AB37" s="15"/>
@@ -34601,7 +34872,7 @@
       <c r="BC37" s="25"/>
       <c r="BD37" s="25"/>
     </row>
-    <row r="38" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -34671,7 +34942,9 @@
       <c r="X38" s="8">
         <v>3</v>
       </c>
-      <c r="Y38" s="8"/>
+      <c r="Y38" s="8">
+        <v>4</v>
+      </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="15"/>
@@ -34704,7 +34977,7 @@
       <c r="BC38" s="26"/>
       <c r="BD38" s="26"/>
     </row>
-    <row r="39" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -34774,7 +35047,9 @@
       <c r="X39" s="8">
         <v>1</v>
       </c>
-      <c r="Y39" s="8"/>
+      <c r="Y39" s="8">
+        <v>2</v>
+      </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
       <c r="AB39" s="15"/>
@@ -34807,7 +35082,7 @@
       <c r="BC39" s="26"/>
       <c r="BD39" s="26"/>
     </row>
-    <row r="40" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -34877,7 +35152,9 @@
       <c r="X40" s="8">
         <v>0</v>
       </c>
-      <c r="Y40" s="8"/>
+      <c r="Y40" s="8">
+        <v>0</v>
+      </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="15"/>
@@ -34910,7 +35187,7 @@
       <c r="BC40" s="26"/>
       <c r="BD40" s="26"/>
     </row>
-    <row r="41" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -34980,7 +35257,9 @@
       <c r="X41" s="8">
         <v>0</v>
       </c>
-      <c r="Y41" s="8"/>
+      <c r="Y41" s="8">
+        <v>0</v>
+      </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="15"/>
@@ -35013,7 +35292,7 @@
       <c r="BC41" s="26"/>
       <c r="BD41" s="26"/>
     </row>
-    <row r="42" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -35083,7 +35362,9 @@
       <c r="X42" s="8">
         <v>4</v>
       </c>
-      <c r="Y42" s="8"/>
+      <c r="Y42" s="8">
+        <v>4</v>
+      </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="15"/>
@@ -35116,7 +35397,7 @@
       <c r="BC42" s="26"/>
       <c r="BD42" s="26"/>
     </row>
-    <row r="43" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -35186,7 +35467,9 @@
       <c r="X43" s="8">
         <v>32</v>
       </c>
-      <c r="Y43" s="8"/>
+      <c r="Y43" s="8">
+        <v>29</v>
+      </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="15"/>
@@ -35219,7 +35502,7 @@
       <c r="BC43" s="26"/>
       <c r="BD43" s="26"/>
     </row>
-    <row r="44" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -35289,7 +35572,9 @@
       <c r="X44" s="8">
         <v>3</v>
       </c>
-      <c r="Y44" s="8"/>
+      <c r="Y44" s="8">
+        <v>1</v>
+      </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="15"/>
@@ -35322,7 +35607,7 @@
       <c r="BC44" s="26"/>
       <c r="BD44" s="26"/>
     </row>
-    <row r="45" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -35392,7 +35677,9 @@
       <c r="X45" s="8">
         <v>4</v>
       </c>
-      <c r="Y45" s="8"/>
+      <c r="Y45" s="8">
+        <v>2</v>
+      </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="15"/>
@@ -35425,7 +35712,7 @@
       <c r="BC45" s="25"/>
       <c r="BD45" s="25"/>
     </row>
-    <row r="46" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -35495,7 +35782,9 @@
       <c r="X46" s="8">
         <v>3</v>
       </c>
-      <c r="Y46" s="8"/>
+      <c r="Y46" s="8">
+        <v>2</v>
+      </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="15"/>
@@ -35528,7 +35817,7 @@
       <c r="BC46" s="26"/>
       <c r="BD46" s="26"/>
     </row>
-    <row r="47" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -35598,7 +35887,9 @@
       <c r="X47" s="8">
         <v>0</v>
       </c>
-      <c r="Y47" s="8"/>
+      <c r="Y47" s="8">
+        <v>1</v>
+      </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
       <c r="AB47" s="15"/>
@@ -35631,7 +35922,7 @@
       <c r="BC47" s="26"/>
       <c r="BD47" s="26"/>
     </row>
-    <row r="48" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -35701,7 +35992,9 @@
       <c r="X48" s="8">
         <v>2</v>
       </c>
-      <c r="Y48" s="8"/>
+      <c r="Y48" s="8">
+        <v>5</v>
+      </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
       <c r="AB48" s="15"/>
@@ -35734,7 +36027,7 @@
       <c r="BC48" s="26"/>
       <c r="BD48" s="26"/>
     </row>
-    <row r="49" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="57" t="s">
         <v>83</v>
@@ -35805,7 +36098,9 @@
       <c r="X49" s="8">
         <v>20</v>
       </c>
-      <c r="Y49" s="8"/>
+      <c r="Y49" s="8">
+        <v>19</v>
+      </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
       <c r="AB49" s="15"/>
@@ -35838,7 +36133,7 @@
       <c r="BC49" s="25"/>
       <c r="BD49" s="25"/>
     </row>
-    <row r="50" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -35906,7 +36201,9 @@
       <c r="X50" s="8">
         <v>2</v>
       </c>
-      <c r="Y50" s="8"/>
+      <c r="Y50" s="8">
+        <v>2</v>
+      </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
       <c r="AB50" s="15"/>
@@ -35939,7 +36236,7 @@
       <c r="BC50" s="25"/>
       <c r="BD50" s="25"/>
     </row>
-    <row r="51" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -36009,7 +36306,9 @@
       <c r="X51" s="8">
         <v>0</v>
       </c>
-      <c r="Y51" s="8"/>
+      <c r="Y51" s="8">
+        <v>1</v>
+      </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
       <c r="AB51" s="15"/>
@@ -36042,7 +36341,7 @@
       <c r="BC51" s="26"/>
       <c r="BD51" s="26"/>
     </row>
-    <row r="52" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -36112,7 +36411,9 @@
       <c r="X52" s="8">
         <v>2</v>
       </c>
-      <c r="Y52" s="8"/>
+      <c r="Y52" s="8">
+        <v>0</v>
+      </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="15"/>
@@ -36145,7 +36446,7 @@
       <c r="BC52" s="26"/>
       <c r="BD52" s="26"/>
     </row>
-    <row r="53" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -36215,7 +36516,9 @@
       <c r="X53" s="8">
         <v>5</v>
       </c>
-      <c r="Y53" s="8"/>
+      <c r="Y53" s="8">
+        <v>6</v>
+      </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
       <c r="AB53" s="15"/>
@@ -36248,7 +36551,7 @@
       <c r="BC53" s="26"/>
       <c r="BD53" s="26"/>
     </row>
-    <row r="54" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -36318,7 +36621,9 @@
       <c r="X54" s="8">
         <v>7</v>
       </c>
-      <c r="Y54" s="8"/>
+      <c r="Y54" s="8">
+        <v>5</v>
+      </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
       <c r="AB54" s="15"/>
@@ -36351,7 +36656,7 @@
       <c r="BC54" s="26"/>
       <c r="BD54" s="26"/>
     </row>
-    <row r="55" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -36421,7 +36726,9 @@
       <c r="X55" s="8">
         <v>7</v>
       </c>
-      <c r="Y55" s="8"/>
+      <c r="Y55" s="8">
+        <v>1</v>
+      </c>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
       <c r="AB55" s="15"/>
@@ -36454,7 +36761,7 @@
       <c r="BC55" s="26"/>
       <c r="BD55" s="26"/>
     </row>
-    <row r="56" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -36524,7 +36831,9 @@
       <c r="X56" s="8">
         <v>2</v>
       </c>
-      <c r="Y56" s="8"/>
+      <c r="Y56" s="8">
+        <v>1</v>
+      </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
       <c r="AB56" s="15"/>
@@ -36557,7 +36866,7 @@
       <c r="BC56" s="26"/>
       <c r="BD56" s="26"/>
     </row>
-    <row r="57" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -36627,7 +36936,9 @@
       <c r="X57" s="8">
         <v>0</v>
       </c>
-      <c r="Y57" s="8"/>
+      <c r="Y57" s="8">
+        <v>0</v>
+      </c>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
       <c r="AB57" s="15"/>
@@ -36660,7 +36971,7 @@
       <c r="BC57" s="26"/>
       <c r="BD57" s="26"/>
     </row>
-    <row r="58" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -36751,7 +37062,7 @@
       </c>
       <c r="Y58" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="Z58" s="14">
         <f t="shared" si="2"/>
@@ -36799,7 +37110,7 @@
       <c r="BC58" s="27"/>
       <c r="BD58" s="27"/>
     </row>
-    <row r="59" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -36832,7 +37143,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -36865,7 +37176,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -36977,34 +37288,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="L54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomRight" activeCell="AG59" sqref="AG59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="56" width="10.9140625" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="56" width="10.875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:56" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
       <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
       <c r="AD1" s="56"/>
     </row>
-    <row r="2" spans="1:56" ht="32.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:56" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="35" t="s">
@@ -37063,7 +37374,7 @@
       <c r="BC2" s="22"/>
       <c r="BD2" s="22"/>
     </row>
-    <row r="3" spans="1:56" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:56" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="36" t="s">
@@ -37122,7 +37433,7 @@
       <c r="BC3" s="23"/>
       <c r="BD3" s="23"/>
     </row>
-    <row r="4" spans="1:56" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:56" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -37237,7 +37548,7 @@
       <c r="BC4" s="53"/>
       <c r="BD4" s="53"/>
     </row>
-    <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="48"/>
       <c r="C5" s="46"/>
       <c r="D5" s="33"/>
@@ -37294,7 +37605,7 @@
       <c r="BC5" s="53"/>
       <c r="BD5" s="53"/>
     </row>
-    <row r="6" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -37365,7 +37676,9 @@
       <c r="X6" s="8">
         <v>43</v>
       </c>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="8">
+        <v>52</v>
+      </c>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="15"/>
@@ -37398,7 +37711,7 @@
       <c r="BC6" s="25"/>
       <c r="BD6" s="25"/>
     </row>
-    <row r="7" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -37468,7 +37781,9 @@
       <c r="X7" s="8">
         <v>1</v>
       </c>
-      <c r="Y7" s="8"/>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15"/>
@@ -37501,7 +37816,7 @@
       <c r="BC7" s="26"/>
       <c r="BD7" s="26"/>
     </row>
-    <row r="8" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -37571,7 +37886,9 @@
       <c r="X8" s="8">
         <v>6</v>
       </c>
-      <c r="Y8" s="8"/>
+      <c r="Y8" s="8">
+        <v>4</v>
+      </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15"/>
@@ -37604,7 +37921,7 @@
       <c r="BC8" s="26"/>
       <c r="BD8" s="26"/>
     </row>
-    <row r="9" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -37675,7 +37992,9 @@
       <c r="X9" s="8">
         <v>60</v>
       </c>
-      <c r="Y9" s="8"/>
+      <c r="Y9" s="8">
+        <v>64</v>
+      </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15"/>
@@ -37708,7 +38027,7 @@
       <c r="BC9" s="26"/>
       <c r="BD9" s="26"/>
     </row>
-    <row r="10" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -37778,7 +38097,9 @@
       <c r="X10" s="8">
         <v>0</v>
       </c>
-      <c r="Y10" s="8"/>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15"/>
@@ -37811,7 +38132,7 @@
       <c r="BC10" s="26"/>
       <c r="BD10" s="26"/>
     </row>
-    <row r="11" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -37881,7 +38202,9 @@
       <c r="X11" s="8">
         <v>3</v>
       </c>
-      <c r="Y11" s="8"/>
+      <c r="Y11" s="8">
+        <v>5</v>
+      </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15"/>
@@ -37914,7 +38237,7 @@
       <c r="BC11" s="26"/>
       <c r="BD11" s="26"/>
     </row>
-    <row r="12" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -37984,7 +38307,9 @@
       <c r="X12" s="8">
         <v>2</v>
       </c>
-      <c r="Y12" s="8"/>
+      <c r="Y12" s="8">
+        <v>1</v>
+      </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="15"/>
@@ -38017,7 +38342,7 @@
       <c r="BC12" s="26"/>
       <c r="BD12" s="26"/>
     </row>
-    <row r="13" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -38087,7 +38412,9 @@
       <c r="X13" s="8">
         <v>10</v>
       </c>
-      <c r="Y13" s="8"/>
+      <c r="Y13" s="8">
+        <v>3</v>
+      </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="15"/>
@@ -38120,7 +38447,7 @@
       <c r="BC13" s="25"/>
       <c r="BD13" s="25"/>
     </row>
-    <row r="14" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -38190,7 +38517,9 @@
       <c r="X14" s="8">
         <v>7</v>
       </c>
-      <c r="Y14" s="8"/>
+      <c r="Y14" s="8">
+        <v>8</v>
+      </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="15"/>
@@ -38223,7 +38552,7 @@
       <c r="BC14" s="26"/>
       <c r="BD14" s="26"/>
     </row>
-    <row r="15" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -38293,7 +38622,9 @@
       <c r="X15" s="8">
         <v>0</v>
       </c>
-      <c r="Y15" s="8"/>
+      <c r="Y15" s="8">
+        <v>0</v>
+      </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="15"/>
@@ -38326,7 +38657,7 @@
       <c r="BC15" s="26"/>
       <c r="BD15" s="26"/>
     </row>
-    <row r="16" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -38397,7 +38728,9 @@
       <c r="X16" s="8">
         <v>93</v>
       </c>
-      <c r="Y16" s="8"/>
+      <c r="Y16" s="8">
+        <v>83</v>
+      </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="15"/>
@@ -38430,7 +38763,7 @@
       <c r="BC16" s="25"/>
       <c r="BD16" s="25"/>
     </row>
-    <row r="17" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -38500,7 +38833,9 @@
       <c r="X17" s="8">
         <v>66</v>
       </c>
-      <c r="Y17" s="8"/>
+      <c r="Y17" s="8">
+        <v>39</v>
+      </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="16"/>
@@ -38533,7 +38868,7 @@
       <c r="BC17" s="25"/>
       <c r="BD17" s="25"/>
     </row>
-    <row r="18" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -38604,7 +38939,9 @@
       <c r="X18" s="8">
         <v>854</v>
       </c>
-      <c r="Y18" s="8"/>
+      <c r="Y18" s="8">
+        <v>989</v>
+      </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="17"/>
@@ -38637,7 +38974,7 @@
       <c r="BC18" s="25"/>
       <c r="BD18" s="25"/>
     </row>
-    <row r="19" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="57" t="s">
         <v>27</v>
@@ -38708,7 +39045,9 @@
       <c r="X19" s="8">
         <v>14</v>
       </c>
-      <c r="Y19" s="8"/>
+      <c r="Y19" s="8">
+        <v>11</v>
+      </c>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="15"/>
@@ -38741,7 +39080,7 @@
       <c r="BC19" s="25"/>
       <c r="BD19" s="25"/>
     </row>
-    <row r="20" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
@@ -38810,7 +39149,9 @@
       <c r="X20" s="8">
         <v>77</v>
       </c>
-      <c r="Y20" s="8"/>
+      <c r="Y20" s="8">
+        <v>101</v>
+      </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="16"/>
@@ -38843,7 +39184,7 @@
       <c r="BC20" s="25"/>
       <c r="BD20" s="25"/>
     </row>
-    <row r="21" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
@@ -38912,7 +39253,9 @@
       <c r="X21" s="8">
         <v>21</v>
       </c>
-      <c r="Y21" s="8"/>
+      <c r="Y21" s="8">
+        <v>11</v>
+      </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="15"/>
@@ -38945,7 +39288,7 @@
       <c r="BC21" s="25"/>
       <c r="BD21" s="25"/>
     </row>
-    <row r="22" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -39015,7 +39358,9 @@
       <c r="X22" s="8">
         <v>4</v>
       </c>
-      <c r="Y22" s="8"/>
+      <c r="Y22" s="8">
+        <v>4</v>
+      </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="15"/>
@@ -39048,7 +39393,7 @@
       <c r="BC22" s="26"/>
       <c r="BD22" s="26"/>
     </row>
-    <row r="23" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -39118,7 +39463,9 @@
       <c r="X23" s="8">
         <v>4</v>
       </c>
-      <c r="Y23" s="8"/>
+      <c r="Y23" s="8">
+        <v>1</v>
+      </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="15"/>
@@ -39151,7 +39498,7 @@
       <c r="BC23" s="26"/>
       <c r="BD23" s="26"/>
     </row>
-    <row r="24" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -39221,7 +39568,9 @@
       <c r="X24" s="8">
         <v>6</v>
       </c>
-      <c r="Y24" s="8"/>
+      <c r="Y24" s="8">
+        <v>4</v>
+      </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="15"/>
@@ -39254,7 +39603,7 @@
       <c r="BC24" s="25"/>
       <c r="BD24" s="25"/>
     </row>
-    <row r="25" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -39324,7 +39673,9 @@
       <c r="X25" s="8">
         <v>1</v>
       </c>
-      <c r="Y25" s="8"/>
+      <c r="Y25" s="8">
+        <v>0</v>
+      </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="15"/>
@@ -39357,7 +39708,7 @@
       <c r="BC25" s="26"/>
       <c r="BD25" s="26"/>
     </row>
-    <row r="26" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -39427,7 +39778,9 @@
       <c r="X26" s="8">
         <v>5</v>
       </c>
-      <c r="Y26" s="8"/>
+      <c r="Y26" s="8">
+        <v>3</v>
+      </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="15"/>
@@ -39460,7 +39813,7 @@
       <c r="BC26" s="26"/>
       <c r="BD26" s="26"/>
     </row>
-    <row r="27" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -39530,7 +39883,9 @@
       <c r="X27" s="8">
         <v>0</v>
       </c>
-      <c r="Y27" s="8"/>
+      <c r="Y27" s="8">
+        <v>0</v>
+      </c>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="15"/>
@@ -39563,7 +39918,7 @@
       <c r="BC27" s="26"/>
       <c r="BD27" s="26"/>
     </row>
-    <row r="28" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -39633,7 +39988,9 @@
       <c r="X28" s="8">
         <v>0</v>
       </c>
-      <c r="Y28" s="8"/>
+      <c r="Y28" s="8">
+        <v>0</v>
+      </c>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="15"/>
@@ -39666,7 +40023,7 @@
       <c r="BC28" s="25"/>
       <c r="BD28" s="25"/>
     </row>
-    <row r="29" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
@@ -39736,7 +40093,9 @@
       <c r="X29" s="8">
         <v>4</v>
       </c>
-      <c r="Y29" s="8"/>
+      <c r="Y29" s="8">
+        <v>7</v>
+      </c>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="15"/>
@@ -39769,7 +40128,7 @@
       <c r="BC29" s="26"/>
       <c r="BD29" s="26"/>
     </row>
-    <row r="30" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -39837,7 +40196,9 @@
       <c r="X30" s="8">
         <v>6</v>
       </c>
-      <c r="Y30" s="8"/>
+      <c r="Y30" s="8">
+        <v>7</v>
+      </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="15"/>
@@ -39870,7 +40231,7 @@
       <c r="BC30" s="26"/>
       <c r="BD30" s="26"/>
     </row>
-    <row r="31" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -39941,7 +40302,9 @@
       <c r="X31" s="8">
         <v>7</v>
       </c>
-      <c r="Y31" s="8"/>
+      <c r="Y31" s="8">
+        <v>17</v>
+      </c>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="15"/>
@@ -39974,7 +40337,7 @@
       <c r="BC31" s="25"/>
       <c r="BD31" s="25"/>
     </row>
-    <row r="32" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -40044,7 +40407,9 @@
       <c r="X32" s="8">
         <v>1</v>
       </c>
-      <c r="Y32" s="8"/>
+      <c r="Y32" s="8">
+        <v>0</v>
+      </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
       <c r="AB32" s="15"/>
@@ -40077,7 +40442,7 @@
       <c r="BC32" s="26"/>
       <c r="BD32" s="26"/>
     </row>
-    <row r="33" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -40147,7 +40512,9 @@
       <c r="X33" s="8">
         <v>0</v>
       </c>
-      <c r="Y33" s="8"/>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="15"/>
@@ -40180,7 +40547,7 @@
       <c r="BC33" s="26"/>
       <c r="BD33" s="26"/>
     </row>
-    <row r="34" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -40251,7 +40618,9 @@
       <c r="X34" s="8">
         <v>20</v>
       </c>
-      <c r="Y34" s="8"/>
+      <c r="Y34" s="8">
+        <v>46</v>
+      </c>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="15"/>
@@ -40284,7 +40653,7 @@
       <c r="BC34" s="25"/>
       <c r="BD34" s="25"/>
     </row>
-    <row r="35" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="57" t="s">
         <v>56</v>
@@ -40355,7 +40724,9 @@
       <c r="X35" s="8">
         <v>161</v>
       </c>
-      <c r="Y35" s="8"/>
+      <c r="Y35" s="8">
+        <v>126</v>
+      </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="16"/>
@@ -40388,7 +40759,7 @@
       <c r="BC35" s="25"/>
       <c r="BD35" s="25"/>
     </row>
-    <row r="36" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -40456,7 +40827,9 @@
       <c r="X36" s="8">
         <v>8</v>
       </c>
-      <c r="Y36" s="8"/>
+      <c r="Y36" s="8">
+        <v>10</v>
+      </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="16"/>
@@ -40489,7 +40862,7 @@
       <c r="BC36" s="25"/>
       <c r="BD36" s="25"/>
     </row>
-    <row r="37" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -40560,7 +40933,9 @@
       <c r="X37" s="8">
         <v>14</v>
       </c>
-      <c r="Y37" s="8"/>
+      <c r="Y37" s="8">
+        <v>14</v>
+      </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
       <c r="AB37" s="15"/>
@@ -40593,7 +40968,7 @@
       <c r="BC37" s="25"/>
       <c r="BD37" s="25"/>
     </row>
-    <row r="38" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -40663,7 +41038,9 @@
       <c r="X38" s="8">
         <v>3</v>
       </c>
-      <c r="Y38" s="8"/>
+      <c r="Y38" s="8">
+        <v>3</v>
+      </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="15"/>
@@ -40696,7 +41073,7 @@
       <c r="BC38" s="26"/>
       <c r="BD38" s="26"/>
     </row>
-    <row r="39" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -40766,7 +41143,9 @@
       <c r="X39" s="8">
         <v>4</v>
       </c>
-      <c r="Y39" s="8"/>
+      <c r="Y39" s="8">
+        <v>4</v>
+      </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
       <c r="AB39" s="15"/>
@@ -40799,7 +41178,7 @@
       <c r="BC39" s="26"/>
       <c r="BD39" s="26"/>
     </row>
-    <row r="40" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -40869,7 +41248,9 @@
       <c r="X40" s="8">
         <v>0</v>
       </c>
-      <c r="Y40" s="8"/>
+      <c r="Y40" s="8">
+        <v>0</v>
+      </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="15"/>
@@ -40902,7 +41283,7 @@
       <c r="BC40" s="26"/>
       <c r="BD40" s="26"/>
     </row>
-    <row r="41" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -40972,7 +41353,9 @@
       <c r="X41" s="8">
         <v>0</v>
       </c>
-      <c r="Y41" s="8"/>
+      <c r="Y41" s="8">
+        <v>0</v>
+      </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="15"/>
@@ -41005,7 +41388,7 @@
       <c r="BC41" s="26"/>
       <c r="BD41" s="26"/>
     </row>
-    <row r="42" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -41075,7 +41458,9 @@
       <c r="X42" s="8">
         <v>4</v>
       </c>
-      <c r="Y42" s="8"/>
+      <c r="Y42" s="8">
+        <v>4</v>
+      </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="15"/>
@@ -41108,7 +41493,7 @@
       <c r="BC42" s="26"/>
       <c r="BD42" s="26"/>
     </row>
-    <row r="43" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -41178,7 +41563,9 @@
       <c r="X43" s="8">
         <v>11</v>
       </c>
-      <c r="Y43" s="8"/>
+      <c r="Y43" s="8">
+        <v>17</v>
+      </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="15"/>
@@ -41211,7 +41598,7 @@
       <c r="BC43" s="26"/>
       <c r="BD43" s="26"/>
     </row>
-    <row r="44" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -41281,7 +41668,9 @@
       <c r="X44" s="8">
         <v>4</v>
       </c>
-      <c r="Y44" s="8"/>
+      <c r="Y44" s="8">
+        <v>2</v>
+      </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="15"/>
@@ -41314,7 +41703,7 @@
       <c r="BC44" s="26"/>
       <c r="BD44" s="26"/>
     </row>
-    <row r="45" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -41384,7 +41773,9 @@
       <c r="X45" s="8">
         <v>4</v>
       </c>
-      <c r="Y45" s="8"/>
+      <c r="Y45" s="8">
+        <v>8</v>
+      </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="15"/>
@@ -41417,7 +41808,7 @@
       <c r="BC45" s="25"/>
       <c r="BD45" s="25"/>
     </row>
-    <row r="46" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -41487,7 +41878,9 @@
       <c r="X46" s="8">
         <v>5</v>
       </c>
-      <c r="Y46" s="8"/>
+      <c r="Y46" s="8">
+        <v>6</v>
+      </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="15"/>
@@ -41520,7 +41913,7 @@
       <c r="BC46" s="26"/>
       <c r="BD46" s="26"/>
     </row>
-    <row r="47" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -41590,7 +41983,9 @@
       <c r="X47" s="8">
         <v>0</v>
       </c>
-      <c r="Y47" s="8"/>
+      <c r="Y47" s="8">
+        <v>1</v>
+      </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
       <c r="AB47" s="15"/>
@@ -41623,7 +42018,7 @@
       <c r="BC47" s="26"/>
       <c r="BD47" s="26"/>
     </row>
-    <row r="48" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -41693,7 +42088,9 @@
       <c r="X48" s="8">
         <v>1</v>
       </c>
-      <c r="Y48" s="8"/>
+      <c r="Y48" s="8">
+        <v>1</v>
+      </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
       <c r="AB48" s="15"/>
@@ -41726,7 +42123,7 @@
       <c r="BC48" s="26"/>
       <c r="BD48" s="26"/>
     </row>
-    <row r="49" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="57" t="s">
         <v>83</v>
@@ -41797,7 +42194,9 @@
       <c r="X49" s="8">
         <v>26</v>
       </c>
-      <c r="Y49" s="8"/>
+      <c r="Y49" s="8">
+        <v>13</v>
+      </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
       <c r="AB49" s="15"/>
@@ -41830,7 +42229,7 @@
       <c r="BC49" s="25"/>
       <c r="BD49" s="25"/>
     </row>
-    <row r="50" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -41898,7 +42297,9 @@
       <c r="X50" s="8">
         <v>3</v>
       </c>
-      <c r="Y50" s="8"/>
+      <c r="Y50" s="8">
+        <v>5</v>
+      </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
       <c r="AB50" s="15"/>
@@ -41931,7 +42332,7 @@
       <c r="BC50" s="25"/>
       <c r="BD50" s="25"/>
     </row>
-    <row r="51" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -42001,7 +42402,9 @@
       <c r="X51" s="8">
         <v>4</v>
       </c>
-      <c r="Y51" s="8"/>
+      <c r="Y51" s="8">
+        <v>1</v>
+      </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
       <c r="AB51" s="15"/>
@@ -42034,7 +42437,7 @@
       <c r="BC51" s="26"/>
       <c r="BD51" s="26"/>
     </row>
-    <row r="52" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -42104,7 +42507,9 @@
       <c r="X52" s="8">
         <v>4</v>
       </c>
-      <c r="Y52" s="8"/>
+      <c r="Y52" s="8">
+        <v>4</v>
+      </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="15"/>
@@ -42137,7 +42542,7 @@
       <c r="BC52" s="26"/>
       <c r="BD52" s="26"/>
     </row>
-    <row r="53" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -42207,7 +42612,9 @@
       <c r="X53" s="8">
         <v>11</v>
       </c>
-      <c r="Y53" s="8"/>
+      <c r="Y53" s="8">
+        <v>2</v>
+      </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
       <c r="AB53" s="15"/>
@@ -42240,7 +42647,7 @@
       <c r="BC53" s="26"/>
       <c r="BD53" s="26"/>
     </row>
-    <row r="54" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -42310,7 +42717,9 @@
       <c r="X54" s="8">
         <v>1</v>
       </c>
-      <c r="Y54" s="8"/>
+      <c r="Y54" s="8">
+        <v>2</v>
+      </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
       <c r="AB54" s="15"/>
@@ -42343,7 +42752,7 @@
       <c r="BC54" s="26"/>
       <c r="BD54" s="26"/>
     </row>
-    <row r="55" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -42413,7 +42822,9 @@
       <c r="X55" s="8">
         <v>6</v>
       </c>
-      <c r="Y55" s="8"/>
+      <c r="Y55" s="8">
+        <v>9</v>
+      </c>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
       <c r="AB55" s="15"/>
@@ -42446,7 +42857,7 @@
       <c r="BC55" s="26"/>
       <c r="BD55" s="26"/>
     </row>
-    <row r="56" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -42516,7 +42927,9 @@
       <c r="X56" s="8">
         <v>1</v>
       </c>
-      <c r="Y56" s="8"/>
+      <c r="Y56" s="8">
+        <v>0</v>
+      </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
       <c r="AB56" s="15"/>
@@ -42549,7 +42962,7 @@
       <c r="BC56" s="26"/>
       <c r="BD56" s="26"/>
     </row>
-    <row r="57" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -42619,7 +43032,9 @@
       <c r="X57" s="8">
         <v>0</v>
       </c>
-      <c r="Y57" s="8"/>
+      <c r="Y57" s="8">
+        <v>0</v>
+      </c>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
       <c r="AB57" s="15"/>
@@ -42652,7 +43067,7 @@
       <c r="BC57" s="26"/>
       <c r="BD57" s="26"/>
     </row>
-    <row r="58" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -42743,7 +43158,7 @@
       </c>
       <c r="Y58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="Z58" s="14">
         <f t="shared" si="0"/>
@@ -42792,7 +43207,7 @@
       <c r="BC58" s="27"/>
       <c r="BD58" s="27"/>
     </row>
-    <row r="59" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -42825,7 +43240,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -42858,7 +43273,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -42965,12 +43380,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433CE5E7-911B-40C1-BECF-308EACFE805D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\Ｂ030831-3\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\ＪＯＢ030907-2\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2467,24 +2467,6 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2521,10 +2503,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2533,11 +2527,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2545,20 +2557,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4578,11 +4578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BI42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BY42" sqref="BY42"/>
+      <selection pane="bottomRight" activeCell="BZ4" sqref="BZ4:BZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4596,519 +4596,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BA1" s="34" t="s">
+      <c r="BA1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
       <c r="BD1" s="18"/>
       <c r="CD1" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="46"/>
+      <c r="BT2" s="46"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="46"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
     </row>
     <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36" t="s">
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
     </row>
     <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AA4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="31" t="s">
+      <c r="AD4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="31" t="s">
+      <c r="AF4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AG4" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="AI4" s="31" t="s">
+      <c r="AI4" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="31" t="s">
+      <c r="AJ4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="31" t="s">
+      <c r="AM4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="31" t="s">
+      <c r="AN4" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="31" t="s">
+      <c r="AO4" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="31" t="s">
+      <c r="AP4" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="31" t="s">
+      <c r="AQ4" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="AR4" s="33" t="s">
+      <c r="AR4" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="33" t="s">
+      <c r="AS4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="33" t="s">
+      <c r="AT4" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="33" t="s">
+      <c r="AU4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="33" t="s">
+      <c r="AV4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="33" t="s">
+      <c r="AW4" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="33" t="s">
+      <c r="AX4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="33" t="s">
+      <c r="AY4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="33" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="33" t="s">
+      <c r="BA4" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="33" t="s">
+      <c r="BB4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="33" t="s">
+      <c r="BC4" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="33" t="s">
+      <c r="BD4" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="BE4" s="33" t="s">
+      <c r="BE4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="BF4" s="33" t="s">
+      <c r="BF4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="33" t="s">
+      <c r="BG4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="33" t="s">
+      <c r="BH4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="BJ4" s="33" t="s">
+      <c r="BJ4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="BK4" s="33" t="s">
+      <c r="BK4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="33" t="s">
+      <c r="BL4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="33" t="s">
+      <c r="BM4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="BN4" s="33" t="s">
+      <c r="BN4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="BO4" s="33" t="s">
+      <c r="BO4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="33" t="s">
+      <c r="BP4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="BQ4" s="33" t="s">
+      <c r="BQ4" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="BR4" s="33" t="s">
+      <c r="BR4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="BS4" s="33" t="s">
+      <c r="BS4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="BT4" s="33" t="s">
+      <c r="BT4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="BU4" s="33" t="s">
+      <c r="BU4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="BV4" s="33" t="s">
+      <c r="BV4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="33" t="s">
+      <c r="BW4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="33" t="s">
+      <c r="BX4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="33" t="s">
+      <c r="BY4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="33" t="s">
+      <c r="BZ4" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="33" t="s">
+      <c r="CA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="33" t="s">
+      <c r="CB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="33" t="s">
+      <c r="CC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="33" t="s">
+      <c r="CD4" s="48" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
     </row>
     <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -5340,7 +5340,9 @@
       <c r="BY6" s="8">
         <v>87</v>
       </c>
-      <c r="BZ6" s="8"/>
+      <c r="BZ6" s="8">
+        <v>68</v>
+      </c>
       <c r="CA6" s="8"/>
       <c r="CB6" s="15"/>
       <c r="CC6" s="8"/>
@@ -5575,7 +5577,9 @@
       <c r="BY7" s="8">
         <v>0</v>
       </c>
-      <c r="BZ7" s="8"/>
+      <c r="BZ7" s="8">
+        <v>0</v>
+      </c>
       <c r="CA7" s="8"/>
       <c r="CB7" s="15"/>
       <c r="CC7" s="8"/>
@@ -5810,7 +5814,9 @@
       <c r="BY8" s="8">
         <v>5</v>
       </c>
-      <c r="BZ8" s="8"/>
+      <c r="BZ8" s="8">
+        <v>4</v>
+      </c>
       <c r="CA8" s="8"/>
       <c r="CB8" s="15"/>
       <c r="CC8" s="8"/>
@@ -6046,7 +6052,9 @@
       <c r="BY9" s="8">
         <v>69</v>
       </c>
-      <c r="BZ9" s="8"/>
+      <c r="BZ9" s="8">
+        <v>51</v>
+      </c>
       <c r="CA9" s="8"/>
       <c r="CB9" s="15"/>
       <c r="CC9" s="8"/>
@@ -6281,7 +6289,9 @@
       <c r="BY10" s="8">
         <v>0</v>
       </c>
-      <c r="BZ10" s="8"/>
+      <c r="BZ10" s="8">
+        <v>0</v>
+      </c>
       <c r="CA10" s="8"/>
       <c r="CB10" s="15"/>
       <c r="CC10" s="8"/>
@@ -6516,7 +6526,9 @@
       <c r="BY11" s="8">
         <v>8</v>
       </c>
-      <c r="BZ11" s="8"/>
+      <c r="BZ11" s="8">
+        <v>6</v>
+      </c>
       <c r="CA11" s="8"/>
       <c r="CB11" s="15"/>
       <c r="CC11" s="8"/>
@@ -6751,7 +6763,9 @@
       <c r="BY12" s="8">
         <v>2</v>
       </c>
-      <c r="BZ12" s="8"/>
+      <c r="BZ12" s="8">
+        <v>2</v>
+      </c>
       <c r="CA12" s="8"/>
       <c r="CB12" s="15"/>
       <c r="CC12" s="8"/>
@@ -6986,7 +7000,9 @@
       <c r="BY13" s="8">
         <v>9</v>
       </c>
-      <c r="BZ13" s="8"/>
+      <c r="BZ13" s="8">
+        <v>12</v>
+      </c>
       <c r="CA13" s="8"/>
       <c r="CB13" s="15"/>
       <c r="CC13" s="8"/>
@@ -7221,7 +7237,9 @@
       <c r="BY14" s="8">
         <v>9</v>
       </c>
-      <c r="BZ14" s="8"/>
+      <c r="BZ14" s="8">
+        <v>5</v>
+      </c>
       <c r="CA14" s="8"/>
       <c r="CB14" s="15"/>
       <c r="CC14" s="8"/>
@@ -7456,7 +7474,9 @@
       <c r="BY15" s="8">
         <v>1</v>
       </c>
-      <c r="BZ15" s="8"/>
+      <c r="BZ15" s="8">
+        <v>0</v>
+      </c>
       <c r="CA15" s="8"/>
       <c r="CB15" s="15"/>
       <c r="CC15" s="8"/>
@@ -7692,7 +7712,9 @@
       <c r="BY16" s="8">
         <v>90</v>
       </c>
-      <c r="BZ16" s="8"/>
+      <c r="BZ16" s="8">
+        <v>77</v>
+      </c>
       <c r="CA16" s="8"/>
       <c r="CB16" s="15"/>
       <c r="CC16" s="8"/>
@@ -7927,7 +7949,9 @@
       <c r="BY17" s="8">
         <v>111</v>
       </c>
-      <c r="BZ17" s="8"/>
+      <c r="BZ17" s="8">
+        <v>100</v>
+      </c>
       <c r="CA17" s="8"/>
       <c r="CB17" s="16"/>
       <c r="CC17" s="8"/>
@@ -8163,7 +8187,9 @@
       <c r="BY18" s="8">
         <v>1703</v>
       </c>
-      <c r="BZ18" s="8"/>
+      <c r="BZ18" s="8">
+        <v>1208</v>
+      </c>
       <c r="CA18" s="8"/>
       <c r="CB18" s="17"/>
       <c r="CC18" s="8"/>
@@ -8171,7 +8197,7 @@
     </row>
     <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -8399,7 +8425,9 @@
       <c r="BY19" s="8">
         <v>77</v>
       </c>
-      <c r="BZ19" s="8"/>
+      <c r="BZ19" s="8">
+        <v>45</v>
+      </c>
       <c r="CA19" s="8"/>
       <c r="CB19" s="15"/>
       <c r="CC19" s="8"/>
@@ -8407,7 +8435,7 @@
     </row>
     <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -8633,7 +8661,9 @@
       <c r="BY20" s="8">
         <v>386</v>
       </c>
-      <c r="BZ20" s="8"/>
+      <c r="BZ20" s="8">
+        <v>277</v>
+      </c>
       <c r="CA20" s="8"/>
       <c r="CB20" s="16"/>
       <c r="CC20" s="8"/>
@@ -8641,7 +8671,7 @@
     </row>
     <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="43"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -8867,7 +8897,9 @@
       <c r="BY21" s="8">
         <v>33</v>
       </c>
-      <c r="BZ21" s="8"/>
+      <c r="BZ21" s="8">
+        <v>32</v>
+      </c>
       <c r="CA21" s="8"/>
       <c r="CB21" s="15"/>
       <c r="CC21" s="8"/>
@@ -9102,7 +9134,9 @@
       <c r="BY22" s="8">
         <v>7</v>
       </c>
-      <c r="BZ22" s="8"/>
+      <c r="BZ22" s="8">
+        <v>4</v>
+      </c>
       <c r="CA22" s="8"/>
       <c r="CB22" s="15"/>
       <c r="CC22" s="8"/>
@@ -9337,7 +9371,9 @@
       <c r="BY23" s="8">
         <v>1</v>
       </c>
-      <c r="BZ23" s="8"/>
+      <c r="BZ23" s="8">
+        <v>1</v>
+      </c>
       <c r="CA23" s="8"/>
       <c r="CB23" s="15"/>
       <c r="CC23" s="8"/>
@@ -9572,7 +9608,9 @@
       <c r="BY24" s="8">
         <v>6</v>
       </c>
-      <c r="BZ24" s="8"/>
+      <c r="BZ24" s="8">
+        <v>3</v>
+      </c>
       <c r="CA24" s="8"/>
       <c r="CB24" s="15"/>
       <c r="CC24" s="8"/>
@@ -9807,7 +9845,9 @@
       <c r="BY25" s="8">
         <v>0</v>
       </c>
-      <c r="BZ25" s="8"/>
+      <c r="BZ25" s="8">
+        <v>0</v>
+      </c>
       <c r="CA25" s="8"/>
       <c r="CB25" s="15"/>
       <c r="CC25" s="8"/>
@@ -10042,7 +10082,9 @@
       <c r="BY26" s="8">
         <v>6</v>
       </c>
-      <c r="BZ26" s="8"/>
+      <c r="BZ26" s="8">
+        <v>7</v>
+      </c>
       <c r="CA26" s="8"/>
       <c r="CB26" s="15"/>
       <c r="CC26" s="8"/>
@@ -10277,7 +10319,9 @@
       <c r="BY27" s="8">
         <v>0</v>
       </c>
-      <c r="BZ27" s="8"/>
+      <c r="BZ27" s="8">
+        <v>0</v>
+      </c>
       <c r="CA27" s="8"/>
       <c r="CB27" s="15"/>
       <c r="CC27" s="8"/>
@@ -10512,14 +10556,16 @@
       <c r="BY28" s="8">
         <v>1</v>
       </c>
-      <c r="BZ28" s="8"/>
+      <c r="BZ28" s="8">
+        <v>0</v>
+      </c>
       <c r="CA28" s="8"/>
       <c r="CB28" s="15"/>
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -10747,14 +10793,16 @@
       <c r="BY29" s="8">
         <v>11</v>
       </c>
-      <c r="BZ29" s="8"/>
+      <c r="BZ29" s="8">
+        <v>1</v>
+      </c>
       <c r="CA29" s="8"/>
       <c r="CB29" s="15"/>
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="44"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -10980,7 +11028,9 @@
       <c r="BY30" s="8">
         <v>9</v>
       </c>
-      <c r="BZ30" s="8"/>
+      <c r="BZ30" s="8">
+        <v>10</v>
+      </c>
       <c r="CA30" s="8"/>
       <c r="CB30" s="15"/>
       <c r="CC30" s="8"/>
@@ -11216,7 +11266,9 @@
       <c r="BY31" s="8">
         <v>30</v>
       </c>
-      <c r="BZ31" s="8"/>
+      <c r="BZ31" s="8">
+        <v>44</v>
+      </c>
       <c r="CA31" s="8"/>
       <c r="CB31" s="15"/>
       <c r="CC31" s="8"/>
@@ -11451,7 +11503,9 @@
       <c r="BY32" s="8">
         <v>5</v>
       </c>
-      <c r="BZ32" s="8"/>
+      <c r="BZ32" s="8">
+        <v>3</v>
+      </c>
       <c r="CA32" s="8"/>
       <c r="CB32" s="15"/>
       <c r="CC32" s="8"/>
@@ -11686,7 +11740,9 @@
       <c r="BY33" s="8">
         <v>0</v>
       </c>
-      <c r="BZ33" s="8"/>
+      <c r="BZ33" s="8">
+        <v>0</v>
+      </c>
       <c r="CA33" s="8"/>
       <c r="CB33" s="15"/>
       <c r="CC33" s="8"/>
@@ -11922,7 +11978,9 @@
       <c r="BY34" s="8">
         <v>53</v>
       </c>
-      <c r="BZ34" s="8"/>
+      <c r="BZ34" s="8">
+        <v>39</v>
+      </c>
       <c r="CA34" s="8"/>
       <c r="CB34" s="15"/>
       <c r="CC34" s="8"/>
@@ -11930,7 +11988,7 @@
     </row>
     <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -12158,14 +12216,16 @@
       <c r="BY35" s="8">
         <v>209</v>
       </c>
-      <c r="BZ35" s="8"/>
+      <c r="BZ35" s="8">
+        <v>242</v>
+      </c>
       <c r="CA35" s="8"/>
       <c r="CB35" s="16"/>
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="43"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -12391,7 +12451,9 @@
       <c r="BY36" s="8">
         <v>25</v>
       </c>
-      <c r="BZ36" s="8"/>
+      <c r="BZ36" s="8">
+        <v>20</v>
+      </c>
       <c r="CA36" s="8"/>
       <c r="CB36" s="16"/>
       <c r="CC36" s="8"/>
@@ -12627,7 +12689,9 @@
       <c r="BY37" s="8">
         <v>33</v>
       </c>
-      <c r="BZ37" s="8"/>
+      <c r="BZ37" s="8">
+        <v>31</v>
+      </c>
       <c r="CA37" s="8"/>
       <c r="CB37" s="15"/>
       <c r="CC37" s="8"/>
@@ -12862,7 +12926,9 @@
       <c r="BY38" s="8">
         <v>7</v>
       </c>
-      <c r="BZ38" s="8"/>
+      <c r="BZ38" s="8">
+        <v>9</v>
+      </c>
       <c r="CA38" s="8"/>
       <c r="CB38" s="15"/>
       <c r="CC38" s="8"/>
@@ -13097,7 +13163,9 @@
       <c r="BY39" s="8">
         <v>6</v>
       </c>
-      <c r="BZ39" s="8"/>
+      <c r="BZ39" s="8">
+        <v>7</v>
+      </c>
       <c r="CA39" s="8"/>
       <c r="CB39" s="15"/>
       <c r="CC39" s="8"/>
@@ -13332,7 +13400,9 @@
       <c r="BY40" s="8">
         <v>0</v>
       </c>
-      <c r="BZ40" s="8"/>
+      <c r="BZ40" s="8">
+        <v>0</v>
+      </c>
       <c r="CA40" s="8"/>
       <c r="CB40" s="15"/>
       <c r="CC40" s="8"/>
@@ -13567,7 +13637,9 @@
       <c r="BY41" s="8">
         <v>0</v>
       </c>
-      <c r="BZ41" s="8"/>
+      <c r="BZ41" s="8">
+        <v>0</v>
+      </c>
       <c r="CA41" s="8"/>
       <c r="CB41" s="15"/>
       <c r="CC41" s="8"/>
@@ -13802,7 +13874,9 @@
       <c r="BY42" s="8">
         <v>8</v>
       </c>
-      <c r="BZ42" s="8"/>
+      <c r="BZ42" s="8">
+        <v>1</v>
+      </c>
       <c r="CA42" s="8"/>
       <c r="CB42" s="15"/>
       <c r="CC42" s="8"/>
@@ -14037,7 +14111,9 @@
       <c r="BY43" s="8">
         <v>46</v>
       </c>
-      <c r="BZ43" s="8"/>
+      <c r="BZ43" s="8">
+        <v>44</v>
+      </c>
       <c r="CA43" s="8"/>
       <c r="CB43" s="15"/>
       <c r="CC43" s="8"/>
@@ -14272,7 +14348,9 @@
       <c r="BY44" s="8">
         <v>3</v>
       </c>
-      <c r="BZ44" s="8"/>
+      <c r="BZ44" s="8">
+        <v>3</v>
+      </c>
       <c r="CA44" s="8"/>
       <c r="CB44" s="15"/>
       <c r="CC44" s="8"/>
@@ -14507,7 +14585,9 @@
       <c r="BY45" s="8">
         <v>10</v>
       </c>
-      <c r="BZ45" s="8"/>
+      <c r="BZ45" s="8">
+        <v>4</v>
+      </c>
       <c r="CA45" s="8"/>
       <c r="CB45" s="15"/>
       <c r="CC45" s="8"/>
@@ -14742,7 +14822,9 @@
       <c r="BY46" s="8">
         <v>8</v>
       </c>
-      <c r="BZ46" s="8"/>
+      <c r="BZ46" s="8">
+        <v>10</v>
+      </c>
       <c r="CA46" s="8"/>
       <c r="CB46" s="15"/>
       <c r="CC46" s="8"/>
@@ -14977,7 +15059,9 @@
       <c r="BY47" s="8">
         <v>2</v>
       </c>
-      <c r="BZ47" s="8"/>
+      <c r="BZ47" s="8">
+        <v>2</v>
+      </c>
       <c r="CA47" s="8"/>
       <c r="CB47" s="15"/>
       <c r="CC47" s="8"/>
@@ -15212,7 +15296,9 @@
       <c r="BY48" s="8">
         <v>6</v>
       </c>
-      <c r="BZ48" s="8"/>
+      <c r="BZ48" s="8">
+        <v>8</v>
+      </c>
       <c r="CA48" s="8"/>
       <c r="CB48" s="15"/>
       <c r="CC48" s="8"/>
@@ -15220,7 +15306,7 @@
     </row>
     <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -15448,14 +15534,16 @@
       <c r="BY49" s="8">
         <v>32</v>
       </c>
-      <c r="BZ49" s="8"/>
+      <c r="BZ49" s="8">
+        <v>15</v>
+      </c>
       <c r="CA49" s="8"/>
       <c r="CB49" s="15"/>
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -15681,7 +15769,9 @@
       <c r="BY50" s="8">
         <v>7</v>
       </c>
-      <c r="BZ50" s="8"/>
+      <c r="BZ50" s="8">
+        <v>5</v>
+      </c>
       <c r="CA50" s="8"/>
       <c r="CB50" s="15"/>
       <c r="CC50" s="8"/>
@@ -15916,7 +16006,9 @@
       <c r="BY51" s="8">
         <v>2</v>
       </c>
-      <c r="BZ51" s="8"/>
+      <c r="BZ51" s="8">
+        <v>7</v>
+      </c>
       <c r="CA51" s="8"/>
       <c r="CB51" s="15"/>
       <c r="CC51" s="8"/>
@@ -16151,7 +16243,9 @@
       <c r="BY52" s="8">
         <v>4</v>
       </c>
-      <c r="BZ52" s="8"/>
+      <c r="BZ52" s="8">
+        <v>1</v>
+      </c>
       <c r="CA52" s="8"/>
       <c r="CB52" s="15"/>
       <c r="CC52" s="8"/>
@@ -16386,7 +16480,9 @@
       <c r="BY53" s="8">
         <v>8</v>
       </c>
-      <c r="BZ53" s="8"/>
+      <c r="BZ53" s="8">
+        <v>13</v>
+      </c>
       <c r="CA53" s="8"/>
       <c r="CB53" s="15"/>
       <c r="CC53" s="8"/>
@@ -16621,7 +16717,9 @@
       <c r="BY54" s="8">
         <v>7</v>
       </c>
-      <c r="BZ54" s="8"/>
+      <c r="BZ54" s="8">
+        <v>7</v>
+      </c>
       <c r="CA54" s="8"/>
       <c r="CB54" s="15"/>
       <c r="CC54" s="8"/>
@@ -16856,7 +16954,9 @@
       <c r="BY55" s="8">
         <v>10</v>
       </c>
-      <c r="BZ55" s="8"/>
+      <c r="BZ55" s="8">
+        <v>6</v>
+      </c>
       <c r="CA55" s="8"/>
       <c r="CB55" s="15"/>
       <c r="CC55" s="8"/>
@@ -17091,7 +17191,9 @@
       <c r="BY56" s="8">
         <v>1</v>
       </c>
-      <c r="BZ56" s="8"/>
+      <c r="BZ56" s="8">
+        <v>2</v>
+      </c>
       <c r="CA56" s="8"/>
       <c r="CB56" s="15"/>
       <c r="CC56" s="8"/>
@@ -17326,7 +17428,9 @@
       <c r="BY57" s="8">
         <v>0</v>
       </c>
-      <c r="BZ57" s="8"/>
+      <c r="BZ57" s="8">
+        <v>1</v>
+      </c>
       <c r="CA57" s="8"/>
       <c r="CB57" s="15"/>
       <c r="CC57" s="8"/>
@@ -17635,7 +17739,7 @@
       </c>
       <c r="BZ58" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2437</v>
       </c>
       <c r="CA58" s="14">
         <f t="shared" si="3"/>
@@ -17825,26 +17929,26 @@
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -17907,6 +18011,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="D3:AQ3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="B49:B50"/>
@@ -17923,83 +18104,6 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18016,10 +18120,10 @@
   <dimension ref="B1:CD58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BQ53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BQ44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CB61" sqref="CB61"/>
+      <selection pane="bottomRight" activeCell="CA63" sqref="CA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18033,519 +18137,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:82" ht="24" x14ac:dyDescent="0.4">
-      <c r="BB1" s="49" t="s">
+      <c r="BB1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="49"/>
+      <c r="BC1" s="52"/>
       <c r="BI1" s="20"/>
-      <c r="CC1" s="49" t="s">
+      <c r="CC1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="CD1" s="49"/>
+      <c r="CD1" s="52"/>
     </row>
     <row r="2" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="46"/>
+      <c r="BT2" s="46"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="46"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
     </row>
     <row r="3" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36" t="s">
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
     </row>
     <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="51" t="s">
+      <c r="Z4" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="51" t="s">
+      <c r="AA4" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="51" t="s">
+      <c r="AK4" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AM4" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="51" t="s">
+      <c r="AO4" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="51" t="s">
+      <c r="AP4" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AR4" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="51" t="s">
+      <c r="AS4" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="51" t="s">
+      <c r="AU4" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="51" t="s">
+      <c r="AV4" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="51" t="s">
+      <c r="AW4" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="51" t="s">
+      <c r="AX4" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="51" t="s">
+      <c r="AY4" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="51" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="51" t="s">
+      <c r="BA4" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="51" t="s">
+      <c r="BB4" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="51" t="s">
+      <c r="BC4" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="31" t="s">
+      <c r="BD4" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="31" t="s">
+      <c r="BE4" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" s="31" t="s">
+      <c r="BF4" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="BG4" s="31" t="s">
+      <c r="BG4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" s="31" t="s">
+      <c r="BH4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="BI4" s="31" t="s">
+      <c r="BI4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="31" t="s">
+      <c r="BJ4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="31" t="s">
+      <c r="BK4" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="31" t="s">
+      <c r="BL4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="31" t="s">
+      <c r="BM4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="31" t="s">
+      <c r="BN4" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="31" t="s">
+      <c r="BO4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="50" t="s">
+      <c r="BP4" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="BQ4" s="50" t="s">
+      <c r="BQ4" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="BR4" s="50" t="s">
+      <c r="BR4" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="BS4" s="50" t="s">
+      <c r="BS4" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="BT4" s="50" t="s">
+      <c r="BT4" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="BU4" s="50" t="s">
+      <c r="BU4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="BV4" s="50" t="s">
+      <c r="BV4" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="BW4" s="50" t="s">
+      <c r="BW4" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="BX4" s="50" t="s">
+      <c r="BX4" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="BY4" s="50" t="s">
+      <c r="BY4" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="BZ4" s="50" t="s">
+      <c r="BZ4" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="CA4" s="50" t="s">
+      <c r="CA4" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="CB4" s="50" t="s">
+      <c r="CB4" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="50" t="s">
+      <c r="CC4" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="31" t="s">
+      <c r="CD4" s="43" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:82" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="44"/>
+      <c r="BW5" s="44"/>
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
     </row>
     <row r="6" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
@@ -18776,7 +18880,9 @@
       <c r="BY6" s="8">
         <v>76</v>
       </c>
-      <c r="BZ6" s="8"/>
+      <c r="BZ6" s="8">
+        <v>41</v>
+      </c>
       <c r="CA6" s="8"/>
       <c r="CB6" s="15"/>
       <c r="CC6" s="8"/>
@@ -19011,7 +19117,9 @@
       <c r="BY7" s="8">
         <v>1</v>
       </c>
-      <c r="BZ7" s="8"/>
+      <c r="BZ7" s="8">
+        <v>1</v>
+      </c>
       <c r="CA7" s="8"/>
       <c r="CB7" s="15"/>
       <c r="CC7" s="8"/>
@@ -19246,7 +19354,9 @@
       <c r="BY8" s="8">
         <v>2</v>
       </c>
-      <c r="BZ8" s="8"/>
+      <c r="BZ8" s="8">
+        <v>3</v>
+      </c>
       <c r="CA8" s="8"/>
       <c r="CB8" s="15"/>
       <c r="CC8" s="8"/>
@@ -19481,7 +19591,9 @@
       <c r="BY9" s="8">
         <v>28</v>
       </c>
-      <c r="BZ9" s="8"/>
+      <c r="BZ9" s="8">
+        <v>30</v>
+      </c>
       <c r="CA9" s="8"/>
       <c r="CB9" s="15"/>
       <c r="CC9" s="8"/>
@@ -19716,7 +19828,9 @@
       <c r="BY10" s="8">
         <v>0</v>
       </c>
-      <c r="BZ10" s="8"/>
+      <c r="BZ10" s="8">
+        <v>0</v>
+      </c>
       <c r="CA10" s="8"/>
       <c r="CB10" s="15"/>
       <c r="CC10" s="8"/>
@@ -19951,7 +20065,9 @@
       <c r="BY11" s="8">
         <v>3</v>
       </c>
-      <c r="BZ11" s="8"/>
+      <c r="BZ11" s="8">
+        <v>5</v>
+      </c>
       <c r="CA11" s="8"/>
       <c r="CB11" s="15"/>
       <c r="CC11" s="8"/>
@@ -20186,7 +20302,9 @@
       <c r="BY12" s="8">
         <v>5</v>
       </c>
-      <c r="BZ12" s="8"/>
+      <c r="BZ12" s="8">
+        <v>4</v>
+      </c>
       <c r="CA12" s="8"/>
       <c r="CB12" s="15"/>
       <c r="CC12" s="8"/>
@@ -20421,7 +20539,9 @@
       <c r="BY13" s="8">
         <v>25</v>
       </c>
-      <c r="BZ13" s="8"/>
+      <c r="BZ13" s="8">
+        <v>19</v>
+      </c>
       <c r="CA13" s="8"/>
       <c r="CB13" s="15"/>
       <c r="CC13" s="8"/>
@@ -20656,7 +20776,9 @@
       <c r="BY14" s="8">
         <v>6</v>
       </c>
-      <c r="BZ14" s="8"/>
+      <c r="BZ14" s="8">
+        <v>2</v>
+      </c>
       <c r="CA14" s="8"/>
       <c r="CB14" s="15"/>
       <c r="CC14" s="8"/>
@@ -20891,7 +21013,9 @@
       <c r="BY15" s="8">
         <v>0</v>
       </c>
-      <c r="BZ15" s="8"/>
+      <c r="BZ15" s="8">
+        <v>1</v>
+      </c>
       <c r="CA15" s="8"/>
       <c r="CB15" s="15"/>
       <c r="CC15" s="8"/>
@@ -21126,7 +21250,9 @@
       <c r="BY16" s="8">
         <v>27</v>
       </c>
-      <c r="BZ16" s="8"/>
+      <c r="BZ16" s="8">
+        <v>30</v>
+      </c>
       <c r="CA16" s="8"/>
       <c r="CB16" s="15"/>
       <c r="CC16" s="8"/>
@@ -21361,7 +21487,9 @@
       <c r="BY17" s="8">
         <v>76</v>
       </c>
-      <c r="BZ17" s="8"/>
+      <c r="BZ17" s="8">
+        <v>79</v>
+      </c>
       <c r="CA17" s="8"/>
       <c r="CB17" s="16"/>
       <c r="CC17" s="8"/>
@@ -21596,14 +21724,16 @@
       <c r="BY18" s="8">
         <v>650</v>
       </c>
-      <c r="BZ18" s="8"/>
+      <c r="BZ18" s="8">
+        <v>600</v>
+      </c>
       <c r="CA18" s="8"/>
       <c r="CB18" s="17"/>
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
     </row>
     <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -21831,14 +21961,16 @@
       <c r="BY19" s="8">
         <v>18</v>
       </c>
-      <c r="BZ19" s="8"/>
+      <c r="BZ19" s="8">
+        <v>11</v>
+      </c>
       <c r="CA19" s="8"/>
       <c r="CB19" s="15"/>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
     </row>
     <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="43"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -22064,14 +22196,16 @@
       <c r="BY20" s="8">
         <v>78</v>
       </c>
-      <c r="BZ20" s="8"/>
+      <c r="BZ20" s="8">
+        <v>60</v>
+      </c>
       <c r="CA20" s="8"/>
       <c r="CB20" s="16"/>
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
     </row>
     <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="43"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -22297,7 +22431,9 @@
       <c r="BY21" s="8">
         <v>13</v>
       </c>
-      <c r="BZ21" s="8"/>
+      <c r="BZ21" s="8">
+        <v>24</v>
+      </c>
       <c r="CA21" s="8"/>
       <c r="CB21" s="15"/>
       <c r="CC21" s="8"/>
@@ -22532,7 +22668,9 @@
       <c r="BY22" s="8">
         <v>22</v>
       </c>
-      <c r="BZ22" s="8"/>
+      <c r="BZ22" s="8">
+        <v>15</v>
+      </c>
       <c r="CA22" s="8"/>
       <c r="CB22" s="15"/>
       <c r="CC22" s="8"/>
@@ -22767,7 +22905,9 @@
       <c r="BY23" s="8">
         <v>2</v>
       </c>
-      <c r="BZ23" s="8"/>
+      <c r="BZ23" s="8">
+        <v>0</v>
+      </c>
       <c r="CA23" s="8"/>
       <c r="CB23" s="15"/>
       <c r="CC23" s="8"/>
@@ -23002,7 +23142,9 @@
       <c r="BY24" s="8">
         <v>5</v>
       </c>
-      <c r="BZ24" s="8"/>
+      <c r="BZ24" s="8">
+        <v>2</v>
+      </c>
       <c r="CA24" s="8"/>
       <c r="CB24" s="15"/>
       <c r="CC24" s="8"/>
@@ -23237,7 +23379,9 @@
       <c r="BY25" s="8">
         <v>0</v>
       </c>
-      <c r="BZ25" s="8"/>
+      <c r="BZ25" s="8">
+        <v>0</v>
+      </c>
       <c r="CA25" s="8"/>
       <c r="CB25" s="15"/>
       <c r="CC25" s="8"/>
@@ -23472,7 +23616,9 @@
       <c r="BY26" s="8">
         <v>9</v>
       </c>
-      <c r="BZ26" s="8"/>
+      <c r="BZ26" s="8">
+        <v>5</v>
+      </c>
       <c r="CA26" s="8"/>
       <c r="CB26" s="15"/>
       <c r="CC26" s="8"/>
@@ -23707,7 +23853,9 @@
       <c r="BY27" s="8">
         <v>0</v>
       </c>
-      <c r="BZ27" s="8"/>
+      <c r="BZ27" s="8">
+        <v>0</v>
+      </c>
       <c r="CA27" s="8"/>
       <c r="CB27" s="15"/>
       <c r="CC27" s="8"/>
@@ -23942,14 +24090,16 @@
       <c r="BY28" s="8">
         <v>0</v>
       </c>
-      <c r="BZ28" s="8"/>
+      <c r="BZ28" s="8">
+        <v>2</v>
+      </c>
       <c r="CA28" s="8"/>
       <c r="CB28" s="15"/>
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -24177,14 +24327,16 @@
       <c r="BY29" s="8">
         <v>3</v>
       </c>
-      <c r="BZ29" s="8"/>
+      <c r="BZ29" s="8">
+        <v>0</v>
+      </c>
       <c r="CA29" s="8"/>
       <c r="CB29" s="15"/>
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="44"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -24410,7 +24562,9 @@
       <c r="BY30" s="8">
         <v>3</v>
       </c>
-      <c r="BZ30" s="8"/>
+      <c r="BZ30" s="8">
+        <v>0</v>
+      </c>
       <c r="CA30" s="8"/>
       <c r="CB30" s="15"/>
       <c r="CC30" s="8"/>
@@ -24645,7 +24799,9 @@
       <c r="BY31" s="8">
         <v>16</v>
       </c>
-      <c r="BZ31" s="8"/>
+      <c r="BZ31" s="8">
+        <v>17</v>
+      </c>
       <c r="CA31" s="8"/>
       <c r="CB31" s="15"/>
       <c r="CC31" s="8"/>
@@ -24880,7 +25036,9 @@
       <c r="BY32" s="8">
         <v>0</v>
       </c>
-      <c r="BZ32" s="8"/>
+      <c r="BZ32" s="8">
+        <v>1</v>
+      </c>
       <c r="CA32" s="8"/>
       <c r="CB32" s="15"/>
       <c r="CC32" s="8"/>
@@ -25115,7 +25273,9 @@
       <c r="BY33" s="8">
         <v>1</v>
       </c>
-      <c r="BZ33" s="8"/>
+      <c r="BZ33" s="8">
+        <v>0</v>
+      </c>
       <c r="CA33" s="8"/>
       <c r="CB33" s="15"/>
       <c r="CC33" s="8"/>
@@ -25350,14 +25510,16 @@
       <c r="BY34" s="8">
         <v>17</v>
       </c>
-      <c r="BZ34" s="8"/>
+      <c r="BZ34" s="8">
+        <v>21</v>
+      </c>
       <c r="CA34" s="8"/>
       <c r="CB34" s="15"/>
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
     <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -25585,14 +25747,16 @@
       <c r="BY35" s="8">
         <v>187</v>
       </c>
-      <c r="BZ35" s="8"/>
+      <c r="BZ35" s="8">
+        <v>206</v>
+      </c>
       <c r="CA35" s="8"/>
       <c r="CB35" s="16"/>
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="43"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -25818,7 +25982,9 @@
       <c r="BY36" s="8">
         <v>22</v>
       </c>
-      <c r="BZ36" s="8"/>
+      <c r="BZ36" s="8">
+        <v>17</v>
+      </c>
       <c r="CA36" s="8"/>
       <c r="CB36" s="16"/>
       <c r="CC36" s="8"/>
@@ -26053,7 +26219,9 @@
       <c r="BY37" s="8">
         <v>18</v>
       </c>
-      <c r="BZ37" s="8"/>
+      <c r="BZ37" s="8">
+        <v>16</v>
+      </c>
       <c r="CA37" s="8"/>
       <c r="CB37" s="15"/>
       <c r="CC37" s="8"/>
@@ -26288,7 +26456,9 @@
       <c r="BY38" s="8">
         <v>4</v>
       </c>
-      <c r="BZ38" s="8"/>
+      <c r="BZ38" s="8">
+        <v>4</v>
+      </c>
       <c r="CA38" s="8"/>
       <c r="CB38" s="15"/>
       <c r="CC38" s="8"/>
@@ -26523,7 +26693,9 @@
       <c r="BY39" s="8">
         <v>3</v>
       </c>
-      <c r="BZ39" s="8"/>
+      <c r="BZ39" s="8">
+        <v>5</v>
+      </c>
       <c r="CA39" s="8"/>
       <c r="CB39" s="15"/>
       <c r="CC39" s="8"/>
@@ -26758,7 +26930,9 @@
       <c r="BY40" s="8">
         <v>0</v>
       </c>
-      <c r="BZ40" s="8"/>
+      <c r="BZ40" s="8">
+        <v>0</v>
+      </c>
       <c r="CA40" s="8"/>
       <c r="CB40" s="15"/>
       <c r="CC40" s="8"/>
@@ -26993,7 +27167,9 @@
       <c r="BY41" s="8">
         <v>0</v>
       </c>
-      <c r="BZ41" s="8"/>
+      <c r="BZ41" s="8">
+        <v>0</v>
+      </c>
       <c r="CA41" s="8"/>
       <c r="CB41" s="15"/>
       <c r="CC41" s="8"/>
@@ -27228,7 +27404,9 @@
       <c r="BY42" s="8">
         <v>3</v>
       </c>
-      <c r="BZ42" s="8"/>
+      <c r="BZ42" s="8">
+        <v>4</v>
+      </c>
       <c r="CA42" s="8"/>
       <c r="CB42" s="15"/>
       <c r="CC42" s="8"/>
@@ -27463,7 +27641,9 @@
       <c r="BY43" s="8">
         <v>17</v>
       </c>
-      <c r="BZ43" s="8"/>
+      <c r="BZ43" s="8">
+        <v>30</v>
+      </c>
       <c r="CA43" s="8"/>
       <c r="CB43" s="15"/>
       <c r="CC43" s="8"/>
@@ -27698,7 +27878,9 @@
       <c r="BY44" s="8">
         <v>3</v>
       </c>
-      <c r="BZ44" s="8"/>
+      <c r="BZ44" s="8">
+        <v>3</v>
+      </c>
       <c r="CA44" s="8"/>
       <c r="CB44" s="15"/>
       <c r="CC44" s="8"/>
@@ -27933,7 +28115,9 @@
       <c r="BY45" s="8">
         <v>6</v>
       </c>
-      <c r="BZ45" s="8"/>
+      <c r="BZ45" s="8">
+        <v>8</v>
+      </c>
       <c r="CA45" s="8"/>
       <c r="CB45" s="15"/>
       <c r="CC45" s="8"/>
@@ -28168,7 +28352,9 @@
       <c r="BY46" s="8">
         <v>3</v>
       </c>
-      <c r="BZ46" s="8"/>
+      <c r="BZ46" s="8">
+        <v>5</v>
+      </c>
       <c r="CA46" s="8"/>
       <c r="CB46" s="15"/>
       <c r="CC46" s="8"/>
@@ -28403,7 +28589,9 @@
       <c r="BY47" s="8">
         <v>2</v>
       </c>
-      <c r="BZ47" s="8"/>
+      <c r="BZ47" s="8">
+        <v>1</v>
+      </c>
       <c r="CA47" s="8"/>
       <c r="CB47" s="15"/>
       <c r="CC47" s="8"/>
@@ -28638,14 +28826,16 @@
       <c r="BY48" s="8">
         <v>4</v>
       </c>
-      <c r="BZ48" s="8"/>
+      <c r="BZ48" s="8">
+        <v>5</v>
+      </c>
       <c r="CA48" s="8"/>
       <c r="CB48" s="15"/>
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
     </row>
     <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -28873,14 +29063,16 @@
       <c r="BY49" s="8">
         <v>23</v>
       </c>
-      <c r="BZ49" s="8"/>
+      <c r="BZ49" s="8">
+        <v>20</v>
+      </c>
       <c r="CA49" s="8"/>
       <c r="CB49" s="15"/>
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -29106,7 +29298,9 @@
       <c r="BY50" s="8">
         <v>4</v>
       </c>
-      <c r="BZ50" s="8"/>
+      <c r="BZ50" s="8">
+        <v>6</v>
+      </c>
       <c r="CA50" s="8"/>
       <c r="CB50" s="15"/>
       <c r="CC50" s="8"/>
@@ -29341,7 +29535,9 @@
       <c r="BY51" s="8">
         <v>3</v>
       </c>
-      <c r="BZ51" s="8"/>
+      <c r="BZ51" s="8">
+        <v>2</v>
+      </c>
       <c r="CA51" s="8"/>
       <c r="CB51" s="15"/>
       <c r="CC51" s="8"/>
@@ -29576,7 +29772,9 @@
       <c r="BY52" s="8">
         <v>3</v>
       </c>
-      <c r="BZ52" s="8"/>
+      <c r="BZ52" s="8">
+        <v>4</v>
+      </c>
       <c r="CA52" s="8"/>
       <c r="CB52" s="15"/>
       <c r="CC52" s="8"/>
@@ -29811,7 +30009,9 @@
       <c r="BY53" s="8">
         <v>10</v>
       </c>
-      <c r="BZ53" s="8"/>
+      <c r="BZ53" s="8">
+        <v>12</v>
+      </c>
       <c r="CA53" s="8"/>
       <c r="CB53" s="15"/>
       <c r="CC53" s="8"/>
@@ -30046,7 +30246,9 @@
       <c r="BY54" s="8">
         <v>14</v>
       </c>
-      <c r="BZ54" s="8"/>
+      <c r="BZ54" s="8">
+        <v>4</v>
+      </c>
       <c r="CA54" s="8"/>
       <c r="CB54" s="15"/>
       <c r="CC54" s="8"/>
@@ -30281,7 +30483,9 @@
       <c r="BY55" s="8">
         <v>5</v>
       </c>
-      <c r="BZ55" s="8"/>
+      <c r="BZ55" s="8">
+        <v>3</v>
+      </c>
       <c r="CA55" s="8"/>
       <c r="CB55" s="15"/>
       <c r="CC55" s="8"/>
@@ -30516,7 +30720,9 @@
       <c r="BY56" s="8">
         <v>4</v>
       </c>
-      <c r="BZ56" s="8"/>
+      <c r="BZ56" s="8">
+        <v>0</v>
+      </c>
       <c r="CA56" s="8"/>
       <c r="CB56" s="15"/>
       <c r="CC56" s="8"/>
@@ -30751,7 +30957,9 @@
       <c r="BY57" s="8">
         <v>0</v>
       </c>
-      <c r="BZ57" s="8"/>
+      <c r="BZ57" s="8">
+        <v>0</v>
+      </c>
       <c r="CA57" s="8"/>
       <c r="CB57" s="15"/>
       <c r="CC57" s="8"/>
@@ -31059,7 +31267,7 @@
       </c>
       <c r="BZ58" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1328</v>
       </c>
       <c r="CA58" s="28">
         <f t="shared" si="3"/>
@@ -31079,6 +31287,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:B36"/>
@@ -31095,83 +31380,6 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BQ4:BQ5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31187,11 +31395,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="S54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AE61" sqref="AE61"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6:Z57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31206,43 +31414,43 @@
   <sheetData>
     <row r="1" spans="1:60" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="56"/>
+      <c r="AD1" s="60"/>
     </row>
     <row r="2" spans="1:60" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -31271,37 +31479,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:60" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -31314,200 +31522,200 @@
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
       <c r="AP3" s="23"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="54"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61"/>
     </row>
     <row r="4" spans="1:60" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="58"/>
     </row>
     <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="58"/>
+      <c r="BH5" s="58"/>
     </row>
     <row r="6" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -31583,7 +31791,9 @@
       <c r="Y6" s="8">
         <v>35</v>
       </c>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="8">
+        <v>24</v>
+      </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="8"/>
@@ -31688,7 +31898,9 @@
       <c r="Y7" s="8">
         <v>0</v>
       </c>
-      <c r="Z7" s="8"/>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="8"/>
@@ -31793,7 +32005,9 @@
       <c r="Y8" s="8">
         <v>1</v>
       </c>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="8"/>
@@ -31899,7 +32113,9 @@
       <c r="Y9" s="8">
         <v>5</v>
       </c>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="8">
+        <v>6</v>
+      </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="8"/>
@@ -32004,7 +32220,9 @@
       <c r="Y10" s="8">
         <v>0</v>
       </c>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="8">
+        <v>0</v>
+      </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="8"/>
@@ -32109,7 +32327,9 @@
       <c r="Y11" s="8">
         <v>3</v>
       </c>
-      <c r="Z11" s="8"/>
+      <c r="Z11" s="8">
+        <v>1</v>
+      </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="8"/>
@@ -32214,7 +32434,9 @@
       <c r="Y12" s="8">
         <v>1</v>
       </c>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="8">
+        <v>1</v>
+      </c>
       <c r="AA12" s="8"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="8"/>
@@ -32319,7 +32541,9 @@
       <c r="Y13" s="8">
         <v>6</v>
       </c>
-      <c r="Z13" s="8"/>
+      <c r="Z13" s="8">
+        <v>6</v>
+      </c>
       <c r="AA13" s="8"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="8"/>
@@ -32424,7 +32648,9 @@
       <c r="Y14" s="8">
         <v>1</v>
       </c>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="8">
+        <v>3</v>
+      </c>
       <c r="AA14" s="8"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="8"/>
@@ -32529,7 +32755,9 @@
       <c r="Y15" s="8">
         <v>1</v>
       </c>
-      <c r="Z15" s="8"/>
+      <c r="Z15" s="8">
+        <v>0</v>
+      </c>
       <c r="AA15" s="8"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="8"/>
@@ -32635,7 +32863,9 @@
       <c r="Y16" s="8">
         <v>7</v>
       </c>
-      <c r="Z16" s="8"/>
+      <c r="Z16" s="8">
+        <v>5</v>
+      </c>
       <c r="AA16" s="8"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="8"/>
@@ -32740,7 +32970,9 @@
       <c r="Y17" s="8">
         <v>72</v>
       </c>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="8">
+        <v>51</v>
+      </c>
       <c r="AA17" s="8"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="8"/>
@@ -32846,7 +33078,9 @@
       <c r="Y18" s="8">
         <v>714</v>
       </c>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="8">
+        <v>488</v>
+      </c>
       <c r="AA18" s="8"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="8"/>
@@ -32880,7 +33114,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -32952,7 +33186,9 @@
       <c r="Y19" s="8">
         <v>66</v>
       </c>
-      <c r="Z19" s="8"/>
+      <c r="Z19" s="8">
+        <v>38</v>
+      </c>
       <c r="AA19" s="8"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="8"/>
@@ -32986,7 +33222,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -33056,7 +33292,9 @@
       <c r="Y20" s="8">
         <v>285</v>
       </c>
-      <c r="Z20" s="8"/>
+      <c r="Z20" s="8">
+        <v>187</v>
+      </c>
       <c r="AA20" s="8"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="8"/>
@@ -33090,7 +33328,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="58"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -33160,7 +33398,9 @@
       <c r="Y21" s="8">
         <v>22</v>
       </c>
-      <c r="Z21" s="8"/>
+      <c r="Z21" s="8">
+        <v>21</v>
+      </c>
       <c r="AA21" s="8"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="8"/>
@@ -33265,7 +33505,9 @@
       <c r="Y22" s="8">
         <v>3</v>
       </c>
-      <c r="Z22" s="8"/>
+      <c r="Z22" s="8">
+        <v>2</v>
+      </c>
       <c r="AA22" s="8"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="8"/>
@@ -33370,7 +33612,9 @@
       <c r="Y23" s="8">
         <v>0</v>
       </c>
-      <c r="Z23" s="8"/>
+      <c r="Z23" s="8">
+        <v>0</v>
+      </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="8"/>
@@ -33475,7 +33719,9 @@
       <c r="Y24" s="8">
         <v>2</v>
       </c>
-      <c r="Z24" s="8"/>
+      <c r="Z24" s="8">
+        <v>1</v>
+      </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="8"/>
@@ -33580,7 +33826,9 @@
       <c r="Y25" s="8">
         <v>0</v>
       </c>
-      <c r="Z25" s="8"/>
+      <c r="Z25" s="8">
+        <v>0</v>
+      </c>
       <c r="AA25" s="8"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="8"/>
@@ -33685,7 +33933,9 @@
       <c r="Y26" s="8">
         <v>3</v>
       </c>
-      <c r="Z26" s="8"/>
+      <c r="Z26" s="8">
+        <v>3</v>
+      </c>
       <c r="AA26" s="8"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="8"/>
@@ -33790,7 +34040,9 @@
       <c r="Y27" s="8">
         <v>0</v>
       </c>
-      <c r="Z27" s="8"/>
+      <c r="Z27" s="8">
+        <v>0</v>
+      </c>
       <c r="AA27" s="8"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="8"/>
@@ -33895,7 +34147,9 @@
       <c r="Y28" s="8">
         <v>1</v>
       </c>
-      <c r="Z28" s="8"/>
+      <c r="Z28" s="8">
+        <v>0</v>
+      </c>
       <c r="AA28" s="8"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="8"/>
@@ -33928,7 +34182,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="56" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -34000,7 +34254,9 @@
       <c r="Y29" s="8">
         <v>4</v>
       </c>
-      <c r="Z29" s="8"/>
+      <c r="Z29" s="8">
+        <v>0</v>
+      </c>
       <c r="AA29" s="8"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="8"/>
@@ -34033,7 +34289,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -34103,7 +34359,9 @@
       <c r="Y30" s="8">
         <v>2</v>
       </c>
-      <c r="Z30" s="8"/>
+      <c r="Z30" s="8">
+        <v>0</v>
+      </c>
       <c r="AA30" s="8"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="8"/>
@@ -34209,7 +34467,9 @@
       <c r="Y31" s="8">
         <v>13</v>
       </c>
-      <c r="Z31" s="8"/>
+      <c r="Z31" s="8">
+        <v>28</v>
+      </c>
       <c r="AA31" s="8"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="8"/>
@@ -34314,7 +34574,9 @@
       <c r="Y32" s="8">
         <v>5</v>
       </c>
-      <c r="Z32" s="8"/>
+      <c r="Z32" s="8">
+        <v>1</v>
+      </c>
       <c r="AA32" s="8"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="8"/>
@@ -34419,7 +34681,9 @@
       <c r="Y33" s="8">
         <v>0</v>
       </c>
-      <c r="Z33" s="8"/>
+      <c r="Z33" s="8">
+        <v>0</v>
+      </c>
       <c r="AA33" s="8"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="8"/>
@@ -34525,7 +34789,9 @@
       <c r="Y34" s="8">
         <v>7</v>
       </c>
-      <c r="Z34" s="8"/>
+      <c r="Z34" s="8">
+        <v>14</v>
+      </c>
       <c r="AA34" s="8"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="8"/>
@@ -34559,7 +34825,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -34631,7 +34897,9 @@
       <c r="Y35" s="8">
         <v>83</v>
       </c>
-      <c r="Z35" s="8"/>
+      <c r="Z35" s="8">
+        <v>90</v>
+      </c>
       <c r="AA35" s="8"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="8"/>
@@ -34664,7 +34932,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="58"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -34734,7 +35002,9 @@
       <c r="Y36" s="8">
         <v>15</v>
       </c>
-      <c r="Z36" s="8"/>
+      <c r="Z36" s="8">
+        <v>15</v>
+      </c>
       <c r="AA36" s="8"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="8"/>
@@ -34840,7 +35110,9 @@
       <c r="Y37" s="8">
         <v>19</v>
       </c>
-      <c r="Z37" s="8"/>
+      <c r="Z37" s="8">
+        <v>16</v>
+      </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="8"/>
@@ -34945,7 +35217,9 @@
       <c r="Y38" s="8">
         <v>4</v>
       </c>
-      <c r="Z38" s="8"/>
+      <c r="Z38" s="8">
+        <v>6</v>
+      </c>
       <c r="AA38" s="8"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="8"/>
@@ -35050,7 +35324,9 @@
       <c r="Y39" s="8">
         <v>2</v>
       </c>
-      <c r="Z39" s="8"/>
+      <c r="Z39" s="8">
+        <v>3</v>
+      </c>
       <c r="AA39" s="8"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="8"/>
@@ -35155,7 +35431,9 @@
       <c r="Y40" s="8">
         <v>0</v>
       </c>
-      <c r="Z40" s="8"/>
+      <c r="Z40" s="8">
+        <v>0</v>
+      </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="8"/>
@@ -35260,7 +35538,9 @@
       <c r="Y41" s="8">
         <v>0</v>
       </c>
-      <c r="Z41" s="8"/>
+      <c r="Z41" s="8">
+        <v>0</v>
+      </c>
       <c r="AA41" s="8"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="8"/>
@@ -35365,7 +35645,9 @@
       <c r="Y42" s="8">
         <v>4</v>
       </c>
-      <c r="Z42" s="8"/>
+      <c r="Z42" s="8">
+        <v>0</v>
+      </c>
       <c r="AA42" s="8"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="8"/>
@@ -35470,7 +35752,9 @@
       <c r="Y43" s="8">
         <v>29</v>
       </c>
-      <c r="Z43" s="8"/>
+      <c r="Z43" s="8">
+        <v>23</v>
+      </c>
       <c r="AA43" s="8"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="8"/>
@@ -35575,7 +35859,9 @@
       <c r="Y44" s="8">
         <v>1</v>
       </c>
-      <c r="Z44" s="8"/>
+      <c r="Z44" s="8">
+        <v>0</v>
+      </c>
       <c r="AA44" s="8"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="8"/>
@@ -35680,7 +35966,9 @@
       <c r="Y45" s="8">
         <v>2</v>
       </c>
-      <c r="Z45" s="8"/>
+      <c r="Z45" s="8">
+        <v>1</v>
+      </c>
       <c r="AA45" s="8"/>
       <c r="AB45" s="15"/>
       <c r="AC45" s="8"/>
@@ -35785,7 +36073,9 @@
       <c r="Y46" s="8">
         <v>2</v>
       </c>
-      <c r="Z46" s="8"/>
+      <c r="Z46" s="8">
+        <v>4</v>
+      </c>
       <c r="AA46" s="8"/>
       <c r="AB46" s="15"/>
       <c r="AC46" s="8"/>
@@ -35890,7 +36180,9 @@
       <c r="Y47" s="8">
         <v>1</v>
       </c>
-      <c r="Z47" s="8"/>
+      <c r="Z47" s="8">
+        <v>0</v>
+      </c>
       <c r="AA47" s="8"/>
       <c r="AB47" s="15"/>
       <c r="AC47" s="8"/>
@@ -35995,7 +36287,9 @@
       <c r="Y48" s="8">
         <v>5</v>
       </c>
-      <c r="Z48" s="8"/>
+      <c r="Z48" s="8">
+        <v>6</v>
+      </c>
       <c r="AA48" s="8"/>
       <c r="AB48" s="15"/>
       <c r="AC48" s="8"/>
@@ -36029,7 +36323,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -36101,7 +36395,9 @@
       <c r="Y49" s="8">
         <v>19</v>
       </c>
-      <c r="Z49" s="8"/>
+      <c r="Z49" s="8">
+        <v>7</v>
+      </c>
       <c r="AA49" s="8"/>
       <c r="AB49" s="15"/>
       <c r="AC49" s="8"/>
@@ -36134,7 +36430,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -36204,7 +36500,9 @@
       <c r="Y50" s="8">
         <v>2</v>
       </c>
-      <c r="Z50" s="8"/>
+      <c r="Z50" s="8">
+        <v>0</v>
+      </c>
       <c r="AA50" s="8"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="8"/>
@@ -36309,7 +36607,9 @@
       <c r="Y51" s="8">
         <v>1</v>
       </c>
-      <c r="Z51" s="8"/>
+      <c r="Z51" s="8">
+        <v>0</v>
+      </c>
       <c r="AA51" s="8"/>
       <c r="AB51" s="15"/>
       <c r="AC51" s="8"/>
@@ -36414,7 +36714,9 @@
       <c r="Y52" s="8">
         <v>0</v>
       </c>
-      <c r="Z52" s="8"/>
+      <c r="Z52" s="8">
+        <v>0</v>
+      </c>
       <c r="AA52" s="8"/>
       <c r="AB52" s="15"/>
       <c r="AC52" s="8"/>
@@ -36519,7 +36821,9 @@
       <c r="Y53" s="8">
         <v>6</v>
       </c>
-      <c r="Z53" s="8"/>
+      <c r="Z53" s="8">
+        <v>7</v>
+      </c>
       <c r="AA53" s="8"/>
       <c r="AB53" s="15"/>
       <c r="AC53" s="8"/>
@@ -36624,7 +36928,9 @@
       <c r="Y54" s="8">
         <v>5</v>
       </c>
-      <c r="Z54" s="8"/>
+      <c r="Z54" s="8">
+        <v>5</v>
+      </c>
       <c r="AA54" s="8"/>
       <c r="AB54" s="15"/>
       <c r="AC54" s="8"/>
@@ -36729,7 +37035,9 @@
       <c r="Y55" s="8">
         <v>1</v>
       </c>
-      <c r="Z55" s="8"/>
+      <c r="Z55" s="8">
+        <v>1</v>
+      </c>
       <c r="AA55" s="8"/>
       <c r="AB55" s="15"/>
       <c r="AC55" s="8"/>
@@ -36834,7 +37142,9 @@
       <c r="Y56" s="8">
         <v>1</v>
       </c>
-      <c r="Z56" s="8"/>
+      <c r="Z56" s="8">
+        <v>0</v>
+      </c>
       <c r="AA56" s="8"/>
       <c r="AB56" s="15"/>
       <c r="AC56" s="8"/>
@@ -36939,7 +37249,9 @@
       <c r="Y57" s="8">
         <v>0</v>
       </c>
-      <c r="Z57" s="8"/>
+      <c r="Z57" s="8">
+        <v>1</v>
+      </c>
       <c r="AA57" s="8"/>
       <c r="AB57" s="15"/>
       <c r="AC57" s="8"/>
@@ -37066,7 +37378,7 @@
       </c>
       <c r="Z58" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="AA58" s="14">
         <f t="shared" si="2"/>
@@ -37211,12 +37523,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="AQ3:BD3"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="D3:AD3"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -37233,52 +37585,12 @@
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AQ3:BD3"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -37291,11 +37603,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="L54" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AG59" sqref="AG59"/>
+      <selection pane="bottomRight" activeCell="AF61" sqref="AF61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -37310,43 +37622,43 @@
   <sheetData>
     <row r="1" spans="1:56" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="56"/>
+      <c r="AD1" s="60"/>
     </row>
     <row r="2" spans="1:56" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -37375,37 +37687,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -37434,176 +37746,176 @@
       <c r="BD3" s="23"/>
     </row>
     <row r="4" spans="1:56" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
     </row>
     <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
     </row>
     <row r="6" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -37679,7 +37991,9 @@
       <c r="Y6" s="8">
         <v>52</v>
       </c>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="8">
+        <v>44</v>
+      </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="8"/>
@@ -37784,7 +38098,9 @@
       <c r="Y7" s="8">
         <v>0</v>
       </c>
-      <c r="Z7" s="8"/>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
       <c r="AA7" s="8"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="8"/>
@@ -37889,7 +38205,9 @@
       <c r="Y8" s="8">
         <v>4</v>
       </c>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="8">
+        <v>4</v>
+      </c>
       <c r="AA8" s="8"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="8"/>
@@ -37995,7 +38313,9 @@
       <c r="Y9" s="8">
         <v>64</v>
       </c>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="8">
+        <v>45</v>
+      </c>
       <c r="AA9" s="8"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="8"/>
@@ -38100,7 +38420,9 @@
       <c r="Y10" s="8">
         <v>0</v>
       </c>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="8">
+        <v>0</v>
+      </c>
       <c r="AA10" s="8"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="8"/>
@@ -38205,7 +38527,9 @@
       <c r="Y11" s="8">
         <v>5</v>
       </c>
-      <c r="Z11" s="8"/>
+      <c r="Z11" s="8">
+        <v>5</v>
+      </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="8"/>
@@ -38310,7 +38634,9 @@
       <c r="Y12" s="8">
         <v>1</v>
       </c>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="8">
+        <v>1</v>
+      </c>
       <c r="AA12" s="8"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="8"/>
@@ -38415,7 +38741,9 @@
       <c r="Y13" s="8">
         <v>3</v>
       </c>
-      <c r="Z13" s="8"/>
+      <c r="Z13" s="8">
+        <v>6</v>
+      </c>
       <c r="AA13" s="8"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="8"/>
@@ -38520,7 +38848,9 @@
       <c r="Y14" s="8">
         <v>8</v>
       </c>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="8">
+        <v>2</v>
+      </c>
       <c r="AA14" s="8"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="8"/>
@@ -38625,7 +38955,9 @@
       <c r="Y15" s="8">
         <v>0</v>
       </c>
-      <c r="Z15" s="8"/>
+      <c r="Z15" s="8">
+        <v>0</v>
+      </c>
       <c r="AA15" s="8"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="8"/>
@@ -38731,7 +39063,9 @@
       <c r="Y16" s="8">
         <v>83</v>
       </c>
-      <c r="Z16" s="8"/>
+      <c r="Z16" s="8">
+        <v>72</v>
+      </c>
       <c r="AA16" s="8"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="8"/>
@@ -38836,7 +39170,9 @@
       <c r="Y17" s="8">
         <v>39</v>
       </c>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="8">
+        <v>49</v>
+      </c>
       <c r="AA17" s="8"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="8"/>
@@ -38942,7 +39278,9 @@
       <c r="Y18" s="8">
         <v>989</v>
       </c>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="8">
+        <v>720</v>
+      </c>
       <c r="AA18" s="8"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="8"/>
@@ -38976,7 +39314,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -39048,7 +39386,9 @@
       <c r="Y19" s="8">
         <v>11</v>
       </c>
-      <c r="Z19" s="8"/>
+      <c r="Z19" s="8">
+        <v>7</v>
+      </c>
       <c r="AA19" s="8"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="8"/>
@@ -39082,7 +39422,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -39152,7 +39492,9 @@
       <c r="Y20" s="8">
         <v>101</v>
       </c>
-      <c r="Z20" s="8"/>
+      <c r="Z20" s="8">
+        <v>90</v>
+      </c>
       <c r="AA20" s="8"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="8"/>
@@ -39186,7 +39528,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="58"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -39256,7 +39598,9 @@
       <c r="Y21" s="8">
         <v>11</v>
       </c>
-      <c r="Z21" s="8"/>
+      <c r="Z21" s="8">
+        <v>11</v>
+      </c>
       <c r="AA21" s="8"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="8"/>
@@ -39361,7 +39705,9 @@
       <c r="Y22" s="8">
         <v>4</v>
       </c>
-      <c r="Z22" s="8"/>
+      <c r="Z22" s="8">
+        <v>2</v>
+      </c>
       <c r="AA22" s="8"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="8"/>
@@ -39466,7 +39812,9 @@
       <c r="Y23" s="8">
         <v>1</v>
       </c>
-      <c r="Z23" s="8"/>
+      <c r="Z23" s="8">
+        <v>1</v>
+      </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="8"/>
@@ -39571,7 +39919,9 @@
       <c r="Y24" s="8">
         <v>4</v>
       </c>
-      <c r="Z24" s="8"/>
+      <c r="Z24" s="8">
+        <v>2</v>
+      </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="8"/>
@@ -39676,7 +40026,9 @@
       <c r="Y25" s="8">
         <v>0</v>
       </c>
-      <c r="Z25" s="8"/>
+      <c r="Z25" s="8">
+        <v>0</v>
+      </c>
       <c r="AA25" s="8"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="8"/>
@@ -39781,7 +40133,9 @@
       <c r="Y26" s="8">
         <v>3</v>
       </c>
-      <c r="Z26" s="8"/>
+      <c r="Z26" s="8">
+        <v>4</v>
+      </c>
       <c r="AA26" s="8"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="8"/>
@@ -39886,7 +40240,9 @@
       <c r="Y27" s="8">
         <v>0</v>
       </c>
-      <c r="Z27" s="8"/>
+      <c r="Z27" s="8">
+        <v>0</v>
+      </c>
       <c r="AA27" s="8"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="8"/>
@@ -39991,7 +40347,9 @@
       <c r="Y28" s="8">
         <v>0</v>
       </c>
-      <c r="Z28" s="8"/>
+      <c r="Z28" s="8">
+        <v>0</v>
+      </c>
       <c r="AA28" s="8"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="8"/>
@@ -40024,7 +40382,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="56" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -40096,7 +40454,9 @@
       <c r="Y29" s="8">
         <v>7</v>
       </c>
-      <c r="Z29" s="8"/>
+      <c r="Z29" s="8">
+        <v>1</v>
+      </c>
       <c r="AA29" s="8"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="8"/>
@@ -40129,7 +40489,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -40199,7 +40559,9 @@
       <c r="Y30" s="8">
         <v>7</v>
       </c>
-      <c r="Z30" s="8"/>
+      <c r="Z30" s="8">
+        <v>10</v>
+      </c>
       <c r="AA30" s="8"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="8"/>
@@ -40305,7 +40667,9 @@
       <c r="Y31" s="8">
         <v>17</v>
       </c>
-      <c r="Z31" s="8"/>
+      <c r="Z31" s="8">
+        <v>16</v>
+      </c>
       <c r="AA31" s="8"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="8"/>
@@ -40410,7 +40774,9 @@
       <c r="Y32" s="8">
         <v>0</v>
       </c>
-      <c r="Z32" s="8"/>
+      <c r="Z32" s="8">
+        <v>2</v>
+      </c>
       <c r="AA32" s="8"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="8"/>
@@ -40515,7 +40881,9 @@
       <c r="Y33" s="8">
         <v>0</v>
       </c>
-      <c r="Z33" s="8"/>
+      <c r="Z33" s="8">
+        <v>0</v>
+      </c>
       <c r="AA33" s="8"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="8"/>
@@ -40621,7 +40989,9 @@
       <c r="Y34" s="8">
         <v>46</v>
       </c>
-      <c r="Z34" s="8"/>
+      <c r="Z34" s="8">
+        <v>25</v>
+      </c>
       <c r="AA34" s="8"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="8"/>
@@ -40655,7 +41025,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -40727,7 +41097,9 @@
       <c r="Y35" s="8">
         <v>126</v>
       </c>
-      <c r="Z35" s="8"/>
+      <c r="Z35" s="8">
+        <v>152</v>
+      </c>
       <c r="AA35" s="8"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="8"/>
@@ -40760,7 +41132,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="58"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -40830,7 +41202,9 @@
       <c r="Y36" s="8">
         <v>10</v>
       </c>
-      <c r="Z36" s="8"/>
+      <c r="Z36" s="8">
+        <v>5</v>
+      </c>
       <c r="AA36" s="8"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="8"/>
@@ -40936,7 +41310,9 @@
       <c r="Y37" s="8">
         <v>14</v>
       </c>
-      <c r="Z37" s="8"/>
+      <c r="Z37" s="8">
+        <v>15</v>
+      </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="8"/>
@@ -41041,7 +41417,9 @@
       <c r="Y38" s="8">
         <v>3</v>
       </c>
-      <c r="Z38" s="8"/>
+      <c r="Z38" s="8">
+        <v>3</v>
+      </c>
       <c r="AA38" s="8"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="8"/>
@@ -41146,7 +41524,9 @@
       <c r="Y39" s="8">
         <v>4</v>
       </c>
-      <c r="Z39" s="8"/>
+      <c r="Z39" s="8">
+        <v>4</v>
+      </c>
       <c r="AA39" s="8"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="8"/>
@@ -41251,7 +41631,9 @@
       <c r="Y40" s="8">
         <v>0</v>
       </c>
-      <c r="Z40" s="8"/>
+      <c r="Z40" s="8">
+        <v>0</v>
+      </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="8"/>
@@ -41356,7 +41738,9 @@
       <c r="Y41" s="8">
         <v>0</v>
       </c>
-      <c r="Z41" s="8"/>
+      <c r="Z41" s="8">
+        <v>0</v>
+      </c>
       <c r="AA41" s="8"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="8"/>
@@ -41461,7 +41845,9 @@
       <c r="Y42" s="8">
         <v>4</v>
       </c>
-      <c r="Z42" s="8"/>
+      <c r="Z42" s="8">
+        <v>1</v>
+      </c>
       <c r="AA42" s="8"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="8"/>
@@ -41566,7 +41952,9 @@
       <c r="Y43" s="8">
         <v>17</v>
       </c>
-      <c r="Z43" s="8"/>
+      <c r="Z43" s="8">
+        <v>21</v>
+      </c>
       <c r="AA43" s="8"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="8"/>
@@ -41671,7 +42059,9 @@
       <c r="Y44" s="8">
         <v>2</v>
       </c>
-      <c r="Z44" s="8"/>
+      <c r="Z44" s="8">
+        <v>3</v>
+      </c>
       <c r="AA44" s="8"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="8"/>
@@ -41776,7 +42166,9 @@
       <c r="Y45" s="8">
         <v>8</v>
       </c>
-      <c r="Z45" s="8"/>
+      <c r="Z45" s="8">
+        <v>3</v>
+      </c>
       <c r="AA45" s="8"/>
       <c r="AB45" s="15"/>
       <c r="AC45" s="8"/>
@@ -41881,7 +42273,9 @@
       <c r="Y46" s="8">
         <v>6</v>
       </c>
-      <c r="Z46" s="8"/>
+      <c r="Z46" s="8">
+        <v>6</v>
+      </c>
       <c r="AA46" s="8"/>
       <c r="AB46" s="15"/>
       <c r="AC46" s="8"/>
@@ -41986,7 +42380,9 @@
       <c r="Y47" s="8">
         <v>1</v>
       </c>
-      <c r="Z47" s="8"/>
+      <c r="Z47" s="8">
+        <v>2</v>
+      </c>
       <c r="AA47" s="8"/>
       <c r="AB47" s="15"/>
       <c r="AC47" s="8"/>
@@ -42091,7 +42487,9 @@
       <c r="Y48" s="8">
         <v>1</v>
       </c>
-      <c r="Z48" s="8"/>
+      <c r="Z48" s="8">
+        <v>2</v>
+      </c>
       <c r="AA48" s="8"/>
       <c r="AB48" s="15"/>
       <c r="AC48" s="8"/>
@@ -42125,7 +42523,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -42197,7 +42595,9 @@
       <c r="Y49" s="8">
         <v>13</v>
       </c>
-      <c r="Z49" s="8"/>
+      <c r="Z49" s="8">
+        <v>8</v>
+      </c>
       <c r="AA49" s="8"/>
       <c r="AB49" s="15"/>
       <c r="AC49" s="8"/>
@@ -42230,7 +42630,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -42300,7 +42700,9 @@
       <c r="Y50" s="8">
         <v>5</v>
       </c>
-      <c r="Z50" s="8"/>
+      <c r="Z50" s="8">
+        <v>5</v>
+      </c>
       <c r="AA50" s="8"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="8"/>
@@ -42405,7 +42807,9 @@
       <c r="Y51" s="8">
         <v>1</v>
       </c>
-      <c r="Z51" s="8"/>
+      <c r="Z51" s="8">
+        <v>7</v>
+      </c>
       <c r="AA51" s="8"/>
       <c r="AB51" s="15"/>
       <c r="AC51" s="8"/>
@@ -42510,7 +42914,9 @@
       <c r="Y52" s="8">
         <v>4</v>
       </c>
-      <c r="Z52" s="8"/>
+      <c r="Z52" s="8">
+        <v>1</v>
+      </c>
       <c r="AA52" s="8"/>
       <c r="AB52" s="15"/>
       <c r="AC52" s="8"/>
@@ -42615,7 +43021,9 @@
       <c r="Y53" s="8">
         <v>2</v>
       </c>
-      <c r="Z53" s="8"/>
+      <c r="Z53" s="8">
+        <v>6</v>
+      </c>
       <c r="AA53" s="8"/>
       <c r="AB53" s="15"/>
       <c r="AC53" s="8"/>
@@ -42720,7 +43128,9 @@
       <c r="Y54" s="8">
         <v>2</v>
       </c>
-      <c r="Z54" s="8"/>
+      <c r="Z54" s="8">
+        <v>2</v>
+      </c>
       <c r="AA54" s="8"/>
       <c r="AB54" s="15"/>
       <c r="AC54" s="8"/>
@@ -42825,7 +43235,9 @@
       <c r="Y55" s="8">
         <v>9</v>
       </c>
-      <c r="Z55" s="8"/>
+      <c r="Z55" s="8">
+        <v>5</v>
+      </c>
       <c r="AA55" s="8"/>
       <c r="AB55" s="15"/>
       <c r="AC55" s="8"/>
@@ -42930,7 +43342,9 @@
       <c r="Y56" s="8">
         <v>0</v>
       </c>
-      <c r="Z56" s="8"/>
+      <c r="Z56" s="8">
+        <v>2</v>
+      </c>
       <c r="AA56" s="8"/>
       <c r="AB56" s="15"/>
       <c r="AC56" s="8"/>
@@ -43035,7 +43449,9 @@
       <c r="Y57" s="8">
         <v>0</v>
       </c>
-      <c r="Z57" s="8"/>
+      <c r="Z57" s="8">
+        <v>0</v>
+      </c>
       <c r="AA57" s="8"/>
       <c r="AB57" s="15"/>
       <c r="AC57" s="8"/>
@@ -43162,7 +43578,7 @@
       </c>
       <c r="Z58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="AA58" s="14">
         <f t="shared" si="0"/>
@@ -43308,6 +43724,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="D3:AD3"/>
     <mergeCell ref="D2:AD2"/>
     <mergeCell ref="B29:B30"/>
@@ -43324,53 +43787,6 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\ＪＯＢ030907-2\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\ＪＯＢ030914-3\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2966,6 +2966,79 @@
             <a:latin typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="182563" marR="0" lvl="0" indent="-182563" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>５　本調査には保健所等により医療機関への受入れ照会が行われたものは含まれない。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="182563" marR="0" lvl="0" indent="-182563" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3291,6 +3364,7 @@
                 <a:prstClr val="black"/>
               </a:solidFill>
               <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:rPr>
             <a:t>※</a:t>
           </a:r>
@@ -3300,9 +3374,82 @@
                 <a:prstClr val="black"/>
               </a:solidFill>
               <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:rPr>
             <a:t>３　医療機関の受け入れ体制確保等に向け、厚生労働省及び都道府県等と状況を共有。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="182563" marR="0" lvl="0" indent="-182563" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>４</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　本調査には保健所等により医療機関への受入れ照会が行われたものは含まれない。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="182563" lvl="0" indent="-182563">
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
               <a:prstClr val="black"/>
@@ -3329,8 +3476,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>357910</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161637</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3345,8 +3492,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713716" y="28908622"/>
-          <a:ext cx="22801739" cy="2067833"/>
+          <a:off x="2726705" y="29521974"/>
+          <a:ext cx="22650205" cy="2450276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3801,6 +3948,120 @@
             </a:rPr>
             <a:t>この数値は速報値である。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>６</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　本調査には保健所等により医療機関への受入れ照会が行われたものは含まれない。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4302,6 +4563,92 @@
             </a:rPr>
             <a:t>この数値は速報値である。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>６</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　本調査には保健所等により医療機関への受入れ照会が行われたものは含まれない。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4578,11 +4925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BD43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BZ4" sqref="BZ4:BZ5"/>
+      <selection pane="bottomRight" activeCell="CA4" sqref="CA4:CA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5343,7 +5690,9 @@
       <c r="BZ6" s="8">
         <v>68</v>
       </c>
-      <c r="CA6" s="8"/>
+      <c r="CA6" s="8">
+        <v>81</v>
+      </c>
       <c r="CB6" s="15"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -5580,7 +5929,9 @@
       <c r="BZ7" s="8">
         <v>0</v>
       </c>
-      <c r="CA7" s="8"/>
+      <c r="CA7" s="8">
+        <v>0</v>
+      </c>
       <c r="CB7" s="15"/>
       <c r="CC7" s="8"/>
       <c r="CD7" s="8"/>
@@ -5817,7 +6168,9 @@
       <c r="BZ8" s="8">
         <v>4</v>
       </c>
-      <c r="CA8" s="8"/>
+      <c r="CA8" s="8">
+        <v>7</v>
+      </c>
       <c r="CB8" s="15"/>
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
@@ -6055,7 +6408,9 @@
       <c r="BZ9" s="8">
         <v>51</v>
       </c>
-      <c r="CA9" s="8"/>
+      <c r="CA9" s="8">
+        <v>36</v>
+      </c>
       <c r="CB9" s="15"/>
       <c r="CC9" s="8"/>
       <c r="CD9" s="8"/>
@@ -6292,7 +6647,9 @@
       <c r="BZ10" s="8">
         <v>0</v>
       </c>
-      <c r="CA10" s="8"/>
+      <c r="CA10" s="8">
+        <v>0</v>
+      </c>
       <c r="CB10" s="15"/>
       <c r="CC10" s="8"/>
       <c r="CD10" s="8"/>
@@ -6529,7 +6886,9 @@
       <c r="BZ11" s="8">
         <v>6</v>
       </c>
-      <c r="CA11" s="8"/>
+      <c r="CA11" s="8">
+        <v>6</v>
+      </c>
       <c r="CB11" s="15"/>
       <c r="CC11" s="8"/>
       <c r="CD11" s="8"/>
@@ -6766,7 +7125,9 @@
       <c r="BZ12" s="8">
         <v>2</v>
       </c>
-      <c r="CA12" s="8"/>
+      <c r="CA12" s="8">
+        <v>2</v>
+      </c>
       <c r="CB12" s="15"/>
       <c r="CC12" s="8"/>
       <c r="CD12" s="8"/>
@@ -7003,7 +7364,9 @@
       <c r="BZ13" s="8">
         <v>12</v>
       </c>
-      <c r="CA13" s="8"/>
+      <c r="CA13" s="8">
+        <v>8</v>
+      </c>
       <c r="CB13" s="15"/>
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
@@ -7240,7 +7603,9 @@
       <c r="BZ14" s="8">
         <v>5</v>
       </c>
-      <c r="CA14" s="8"/>
+      <c r="CA14" s="8">
+        <v>9</v>
+      </c>
       <c r="CB14" s="15"/>
       <c r="CC14" s="8"/>
       <c r="CD14" s="8"/>
@@ -7477,7 +7842,9 @@
       <c r="BZ15" s="8">
         <v>0</v>
       </c>
-      <c r="CA15" s="8"/>
+      <c r="CA15" s="8">
+        <v>2</v>
+      </c>
       <c r="CB15" s="15"/>
       <c r="CC15" s="8"/>
       <c r="CD15" s="8"/>
@@ -7715,7 +8082,9 @@
       <c r="BZ16" s="8">
         <v>77</v>
       </c>
-      <c r="CA16" s="8"/>
+      <c r="CA16" s="8">
+        <v>71</v>
+      </c>
       <c r="CB16" s="15"/>
       <c r="CC16" s="8"/>
       <c r="CD16" s="8"/>
@@ -7952,7 +8321,9 @@
       <c r="BZ17" s="8">
         <v>100</v>
       </c>
-      <c r="CA17" s="8"/>
+      <c r="CA17" s="8">
+        <v>104</v>
+      </c>
       <c r="CB17" s="16"/>
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
@@ -8190,7 +8561,9 @@
       <c r="BZ18" s="8">
         <v>1208</v>
       </c>
-      <c r="CA18" s="8"/>
+      <c r="CA18" s="8">
+        <v>1105</v>
+      </c>
       <c r="CB18" s="17"/>
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
@@ -8428,7 +8801,9 @@
       <c r="BZ19" s="8">
         <v>45</v>
       </c>
-      <c r="CA19" s="8"/>
+      <c r="CA19" s="8">
+        <v>33</v>
+      </c>
       <c r="CB19" s="15"/>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
@@ -8664,7 +9039,9 @@
       <c r="BZ20" s="8">
         <v>277</v>
       </c>
-      <c r="CA20" s="8"/>
+      <c r="CA20" s="8">
+        <v>150</v>
+      </c>
       <c r="CB20" s="16"/>
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
@@ -8900,7 +9277,9 @@
       <c r="BZ21" s="8">
         <v>32</v>
       </c>
-      <c r="CA21" s="8"/>
+      <c r="CA21" s="8">
+        <v>21</v>
+      </c>
       <c r="CB21" s="15"/>
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
@@ -9137,7 +9516,9 @@
       <c r="BZ22" s="8">
         <v>4</v>
       </c>
-      <c r="CA22" s="8"/>
+      <c r="CA22" s="8">
+        <v>10</v>
+      </c>
       <c r="CB22" s="15"/>
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
@@ -9374,7 +9755,9 @@
       <c r="BZ23" s="8">
         <v>1</v>
       </c>
-      <c r="CA23" s="8"/>
+      <c r="CA23" s="8">
+        <v>0</v>
+      </c>
       <c r="CB23" s="15"/>
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
@@ -9611,7 +9994,9 @@
       <c r="BZ24" s="8">
         <v>3</v>
       </c>
-      <c r="CA24" s="8"/>
+      <c r="CA24" s="8">
+        <v>2</v>
+      </c>
       <c r="CB24" s="15"/>
       <c r="CC24" s="8"/>
       <c r="CD24" s="8"/>
@@ -9848,7 +10233,9 @@
       <c r="BZ25" s="8">
         <v>0</v>
       </c>
-      <c r="CA25" s="8"/>
+      <c r="CA25" s="8">
+        <v>1</v>
+      </c>
       <c r="CB25" s="15"/>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
@@ -10085,7 +10472,9 @@
       <c r="BZ26" s="8">
         <v>7</v>
       </c>
-      <c r="CA26" s="8"/>
+      <c r="CA26" s="8">
+        <v>9</v>
+      </c>
       <c r="CB26" s="15"/>
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
@@ -10322,7 +10711,9 @@
       <c r="BZ27" s="8">
         <v>0</v>
       </c>
-      <c r="CA27" s="8"/>
+      <c r="CA27" s="8">
+        <v>0</v>
+      </c>
       <c r="CB27" s="15"/>
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
@@ -10559,7 +10950,9 @@
       <c r="BZ28" s="8">
         <v>0</v>
       </c>
-      <c r="CA28" s="8"/>
+      <c r="CA28" s="8">
+        <v>0</v>
+      </c>
       <c r="CB28" s="15"/>
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
@@ -10796,7 +11189,9 @@
       <c r="BZ29" s="8">
         <v>1</v>
       </c>
-      <c r="CA29" s="8"/>
+      <c r="CA29" s="8">
+        <v>3</v>
+      </c>
       <c r="CB29" s="15"/>
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
@@ -11031,7 +11426,9 @@
       <c r="BZ30" s="8">
         <v>10</v>
       </c>
-      <c r="CA30" s="8"/>
+      <c r="CA30" s="8">
+        <v>4</v>
+      </c>
       <c r="CB30" s="15"/>
       <c r="CC30" s="8"/>
       <c r="CD30" s="8"/>
@@ -11269,7 +11666,9 @@
       <c r="BZ31" s="8">
         <v>44</v>
       </c>
-      <c r="CA31" s="8"/>
+      <c r="CA31" s="8">
+        <v>21</v>
+      </c>
       <c r="CB31" s="15"/>
       <c r="CC31" s="8"/>
       <c r="CD31" s="8"/>
@@ -11506,7 +11905,9 @@
       <c r="BZ32" s="8">
         <v>3</v>
       </c>
-      <c r="CA32" s="8"/>
+      <c r="CA32" s="8">
+        <v>1</v>
+      </c>
       <c r="CB32" s="15"/>
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
@@ -11743,7 +12144,9 @@
       <c r="BZ33" s="8">
         <v>0</v>
       </c>
-      <c r="CA33" s="8"/>
+      <c r="CA33" s="8">
+        <v>0</v>
+      </c>
       <c r="CB33" s="15"/>
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
@@ -11981,7 +12384,9 @@
       <c r="BZ34" s="8">
         <v>39</v>
       </c>
-      <c r="CA34" s="8"/>
+      <c r="CA34" s="8">
+        <v>21</v>
+      </c>
       <c r="CB34" s="15"/>
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
@@ -12219,7 +12624,9 @@
       <c r="BZ35" s="8">
         <v>242</v>
       </c>
-      <c r="CA35" s="8"/>
+      <c r="CA35" s="8">
+        <v>251</v>
+      </c>
       <c r="CB35" s="16"/>
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
@@ -12454,7 +12861,9 @@
       <c r="BZ36" s="8">
         <v>20</v>
       </c>
-      <c r="CA36" s="8"/>
+      <c r="CA36" s="8">
+        <v>23</v>
+      </c>
       <c r="CB36" s="16"/>
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
@@ -12692,7 +13101,9 @@
       <c r="BZ37" s="8">
         <v>31</v>
       </c>
-      <c r="CA37" s="8"/>
+      <c r="CA37" s="8">
+        <v>36</v>
+      </c>
       <c r="CB37" s="15"/>
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
@@ -12929,7 +13340,9 @@
       <c r="BZ38" s="8">
         <v>9</v>
       </c>
-      <c r="CA38" s="8"/>
+      <c r="CA38" s="8">
+        <v>7</v>
+      </c>
       <c r="CB38" s="15"/>
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
@@ -13166,7 +13579,9 @@
       <c r="BZ39" s="8">
         <v>7</v>
       </c>
-      <c r="CA39" s="8"/>
+      <c r="CA39" s="8">
+        <v>4</v>
+      </c>
       <c r="CB39" s="15"/>
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
@@ -13403,7 +13818,9 @@
       <c r="BZ40" s="8">
         <v>0</v>
       </c>
-      <c r="CA40" s="8"/>
+      <c r="CA40" s="8">
+        <v>0</v>
+      </c>
       <c r="CB40" s="15"/>
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
@@ -13640,7 +14057,9 @@
       <c r="BZ41" s="8">
         <v>0</v>
       </c>
-      <c r="CA41" s="8"/>
+      <c r="CA41" s="8">
+        <v>0</v>
+      </c>
       <c r="CB41" s="15"/>
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
@@ -13877,7 +14296,9 @@
       <c r="BZ42" s="8">
         <v>1</v>
       </c>
-      <c r="CA42" s="8"/>
+      <c r="CA42" s="8">
+        <v>3</v>
+      </c>
       <c r="CB42" s="15"/>
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
@@ -14114,7 +14535,9 @@
       <c r="BZ43" s="8">
         <v>44</v>
       </c>
-      <c r="CA43" s="8"/>
+      <c r="CA43" s="8">
+        <v>32</v>
+      </c>
       <c r="CB43" s="15"/>
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
@@ -14351,7 +14774,9 @@
       <c r="BZ44" s="8">
         <v>3</v>
       </c>
-      <c r="CA44" s="8"/>
+      <c r="CA44" s="8">
+        <v>0</v>
+      </c>
       <c r="CB44" s="15"/>
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
@@ -14588,7 +15013,9 @@
       <c r="BZ45" s="8">
         <v>4</v>
       </c>
-      <c r="CA45" s="8"/>
+      <c r="CA45" s="8">
+        <v>10</v>
+      </c>
       <c r="CB45" s="15"/>
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
@@ -14825,7 +15252,9 @@
       <c r="BZ46" s="8">
         <v>10</v>
       </c>
-      <c r="CA46" s="8"/>
+      <c r="CA46" s="8">
+        <v>3</v>
+      </c>
       <c r="CB46" s="15"/>
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
@@ -15062,7 +15491,9 @@
       <c r="BZ47" s="8">
         <v>2</v>
       </c>
-      <c r="CA47" s="8"/>
+      <c r="CA47" s="8">
+        <v>1</v>
+      </c>
       <c r="CB47" s="15"/>
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
@@ -15299,7 +15730,9 @@
       <c r="BZ48" s="8">
         <v>8</v>
       </c>
-      <c r="CA48" s="8"/>
+      <c r="CA48" s="8">
+        <v>6</v>
+      </c>
       <c r="CB48" s="15"/>
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
@@ -15537,7 +15970,9 @@
       <c r="BZ49" s="8">
         <v>15</v>
       </c>
-      <c r="CA49" s="8"/>
+      <c r="CA49" s="8">
+        <v>19</v>
+      </c>
       <c r="CB49" s="15"/>
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
@@ -15772,7 +16207,9 @@
       <c r="BZ50" s="8">
         <v>5</v>
       </c>
-      <c r="CA50" s="8"/>
+      <c r="CA50" s="8">
+        <v>3</v>
+      </c>
       <c r="CB50" s="15"/>
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
@@ -16009,7 +16446,9 @@
       <c r="BZ51" s="8">
         <v>7</v>
       </c>
-      <c r="CA51" s="8"/>
+      <c r="CA51" s="8">
+        <v>2</v>
+      </c>
       <c r="CB51" s="15"/>
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
@@ -16246,7 +16685,9 @@
       <c r="BZ52" s="8">
         <v>1</v>
       </c>
-      <c r="CA52" s="8"/>
+      <c r="CA52" s="8">
+        <v>5</v>
+      </c>
       <c r="CB52" s="15"/>
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
@@ -16483,7 +16924,9 @@
       <c r="BZ53" s="8">
         <v>13</v>
       </c>
-      <c r="CA53" s="8"/>
+      <c r="CA53" s="8">
+        <v>19</v>
+      </c>
       <c r="CB53" s="15"/>
       <c r="CC53" s="8"/>
       <c r="CD53" s="8"/>
@@ -16720,7 +17163,9 @@
       <c r="BZ54" s="8">
         <v>7</v>
       </c>
-      <c r="CA54" s="8"/>
+      <c r="CA54" s="8">
+        <v>7</v>
+      </c>
       <c r="CB54" s="15"/>
       <c r="CC54" s="8"/>
       <c r="CD54" s="8"/>
@@ -16957,7 +17402,9 @@
       <c r="BZ55" s="8">
         <v>6</v>
       </c>
-      <c r="CA55" s="8"/>
+      <c r="CA55" s="8">
+        <v>9</v>
+      </c>
       <c r="CB55" s="15"/>
       <c r="CC55" s="8"/>
       <c r="CD55" s="8"/>
@@ -17194,7 +17641,9 @@
       <c r="BZ56" s="8">
         <v>2</v>
       </c>
-      <c r="CA56" s="8"/>
+      <c r="CA56" s="8">
+        <v>3</v>
+      </c>
       <c r="CB56" s="15"/>
       <c r="CC56" s="8"/>
       <c r="CD56" s="8"/>
@@ -17431,7 +17880,9 @@
       <c r="BZ57" s="8">
         <v>1</v>
       </c>
-      <c r="CA57" s="8"/>
+      <c r="CA57" s="8">
+        <v>1</v>
+      </c>
       <c r="CB57" s="15"/>
       <c r="CC57" s="8"/>
       <c r="CD57" s="8"/>
@@ -17743,7 +18194,7 @@
       </c>
       <c r="CA58" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2151</v>
       </c>
       <c r="CB58" s="14">
         <f t="shared" si="3"/>
@@ -18119,11 +18570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BQ44" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CA63" sqref="CA63"/>
+      <selection pane="bottomRight" activeCell="H74" sqref="H74:H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18883,7 +19334,9 @@
       <c r="BZ6" s="8">
         <v>41</v>
       </c>
-      <c r="CA6" s="8"/>
+      <c r="CA6" s="8">
+        <v>59</v>
+      </c>
       <c r="CB6" s="15"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -19120,7 +19573,9 @@
       <c r="BZ7" s="8">
         <v>1</v>
       </c>
-      <c r="CA7" s="8"/>
+      <c r="CA7" s="8">
+        <v>1</v>
+      </c>
       <c r="CB7" s="15"/>
       <c r="CC7" s="8"/>
       <c r="CD7" s="8"/>
@@ -19357,7 +19812,9 @@
       <c r="BZ8" s="8">
         <v>3</v>
       </c>
-      <c r="CA8" s="8"/>
+      <c r="CA8" s="8">
+        <v>0</v>
+      </c>
       <c r="CB8" s="15"/>
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
@@ -19594,7 +20051,9 @@
       <c r="BZ9" s="8">
         <v>30</v>
       </c>
-      <c r="CA9" s="8"/>
+      <c r="CA9" s="8">
+        <v>22</v>
+      </c>
       <c r="CB9" s="15"/>
       <c r="CC9" s="8"/>
       <c r="CD9" s="8"/>
@@ -19831,7 +20290,9 @@
       <c r="BZ10" s="8">
         <v>0</v>
       </c>
-      <c r="CA10" s="8"/>
+      <c r="CA10" s="8">
+        <v>0</v>
+      </c>
       <c r="CB10" s="15"/>
       <c r="CC10" s="8"/>
       <c r="CD10" s="8"/>
@@ -20068,7 +20529,9 @@
       <c r="BZ11" s="8">
         <v>5</v>
       </c>
-      <c r="CA11" s="8"/>
+      <c r="CA11" s="8">
+        <v>2</v>
+      </c>
       <c r="CB11" s="15"/>
       <c r="CC11" s="8"/>
       <c r="CD11" s="8"/>
@@ -20305,7 +20768,9 @@
       <c r="BZ12" s="8">
         <v>4</v>
       </c>
-      <c r="CA12" s="8"/>
+      <c r="CA12" s="8">
+        <v>3</v>
+      </c>
       <c r="CB12" s="15"/>
       <c r="CC12" s="8"/>
       <c r="CD12" s="8"/>
@@ -20542,7 +21007,9 @@
       <c r="BZ13" s="8">
         <v>19</v>
       </c>
-      <c r="CA13" s="8"/>
+      <c r="CA13" s="8">
+        <v>12</v>
+      </c>
       <c r="CB13" s="15"/>
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
@@ -20779,7 +21246,9 @@
       <c r="BZ14" s="8">
         <v>2</v>
       </c>
-      <c r="CA14" s="8"/>
+      <c r="CA14" s="8">
+        <v>5</v>
+      </c>
       <c r="CB14" s="15"/>
       <c r="CC14" s="8"/>
       <c r="CD14" s="8"/>
@@ -21016,7 +21485,9 @@
       <c r="BZ15" s="8">
         <v>1</v>
       </c>
-      <c r="CA15" s="8"/>
+      <c r="CA15" s="8">
+        <v>1</v>
+      </c>
       <c r="CB15" s="15"/>
       <c r="CC15" s="8"/>
       <c r="CD15" s="8"/>
@@ -21253,7 +21724,9 @@
       <c r="BZ16" s="8">
         <v>30</v>
       </c>
-      <c r="CA16" s="8"/>
+      <c r="CA16" s="8">
+        <v>28</v>
+      </c>
       <c r="CB16" s="15"/>
       <c r="CC16" s="8"/>
       <c r="CD16" s="8"/>
@@ -21490,7 +21963,9 @@
       <c r="BZ17" s="8">
         <v>79</v>
       </c>
-      <c r="CA17" s="8"/>
+      <c r="CA17" s="8">
+        <v>75</v>
+      </c>
       <c r="CB17" s="16"/>
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
@@ -21727,7 +22202,9 @@
       <c r="BZ18" s="8">
         <v>600</v>
       </c>
-      <c r="CA18" s="8"/>
+      <c r="CA18" s="8">
+        <v>525</v>
+      </c>
       <c r="CB18" s="17"/>
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
@@ -21964,7 +22441,9 @@
       <c r="BZ19" s="8">
         <v>11</v>
       </c>
-      <c r="CA19" s="8"/>
+      <c r="CA19" s="8">
+        <v>18</v>
+      </c>
       <c r="CB19" s="15"/>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
@@ -22199,7 +22678,9 @@
       <c r="BZ20" s="8">
         <v>60</v>
       </c>
-      <c r="CA20" s="8"/>
+      <c r="CA20" s="8">
+        <v>63</v>
+      </c>
       <c r="CB20" s="16"/>
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
@@ -22434,7 +22915,9 @@
       <c r="BZ21" s="8">
         <v>24</v>
       </c>
-      <c r="CA21" s="8"/>
+      <c r="CA21" s="8">
+        <v>16</v>
+      </c>
       <c r="CB21" s="15"/>
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
@@ -22671,7 +23154,9 @@
       <c r="BZ22" s="8">
         <v>15</v>
       </c>
-      <c r="CA22" s="8"/>
+      <c r="CA22" s="8">
+        <v>13</v>
+      </c>
       <c r="CB22" s="15"/>
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
@@ -22908,7 +23393,9 @@
       <c r="BZ23" s="8">
         <v>0</v>
       </c>
-      <c r="CA23" s="8"/>
+      <c r="CA23" s="8">
+        <v>1</v>
+      </c>
       <c r="CB23" s="15"/>
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
@@ -23145,7 +23632,9 @@
       <c r="BZ24" s="8">
         <v>2</v>
       </c>
-      <c r="CA24" s="8"/>
+      <c r="CA24" s="8">
+        <v>5</v>
+      </c>
       <c r="CB24" s="15"/>
       <c r="CC24" s="8"/>
       <c r="CD24" s="8"/>
@@ -23382,7 +23871,9 @@
       <c r="BZ25" s="8">
         <v>0</v>
       </c>
-      <c r="CA25" s="8"/>
+      <c r="CA25" s="8">
+        <v>0</v>
+      </c>
       <c r="CB25" s="15"/>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
@@ -23619,7 +24110,9 @@
       <c r="BZ26" s="8">
         <v>5</v>
       </c>
-      <c r="CA26" s="8"/>
+      <c r="CA26" s="8">
+        <v>4</v>
+      </c>
       <c r="CB26" s="15"/>
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
@@ -23856,7 +24349,9 @@
       <c r="BZ27" s="8">
         <v>0</v>
       </c>
-      <c r="CA27" s="8"/>
+      <c r="CA27" s="8">
+        <v>0</v>
+      </c>
       <c r="CB27" s="15"/>
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
@@ -24093,7 +24588,9 @@
       <c r="BZ28" s="8">
         <v>2</v>
       </c>
-      <c r="CA28" s="8"/>
+      <c r="CA28" s="8">
+        <v>0</v>
+      </c>
       <c r="CB28" s="15"/>
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
@@ -24330,7 +24827,9 @@
       <c r="BZ29" s="8">
         <v>0</v>
       </c>
-      <c r="CA29" s="8"/>
+      <c r="CA29" s="8">
+        <v>5</v>
+      </c>
       <c r="CB29" s="15"/>
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
@@ -24565,7 +25064,9 @@
       <c r="BZ30" s="8">
         <v>0</v>
       </c>
-      <c r="CA30" s="8"/>
+      <c r="CA30" s="8">
+        <v>1</v>
+      </c>
       <c r="CB30" s="15"/>
       <c r="CC30" s="8"/>
       <c r="CD30" s="8"/>
@@ -24802,7 +25303,9 @@
       <c r="BZ31" s="8">
         <v>17</v>
       </c>
-      <c r="CA31" s="8"/>
+      <c r="CA31" s="8">
+        <v>11</v>
+      </c>
       <c r="CB31" s="15"/>
       <c r="CC31" s="8"/>
       <c r="CD31" s="8"/>
@@ -25039,7 +25542,9 @@
       <c r="BZ32" s="8">
         <v>1</v>
       </c>
-      <c r="CA32" s="8"/>
+      <c r="CA32" s="8">
+        <v>0</v>
+      </c>
       <c r="CB32" s="15"/>
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
@@ -25276,7 +25781,9 @@
       <c r="BZ33" s="8">
         <v>0</v>
       </c>
-      <c r="CA33" s="8"/>
+      <c r="CA33" s="8">
+        <v>0</v>
+      </c>
       <c r="CB33" s="15"/>
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
@@ -25513,7 +26020,9 @@
       <c r="BZ34" s="8">
         <v>21</v>
       </c>
-      <c r="CA34" s="8"/>
+      <c r="CA34" s="8">
+        <v>17</v>
+      </c>
       <c r="CB34" s="15"/>
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
@@ -25750,7 +26259,9 @@
       <c r="BZ35" s="8">
         <v>206</v>
       </c>
-      <c r="CA35" s="8"/>
+      <c r="CA35" s="8">
+        <v>191</v>
+      </c>
       <c r="CB35" s="16"/>
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
@@ -25985,7 +26496,9 @@
       <c r="BZ36" s="8">
         <v>17</v>
       </c>
-      <c r="CA36" s="8"/>
+      <c r="CA36" s="8">
+        <v>18</v>
+      </c>
       <c r="CB36" s="16"/>
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
@@ -26222,7 +26735,9 @@
       <c r="BZ37" s="8">
         <v>16</v>
       </c>
-      <c r="CA37" s="8"/>
+      <c r="CA37" s="8">
+        <v>6</v>
+      </c>
       <c r="CB37" s="15"/>
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
@@ -26459,7 +26974,9 @@
       <c r="BZ38" s="8">
         <v>4</v>
       </c>
-      <c r="CA38" s="8"/>
+      <c r="CA38" s="8">
+        <v>3</v>
+      </c>
       <c r="CB38" s="15"/>
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
@@ -26696,7 +27213,9 @@
       <c r="BZ39" s="8">
         <v>5</v>
       </c>
-      <c r="CA39" s="8"/>
+      <c r="CA39" s="8">
+        <v>3</v>
+      </c>
       <c r="CB39" s="15"/>
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
@@ -26933,7 +27452,9 @@
       <c r="BZ40" s="8">
         <v>0</v>
       </c>
-      <c r="CA40" s="8"/>
+      <c r="CA40" s="8">
+        <v>0</v>
+      </c>
       <c r="CB40" s="15"/>
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
@@ -27170,7 +27691,9 @@
       <c r="BZ41" s="8">
         <v>0</v>
       </c>
-      <c r="CA41" s="8"/>
+      <c r="CA41" s="8">
+        <v>0</v>
+      </c>
       <c r="CB41" s="15"/>
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
@@ -27407,7 +27930,9 @@
       <c r="BZ42" s="8">
         <v>4</v>
       </c>
-      <c r="CA42" s="8"/>
+      <c r="CA42" s="8">
+        <v>2</v>
+      </c>
       <c r="CB42" s="15"/>
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
@@ -27644,7 +28169,9 @@
       <c r="BZ43" s="8">
         <v>30</v>
       </c>
-      <c r="CA43" s="8"/>
+      <c r="CA43" s="8">
+        <v>29</v>
+      </c>
       <c r="CB43" s="15"/>
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
@@ -27881,7 +28408,9 @@
       <c r="BZ44" s="8">
         <v>3</v>
       </c>
-      <c r="CA44" s="8"/>
+      <c r="CA44" s="8">
+        <v>2</v>
+      </c>
       <c r="CB44" s="15"/>
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
@@ -28118,7 +28647,9 @@
       <c r="BZ45" s="8">
         <v>8</v>
       </c>
-      <c r="CA45" s="8"/>
+      <c r="CA45" s="8">
+        <v>5</v>
+      </c>
       <c r="CB45" s="15"/>
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
@@ -28355,7 +28886,9 @@
       <c r="BZ46" s="8">
         <v>5</v>
       </c>
-      <c r="CA46" s="8"/>
+      <c r="CA46" s="8">
+        <v>5</v>
+      </c>
       <c r="CB46" s="15"/>
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
@@ -28592,7 +29125,9 @@
       <c r="BZ47" s="8">
         <v>1</v>
       </c>
-      <c r="CA47" s="8"/>
+      <c r="CA47" s="8">
+        <v>1</v>
+      </c>
       <c r="CB47" s="15"/>
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
@@ -28829,7 +29364,9 @@
       <c r="BZ48" s="8">
         <v>5</v>
       </c>
-      <c r="CA48" s="8"/>
+      <c r="CA48" s="8">
+        <v>6</v>
+      </c>
       <c r="CB48" s="15"/>
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
@@ -29066,7 +29603,9 @@
       <c r="BZ49" s="8">
         <v>20</v>
       </c>
-      <c r="CA49" s="8"/>
+      <c r="CA49" s="8">
+        <v>9</v>
+      </c>
       <c r="CB49" s="15"/>
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
@@ -29301,7 +29840,9 @@
       <c r="BZ50" s="8">
         <v>6</v>
       </c>
-      <c r="CA50" s="8"/>
+      <c r="CA50" s="8">
+        <v>1</v>
+      </c>
       <c r="CB50" s="15"/>
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
@@ -29538,7 +30079,9 @@
       <c r="BZ51" s="8">
         <v>2</v>
       </c>
-      <c r="CA51" s="8"/>
+      <c r="CA51" s="8">
+        <v>1</v>
+      </c>
       <c r="CB51" s="15"/>
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
@@ -29775,7 +30318,9 @@
       <c r="BZ52" s="8">
         <v>4</v>
       </c>
-      <c r="CA52" s="8"/>
+      <c r="CA52" s="8">
+        <v>2</v>
+      </c>
       <c r="CB52" s="15"/>
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
@@ -30012,7 +30557,9 @@
       <c r="BZ53" s="8">
         <v>12</v>
       </c>
-      <c r="CA53" s="8"/>
+      <c r="CA53" s="8">
+        <v>10</v>
+      </c>
       <c r="CB53" s="15"/>
       <c r="CC53" s="8"/>
       <c r="CD53" s="8"/>
@@ -30249,7 +30796,9 @@
       <c r="BZ54" s="8">
         <v>4</v>
       </c>
-      <c r="CA54" s="8"/>
+      <c r="CA54" s="8">
+        <v>6</v>
+      </c>
       <c r="CB54" s="15"/>
       <c r="CC54" s="8"/>
       <c r="CD54" s="8"/>
@@ -30486,7 +31035,9 @@
       <c r="BZ55" s="8">
         <v>3</v>
       </c>
-      <c r="CA55" s="8"/>
+      <c r="CA55" s="8">
+        <v>8</v>
+      </c>
       <c r="CB55" s="15"/>
       <c r="CC55" s="8"/>
       <c r="CD55" s="8"/>
@@ -30723,7 +31274,9 @@
       <c r="BZ56" s="8">
         <v>0</v>
       </c>
-      <c r="CA56" s="8"/>
+      <c r="CA56" s="8">
+        <v>1</v>
+      </c>
       <c r="CB56" s="15"/>
       <c r="CC56" s="8"/>
       <c r="CD56" s="8"/>
@@ -30960,7 +31513,9 @@
       <c r="BZ57" s="8">
         <v>0</v>
       </c>
-      <c r="CA57" s="8"/>
+      <c r="CA57" s="8">
+        <v>0</v>
+      </c>
       <c r="CB57" s="15"/>
       <c r="CC57" s="8"/>
       <c r="CD57" s="8"/>
@@ -31271,7 +31826,7 @@
       </c>
       <c r="CA58" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="CB58" s="28">
         <f t="shared" si="3"/>
@@ -31395,11 +31950,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="S54" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6:Z57"/>
+      <selection pane="bottomRight" activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31794,7 +32349,9 @@
       <c r="Z6" s="8">
         <v>24</v>
       </c>
-      <c r="AA6" s="8"/>
+      <c r="AA6" s="8">
+        <v>27</v>
+      </c>
       <c r="AB6" s="15"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
@@ -31901,7 +32458,9 @@
       <c r="Z7" s="8">
         <v>0</v>
       </c>
-      <c r="AA7" s="8"/>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
       <c r="AB7" s="15"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
@@ -32008,7 +32567,9 @@
       <c r="Z8" s="8">
         <v>0</v>
       </c>
-      <c r="AA8" s="8"/>
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
@@ -32116,7 +32677,9 @@
       <c r="Z9" s="8">
         <v>6</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="AA9" s="8">
+        <v>3</v>
+      </c>
       <c r="AB9" s="15"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
@@ -32223,7 +32786,9 @@
       <c r="Z10" s="8">
         <v>0</v>
       </c>
-      <c r="AA10" s="8"/>
+      <c r="AA10" s="8">
+        <v>0</v>
+      </c>
       <c r="AB10" s="15"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
@@ -32330,7 +32895,9 @@
       <c r="Z11" s="8">
         <v>1</v>
       </c>
-      <c r="AA11" s="8"/>
+      <c r="AA11" s="8">
+        <v>2</v>
+      </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
@@ -32437,7 +33004,9 @@
       <c r="Z12" s="8">
         <v>1</v>
       </c>
-      <c r="AA12" s="8"/>
+      <c r="AA12" s="8">
+        <v>1</v>
+      </c>
       <c r="AB12" s="15"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
@@ -32544,7 +33113,9 @@
       <c r="Z13" s="8">
         <v>6</v>
       </c>
-      <c r="AA13" s="8"/>
+      <c r="AA13" s="8">
+        <v>3</v>
+      </c>
       <c r="AB13" s="15"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
@@ -32651,7 +33222,9 @@
       <c r="Z14" s="8">
         <v>3</v>
       </c>
-      <c r="AA14" s="8"/>
+      <c r="AA14" s="8">
+        <v>4</v>
+      </c>
       <c r="AB14" s="15"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
@@ -32758,7 +33331,9 @@
       <c r="Z15" s="8">
         <v>0</v>
       </c>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="8">
+        <v>1</v>
+      </c>
       <c r="AB15" s="15"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
@@ -32866,7 +33441,9 @@
       <c r="Z16" s="8">
         <v>5</v>
       </c>
-      <c r="AA16" s="8"/>
+      <c r="AA16" s="8">
+        <v>5</v>
+      </c>
       <c r="AB16" s="15"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
@@ -32973,7 +33550,9 @@
       <c r="Z17" s="8">
         <v>51</v>
       </c>
-      <c r="AA17" s="8"/>
+      <c r="AA17" s="8">
+        <v>50</v>
+      </c>
       <c r="AB17" s="16"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
@@ -33081,7 +33660,9 @@
       <c r="Z18" s="8">
         <v>488</v>
       </c>
-      <c r="AA18" s="8"/>
+      <c r="AA18" s="8">
+        <v>312</v>
+      </c>
       <c r="AB18" s="17"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
@@ -33189,7 +33770,9 @@
       <c r="Z19" s="8">
         <v>38</v>
       </c>
-      <c r="AA19" s="8"/>
+      <c r="AA19" s="8">
+        <v>21</v>
+      </c>
       <c r="AB19" s="15"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
@@ -33295,7 +33878,9 @@
       <c r="Z20" s="8">
         <v>187</v>
       </c>
-      <c r="AA20" s="8"/>
+      <c r="AA20" s="8">
+        <v>101</v>
+      </c>
       <c r="AB20" s="16"/>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
@@ -33401,7 +33986,9 @@
       <c r="Z21" s="8">
         <v>21</v>
       </c>
-      <c r="AA21" s="8"/>
+      <c r="AA21" s="8">
+        <v>17</v>
+      </c>
       <c r="AB21" s="15"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
@@ -33508,7 +34095,9 @@
       <c r="Z22" s="8">
         <v>2</v>
       </c>
-      <c r="AA22" s="8"/>
+      <c r="AA22" s="8">
+        <v>4</v>
+      </c>
       <c r="AB22" s="15"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
@@ -33615,7 +34204,9 @@
       <c r="Z23" s="8">
         <v>0</v>
       </c>
-      <c r="AA23" s="8"/>
+      <c r="AA23" s="8">
+        <v>0</v>
+      </c>
       <c r="AB23" s="15"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
@@ -33722,7 +34313,9 @@
       <c r="Z24" s="8">
         <v>1</v>
       </c>
-      <c r="AA24" s="8"/>
+      <c r="AA24" s="8">
+        <v>1</v>
+      </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
@@ -33829,7 +34422,9 @@
       <c r="Z25" s="8">
         <v>0</v>
       </c>
-      <c r="AA25" s="8"/>
+      <c r="AA25" s="8">
+        <v>0</v>
+      </c>
       <c r="AB25" s="15"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
@@ -33936,7 +34531,9 @@
       <c r="Z26" s="8">
         <v>3</v>
       </c>
-      <c r="AA26" s="8"/>
+      <c r="AA26" s="8">
+        <v>3</v>
+      </c>
       <c r="AB26" s="15"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
@@ -34043,7 +34640,9 @@
       <c r="Z27" s="8">
         <v>0</v>
       </c>
-      <c r="AA27" s="8"/>
+      <c r="AA27" s="8">
+        <v>0</v>
+      </c>
       <c r="AB27" s="15"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
@@ -34150,7 +34749,9 @@
       <c r="Z28" s="8">
         <v>0</v>
       </c>
-      <c r="AA28" s="8"/>
+      <c r="AA28" s="8">
+        <v>0</v>
+      </c>
       <c r="AB28" s="15"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
@@ -34257,7 +34858,9 @@
       <c r="Z29" s="8">
         <v>0</v>
       </c>
-      <c r="AA29" s="8"/>
+      <c r="AA29" s="8">
+        <v>1</v>
+      </c>
       <c r="AB29" s="15"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
@@ -34362,7 +34965,9 @@
       <c r="Z30" s="8">
         <v>0</v>
       </c>
-      <c r="AA30" s="8"/>
+      <c r="AA30" s="8">
+        <v>1</v>
+      </c>
       <c r="AB30" s="15"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
@@ -34470,7 +35075,9 @@
       <c r="Z31" s="8">
         <v>28</v>
       </c>
-      <c r="AA31" s="8"/>
+      <c r="AA31" s="8">
+        <v>9</v>
+      </c>
       <c r="AB31" s="15"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
@@ -34577,7 +35184,9 @@
       <c r="Z32" s="8">
         <v>1</v>
       </c>
-      <c r="AA32" s="8"/>
+      <c r="AA32" s="8">
+        <v>0</v>
+      </c>
       <c r="AB32" s="15"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
@@ -34684,7 +35293,9 @@
       <c r="Z33" s="8">
         <v>0</v>
       </c>
-      <c r="AA33" s="8"/>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
       <c r="AB33" s="15"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
@@ -34792,7 +35403,9 @@
       <c r="Z34" s="8">
         <v>14</v>
       </c>
-      <c r="AA34" s="8"/>
+      <c r="AA34" s="8">
+        <v>5</v>
+      </c>
       <c r="AB34" s="15"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
@@ -34900,7 +35513,9 @@
       <c r="Z35" s="8">
         <v>90</v>
       </c>
-      <c r="AA35" s="8"/>
+      <c r="AA35" s="8">
+        <v>81</v>
+      </c>
       <c r="AB35" s="16"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
@@ -35005,7 +35620,9 @@
       <c r="Z36" s="8">
         <v>15</v>
       </c>
-      <c r="AA36" s="8"/>
+      <c r="AA36" s="8">
+        <v>16</v>
+      </c>
       <c r="AB36" s="16"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
@@ -35113,7 +35730,9 @@
       <c r="Z37" s="8">
         <v>16</v>
       </c>
-      <c r="AA37" s="8"/>
+      <c r="AA37" s="8">
+        <v>16</v>
+      </c>
       <c r="AB37" s="15"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
@@ -35220,7 +35839,9 @@
       <c r="Z38" s="8">
         <v>6</v>
       </c>
-      <c r="AA38" s="8"/>
+      <c r="AA38" s="8">
+        <v>3</v>
+      </c>
       <c r="AB38" s="15"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
@@ -35327,7 +35948,9 @@
       <c r="Z39" s="8">
         <v>3</v>
       </c>
-      <c r="AA39" s="8"/>
+      <c r="AA39" s="8">
+        <v>1</v>
+      </c>
       <c r="AB39" s="15"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
@@ -35434,7 +36057,9 @@
       <c r="Z40" s="8">
         <v>0</v>
       </c>
-      <c r="AA40" s="8"/>
+      <c r="AA40" s="8">
+        <v>0</v>
+      </c>
       <c r="AB40" s="15"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
@@ -35541,7 +36166,9 @@
       <c r="Z41" s="8">
         <v>0</v>
       </c>
-      <c r="AA41" s="8"/>
+      <c r="AA41" s="8">
+        <v>0</v>
+      </c>
       <c r="AB41" s="15"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
@@ -35648,7 +36275,9 @@
       <c r="Z42" s="8">
         <v>0</v>
       </c>
-      <c r="AA42" s="8"/>
+      <c r="AA42" s="8">
+        <v>0</v>
+      </c>
       <c r="AB42" s="15"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
@@ -35755,7 +36384,9 @@
       <c r="Z43" s="8">
         <v>23</v>
       </c>
-      <c r="AA43" s="8"/>
+      <c r="AA43" s="8">
+        <v>20</v>
+      </c>
       <c r="AB43" s="15"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
@@ -35862,7 +36493,9 @@
       <c r="Z44" s="8">
         <v>0</v>
       </c>
-      <c r="AA44" s="8"/>
+      <c r="AA44" s="8">
+        <v>0</v>
+      </c>
       <c r="AB44" s="15"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
@@ -35969,7 +36602,9 @@
       <c r="Z45" s="8">
         <v>1</v>
       </c>
-      <c r="AA45" s="8"/>
+      <c r="AA45" s="8">
+        <v>4</v>
+      </c>
       <c r="AB45" s="15"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
@@ -36076,7 +36711,9 @@
       <c r="Z46" s="8">
         <v>4</v>
       </c>
-      <c r="AA46" s="8"/>
+      <c r="AA46" s="8">
+        <v>0</v>
+      </c>
       <c r="AB46" s="15"/>
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
@@ -36183,7 +36820,9 @@
       <c r="Z47" s="8">
         <v>0</v>
       </c>
-      <c r="AA47" s="8"/>
+      <c r="AA47" s="8">
+        <v>0</v>
+      </c>
       <c r="AB47" s="15"/>
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
@@ -36290,7 +36929,9 @@
       <c r="Z48" s="8">
         <v>6</v>
       </c>
-      <c r="AA48" s="8"/>
+      <c r="AA48" s="8">
+        <v>5</v>
+      </c>
       <c r="AB48" s="15"/>
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
@@ -36398,7 +37039,9 @@
       <c r="Z49" s="8">
         <v>7</v>
       </c>
-      <c r="AA49" s="8"/>
+      <c r="AA49" s="8">
+        <v>2</v>
+      </c>
       <c r="AB49" s="15"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
@@ -36503,7 +37146,9 @@
       <c r="Z50" s="8">
         <v>0</v>
       </c>
-      <c r="AA50" s="8"/>
+      <c r="AA50" s="8">
+        <v>1</v>
+      </c>
       <c r="AB50" s="15"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
@@ -36610,7 +37255,9 @@
       <c r="Z51" s="8">
         <v>0</v>
       </c>
-      <c r="AA51" s="8"/>
+      <c r="AA51" s="8">
+        <v>0</v>
+      </c>
       <c r="AB51" s="15"/>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
@@ -36717,7 +37364,9 @@
       <c r="Z52" s="8">
         <v>0</v>
       </c>
-      <c r="AA52" s="8"/>
+      <c r="AA52" s="8">
+        <v>1</v>
+      </c>
       <c r="AB52" s="15"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
@@ -36824,7 +37473,9 @@
       <c r="Z53" s="8">
         <v>7</v>
       </c>
-      <c r="AA53" s="8"/>
+      <c r="AA53" s="8">
+        <v>6</v>
+      </c>
       <c r="AB53" s="15"/>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
@@ -36931,7 +37582,9 @@
       <c r="Z54" s="8">
         <v>5</v>
       </c>
-      <c r="AA54" s="8"/>
+      <c r="AA54" s="8">
+        <v>4</v>
+      </c>
       <c r="AB54" s="15"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
@@ -37038,7 +37691,9 @@
       <c r="Z55" s="8">
         <v>1</v>
       </c>
-      <c r="AA55" s="8"/>
+      <c r="AA55" s="8">
+        <v>0</v>
+      </c>
       <c r="AB55" s="15"/>
       <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
@@ -37145,7 +37800,9 @@
       <c r="Z56" s="8">
         <v>0</v>
       </c>
-      <c r="AA56" s="8"/>
+      <c r="AA56" s="8">
+        <v>2</v>
+      </c>
       <c r="AB56" s="15"/>
       <c r="AC56" s="8"/>
       <c r="AD56" s="8"/>
@@ -37252,7 +37909,9 @@
       <c r="Z57" s="8">
         <v>1</v>
       </c>
-      <c r="AA57" s="8"/>
+      <c r="AA57" s="8">
+        <v>0</v>
+      </c>
       <c r="AB57" s="15"/>
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
@@ -37382,7 +38041,7 @@
       </c>
       <c r="AA58" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="AB58" s="14">
         <f t="shared" si="2"/>
@@ -37603,11 +38262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF61" sqref="AF61"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -37994,7 +38653,9 @@
       <c r="Z6" s="8">
         <v>44</v>
       </c>
-      <c r="AA6" s="8"/>
+      <c r="AA6" s="8">
+        <v>54</v>
+      </c>
       <c r="AB6" s="15"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
@@ -38101,7 +38762,9 @@
       <c r="Z7" s="8">
         <v>0</v>
       </c>
-      <c r="AA7" s="8"/>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
       <c r="AB7" s="15"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
@@ -38208,7 +38871,9 @@
       <c r="Z8" s="8">
         <v>4</v>
       </c>
-      <c r="AA8" s="8"/>
+      <c r="AA8" s="8">
+        <v>7</v>
+      </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
@@ -38316,7 +38981,9 @@
       <c r="Z9" s="8">
         <v>45</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="AA9" s="8">
+        <v>33</v>
+      </c>
       <c r="AB9" s="15"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
@@ -38423,7 +39090,9 @@
       <c r="Z10" s="8">
         <v>0</v>
       </c>
-      <c r="AA10" s="8"/>
+      <c r="AA10" s="8">
+        <v>0</v>
+      </c>
       <c r="AB10" s="15"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
@@ -38530,7 +39199,9 @@
       <c r="Z11" s="8">
         <v>5</v>
       </c>
-      <c r="AA11" s="8"/>
+      <c r="AA11" s="8">
+        <v>4</v>
+      </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
@@ -38637,7 +39308,9 @@
       <c r="Z12" s="8">
         <v>1</v>
       </c>
-      <c r="AA12" s="8"/>
+      <c r="AA12" s="8">
+        <v>1</v>
+      </c>
       <c r="AB12" s="15"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
@@ -38744,7 +39417,9 @@
       <c r="Z13" s="8">
         <v>6</v>
       </c>
-      <c r="AA13" s="8"/>
+      <c r="AA13" s="8">
+        <v>5</v>
+      </c>
       <c r="AB13" s="15"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
@@ -38851,7 +39526,9 @@
       <c r="Z14" s="8">
         <v>2</v>
       </c>
-      <c r="AA14" s="8"/>
+      <c r="AA14" s="8">
+        <v>5</v>
+      </c>
       <c r="AB14" s="15"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
@@ -38958,7 +39635,9 @@
       <c r="Z15" s="8">
         <v>0</v>
       </c>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="8">
+        <v>1</v>
+      </c>
       <c r="AB15" s="15"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
@@ -39066,7 +39745,9 @@
       <c r="Z16" s="8">
         <v>72</v>
       </c>
-      <c r="AA16" s="8"/>
+      <c r="AA16" s="8">
+        <v>66</v>
+      </c>
       <c r="AB16" s="15"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
@@ -39173,7 +39854,9 @@
       <c r="Z17" s="8">
         <v>49</v>
       </c>
-      <c r="AA17" s="8"/>
+      <c r="AA17" s="8">
+        <v>54</v>
+      </c>
       <c r="AB17" s="16"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
@@ -39281,7 +39964,9 @@
       <c r="Z18" s="8">
         <v>720</v>
       </c>
-      <c r="AA18" s="8"/>
+      <c r="AA18" s="8">
+        <v>793</v>
+      </c>
       <c r="AB18" s="17"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
@@ -39389,7 +40074,9 @@
       <c r="Z19" s="8">
         <v>7</v>
       </c>
-      <c r="AA19" s="8"/>
+      <c r="AA19" s="8">
+        <v>12</v>
+      </c>
       <c r="AB19" s="15"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
@@ -39495,7 +40182,9 @@
       <c r="Z20" s="8">
         <v>90</v>
       </c>
-      <c r="AA20" s="8"/>
+      <c r="AA20" s="8">
+        <v>49</v>
+      </c>
       <c r="AB20" s="16"/>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
@@ -39601,7 +40290,9 @@
       <c r="Z21" s="8">
         <v>11</v>
       </c>
-      <c r="AA21" s="8"/>
+      <c r="AA21" s="8">
+        <v>4</v>
+      </c>
       <c r="AB21" s="15"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
@@ -39708,7 +40399,9 @@
       <c r="Z22" s="8">
         <v>2</v>
       </c>
-      <c r="AA22" s="8"/>
+      <c r="AA22" s="8">
+        <v>6</v>
+      </c>
       <c r="AB22" s="15"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
@@ -39815,7 +40508,9 @@
       <c r="Z23" s="8">
         <v>1</v>
       </c>
-      <c r="AA23" s="8"/>
+      <c r="AA23" s="8">
+        <v>0</v>
+      </c>
       <c r="AB23" s="15"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
@@ -39922,7 +40617,9 @@
       <c r="Z24" s="8">
         <v>2</v>
       </c>
-      <c r="AA24" s="8"/>
+      <c r="AA24" s="8">
+        <v>1</v>
+      </c>
       <c r="AB24" s="15"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
@@ -40029,7 +40726,9 @@
       <c r="Z25" s="8">
         <v>0</v>
       </c>
-      <c r="AA25" s="8"/>
+      <c r="AA25" s="8">
+        <v>1</v>
+      </c>
       <c r="AB25" s="15"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
@@ -40136,7 +40835,9 @@
       <c r="Z26" s="8">
         <v>4</v>
       </c>
-      <c r="AA26" s="8"/>
+      <c r="AA26" s="8">
+        <v>6</v>
+      </c>
       <c r="AB26" s="15"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
@@ -40243,7 +40944,9 @@
       <c r="Z27" s="8">
         <v>0</v>
       </c>
-      <c r="AA27" s="8"/>
+      <c r="AA27" s="8">
+        <v>0</v>
+      </c>
       <c r="AB27" s="15"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
@@ -40350,7 +41053,9 @@
       <c r="Z28" s="8">
         <v>0</v>
       </c>
-      <c r="AA28" s="8"/>
+      <c r="AA28" s="8">
+        <v>0</v>
+      </c>
       <c r="AB28" s="15"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
@@ -40457,7 +41162,9 @@
       <c r="Z29" s="8">
         <v>1</v>
       </c>
-      <c r="AA29" s="8"/>
+      <c r="AA29" s="8">
+        <v>2</v>
+      </c>
       <c r="AB29" s="15"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
@@ -40562,7 +41269,9 @@
       <c r="Z30" s="8">
         <v>10</v>
       </c>
-      <c r="AA30" s="8"/>
+      <c r="AA30" s="8">
+        <v>3</v>
+      </c>
       <c r="AB30" s="15"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
@@ -40670,7 +41379,9 @@
       <c r="Z31" s="8">
         <v>16</v>
       </c>
-      <c r="AA31" s="8"/>
+      <c r="AA31" s="8">
+        <v>12</v>
+      </c>
       <c r="AB31" s="15"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
@@ -40777,7 +41488,9 @@
       <c r="Z32" s="8">
         <v>2</v>
       </c>
-      <c r="AA32" s="8"/>
+      <c r="AA32" s="8">
+        <v>1</v>
+      </c>
       <c r="AB32" s="15"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
@@ -40884,7 +41597,9 @@
       <c r="Z33" s="8">
         <v>0</v>
       </c>
-      <c r="AA33" s="8"/>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
       <c r="AB33" s="15"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
@@ -40992,7 +41707,9 @@
       <c r="Z34" s="8">
         <v>25</v>
       </c>
-      <c r="AA34" s="8"/>
+      <c r="AA34" s="8">
+        <v>16</v>
+      </c>
       <c r="AB34" s="15"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
@@ -41100,7 +41817,9 @@
       <c r="Z35" s="8">
         <v>152</v>
       </c>
-      <c r="AA35" s="8"/>
+      <c r="AA35" s="8">
+        <v>170</v>
+      </c>
       <c r="AB35" s="16"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
@@ -41205,7 +41924,9 @@
       <c r="Z36" s="8">
         <v>5</v>
       </c>
-      <c r="AA36" s="8"/>
+      <c r="AA36" s="8">
+        <v>7</v>
+      </c>
       <c r="AB36" s="16"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
@@ -41313,7 +42034,9 @@
       <c r="Z37" s="8">
         <v>15</v>
       </c>
-      <c r="AA37" s="8"/>
+      <c r="AA37" s="8">
+        <v>20</v>
+      </c>
       <c r="AB37" s="15"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
@@ -41420,7 +42143,9 @@
       <c r="Z38" s="8">
         <v>3</v>
       </c>
-      <c r="AA38" s="8"/>
+      <c r="AA38" s="8">
+        <v>4</v>
+      </c>
       <c r="AB38" s="15"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
@@ -41527,7 +42252,9 @@
       <c r="Z39" s="8">
         <v>4</v>
       </c>
-      <c r="AA39" s="8"/>
+      <c r="AA39" s="8">
+        <v>3</v>
+      </c>
       <c r="AB39" s="15"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
@@ -41634,7 +42361,9 @@
       <c r="Z40" s="8">
         <v>0</v>
       </c>
-      <c r="AA40" s="8"/>
+      <c r="AA40" s="8">
+        <v>0</v>
+      </c>
       <c r="AB40" s="15"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
@@ -41741,7 +42470,9 @@
       <c r="Z41" s="8">
         <v>0</v>
       </c>
-      <c r="AA41" s="8"/>
+      <c r="AA41" s="8">
+        <v>0</v>
+      </c>
       <c r="AB41" s="15"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
@@ -41848,7 +42579,9 @@
       <c r="Z42" s="8">
         <v>1</v>
       </c>
-      <c r="AA42" s="8"/>
+      <c r="AA42" s="8">
+        <v>3</v>
+      </c>
       <c r="AB42" s="15"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
@@ -41955,7 +42688,9 @@
       <c r="Z43" s="8">
         <v>21</v>
       </c>
-      <c r="AA43" s="8"/>
+      <c r="AA43" s="8">
+        <v>12</v>
+      </c>
       <c r="AB43" s="15"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
@@ -42062,7 +42797,9 @@
       <c r="Z44" s="8">
         <v>3</v>
       </c>
-      <c r="AA44" s="8"/>
+      <c r="AA44" s="8">
+        <v>0</v>
+      </c>
       <c r="AB44" s="15"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
@@ -42169,7 +42906,9 @@
       <c r="Z45" s="8">
         <v>3</v>
       </c>
-      <c r="AA45" s="8"/>
+      <c r="AA45" s="8">
+        <v>6</v>
+      </c>
       <c r="AB45" s="15"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
@@ -42276,7 +43015,9 @@
       <c r="Z46" s="8">
         <v>6</v>
       </c>
-      <c r="AA46" s="8"/>
+      <c r="AA46" s="8">
+        <v>3</v>
+      </c>
       <c r="AB46" s="15"/>
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
@@ -42383,7 +43124,9 @@
       <c r="Z47" s="8">
         <v>2</v>
       </c>
-      <c r="AA47" s="8"/>
+      <c r="AA47" s="8">
+        <v>1</v>
+      </c>
       <c r="AB47" s="15"/>
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
@@ -42490,7 +43233,9 @@
       <c r="Z48" s="8">
         <v>2</v>
       </c>
-      <c r="AA48" s="8"/>
+      <c r="AA48" s="8">
+        <v>1</v>
+      </c>
       <c r="AB48" s="15"/>
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
@@ -42598,7 +43343,9 @@
       <c r="Z49" s="8">
         <v>8</v>
       </c>
-      <c r="AA49" s="8"/>
+      <c r="AA49" s="8">
+        <v>17</v>
+      </c>
       <c r="AB49" s="15"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
@@ -42703,7 +43450,9 @@
       <c r="Z50" s="8">
         <v>5</v>
       </c>
-      <c r="AA50" s="8"/>
+      <c r="AA50" s="8">
+        <v>2</v>
+      </c>
       <c r="AB50" s="15"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
@@ -42810,7 +43559,9 @@
       <c r="Z51" s="8">
         <v>7</v>
       </c>
-      <c r="AA51" s="8"/>
+      <c r="AA51" s="8">
+        <v>2</v>
+      </c>
       <c r="AB51" s="15"/>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
@@ -42917,7 +43668,9 @@
       <c r="Z52" s="8">
         <v>1</v>
       </c>
-      <c r="AA52" s="8"/>
+      <c r="AA52" s="8">
+        <v>4</v>
+      </c>
       <c r="AB52" s="15"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
@@ -43024,7 +43777,9 @@
       <c r="Z53" s="8">
         <v>6</v>
       </c>
-      <c r="AA53" s="8"/>
+      <c r="AA53" s="8">
+        <v>13</v>
+      </c>
       <c r="AB53" s="15"/>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
@@ -43131,7 +43886,9 @@
       <c r="Z54" s="8">
         <v>2</v>
       </c>
-      <c r="AA54" s="8"/>
+      <c r="AA54" s="8">
+        <v>3</v>
+      </c>
       <c r="AB54" s="15"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
@@ -43238,7 +43995,9 @@
       <c r="Z55" s="8">
         <v>5</v>
       </c>
-      <c r="AA55" s="8"/>
+      <c r="AA55" s="8">
+        <v>9</v>
+      </c>
       <c r="AB55" s="15"/>
       <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
@@ -43345,7 +44104,9 @@
       <c r="Z56" s="8">
         <v>2</v>
       </c>
-      <c r="AA56" s="8"/>
+      <c r="AA56" s="8">
+        <v>1</v>
+      </c>
       <c r="AB56" s="15"/>
       <c r="AC56" s="8"/>
       <c r="AD56" s="8"/>
@@ -43452,7 +44213,9 @@
       <c r="Z57" s="8">
         <v>0</v>
       </c>
-      <c r="AA57" s="8"/>
+      <c r="AA57" s="8">
+        <v>1</v>
+      </c>
       <c r="AB57" s="15"/>
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
@@ -43582,7 +44345,7 @@
       </c>
       <c r="AA58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="AB58" s="14">
         <f t="shared" si="0"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\ＪＯＢ030914-3\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030922-1\ＪＯＢ030922-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -2467,6 +2467,24 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2503,22 +2521,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2527,19 +2533,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2547,18 +2559,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4925,11 +4925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BD43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BP48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CA4" sqref="CA4:CA5"/>
+      <selection pane="bottomRight" activeCell="CB4" sqref="CB4:CB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4943,519 +4943,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BA1" s="45" t="s">
+      <c r="BA1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
       <c r="BD1" s="18"/>
       <c r="CD1" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="46"/>
-      <c r="CC2" s="46"/>
-      <c r="CD2" s="46"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
     </row>
     <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47" t="s">
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
     </row>
     <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="W4" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="43" t="s">
+      <c r="Z4" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="43" t="s">
+      <c r="AA4" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AB4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="43" t="s">
+      <c r="AC4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="43" t="s">
+      <c r="AD4" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="43" t="s">
+      <c r="AE4" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="43" t="s">
+      <c r="AF4" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="43" t="s">
+      <c r="AG4" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="AI4" s="43" t="s">
+      <c r="AI4" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="43" t="s">
+      <c r="AJ4" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="43" t="s">
+      <c r="AK4" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="43" t="s">
+      <c r="AL4" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="43" t="s">
+      <c r="AM4" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="43" t="s">
+      <c r="AN4" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="43" t="s">
+      <c r="AO4" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="43" t="s">
+      <c r="AQ4" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AR4" s="48" t="s">
+      <c r="AR4" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="48" t="s">
+      <c r="AS4" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="48" t="s">
+      <c r="AT4" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="48" t="s">
+      <c r="AU4" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="48" t="s">
+      <c r="AV4" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="48" t="s">
+      <c r="AW4" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="48" t="s">
+      <c r="AX4" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="48" t="s">
+      <c r="AY4" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="48" t="s">
+      <c r="AZ4" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="48" t="s">
+      <c r="BA4" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="48" t="s">
+      <c r="BB4" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="48" t="s">
+      <c r="BC4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="48" t="s">
+      <c r="BD4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="BE4" s="48" t="s">
+      <c r="BE4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="BF4" s="48" t="s">
+      <c r="BF4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="48" t="s">
+      <c r="BG4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="48" t="s">
+      <c r="BH4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="BI4" s="48" t="s">
+      <c r="BI4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="BJ4" s="48" t="s">
+      <c r="BJ4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="BK4" s="48" t="s">
+      <c r="BK4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="48" t="s">
+      <c r="BL4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="48" t="s">
+      <c r="BM4" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="BN4" s="48" t="s">
+      <c r="BN4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="BO4" s="48" t="s">
+      <c r="BO4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="48" t="s">
+      <c r="BP4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="BQ4" s="48" t="s">
+      <c r="BQ4" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="BR4" s="48" t="s">
+      <c r="BR4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="BS4" s="48" t="s">
+      <c r="BS4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="BT4" s="48" t="s">
+      <c r="BT4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="BU4" s="48" t="s">
+      <c r="BU4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="BV4" s="48" t="s">
+      <c r="BV4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="48" t="s">
+      <c r="BW4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="48" t="s">
+      <c r="BX4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="48" t="s">
+      <c r="BY4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="48" t="s">
+      <c r="BZ4" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="48" t="s">
+      <c r="CA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="48" t="s">
+      <c r="CB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="48" t="s">
+      <c r="CC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="48" t="s">
+      <c r="CD4" s="33" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
-      <c r="BV5" s="48"/>
-      <c r="BW5" s="48"/>
-      <c r="BX5" s="48"/>
-      <c r="BY5" s="48"/>
-      <c r="BZ5" s="48"/>
-      <c r="CA5" s="48"/>
-      <c r="CB5" s="48"/>
-      <c r="CC5" s="48"/>
-      <c r="CD5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
     </row>
     <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -5693,7 +5693,9 @@
       <c r="CA6" s="8">
         <v>81</v>
       </c>
-      <c r="CB6" s="15"/>
+      <c r="CB6" s="15">
+        <v>51</v>
+      </c>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
     </row>
@@ -5932,7 +5934,9 @@
       <c r="CA7" s="8">
         <v>0</v>
       </c>
-      <c r="CB7" s="15"/>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
       <c r="CC7" s="8"/>
       <c r="CD7" s="8"/>
     </row>
@@ -6171,7 +6175,9 @@
       <c r="CA8" s="8">
         <v>7</v>
       </c>
-      <c r="CB8" s="15"/>
+      <c r="CB8" s="15">
+        <v>5</v>
+      </c>
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
     </row>
@@ -6411,7 +6417,9 @@
       <c r="CA9" s="8">
         <v>36</v>
       </c>
-      <c r="CB9" s="15"/>
+      <c r="CB9" s="15">
+        <v>50</v>
+      </c>
       <c r="CC9" s="8"/>
       <c r="CD9" s="8"/>
     </row>
@@ -6650,7 +6658,9 @@
       <c r="CA10" s="8">
         <v>0</v>
       </c>
-      <c r="CB10" s="15"/>
+      <c r="CB10" s="15">
+        <v>0</v>
+      </c>
       <c r="CC10" s="8"/>
       <c r="CD10" s="8"/>
     </row>
@@ -6889,7 +6899,9 @@
       <c r="CA11" s="8">
         <v>6</v>
       </c>
-      <c r="CB11" s="15"/>
+      <c r="CB11" s="15">
+        <v>5</v>
+      </c>
       <c r="CC11" s="8"/>
       <c r="CD11" s="8"/>
     </row>
@@ -7128,7 +7140,9 @@
       <c r="CA12" s="8">
         <v>2</v>
       </c>
-      <c r="CB12" s="15"/>
+      <c r="CB12" s="15">
+        <v>2</v>
+      </c>
       <c r="CC12" s="8"/>
       <c r="CD12" s="8"/>
     </row>
@@ -7367,7 +7381,9 @@
       <c r="CA13" s="8">
         <v>8</v>
       </c>
-      <c r="CB13" s="15"/>
+      <c r="CB13" s="15">
+        <v>18</v>
+      </c>
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
     </row>
@@ -7606,7 +7622,9 @@
       <c r="CA14" s="8">
         <v>9</v>
       </c>
-      <c r="CB14" s="15"/>
+      <c r="CB14" s="15">
+        <v>12</v>
+      </c>
       <c r="CC14" s="8"/>
       <c r="CD14" s="8"/>
     </row>
@@ -7845,7 +7863,9 @@
       <c r="CA15" s="8">
         <v>2</v>
       </c>
-      <c r="CB15" s="15"/>
+      <c r="CB15" s="15">
+        <v>0</v>
+      </c>
       <c r="CC15" s="8"/>
       <c r="CD15" s="8"/>
     </row>
@@ -8085,7 +8105,9 @@
       <c r="CA16" s="8">
         <v>71</v>
       </c>
-      <c r="CB16" s="15"/>
+      <c r="CB16" s="15">
+        <v>71</v>
+      </c>
       <c r="CC16" s="8"/>
       <c r="CD16" s="8"/>
     </row>
@@ -8324,7 +8346,9 @@
       <c r="CA17" s="8">
         <v>104</v>
       </c>
-      <c r="CB17" s="16"/>
+      <c r="CB17" s="16">
+        <v>80</v>
+      </c>
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
     </row>
@@ -8564,13 +8588,15 @@
       <c r="CA18" s="8">
         <v>1105</v>
       </c>
-      <c r="CB18" s="17"/>
+      <c r="CB18" s="17">
+        <v>908</v>
+      </c>
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
     </row>
     <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -8804,13 +8830,15 @@
       <c r="CA19" s="8">
         <v>33</v>
       </c>
-      <c r="CB19" s="15"/>
+      <c r="CB19" s="15">
+        <v>37</v>
+      </c>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
     </row>
     <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -9042,13 +9070,15 @@
       <c r="CA20" s="8">
         <v>150</v>
       </c>
-      <c r="CB20" s="16"/>
+      <c r="CB20" s="16">
+        <v>112</v>
+      </c>
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
     </row>
     <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -9280,7 +9310,9 @@
       <c r="CA21" s="8">
         <v>21</v>
       </c>
-      <c r="CB21" s="15"/>
+      <c r="CB21" s="15">
+        <v>25</v>
+      </c>
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
     </row>
@@ -9519,7 +9551,9 @@
       <c r="CA22" s="8">
         <v>10</v>
       </c>
-      <c r="CB22" s="15"/>
+      <c r="CB22" s="15">
+        <v>14</v>
+      </c>
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
     </row>
@@ -9758,7 +9792,9 @@
       <c r="CA23" s="8">
         <v>0</v>
       </c>
-      <c r="CB23" s="15"/>
+      <c r="CB23" s="15">
+        <v>1</v>
+      </c>
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
     </row>
@@ -9997,7 +10033,9 @@
       <c r="CA24" s="8">
         <v>2</v>
       </c>
-      <c r="CB24" s="15"/>
+      <c r="CB24" s="15">
+        <v>6</v>
+      </c>
       <c r="CC24" s="8"/>
       <c r="CD24" s="8"/>
     </row>
@@ -10236,7 +10274,9 @@
       <c r="CA25" s="8">
         <v>1</v>
       </c>
-      <c r="CB25" s="15"/>
+      <c r="CB25" s="15">
+        <v>0</v>
+      </c>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
     </row>
@@ -10475,7 +10515,9 @@
       <c r="CA26" s="8">
         <v>9</v>
       </c>
-      <c r="CB26" s="15"/>
+      <c r="CB26" s="15">
+        <v>10</v>
+      </c>
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
     </row>
@@ -10714,7 +10756,9 @@
       <c r="CA27" s="8">
         <v>0</v>
       </c>
-      <c r="CB27" s="15"/>
+      <c r="CB27" s="15">
+        <v>0</v>
+      </c>
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
     </row>
@@ -10953,12 +10997,14 @@
       <c r="CA28" s="8">
         <v>0</v>
       </c>
-      <c r="CB28" s="15"/>
+      <c r="CB28" s="15">
+        <v>0</v>
+      </c>
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -11192,12 +11238,14 @@
       <c r="CA29" s="8">
         <v>3</v>
       </c>
-      <c r="CB29" s="15"/>
+      <c r="CB29" s="15">
+        <v>3</v>
+      </c>
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -11429,7 +11477,9 @@
       <c r="CA30" s="8">
         <v>4</v>
       </c>
-      <c r="CB30" s="15"/>
+      <c r="CB30" s="15">
+        <v>4</v>
+      </c>
       <c r="CC30" s="8"/>
       <c r="CD30" s="8"/>
     </row>
@@ -11669,7 +11719,9 @@
       <c r="CA31" s="8">
         <v>21</v>
       </c>
-      <c r="CB31" s="15"/>
+      <c r="CB31" s="15">
+        <v>23</v>
+      </c>
       <c r="CC31" s="8"/>
       <c r="CD31" s="8"/>
     </row>
@@ -11908,7 +11960,9 @@
       <c r="CA32" s="8">
         <v>1</v>
       </c>
-      <c r="CB32" s="15"/>
+      <c r="CB32" s="15">
+        <v>0</v>
+      </c>
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
     </row>
@@ -12147,7 +12201,9 @@
       <c r="CA33" s="8">
         <v>0</v>
       </c>
-      <c r="CB33" s="15"/>
+      <c r="CB33" s="15">
+        <v>0</v>
+      </c>
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
     </row>
@@ -12387,13 +12443,15 @@
       <c r="CA34" s="8">
         <v>21</v>
       </c>
-      <c r="CB34" s="15"/>
+      <c r="CB34" s="15">
+        <v>14</v>
+      </c>
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
     <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -12627,12 +12685,14 @@
       <c r="CA35" s="8">
         <v>251</v>
       </c>
-      <c r="CB35" s="16"/>
+      <c r="CB35" s="16">
+        <v>245</v>
+      </c>
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -12864,7 +12924,9 @@
       <c r="CA36" s="8">
         <v>23</v>
       </c>
-      <c r="CB36" s="16"/>
+      <c r="CB36" s="16">
+        <v>19</v>
+      </c>
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
     </row>
@@ -13104,7 +13166,9 @@
       <c r="CA37" s="8">
         <v>36</v>
       </c>
-      <c r="CB37" s="15"/>
+      <c r="CB37" s="15">
+        <v>30</v>
+      </c>
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
     </row>
@@ -13343,7 +13407,9 @@
       <c r="CA38" s="8">
         <v>7</v>
       </c>
-      <c r="CB38" s="15"/>
+      <c r="CB38" s="15">
+        <v>4</v>
+      </c>
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
     </row>
@@ -13582,7 +13648,9 @@
       <c r="CA39" s="8">
         <v>4</v>
       </c>
-      <c r="CB39" s="15"/>
+      <c r="CB39" s="15">
+        <v>6</v>
+      </c>
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
     </row>
@@ -13821,7 +13889,9 @@
       <c r="CA40" s="8">
         <v>0</v>
       </c>
-      <c r="CB40" s="15"/>
+      <c r="CB40" s="15">
+        <v>0</v>
+      </c>
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
     </row>
@@ -14060,7 +14130,9 @@
       <c r="CA41" s="8">
         <v>0</v>
       </c>
-      <c r="CB41" s="15"/>
+      <c r="CB41" s="15">
+        <v>0</v>
+      </c>
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
     </row>
@@ -14299,7 +14371,9 @@
       <c r="CA42" s="8">
         <v>3</v>
       </c>
-      <c r="CB42" s="15"/>
+      <c r="CB42" s="15">
+        <v>2</v>
+      </c>
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
     </row>
@@ -14538,7 +14612,9 @@
       <c r="CA43" s="8">
         <v>32</v>
       </c>
-      <c r="CB43" s="15"/>
+      <c r="CB43" s="15">
+        <v>17</v>
+      </c>
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
     </row>
@@ -14777,7 +14853,9 @@
       <c r="CA44" s="8">
         <v>0</v>
       </c>
-      <c r="CB44" s="15"/>
+      <c r="CB44" s="15">
+        <v>2</v>
+      </c>
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
     </row>
@@ -15016,7 +15094,9 @@
       <c r="CA45" s="8">
         <v>10</v>
       </c>
-      <c r="CB45" s="15"/>
+      <c r="CB45" s="15">
+        <v>13</v>
+      </c>
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
     </row>
@@ -15255,7 +15335,9 @@
       <c r="CA46" s="8">
         <v>3</v>
       </c>
-      <c r="CB46" s="15"/>
+      <c r="CB46" s="15">
+        <v>2</v>
+      </c>
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
     </row>
@@ -15494,7 +15576,9 @@
       <c r="CA47" s="8">
         <v>1</v>
       </c>
-      <c r="CB47" s="15"/>
+      <c r="CB47" s="15">
+        <v>1</v>
+      </c>
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
     </row>
@@ -15733,13 +15817,15 @@
       <c r="CA48" s="8">
         <v>6</v>
       </c>
-      <c r="CB48" s="15"/>
+      <c r="CB48" s="15">
+        <v>4</v>
+      </c>
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
     </row>
     <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -15973,12 +16059,14 @@
       <c r="CA49" s="8">
         <v>19</v>
       </c>
-      <c r="CB49" s="15"/>
+      <c r="CB49" s="15">
+        <v>20</v>
+      </c>
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -16210,7 +16298,9 @@
       <c r="CA50" s="8">
         <v>3</v>
       </c>
-      <c r="CB50" s="15"/>
+      <c r="CB50" s="15">
+        <v>7</v>
+      </c>
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
@@ -16449,7 +16539,9 @@
       <c r="CA51" s="8">
         <v>2</v>
       </c>
-      <c r="CB51" s="15"/>
+      <c r="CB51" s="15">
+        <v>2</v>
+      </c>
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
@@ -16688,7 +16780,9 @@
       <c r="CA52" s="8">
         <v>5</v>
       </c>
-      <c r="CB52" s="15"/>
+      <c r="CB52" s="15">
+        <v>5</v>
+      </c>
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
@@ -16927,7 +17021,9 @@
       <c r="CA53" s="8">
         <v>19</v>
       </c>
-      <c r="CB53" s="15"/>
+      <c r="CB53" s="15">
+        <v>16</v>
+      </c>
       <c r="CC53" s="8"/>
       <c r="CD53" s="8"/>
     </row>
@@ -17166,7 +17262,9 @@
       <c r="CA54" s="8">
         <v>7</v>
       </c>
-      <c r="CB54" s="15"/>
+      <c r="CB54" s="15">
+        <v>10</v>
+      </c>
       <c r="CC54" s="8"/>
       <c r="CD54" s="8"/>
     </row>
@@ -17405,7 +17503,9 @@
       <c r="CA55" s="8">
         <v>9</v>
       </c>
-      <c r="CB55" s="15"/>
+      <c r="CB55" s="15">
+        <v>15</v>
+      </c>
       <c r="CC55" s="8"/>
       <c r="CD55" s="8"/>
     </row>
@@ -17644,7 +17744,9 @@
       <c r="CA56" s="8">
         <v>3</v>
       </c>
-      <c r="CB56" s="15"/>
+      <c r="CB56" s="15">
+        <v>2</v>
+      </c>
       <c r="CC56" s="8"/>
       <c r="CD56" s="8"/>
     </row>
@@ -17883,7 +17985,9 @@
       <c r="CA57" s="8">
         <v>1</v>
       </c>
-      <c r="CB57" s="15"/>
+      <c r="CB57" s="15">
+        <v>1</v>
+      </c>
       <c r="CC57" s="8"/>
       <c r="CD57" s="8"/>
     </row>
@@ -18198,7 +18302,7 @@
       </c>
       <c r="CB58" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1874</v>
       </c>
       <c r="CC58" s="14">
         <f t="shared" si="3"/>
@@ -18380,26 +18484,26 @@
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -18462,6 +18566,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D61:W61"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="BO4:BO5"/>
@@ -18478,83 +18659,6 @@
     <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D61:W61"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18571,10 +18675,10 @@
   <dimension ref="B1:CD58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BH32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H74" sqref="H74:H75"/>
+      <selection pane="bottomRight" activeCell="BY64" sqref="BY64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18588,519 +18692,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:82" ht="24" x14ac:dyDescent="0.4">
-      <c r="BB1" s="52" t="s">
+      <c r="BB1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="52"/>
+      <c r="BC1" s="49"/>
       <c r="BI1" s="20"/>
-      <c r="CC1" s="52" t="s">
+      <c r="CC1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="CD1" s="52"/>
+      <c r="CD1" s="49"/>
     </row>
     <row r="2" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="46"/>
-      <c r="CC2" s="46"/>
-      <c r="CD2" s="46"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
     </row>
     <row r="3" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47" t="s">
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="47"/>
-      <c r="BZ3" s="47"/>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="47"/>
-      <c r="CC3" s="47"/>
-      <c r="CD3" s="47"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
     </row>
     <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="49" t="s">
+      <c r="V4" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="49" t="s">
+      <c r="W4" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="49" t="s">
+      <c r="X4" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="49" t="s">
+      <c r="Y4" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="49" t="s">
+      <c r="Z4" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="AA4" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AB4" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="49" t="s">
+      <c r="AC4" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="49" t="s">
+      <c r="AD4" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="49" t="s">
+      <c r="AE4" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="49" t="s">
+      <c r="AF4" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="49" t="s">
+      <c r="AG4" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="49" t="s">
+      <c r="AH4" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="49" t="s">
+      <c r="AI4" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="49" t="s">
+      <c r="AJ4" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="49" t="s">
+      <c r="AK4" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="49" t="s">
+      <c r="AL4" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="49" t="s">
+      <c r="AM4" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="49" t="s">
+      <c r="AN4" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="49" t="s">
+      <c r="AO4" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="49" t="s">
+      <c r="AP4" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="49" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="49" t="s">
+      <c r="AR4" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="49" t="s">
+      <c r="AS4" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="49" t="s">
+      <c r="AT4" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="49" t="s">
+      <c r="AU4" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="49" t="s">
+      <c r="AV4" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="49" t="s">
+      <c r="AW4" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="49" t="s">
+      <c r="AX4" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="49" t="s">
+      <c r="AY4" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="49" t="s">
+      <c r="AZ4" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="49" t="s">
+      <c r="BA4" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="49" t="s">
+      <c r="BB4" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="49" t="s">
+      <c r="BC4" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="43" t="s">
+      <c r="BD4" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="43" t="s">
+      <c r="BE4" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" s="43" t="s">
+      <c r="BF4" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="BG4" s="43" t="s">
+      <c r="BG4" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" s="43" t="s">
+      <c r="BH4" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="BI4" s="43" t="s">
+      <c r="BI4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="43" t="s">
+      <c r="BJ4" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="43" t="s">
+      <c r="BK4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="43" t="s">
+      <c r="BL4" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="43" t="s">
+      <c r="BM4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="43" t="s">
+      <c r="BN4" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="43" t="s">
+      <c r="BO4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="51" t="s">
+      <c r="BP4" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="BQ4" s="51" t="s">
+      <c r="BQ4" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="BR4" s="51" t="s">
+      <c r="BR4" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="BS4" s="51" t="s">
+      <c r="BS4" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="BT4" s="51" t="s">
+      <c r="BT4" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="BU4" s="51" t="s">
+      <c r="BU4" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="BV4" s="51" t="s">
+      <c r="BV4" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="BW4" s="51" t="s">
+      <c r="BW4" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="BX4" s="51" t="s">
+      <c r="BX4" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="BY4" s="51" t="s">
+      <c r="BY4" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="BZ4" s="51" t="s">
+      <c r="BZ4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="CA4" s="51" t="s">
+      <c r="CA4" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="CB4" s="51" t="s">
+      <c r="CB4" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="51" t="s">
+      <c r="CC4" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="43" t="s">
+      <c r="CD4" s="31" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:82" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
-      <c r="BQ5" s="44"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44"/>
-      <c r="BT5" s="44"/>
-      <c r="BU5" s="44"/>
-      <c r="BV5" s="44"/>
-      <c r="BW5" s="44"/>
-      <c r="BX5" s="44"/>
-      <c r="BY5" s="44"/>
-      <c r="BZ5" s="44"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44"/>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="44"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="32"/>
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="32"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="32"/>
     </row>
     <row r="6" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
@@ -19337,7 +19441,9 @@
       <c r="CA6" s="8">
         <v>59</v>
       </c>
-      <c r="CB6" s="15"/>
+      <c r="CB6" s="15">
+        <v>54</v>
+      </c>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
     </row>
@@ -19576,7 +19682,9 @@
       <c r="CA7" s="8">
         <v>1</v>
       </c>
-      <c r="CB7" s="15"/>
+      <c r="CB7" s="15">
+        <v>1</v>
+      </c>
       <c r="CC7" s="8"/>
       <c r="CD7" s="8"/>
     </row>
@@ -19815,7 +19923,9 @@
       <c r="CA8" s="8">
         <v>0</v>
       </c>
-      <c r="CB8" s="15"/>
+      <c r="CB8" s="15">
+        <v>5</v>
+      </c>
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
     </row>
@@ -20054,7 +20164,9 @@
       <c r="CA9" s="8">
         <v>22</v>
       </c>
-      <c r="CB9" s="15"/>
+      <c r="CB9" s="15">
+        <v>30</v>
+      </c>
       <c r="CC9" s="8"/>
       <c r="CD9" s="8"/>
     </row>
@@ -20293,7 +20405,9 @@
       <c r="CA10" s="8">
         <v>0</v>
       </c>
-      <c r="CB10" s="15"/>
+      <c r="CB10" s="15">
+        <v>0</v>
+      </c>
       <c r="CC10" s="8"/>
       <c r="CD10" s="8"/>
     </row>
@@ -20532,7 +20646,9 @@
       <c r="CA11" s="8">
         <v>2</v>
       </c>
-      <c r="CB11" s="15"/>
+      <c r="CB11" s="15">
+        <v>0</v>
+      </c>
       <c r="CC11" s="8"/>
       <c r="CD11" s="8"/>
     </row>
@@ -20771,7 +20887,9 @@
       <c r="CA12" s="8">
         <v>3</v>
       </c>
-      <c r="CB12" s="15"/>
+      <c r="CB12" s="15">
+        <v>1</v>
+      </c>
       <c r="CC12" s="8"/>
       <c r="CD12" s="8"/>
     </row>
@@ -21010,7 +21128,9 @@
       <c r="CA13" s="8">
         <v>12</v>
       </c>
-      <c r="CB13" s="15"/>
+      <c r="CB13" s="15">
+        <v>9</v>
+      </c>
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
     </row>
@@ -21249,7 +21369,9 @@
       <c r="CA14" s="8">
         <v>5</v>
       </c>
-      <c r="CB14" s="15"/>
+      <c r="CB14" s="15">
+        <v>10</v>
+      </c>
       <c r="CC14" s="8"/>
       <c r="CD14" s="8"/>
     </row>
@@ -21488,7 +21610,9 @@
       <c r="CA15" s="8">
         <v>1</v>
       </c>
-      <c r="CB15" s="15"/>
+      <c r="CB15" s="15">
+        <v>0</v>
+      </c>
       <c r="CC15" s="8"/>
       <c r="CD15" s="8"/>
     </row>
@@ -21727,7 +21851,9 @@
       <c r="CA16" s="8">
         <v>28</v>
       </c>
-      <c r="CB16" s="15"/>
+      <c r="CB16" s="15">
+        <v>29</v>
+      </c>
       <c r="CC16" s="8"/>
       <c r="CD16" s="8"/>
     </row>
@@ -21966,7 +22092,9 @@
       <c r="CA17" s="8">
         <v>75</v>
       </c>
-      <c r="CB17" s="16"/>
+      <c r="CB17" s="16">
+        <v>60</v>
+      </c>
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
     </row>
@@ -22205,12 +22333,14 @@
       <c r="CA18" s="8">
         <v>525</v>
       </c>
-      <c r="CB18" s="17"/>
+      <c r="CB18" s="17">
+        <v>544</v>
+      </c>
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
     </row>
     <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -22444,12 +22574,14 @@
       <c r="CA19" s="8">
         <v>18</v>
       </c>
-      <c r="CB19" s="15"/>
+      <c r="CB19" s="15">
+        <v>18</v>
+      </c>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
     </row>
     <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -22681,12 +22813,14 @@
       <c r="CA20" s="8">
         <v>63</v>
       </c>
-      <c r="CB20" s="16"/>
+      <c r="CB20" s="16">
+        <v>67</v>
+      </c>
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
     </row>
     <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -22918,7 +23052,9 @@
       <c r="CA21" s="8">
         <v>16</v>
       </c>
-      <c r="CB21" s="15"/>
+      <c r="CB21" s="15">
+        <v>19</v>
+      </c>
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
     </row>
@@ -23157,7 +23293,9 @@
       <c r="CA22" s="8">
         <v>13</v>
       </c>
-      <c r="CB22" s="15"/>
+      <c r="CB22" s="15">
+        <v>9</v>
+      </c>
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
     </row>
@@ -23396,7 +23534,9 @@
       <c r="CA23" s="8">
         <v>1</v>
       </c>
-      <c r="CB23" s="15"/>
+      <c r="CB23" s="15">
+        <v>0</v>
+      </c>
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
     </row>
@@ -23635,7 +23775,9 @@
       <c r="CA24" s="8">
         <v>5</v>
       </c>
-      <c r="CB24" s="15"/>
+      <c r="CB24" s="15">
+        <v>4</v>
+      </c>
       <c r="CC24" s="8"/>
       <c r="CD24" s="8"/>
     </row>
@@ -23874,7 +24016,9 @@
       <c r="CA25" s="8">
         <v>0</v>
       </c>
-      <c r="CB25" s="15"/>
+      <c r="CB25" s="15">
+        <v>0</v>
+      </c>
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
     </row>
@@ -24113,7 +24257,9 @@
       <c r="CA26" s="8">
         <v>4</v>
       </c>
-      <c r="CB26" s="15"/>
+      <c r="CB26" s="15">
+        <v>7</v>
+      </c>
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
     </row>
@@ -24352,7 +24498,9 @@
       <c r="CA27" s="8">
         <v>0</v>
       </c>
-      <c r="CB27" s="15"/>
+      <c r="CB27" s="15">
+        <v>1</v>
+      </c>
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
     </row>
@@ -24591,12 +24739,14 @@
       <c r="CA28" s="8">
         <v>0</v>
       </c>
-      <c r="CB28" s="15"/>
+      <c r="CB28" s="15">
+        <v>1</v>
+      </c>
       <c r="CC28" s="8"/>
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -24830,12 +24980,14 @@
       <c r="CA29" s="8">
         <v>5</v>
       </c>
-      <c r="CB29" s="15"/>
+      <c r="CB29" s="15">
+        <v>4</v>
+      </c>
       <c r="CC29" s="8"/>
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="38"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -25067,7 +25219,9 @@
       <c r="CA30" s="8">
         <v>1</v>
       </c>
-      <c r="CB30" s="15"/>
+      <c r="CB30" s="15">
+        <v>0</v>
+      </c>
       <c r="CC30" s="8"/>
       <c r="CD30" s="8"/>
     </row>
@@ -25306,7 +25460,9 @@
       <c r="CA31" s="8">
         <v>11</v>
       </c>
-      <c r="CB31" s="15"/>
+      <c r="CB31" s="15">
+        <v>11</v>
+      </c>
       <c r="CC31" s="8"/>
       <c r="CD31" s="8"/>
     </row>
@@ -25545,7 +25701,9 @@
       <c r="CA32" s="8">
         <v>0</v>
       </c>
-      <c r="CB32" s="15"/>
+      <c r="CB32" s="15">
+        <v>1</v>
+      </c>
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
     </row>
@@ -25784,7 +25942,9 @@
       <c r="CA33" s="8">
         <v>0</v>
       </c>
-      <c r="CB33" s="15"/>
+      <c r="CB33" s="15">
+        <v>0</v>
+      </c>
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
     </row>
@@ -26023,12 +26183,14 @@
       <c r="CA34" s="8">
         <v>17</v>
       </c>
-      <c r="CB34" s="15"/>
+      <c r="CB34" s="15">
+        <v>7</v>
+      </c>
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
     <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -26262,12 +26424,14 @@
       <c r="CA35" s="8">
         <v>191</v>
       </c>
-      <c r="CB35" s="16"/>
+      <c r="CB35" s="16">
+        <v>165</v>
+      </c>
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="37"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -26499,7 +26663,9 @@
       <c r="CA36" s="8">
         <v>18</v>
       </c>
-      <c r="CB36" s="16"/>
+      <c r="CB36" s="16">
+        <v>18</v>
+      </c>
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
     </row>
@@ -26738,7 +26904,9 @@
       <c r="CA37" s="8">
         <v>6</v>
       </c>
-      <c r="CB37" s="15"/>
+      <c r="CB37" s="15">
+        <v>11</v>
+      </c>
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
     </row>
@@ -26977,7 +27145,9 @@
       <c r="CA38" s="8">
         <v>3</v>
       </c>
-      <c r="CB38" s="15"/>
+      <c r="CB38" s="15">
+        <v>1</v>
+      </c>
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
     </row>
@@ -27216,7 +27386,9 @@
       <c r="CA39" s="8">
         <v>3</v>
       </c>
-      <c r="CB39" s="15"/>
+      <c r="CB39" s="15">
+        <v>2</v>
+      </c>
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
     </row>
@@ -27455,7 +27627,9 @@
       <c r="CA40" s="8">
         <v>0</v>
       </c>
-      <c r="CB40" s="15"/>
+      <c r="CB40" s="15">
+        <v>0</v>
+      </c>
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
     </row>
@@ -27694,7 +27868,9 @@
       <c r="CA41" s="8">
         <v>0</v>
       </c>
-      <c r="CB41" s="15"/>
+      <c r="CB41" s="15">
+        <v>0</v>
+      </c>
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
     </row>
@@ -27933,7 +28109,9 @@
       <c r="CA42" s="8">
         <v>2</v>
       </c>
-      <c r="CB42" s="15"/>
+      <c r="CB42" s="15">
+        <v>1</v>
+      </c>
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
     </row>
@@ -28172,7 +28350,9 @@
       <c r="CA43" s="8">
         <v>29</v>
       </c>
-      <c r="CB43" s="15"/>
+      <c r="CB43" s="15">
+        <v>20</v>
+      </c>
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
     </row>
@@ -28411,7 +28591,9 @@
       <c r="CA44" s="8">
         <v>2</v>
       </c>
-      <c r="CB44" s="15"/>
+      <c r="CB44" s="15">
+        <v>2</v>
+      </c>
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
     </row>
@@ -28650,7 +28832,9 @@
       <c r="CA45" s="8">
         <v>5</v>
       </c>
-      <c r="CB45" s="15"/>
+      <c r="CB45" s="15">
+        <v>1</v>
+      </c>
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
     </row>
@@ -28889,7 +29073,9 @@
       <c r="CA46" s="8">
         <v>5</v>
       </c>
-      <c r="CB46" s="15"/>
+      <c r="CB46" s="15">
+        <v>4</v>
+      </c>
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
     </row>
@@ -29128,7 +29314,9 @@
       <c r="CA47" s="8">
         <v>1</v>
       </c>
-      <c r="CB47" s="15"/>
+      <c r="CB47" s="15">
+        <v>1</v>
+      </c>
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
     </row>
@@ -29367,12 +29555,14 @@
       <c r="CA48" s="8">
         <v>6</v>
       </c>
-      <c r="CB48" s="15"/>
+      <c r="CB48" s="15">
+        <v>6</v>
+      </c>
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
     </row>
     <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -29606,12 +29796,14 @@
       <c r="CA49" s="8">
         <v>9</v>
       </c>
-      <c r="CB49" s="15"/>
+      <c r="CB49" s="15">
+        <v>15</v>
+      </c>
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="37"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -29843,7 +30035,9 @@
       <c r="CA50" s="8">
         <v>1</v>
       </c>
-      <c r="CB50" s="15"/>
+      <c r="CB50" s="15">
+        <v>1</v>
+      </c>
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
@@ -30082,7 +30276,9 @@
       <c r="CA51" s="8">
         <v>1</v>
       </c>
-      <c r="CB51" s="15"/>
+      <c r="CB51" s="15">
+        <v>0</v>
+      </c>
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
@@ -30321,7 +30517,9 @@
       <c r="CA52" s="8">
         <v>2</v>
       </c>
-      <c r="CB52" s="15"/>
+      <c r="CB52" s="15">
+        <v>7</v>
+      </c>
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
@@ -30560,7 +30758,9 @@
       <c r="CA53" s="8">
         <v>10</v>
       </c>
-      <c r="CB53" s="15"/>
+      <c r="CB53" s="15">
+        <v>8</v>
+      </c>
       <c r="CC53" s="8"/>
       <c r="CD53" s="8"/>
     </row>
@@ -30799,7 +30999,9 @@
       <c r="CA54" s="8">
         <v>6</v>
       </c>
-      <c r="CB54" s="15"/>
+      <c r="CB54" s="15">
+        <v>4</v>
+      </c>
       <c r="CC54" s="8"/>
       <c r="CD54" s="8"/>
     </row>
@@ -31038,7 +31240,9 @@
       <c r="CA55" s="8">
         <v>8</v>
       </c>
-      <c r="CB55" s="15"/>
+      <c r="CB55" s="15">
+        <v>9</v>
+      </c>
       <c r="CC55" s="8"/>
       <c r="CD55" s="8"/>
     </row>
@@ -31277,7 +31481,9 @@
       <c r="CA56" s="8">
         <v>1</v>
       </c>
-      <c r="CB56" s="15"/>
+      <c r="CB56" s="15">
+        <v>2</v>
+      </c>
       <c r="CC56" s="8"/>
       <c r="CD56" s="8"/>
     </row>
@@ -31516,7 +31722,9 @@
       <c r="CA57" s="8">
         <v>0</v>
       </c>
-      <c r="CB57" s="15"/>
+      <c r="CB57" s="15">
+        <v>0</v>
+      </c>
       <c r="CC57" s="8"/>
       <c r="CD57" s="8"/>
     </row>
@@ -31830,7 +32038,7 @@
       </c>
       <c r="CB58" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="CC58" s="28">
         <f t="shared" si="3"/>
@@ -31842,6 +32050,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="BD3:CD3"/>
     <mergeCell ref="BD2:CD2"/>
     <mergeCell ref="BB1:BC1"/>
@@ -31858,83 +32143,6 @@
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31951,10 +32159,10 @@
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="V33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA58" sqref="AA58"/>
+      <selection pane="bottomRight" activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31969,43 +32177,43 @@
   <sheetData>
     <row r="1" spans="1:60" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="59" t="s">
+      <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="60"/>
+      <c r="AD1" s="56"/>
     </row>
     <row r="2" spans="1:60" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -32034,37 +32242,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:60" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -32077,200 +32285,200 @@
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
       <c r="AP3" s="23"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
     </row>
     <row r="4" spans="1:60" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
     </row>
     <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="58"/>
-      <c r="BH5" s="58"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
     </row>
     <row r="6" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -32352,7 +32560,9 @@
       <c r="AA6" s="8">
         <v>27</v>
       </c>
-      <c r="AB6" s="15"/>
+      <c r="AB6" s="15">
+        <v>17</v>
+      </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="24"/>
@@ -32461,7 +32671,9 @@
       <c r="AA7" s="8">
         <v>0</v>
       </c>
-      <c r="AB7" s="15"/>
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="24"/>
@@ -32570,7 +32782,9 @@
       <c r="AA8" s="8">
         <v>0</v>
       </c>
-      <c r="AB8" s="15"/>
+      <c r="AB8" s="15">
+        <v>0</v>
+      </c>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="24"/>
@@ -32680,7 +32894,9 @@
       <c r="AA9" s="8">
         <v>3</v>
       </c>
-      <c r="AB9" s="15"/>
+      <c r="AB9" s="15">
+        <v>5</v>
+      </c>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="24"/>
@@ -32789,7 +33005,9 @@
       <c r="AA10" s="8">
         <v>0</v>
       </c>
-      <c r="AB10" s="15"/>
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="24"/>
@@ -32898,7 +33116,9 @@
       <c r="AA11" s="8">
         <v>2</v>
       </c>
-      <c r="AB11" s="15"/>
+      <c r="AB11" s="15">
+        <v>3</v>
+      </c>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="24"/>
@@ -33007,7 +33227,9 @@
       <c r="AA12" s="8">
         <v>1</v>
       </c>
-      <c r="AB12" s="15"/>
+      <c r="AB12" s="15">
+        <v>0</v>
+      </c>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
       <c r="AE12" s="24"/>
@@ -33116,7 +33338,9 @@
       <c r="AA13" s="8">
         <v>3</v>
       </c>
-      <c r="AB13" s="15"/>
+      <c r="AB13" s="15">
+        <v>10</v>
+      </c>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="24"/>
@@ -33225,7 +33449,9 @@
       <c r="AA14" s="8">
         <v>4</v>
       </c>
-      <c r="AB14" s="15"/>
+      <c r="AB14" s="15">
+        <v>4</v>
+      </c>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
       <c r="AE14" s="24"/>
@@ -33334,7 +33560,9 @@
       <c r="AA15" s="8">
         <v>1</v>
       </c>
-      <c r="AB15" s="15"/>
+      <c r="AB15" s="15">
+        <v>0</v>
+      </c>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
       <c r="AE15" s="24"/>
@@ -33444,7 +33672,9 @@
       <c r="AA16" s="8">
         <v>5</v>
       </c>
-      <c r="AB16" s="15"/>
+      <c r="AB16" s="15">
+        <v>1</v>
+      </c>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="24"/>
@@ -33553,7 +33783,9 @@
       <c r="AA17" s="8">
         <v>50</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="16">
+        <v>33</v>
+      </c>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="24"/>
@@ -33663,7 +33895,9 @@
       <c r="AA18" s="8">
         <v>312</v>
       </c>
-      <c r="AB18" s="17"/>
+      <c r="AB18" s="17">
+        <v>220</v>
+      </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="24"/>
@@ -33695,7 +33929,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -33773,7 +34007,9 @@
       <c r="AA19" s="8">
         <v>21</v>
       </c>
-      <c r="AB19" s="15"/>
+      <c r="AB19" s="15">
+        <v>19</v>
+      </c>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="24"/>
@@ -33805,7 +34041,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -33881,7 +34117,9 @@
       <c r="AA20" s="8">
         <v>101</v>
       </c>
-      <c r="AB20" s="16"/>
+      <c r="AB20" s="16">
+        <v>64</v>
+      </c>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="24"/>
@@ -33913,7 +34151,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -33989,7 +34227,9 @@
       <c r="AA21" s="8">
         <v>17</v>
       </c>
-      <c r="AB21" s="15"/>
+      <c r="AB21" s="15">
+        <v>11</v>
+      </c>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="24"/>
@@ -34098,7 +34338,9 @@
       <c r="AA22" s="8">
         <v>4</v>
       </c>
-      <c r="AB22" s="15"/>
+      <c r="AB22" s="15">
+        <v>6</v>
+      </c>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="24"/>
@@ -34207,7 +34449,9 @@
       <c r="AA23" s="8">
         <v>0</v>
       </c>
-      <c r="AB23" s="15"/>
+      <c r="AB23" s="15">
+        <v>0</v>
+      </c>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
       <c r="AE23" s="24"/>
@@ -34316,7 +34560,9 @@
       <c r="AA24" s="8">
         <v>1</v>
       </c>
-      <c r="AB24" s="15"/>
+      <c r="AB24" s="15">
+        <v>1</v>
+      </c>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="24"/>
@@ -34425,7 +34671,9 @@
       <c r="AA25" s="8">
         <v>0</v>
       </c>
-      <c r="AB25" s="15"/>
+      <c r="AB25" s="15">
+        <v>0</v>
+      </c>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="24"/>
@@ -34534,7 +34782,9 @@
       <c r="AA26" s="8">
         <v>3</v>
       </c>
-      <c r="AB26" s="15"/>
+      <c r="AB26" s="15">
+        <v>2</v>
+      </c>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="24"/>
@@ -34643,7 +34893,9 @@
       <c r="AA27" s="8">
         <v>0</v>
       </c>
-      <c r="AB27" s="15"/>
+      <c r="AB27" s="15">
+        <v>0</v>
+      </c>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="24"/>
@@ -34752,7 +35004,9 @@
       <c r="AA28" s="8">
         <v>0</v>
       </c>
-      <c r="AB28" s="15"/>
+      <c r="AB28" s="15">
+        <v>0</v>
+      </c>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="24"/>
@@ -34783,7 +35037,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -34861,7 +35115,9 @@
       <c r="AA29" s="8">
         <v>1</v>
       </c>
-      <c r="AB29" s="15"/>
+      <c r="AB29" s="15">
+        <v>0</v>
+      </c>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="24"/>
@@ -34892,7 +35148,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -34968,7 +35224,9 @@
       <c r="AA30" s="8">
         <v>1</v>
       </c>
-      <c r="AB30" s="15"/>
+      <c r="AB30" s="15">
+        <v>1</v>
+      </c>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="24"/>
@@ -35078,7 +35336,9 @@
       <c r="AA31" s="8">
         <v>9</v>
       </c>
-      <c r="AB31" s="15"/>
+      <c r="AB31" s="15">
+        <v>12</v>
+      </c>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="24"/>
@@ -35187,7 +35447,9 @@
       <c r="AA32" s="8">
         <v>0</v>
       </c>
-      <c r="AB32" s="15"/>
+      <c r="AB32" s="15">
+        <v>0</v>
+      </c>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
       <c r="AE32" s="24"/>
@@ -35296,7 +35558,9 @@
       <c r="AA33" s="8">
         <v>0</v>
       </c>
-      <c r="AB33" s="15"/>
+      <c r="AB33" s="15">
+        <v>0</v>
+      </c>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="24"/>
@@ -35406,7 +35670,9 @@
       <c r="AA34" s="8">
         <v>5</v>
       </c>
-      <c r="AB34" s="15"/>
+      <c r="AB34" s="15">
+        <v>1</v>
+      </c>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="24"/>
@@ -35438,7 +35704,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -35516,7 +35782,9 @@
       <c r="AA35" s="8">
         <v>81</v>
       </c>
-      <c r="AB35" s="16"/>
+      <c r="AB35" s="16">
+        <v>62</v>
+      </c>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="24"/>
@@ -35547,7 +35815,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -35623,7 +35891,9 @@
       <c r="AA36" s="8">
         <v>16</v>
       </c>
-      <c r="AB36" s="16"/>
+      <c r="AB36" s="16">
+        <v>9</v>
+      </c>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
       <c r="AE36" s="24"/>
@@ -35733,7 +36003,9 @@
       <c r="AA37" s="8">
         <v>16</v>
       </c>
-      <c r="AB37" s="15"/>
+      <c r="AB37" s="15">
+        <v>15</v>
+      </c>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="24"/>
@@ -35842,7 +36114,9 @@
       <c r="AA38" s="8">
         <v>3</v>
       </c>
-      <c r="AB38" s="15"/>
+      <c r="AB38" s="15">
+        <v>1</v>
+      </c>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="24"/>
@@ -35951,7 +36225,9 @@
       <c r="AA39" s="8">
         <v>1</v>
       </c>
-      <c r="AB39" s="15"/>
+      <c r="AB39" s="15">
+        <v>1</v>
+      </c>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
       <c r="AE39" s="24"/>
@@ -36060,7 +36336,9 @@
       <c r="AA40" s="8">
         <v>0</v>
       </c>
-      <c r="AB40" s="15"/>
+      <c r="AB40" s="15">
+        <v>0</v>
+      </c>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
       <c r="AE40" s="24"/>
@@ -36169,7 +36447,9 @@
       <c r="AA41" s="8">
         <v>0</v>
       </c>
-      <c r="AB41" s="15"/>
+      <c r="AB41" s="15">
+        <v>0</v>
+      </c>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
       <c r="AE41" s="24"/>
@@ -36278,7 +36558,9 @@
       <c r="AA42" s="8">
         <v>0</v>
       </c>
-      <c r="AB42" s="15"/>
+      <c r="AB42" s="15">
+        <v>1</v>
+      </c>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
       <c r="AE42" s="24"/>
@@ -36387,7 +36669,9 @@
       <c r="AA43" s="8">
         <v>20</v>
       </c>
-      <c r="AB43" s="15"/>
+      <c r="AB43" s="15">
+        <v>9</v>
+      </c>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="24"/>
@@ -36496,7 +36780,9 @@
       <c r="AA44" s="8">
         <v>0</v>
       </c>
-      <c r="AB44" s="15"/>
+      <c r="AB44" s="15">
+        <v>1</v>
+      </c>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="24"/>
@@ -36605,7 +36891,9 @@
       <c r="AA45" s="8">
         <v>4</v>
       </c>
-      <c r="AB45" s="15"/>
+      <c r="AB45" s="15">
+        <v>3</v>
+      </c>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
       <c r="AE45" s="24"/>
@@ -36714,7 +37002,9 @@
       <c r="AA46" s="8">
         <v>0</v>
       </c>
-      <c r="AB46" s="15"/>
+      <c r="AB46" s="15">
+        <v>0</v>
+      </c>
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
       <c r="AE46" s="24"/>
@@ -36823,7 +37113,9 @@
       <c r="AA47" s="8">
         <v>0</v>
       </c>
-      <c r="AB47" s="15"/>
+      <c r="AB47" s="15">
+        <v>0</v>
+      </c>
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="24"/>
@@ -36932,7 +37224,9 @@
       <c r="AA48" s="8">
         <v>5</v>
       </c>
-      <c r="AB48" s="15"/>
+      <c r="AB48" s="15">
+        <v>1</v>
+      </c>
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
       <c r="AE48" s="24"/>
@@ -36964,7 +37258,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -37042,7 +37336,9 @@
       <c r="AA49" s="8">
         <v>2</v>
       </c>
-      <c r="AB49" s="15"/>
+      <c r="AB49" s="15">
+        <v>2</v>
+      </c>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
       <c r="AE49" s="24"/>
@@ -37073,7 +37369,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -37149,7 +37445,9 @@
       <c r="AA50" s="8">
         <v>1</v>
       </c>
-      <c r="AB50" s="15"/>
+      <c r="AB50" s="15">
+        <v>3</v>
+      </c>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
       <c r="AE50" s="24"/>
@@ -37258,7 +37556,9 @@
       <c r="AA51" s="8">
         <v>0</v>
       </c>
-      <c r="AB51" s="15"/>
+      <c r="AB51" s="15">
+        <v>0</v>
+      </c>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
       <c r="AE51" s="24"/>
@@ -37367,7 +37667,9 @@
       <c r="AA52" s="8">
         <v>1</v>
       </c>
-      <c r="AB52" s="15"/>
+      <c r="AB52" s="15">
+        <v>2</v>
+      </c>
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
       <c r="AE52" s="24"/>
@@ -37476,7 +37778,9 @@
       <c r="AA53" s="8">
         <v>6</v>
       </c>
-      <c r="AB53" s="15"/>
+      <c r="AB53" s="15">
+        <v>2</v>
+      </c>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
       <c r="AE53" s="24"/>
@@ -37585,7 +37889,9 @@
       <c r="AA54" s="8">
         <v>4</v>
       </c>
-      <c r="AB54" s="15"/>
+      <c r="AB54" s="15">
+        <v>2</v>
+      </c>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
       <c r="AE54" s="24"/>
@@ -37694,7 +38000,9 @@
       <c r="AA55" s="8">
         <v>0</v>
       </c>
-      <c r="AB55" s="15"/>
+      <c r="AB55" s="15">
+        <v>0</v>
+      </c>
       <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
       <c r="AE55" s="24"/>
@@ -37803,7 +38111,9 @@
       <c r="AA56" s="8">
         <v>2</v>
       </c>
-      <c r="AB56" s="15"/>
+      <c r="AB56" s="15">
+        <v>0</v>
+      </c>
       <c r="AC56" s="8"/>
       <c r="AD56" s="8"/>
       <c r="AE56" s="24"/>
@@ -37912,7 +38222,9 @@
       <c r="AA57" s="8">
         <v>0</v>
       </c>
-      <c r="AB57" s="15"/>
+      <c r="AB57" s="15">
+        <v>0</v>
+      </c>
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
       <c r="AE57" s="24"/>
@@ -38045,7 +38357,7 @@
       </c>
       <c r="AB58" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="AC58" s="14">
         <f t="shared" si="2"/>
@@ -38182,36 +38494,28 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AQ3:BD3"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -38228,28 +38532,36 @@
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="AQ3:BD3"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -38262,11 +38574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD61"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="AG57" sqref="AG57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -38281,43 +38593,43 @@
   <sheetData>
     <row r="1" spans="1:56" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="59" t="s">
+      <c r="AC1" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="60"/>
+      <c r="AD1" s="56"/>
     </row>
     <row r="2" spans="1:56" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -38346,37 +38658,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -38405,176 +38717,176 @@
       <c r="BD3" s="23"/>
     </row>
     <row r="4" spans="1:56" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="48" t="s">
+      <c r="AA4" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="48" t="s">
+      <c r="AB4" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="48" t="s">
+      <c r="AD4" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
     </row>
     <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
     </row>
     <row r="6" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -38656,7 +38968,9 @@
       <c r="AA6" s="8">
         <v>54</v>
       </c>
-      <c r="AB6" s="15"/>
+      <c r="AB6" s="15">
+        <v>34</v>
+      </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="24"/>
@@ -38765,7 +39079,9 @@
       <c r="AA7" s="8">
         <v>0</v>
       </c>
-      <c r="AB7" s="15"/>
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="24"/>
@@ -38874,7 +39190,9 @@
       <c r="AA8" s="8">
         <v>7</v>
       </c>
-      <c r="AB8" s="15"/>
+      <c r="AB8" s="15">
+        <v>5</v>
+      </c>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="24"/>
@@ -38984,7 +39302,9 @@
       <c r="AA9" s="8">
         <v>33</v>
       </c>
-      <c r="AB9" s="15"/>
+      <c r="AB9" s="15">
+        <v>45</v>
+      </c>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="24"/>
@@ -39093,7 +39413,9 @@
       <c r="AA10" s="8">
         <v>0</v>
       </c>
-      <c r="AB10" s="15"/>
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="24"/>
@@ -39202,7 +39524,9 @@
       <c r="AA11" s="8">
         <v>4</v>
       </c>
-      <c r="AB11" s="15"/>
+      <c r="AB11" s="15">
+        <v>2</v>
+      </c>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="24"/>
@@ -39311,7 +39635,9 @@
       <c r="AA12" s="8">
         <v>1</v>
       </c>
-      <c r="AB12" s="15"/>
+      <c r="AB12" s="15">
+        <v>2</v>
+      </c>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
       <c r="AE12" s="24"/>
@@ -39420,7 +39746,9 @@
       <c r="AA13" s="8">
         <v>5</v>
       </c>
-      <c r="AB13" s="15"/>
+      <c r="AB13" s="15">
+        <v>8</v>
+      </c>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="24"/>
@@ -39529,7 +39857,9 @@
       <c r="AA14" s="8">
         <v>5</v>
       </c>
-      <c r="AB14" s="15"/>
+      <c r="AB14" s="15">
+        <v>8</v>
+      </c>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
       <c r="AE14" s="24"/>
@@ -39638,7 +39968,9 @@
       <c r="AA15" s="8">
         <v>1</v>
       </c>
-      <c r="AB15" s="15"/>
+      <c r="AB15" s="15">
+        <v>0</v>
+      </c>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
       <c r="AE15" s="24"/>
@@ -39748,7 +40080,9 @@
       <c r="AA16" s="8">
         <v>66</v>
       </c>
-      <c r="AB16" s="15"/>
+      <c r="AB16" s="15">
+        <v>70</v>
+      </c>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="24"/>
@@ -39857,7 +40191,9 @@
       <c r="AA17" s="8">
         <v>54</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="16">
+        <v>47</v>
+      </c>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="24"/>
@@ -39967,7 +40303,9 @@
       <c r="AA18" s="8">
         <v>793</v>
       </c>
-      <c r="AB18" s="17"/>
+      <c r="AB18" s="17">
+        <v>688</v>
+      </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="24"/>
@@ -39999,7 +40337,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -40077,7 +40415,9 @@
       <c r="AA19" s="8">
         <v>12</v>
       </c>
-      <c r="AB19" s="15"/>
+      <c r="AB19" s="15">
+        <v>18</v>
+      </c>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="24"/>
@@ -40109,7 +40449,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -40185,7 +40525,9 @@
       <c r="AA20" s="8">
         <v>49</v>
       </c>
-      <c r="AB20" s="16"/>
+      <c r="AB20" s="16">
+        <v>48</v>
+      </c>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="24"/>
@@ -40217,7 +40559,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -40293,7 +40635,9 @@
       <c r="AA21" s="8">
         <v>4</v>
       </c>
-      <c r="AB21" s="15"/>
+      <c r="AB21" s="15">
+        <v>14</v>
+      </c>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="24"/>
@@ -40402,7 +40746,9 @@
       <c r="AA22" s="8">
         <v>6</v>
       </c>
-      <c r="AB22" s="15"/>
+      <c r="AB22" s="15">
+        <v>8</v>
+      </c>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="24"/>
@@ -40511,7 +40857,9 @@
       <c r="AA23" s="8">
         <v>0</v>
       </c>
-      <c r="AB23" s="15"/>
+      <c r="AB23" s="15">
+        <v>1</v>
+      </c>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
       <c r="AE23" s="24"/>
@@ -40620,7 +40968,9 @@
       <c r="AA24" s="8">
         <v>1</v>
       </c>
-      <c r="AB24" s="15"/>
+      <c r="AB24" s="15">
+        <v>5</v>
+      </c>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="24"/>
@@ -40729,7 +41079,9 @@
       <c r="AA25" s="8">
         <v>1</v>
       </c>
-      <c r="AB25" s="15"/>
+      <c r="AB25" s="15">
+        <v>0</v>
+      </c>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="24"/>
@@ -40838,7 +41190,9 @@
       <c r="AA26" s="8">
         <v>6</v>
       </c>
-      <c r="AB26" s="15"/>
+      <c r="AB26" s="15">
+        <v>8</v>
+      </c>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="24"/>
@@ -40947,7 +41301,9 @@
       <c r="AA27" s="8">
         <v>0</v>
       </c>
-      <c r="AB27" s="15"/>
+      <c r="AB27" s="15">
+        <v>0</v>
+      </c>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="24"/>
@@ -41056,7 +41412,9 @@
       <c r="AA28" s="8">
         <v>0</v>
       </c>
-      <c r="AB28" s="15"/>
+      <c r="AB28" s="15">
+        <v>0</v>
+      </c>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="24"/>
@@ -41087,7 +41445,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -41165,7 +41523,9 @@
       <c r="AA29" s="8">
         <v>2</v>
       </c>
-      <c r="AB29" s="15"/>
+      <c r="AB29" s="15">
+        <v>3</v>
+      </c>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="24"/>
@@ -41196,7 +41556,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -41272,7 +41632,9 @@
       <c r="AA30" s="8">
         <v>3</v>
       </c>
-      <c r="AB30" s="15"/>
+      <c r="AB30" s="15">
+        <v>3</v>
+      </c>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="24"/>
@@ -41382,7 +41744,9 @@
       <c r="AA31" s="8">
         <v>12</v>
       </c>
-      <c r="AB31" s="15"/>
+      <c r="AB31" s="15">
+        <v>11</v>
+      </c>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="24"/>
@@ -41491,7 +41855,9 @@
       <c r="AA32" s="8">
         <v>1</v>
       </c>
-      <c r="AB32" s="15"/>
+      <c r="AB32" s="15">
+        <v>0</v>
+      </c>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
       <c r="AE32" s="24"/>
@@ -41600,7 +41966,9 @@
       <c r="AA33" s="8">
         <v>0</v>
       </c>
-      <c r="AB33" s="15"/>
+      <c r="AB33" s="15">
+        <v>0</v>
+      </c>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="24"/>
@@ -41710,7 +42078,9 @@
       <c r="AA34" s="8">
         <v>16</v>
       </c>
-      <c r="AB34" s="15"/>
+      <c r="AB34" s="15">
+        <v>13</v>
+      </c>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="24"/>
@@ -41742,7 +42112,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -41820,7 +42190,9 @@
       <c r="AA35" s="8">
         <v>170</v>
       </c>
-      <c r="AB35" s="16"/>
+      <c r="AB35" s="16">
+        <v>183</v>
+      </c>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="24"/>
@@ -41851,7 +42223,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -41927,7 +42299,9 @@
       <c r="AA36" s="8">
         <v>7</v>
       </c>
-      <c r="AB36" s="16"/>
+      <c r="AB36" s="16">
+        <v>10</v>
+      </c>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
       <c r="AE36" s="24"/>
@@ -42037,7 +42411,9 @@
       <c r="AA37" s="8">
         <v>20</v>
       </c>
-      <c r="AB37" s="15"/>
+      <c r="AB37" s="15">
+        <v>15</v>
+      </c>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="24"/>
@@ -42146,7 +42522,9 @@
       <c r="AA38" s="8">
         <v>4</v>
       </c>
-      <c r="AB38" s="15"/>
+      <c r="AB38" s="15">
+        <v>3</v>
+      </c>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="24"/>
@@ -42255,7 +42633,9 @@
       <c r="AA39" s="8">
         <v>3</v>
       </c>
-      <c r="AB39" s="15"/>
+      <c r="AB39" s="15">
+        <v>5</v>
+      </c>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
       <c r="AE39" s="24"/>
@@ -42364,7 +42744,9 @@
       <c r="AA40" s="8">
         <v>0</v>
       </c>
-      <c r="AB40" s="15"/>
+      <c r="AB40" s="15">
+        <v>0</v>
+      </c>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
       <c r="AE40" s="24"/>
@@ -42473,7 +42855,9 @@
       <c r="AA41" s="8">
         <v>0</v>
       </c>
-      <c r="AB41" s="15"/>
+      <c r="AB41" s="15">
+        <v>0</v>
+      </c>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
       <c r="AE41" s="24"/>
@@ -42582,7 +42966,9 @@
       <c r="AA42" s="8">
         <v>3</v>
       </c>
-      <c r="AB42" s="15"/>
+      <c r="AB42" s="15">
+        <v>1</v>
+      </c>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
       <c r="AE42" s="24"/>
@@ -42691,7 +43077,9 @@
       <c r="AA43" s="8">
         <v>12</v>
       </c>
-      <c r="AB43" s="15"/>
+      <c r="AB43" s="15">
+        <v>8</v>
+      </c>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="24"/>
@@ -42800,7 +43188,9 @@
       <c r="AA44" s="8">
         <v>0</v>
       </c>
-      <c r="AB44" s="15"/>
+      <c r="AB44" s="15">
+        <v>1</v>
+      </c>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="24"/>
@@ -42909,7 +43299,9 @@
       <c r="AA45" s="8">
         <v>6</v>
       </c>
-      <c r="AB45" s="15"/>
+      <c r="AB45" s="15">
+        <v>10</v>
+      </c>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
       <c r="AE45" s="24"/>
@@ -43018,7 +43410,9 @@
       <c r="AA46" s="8">
         <v>3</v>
       </c>
-      <c r="AB46" s="15"/>
+      <c r="AB46" s="15">
+        <v>2</v>
+      </c>
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
       <c r="AE46" s="24"/>
@@ -43127,7 +43521,9 @@
       <c r="AA47" s="8">
         <v>1</v>
       </c>
-      <c r="AB47" s="15"/>
+      <c r="AB47" s="15">
+        <v>1</v>
+      </c>
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="24"/>
@@ -43236,7 +43632,9 @@
       <c r="AA48" s="8">
         <v>1</v>
       </c>
-      <c r="AB48" s="15"/>
+      <c r="AB48" s="15">
+        <v>3</v>
+      </c>
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
       <c r="AE48" s="24"/>
@@ -43268,7 +43666,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -43346,7 +43744,9 @@
       <c r="AA49" s="8">
         <v>17</v>
       </c>
-      <c r="AB49" s="15"/>
+      <c r="AB49" s="15">
+        <v>18</v>
+      </c>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
       <c r="AE49" s="24"/>
@@ -43377,7 +43777,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -43453,7 +43853,9 @@
       <c r="AA50" s="8">
         <v>2</v>
       </c>
-      <c r="AB50" s="15"/>
+      <c r="AB50" s="15">
+        <v>4</v>
+      </c>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
       <c r="AE50" s="24"/>
@@ -43562,7 +43964,9 @@
       <c r="AA51" s="8">
         <v>2</v>
       </c>
-      <c r="AB51" s="15"/>
+      <c r="AB51" s="15">
+        <v>2</v>
+      </c>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
       <c r="AE51" s="24"/>
@@ -43671,7 +44075,9 @@
       <c r="AA52" s="8">
         <v>4</v>
       </c>
-      <c r="AB52" s="15"/>
+      <c r="AB52" s="15">
+        <v>3</v>
+      </c>
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
       <c r="AE52" s="24"/>
@@ -43780,7 +44186,9 @@
       <c r="AA53" s="8">
         <v>13</v>
       </c>
-      <c r="AB53" s="15"/>
+      <c r="AB53" s="15">
+        <v>14</v>
+      </c>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
       <c r="AE53" s="24"/>
@@ -43889,7 +44297,9 @@
       <c r="AA54" s="8">
         <v>3</v>
       </c>
-      <c r="AB54" s="15"/>
+      <c r="AB54" s="15">
+        <v>8</v>
+      </c>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
       <c r="AE54" s="24"/>
@@ -43998,7 +44408,9 @@
       <c r="AA55" s="8">
         <v>9</v>
       </c>
-      <c r="AB55" s="15"/>
+      <c r="AB55" s="15">
+        <v>15</v>
+      </c>
       <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
       <c r="AE55" s="24"/>
@@ -44107,7 +44519,9 @@
       <c r="AA56" s="8">
         <v>1</v>
       </c>
-      <c r="AB56" s="15"/>
+      <c r="AB56" s="15">
+        <v>2</v>
+      </c>
       <c r="AC56" s="8"/>
       <c r="AD56" s="8"/>
       <c r="AE56" s="24"/>
@@ -44216,7 +44630,9 @@
       <c r="AA57" s="8">
         <v>1</v>
       </c>
-      <c r="AB57" s="15"/>
+      <c r="AB57" s="15">
+        <v>1</v>
+      </c>
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
       <c r="AE57" s="24"/>
@@ -44349,7 +44765,7 @@
       </c>
       <c r="AB58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="AC58" s="14">
         <f t="shared" si="0"/>
@@ -44487,31 +44903,28 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="D3:AD3"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="B2:C3"/>
@@ -44528,28 +44941,31 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030922-1\ＪＯＢ030922-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030928-1\ＪＯＢ030928-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
     <sheet name="搬送困難事案（前年同期）" sheetId="43" r:id="rId2"/>
     <sheet name="うちコロナ疑い事案（今回）" sheetId="44" r:id="rId3"/>
     <sheet name="うち非コロナ疑い事案（今回）" sheetId="45" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="46" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'うちコロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
@@ -2467,24 +2466,6 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2521,10 +2502,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2533,11 +2526,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2545,20 +2556,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4925,11 +4924,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BP48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BP6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CB4" sqref="CB4:CB5"/>
+      <selection pane="bottomRight" activeCell="CC4" sqref="CC4:CC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4943,519 +4942,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BA1" s="34" t="s">
+      <c r="BA1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
       <c r="BD1" s="18"/>
       <c r="CD1" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:82" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="46"/>
+      <c r="BT2" s="46"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="46"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
     </row>
     <row r="3" spans="1:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36" t="s">
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
     </row>
     <row r="4" spans="1:82" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AA4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="31" t="s">
+      <c r="AD4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="31" t="s">
+      <c r="AF4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AG4" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="AI4" s="31" t="s">
+      <c r="AI4" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="31" t="s">
+      <c r="AJ4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="31" t="s">
+      <c r="AM4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="31" t="s">
+      <c r="AN4" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="31" t="s">
+      <c r="AO4" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="31" t="s">
+      <c r="AP4" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="31" t="s">
+      <c r="AQ4" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="AR4" s="33" t="s">
+      <c r="AR4" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="33" t="s">
+      <c r="AS4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="33" t="s">
+      <c r="AT4" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="33" t="s">
+      <c r="AU4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="33" t="s">
+      <c r="AV4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="33" t="s">
+      <c r="AW4" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="33" t="s">
+      <c r="AX4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="33" t="s">
+      <c r="AY4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="33" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="33" t="s">
+      <c r="BA4" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="33" t="s">
+      <c r="BB4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="33" t="s">
+      <c r="BC4" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="33" t="s">
+      <c r="BD4" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="BE4" s="33" t="s">
+      <c r="BE4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="BF4" s="33" t="s">
+      <c r="BF4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="33" t="s">
+      <c r="BG4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="33" t="s">
+      <c r="BH4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="BI4" s="33" t="s">
+      <c r="BI4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="BJ4" s="33" t="s">
+      <c r="BJ4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="BK4" s="33" t="s">
+      <c r="BK4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="33" t="s">
+      <c r="BL4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="33" t="s">
+      <c r="BM4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="BN4" s="33" t="s">
+      <c r="BN4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="BO4" s="33" t="s">
+      <c r="BO4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="33" t="s">
+      <c r="BP4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="BQ4" s="33" t="s">
+      <c r="BQ4" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="BR4" s="33" t="s">
+      <c r="BR4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="BS4" s="33" t="s">
+      <c r="BS4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="BT4" s="33" t="s">
+      <c r="BT4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="BU4" s="33" t="s">
+      <c r="BU4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="BV4" s="33" t="s">
+      <c r="BV4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="33" t="s">
+      <c r="BW4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="33" t="s">
+      <c r="BX4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="33" t="s">
+      <c r="BY4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="33" t="s">
+      <c r="BZ4" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="33" t="s">
+      <c r="CA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="33" t="s">
+      <c r="CB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="33" t="s">
+      <c r="CC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="33" t="s">
+      <c r="CD4" s="48" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:82" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
     </row>
     <row r="6" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -5696,7 +5695,9 @@
       <c r="CB6" s="15">
         <v>51</v>
       </c>
-      <c r="CC6" s="8"/>
+      <c r="CC6" s="8">
+        <v>67</v>
+      </c>
       <c r="CD6" s="8"/>
     </row>
     <row r="7" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -5937,7 +5938,9 @@
       <c r="CB7" s="15">
         <v>0</v>
       </c>
-      <c r="CC7" s="8"/>
+      <c r="CC7" s="8">
+        <v>1</v>
+      </c>
       <c r="CD7" s="8"/>
     </row>
     <row r="8" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6178,7 +6181,9 @@
       <c r="CB8" s="15">
         <v>5</v>
       </c>
-      <c r="CC8" s="8"/>
+      <c r="CC8" s="8">
+        <v>6</v>
+      </c>
       <c r="CD8" s="8"/>
     </row>
     <row r="9" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6420,7 +6425,9 @@
       <c r="CB9" s="15">
         <v>50</v>
       </c>
-      <c r="CC9" s="8"/>
+      <c r="CC9" s="8">
+        <v>39</v>
+      </c>
       <c r="CD9" s="8"/>
     </row>
     <row r="10" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6661,7 +6668,9 @@
       <c r="CB10" s="15">
         <v>0</v>
       </c>
-      <c r="CC10" s="8"/>
+      <c r="CC10" s="8">
+        <v>0</v>
+      </c>
       <c r="CD10" s="8"/>
     </row>
     <row r="11" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6902,7 +6911,9 @@
       <c r="CB11" s="15">
         <v>5</v>
       </c>
-      <c r="CC11" s="8"/>
+      <c r="CC11" s="8">
+        <v>10</v>
+      </c>
       <c r="CD11" s="8"/>
     </row>
     <row r="12" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7143,7 +7154,9 @@
       <c r="CB12" s="15">
         <v>2</v>
       </c>
-      <c r="CC12" s="8"/>
+      <c r="CC12" s="8">
+        <v>4</v>
+      </c>
       <c r="CD12" s="8"/>
     </row>
     <row r="13" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7384,7 +7397,9 @@
       <c r="CB13" s="15">
         <v>18</v>
       </c>
-      <c r="CC13" s="8"/>
+      <c r="CC13" s="8">
+        <v>16</v>
+      </c>
       <c r="CD13" s="8"/>
     </row>
     <row r="14" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7625,7 +7640,9 @@
       <c r="CB14" s="15">
         <v>12</v>
       </c>
-      <c r="CC14" s="8"/>
+      <c r="CC14" s="8">
+        <v>7</v>
+      </c>
       <c r="CD14" s="8"/>
     </row>
     <row r="15" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7866,7 +7883,9 @@
       <c r="CB15" s="15">
         <v>0</v>
       </c>
-      <c r="CC15" s="8"/>
+      <c r="CC15" s="8">
+        <v>0</v>
+      </c>
       <c r="CD15" s="8"/>
     </row>
     <row r="16" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8108,7 +8127,9 @@
       <c r="CB16" s="15">
         <v>71</v>
       </c>
-      <c r="CC16" s="8"/>
+      <c r="CC16" s="8">
+        <v>55</v>
+      </c>
       <c r="CD16" s="8"/>
     </row>
     <row r="17" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8349,7 +8370,9 @@
       <c r="CB17" s="16">
         <v>80</v>
       </c>
-      <c r="CC17" s="8"/>
+      <c r="CC17" s="8">
+        <v>90</v>
+      </c>
       <c r="CD17" s="8"/>
     </row>
     <row r="18" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8591,12 +8614,14 @@
       <c r="CB18" s="17">
         <v>908</v>
       </c>
-      <c r="CC18" s="8"/>
+      <c r="CC18" s="8">
+        <v>900</v>
+      </c>
       <c r="CD18" s="8"/>
     </row>
     <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -8833,12 +8858,14 @@
       <c r="CB19" s="15">
         <v>37</v>
       </c>
-      <c r="CC19" s="8"/>
+      <c r="CC19" s="8">
+        <v>27</v>
+      </c>
       <c r="CD19" s="8"/>
     </row>
     <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="43"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -9073,12 +9100,14 @@
       <c r="CB20" s="16">
         <v>112</v>
       </c>
-      <c r="CC20" s="8"/>
+      <c r="CC20" s="8">
+        <v>88</v>
+      </c>
       <c r="CD20" s="8"/>
     </row>
     <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="43"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -9313,7 +9342,9 @@
       <c r="CB21" s="15">
         <v>25</v>
       </c>
-      <c r="CC21" s="8"/>
+      <c r="CC21" s="8">
+        <v>19</v>
+      </c>
       <c r="CD21" s="8"/>
     </row>
     <row r="22" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9554,7 +9585,9 @@
       <c r="CB22" s="15">
         <v>14</v>
       </c>
-      <c r="CC22" s="8"/>
+      <c r="CC22" s="8">
+        <v>8</v>
+      </c>
       <c r="CD22" s="8"/>
     </row>
     <row r="23" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9795,7 +9828,9 @@
       <c r="CB23" s="15">
         <v>1</v>
       </c>
-      <c r="CC23" s="8"/>
+      <c r="CC23" s="8">
+        <v>1</v>
+      </c>
       <c r="CD23" s="8"/>
     </row>
     <row r="24" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -10036,7 +10071,9 @@
       <c r="CB24" s="15">
         <v>6</v>
       </c>
-      <c r="CC24" s="8"/>
+      <c r="CC24" s="8">
+        <v>6</v>
+      </c>
       <c r="CD24" s="8"/>
     </row>
     <row r="25" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -10277,7 +10314,9 @@
       <c r="CB25" s="15">
         <v>0</v>
       </c>
-      <c r="CC25" s="8"/>
+      <c r="CC25" s="8">
+        <v>0</v>
+      </c>
       <c r="CD25" s="8"/>
     </row>
     <row r="26" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -10518,7 +10557,9 @@
       <c r="CB26" s="15">
         <v>10</v>
       </c>
-      <c r="CC26" s="8"/>
+      <c r="CC26" s="8">
+        <v>4</v>
+      </c>
       <c r="CD26" s="8"/>
     </row>
     <row r="27" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -10759,7 +10800,9 @@
       <c r="CB27" s="15">
         <v>0</v>
       </c>
-      <c r="CC27" s="8"/>
+      <c r="CC27" s="8">
+        <v>1</v>
+      </c>
       <c r="CD27" s="8"/>
     </row>
     <row r="28" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -11000,11 +11043,13 @@
       <c r="CB28" s="15">
         <v>0</v>
       </c>
-      <c r="CC28" s="8"/>
+      <c r="CC28" s="8">
+        <v>2</v>
+      </c>
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -11241,11 +11286,13 @@
       <c r="CB29" s="15">
         <v>3</v>
       </c>
-      <c r="CC29" s="8"/>
+      <c r="CC29" s="8">
+        <v>2</v>
+      </c>
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="44"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -11480,7 +11527,9 @@
       <c r="CB30" s="15">
         <v>4</v>
       </c>
-      <c r="CC30" s="8"/>
+      <c r="CC30" s="8">
+        <v>1</v>
+      </c>
       <c r="CD30" s="8"/>
     </row>
     <row r="31" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -11722,7 +11771,9 @@
       <c r="CB31" s="15">
         <v>23</v>
       </c>
-      <c r="CC31" s="8"/>
+      <c r="CC31" s="8">
+        <v>18</v>
+      </c>
       <c r="CD31" s="8"/>
     </row>
     <row r="32" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -11963,7 +12014,9 @@
       <c r="CB32" s="15">
         <v>0</v>
       </c>
-      <c r="CC32" s="8"/>
+      <c r="CC32" s="8">
+        <v>0</v>
+      </c>
       <c r="CD32" s="8"/>
     </row>
     <row r="33" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -12204,7 +12257,9 @@
       <c r="CB33" s="15">
         <v>0</v>
       </c>
-      <c r="CC33" s="8"/>
+      <c r="CC33" s="8">
+        <v>0</v>
+      </c>
       <c r="CD33" s="8"/>
     </row>
     <row r="34" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -12446,12 +12501,14 @@
       <c r="CB34" s="15">
         <v>14</v>
       </c>
-      <c r="CC34" s="8"/>
+      <c r="CC34" s="8">
+        <v>18</v>
+      </c>
       <c r="CD34" s="8"/>
     </row>
     <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -12688,11 +12745,13 @@
       <c r="CB35" s="16">
         <v>245</v>
       </c>
-      <c r="CC35" s="8"/>
+      <c r="CC35" s="8">
+        <v>215</v>
+      </c>
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="43"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -12927,7 +12986,9 @@
       <c r="CB36" s="16">
         <v>19</v>
       </c>
-      <c r="CC36" s="8"/>
+      <c r="CC36" s="8">
+        <v>15</v>
+      </c>
       <c r="CD36" s="8"/>
     </row>
     <row r="37" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13169,7 +13230,9 @@
       <c r="CB37" s="15">
         <v>30</v>
       </c>
-      <c r="CC37" s="8"/>
+      <c r="CC37" s="8">
+        <v>31</v>
+      </c>
       <c r="CD37" s="8"/>
     </row>
     <row r="38" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13410,7 +13473,9 @@
       <c r="CB38" s="15">
         <v>4</v>
       </c>
-      <c r="CC38" s="8"/>
+      <c r="CC38" s="8">
+        <v>3</v>
+      </c>
       <c r="CD38" s="8"/>
     </row>
     <row r="39" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13651,7 +13716,9 @@
       <c r="CB39" s="15">
         <v>6</v>
       </c>
-      <c r="CC39" s="8"/>
+      <c r="CC39" s="8">
+        <v>3</v>
+      </c>
       <c r="CD39" s="8"/>
     </row>
     <row r="40" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13892,7 +13959,9 @@
       <c r="CB40" s="15">
         <v>0</v>
       </c>
-      <c r="CC40" s="8"/>
+      <c r="CC40" s="8">
+        <v>0</v>
+      </c>
       <c r="CD40" s="8"/>
     </row>
     <row r="41" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -14133,7 +14202,9 @@
       <c r="CB41" s="15">
         <v>0</v>
       </c>
-      <c r="CC41" s="8"/>
+      <c r="CC41" s="8">
+        <v>0</v>
+      </c>
       <c r="CD41" s="8"/>
     </row>
     <row r="42" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -14374,7 +14445,9 @@
       <c r="CB42" s="15">
         <v>2</v>
       </c>
-      <c r="CC42" s="8"/>
+      <c r="CC42" s="8">
+        <v>1</v>
+      </c>
       <c r="CD42" s="8"/>
     </row>
     <row r="43" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -14615,7 +14688,9 @@
       <c r="CB43" s="15">
         <v>17</v>
       </c>
-      <c r="CC43" s="8"/>
+      <c r="CC43" s="8">
+        <v>33</v>
+      </c>
       <c r="CD43" s="8"/>
     </row>
     <row r="44" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -14856,7 +14931,9 @@
       <c r="CB44" s="15">
         <v>2</v>
       </c>
-      <c r="CC44" s="8"/>
+      <c r="CC44" s="8">
+        <v>1</v>
+      </c>
       <c r="CD44" s="8"/>
     </row>
     <row r="45" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -15097,7 +15174,9 @@
       <c r="CB45" s="15">
         <v>13</v>
       </c>
-      <c r="CC45" s="8"/>
+      <c r="CC45" s="8">
+        <v>5</v>
+      </c>
       <c r="CD45" s="8"/>
     </row>
     <row r="46" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -15338,7 +15417,9 @@
       <c r="CB46" s="15">
         <v>2</v>
       </c>
-      <c r="CC46" s="8"/>
+      <c r="CC46" s="8">
+        <v>5</v>
+      </c>
       <c r="CD46" s="8"/>
     </row>
     <row r="47" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -15579,7 +15660,9 @@
       <c r="CB47" s="15">
         <v>1</v>
       </c>
-      <c r="CC47" s="8"/>
+      <c r="CC47" s="8">
+        <v>1</v>
+      </c>
       <c r="CD47" s="8"/>
     </row>
     <row r="48" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -15820,12 +15903,14 @@
       <c r="CB48" s="15">
         <v>4</v>
       </c>
-      <c r="CC48" s="8"/>
+      <c r="CC48" s="8">
+        <v>2</v>
+      </c>
       <c r="CD48" s="8"/>
     </row>
     <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -16062,11 +16147,13 @@
       <c r="CB49" s="15">
         <v>20</v>
       </c>
-      <c r="CC49" s="8"/>
+      <c r="CC49" s="8">
+        <v>10</v>
+      </c>
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -16301,7 +16388,9 @@
       <c r="CB50" s="15">
         <v>7</v>
       </c>
-      <c r="CC50" s="8"/>
+      <c r="CC50" s="8">
+        <v>2</v>
+      </c>
       <c r="CD50" s="8"/>
     </row>
     <row r="51" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -16542,7 +16631,9 @@
       <c r="CB51" s="15">
         <v>2</v>
       </c>
-      <c r="CC51" s="8"/>
+      <c r="CC51" s="8">
+        <v>2</v>
+      </c>
       <c r="CD51" s="8"/>
     </row>
     <row r="52" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -16783,7 +16874,9 @@
       <c r="CB52" s="15">
         <v>5</v>
       </c>
-      <c r="CC52" s="8"/>
+      <c r="CC52" s="8">
+        <v>5</v>
+      </c>
       <c r="CD52" s="8"/>
     </row>
     <row r="53" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -17024,7 +17117,9 @@
       <c r="CB53" s="15">
         <v>16</v>
       </c>
-      <c r="CC53" s="8"/>
+      <c r="CC53" s="8">
+        <v>12</v>
+      </c>
       <c r="CD53" s="8"/>
     </row>
     <row r="54" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -17265,7 +17360,9 @@
       <c r="CB54" s="15">
         <v>10</v>
       </c>
-      <c r="CC54" s="8"/>
+      <c r="CC54" s="8">
+        <v>7</v>
+      </c>
       <c r="CD54" s="8"/>
     </row>
     <row r="55" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -17506,7 +17603,9 @@
       <c r="CB55" s="15">
         <v>15</v>
       </c>
-      <c r="CC55" s="8"/>
+      <c r="CC55" s="8">
+        <v>6</v>
+      </c>
       <c r="CD55" s="8"/>
     </row>
     <row r="56" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -17747,7 +17846,9 @@
       <c r="CB56" s="15">
         <v>2</v>
       </c>
-      <c r="CC56" s="8"/>
+      <c r="CC56" s="8">
+        <v>3</v>
+      </c>
       <c r="CD56" s="8"/>
     </row>
     <row r="57" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -17988,7 +18089,9 @@
       <c r="CB57" s="15">
         <v>1</v>
       </c>
-      <c r="CC57" s="8"/>
+      <c r="CC57" s="8">
+        <v>0</v>
+      </c>
       <c r="CD57" s="8"/>
     </row>
     <row r="58" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -18306,7 +18409,7 @@
       </c>
       <c r="CC58" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="CD58" s="14">
         <v>0</v>
@@ -18484,26 +18587,26 @@
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -18566,6 +18669,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="D3:AQ3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="B49:B50"/>
@@ -18582,83 +18762,6 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18674,11 +18777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BH32" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="BI50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BY64" sqref="BY64"/>
+      <selection pane="bottomRight" activeCell="CC58" sqref="CC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18692,519 +18795,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:82" ht="24" x14ac:dyDescent="0.4">
-      <c r="BB1" s="49" t="s">
+      <c r="BB1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="49"/>
+      <c r="BC1" s="52"/>
       <c r="BI1" s="20"/>
-      <c r="CC1" s="49" t="s">
+      <c r="CC1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="CD1" s="49"/>
+      <c r="CD1" s="52"/>
     </row>
     <row r="2" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="46"/>
+      <c r="BT2" s="46"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="46"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
     </row>
     <row r="3" spans="2:82" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36" t="s">
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="47"/>
+      <c r="BY3" s="47"/>
+      <c r="BZ3" s="47"/>
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="47"/>
+      <c r="CC3" s="47"/>
+      <c r="CD3" s="47"/>
     </row>
     <row r="4" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="51" t="s">
+      <c r="Z4" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="51" t="s">
+      <c r="AA4" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="51" t="s">
+      <c r="AK4" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AM4" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="51" t="s">
+      <c r="AO4" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="51" t="s">
+      <c r="AP4" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AR4" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="51" t="s">
+      <c r="AS4" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="51" t="s">
+      <c r="AU4" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="51" t="s">
+      <c r="AV4" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="51" t="s">
+      <c r="AW4" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="51" t="s">
+      <c r="AX4" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="51" t="s">
+      <c r="AY4" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="51" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="51" t="s">
+      <c r="BA4" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="51" t="s">
+      <c r="BB4" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="51" t="s">
+      <c r="BC4" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="31" t="s">
+      <c r="BD4" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="31" t="s">
+      <c r="BE4" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" s="31" t="s">
+      <c r="BF4" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="BG4" s="31" t="s">
+      <c r="BG4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" s="31" t="s">
+      <c r="BH4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="BI4" s="31" t="s">
+      <c r="BI4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="31" t="s">
+      <c r="BJ4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="31" t="s">
+      <c r="BK4" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="31" t="s">
+      <c r="BL4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="31" t="s">
+      <c r="BM4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="31" t="s">
+      <c r="BN4" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="31" t="s">
+      <c r="BO4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="50" t="s">
+      <c r="BP4" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="BQ4" s="50" t="s">
+      <c r="BQ4" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="BR4" s="50" t="s">
+      <c r="BR4" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="BS4" s="50" t="s">
+      <c r="BS4" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="BT4" s="50" t="s">
+      <c r="BT4" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="BU4" s="50" t="s">
+      <c r="BU4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="BV4" s="50" t="s">
+      <c r="BV4" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="BW4" s="50" t="s">
+      <c r="BW4" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="BX4" s="50" t="s">
+      <c r="BX4" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="BY4" s="50" t="s">
+      <c r="BY4" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="BZ4" s="50" t="s">
+      <c r="BZ4" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="CA4" s="50" t="s">
+      <c r="CA4" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="CB4" s="50" t="s">
+      <c r="CB4" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="50" t="s">
+      <c r="CC4" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="31" t="s">
+      <c r="CD4" s="43" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="5" spans="2:82" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="44"/>
+      <c r="BW5" s="44"/>
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
     </row>
     <row r="6" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
@@ -19444,7 +19547,9 @@
       <c r="CB6" s="15">
         <v>54</v>
       </c>
-      <c r="CC6" s="8"/>
+      <c r="CC6" s="8">
+        <v>65</v>
+      </c>
       <c r="CD6" s="8"/>
     </row>
     <row r="7" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -19685,7 +19790,9 @@
       <c r="CB7" s="15">
         <v>1</v>
       </c>
-      <c r="CC7" s="8"/>
+      <c r="CC7" s="8">
+        <v>0</v>
+      </c>
       <c r="CD7" s="8"/>
     </row>
     <row r="8" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -19926,7 +20033,9 @@
       <c r="CB8" s="15">
         <v>5</v>
       </c>
-      <c r="CC8" s="8"/>
+      <c r="CC8" s="8">
+        <v>5</v>
+      </c>
       <c r="CD8" s="8"/>
     </row>
     <row r="9" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -20167,7 +20276,9 @@
       <c r="CB9" s="15">
         <v>30</v>
       </c>
-      <c r="CC9" s="8"/>
+      <c r="CC9" s="8">
+        <v>28</v>
+      </c>
       <c r="CD9" s="8"/>
     </row>
     <row r="10" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -20408,7 +20519,9 @@
       <c r="CB10" s="15">
         <v>0</v>
       </c>
-      <c r="CC10" s="8"/>
+      <c r="CC10" s="8">
+        <v>0</v>
+      </c>
       <c r="CD10" s="8"/>
     </row>
     <row r="11" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -20649,7 +20762,9 @@
       <c r="CB11" s="15">
         <v>0</v>
       </c>
-      <c r="CC11" s="8"/>
+      <c r="CC11" s="8">
+        <v>5</v>
+      </c>
       <c r="CD11" s="8"/>
     </row>
     <row r="12" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -20890,7 +21005,9 @@
       <c r="CB12" s="15">
         <v>1</v>
       </c>
-      <c r="CC12" s="8"/>
+      <c r="CC12" s="8">
+        <v>2</v>
+      </c>
       <c r="CD12" s="8"/>
     </row>
     <row r="13" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -21131,7 +21248,9 @@
       <c r="CB13" s="15">
         <v>9</v>
       </c>
-      <c r="CC13" s="8"/>
+      <c r="CC13" s="8">
+        <v>13</v>
+      </c>
       <c r="CD13" s="8"/>
     </row>
     <row r="14" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -21372,7 +21491,9 @@
       <c r="CB14" s="15">
         <v>10</v>
       </c>
-      <c r="CC14" s="8"/>
+      <c r="CC14" s="8">
+        <v>7</v>
+      </c>
       <c r="CD14" s="8"/>
     </row>
     <row r="15" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -21613,7 +21734,9 @@
       <c r="CB15" s="15">
         <v>0</v>
       </c>
-      <c r="CC15" s="8"/>
+      <c r="CC15" s="8">
+        <v>0</v>
+      </c>
       <c r="CD15" s="8"/>
     </row>
     <row r="16" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -21854,7 +21977,9 @@
       <c r="CB16" s="15">
         <v>29</v>
       </c>
-      <c r="CC16" s="8"/>
+      <c r="CC16" s="8">
+        <v>51</v>
+      </c>
       <c r="CD16" s="8"/>
     </row>
     <row r="17" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -22095,7 +22220,9 @@
       <c r="CB17" s="16">
         <v>60</v>
       </c>
-      <c r="CC17" s="8"/>
+      <c r="CC17" s="8">
+        <v>72</v>
+      </c>
       <c r="CD17" s="8"/>
     </row>
     <row r="18" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -22336,11 +22463,13 @@
       <c r="CB18" s="17">
         <v>544</v>
       </c>
-      <c r="CC18" s="8"/>
+      <c r="CC18" s="8">
+        <v>587</v>
+      </c>
       <c r="CD18" s="8"/>
     </row>
     <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -22577,11 +22706,13 @@
       <c r="CB19" s="15">
         <v>18</v>
       </c>
-      <c r="CC19" s="8"/>
+      <c r="CC19" s="8">
+        <v>14</v>
+      </c>
       <c r="CD19" s="8"/>
     </row>
     <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="43"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -22816,11 +22947,13 @@
       <c r="CB20" s="16">
         <v>67</v>
       </c>
-      <c r="CC20" s="8"/>
+      <c r="CC20" s="8">
+        <v>84</v>
+      </c>
       <c r="CD20" s="8"/>
     </row>
     <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="43"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -23055,7 +23188,9 @@
       <c r="CB21" s="15">
         <v>19</v>
       </c>
-      <c r="CC21" s="8"/>
+      <c r="CC21" s="8">
+        <v>18</v>
+      </c>
       <c r="CD21" s="8"/>
     </row>
     <row r="22" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -23296,7 +23431,9 @@
       <c r="CB22" s="15">
         <v>9</v>
       </c>
-      <c r="CC22" s="8"/>
+      <c r="CC22" s="8">
+        <v>8</v>
+      </c>
       <c r="CD22" s="8"/>
     </row>
     <row r="23" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -23537,7 +23674,9 @@
       <c r="CB23" s="15">
         <v>0</v>
       </c>
-      <c r="CC23" s="8"/>
+      <c r="CC23" s="8">
+        <v>0</v>
+      </c>
       <c r="CD23" s="8"/>
     </row>
     <row r="24" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -23778,7 +23917,9 @@
       <c r="CB24" s="15">
         <v>4</v>
       </c>
-      <c r="CC24" s="8"/>
+      <c r="CC24" s="8">
+        <v>5</v>
+      </c>
       <c r="CD24" s="8"/>
     </row>
     <row r="25" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -24019,7 +24160,9 @@
       <c r="CB25" s="15">
         <v>0</v>
       </c>
-      <c r="CC25" s="8"/>
+      <c r="CC25" s="8">
+        <v>1</v>
+      </c>
       <c r="CD25" s="8"/>
     </row>
     <row r="26" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -24260,7 +24403,9 @@
       <c r="CB26" s="15">
         <v>7</v>
       </c>
-      <c r="CC26" s="8"/>
+      <c r="CC26" s="8">
+        <v>6</v>
+      </c>
       <c r="CD26" s="8"/>
     </row>
     <row r="27" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -24501,7 +24646,9 @@
       <c r="CB27" s="15">
         <v>1</v>
       </c>
-      <c r="CC27" s="8"/>
+      <c r="CC27" s="8">
+        <v>0</v>
+      </c>
       <c r="CD27" s="8"/>
     </row>
     <row r="28" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -24742,11 +24889,13 @@
       <c r="CB28" s="15">
         <v>1</v>
       </c>
-      <c r="CC28" s="8"/>
+      <c r="CC28" s="8">
+        <v>0</v>
+      </c>
       <c r="CD28" s="8"/>
     </row>
     <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -24983,11 +25132,13 @@
       <c r="CB29" s="15">
         <v>4</v>
       </c>
-      <c r="CC29" s="8"/>
+      <c r="CC29" s="8">
+        <v>2</v>
+      </c>
       <c r="CD29" s="8"/>
     </row>
     <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="44"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -25222,7 +25373,9 @@
       <c r="CB30" s="15">
         <v>0</v>
       </c>
-      <c r="CC30" s="8"/>
+      <c r="CC30" s="8">
+        <v>0</v>
+      </c>
       <c r="CD30" s="8"/>
     </row>
     <row r="31" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -25463,7 +25616,9 @@
       <c r="CB31" s="15">
         <v>11</v>
       </c>
-      <c r="CC31" s="8"/>
+      <c r="CC31" s="8">
+        <v>13</v>
+      </c>
       <c r="CD31" s="8"/>
     </row>
     <row r="32" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -25704,7 +25859,9 @@
       <c r="CB32" s="15">
         <v>1</v>
       </c>
-      <c r="CC32" s="8"/>
+      <c r="CC32" s="8">
+        <v>0</v>
+      </c>
       <c r="CD32" s="8"/>
     </row>
     <row r="33" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -25945,7 +26102,9 @@
       <c r="CB33" s="15">
         <v>0</v>
       </c>
-      <c r="CC33" s="8"/>
+      <c r="CC33" s="8">
+        <v>0</v>
+      </c>
       <c r="CD33" s="8"/>
     </row>
     <row r="34" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -26186,11 +26345,13 @@
       <c r="CB34" s="15">
         <v>7</v>
       </c>
-      <c r="CC34" s="8"/>
+      <c r="CC34" s="8">
+        <v>26</v>
+      </c>
       <c r="CD34" s="8"/>
     </row>
     <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -26427,11 +26588,13 @@
       <c r="CB35" s="16">
         <v>165</v>
       </c>
-      <c r="CC35" s="8"/>
+      <c r="CC35" s="8">
+        <v>166</v>
+      </c>
       <c r="CD35" s="8"/>
     </row>
     <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="43"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -26666,7 +26829,9 @@
       <c r="CB36" s="16">
         <v>18</v>
       </c>
-      <c r="CC36" s="8"/>
+      <c r="CC36" s="8">
+        <v>18</v>
+      </c>
       <c r="CD36" s="8"/>
     </row>
     <row r="37" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -26907,7 +27072,9 @@
       <c r="CB37" s="15">
         <v>11</v>
       </c>
-      <c r="CC37" s="8"/>
+      <c r="CC37" s="8">
+        <v>11</v>
+      </c>
       <c r="CD37" s="8"/>
     </row>
     <row r="38" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -27148,7 +27315,9 @@
       <c r="CB38" s="15">
         <v>1</v>
       </c>
-      <c r="CC38" s="8"/>
+      <c r="CC38" s="8">
+        <v>3</v>
+      </c>
       <c r="CD38" s="8"/>
     </row>
     <row r="39" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -27389,7 +27558,9 @@
       <c r="CB39" s="15">
         <v>2</v>
       </c>
-      <c r="CC39" s="8"/>
+      <c r="CC39" s="8">
+        <v>0</v>
+      </c>
       <c r="CD39" s="8"/>
     </row>
     <row r="40" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -27630,7 +27801,9 @@
       <c r="CB40" s="15">
         <v>0</v>
       </c>
-      <c r="CC40" s="8"/>
+      <c r="CC40" s="8">
+        <v>0</v>
+      </c>
       <c r="CD40" s="8"/>
     </row>
     <row r="41" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -27871,7 +28044,9 @@
       <c r="CB41" s="15">
         <v>0</v>
       </c>
-      <c r="CC41" s="8"/>
+      <c r="CC41" s="8">
+        <v>0</v>
+      </c>
       <c r="CD41" s="8"/>
     </row>
     <row r="42" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -28112,7 +28287,9 @@
       <c r="CB42" s="15">
         <v>1</v>
       </c>
-      <c r="CC42" s="8"/>
+      <c r="CC42" s="8">
+        <v>2</v>
+      </c>
       <c r="CD42" s="8"/>
     </row>
     <row r="43" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -28353,7 +28530,9 @@
       <c r="CB43" s="15">
         <v>20</v>
       </c>
-      <c r="CC43" s="8"/>
+      <c r="CC43" s="8">
+        <v>33</v>
+      </c>
       <c r="CD43" s="8"/>
     </row>
     <row r="44" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -28594,7 +28773,9 @@
       <c r="CB44" s="15">
         <v>2</v>
       </c>
-      <c r="CC44" s="8"/>
+      <c r="CC44" s="8">
+        <v>0</v>
+      </c>
       <c r="CD44" s="8"/>
     </row>
     <row r="45" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -28835,7 +29016,9 @@
       <c r="CB45" s="15">
         <v>1</v>
       </c>
-      <c r="CC45" s="8"/>
+      <c r="CC45" s="8">
+        <v>2</v>
+      </c>
       <c r="CD45" s="8"/>
     </row>
     <row r="46" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -29076,7 +29259,9 @@
       <c r="CB46" s="15">
         <v>4</v>
       </c>
-      <c r="CC46" s="8"/>
+      <c r="CC46" s="8">
+        <v>3</v>
+      </c>
       <c r="CD46" s="8"/>
     </row>
     <row r="47" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -29317,7 +29502,9 @@
       <c r="CB47" s="15">
         <v>1</v>
       </c>
-      <c r="CC47" s="8"/>
+      <c r="CC47" s="8">
+        <v>0</v>
+      </c>
       <c r="CD47" s="8"/>
     </row>
     <row r="48" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -29558,11 +29745,13 @@
       <c r="CB48" s="15">
         <v>6</v>
       </c>
-      <c r="CC48" s="8"/>
+      <c r="CC48" s="8">
+        <v>4</v>
+      </c>
       <c r="CD48" s="8"/>
     </row>
     <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -29799,11 +29988,13 @@
       <c r="CB49" s="15">
         <v>15</v>
       </c>
-      <c r="CC49" s="8"/>
+      <c r="CC49" s="8">
+        <v>15</v>
+      </c>
       <c r="CD49" s="8"/>
     </row>
     <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -30038,7 +30229,9 @@
       <c r="CB50" s="15">
         <v>1</v>
       </c>
-      <c r="CC50" s="8"/>
+      <c r="CC50" s="8">
+        <v>6</v>
+      </c>
       <c r="CD50" s="8"/>
     </row>
     <row r="51" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -30279,7 +30472,9 @@
       <c r="CB51" s="15">
         <v>0</v>
       </c>
-      <c r="CC51" s="8"/>
+      <c r="CC51" s="8">
+        <v>1</v>
+      </c>
       <c r="CD51" s="8"/>
     </row>
     <row r="52" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -30520,7 +30715,9 @@
       <c r="CB52" s="15">
         <v>7</v>
       </c>
-      <c r="CC52" s="8"/>
+      <c r="CC52" s="8">
+        <v>2</v>
+      </c>
       <c r="CD52" s="8"/>
     </row>
     <row r="53" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -30761,7 +30958,9 @@
       <c r="CB53" s="15">
         <v>8</v>
       </c>
-      <c r="CC53" s="8"/>
+      <c r="CC53" s="8">
+        <v>4</v>
+      </c>
       <c r="CD53" s="8"/>
     </row>
     <row r="54" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -31002,7 +31201,9 @@
       <c r="CB54" s="15">
         <v>4</v>
       </c>
-      <c r="CC54" s="8"/>
+      <c r="CC54" s="8">
+        <v>5</v>
+      </c>
       <c r="CD54" s="8"/>
     </row>
     <row r="55" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -31243,7 +31444,9 @@
       <c r="CB55" s="15">
         <v>9</v>
       </c>
-      <c r="CC55" s="8"/>
+      <c r="CC55" s="8">
+        <v>5</v>
+      </c>
       <c r="CD55" s="8"/>
     </row>
     <row r="56" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -31484,7 +31687,9 @@
       <c r="CB56" s="15">
         <v>2</v>
       </c>
-      <c r="CC56" s="8"/>
+      <c r="CC56" s="8">
+        <v>2</v>
+      </c>
       <c r="CD56" s="8"/>
     </row>
     <row r="57" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -31725,7 +31930,9 @@
       <c r="CB57" s="15">
         <v>0</v>
       </c>
-      <c r="CC57" s="8"/>
+      <c r="CC57" s="8">
+        <v>1</v>
+      </c>
       <c r="CD57" s="8"/>
     </row>
     <row r="58" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -32042,7 +32249,7 @@
       </c>
       <c r="CC58" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="CD58" s="28">
         <v>0</v>
@@ -32050,6 +32257,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="BD3:CD3"/>
+    <mergeCell ref="BD2:CD2"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:B36"/>
@@ -32066,83 +32350,6 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="BD3:CD3"/>
-    <mergeCell ref="BD2:CD2"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BQ4:BQ5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32158,11 +32365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="V33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AL24" sqref="AL24"/>
+      <selection pane="bottomRight" activeCell="AC59" sqref="AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -32177,43 +32384,43 @@
   <sheetData>
     <row r="1" spans="1:60" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="56"/>
+      <c r="AD1" s="60"/>
     </row>
     <row r="2" spans="1:60" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -32242,37 +32449,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:60" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -32285,200 +32492,200 @@
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
       <c r="AP3" s="23"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="54"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61"/>
     </row>
     <row r="4" spans="1:60" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="58"/>
     </row>
     <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="58"/>
+      <c r="BH5" s="58"/>
     </row>
     <row r="6" spans="1:60" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -32563,7 +32770,9 @@
       <c r="AB6" s="15">
         <v>17</v>
       </c>
-      <c r="AC6" s="8"/>
+      <c r="AC6" s="8">
+        <v>24</v>
+      </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="24"/>
       <c r="AF6" s="25"/>
@@ -32674,7 +32883,9 @@
       <c r="AB7" s="15">
         <v>0</v>
       </c>
-      <c r="AC7" s="8"/>
+      <c r="AC7" s="8">
+        <v>1</v>
+      </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="24"/>
       <c r="AF7" s="26"/>
@@ -32785,7 +32996,9 @@
       <c r="AB8" s="15">
         <v>0</v>
       </c>
-      <c r="AC8" s="8"/>
+      <c r="AC8" s="8">
+        <v>0</v>
+      </c>
       <c r="AD8" s="8"/>
       <c r="AE8" s="24"/>
       <c r="AF8" s="26"/>
@@ -32897,7 +33110,9 @@
       <c r="AB9" s="15">
         <v>5</v>
       </c>
-      <c r="AC9" s="8"/>
+      <c r="AC9" s="8">
+        <v>1</v>
+      </c>
       <c r="AD9" s="8"/>
       <c r="AE9" s="24"/>
       <c r="AF9" s="26"/>
@@ -33008,7 +33223,9 @@
       <c r="AB10" s="15">
         <v>0</v>
       </c>
-      <c r="AC10" s="8"/>
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
       <c r="AD10" s="8"/>
       <c r="AE10" s="24"/>
       <c r="AF10" s="26"/>
@@ -33119,7 +33336,9 @@
       <c r="AB11" s="15">
         <v>3</v>
       </c>
-      <c r="AC11" s="8"/>
+      <c r="AC11" s="8">
+        <v>3</v>
+      </c>
       <c r="AD11" s="8"/>
       <c r="AE11" s="24"/>
       <c r="AF11" s="26"/>
@@ -33230,7 +33449,9 @@
       <c r="AB12" s="15">
         <v>0</v>
       </c>
-      <c r="AC12" s="8"/>
+      <c r="AC12" s="8">
+        <v>1</v>
+      </c>
       <c r="AD12" s="8"/>
       <c r="AE12" s="24"/>
       <c r="AF12" s="26"/>
@@ -33341,7 +33562,9 @@
       <c r="AB13" s="15">
         <v>10</v>
       </c>
-      <c r="AC13" s="8"/>
+      <c r="AC13" s="8">
+        <v>7</v>
+      </c>
       <c r="AD13" s="8"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="25"/>
@@ -33452,7 +33675,9 @@
       <c r="AB14" s="15">
         <v>4</v>
       </c>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="8">
+        <v>1</v>
+      </c>
       <c r="AD14" s="8"/>
       <c r="AE14" s="24"/>
       <c r="AF14" s="26"/>
@@ -33563,7 +33788,9 @@
       <c r="AB15" s="15">
         <v>0</v>
       </c>
-      <c r="AC15" s="8"/>
+      <c r="AC15" s="8">
+        <v>0</v>
+      </c>
       <c r="AD15" s="8"/>
       <c r="AE15" s="24"/>
       <c r="AF15" s="26"/>
@@ -33675,7 +33902,9 @@
       <c r="AB16" s="15">
         <v>1</v>
       </c>
-      <c r="AC16" s="8"/>
+      <c r="AC16" s="8">
+        <v>0</v>
+      </c>
       <c r="AD16" s="8"/>
       <c r="AE16" s="24"/>
       <c r="AF16" s="25"/>
@@ -33786,7 +34015,9 @@
       <c r="AB17" s="16">
         <v>33</v>
       </c>
-      <c r="AC17" s="8"/>
+      <c r="AC17" s="8">
+        <v>38</v>
+      </c>
       <c r="AD17" s="8"/>
       <c r="AE17" s="24"/>
       <c r="AF17" s="25"/>
@@ -33898,7 +34129,9 @@
       <c r="AB18" s="17">
         <v>220</v>
       </c>
-      <c r="AC18" s="8"/>
+      <c r="AC18" s="8">
+        <v>165</v>
+      </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="24"/>
       <c r="AF18" s="25"/>
@@ -33929,7 +34162,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -34010,7 +34243,9 @@
       <c r="AB19" s="15">
         <v>19</v>
       </c>
-      <c r="AC19" s="8"/>
+      <c r="AC19" s="8">
+        <v>16</v>
+      </c>
       <c r="AD19" s="8"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="25"/>
@@ -34041,7 +34276,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -34120,7 +34355,9 @@
       <c r="AB20" s="16">
         <v>64</v>
       </c>
-      <c r="AC20" s="8"/>
+      <c r="AC20" s="8">
+        <v>56</v>
+      </c>
       <c r="AD20" s="8"/>
       <c r="AE20" s="24"/>
       <c r="AF20" s="25"/>
@@ -34151,7 +34388,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="58"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -34230,7 +34467,9 @@
       <c r="AB21" s="15">
         <v>11</v>
       </c>
-      <c r="AC21" s="8"/>
+      <c r="AC21" s="8">
+        <v>10</v>
+      </c>
       <c r="AD21" s="8"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="25"/>
@@ -34341,7 +34580,9 @@
       <c r="AB22" s="15">
         <v>6</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="8">
+        <v>4</v>
+      </c>
       <c r="AD22" s="8"/>
       <c r="AE22" s="24"/>
       <c r="AF22" s="26"/>
@@ -34452,7 +34693,9 @@
       <c r="AB23" s="15">
         <v>0</v>
       </c>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="8">
+        <v>0</v>
+      </c>
       <c r="AD23" s="8"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="26"/>
@@ -34563,7 +34806,9 @@
       <c r="AB24" s="15">
         <v>1</v>
       </c>
-      <c r="AC24" s="8"/>
+      <c r="AC24" s="8">
+        <v>2</v>
+      </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="24"/>
       <c r="AF24" s="25"/>
@@ -34674,7 +34919,9 @@
       <c r="AB25" s="15">
         <v>0</v>
       </c>
-      <c r="AC25" s="8"/>
+      <c r="AC25" s="8">
+        <v>0</v>
+      </c>
       <c r="AD25" s="8"/>
       <c r="AE25" s="24"/>
       <c r="AF25" s="26"/>
@@ -34785,7 +35032,9 @@
       <c r="AB26" s="15">
         <v>2</v>
       </c>
-      <c r="AC26" s="8"/>
+      <c r="AC26" s="8">
+        <v>2</v>
+      </c>
       <c r="AD26" s="8"/>
       <c r="AE26" s="24"/>
       <c r="AF26" s="26"/>
@@ -34896,7 +35145,9 @@
       <c r="AB27" s="15">
         <v>0</v>
       </c>
-      <c r="AC27" s="8"/>
+      <c r="AC27" s="8">
+        <v>0</v>
+      </c>
       <c r="AD27" s="8"/>
       <c r="AE27" s="24"/>
       <c r="AF27" s="26"/>
@@ -35007,7 +35258,9 @@
       <c r="AB28" s="15">
         <v>0</v>
       </c>
-      <c r="AC28" s="8"/>
+      <c r="AC28" s="8">
+        <v>0</v>
+      </c>
       <c r="AD28" s="8"/>
       <c r="AE28" s="24"/>
       <c r="AF28" s="25"/>
@@ -35037,7 +35290,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="56" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -35118,7 +35371,9 @@
       <c r="AB29" s="15">
         <v>0</v>
       </c>
-      <c r="AC29" s="8"/>
+      <c r="AC29" s="8">
+        <v>0</v>
+      </c>
       <c r="AD29" s="8"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="26"/>
@@ -35148,7 +35403,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -35227,7 +35482,9 @@
       <c r="AB30" s="15">
         <v>1</v>
       </c>
-      <c r="AC30" s="8"/>
+      <c r="AC30" s="8">
+        <v>0</v>
+      </c>
       <c r="AD30" s="8"/>
       <c r="AE30" s="24"/>
       <c r="AF30" s="26"/>
@@ -35339,7 +35596,9 @@
       <c r="AB31" s="15">
         <v>12</v>
       </c>
-      <c r="AC31" s="8"/>
+      <c r="AC31" s="8">
+        <v>8</v>
+      </c>
       <c r="AD31" s="8"/>
       <c r="AE31" s="24"/>
       <c r="AF31" s="25"/>
@@ -35450,7 +35709,9 @@
       <c r="AB32" s="15">
         <v>0</v>
       </c>
-      <c r="AC32" s="8"/>
+      <c r="AC32" s="8">
+        <v>0</v>
+      </c>
       <c r="AD32" s="8"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="26"/>
@@ -35561,7 +35822,9 @@
       <c r="AB33" s="15">
         <v>0</v>
       </c>
-      <c r="AC33" s="8"/>
+      <c r="AC33" s="8">
+        <v>0</v>
+      </c>
       <c r="AD33" s="8"/>
       <c r="AE33" s="24"/>
       <c r="AF33" s="26"/>
@@ -35673,7 +35936,9 @@
       <c r="AB34" s="15">
         <v>1</v>
       </c>
-      <c r="AC34" s="8"/>
+      <c r="AC34" s="8">
+        <v>1</v>
+      </c>
       <c r="AD34" s="8"/>
       <c r="AE34" s="24"/>
       <c r="AF34" s="25"/>
@@ -35704,7 +35969,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -35785,7 +36050,9 @@
       <c r="AB35" s="16">
         <v>62</v>
       </c>
-      <c r="AC35" s="8"/>
+      <c r="AC35" s="8">
+        <v>52</v>
+      </c>
       <c r="AD35" s="8"/>
       <c r="AE35" s="24"/>
       <c r="AF35" s="25"/>
@@ -35815,7 +36082,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="58"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -35894,7 +36161,9 @@
       <c r="AB36" s="16">
         <v>9</v>
       </c>
-      <c r="AC36" s="8"/>
+      <c r="AC36" s="8">
+        <v>9</v>
+      </c>
       <c r="AD36" s="8"/>
       <c r="AE36" s="24"/>
       <c r="AF36" s="25"/>
@@ -36006,7 +36275,9 @@
       <c r="AB37" s="15">
         <v>15</v>
       </c>
-      <c r="AC37" s="8"/>
+      <c r="AC37" s="8">
+        <v>13</v>
+      </c>
       <c r="AD37" s="8"/>
       <c r="AE37" s="24"/>
       <c r="AF37" s="25"/>
@@ -36117,7 +36388,9 @@
       <c r="AB38" s="15">
         <v>1</v>
       </c>
-      <c r="AC38" s="8"/>
+      <c r="AC38" s="8">
+        <v>1</v>
+      </c>
       <c r="AD38" s="8"/>
       <c r="AE38" s="24"/>
       <c r="AF38" s="26"/>
@@ -36228,7 +36501,9 @@
       <c r="AB39" s="15">
         <v>1</v>
       </c>
-      <c r="AC39" s="8"/>
+      <c r="AC39" s="8">
+        <v>3</v>
+      </c>
       <c r="AD39" s="8"/>
       <c r="AE39" s="24"/>
       <c r="AF39" s="26"/>
@@ -36339,7 +36614,9 @@
       <c r="AB40" s="15">
         <v>0</v>
       </c>
-      <c r="AC40" s="8"/>
+      <c r="AC40" s="8">
+        <v>0</v>
+      </c>
       <c r="AD40" s="8"/>
       <c r="AE40" s="24"/>
       <c r="AF40" s="26"/>
@@ -36450,7 +36727,9 @@
       <c r="AB41" s="15">
         <v>0</v>
       </c>
-      <c r="AC41" s="8"/>
+      <c r="AC41" s="8">
+        <v>0</v>
+      </c>
       <c r="AD41" s="8"/>
       <c r="AE41" s="24"/>
       <c r="AF41" s="26"/>
@@ -36561,7 +36840,9 @@
       <c r="AB42" s="15">
         <v>1</v>
       </c>
-      <c r="AC42" s="8"/>
+      <c r="AC42" s="8">
+        <v>0</v>
+      </c>
       <c r="AD42" s="8"/>
       <c r="AE42" s="24"/>
       <c r="AF42" s="26"/>
@@ -36672,7 +36953,9 @@
       <c r="AB43" s="15">
         <v>9</v>
       </c>
-      <c r="AC43" s="8"/>
+      <c r="AC43" s="8">
+        <v>12</v>
+      </c>
       <c r="AD43" s="8"/>
       <c r="AE43" s="24"/>
       <c r="AF43" s="26"/>
@@ -36783,7 +37066,9 @@
       <c r="AB44" s="15">
         <v>1</v>
       </c>
-      <c r="AC44" s="8"/>
+      <c r="AC44" s="8">
+        <v>0</v>
+      </c>
       <c r="AD44" s="8"/>
       <c r="AE44" s="24"/>
       <c r="AF44" s="26"/>
@@ -36894,7 +37179,9 @@
       <c r="AB45" s="15">
         <v>3</v>
       </c>
-      <c r="AC45" s="8"/>
+      <c r="AC45" s="8">
+        <v>1</v>
+      </c>
       <c r="AD45" s="8"/>
       <c r="AE45" s="24"/>
       <c r="AF45" s="25"/>
@@ -37005,7 +37292,9 @@
       <c r="AB46" s="15">
         <v>0</v>
       </c>
-      <c r="AC46" s="8"/>
+      <c r="AC46" s="8">
+        <v>0</v>
+      </c>
       <c r="AD46" s="8"/>
       <c r="AE46" s="24"/>
       <c r="AF46" s="26"/>
@@ -37116,7 +37405,9 @@
       <c r="AB47" s="15">
         <v>0</v>
       </c>
-      <c r="AC47" s="8"/>
+      <c r="AC47" s="8">
+        <v>0</v>
+      </c>
       <c r="AD47" s="8"/>
       <c r="AE47" s="24"/>
       <c r="AF47" s="26"/>
@@ -37227,7 +37518,9 @@
       <c r="AB48" s="15">
         <v>1</v>
       </c>
-      <c r="AC48" s="8"/>
+      <c r="AC48" s="8">
+        <v>1</v>
+      </c>
       <c r="AD48" s="8"/>
       <c r="AE48" s="24"/>
       <c r="AF48" s="26"/>
@@ -37258,7 +37551,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -37339,7 +37632,9 @@
       <c r="AB49" s="15">
         <v>2</v>
       </c>
-      <c r="AC49" s="8"/>
+      <c r="AC49" s="8">
+        <v>0</v>
+      </c>
       <c r="AD49" s="8"/>
       <c r="AE49" s="24"/>
       <c r="AF49" s="25"/>
@@ -37369,7 +37664,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -37448,7 +37743,9 @@
       <c r="AB50" s="15">
         <v>3</v>
       </c>
-      <c r="AC50" s="8"/>
+      <c r="AC50" s="8">
+        <v>0</v>
+      </c>
       <c r="AD50" s="8"/>
       <c r="AE50" s="24"/>
       <c r="AF50" s="25"/>
@@ -37559,7 +37856,9 @@
       <c r="AB51" s="15">
         <v>0</v>
       </c>
-      <c r="AC51" s="8"/>
+      <c r="AC51" s="8">
+        <v>0</v>
+      </c>
       <c r="AD51" s="8"/>
       <c r="AE51" s="24"/>
       <c r="AF51" s="26"/>
@@ -37670,7 +37969,9 @@
       <c r="AB52" s="15">
         <v>2</v>
       </c>
-      <c r="AC52" s="8"/>
+      <c r="AC52" s="8">
+        <v>1</v>
+      </c>
       <c r="AD52" s="8"/>
       <c r="AE52" s="24"/>
       <c r="AF52" s="26"/>
@@ -37781,7 +38082,9 @@
       <c r="AB53" s="15">
         <v>2</v>
       </c>
-      <c r="AC53" s="8"/>
+      <c r="AC53" s="8">
+        <v>2</v>
+      </c>
       <c r="AD53" s="8"/>
       <c r="AE53" s="24"/>
       <c r="AF53" s="26"/>
@@ -37892,7 +38195,9 @@
       <c r="AB54" s="15">
         <v>2</v>
       </c>
-      <c r="AC54" s="8"/>
+      <c r="AC54" s="8">
+        <v>4</v>
+      </c>
       <c r="AD54" s="8"/>
       <c r="AE54" s="24"/>
       <c r="AF54" s="26"/>
@@ -38003,7 +38308,9 @@
       <c r="AB55" s="15">
         <v>0</v>
       </c>
-      <c r="AC55" s="8"/>
+      <c r="AC55" s="8">
+        <v>1</v>
+      </c>
       <c r="AD55" s="8"/>
       <c r="AE55" s="24"/>
       <c r="AF55" s="26"/>
@@ -38114,7 +38421,9 @@
       <c r="AB56" s="15">
         <v>0</v>
       </c>
-      <c r="AC56" s="8"/>
+      <c r="AC56" s="8">
+        <v>0</v>
+      </c>
       <c r="AD56" s="8"/>
       <c r="AE56" s="24"/>
       <c r="AF56" s="26"/>
@@ -38225,7 +38534,9 @@
       <c r="AB57" s="15">
         <v>0</v>
       </c>
-      <c r="AC57" s="8"/>
+      <c r="AC57" s="8">
+        <v>0</v>
+      </c>
       <c r="AD57" s="8"/>
       <c r="AE57" s="24"/>
       <c r="AF57" s="26"/>
@@ -38361,7 +38672,7 @@
       </c>
       <c r="AC58" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AD58" s="14">
         <v>0</v>
@@ -38494,12 +38805,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D2:AD2"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="AQ3:BD3"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="D3:AD3"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -38516,52 +38867,12 @@
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="D3:AD3"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AQ3:BD3"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -38574,11 +38885,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AG57" sqref="AG57"/>
+      <selection pane="bottomRight" activeCell="AH55" sqref="AH55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -38593,43 +38904,43 @@
   <sheetData>
     <row r="1" spans="1:56" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="21"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="56"/>
+      <c r="AD1" s="60"/>
     </row>
     <row r="2" spans="1:56" ht="33" x14ac:dyDescent="0.4">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
@@ -38658,37 +38969,37 @@
       <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
@@ -38717,176 +39028,176 @@
       <c r="BD3" s="23"/>
     </row>
     <row r="4" spans="1:56" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
     </row>
     <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
     </row>
     <row r="6" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -38971,7 +39282,9 @@
       <c r="AB6" s="15">
         <v>34</v>
       </c>
-      <c r="AC6" s="8"/>
+      <c r="AC6" s="8">
+        <v>43</v>
+      </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="24"/>
       <c r="AF6" s="25"/>
@@ -39082,7 +39395,9 @@
       <c r="AB7" s="15">
         <v>0</v>
       </c>
-      <c r="AC7" s="8"/>
+      <c r="AC7" s="8">
+        <v>0</v>
+      </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="24"/>
       <c r="AF7" s="26"/>
@@ -39193,7 +39508,9 @@
       <c r="AB8" s="15">
         <v>5</v>
       </c>
-      <c r="AC8" s="8"/>
+      <c r="AC8" s="8">
+        <v>6</v>
+      </c>
       <c r="AD8" s="8"/>
       <c r="AE8" s="24"/>
       <c r="AF8" s="26"/>
@@ -39305,7 +39622,9 @@
       <c r="AB9" s="15">
         <v>45</v>
       </c>
-      <c r="AC9" s="8"/>
+      <c r="AC9" s="8">
+        <v>38</v>
+      </c>
       <c r="AD9" s="8"/>
       <c r="AE9" s="24"/>
       <c r="AF9" s="26"/>
@@ -39416,7 +39735,9 @@
       <c r="AB10" s="15">
         <v>0</v>
       </c>
-      <c r="AC10" s="8"/>
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
       <c r="AD10" s="8"/>
       <c r="AE10" s="24"/>
       <c r="AF10" s="26"/>
@@ -39527,7 +39848,9 @@
       <c r="AB11" s="15">
         <v>2</v>
       </c>
-      <c r="AC11" s="8"/>
+      <c r="AC11" s="8">
+        <v>7</v>
+      </c>
       <c r="AD11" s="8"/>
       <c r="AE11" s="24"/>
       <c r="AF11" s="26"/>
@@ -39638,7 +39961,9 @@
       <c r="AB12" s="15">
         <v>2</v>
       </c>
-      <c r="AC12" s="8"/>
+      <c r="AC12" s="8">
+        <v>3</v>
+      </c>
       <c r="AD12" s="8"/>
       <c r="AE12" s="24"/>
       <c r="AF12" s="26"/>
@@ -39749,7 +40074,9 @@
       <c r="AB13" s="15">
         <v>8</v>
       </c>
-      <c r="AC13" s="8"/>
+      <c r="AC13" s="8">
+        <v>9</v>
+      </c>
       <c r="AD13" s="8"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="25"/>
@@ -39860,7 +40187,9 @@
       <c r="AB14" s="15">
         <v>8</v>
       </c>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="8">
+        <v>6</v>
+      </c>
       <c r="AD14" s="8"/>
       <c r="AE14" s="24"/>
       <c r="AF14" s="26"/>
@@ -39971,7 +40300,9 @@
       <c r="AB15" s="15">
         <v>0</v>
       </c>
-      <c r="AC15" s="8"/>
+      <c r="AC15" s="8">
+        <v>0</v>
+      </c>
       <c r="AD15" s="8"/>
       <c r="AE15" s="24"/>
       <c r="AF15" s="26"/>
@@ -40083,7 +40414,9 @@
       <c r="AB16" s="15">
         <v>70</v>
       </c>
-      <c r="AC16" s="8"/>
+      <c r="AC16" s="8">
+        <v>55</v>
+      </c>
       <c r="AD16" s="8"/>
       <c r="AE16" s="24"/>
       <c r="AF16" s="25"/>
@@ -40194,7 +40527,9 @@
       <c r="AB17" s="16">
         <v>47</v>
       </c>
-      <c r="AC17" s="8"/>
+      <c r="AC17" s="8">
+        <v>52</v>
+      </c>
       <c r="AD17" s="8"/>
       <c r="AE17" s="24"/>
       <c r="AF17" s="25"/>
@@ -40306,7 +40641,9 @@
       <c r="AB18" s="17">
         <v>688</v>
       </c>
-      <c r="AC18" s="8"/>
+      <c r="AC18" s="8">
+        <v>735</v>
+      </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="24"/>
       <c r="AF18" s="25"/>
@@ -40337,7 +40674,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -40418,7 +40755,9 @@
       <c r="AB19" s="15">
         <v>18</v>
       </c>
-      <c r="AC19" s="8"/>
+      <c r="AC19" s="8">
+        <v>11</v>
+      </c>
       <c r="AD19" s="8"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="25"/>
@@ -40449,7 +40788,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -40528,7 +40867,9 @@
       <c r="AB20" s="16">
         <v>48</v>
       </c>
-      <c r="AC20" s="8"/>
+      <c r="AC20" s="8">
+        <v>32</v>
+      </c>
       <c r="AD20" s="8"/>
       <c r="AE20" s="24"/>
       <c r="AF20" s="25"/>
@@ -40559,7 +40900,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="58"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -40638,7 +40979,9 @@
       <c r="AB21" s="15">
         <v>14</v>
       </c>
-      <c r="AC21" s="8"/>
+      <c r="AC21" s="8">
+        <v>9</v>
+      </c>
       <c r="AD21" s="8"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="25"/>
@@ -40749,7 +41092,9 @@
       <c r="AB22" s="15">
         <v>8</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="8">
+        <v>4</v>
+      </c>
       <c r="AD22" s="8"/>
       <c r="AE22" s="24"/>
       <c r="AF22" s="26"/>
@@ -40860,7 +41205,9 @@
       <c r="AB23" s="15">
         <v>1</v>
       </c>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="8">
+        <v>1</v>
+      </c>
       <c r="AD23" s="8"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="26"/>
@@ -40971,7 +41318,9 @@
       <c r="AB24" s="15">
         <v>5</v>
       </c>
-      <c r="AC24" s="8"/>
+      <c r="AC24" s="8">
+        <v>4</v>
+      </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="24"/>
       <c r="AF24" s="25"/>
@@ -41082,7 +41431,9 @@
       <c r="AB25" s="15">
         <v>0</v>
       </c>
-      <c r="AC25" s="8"/>
+      <c r="AC25" s="8">
+        <v>0</v>
+      </c>
       <c r="AD25" s="8"/>
       <c r="AE25" s="24"/>
       <c r="AF25" s="26"/>
@@ -41193,7 +41544,9 @@
       <c r="AB26" s="15">
         <v>8</v>
       </c>
-      <c r="AC26" s="8"/>
+      <c r="AC26" s="8">
+        <v>2</v>
+      </c>
       <c r="AD26" s="8"/>
       <c r="AE26" s="24"/>
       <c r="AF26" s="26"/>
@@ -41304,7 +41657,9 @@
       <c r="AB27" s="15">
         <v>0</v>
       </c>
-      <c r="AC27" s="8"/>
+      <c r="AC27" s="8">
+        <v>1</v>
+      </c>
       <c r="AD27" s="8"/>
       <c r="AE27" s="24"/>
       <c r="AF27" s="26"/>
@@ -41415,7 +41770,9 @@
       <c r="AB28" s="15">
         <v>0</v>
       </c>
-      <c r="AC28" s="8"/>
+      <c r="AC28" s="8">
+        <v>2</v>
+      </c>
       <c r="AD28" s="8"/>
       <c r="AE28" s="24"/>
       <c r="AF28" s="25"/>
@@ -41445,7 +41802,7 @@
       <c r="BD28" s="25"/>
     </row>
     <row r="29" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="56" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -41526,7 +41883,9 @@
       <c r="AB29" s="15">
         <v>3</v>
       </c>
-      <c r="AC29" s="8"/>
+      <c r="AC29" s="8">
+        <v>2</v>
+      </c>
       <c r="AD29" s="8"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="26"/>
@@ -41556,7 +41915,7 @@
       <c r="BD29" s="26"/>
     </row>
     <row r="30" spans="1:56" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -41635,7 +41994,9 @@
       <c r="AB30" s="15">
         <v>3</v>
       </c>
-      <c r="AC30" s="8"/>
+      <c r="AC30" s="8">
+        <v>1</v>
+      </c>
       <c r="AD30" s="8"/>
       <c r="AE30" s="24"/>
       <c r="AF30" s="26"/>
@@ -41747,7 +42108,9 @@
       <c r="AB31" s="15">
         <v>11</v>
       </c>
-      <c r="AC31" s="8"/>
+      <c r="AC31" s="8">
+        <v>10</v>
+      </c>
       <c r="AD31" s="8"/>
       <c r="AE31" s="24"/>
       <c r="AF31" s="25"/>
@@ -41858,7 +42221,9 @@
       <c r="AB32" s="15">
         <v>0</v>
       </c>
-      <c r="AC32" s="8"/>
+      <c r="AC32" s="8">
+        <v>0</v>
+      </c>
       <c r="AD32" s="8"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="26"/>
@@ -41969,7 +42334,9 @@
       <c r="AB33" s="15">
         <v>0</v>
       </c>
-      <c r="AC33" s="8"/>
+      <c r="AC33" s="8">
+        <v>0</v>
+      </c>
       <c r="AD33" s="8"/>
       <c r="AE33" s="24"/>
       <c r="AF33" s="26"/>
@@ -42081,7 +42448,9 @@
       <c r="AB34" s="15">
         <v>13</v>
       </c>
-      <c r="AC34" s="8"/>
+      <c r="AC34" s="8">
+        <v>17</v>
+      </c>
       <c r="AD34" s="8"/>
       <c r="AE34" s="24"/>
       <c r="AF34" s="25"/>
@@ -42112,7 +42481,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -42193,7 +42562,9 @@
       <c r="AB35" s="16">
         <v>183</v>
       </c>
-      <c r="AC35" s="8"/>
+      <c r="AC35" s="8">
+        <v>163</v>
+      </c>
       <c r="AD35" s="8"/>
       <c r="AE35" s="24"/>
       <c r="AF35" s="25"/>
@@ -42223,7 +42594,7 @@
       <c r="BD35" s="25"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="58"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -42302,7 +42673,9 @@
       <c r="AB36" s="16">
         <v>10</v>
       </c>
-      <c r="AC36" s="8"/>
+      <c r="AC36" s="8">
+        <v>6</v>
+      </c>
       <c r="AD36" s="8"/>
       <c r="AE36" s="24"/>
       <c r="AF36" s="25"/>
@@ -42414,7 +42787,9 @@
       <c r="AB37" s="15">
         <v>15</v>
       </c>
-      <c r="AC37" s="8"/>
+      <c r="AC37" s="8">
+        <v>18</v>
+      </c>
       <c r="AD37" s="8"/>
       <c r="AE37" s="24"/>
       <c r="AF37" s="25"/>
@@ -42525,7 +42900,9 @@
       <c r="AB38" s="15">
         <v>3</v>
       </c>
-      <c r="AC38" s="8"/>
+      <c r="AC38" s="8">
+        <v>2</v>
+      </c>
       <c r="AD38" s="8"/>
       <c r="AE38" s="24"/>
       <c r="AF38" s="26"/>
@@ -42636,7 +43013,9 @@
       <c r="AB39" s="15">
         <v>5</v>
       </c>
-      <c r="AC39" s="8"/>
+      <c r="AC39" s="8">
+        <v>0</v>
+      </c>
       <c r="AD39" s="8"/>
       <c r="AE39" s="24"/>
       <c r="AF39" s="26"/>
@@ -42747,7 +43126,9 @@
       <c r="AB40" s="15">
         <v>0</v>
       </c>
-      <c r="AC40" s="8"/>
+      <c r="AC40" s="8">
+        <v>0</v>
+      </c>
       <c r="AD40" s="8"/>
       <c r="AE40" s="24"/>
       <c r="AF40" s="26"/>
@@ -42858,7 +43239,9 @@
       <c r="AB41" s="15">
         <v>0</v>
       </c>
-      <c r="AC41" s="8"/>
+      <c r="AC41" s="8">
+        <v>0</v>
+      </c>
       <c r="AD41" s="8"/>
       <c r="AE41" s="24"/>
       <c r="AF41" s="26"/>
@@ -42969,7 +43352,9 @@
       <c r="AB42" s="15">
         <v>1</v>
       </c>
-      <c r="AC42" s="8"/>
+      <c r="AC42" s="8">
+        <v>1</v>
+      </c>
       <c r="AD42" s="8"/>
       <c r="AE42" s="24"/>
       <c r="AF42" s="26"/>
@@ -43080,7 +43465,9 @@
       <c r="AB43" s="15">
         <v>8</v>
       </c>
-      <c r="AC43" s="8"/>
+      <c r="AC43" s="8">
+        <v>21</v>
+      </c>
       <c r="AD43" s="8"/>
       <c r="AE43" s="24"/>
       <c r="AF43" s="26"/>
@@ -43191,7 +43578,9 @@
       <c r="AB44" s="15">
         <v>1</v>
       </c>
-      <c r="AC44" s="8"/>
+      <c r="AC44" s="8">
+        <v>1</v>
+      </c>
       <c r="AD44" s="8"/>
       <c r="AE44" s="24"/>
       <c r="AF44" s="26"/>
@@ -43302,7 +43691,9 @@
       <c r="AB45" s="15">
         <v>10</v>
       </c>
-      <c r="AC45" s="8"/>
+      <c r="AC45" s="8">
+        <v>4</v>
+      </c>
       <c r="AD45" s="8"/>
       <c r="AE45" s="24"/>
       <c r="AF45" s="25"/>
@@ -43413,7 +43804,9 @@
       <c r="AB46" s="15">
         <v>2</v>
       </c>
-      <c r="AC46" s="8"/>
+      <c r="AC46" s="8">
+        <v>5</v>
+      </c>
       <c r="AD46" s="8"/>
       <c r="AE46" s="24"/>
       <c r="AF46" s="26"/>
@@ -43524,7 +43917,9 @@
       <c r="AB47" s="15">
         <v>1</v>
       </c>
-      <c r="AC47" s="8"/>
+      <c r="AC47" s="8">
+        <v>1</v>
+      </c>
       <c r="AD47" s="8"/>
       <c r="AE47" s="24"/>
       <c r="AF47" s="26"/>
@@ -43635,7 +44030,9 @@
       <c r="AB48" s="15">
         <v>3</v>
       </c>
-      <c r="AC48" s="8"/>
+      <c r="AC48" s="8">
+        <v>1</v>
+      </c>
       <c r="AD48" s="8"/>
       <c r="AE48" s="24"/>
       <c r="AF48" s="26"/>
@@ -43666,7 +44063,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -43747,7 +44144,9 @@
       <c r="AB49" s="15">
         <v>18</v>
       </c>
-      <c r="AC49" s="8"/>
+      <c r="AC49" s="8">
+        <v>10</v>
+      </c>
       <c r="AD49" s="8"/>
       <c r="AE49" s="24"/>
       <c r="AF49" s="25"/>
@@ -43777,7 +44176,7 @@
       <c r="BD49" s="25"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -43856,7 +44255,9 @@
       <c r="AB50" s="15">
         <v>4</v>
       </c>
-      <c r="AC50" s="8"/>
+      <c r="AC50" s="8">
+        <v>2</v>
+      </c>
       <c r="AD50" s="8"/>
       <c r="AE50" s="24"/>
       <c r="AF50" s="25"/>
@@ -43967,7 +44368,9 @@
       <c r="AB51" s="15">
         <v>2</v>
       </c>
-      <c r="AC51" s="8"/>
+      <c r="AC51" s="8">
+        <v>2</v>
+      </c>
       <c r="AD51" s="8"/>
       <c r="AE51" s="24"/>
       <c r="AF51" s="26"/>
@@ -44078,7 +44481,9 @@
       <c r="AB52" s="15">
         <v>3</v>
       </c>
-      <c r="AC52" s="8"/>
+      <c r="AC52" s="8">
+        <v>4</v>
+      </c>
       <c r="AD52" s="8"/>
       <c r="AE52" s="24"/>
       <c r="AF52" s="26"/>
@@ -44189,7 +44594,9 @@
       <c r="AB53" s="15">
         <v>14</v>
       </c>
-      <c r="AC53" s="8"/>
+      <c r="AC53" s="8">
+        <v>10</v>
+      </c>
       <c r="AD53" s="8"/>
       <c r="AE53" s="24"/>
       <c r="AF53" s="26"/>
@@ -44300,7 +44707,9 @@
       <c r="AB54" s="15">
         <v>8</v>
       </c>
-      <c r="AC54" s="8"/>
+      <c r="AC54" s="8">
+        <v>3</v>
+      </c>
       <c r="AD54" s="8"/>
       <c r="AE54" s="24"/>
       <c r="AF54" s="26"/>
@@ -44411,7 +44820,9 @@
       <c r="AB55" s="15">
         <v>15</v>
       </c>
-      <c r="AC55" s="8"/>
+      <c r="AC55" s="8">
+        <v>5</v>
+      </c>
       <c r="AD55" s="8"/>
       <c r="AE55" s="24"/>
       <c r="AF55" s="26"/>
@@ -44522,7 +44933,9 @@
       <c r="AB56" s="15">
         <v>2</v>
       </c>
-      <c r="AC56" s="8"/>
+      <c r="AC56" s="8">
+        <v>3</v>
+      </c>
       <c r="AD56" s="8"/>
       <c r="AE56" s="24"/>
       <c r="AF56" s="26"/>
@@ -44633,7 +45046,9 @@
       <c r="AB57" s="15">
         <v>1</v>
       </c>
-      <c r="AC57" s="8"/>
+      <c r="AC57" s="8">
+        <v>0</v>
+      </c>
       <c r="AD57" s="8"/>
       <c r="AE57" s="24"/>
       <c r="AF57" s="26"/>
@@ -44769,7 +45184,7 @@
       </c>
       <c r="AC58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1312</v>
       </c>
       <c r="AD58" s="14">
         <f t="shared" si="0"/>
@@ -44903,6 +45318,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="D3:AD3"/>
     <mergeCell ref="D2:AD2"/>
     <mergeCell ref="B29:B30"/>
@@ -44919,70 +45381,10 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="28" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB030928-1\ＪＯＢ030928-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB031005-2\ＪＯＢ031005-2\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="10890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -4924,11 +4924,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="BP6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CC4" sqref="CC4:CC5"/>
+      <selection pane="bottomRight" activeCell="CD4" sqref="CD4:CD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5698,7 +5698,9 @@
       <c r="CC6" s="8">
         <v>67</v>
       </c>
-      <c r="CD6" s="8"/>
+      <c r="CD6" s="8">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
@@ -5941,7 +5943,9 @@
       <c r="CC7" s="8">
         <v>1</v>
       </c>
-      <c r="CD7" s="8"/>
+      <c r="CD7" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
@@ -6184,7 +6188,9 @@
       <c r="CC8" s="8">
         <v>6</v>
       </c>
-      <c r="CD8" s="8"/>
+      <c r="CD8" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
@@ -6428,7 +6434,9 @@
       <c r="CC9" s="8">
         <v>39</v>
       </c>
-      <c r="CD9" s="8"/>
+      <c r="CD9" s="8">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
@@ -6671,7 +6679,9 @@
       <c r="CC10" s="8">
         <v>0</v>
       </c>
-      <c r="CD10" s="8"/>
+      <c r="CD10" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
@@ -6914,7 +6924,9 @@
       <c r="CC11" s="8">
         <v>10</v>
       </c>
-      <c r="CD11" s="8"/>
+      <c r="CD11" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
@@ -7157,7 +7169,9 @@
       <c r="CC12" s="8">
         <v>4</v>
       </c>
-      <c r="CD12" s="8"/>
+      <c r="CD12" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
@@ -7400,7 +7414,9 @@
       <c r="CC13" s="8">
         <v>16</v>
       </c>
-      <c r="CD13" s="8"/>
+      <c r="CD13" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
@@ -7643,7 +7659,9 @@
       <c r="CC14" s="8">
         <v>7</v>
       </c>
-      <c r="CD14" s="8"/>
+      <c r="CD14" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
@@ -7886,7 +7904,9 @@
       <c r="CC15" s="8">
         <v>0</v>
       </c>
-      <c r="CD15" s="8"/>
+      <c r="CD15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
@@ -8130,7 +8150,9 @@
       <c r="CC16" s="8">
         <v>55</v>
       </c>
-      <c r="CD16" s="8"/>
+      <c r="CD16" s="8">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
@@ -8373,7 +8395,9 @@
       <c r="CC17" s="8">
         <v>90</v>
       </c>
-      <c r="CD17" s="8"/>
+      <c r="CD17" s="8">
+        <v>72</v>
+      </c>
     </row>
     <row r="18" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
@@ -8617,7 +8641,9 @@
       <c r="CC18" s="8">
         <v>900</v>
       </c>
-      <c r="CD18" s="8"/>
+      <c r="CD18" s="8">
+        <v>678</v>
+      </c>
     </row>
     <row r="19" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
@@ -8861,7 +8887,9 @@
       <c r="CC19" s="8">
         <v>27</v>
       </c>
-      <c r="CD19" s="8"/>
+      <c r="CD19" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
@@ -9103,7 +9131,9 @@
       <c r="CC20" s="8">
         <v>88</v>
       </c>
-      <c r="CD20" s="8"/>
+      <c r="CD20" s="8">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
@@ -9345,7 +9375,9 @@
       <c r="CC21" s="8">
         <v>19</v>
       </c>
-      <c r="CD21" s="8"/>
+      <c r="CD21" s="8">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
@@ -9588,7 +9620,9 @@
       <c r="CC22" s="8">
         <v>8</v>
       </c>
-      <c r="CD22" s="8"/>
+      <c r="CD22" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
@@ -9831,7 +9865,9 @@
       <c r="CC23" s="8">
         <v>1</v>
       </c>
-      <c r="CD23" s="8"/>
+      <c r="CD23" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
@@ -10074,7 +10110,9 @@
       <c r="CC24" s="8">
         <v>6</v>
       </c>
-      <c r="CD24" s="8"/>
+      <c r="CD24" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
@@ -10317,7 +10355,9 @@
       <c r="CC25" s="8">
         <v>0</v>
       </c>
-      <c r="CD25" s="8"/>
+      <c r="CD25" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
@@ -10560,7 +10600,9 @@
       <c r="CC26" s="8">
         <v>4</v>
       </c>
-      <c r="CD26" s="8"/>
+      <c r="CD26" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -10803,7 +10845,9 @@
       <c r="CC27" s="8">
         <v>1</v>
       </c>
-      <c r="CD27" s="8"/>
+      <c r="CD27" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
@@ -11046,7 +11090,9 @@
       <c r="CC28" s="8">
         <v>2</v>
       </c>
-      <c r="CD28" s="8"/>
+      <c r="CD28" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="38" t="s">
@@ -11289,7 +11335,9 @@
       <c r="CC29" s="8">
         <v>2</v>
       </c>
-      <c r="CD29" s="8"/>
+      <c r="CD29" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="38"/>
@@ -11530,7 +11578,9 @@
       <c r="CC30" s="8">
         <v>1</v>
       </c>
-      <c r="CD30" s="8"/>
+      <c r="CD30" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
@@ -11774,7 +11824,9 @@
       <c r="CC31" s="8">
         <v>18</v>
       </c>
-      <c r="CD31" s="8"/>
+      <c r="CD31" s="8">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
@@ -12017,7 +12069,9 @@
       <c r="CC32" s="8">
         <v>0</v>
       </c>
-      <c r="CD32" s="8"/>
+      <c r="CD32" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
@@ -12260,7 +12314,9 @@
       <c r="CC33" s="8">
         <v>0</v>
       </c>
-      <c r="CD33" s="8"/>
+      <c r="CD33" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
@@ -12504,7 +12560,9 @@
       <c r="CC34" s="8">
         <v>18</v>
       </c>
-      <c r="CD34" s="8"/>
+      <c r="CD34" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
@@ -12748,7 +12806,9 @@
       <c r="CC35" s="8">
         <v>215</v>
       </c>
-      <c r="CD35" s="8"/>
+      <c r="CD35" s="8">
+        <v>199</v>
+      </c>
     </row>
     <row r="36" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
@@ -12989,7 +13049,9 @@
       <c r="CC36" s="8">
         <v>15</v>
       </c>
-      <c r="CD36" s="8"/>
+      <c r="CD36" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
@@ -13233,7 +13295,9 @@
       <c r="CC37" s="8">
         <v>31</v>
       </c>
-      <c r="CD37" s="8"/>
+      <c r="CD37" s="8">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
@@ -13476,7 +13540,9 @@
       <c r="CC38" s="8">
         <v>3</v>
       </c>
-      <c r="CD38" s="8"/>
+      <c r="CD38" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
@@ -13719,7 +13785,9 @@
       <c r="CC39" s="8">
         <v>3</v>
       </c>
-      <c r="CD39" s="8"/>
+      <c r="CD39" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
@@ -13962,7 +14030,9 @@
       <c r="CC40" s="8">
         <v>0</v>
       </c>
-      <c r="CD40" s="8"/>
+      <c r="CD40" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
@@ -14205,7 +14275,9 @@
       <c r="CC41" s="8">
         <v>0</v>
       </c>
-      <c r="CD41" s="8"/>
+      <c r="CD41" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
@@ -14448,7 +14520,9 @@
       <c r="CC42" s="8">
         <v>1</v>
       </c>
-      <c r="CD42" s="8"/>
+      <c r="CD42" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
@@ -14691,7 +14765,9 @@
       <c r="CC43" s="8">
         <v>33</v>
       </c>
-      <c r="CD43" s="8"/>
+      <c r="CD43" s="8">
+        <v>25</v>
+      </c>
     </row>
     <row r="44" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
@@ -14934,7 +15010,9 @@
       <c r="CC44" s="8">
         <v>1</v>
       </c>
-      <c r="CD44" s="8"/>
+      <c r="CD44" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
@@ -15177,7 +15255,9 @@
       <c r="CC45" s="8">
         <v>5</v>
       </c>
-      <c r="CD45" s="8"/>
+      <c r="CD45" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
@@ -15420,7 +15500,9 @@
       <c r="CC46" s="8">
         <v>5</v>
       </c>
-      <c r="CD46" s="8"/>
+      <c r="CD46" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
@@ -15663,7 +15745,9 @@
       <c r="CC47" s="8">
         <v>1</v>
       </c>
-      <c r="CD47" s="8"/>
+      <c r="CD47" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
@@ -15906,7 +15990,9 @@
       <c r="CC48" s="8">
         <v>2</v>
       </c>
-      <c r="CD48" s="8"/>
+      <c r="CD48" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
@@ -16150,7 +16236,9 @@
       <c r="CC49" s="8">
         <v>10</v>
       </c>
-      <c r="CD49" s="8"/>
+      <c r="CD49" s="8">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" spans="1:82" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
@@ -16391,7 +16479,9 @@
       <c r="CC50" s="8">
         <v>2</v>
       </c>
-      <c r="CD50" s="8"/>
+      <c r="CD50" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
@@ -16634,7 +16724,9 @@
       <c r="CC51" s="8">
         <v>2</v>
       </c>
-      <c r="CD51" s="8"/>
+      <c r="CD51" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
@@ -16877,7 +16969,9 @@
       <c r="CC52" s="8">
         <v>5</v>
       </c>
-      <c r="CD52" s="8"/>
+      <c r="CD52" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
@@ -17120,7 +17214,9 @@
       <c r="CC53" s="8">
         <v>12</v>
       </c>
-      <c r="CD53" s="8"/>
+      <c r="CD53" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
@@ -17363,7 +17459,9 @@
       <c r="CC54" s="8">
         <v>7</v>
       </c>
-      <c r="CD54" s="8"/>
+      <c r="CD54" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
@@ -17606,7 +17704,9 @@
       <c r="CC55" s="8">
         <v>6</v>
       </c>
-      <c r="CD55" s="8"/>
+      <c r="CD55" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
@@ -17849,7 +17949,9 @@
       <c r="CC56" s="8">
         <v>3</v>
       </c>
-      <c r="CD56" s="8"/>
+      <c r="CD56" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
@@ -18092,7 +18194,9 @@
       <c r="CC57" s="8">
         <v>0</v>
       </c>
-      <c r="CD57" s="8"/>
+      <c r="CD57" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
@@ -18380,7 +18484,7 @@
         <v>2376</v>
       </c>
       <c r="BV58" s="14">
-        <f t="shared" ref="BV58:CC58" si="3">SUM(BV6:BV57)</f>
+        <f t="shared" ref="BV58:CD58" si="3">SUM(BV6:BV57)</f>
         <v>2897</v>
       </c>
       <c r="BW58" s="14">
@@ -18412,7 +18516,8 @@
         <v>1752</v>
       </c>
       <c r="CD58" s="14">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1423</v>
       </c>
     </row>
     <row r="59" spans="1:82" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -18778,10 +18883,10 @@
   <dimension ref="B1:CD58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BI50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CC58" sqref="CC58"/>
+      <selection pane="bottomRight" activeCell="CD4" sqref="CD4:CD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19550,7 +19655,9 @@
       <c r="CC6" s="8">
         <v>65</v>
       </c>
-      <c r="CD6" s="8"/>
+      <c r="CD6" s="8">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
@@ -19793,7 +19900,9 @@
       <c r="CC7" s="8">
         <v>0</v>
       </c>
-      <c r="CD7" s="8"/>
+      <c r="CD7" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
@@ -20036,7 +20145,9 @@
       <c r="CC8" s="8">
         <v>5</v>
       </c>
-      <c r="CD8" s="8"/>
+      <c r="CD8" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
@@ -20279,7 +20390,9 @@
       <c r="CC9" s="8">
         <v>28</v>
       </c>
-      <c r="CD9" s="8"/>
+      <c r="CD9" s="8">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
@@ -20522,7 +20635,9 @@
       <c r="CC10" s="8">
         <v>0</v>
       </c>
-      <c r="CD10" s="8"/>
+      <c r="CD10" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
@@ -20765,7 +20880,9 @@
       <c r="CC11" s="8">
         <v>5</v>
       </c>
-      <c r="CD11" s="8"/>
+      <c r="CD11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
@@ -21008,7 +21125,9 @@
       <c r="CC12" s="8">
         <v>2</v>
       </c>
-      <c r="CD12" s="8"/>
+      <c r="CD12" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
@@ -21251,7 +21370,9 @@
       <c r="CC13" s="8">
         <v>13</v>
       </c>
-      <c r="CD13" s="8"/>
+      <c r="CD13" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
@@ -21494,7 +21615,9 @@
       <c r="CC14" s="8">
         <v>7</v>
       </c>
-      <c r="CD14" s="8"/>
+      <c r="CD14" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
@@ -21737,7 +21860,9 @@
       <c r="CC15" s="8">
         <v>0</v>
       </c>
-      <c r="CD15" s="8"/>
+      <c r="CD15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
@@ -21980,7 +22105,9 @@
       <c r="CC16" s="8">
         <v>51</v>
       </c>
-      <c r="CD16" s="8"/>
+      <c r="CD16" s="8">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
@@ -22223,7 +22350,9 @@
       <c r="CC17" s="8">
         <v>72</v>
       </c>
-      <c r="CD17" s="8"/>
+      <c r="CD17" s="8">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
@@ -22466,7 +22595,9 @@
       <c r="CC18" s="8">
         <v>587</v>
       </c>
-      <c r="CD18" s="8"/>
+      <c r="CD18" s="8">
+        <v>513</v>
+      </c>
     </row>
     <row r="19" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="37" t="s">
@@ -22709,7 +22840,9 @@
       <c r="CC19" s="8">
         <v>14</v>
       </c>
-      <c r="CD19" s="8"/>
+      <c r="CD19" s="8">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -22950,7 +23083,9 @@
       <c r="CC20" s="8">
         <v>84</v>
       </c>
-      <c r="CD20" s="8"/>
+      <c r="CD20" s="8">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="37"/>
@@ -23191,7 +23326,9 @@
       <c r="CC21" s="8">
         <v>18</v>
       </c>
-      <c r="CD21" s="8"/>
+      <c r="CD21" s="8">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
@@ -23434,7 +23571,9 @@
       <c r="CC22" s="8">
         <v>8</v>
       </c>
-      <c r="CD22" s="8"/>
+      <c r="CD22" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
@@ -23677,7 +23816,9 @@
       <c r="CC23" s="8">
         <v>0</v>
       </c>
-      <c r="CD23" s="8"/>
+      <c r="CD23" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
@@ -23920,7 +24061,9 @@
       <c r="CC24" s="8">
         <v>5</v>
       </c>
-      <c r="CD24" s="8"/>
+      <c r="CD24" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
@@ -24163,7 +24306,9 @@
       <c r="CC25" s="8">
         <v>1</v>
       </c>
-      <c r="CD25" s="8"/>
+      <c r="CD25" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
@@ -24406,7 +24551,9 @@
       <c r="CC26" s="8">
         <v>6</v>
       </c>
-      <c r="CD26" s="8"/>
+      <c r="CD26" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -24649,7 +24796,9 @@
       <c r="CC27" s="8">
         <v>0</v>
       </c>
-      <c r="CD27" s="8"/>
+      <c r="CD27" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
@@ -24892,7 +25041,9 @@
       <c r="CC28" s="8">
         <v>0</v>
       </c>
-      <c r="CD28" s="8"/>
+      <c r="CD28" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="38" t="s">
@@ -25135,7 +25286,9 @@
       <c r="CC29" s="8">
         <v>2</v>
       </c>
-      <c r="CD29" s="8"/>
+      <c r="CD29" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="38"/>
@@ -25376,7 +25529,9 @@
       <c r="CC30" s="8">
         <v>0</v>
       </c>
-      <c r="CD30" s="8"/>
+      <c r="CD30" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
@@ -25619,7 +25774,9 @@
       <c r="CC31" s="8">
         <v>13</v>
       </c>
-      <c r="CD31" s="8"/>
+      <c r="CD31" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
@@ -25862,7 +26019,9 @@
       <c r="CC32" s="8">
         <v>0</v>
       </c>
-      <c r="CD32" s="8"/>
+      <c r="CD32" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
@@ -26105,7 +26264,9 @@
       <c r="CC33" s="8">
         <v>0</v>
       </c>
-      <c r="CD33" s="8"/>
+      <c r="CD33" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
@@ -26348,7 +26509,9 @@
       <c r="CC34" s="8">
         <v>26</v>
       </c>
-      <c r="CD34" s="8"/>
+      <c r="CD34" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="37" t="s">
@@ -26591,7 +26754,9 @@
       <c r="CC35" s="8">
         <v>166</v>
       </c>
-      <c r="CD35" s="8"/>
+      <c r="CD35" s="8">
+        <v>158</v>
+      </c>
     </row>
     <row r="36" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="37"/>
@@ -26832,7 +26997,9 @@
       <c r="CC36" s="8">
         <v>18</v>
       </c>
-      <c r="CD36" s="8"/>
+      <c r="CD36" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
@@ -27075,7 +27242,9 @@
       <c r="CC37" s="8">
         <v>11</v>
       </c>
-      <c r="CD37" s="8"/>
+      <c r="CD37" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
@@ -27318,7 +27487,9 @@
       <c r="CC38" s="8">
         <v>3</v>
       </c>
-      <c r="CD38" s="8"/>
+      <c r="CD38" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
@@ -27561,7 +27732,9 @@
       <c r="CC39" s="8">
         <v>0</v>
       </c>
-      <c r="CD39" s="8"/>
+      <c r="CD39" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
@@ -27804,7 +27977,9 @@
       <c r="CC40" s="8">
         <v>0</v>
       </c>
-      <c r="CD40" s="8"/>
+      <c r="CD40" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
@@ -28047,7 +28222,9 @@
       <c r="CC41" s="8">
         <v>0</v>
       </c>
-      <c r="CD41" s="8"/>
+      <c r="CD41" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
@@ -28290,7 +28467,9 @@
       <c r="CC42" s="8">
         <v>2</v>
       </c>
-      <c r="CD42" s="8"/>
+      <c r="CD42" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
@@ -28533,7 +28712,9 @@
       <c r="CC43" s="8">
         <v>33</v>
       </c>
-      <c r="CD43" s="8"/>
+      <c r="CD43" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
@@ -28776,7 +28957,9 @@
       <c r="CC44" s="8">
         <v>0</v>
       </c>
-      <c r="CD44" s="8"/>
+      <c r="CD44" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
@@ -29019,7 +29202,9 @@
       <c r="CC45" s="8">
         <v>2</v>
       </c>
-      <c r="CD45" s="8"/>
+      <c r="CD45" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
@@ -29262,7 +29447,9 @@
       <c r="CC46" s="8">
         <v>3</v>
       </c>
-      <c r="CD46" s="8"/>
+      <c r="CD46" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
@@ -29505,7 +29692,9 @@
       <c r="CC47" s="8">
         <v>0</v>
       </c>
-      <c r="CD47" s="8"/>
+      <c r="CD47" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
@@ -29748,7 +29937,9 @@
       <c r="CC48" s="8">
         <v>4</v>
       </c>
-      <c r="CD48" s="8"/>
+      <c r="CD48" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="37" t="s">
@@ -29991,7 +30182,9 @@
       <c r="CC49" s="8">
         <v>15</v>
       </c>
-      <c r="CD49" s="8"/>
+      <c r="CD49" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
@@ -30232,7 +30425,9 @@
       <c r="CC50" s="8">
         <v>6</v>
       </c>
-      <c r="CD50" s="8"/>
+      <c r="CD50" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
@@ -30475,7 +30670,9 @@
       <c r="CC51" s="8">
         <v>1</v>
       </c>
-      <c r="CD51" s="8"/>
+      <c r="CD51" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
@@ -30718,7 +30915,9 @@
       <c r="CC52" s="8">
         <v>2</v>
       </c>
-      <c r="CD52" s="8"/>
+      <c r="CD52" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
@@ -30961,7 +31160,9 @@
       <c r="CC53" s="8">
         <v>4</v>
       </c>
-      <c r="CD53" s="8"/>
+      <c r="CD53" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
@@ -31204,7 +31405,9 @@
       <c r="CC54" s="8">
         <v>5</v>
       </c>
-      <c r="CD54" s="8"/>
+      <c r="CD54" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
@@ -31447,7 +31650,9 @@
       <c r="CC55" s="8">
         <v>5</v>
       </c>
-      <c r="CD55" s="8"/>
+      <c r="CD55" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
@@ -31690,7 +31895,9 @@
       <c r="CC56" s="8">
         <v>2</v>
       </c>
-      <c r="CD56" s="8"/>
+      <c r="CD56" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
@@ -31933,7 +32140,9 @@
       <c r="CC57" s="8">
         <v>1</v>
       </c>
-      <c r="CD57" s="8"/>
+      <c r="CD57" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="2:82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
@@ -32216,7 +32425,7 @@
         <v>1344</v>
       </c>
       <c r="BU58" s="28">
-        <f t="shared" ref="BU58:CC58" si="3">SUM(BU6:BU57)</f>
+        <f t="shared" ref="BU58:CD58" si="3">SUM(BU6:BU57)</f>
         <v>1160</v>
       </c>
       <c r="BV58" s="28">
@@ -32252,7 +32461,8 @@
         <v>1295</v>
       </c>
       <c r="CD58" s="28">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -32369,7 +32579,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AC59" sqref="AC59"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -32773,7 +32983,9 @@
       <c r="AC6" s="8">
         <v>24</v>
       </c>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <v>19</v>
+      </c>
       <c r="AE6" s="24"/>
       <c r="AF6" s="25"/>
       <c r="AG6" s="25"/>
@@ -32886,7 +33098,9 @@
       <c r="AC7" s="8">
         <v>1</v>
       </c>
-      <c r="AD7" s="8"/>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
       <c r="AE7" s="24"/>
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
@@ -32999,7 +33213,9 @@
       <c r="AC8" s="8">
         <v>0</v>
       </c>
-      <c r="AD8" s="8"/>
+      <c r="AD8" s="8">
+        <v>0</v>
+      </c>
       <c r="AE8" s="24"/>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26"/>
@@ -33113,7 +33329,9 @@
       <c r="AC9" s="8">
         <v>1</v>
       </c>
-      <c r="AD9" s="8"/>
+      <c r="AD9" s="8">
+        <v>3</v>
+      </c>
       <c r="AE9" s="24"/>
       <c r="AF9" s="26"/>
       <c r="AG9" s="26"/>
@@ -33226,7 +33444,9 @@
       <c r="AC10" s="8">
         <v>0</v>
       </c>
-      <c r="AD10" s="8"/>
+      <c r="AD10" s="8">
+        <v>0</v>
+      </c>
       <c r="AE10" s="24"/>
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
@@ -33339,7 +33559,9 @@
       <c r="AC11" s="8">
         <v>3</v>
       </c>
-      <c r="AD11" s="8"/>
+      <c r="AD11" s="8">
+        <v>3</v>
+      </c>
       <c r="AE11" s="24"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
@@ -33452,7 +33674,9 @@
       <c r="AC12" s="8">
         <v>1</v>
       </c>
-      <c r="AD12" s="8"/>
+      <c r="AD12" s="8">
+        <v>1</v>
+      </c>
       <c r="AE12" s="24"/>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
@@ -33565,7 +33789,9 @@
       <c r="AC13" s="8">
         <v>7</v>
       </c>
-      <c r="AD13" s="8"/>
+      <c r="AD13" s="8">
+        <v>4</v>
+      </c>
       <c r="AE13" s="24"/>
       <c r="AF13" s="25"/>
       <c r="AG13" s="25"/>
@@ -33678,7 +33904,9 @@
       <c r="AC14" s="8">
         <v>1</v>
       </c>
-      <c r="AD14" s="8"/>
+      <c r="AD14" s="8">
+        <v>0</v>
+      </c>
       <c r="AE14" s="24"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="26"/>
@@ -33791,7 +34019,9 @@
       <c r="AC15" s="8">
         <v>0</v>
       </c>
-      <c r="AD15" s="8"/>
+      <c r="AD15" s="8">
+        <v>0</v>
+      </c>
       <c r="AE15" s="24"/>
       <c r="AF15" s="26"/>
       <c r="AG15" s="26"/>
@@ -33905,7 +34135,9 @@
       <c r="AC16" s="8">
         <v>0</v>
       </c>
-      <c r="AD16" s="8"/>
+      <c r="AD16" s="8">
+        <v>0</v>
+      </c>
       <c r="AE16" s="24"/>
       <c r="AF16" s="25"/>
       <c r="AG16" s="25"/>
@@ -34018,7 +34250,9 @@
       <c r="AC17" s="8">
         <v>38</v>
       </c>
-      <c r="AD17" s="8"/>
+      <c r="AD17" s="8">
+        <v>21</v>
+      </c>
       <c r="AE17" s="24"/>
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
@@ -34132,7 +34366,9 @@
       <c r="AC18" s="8">
         <v>165</v>
       </c>
-      <c r="AD18" s="8"/>
+      <c r="AD18" s="8">
+        <v>120</v>
+      </c>
       <c r="AE18" s="24"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
@@ -34246,7 +34482,9 @@
       <c r="AC19" s="8">
         <v>16</v>
       </c>
-      <c r="AD19" s="8"/>
+      <c r="AD19" s="8">
+        <v>12</v>
+      </c>
       <c r="AE19" s="24"/>
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
@@ -34358,7 +34596,9 @@
       <c r="AC20" s="8">
         <v>56</v>
       </c>
-      <c r="AD20" s="8"/>
+      <c r="AD20" s="8">
+        <v>32</v>
+      </c>
       <c r="AE20" s="24"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -34470,7 +34710,9 @@
       <c r="AC21" s="8">
         <v>10</v>
       </c>
-      <c r="AD21" s="8"/>
+      <c r="AD21" s="8">
+        <v>6</v>
+      </c>
       <c r="AE21" s="24"/>
       <c r="AF21" s="25"/>
       <c r="AG21" s="25"/>
@@ -34583,7 +34825,9 @@
       <c r="AC22" s="8">
         <v>4</v>
       </c>
-      <c r="AD22" s="8"/>
+      <c r="AD22" s="8">
+        <v>0</v>
+      </c>
       <c r="AE22" s="24"/>
       <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
@@ -34696,7 +34940,9 @@
       <c r="AC23" s="8">
         <v>0</v>
       </c>
-      <c r="AD23" s="8"/>
+      <c r="AD23" s="8">
+        <v>0</v>
+      </c>
       <c r="AE23" s="24"/>
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
@@ -34809,7 +35055,9 @@
       <c r="AC24" s="8">
         <v>2</v>
       </c>
-      <c r="AD24" s="8"/>
+      <c r="AD24" s="8">
+        <v>0</v>
+      </c>
       <c r="AE24" s="24"/>
       <c r="AF24" s="25"/>
       <c r="AG24" s="25"/>
@@ -34922,7 +35170,9 @@
       <c r="AC25" s="8">
         <v>0</v>
       </c>
-      <c r="AD25" s="8"/>
+      <c r="AD25" s="8">
+        <v>0</v>
+      </c>
       <c r="AE25" s="24"/>
       <c r="AF25" s="26"/>
       <c r="AG25" s="26"/>
@@ -35035,7 +35285,9 @@
       <c r="AC26" s="8">
         <v>2</v>
       </c>
-      <c r="AD26" s="8"/>
+      <c r="AD26" s="8">
+        <v>3</v>
+      </c>
       <c r="AE26" s="24"/>
       <c r="AF26" s="26"/>
       <c r="AG26" s="26"/>
@@ -35148,7 +35400,9 @@
       <c r="AC27" s="8">
         <v>0</v>
       </c>
-      <c r="AD27" s="8"/>
+      <c r="AD27" s="8">
+        <v>0</v>
+      </c>
       <c r="AE27" s="24"/>
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
@@ -35261,7 +35515,9 @@
       <c r="AC28" s="8">
         <v>0</v>
       </c>
-      <c r="AD28" s="8"/>
+      <c r="AD28" s="8">
+        <v>0</v>
+      </c>
       <c r="AE28" s="24"/>
       <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
@@ -35374,7 +35630,9 @@
       <c r="AC29" s="8">
         <v>0</v>
       </c>
-      <c r="AD29" s="8"/>
+      <c r="AD29" s="8">
+        <v>0</v>
+      </c>
       <c r="AE29" s="24"/>
       <c r="AF29" s="26"/>
       <c r="AG29" s="26"/>
@@ -35485,7 +35743,9 @@
       <c r="AC30" s="8">
         <v>0</v>
       </c>
-      <c r="AD30" s="8"/>
+      <c r="AD30" s="8">
+        <v>4</v>
+      </c>
       <c r="AE30" s="24"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
@@ -35599,7 +35859,9 @@
       <c r="AC31" s="8">
         <v>8</v>
       </c>
-      <c r="AD31" s="8"/>
+      <c r="AD31" s="8">
+        <v>2</v>
+      </c>
       <c r="AE31" s="24"/>
       <c r="AF31" s="25"/>
       <c r="AG31" s="25"/>
@@ -35712,7 +35974,9 @@
       <c r="AC32" s="8">
         <v>0</v>
       </c>
-      <c r="AD32" s="8"/>
+      <c r="AD32" s="8">
+        <v>0</v>
+      </c>
       <c r="AE32" s="24"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
@@ -35825,7 +36089,9 @@
       <c r="AC33" s="8">
         <v>0</v>
       </c>
-      <c r="AD33" s="8"/>
+      <c r="AD33" s="8">
+        <v>0</v>
+      </c>
       <c r="AE33" s="24"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
@@ -35939,7 +36205,9 @@
       <c r="AC34" s="8">
         <v>1</v>
       </c>
-      <c r="AD34" s="8"/>
+      <c r="AD34" s="8">
+        <v>2</v>
+      </c>
       <c r="AE34" s="24"/>
       <c r="AF34" s="25"/>
       <c r="AG34" s="25"/>
@@ -36053,7 +36321,9 @@
       <c r="AC35" s="8">
         <v>52</v>
       </c>
-      <c r="AD35" s="8"/>
+      <c r="AD35" s="8">
+        <v>51</v>
+      </c>
       <c r="AE35" s="24"/>
       <c r="AF35" s="25"/>
       <c r="AG35" s="25"/>
@@ -36164,7 +36434,9 @@
       <c r="AC36" s="8">
         <v>9</v>
       </c>
-      <c r="AD36" s="8"/>
+      <c r="AD36" s="8">
+        <v>6</v>
+      </c>
       <c r="AE36" s="24"/>
       <c r="AF36" s="25"/>
       <c r="AG36" s="25"/>
@@ -36278,7 +36550,9 @@
       <c r="AC37" s="8">
         <v>13</v>
       </c>
-      <c r="AD37" s="8"/>
+      <c r="AD37" s="8">
+        <v>4</v>
+      </c>
       <c r="AE37" s="24"/>
       <c r="AF37" s="25"/>
       <c r="AG37" s="25"/>
@@ -36391,7 +36665,9 @@
       <c r="AC38" s="8">
         <v>1</v>
       </c>
-      <c r="AD38" s="8"/>
+      <c r="AD38" s="8">
+        <v>1</v>
+      </c>
       <c r="AE38" s="24"/>
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
@@ -36504,7 +36780,9 @@
       <c r="AC39" s="8">
         <v>3</v>
       </c>
-      <c r="AD39" s="8"/>
+      <c r="AD39" s="8">
+        <v>1</v>
+      </c>
       <c r="AE39" s="24"/>
       <c r="AF39" s="26"/>
       <c r="AG39" s="26"/>
@@ -36617,7 +36895,9 @@
       <c r="AC40" s="8">
         <v>0</v>
       </c>
-      <c r="AD40" s="8"/>
+      <c r="AD40" s="8">
+        <v>0</v>
+      </c>
       <c r="AE40" s="24"/>
       <c r="AF40" s="26"/>
       <c r="AG40" s="26"/>
@@ -36730,7 +37010,9 @@
       <c r="AC41" s="8">
         <v>0</v>
       </c>
-      <c r="AD41" s="8"/>
+      <c r="AD41" s="8">
+        <v>0</v>
+      </c>
       <c r="AE41" s="24"/>
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
@@ -36843,7 +37125,9 @@
       <c r="AC42" s="8">
         <v>0</v>
       </c>
-      <c r="AD42" s="8"/>
+      <c r="AD42" s="8">
+        <v>2</v>
+      </c>
       <c r="AE42" s="24"/>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
@@ -36956,7 +37240,9 @@
       <c r="AC43" s="8">
         <v>12</v>
       </c>
-      <c r="AD43" s="8"/>
+      <c r="AD43" s="8">
+        <v>13</v>
+      </c>
       <c r="AE43" s="24"/>
       <c r="AF43" s="26"/>
       <c r="AG43" s="26"/>
@@ -37069,7 +37355,9 @@
       <c r="AC44" s="8">
         <v>0</v>
       </c>
-      <c r="AD44" s="8"/>
+      <c r="AD44" s="8">
+        <v>0</v>
+      </c>
       <c r="AE44" s="24"/>
       <c r="AF44" s="26"/>
       <c r="AG44" s="26"/>
@@ -37182,7 +37470,9 @@
       <c r="AC45" s="8">
         <v>1</v>
       </c>
-      <c r="AD45" s="8"/>
+      <c r="AD45" s="8">
+        <v>0</v>
+      </c>
       <c r="AE45" s="24"/>
       <c r="AF45" s="25"/>
       <c r="AG45" s="25"/>
@@ -37295,7 +37585,9 @@
       <c r="AC46" s="8">
         <v>0</v>
       </c>
-      <c r="AD46" s="8"/>
+      <c r="AD46" s="8">
+        <v>1</v>
+      </c>
       <c r="AE46" s="24"/>
       <c r="AF46" s="26"/>
       <c r="AG46" s="26"/>
@@ -37408,7 +37700,9 @@
       <c r="AC47" s="8">
         <v>0</v>
       </c>
-      <c r="AD47" s="8"/>
+      <c r="AD47" s="8">
+        <v>0</v>
+      </c>
       <c r="AE47" s="24"/>
       <c r="AF47" s="26"/>
       <c r="AG47" s="26"/>
@@ -37521,7 +37815,9 @@
       <c r="AC48" s="8">
         <v>1</v>
       </c>
-      <c r="AD48" s="8"/>
+      <c r="AD48" s="8">
+        <v>3</v>
+      </c>
       <c r="AE48" s="24"/>
       <c r="AF48" s="26"/>
       <c r="AG48" s="26"/>
@@ -37635,7 +37931,9 @@
       <c r="AC49" s="8">
         <v>0</v>
       </c>
-      <c r="AD49" s="8"/>
+      <c r="AD49" s="8">
+        <v>1</v>
+      </c>
       <c r="AE49" s="24"/>
       <c r="AF49" s="25"/>
       <c r="AG49" s="25"/>
@@ -37746,7 +38044,9 @@
       <c r="AC50" s="8">
         <v>0</v>
       </c>
-      <c r="AD50" s="8"/>
+      <c r="AD50" s="8">
+        <v>1</v>
+      </c>
       <c r="AE50" s="24"/>
       <c r="AF50" s="25"/>
       <c r="AG50" s="25"/>
@@ -37859,7 +38159,9 @@
       <c r="AC51" s="8">
         <v>0</v>
       </c>
-      <c r="AD51" s="8"/>
+      <c r="AD51" s="8">
+        <v>0</v>
+      </c>
       <c r="AE51" s="24"/>
       <c r="AF51" s="26"/>
       <c r="AG51" s="26"/>
@@ -37972,7 +38274,9 @@
       <c r="AC52" s="8">
         <v>1</v>
       </c>
-      <c r="AD52" s="8"/>
+      <c r="AD52" s="8">
+        <v>1</v>
+      </c>
       <c r="AE52" s="24"/>
       <c r="AF52" s="26"/>
       <c r="AG52" s="26"/>
@@ -38085,7 +38389,9 @@
       <c r="AC53" s="8">
         <v>2</v>
       </c>
-      <c r="AD53" s="8"/>
+      <c r="AD53" s="8">
+        <v>1</v>
+      </c>
       <c r="AE53" s="24"/>
       <c r="AF53" s="26"/>
       <c r="AG53" s="26"/>
@@ -38198,7 +38504,9 @@
       <c r="AC54" s="8">
         <v>4</v>
       </c>
-      <c r="AD54" s="8"/>
+      <c r="AD54" s="8">
+        <v>4</v>
+      </c>
       <c r="AE54" s="24"/>
       <c r="AF54" s="26"/>
       <c r="AG54" s="26"/>
@@ -38311,7 +38619,9 @@
       <c r="AC55" s="8">
         <v>1</v>
       </c>
-      <c r="AD55" s="8"/>
+      <c r="AD55" s="8">
+        <v>0</v>
+      </c>
       <c r="AE55" s="24"/>
       <c r="AF55" s="26"/>
       <c r="AG55" s="26"/>
@@ -38424,7 +38734,9 @@
       <c r="AC56" s="8">
         <v>0</v>
       </c>
-      <c r="AD56" s="8"/>
+      <c r="AD56" s="8">
+        <v>0</v>
+      </c>
       <c r="AE56" s="24"/>
       <c r="AF56" s="26"/>
       <c r="AG56" s="26"/>
@@ -38537,7 +38849,9 @@
       <c r="AC57" s="8">
         <v>0</v>
       </c>
-      <c r="AD57" s="8"/>
+      <c r="AD57" s="8">
+        <v>0</v>
+      </c>
       <c r="AE57" s="24"/>
       <c r="AF57" s="26"/>
       <c r="AG57" s="26"/>
@@ -38639,7 +38953,7 @@
         <v>698</v>
       </c>
       <c r="U58" s="14">
-        <f t="shared" ref="U58:AC58" si="2">SUM(U6:U57)</f>
+        <f t="shared" ref="U58:AD58" si="2">SUM(U6:U57)</f>
         <v>991</v>
       </c>
       <c r="V58" s="14">
@@ -38675,7 +38989,8 @@
         <v>440</v>
       </c>
       <c r="AD58" s="14">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>322</v>
       </c>
       <c r="AE58" s="27"/>
       <c r="AF58" s="27"/>
@@ -38886,10 +39201,10 @@
   <dimension ref="A1:BD61"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AH55" sqref="AH55"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -39285,7 +39600,9 @@
       <c r="AC6" s="8">
         <v>43</v>
       </c>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <v>52</v>
+      </c>
       <c r="AE6" s="24"/>
       <c r="AF6" s="25"/>
       <c r="AG6" s="25"/>
@@ -39398,7 +39715,9 @@
       <c r="AC7" s="8">
         <v>0</v>
       </c>
-      <c r="AD7" s="8"/>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
       <c r="AE7" s="24"/>
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
@@ -39511,7 +39830,9 @@
       <c r="AC8" s="8">
         <v>6</v>
       </c>
-      <c r="AD8" s="8"/>
+      <c r="AD8" s="8">
+        <v>3</v>
+      </c>
       <c r="AE8" s="24"/>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26"/>
@@ -39625,7 +39946,9 @@
       <c r="AC9" s="8">
         <v>38</v>
       </c>
-      <c r="AD9" s="8"/>
+      <c r="AD9" s="8">
+        <v>47</v>
+      </c>
       <c r="AE9" s="24"/>
       <c r="AF9" s="26"/>
       <c r="AG9" s="26"/>
@@ -39738,7 +40061,9 @@
       <c r="AC10" s="8">
         <v>0</v>
       </c>
-      <c r="AD10" s="8"/>
+      <c r="AD10" s="8">
+        <v>0</v>
+      </c>
       <c r="AE10" s="24"/>
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
@@ -39851,7 +40176,9 @@
       <c r="AC11" s="8">
         <v>7</v>
       </c>
-      <c r="AD11" s="8"/>
+      <c r="AD11" s="8">
+        <v>0</v>
+      </c>
       <c r="AE11" s="24"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
@@ -39964,7 +40291,9 @@
       <c r="AC12" s="8">
         <v>3</v>
       </c>
-      <c r="AD12" s="8"/>
+      <c r="AD12" s="8">
+        <v>3</v>
+      </c>
       <c r="AE12" s="24"/>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
@@ -40077,7 +40406,9 @@
       <c r="AC13" s="8">
         <v>9</v>
       </c>
-      <c r="AD13" s="8"/>
+      <c r="AD13" s="8">
+        <v>5</v>
+      </c>
       <c r="AE13" s="24"/>
       <c r="AF13" s="25"/>
       <c r="AG13" s="25"/>
@@ -40190,7 +40521,9 @@
       <c r="AC14" s="8">
         <v>6</v>
       </c>
-      <c r="AD14" s="8"/>
+      <c r="AD14" s="8">
+        <v>3</v>
+      </c>
       <c r="AE14" s="24"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="26"/>
@@ -40303,7 +40636,9 @@
       <c r="AC15" s="8">
         <v>0</v>
       </c>
-      <c r="AD15" s="8"/>
+      <c r="AD15" s="8">
+        <v>0</v>
+      </c>
       <c r="AE15" s="24"/>
       <c r="AF15" s="26"/>
       <c r="AG15" s="26"/>
@@ -40417,7 +40752,9 @@
       <c r="AC16" s="8">
         <v>55</v>
       </c>
-      <c r="AD16" s="8"/>
+      <c r="AD16" s="8">
+        <v>49</v>
+      </c>
       <c r="AE16" s="24"/>
       <c r="AF16" s="25"/>
       <c r="AG16" s="25"/>
@@ -40530,7 +40867,9 @@
       <c r="AC17" s="8">
         <v>52</v>
       </c>
-      <c r="AD17" s="8"/>
+      <c r="AD17" s="8">
+        <v>51</v>
+      </c>
       <c r="AE17" s="24"/>
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
@@ -40644,7 +40983,9 @@
       <c r="AC18" s="8">
         <v>735</v>
       </c>
-      <c r="AD18" s="8"/>
+      <c r="AD18" s="8">
+        <v>558</v>
+      </c>
       <c r="AE18" s="24"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
@@ -40758,7 +41099,9 @@
       <c r="AC19" s="8">
         <v>11</v>
       </c>
-      <c r="AD19" s="8"/>
+      <c r="AD19" s="8">
+        <v>8</v>
+      </c>
       <c r="AE19" s="24"/>
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
@@ -40870,7 +41213,9 @@
       <c r="AC20" s="8">
         <v>32</v>
       </c>
-      <c r="AD20" s="8"/>
+      <c r="AD20" s="8">
+        <v>33</v>
+      </c>
       <c r="AE20" s="24"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -40982,7 +41327,9 @@
       <c r="AC21" s="8">
         <v>9</v>
       </c>
-      <c r="AD21" s="8"/>
+      <c r="AD21" s="8">
+        <v>12</v>
+      </c>
       <c r="AE21" s="24"/>
       <c r="AF21" s="25"/>
       <c r="AG21" s="25"/>
@@ -41095,7 +41442,9 @@
       <c r="AC22" s="8">
         <v>4</v>
       </c>
-      <c r="AD22" s="8"/>
+      <c r="AD22" s="8">
+        <v>5</v>
+      </c>
       <c r="AE22" s="24"/>
       <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
@@ -41208,7 +41557,9 @@
       <c r="AC23" s="8">
         <v>1</v>
       </c>
-      <c r="AD23" s="8"/>
+      <c r="AD23" s="8">
+        <v>0</v>
+      </c>
       <c r="AE23" s="24"/>
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
@@ -41321,7 +41672,9 @@
       <c r="AC24" s="8">
         <v>4</v>
       </c>
-      <c r="AD24" s="8"/>
+      <c r="AD24" s="8">
+        <v>5</v>
+      </c>
       <c r="AE24" s="24"/>
       <c r="AF24" s="25"/>
       <c r="AG24" s="25"/>
@@ -41434,7 +41787,9 @@
       <c r="AC25" s="8">
         <v>0</v>
       </c>
-      <c r="AD25" s="8"/>
+      <c r="AD25" s="8">
+        <v>0</v>
+      </c>
       <c r="AE25" s="24"/>
       <c r="AF25" s="26"/>
       <c r="AG25" s="26"/>
@@ -41547,7 +41902,9 @@
       <c r="AC26" s="8">
         <v>2</v>
       </c>
-      <c r="AD26" s="8"/>
+      <c r="AD26" s="8">
+        <v>5</v>
+      </c>
       <c r="AE26" s="24"/>
       <c r="AF26" s="26"/>
       <c r="AG26" s="26"/>
@@ -41660,7 +42017,9 @@
       <c r="AC27" s="8">
         <v>1</v>
       </c>
-      <c r="AD27" s="8"/>
+      <c r="AD27" s="8">
+        <v>0</v>
+      </c>
       <c r="AE27" s="24"/>
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
@@ -41773,7 +42132,9 @@
       <c r="AC28" s="8">
         <v>2</v>
       </c>
-      <c r="AD28" s="8"/>
+      <c r="AD28" s="8">
+        <v>0</v>
+      </c>
       <c r="AE28" s="24"/>
       <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
@@ -41886,7 +42247,9 @@
       <c r="AC29" s="8">
         <v>2</v>
       </c>
-      <c r="AD29" s="8"/>
+      <c r="AD29" s="8">
+        <v>2</v>
+      </c>
       <c r="AE29" s="24"/>
       <c r="AF29" s="26"/>
       <c r="AG29" s="26"/>
@@ -41997,7 +42360,9 @@
       <c r="AC30" s="8">
         <v>1</v>
       </c>
-      <c r="AD30" s="8"/>
+      <c r="AD30" s="8">
+        <v>0</v>
+      </c>
       <c r="AE30" s="24"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
@@ -42111,7 +42476,9 @@
       <c r="AC31" s="8">
         <v>10</v>
       </c>
-      <c r="AD31" s="8"/>
+      <c r="AD31" s="8">
+        <v>12</v>
+      </c>
       <c r="AE31" s="24"/>
       <c r="AF31" s="25"/>
       <c r="AG31" s="25"/>
@@ -42224,7 +42591,9 @@
       <c r="AC32" s="8">
         <v>0</v>
       </c>
-      <c r="AD32" s="8"/>
+      <c r="AD32" s="8">
+        <v>0</v>
+      </c>
       <c r="AE32" s="24"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
@@ -42337,7 +42706,9 @@
       <c r="AC33" s="8">
         <v>0</v>
       </c>
-      <c r="AD33" s="8"/>
+      <c r="AD33" s="8">
+        <v>0</v>
+      </c>
       <c r="AE33" s="24"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
@@ -42451,7 +42822,9 @@
       <c r="AC34" s="8">
         <v>17</v>
       </c>
-      <c r="AD34" s="8"/>
+      <c r="AD34" s="8">
+        <v>7</v>
+      </c>
       <c r="AE34" s="24"/>
       <c r="AF34" s="25"/>
       <c r="AG34" s="25"/>
@@ -42565,7 +42938,9 @@
       <c r="AC35" s="8">
         <v>163</v>
       </c>
-      <c r="AD35" s="8"/>
+      <c r="AD35" s="8">
+        <v>148</v>
+      </c>
       <c r="AE35" s="24"/>
       <c r="AF35" s="25"/>
       <c r="AG35" s="25"/>
@@ -42676,7 +43051,9 @@
       <c r="AC36" s="8">
         <v>6</v>
       </c>
-      <c r="AD36" s="8"/>
+      <c r="AD36" s="8">
+        <v>5</v>
+      </c>
       <c r="AE36" s="24"/>
       <c r="AF36" s="25"/>
       <c r="AG36" s="25"/>
@@ -42790,7 +43167,9 @@
       <c r="AC37" s="8">
         <v>18</v>
       </c>
-      <c r="AD37" s="8"/>
+      <c r="AD37" s="8">
+        <v>19</v>
+      </c>
       <c r="AE37" s="24"/>
       <c r="AF37" s="25"/>
       <c r="AG37" s="25"/>
@@ -42903,7 +43282,9 @@
       <c r="AC38" s="8">
         <v>2</v>
       </c>
-      <c r="AD38" s="8"/>
+      <c r="AD38" s="8">
+        <v>1</v>
+      </c>
       <c r="AE38" s="24"/>
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
@@ -43016,7 +43397,9 @@
       <c r="AC39" s="8">
         <v>0</v>
       </c>
-      <c r="AD39" s="8"/>
+      <c r="AD39" s="8">
+        <v>0</v>
+      </c>
       <c r="AE39" s="24"/>
       <c r="AF39" s="26"/>
       <c r="AG39" s="26"/>
@@ -43129,7 +43512,9 @@
       <c r="AC40" s="8">
         <v>0</v>
       </c>
-      <c r="AD40" s="8"/>
+      <c r="AD40" s="8">
+        <v>0</v>
+      </c>
       <c r="AE40" s="24"/>
       <c r="AF40" s="26"/>
       <c r="AG40" s="26"/>
@@ -43242,7 +43627,9 @@
       <c r="AC41" s="8">
         <v>0</v>
       </c>
-      <c r="AD41" s="8"/>
+      <c r="AD41" s="8">
+        <v>0</v>
+      </c>
       <c r="AE41" s="24"/>
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
@@ -43355,7 +43742,9 @@
       <c r="AC42" s="8">
         <v>1</v>
       </c>
-      <c r="AD42" s="8"/>
+      <c r="AD42" s="8">
+        <v>1</v>
+      </c>
       <c r="AE42" s="24"/>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
@@ -43468,7 +43857,9 @@
       <c r="AC43" s="8">
         <v>21</v>
       </c>
-      <c r="AD43" s="8"/>
+      <c r="AD43" s="8">
+        <v>12</v>
+      </c>
       <c r="AE43" s="24"/>
       <c r="AF43" s="26"/>
       <c r="AG43" s="26"/>
@@ -43581,7 +43972,9 @@
       <c r="AC44" s="8">
         <v>1</v>
       </c>
-      <c r="AD44" s="8"/>
+      <c r="AD44" s="8">
+        <v>0</v>
+      </c>
       <c r="AE44" s="24"/>
       <c r="AF44" s="26"/>
       <c r="AG44" s="26"/>
@@ -43694,7 +44087,9 @@
       <c r="AC45" s="8">
         <v>4</v>
       </c>
-      <c r="AD45" s="8"/>
+      <c r="AD45" s="8">
+        <v>4</v>
+      </c>
       <c r="AE45" s="24"/>
       <c r="AF45" s="25"/>
       <c r="AG45" s="25"/>
@@ -43807,7 +44202,9 @@
       <c r="AC46" s="8">
         <v>5</v>
       </c>
-      <c r="AD46" s="8"/>
+      <c r="AD46" s="8">
+        <v>4</v>
+      </c>
       <c r="AE46" s="24"/>
       <c r="AF46" s="26"/>
       <c r="AG46" s="26"/>
@@ -43920,7 +44317,9 @@
       <c r="AC47" s="8">
         <v>1</v>
       </c>
-      <c r="AD47" s="8"/>
+      <c r="AD47" s="8">
+        <v>0</v>
+      </c>
       <c r="AE47" s="24"/>
       <c r="AF47" s="26"/>
       <c r="AG47" s="26"/>
@@ -44033,7 +44432,9 @@
       <c r="AC48" s="8">
         <v>1</v>
       </c>
-      <c r="AD48" s="8"/>
+      <c r="AD48" s="8">
+        <v>3</v>
+      </c>
       <c r="AE48" s="24"/>
       <c r="AF48" s="26"/>
       <c r="AG48" s="26"/>
@@ -44147,7 +44548,9 @@
       <c r="AC49" s="8">
         <v>10</v>
       </c>
-      <c r="AD49" s="8"/>
+      <c r="AD49" s="8">
+        <v>15</v>
+      </c>
       <c r="AE49" s="24"/>
       <c r="AF49" s="25"/>
       <c r="AG49" s="25"/>
@@ -44258,7 +44661,9 @@
       <c r="AC50" s="8">
         <v>2</v>
       </c>
-      <c r="AD50" s="8"/>
+      <c r="AD50" s="8">
+        <v>1</v>
+      </c>
       <c r="AE50" s="24"/>
       <c r="AF50" s="25"/>
       <c r="AG50" s="25"/>
@@ -44371,7 +44776,9 @@
       <c r="AC51" s="8">
         <v>2</v>
       </c>
-      <c r="AD51" s="8"/>
+      <c r="AD51" s="8">
+        <v>2</v>
+      </c>
       <c r="AE51" s="24"/>
       <c r="AF51" s="26"/>
       <c r="AG51" s="26"/>
@@ -44484,7 +44891,9 @@
       <c r="AC52" s="8">
         <v>4</v>
       </c>
-      <c r="AD52" s="8"/>
+      <c r="AD52" s="8">
+        <v>5</v>
+      </c>
       <c r="AE52" s="24"/>
       <c r="AF52" s="26"/>
       <c r="AG52" s="26"/>
@@ -44597,7 +45006,9 @@
       <c r="AC53" s="8">
         <v>10</v>
       </c>
-      <c r="AD53" s="8"/>
+      <c r="AD53" s="8">
+        <v>9</v>
+      </c>
       <c r="AE53" s="24"/>
       <c r="AF53" s="26"/>
       <c r="AG53" s="26"/>
@@ -44710,7 +45121,9 @@
       <c r="AC54" s="8">
         <v>3</v>
       </c>
-      <c r="AD54" s="8"/>
+      <c r="AD54" s="8">
+        <v>3</v>
+      </c>
       <c r="AE54" s="24"/>
       <c r="AF54" s="26"/>
       <c r="AG54" s="26"/>
@@ -44823,7 +45236,9 @@
       <c r="AC55" s="8">
         <v>5</v>
       </c>
-      <c r="AD55" s="8"/>
+      <c r="AD55" s="8">
+        <v>6</v>
+      </c>
       <c r="AE55" s="24"/>
       <c r="AF55" s="26"/>
       <c r="AG55" s="26"/>
@@ -44936,7 +45351,9 @@
       <c r="AC56" s="8">
         <v>3</v>
       </c>
-      <c r="AD56" s="8"/>
+      <c r="AD56" s="8">
+        <v>2</v>
+      </c>
       <c r="AE56" s="24"/>
       <c r="AF56" s="26"/>
       <c r="AG56" s="26"/>
@@ -45049,7 +45466,9 @@
       <c r="AC57" s="8">
         <v>0</v>
       </c>
-      <c r="AD57" s="8"/>
+      <c r="AD57" s="8">
+        <v>1</v>
+      </c>
       <c r="AE57" s="24"/>
       <c r="AF57" s="26"/>
       <c r="AG57" s="26"/>
@@ -45188,7 +45607,7 @@
       </c>
       <c r="AD58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="AE58" s="27"/>
       <c r="AF58" s="27"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\09【大】感染症関係\【中】新型コロナウイルス感染症関係\【小】令和３年度新型コロナウイルス感染症関係\★ コロナ受入困難事例集計\最新データ\DTホームページ公開\20211012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\09【大】感染症関係\【中】新型コロナウイルス感染症関係\【小】令和３年度新型コロナウイルス感染症関係\★ コロナ受入困難事例集計\最新データ\DTホームページ公開\20211019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A8578-5808-4742-ABE9-3C9A25FE7826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D49D97-C400-4E35-89B1-D4B3D58036CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$CE$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$CE$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$CF$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$CF$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="268">
   <si>
     <t>都道府県</t>
   </si>
@@ -2102,6 +2102,54 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>10/11(月)～
+10/17(日)分
+【10月第3週】</t>
+    <rPh sb="6" eb="7">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/12(月)～
+10/18(日)分
+【10月第3週】</t>
+    <rPh sb="6" eb="7">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2431,7 +2479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2516,29 +2564,20 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2558,26 +2597,56 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2594,32 +2663,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4984,13 +5035,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CE61"/>
+  <dimension ref="A1:CF61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BN6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="BF6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CE58" sqref="CE58"/>
+      <selection pane="bottomRight" activeCell="CF44" sqref="CF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5001,532 +5052,540 @@
     <col min="4" max="56" width="11" style="1" customWidth="1"/>
     <col min="57" max="82" width="10.9140625" style="1" customWidth="1"/>
     <col min="83" max="83" width="11.08203125" style="1" customWidth="1"/>
-    <col min="84" max="16384" width="8.6640625" style="1"/>
+    <col min="84" max="84" width="11.1640625" style="1" customWidth="1"/>
+    <col min="85" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BA1" s="42" t="s">
+    <row r="1" spans="1:84" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BA1" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
       <c r="BD1" s="19"/>
-      <c r="CD1" s="55" t="s">
+      <c r="CD1" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="CE1" s="55"/>
+      <c r="CE1" s="43"/>
+      <c r="CF1" s="43"/>
     </row>
-    <row r="2" spans="1:83" ht="32.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="43" t="s">
+    <row r="2" spans="1:84" ht="32.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43"/>
-      <c r="CE2" s="43"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
     </row>
-    <row r="3" spans="1:83" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="44" t="s">
+    <row r="3" spans="1:84" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44" t="s">
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="44"/>
-      <c r="BU3" s="44"/>
-      <c r="BV3" s="44"/>
-      <c r="BW3" s="44"/>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="44"/>
-      <c r="BZ3" s="44"/>
-      <c r="CA3" s="44"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="44"/>
-      <c r="CD3" s="44"/>
-      <c r="CE3" s="44"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
     </row>
-    <row r="4" spans="1:83" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="40" t="s">
+    <row r="4" spans="1:84" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="40" t="s">
+      <c r="U4" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="40" t="s">
+      <c r="V4" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="40" t="s">
+      <c r="X4" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="40" t="s">
+      <c r="Y4" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="40" t="s">
+      <c r="Z4" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="40" t="s">
+      <c r="AA4" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="40" t="s">
+      <c r="AB4" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="40" t="s">
+      <c r="AC4" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="40" t="s">
+      <c r="AD4" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="40" t="s">
+      <c r="AE4" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="40" t="s">
+      <c r="AF4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="40" t="s">
+      <c r="AG4" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="40" t="s">
+      <c r="AH4" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="AI4" s="40" t="s">
+      <c r="AI4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="40" t="s">
+      <c r="AJ4" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="40" t="s">
+      <c r="AK4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="40" t="s">
+      <c r="AL4" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="40" t="s">
+      <c r="AM4" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="40" t="s">
+      <c r="AN4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="40" t="s">
+      <c r="AO4" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="40" t="s">
+      <c r="AP4" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="40" t="s">
+      <c r="AQ4" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="AR4" s="45" t="s">
+      <c r="AR4" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="45" t="s">
+      <c r="AS4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="45" t="s">
+      <c r="AT4" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="45" t="s">
+      <c r="AU4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="45" t="s">
+      <c r="AV4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="45" t="s">
+      <c r="AW4" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="45" t="s">
+      <c r="AX4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="45" t="s">
+      <c r="AY4" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="45" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="45" t="s">
+      <c r="BA4" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="45" t="s">
+      <c r="BB4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="45" t="s">
+      <c r="BC4" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="45" t="s">
+      <c r="BD4" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="BE4" s="45" t="s">
+      <c r="BE4" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="BF4" s="45" t="s">
+      <c r="BF4" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="45" t="s">
+      <c r="BG4" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="45" t="s">
+      <c r="BH4" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="BI4" s="45" t="s">
+      <c r="BI4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="BJ4" s="45" t="s">
+      <c r="BJ4" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="BK4" s="45" t="s">
+      <c r="BK4" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="45" t="s">
+      <c r="BL4" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="45" t="s">
+      <c r="BM4" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="BN4" s="45" t="s">
+      <c r="BN4" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="BO4" s="45" t="s">
+      <c r="BO4" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="45" t="s">
+      <c r="BP4" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="BQ4" s="45" t="s">
+      <c r="BQ4" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="BR4" s="45" t="s">
+      <c r="BR4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="BS4" s="45" t="s">
+      <c r="BS4" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="BT4" s="45" t="s">
+      <c r="BT4" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="BU4" s="45" t="s">
+      <c r="BU4" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="BV4" s="45" t="s">
+      <c r="BV4" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="45" t="s">
+      <c r="BW4" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="45" t="s">
+      <c r="BX4" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="45" t="s">
+      <c r="BY4" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="45" t="s">
+      <c r="BZ4" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="45" t="s">
+      <c r="CA4" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="45" t="s">
+      <c r="CB4" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="45" t="s">
+      <c r="CC4" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="45" t="s">
+      <c r="CD4" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="CE4" s="57" t="s">
+      <c r="CE4" s="29" t="s">
         <v>264</v>
       </c>
+      <c r="CF4" s="29" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="45"/>
-      <c r="BX5" s="45"/>
-      <c r="BY5" s="45"/>
-      <c r="BZ5" s="45"/>
-      <c r="CA5" s="45"/>
-      <c r="CB5" s="45"/>
-      <c r="CC5" s="45"/>
-      <c r="CD5" s="45"/>
-      <c r="CE5" s="58"/>
+    <row r="5" spans="1:84" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="36"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="48"/>
+      <c r="BX5" s="48"/>
+      <c r="BY5" s="48"/>
+      <c r="BZ5" s="48"/>
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="48"/>
+      <c r="CD5" s="48"/>
+      <c r="CE5" s="30"/>
+      <c r="CF5" s="30"/>
     </row>
-    <row r="6" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -5771,11 +5830,14 @@
       <c r="CD6" s="8">
         <v>71</v>
       </c>
-      <c r="CE6" s="62">
+      <c r="CE6" s="28">
         <v>57</v>
       </c>
+      <c r="CF6" s="26">
+        <v>70</v>
+      </c>
     </row>
-    <row r="7" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -6022,8 +6084,11 @@
       <c r="CE7" s="26">
         <v>0</v>
       </c>
+      <c r="CF7" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -6270,8 +6335,11 @@
       <c r="CE8" s="26">
         <v>7</v>
       </c>
+      <c r="CF8" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -6519,8 +6587,11 @@
       <c r="CE9" s="26">
         <v>56</v>
       </c>
+      <c r="CF9" s="15">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -6767,8 +6838,11 @@
       <c r="CE10" s="26">
         <v>0</v>
       </c>
+      <c r="CF10" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -7015,8 +7089,11 @@
       <c r="CE11" s="26">
         <v>1</v>
       </c>
+      <c r="CF11" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -7263,8 +7340,11 @@
       <c r="CE12" s="26">
         <v>2</v>
       </c>
+      <c r="CF12" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -7508,11 +7588,14 @@
       <c r="CD13" s="8">
         <v>9</v>
       </c>
-      <c r="CE13" s="62">
+      <c r="CE13" s="28">
         <v>7</v>
       </c>
+      <c r="CF13" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -7759,8 +7842,11 @@
       <c r="CE14" s="26">
         <v>6</v>
       </c>
+      <c r="CF14" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -8007,8 +8093,11 @@
       <c r="CE15" s="26">
         <v>3</v>
       </c>
+      <c r="CF15" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -8253,11 +8342,14 @@
       <c r="CD16" s="8">
         <v>49</v>
       </c>
-      <c r="CE16" s="62">
+      <c r="CE16" s="28">
         <v>43</v>
       </c>
+      <c r="CF16" s="28">
+        <v>67</v>
+      </c>
     </row>
-    <row r="17" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -8501,11 +8593,14 @@
       <c r="CD17" s="8">
         <v>72</v>
       </c>
-      <c r="CE17" s="62">
+      <c r="CE17" s="28">
         <v>68</v>
       </c>
+      <c r="CF17" s="16">
+        <v>85</v>
+      </c>
     </row>
-    <row r="18" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -8750,13 +8845,16 @@
       <c r="CD18" s="8">
         <v>678</v>
       </c>
-      <c r="CE18" s="62">
+      <c r="CE18" s="28">
         <v>672</v>
       </c>
+      <c r="CF18" s="28">
+        <v>652</v>
+      </c>
     </row>
-    <row r="19" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -8999,13 +9097,16 @@
       <c r="CD19" s="8">
         <v>20</v>
       </c>
-      <c r="CE19" s="62">
+      <c r="CE19" s="28">
         <v>33</v>
       </c>
+      <c r="CF19" s="15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -9246,13 +9347,16 @@
       <c r="CD20" s="8">
         <v>65</v>
       </c>
-      <c r="CE20" s="62">
+      <c r="CE20" s="28">
         <v>62</v>
       </c>
+      <c r="CF20" s="26">
+        <v>48</v>
+      </c>
     </row>
-    <row r="21" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -9493,11 +9597,14 @@
       <c r="CD21" s="8">
         <v>18</v>
       </c>
-      <c r="CE21" s="62">
+      <c r="CE21" s="28">
         <v>17</v>
       </c>
+      <c r="CF21" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="22" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -9744,8 +9851,11 @@
       <c r="CE22" s="26">
         <v>11</v>
       </c>
+      <c r="CF22" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -9992,8 +10102,11 @@
       <c r="CE23" s="26">
         <v>0</v>
       </c>
+      <c r="CF23" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -10237,11 +10350,14 @@
       <c r="CD24" s="8">
         <v>5</v>
       </c>
-      <c r="CE24" s="62">
-        <v>2</v>
+      <c r="CE24" s="28">
+        <v>2</v>
+      </c>
+      <c r="CF24" s="15">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -10488,8 +10604,11 @@
       <c r="CE25" s="26">
         <v>1</v>
       </c>
+      <c r="CF25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -10736,8 +10855,11 @@
       <c r="CE26" s="26">
         <v>5</v>
       </c>
+      <c r="CF26" s="15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -10984,8 +11106,11 @@
       <c r="CE27" s="26">
         <v>0</v>
       </c>
+      <c r="CF27" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -11229,12 +11354,15 @@
       <c r="CD28" s="8">
         <v>0</v>
       </c>
-      <c r="CE28" s="62">
-        <v>1</v>
+      <c r="CE28" s="28">
+        <v>1</v>
+      </c>
+      <c r="CF28" s="15">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="35" t="s">
+    <row r="29" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -11480,9 +11608,12 @@
       <c r="CE29" s="26">
         <v>3</v>
       </c>
+      <c r="CF29" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="35"/>
+    <row r="30" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="42"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -11726,8 +11857,11 @@
       <c r="CE30" s="26">
         <v>1</v>
       </c>
+      <c r="CF30" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -11972,11 +12106,14 @@
       <c r="CD31" s="8">
         <v>14</v>
       </c>
-      <c r="CE31" s="62">
+      <c r="CE31" s="28">
         <v>14</v>
       </c>
+      <c r="CF31" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -12223,8 +12360,11 @@
       <c r="CE32" s="26">
         <v>1</v>
       </c>
+      <c r="CF32" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -12471,8 +12611,11 @@
       <c r="CE33" s="26">
         <v>0</v>
       </c>
+      <c r="CF33" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -12717,13 +12860,16 @@
       <c r="CD34" s="8">
         <v>9</v>
       </c>
-      <c r="CE34" s="62">
+      <c r="CE34" s="28">
         <v>18</v>
       </c>
+      <c r="CF34" s="15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="35" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -12966,12 +13112,15 @@
       <c r="CD35" s="8">
         <v>199</v>
       </c>
-      <c r="CE35" s="62">
+      <c r="CE35" s="28">
         <v>192</v>
       </c>
+      <c r="CF35" s="16">
+        <v>138</v>
+      </c>
     </row>
-    <row r="36" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="34"/>
+    <row r="36" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="41"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -13212,11 +13361,14 @@
       <c r="CD36" s="8">
         <v>11</v>
       </c>
-      <c r="CE36" s="62">
+      <c r="CE36" s="28">
         <v>11</v>
       </c>
+      <c r="CF36" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -13461,11 +13613,14 @@
       <c r="CD37" s="8">
         <v>23</v>
       </c>
-      <c r="CE37" s="62">
+      <c r="CE37" s="28">
         <v>28</v>
       </c>
+      <c r="CF37" s="15">
+        <v>17</v>
+      </c>
     </row>
-    <row r="38" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -13712,8 +13867,11 @@
       <c r="CE38" s="26">
         <v>5</v>
       </c>
+      <c r="CF38" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -13960,8 +14118,11 @@
       <c r="CE39" s="26">
         <v>7</v>
       </c>
+      <c r="CF39" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -14208,8 +14369,11 @@
       <c r="CE40" s="26">
         <v>0</v>
       </c>
+      <c r="CF40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -14456,8 +14620,11 @@
       <c r="CE41" s="26">
         <v>0</v>
       </c>
+      <c r="CF41" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -14704,8 +14871,11 @@
       <c r="CE42" s="26">
         <v>6</v>
       </c>
+      <c r="CF42" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -14952,8 +15122,11 @@
       <c r="CE43" s="26">
         <v>21</v>
       </c>
+      <c r="CF43" s="26">
+        <v>22</v>
+      </c>
     </row>
-    <row r="44" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -15200,8 +15373,11 @@
       <c r="CE44" s="26">
         <v>0</v>
       </c>
+      <c r="CF44" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -15445,11 +15621,14 @@
       <c r="CD45" s="8">
         <v>4</v>
       </c>
-      <c r="CE45" s="62">
+      <c r="CE45" s="28">
         <v>7</v>
       </c>
+      <c r="CF45" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="46" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -15696,8 +15875,11 @@
       <c r="CE46" s="26">
         <v>7</v>
       </c>
+      <c r="CF46" s="15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="47" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -15944,8 +16126,11 @@
       <c r="CE47" s="26">
         <v>1</v>
       </c>
+      <c r="CF47" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -16192,10 +16377,13 @@
       <c r="CE48" s="26">
         <v>2</v>
       </c>
+      <c r="CF48" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -16438,12 +16626,15 @@
       <c r="CD49" s="8">
         <v>16</v>
       </c>
-      <c r="CE49" s="62">
+      <c r="CE49" s="28">
         <v>15</v>
       </c>
+      <c r="CF49" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="50" spans="1:83" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="34"/>
+    <row r="50" spans="1:84" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="41"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -16684,11 +16875,14 @@
       <c r="CD50" s="8">
         <v>2</v>
       </c>
-      <c r="CE50" s="62">
+      <c r="CE50" s="28">
         <v>6</v>
       </c>
+      <c r="CF50" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -16935,8 +17129,11 @@
       <c r="CE51" s="26">
         <v>2</v>
       </c>
+      <c r="CF51" s="15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -17183,8 +17380,11 @@
       <c r="CE52" s="26">
         <v>4</v>
       </c>
+      <c r="CF52" s="15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -17431,8 +17631,11 @@
       <c r="CE53" s="26">
         <v>13</v>
       </c>
+      <c r="CF53" s="15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="54" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -17679,8 +17882,11 @@
       <c r="CE54" s="26">
         <v>8</v>
       </c>
+      <c r="CF54" s="15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="55" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -17927,8 +18133,11 @@
       <c r="CE55" s="26">
         <v>7</v>
       </c>
+      <c r="CF55" s="15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="56" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -18175,8 +18384,11 @@
       <c r="CE56" s="26">
         <v>0</v>
       </c>
+      <c r="CF56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -18423,8 +18635,11 @@
       <c r="CE57" s="26">
         <v>0</v>
       </c>
+      <c r="CF57" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -18710,7 +18925,7 @@
         <v>2376</v>
       </c>
       <c r="BV58" s="14">
-        <f t="shared" ref="BV58:CE58" si="3">SUM(BV6:BV57)</f>
+        <f t="shared" ref="BV58:CF58" si="3">SUM(BV6:BV57)</f>
         <v>2897</v>
       </c>
       <c r="BW58" s="14">
@@ -18749,8 +18964,12 @@
         <f t="shared" si="3"/>
         <v>1433</v>
       </c>
+      <c r="CF58" s="14">
+        <f t="shared" si="3"/>
+        <v>1320</v>
+      </c>
     </row>
-    <row r="59" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -18834,7 +19053,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -18918,30 +19137,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:83" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:84" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -19003,27 +19222,10 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="96">
+    <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="BD3:CE3"/>
-    <mergeCell ref="BD2:CE2"/>
-    <mergeCell ref="CD1:CE1"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="BX4:BX5"/>
@@ -19035,6 +19237,18 @@
     <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="BT4:BT5"/>
     <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BJ4:BJ5"/>
@@ -19051,45 +19265,28 @@
     <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -19099,6 +19296,29 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="BD2:CF2"/>
+    <mergeCell ref="BD3:CF3"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AG4:AG5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19112,13 +19332,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:CE58"/>
+  <dimension ref="B1:CF58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BO41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CE6" sqref="CE6"/>
+      <selection pane="bottomRight" activeCell="CE62" sqref="CE62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -19129,532 +19349,540 @@
     <col min="4" max="55" width="11" style="1" customWidth="1"/>
     <col min="56" max="82" width="10.9140625" style="1" customWidth="1"/>
     <col min="83" max="83" width="11.08203125" style="1" customWidth="1"/>
-    <col min="84" max="16384" width="8.6640625" style="1"/>
+    <col min="84" max="84" width="11.1640625" style="1" customWidth="1"/>
+    <col min="85" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:83" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="BB1" s="48" t="s">
+    <row r="1" spans="2:84" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="BB1" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="48"/>
+      <c r="BC1" s="53"/>
       <c r="BI1" s="18"/>
-      <c r="CC1" s="59" t="s">
+      <c r="CC1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="CD1" s="59"/>
-      <c r="CE1" s="59"/>
+      <c r="CD1" s="49"/>
+      <c r="CE1" s="49"/>
+      <c r="CF1" s="49"/>
     </row>
-    <row r="2" spans="2:83" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="43" t="s">
+    <row r="2" spans="2:84" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43"/>
-      <c r="CE2" s="43"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
     </row>
-    <row r="3" spans="2:83" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="44" t="s">
+    <row r="3" spans="2:84" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44" t="s">
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="44"/>
-      <c r="BU3" s="44"/>
-      <c r="BV3" s="44"/>
-      <c r="BW3" s="44"/>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="44"/>
-      <c r="BZ3" s="44"/>
-      <c r="CA3" s="44"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="44"/>
-      <c r="CD3" s="44"/>
-      <c r="CE3" s="44"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
     </row>
-    <row r="4" spans="2:83" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="46" t="s">
+    <row r="4" spans="2:84" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="V4" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="46" t="s">
+      <c r="X4" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="46" t="s">
+      <c r="Y4" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="46" t="s">
+      <c r="AB4" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="46" t="s">
+      <c r="AC4" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="46" t="s">
+      <c r="AD4" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="46" t="s">
+      <c r="AE4" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="46" t="s">
+      <c r="AF4" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="46" t="s">
+      <c r="AG4" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AH4" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="46" t="s">
+      <c r="AI4" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="46" t="s">
+      <c r="AJ4" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="46" t="s">
+      <c r="AK4" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="46" t="s">
+      <c r="AL4" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="46" t="s">
+      <c r="AM4" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="46" t="s">
+      <c r="AN4" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="46" t="s">
+      <c r="AO4" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="46" t="s">
+      <c r="AP4" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="46" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="46" t="s">
+      <c r="AR4" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="46" t="s">
+      <c r="AS4" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="46" t="s">
+      <c r="AT4" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="46" t="s">
+      <c r="AU4" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="46" t="s">
+      <c r="AV4" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="46" t="s">
+      <c r="AW4" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="46" t="s">
+      <c r="AX4" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="46" t="s">
+      <c r="AY4" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="46" t="s">
+      <c r="AZ4" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="46" t="s">
+      <c r="BA4" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="46" t="s">
+      <c r="BB4" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="46" t="s">
+      <c r="BC4" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="60" t="s">
+      <c r="BD4" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="60" t="s">
+      <c r="BE4" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" s="60" t="s">
+      <c r="BF4" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="BG4" s="60" t="s">
+      <c r="BG4" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" s="60" t="s">
+      <c r="BH4" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="BI4" s="60" t="s">
+      <c r="BI4" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="60" t="s">
+      <c r="BJ4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="60" t="s">
+      <c r="BK4" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="60" t="s">
+      <c r="BL4" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="60" t="s">
+      <c r="BM4" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="60" t="s">
+      <c r="BN4" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="60" t="s">
+      <c r="BO4" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="61" t="s">
+      <c r="BP4" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="BQ4" s="61" t="s">
+      <c r="BQ4" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="BR4" s="61" t="s">
+      <c r="BR4" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="BS4" s="61" t="s">
+      <c r="BS4" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="BT4" s="61" t="s">
+      <c r="BT4" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="BU4" s="61" t="s">
+      <c r="BU4" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="BV4" s="61" t="s">
+      <c r="BV4" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="BW4" s="61" t="s">
+      <c r="BW4" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="BX4" s="61" t="s">
+      <c r="BX4" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="BY4" s="61" t="s">
+      <c r="BY4" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="BZ4" s="61" t="s">
+      <c r="BZ4" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="CA4" s="61" t="s">
+      <c r="CA4" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="CB4" s="61" t="s">
+      <c r="CB4" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="61" t="s">
+      <c r="CC4" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="60" t="s">
+      <c r="CD4" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="CE4" s="57" t="s">
+      <c r="CE4" s="29" t="s">
         <v>265</v>
       </c>
+      <c r="CF4" s="29" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="5" spans="2:83" ht="54.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="41"/>
-      <c r="BW5" s="41"/>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41"/>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="58"/>
+    <row r="5" spans="2:84" ht="54.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="36"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="29"/>
+      <c r="AT5" s="29"/>
+      <c r="AU5" s="29"/>
+      <c r="AV5" s="29"/>
+      <c r="AW5" s="29"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="29"/>
+      <c r="AZ5" s="29"/>
+      <c r="BA5" s="29"/>
+      <c r="BB5" s="29"/>
+      <c r="BC5" s="29"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="38"/>
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="38"/>
+      <c r="BZ5" s="38"/>
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="38"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="38"/>
+      <c r="CE5" s="30"/>
+      <c r="CF5" s="30"/>
     </row>
-    <row r="6" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -19901,8 +20129,11 @@
       <c r="CE6" s="26">
         <v>43</v>
       </c>
+      <c r="CF6" s="26">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -20149,8 +20380,11 @@
       <c r="CE7" s="26">
         <v>1</v>
       </c>
+      <c r="CF7" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -20397,8 +20631,11 @@
       <c r="CE8" s="26">
         <v>4</v>
       </c>
+      <c r="CF8" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -20645,8 +20882,11 @@
       <c r="CE9" s="26">
         <v>35</v>
       </c>
+      <c r="CF9" s="26">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -20893,8 +21133,11 @@
       <c r="CE10" s="26">
         <v>0</v>
       </c>
+      <c r="CF10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -21141,8 +21384,11 @@
       <c r="CE11" s="26">
         <v>2</v>
       </c>
+      <c r="CF11" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -21389,8 +21635,11 @@
       <c r="CE12" s="26">
         <v>3</v>
       </c>
+      <c r="CF12" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -21637,8 +21886,11 @@
       <c r="CE13" s="26">
         <v>8</v>
       </c>
+      <c r="CF13" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -21885,8 +22137,11 @@
       <c r="CE14" s="26">
         <v>9</v>
       </c>
+      <c r="CF14" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -22133,8 +22388,11 @@
       <c r="CE15" s="26">
         <v>0</v>
       </c>
+      <c r="CF15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -22381,8 +22639,11 @@
       <c r="CE16" s="26">
         <v>24</v>
       </c>
+      <c r="CF16" s="26">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -22629,8 +22890,11 @@
       <c r="CE17" s="26">
         <v>55</v>
       </c>
+      <c r="CF17" s="26">
+        <v>72</v>
+      </c>
     </row>
-    <row r="18" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -22877,9 +23141,12 @@
       <c r="CE18" s="26">
         <v>531</v>
       </c>
+      <c r="CF18" s="26">
+        <v>481</v>
+      </c>
     </row>
-    <row r="19" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="34" t="s">
+    <row r="19" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -23125,9 +23392,12 @@
       <c r="CE19" s="26">
         <v>24</v>
       </c>
+      <c r="CF19" s="26">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="34"/>
+    <row r="20" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="41"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -23371,9 +23641,12 @@
       <c r="CE20" s="26">
         <v>38</v>
       </c>
+      <c r="CF20" s="26">
+        <v>51</v>
+      </c>
     </row>
-    <row r="21" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="34"/>
+    <row r="21" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="41"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -23617,8 +23890,11 @@
       <c r="CE21" s="26">
         <v>19</v>
       </c>
+      <c r="CF21" s="26">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -23865,8 +24141,11 @@
       <c r="CE22" s="26">
         <v>21</v>
       </c>
+      <c r="CF22" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="23" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -24113,8 +24392,11 @@
       <c r="CE23" s="26">
         <v>0</v>
       </c>
+      <c r="CF23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -24361,8 +24643,11 @@
       <c r="CE24" s="26">
         <v>2</v>
       </c>
+      <c r="CF24" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -24609,8 +24894,11 @@
       <c r="CE25" s="26">
         <v>0</v>
       </c>
+      <c r="CF25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -24857,8 +25145,11 @@
       <c r="CE26" s="26">
         <v>3</v>
       </c>
+      <c r="CF26" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -25105,8 +25396,11 @@
       <c r="CE27" s="26">
         <v>0</v>
       </c>
+      <c r="CF27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -25353,9 +25647,12 @@
       <c r="CE28" s="26">
         <v>0</v>
       </c>
+      <c r="CF28" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="35" t="s">
+    <row r="29" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -25601,9 +25898,12 @@
       <c r="CE29" s="26">
         <v>5</v>
       </c>
+      <c r="CF29" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="35"/>
+    <row r="30" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="42"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -25847,8 +26147,11 @@
       <c r="CE30" s="26">
         <v>0</v>
       </c>
+      <c r="CF30" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -26095,8 +26398,11 @@
       <c r="CE31" s="26">
         <v>10</v>
       </c>
+      <c r="CF31" s="26">
+        <v>14</v>
+      </c>
     </row>
-    <row r="32" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -26343,8 +26649,11 @@
       <c r="CE32" s="26">
         <v>0</v>
       </c>
+      <c r="CF32" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -26591,8 +26900,11 @@
       <c r="CE33" s="26">
         <v>0</v>
       </c>
+      <c r="CF33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -26839,9 +27151,12 @@
       <c r="CE34" s="26">
         <v>7</v>
       </c>
+      <c r="CF34" s="26">
+        <v>12</v>
+      </c>
     </row>
-    <row r="35" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="34" t="s">
+    <row r="35" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -27087,9 +27402,12 @@
       <c r="CE35" s="26">
         <v>159</v>
       </c>
+      <c r="CF35" s="26">
+        <v>138</v>
+      </c>
     </row>
-    <row r="36" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="34"/>
+    <row r="36" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="41"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -27333,8 +27651,11 @@
       <c r="CE36" s="26">
         <v>13</v>
       </c>
+      <c r="CF36" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -27581,8 +27902,11 @@
       <c r="CE37" s="26">
         <v>12</v>
       </c>
+      <c r="CF37" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="38" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -27829,8 +28153,11 @@
       <c r="CE38" s="26">
         <v>2</v>
       </c>
+      <c r="CF38" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -28077,8 +28404,11 @@
       <c r="CE39" s="26">
         <v>0</v>
       </c>
+      <c r="CF39" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="40" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -28325,8 +28655,11 @@
       <c r="CE40" s="26">
         <v>0</v>
       </c>
+      <c r="CF40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -28573,8 +28906,11 @@
       <c r="CE41" s="26">
         <v>0</v>
       </c>
+      <c r="CF41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -28821,8 +29157,11 @@
       <c r="CE42" s="26">
         <v>2</v>
       </c>
+      <c r="CF42" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="43" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -29069,8 +29408,11 @@
       <c r="CE43" s="26">
         <v>19</v>
       </c>
+      <c r="CF43" s="26">
+        <v>21</v>
+      </c>
     </row>
-    <row r="44" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -29317,8 +29659,11 @@
       <c r="CE44" s="26">
         <v>2</v>
       </c>
+      <c r="CF44" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -29565,8 +29910,11 @@
       <c r="CE45" s="26">
         <v>3</v>
       </c>
+      <c r="CF45" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -29813,8 +30161,11 @@
       <c r="CE46" s="26">
         <v>1</v>
       </c>
+      <c r="CF46" s="26">
+        <v>15</v>
+      </c>
     </row>
-    <row r="47" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -30061,8 +30412,11 @@
       <c r="CE47" s="26">
         <v>1</v>
       </c>
+      <c r="CF47" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -30309,9 +30663,12 @@
       <c r="CE48" s="26">
         <v>2</v>
       </c>
+      <c r="CF48" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="49" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="34" t="s">
+    <row r="49" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -30557,9 +30914,12 @@
       <c r="CE49" s="26">
         <v>10</v>
       </c>
+      <c r="CF49" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="50" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="34"/>
+    <row r="50" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="41"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -30803,8 +31163,11 @@
       <c r="CE50" s="26">
         <v>2</v>
       </c>
+      <c r="CF50" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -31051,8 +31414,11 @@
       <c r="CE51" s="26">
         <v>0</v>
       </c>
+      <c r="CF51" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="52" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -31299,8 +31665,11 @@
       <c r="CE52" s="26">
         <v>1</v>
       </c>
+      <c r="CF52" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="53" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -31547,8 +31916,11 @@
       <c r="CE53" s="26">
         <v>1</v>
       </c>
+      <c r="CF53" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="54" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -31795,8 +32167,11 @@
       <c r="CE54" s="26">
         <v>2</v>
       </c>
+      <c r="CF54" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -32043,8 +32418,11 @@
       <c r="CE55" s="26">
         <v>2</v>
       </c>
+      <c r="CF55" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="56" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -32291,8 +32669,11 @@
       <c r="CE56" s="26">
         <v>4</v>
       </c>
+      <c r="CF56" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -32539,8 +32920,11 @@
       <c r="CE57" s="26">
         <v>3</v>
       </c>
+      <c r="CF57" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:83" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:84" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -32821,7 +33205,7 @@
         <v>1344</v>
       </c>
       <c r="BU58" s="25">
-        <f t="shared" ref="BU58:CE58" si="3">SUM(BU6:BU57)</f>
+        <f t="shared" ref="BU58:CF58" si="3">SUM(BU6:BU57)</f>
         <v>1160</v>
       </c>
       <c r="BV58" s="25">
@@ -32864,13 +33248,14 @@
         <f t="shared" si="3"/>
         <v>1085</v>
       </c>
+      <c r="CF58" s="25">
+        <f t="shared" si="3"/>
+        <v>1058</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="95">
     <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="BD3:CE3"/>
-    <mergeCell ref="BD2:CE2"/>
-    <mergeCell ref="CC1:CE1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="CA4:CA5"/>
@@ -32900,6 +33285,10 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="D3:AQ3"/>
@@ -32916,36 +33305,19 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="B19:B21"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B49:B50"/>
@@ -32961,6 +33333,23 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="BD2:CF2"/>
+    <mergeCell ref="BD3:CF3"/>
+    <mergeCell ref="CC1:CF1"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -32976,11 +33365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AG61" sqref="AG61"/>
+      <selection pane="bottomRight" activeCell="AH51" sqref="AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -32995,46 +33384,47 @@
   <sheetData>
     <row r="1" spans="1:60" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="19"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
     </row>
     <row r="2" spans="1:60" ht="32.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="20"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
       <c r="AG2" s="20"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="20"/>
@@ -33061,39 +33451,39 @@
       <c r="BD2" s="20"/>
     </row>
     <row r="3" spans="1:60" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="44" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="21"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
       <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
@@ -33104,202 +33494,204 @@
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
       <c r="AP3" s="21"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
     </row>
     <row r="4" spans="1:60" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="V4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="45" t="s">
+      <c r="W4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="45" t="s">
+      <c r="X4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="45" t="s">
+      <c r="Y4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="45" t="s">
+      <c r="Z4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="45" t="s">
+      <c r="AC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="45" t="s">
+      <c r="AD4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="57" t="s">
+      <c r="AE4" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
+      <c r="AF4" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62"/>
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="62"/>
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="62"/>
+      <c r="BF4" s="62"/>
+      <c r="BG4" s="62"/>
+      <c r="BH4" s="62"/>
     </row>
     <row r="5" spans="1:60" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="54"/>
-      <c r="BH5" s="54"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="62"/>
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="62"/>
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
     </row>
     <row r="6" spans="1:60" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
@@ -33393,7 +33785,9 @@
       <c r="AE6" s="8">
         <v>22</v>
       </c>
-      <c r="AF6" s="22"/>
+      <c r="AF6" s="28">
+        <v>14</v>
+      </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
@@ -33510,7 +33904,9 @@
       <c r="AE7" s="8">
         <v>0</v>
       </c>
-      <c r="AF7" s="23"/>
+      <c r="AF7" s="26">
+        <v>0</v>
+      </c>
       <c r="AG7" s="23"/>
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
@@ -33627,7 +34023,9 @@
       <c r="AE8" s="8">
         <v>0</v>
       </c>
-      <c r="AF8" s="23"/>
+      <c r="AF8" s="26">
+        <v>0</v>
+      </c>
       <c r="AG8" s="23"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
@@ -33745,7 +34143,9 @@
       <c r="AE9" s="8">
         <v>7</v>
       </c>
-      <c r="AF9" s="23"/>
+      <c r="AF9" s="26">
+        <v>2</v>
+      </c>
       <c r="AG9" s="23"/>
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
@@ -33862,7 +34262,9 @@
       <c r="AE10" s="8">
         <v>0</v>
       </c>
-      <c r="AF10" s="23"/>
+      <c r="AF10" s="26">
+        <v>0</v>
+      </c>
       <c r="AG10" s="23"/>
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
@@ -33979,7 +34381,9 @@
       <c r="AE11" s="8">
         <v>0</v>
       </c>
-      <c r="AF11" s="23"/>
+      <c r="AF11" s="26">
+        <v>0</v>
+      </c>
       <c r="AG11" s="23"/>
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
@@ -34096,7 +34500,9 @@
       <c r="AE12" s="8">
         <v>0</v>
       </c>
-      <c r="AF12" s="23"/>
+      <c r="AF12" s="26">
+        <v>1</v>
+      </c>
       <c r="AG12" s="23"/>
       <c r="AH12" s="23"/>
       <c r="AI12" s="23"/>
@@ -34213,7 +34619,9 @@
       <c r="AE13" s="8">
         <v>4</v>
       </c>
-      <c r="AF13" s="22"/>
+      <c r="AF13" s="28">
+        <v>4</v>
+      </c>
       <c r="AG13" s="22"/>
       <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
@@ -34330,7 +34738,9 @@
       <c r="AE14" s="8">
         <v>1</v>
       </c>
-      <c r="AF14" s="23"/>
+      <c r="AF14" s="26">
+        <v>0</v>
+      </c>
       <c r="AG14" s="23"/>
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
@@ -34447,7 +34857,9 @@
       <c r="AE15" s="8">
         <v>1</v>
       </c>
-      <c r="AF15" s="23"/>
+      <c r="AF15" s="26">
+        <v>0</v>
+      </c>
       <c r="AG15" s="23"/>
       <c r="AH15" s="23"/>
       <c r="AI15" s="23"/>
@@ -34565,7 +34977,9 @@
       <c r="AE16" s="8">
         <v>0</v>
       </c>
-      <c r="AF16" s="22"/>
+      <c r="AF16" s="28">
+        <v>0</v>
+      </c>
       <c r="AG16" s="22"/>
       <c r="AH16" s="22"/>
       <c r="AI16" s="22"/>
@@ -34682,7 +35096,9 @@
       <c r="AE17" s="8">
         <v>11</v>
       </c>
-      <c r="AF17" s="22"/>
+      <c r="AF17" s="28">
+        <v>22</v>
+      </c>
       <c r="AG17" s="22"/>
       <c r="AH17" s="22"/>
       <c r="AI17" s="22"/>
@@ -34800,7 +35216,9 @@
       <c r="AE18" s="8">
         <v>114</v>
       </c>
-      <c r="AF18" s="22"/>
+      <c r="AF18" s="28">
+        <v>99</v>
+      </c>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
       <c r="AI18" s="22"/>
@@ -34828,7 +35246,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -34918,7 +35336,9 @@
       <c r="AE19" s="8">
         <v>15</v>
       </c>
-      <c r="AF19" s="22"/>
+      <c r="AF19" s="28">
+        <v>9</v>
+      </c>
       <c r="AG19" s="22"/>
       <c r="AH19" s="22"/>
       <c r="AI19" s="22"/>
@@ -34946,7 +35366,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -35034,7 +35454,9 @@
       <c r="AE20" s="8">
         <v>28</v>
       </c>
-      <c r="AF20" s="22"/>
+      <c r="AF20" s="28">
+        <v>22</v>
+      </c>
       <c r="AG20" s="22"/>
       <c r="AH20" s="22"/>
       <c r="AI20" s="22"/>
@@ -35062,7 +35484,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
-      <c r="B21" s="51"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -35150,7 +35572,9 @@
       <c r="AE21" s="8">
         <v>7</v>
       </c>
-      <c r="AF21" s="22"/>
+      <c r="AF21" s="28">
+        <v>5</v>
+      </c>
       <c r="AG21" s="22"/>
       <c r="AH21" s="22"/>
       <c r="AI21" s="22"/>
@@ -35267,7 +35691,9 @@
       <c r="AE22" s="8">
         <v>1</v>
       </c>
-      <c r="AF22" s="23"/>
+      <c r="AF22" s="26">
+        <v>3</v>
+      </c>
       <c r="AG22" s="23"/>
       <c r="AH22" s="23"/>
       <c r="AI22" s="23"/>
@@ -35384,7 +35810,9 @@
       <c r="AE23" s="8">
         <v>0</v>
       </c>
-      <c r="AF23" s="23"/>
+      <c r="AF23" s="26">
+        <v>0</v>
+      </c>
       <c r="AG23" s="23"/>
       <c r="AH23" s="23"/>
       <c r="AI23" s="23"/>
@@ -35501,7 +35929,9 @@
       <c r="AE24" s="8">
         <v>0</v>
       </c>
-      <c r="AF24" s="22"/>
+      <c r="AF24" s="28">
+        <v>0</v>
+      </c>
       <c r="AG24" s="22"/>
       <c r="AH24" s="22"/>
       <c r="AI24" s="22"/>
@@ -35618,7 +36048,9 @@
       <c r="AE25" s="8">
         <v>0</v>
       </c>
-      <c r="AF25" s="23"/>
+      <c r="AF25" s="26">
+        <v>0</v>
+      </c>
       <c r="AG25" s="23"/>
       <c r="AH25" s="23"/>
       <c r="AI25" s="23"/>
@@ -35735,7 +36167,9 @@
       <c r="AE26" s="8">
         <v>1</v>
       </c>
-      <c r="AF26" s="23"/>
+      <c r="AF26" s="26">
+        <v>1</v>
+      </c>
       <c r="AG26" s="23"/>
       <c r="AH26" s="23"/>
       <c r="AI26" s="23"/>
@@ -35852,7 +36286,9 @@
       <c r="AE27" s="8">
         <v>0</v>
       </c>
-      <c r="AF27" s="23"/>
+      <c r="AF27" s="26">
+        <v>0</v>
+      </c>
       <c r="AG27" s="23"/>
       <c r="AH27" s="23"/>
       <c r="AI27" s="23"/>
@@ -35969,7 +36405,9 @@
       <c r="AE28" s="8">
         <v>0</v>
       </c>
-      <c r="AF28" s="22"/>
+      <c r="AF28" s="28">
+        <v>0</v>
+      </c>
       <c r="AG28" s="22"/>
       <c r="AH28" s="22"/>
       <c r="AI28" s="22"/>
@@ -35996,7 +36434,7 @@
       <c r="BD28" s="22"/>
     </row>
     <row r="29" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -36086,7 +36524,9 @@
       <c r="AE29" s="8">
         <v>0</v>
       </c>
-      <c r="AF29" s="23"/>
+      <c r="AF29" s="26">
+        <v>0</v>
+      </c>
       <c r="AG29" s="23"/>
       <c r="AH29" s="23"/>
       <c r="AI29" s="23"/>
@@ -36113,7 +36553,7 @@
       <c r="BD29" s="23"/>
     </row>
     <row r="30" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="53"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -36201,7 +36641,9 @@
       <c r="AE30" s="8">
         <v>0</v>
       </c>
-      <c r="AF30" s="23"/>
+      <c r="AF30" s="26">
+        <v>1</v>
+      </c>
       <c r="AG30" s="23"/>
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
@@ -36319,7 +36761,9 @@
       <c r="AE31" s="8">
         <v>5</v>
       </c>
-      <c r="AF31" s="22"/>
+      <c r="AF31" s="28">
+        <v>2</v>
+      </c>
       <c r="AG31" s="22"/>
       <c r="AH31" s="22"/>
       <c r="AI31" s="22"/>
@@ -36436,7 +36880,9 @@
       <c r="AE32" s="8">
         <v>0</v>
       </c>
-      <c r="AF32" s="23"/>
+      <c r="AF32" s="26">
+        <v>0</v>
+      </c>
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="23"/>
@@ -36553,7 +36999,9 @@
       <c r="AE33" s="8">
         <v>0</v>
       </c>
-      <c r="AF33" s="23"/>
+      <c r="AF33" s="26">
+        <v>0</v>
+      </c>
       <c r="AG33" s="23"/>
       <c r="AH33" s="23"/>
       <c r="AI33" s="23"/>
@@ -36671,7 +37119,9 @@
       <c r="AE34" s="8">
         <v>4</v>
       </c>
-      <c r="AF34" s="22"/>
+      <c r="AF34" s="28">
+        <v>3</v>
+      </c>
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
       <c r="AI34" s="22"/>
@@ -36699,7 +37149,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -36789,7 +37239,9 @@
       <c r="AE35" s="8">
         <v>43</v>
       </c>
-      <c r="AF35" s="22"/>
+      <c r="AF35" s="28">
+        <v>38</v>
+      </c>
       <c r="AG35" s="22"/>
       <c r="AH35" s="22"/>
       <c r="AI35" s="22"/>
@@ -36816,7 +37268,7 @@
       <c r="BD35" s="22"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="51"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -36904,7 +37356,9 @@
       <c r="AE36" s="8">
         <v>6</v>
       </c>
-      <c r="AF36" s="22"/>
+      <c r="AF36" s="28">
+        <v>4</v>
+      </c>
       <c r="AG36" s="22"/>
       <c r="AH36" s="22"/>
       <c r="AI36" s="22"/>
@@ -37022,7 +37476,9 @@
       <c r="AE37" s="8">
         <v>2</v>
       </c>
-      <c r="AF37" s="22"/>
+      <c r="AF37" s="28">
+        <v>2</v>
+      </c>
       <c r="AG37" s="22"/>
       <c r="AH37" s="22"/>
       <c r="AI37" s="22"/>
@@ -37139,7 +37595,9 @@
       <c r="AE38" s="8">
         <v>0</v>
       </c>
-      <c r="AF38" s="23"/>
+      <c r="AF38" s="26">
+        <v>2</v>
+      </c>
       <c r="AG38" s="23"/>
       <c r="AH38" s="23"/>
       <c r="AI38" s="23"/>
@@ -37256,7 +37714,9 @@
       <c r="AE39" s="8">
         <v>3</v>
       </c>
-      <c r="AF39" s="23"/>
+      <c r="AF39" s="26">
+        <v>1</v>
+      </c>
       <c r="AG39" s="23"/>
       <c r="AH39" s="23"/>
       <c r="AI39" s="23"/>
@@ -37373,7 +37833,9 @@
       <c r="AE40" s="8">
         <v>0</v>
       </c>
-      <c r="AF40" s="23"/>
+      <c r="AF40" s="26">
+        <v>0</v>
+      </c>
       <c r="AG40" s="23"/>
       <c r="AH40" s="23"/>
       <c r="AI40" s="23"/>
@@ -37490,7 +37952,9 @@
       <c r="AE41" s="8">
         <v>0</v>
       </c>
-      <c r="AF41" s="23"/>
+      <c r="AF41" s="26">
+        <v>0</v>
+      </c>
       <c r="AG41" s="23"/>
       <c r="AH41" s="23"/>
       <c r="AI41" s="23"/>
@@ -37607,7 +38071,9 @@
       <c r="AE42" s="8">
         <v>2</v>
       </c>
-      <c r="AF42" s="23"/>
+      <c r="AF42" s="26">
+        <v>0</v>
+      </c>
       <c r="AG42" s="23"/>
       <c r="AH42" s="23"/>
       <c r="AI42" s="23"/>
@@ -37724,7 +38190,9 @@
       <c r="AE43" s="8">
         <v>7</v>
       </c>
-      <c r="AF43" s="23"/>
+      <c r="AF43" s="26">
+        <v>6</v>
+      </c>
       <c r="AG43" s="23"/>
       <c r="AH43" s="23"/>
       <c r="AI43" s="23"/>
@@ -37841,7 +38309,9 @@
       <c r="AE44" s="8">
         <v>0</v>
       </c>
-      <c r="AF44" s="23"/>
+      <c r="AF44" s="26">
+        <v>0</v>
+      </c>
       <c r="AG44" s="23"/>
       <c r="AH44" s="23"/>
       <c r="AI44" s="23"/>
@@ -37958,7 +38428,9 @@
       <c r="AE45" s="8">
         <v>1</v>
       </c>
-      <c r="AF45" s="22"/>
+      <c r="AF45" s="28">
+        <v>2</v>
+      </c>
       <c r="AG45" s="22"/>
       <c r="AH45" s="22"/>
       <c r="AI45" s="22"/>
@@ -38075,7 +38547,9 @@
       <c r="AE46" s="8">
         <v>1</v>
       </c>
-      <c r="AF46" s="23"/>
+      <c r="AF46" s="26">
+        <v>1</v>
+      </c>
       <c r="AG46" s="23"/>
       <c r="AH46" s="23"/>
       <c r="AI46" s="23"/>
@@ -38192,7 +38666,9 @@
       <c r="AE47" s="8">
         <v>0</v>
       </c>
-      <c r="AF47" s="23"/>
+      <c r="AF47" s="26">
+        <v>0</v>
+      </c>
       <c r="AG47" s="23"/>
       <c r="AH47" s="23"/>
       <c r="AI47" s="23"/>
@@ -38309,7 +38785,9 @@
       <c r="AE48" s="8">
         <v>0</v>
       </c>
-      <c r="AF48" s="23"/>
+      <c r="AF48" s="26">
+        <v>1</v>
+      </c>
       <c r="AG48" s="23"/>
       <c r="AH48" s="23"/>
       <c r="AI48" s="23"/>
@@ -38337,7 +38815,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -38427,7 +38905,9 @@
       <c r="AE49" s="8">
         <v>0</v>
       </c>
-      <c r="AF49" s="22"/>
+      <c r="AF49" s="28">
+        <v>0</v>
+      </c>
       <c r="AG49" s="22"/>
       <c r="AH49" s="22"/>
       <c r="AI49" s="22"/>
@@ -38454,7 +38934,7 @@
       <c r="BD49" s="22"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="51"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -38542,7 +39022,9 @@
       <c r="AE50" s="8">
         <v>4</v>
       </c>
-      <c r="AF50" s="22"/>
+      <c r="AF50" s="28">
+        <v>0</v>
+      </c>
       <c r="AG50" s="22"/>
       <c r="AH50" s="22"/>
       <c r="AI50" s="22"/>
@@ -38659,7 +39141,9 @@
       <c r="AE51" s="8">
         <v>0</v>
       </c>
-      <c r="AF51" s="23"/>
+      <c r="AF51" s="26">
+        <v>0</v>
+      </c>
       <c r="AG51" s="23"/>
       <c r="AH51" s="23"/>
       <c r="AI51" s="23"/>
@@ -38776,7 +39260,9 @@
       <c r="AE52" s="8">
         <v>1</v>
       </c>
-      <c r="AF52" s="23"/>
+      <c r="AF52" s="26">
+        <v>0</v>
+      </c>
       <c r="AG52" s="23"/>
       <c r="AH52" s="23"/>
       <c r="AI52" s="23"/>
@@ -38893,7 +39379,9 @@
       <c r="AE53" s="8">
         <v>1</v>
       </c>
-      <c r="AF53" s="23"/>
+      <c r="AF53" s="26">
+        <v>1</v>
+      </c>
       <c r="AG53" s="23"/>
       <c r="AH53" s="23"/>
       <c r="AI53" s="23"/>
@@ -39010,7 +39498,9 @@
       <c r="AE54" s="8">
         <v>3</v>
       </c>
-      <c r="AF54" s="23"/>
+      <c r="AF54" s="26">
+        <v>1</v>
+      </c>
       <c r="AG54" s="23"/>
       <c r="AH54" s="23"/>
       <c r="AI54" s="23"/>
@@ -39127,7 +39617,9 @@
       <c r="AE55" s="8">
         <v>0</v>
       </c>
-      <c r="AF55" s="23"/>
+      <c r="AF55" s="26">
+        <v>0</v>
+      </c>
       <c r="AG55" s="23"/>
       <c r="AH55" s="23"/>
       <c r="AI55" s="23"/>
@@ -39244,7 +39736,9 @@
       <c r="AE56" s="8">
         <v>0</v>
       </c>
-      <c r="AF56" s="23"/>
+      <c r="AF56" s="26">
+        <v>0</v>
+      </c>
       <c r="AG56" s="23"/>
       <c r="AH56" s="23"/>
       <c r="AI56" s="23"/>
@@ -39361,7 +39855,9 @@
       <c r="AE57" s="8">
         <v>0</v>
       </c>
-      <c r="AF57" s="23"/>
+      <c r="AF57" s="26">
+        <v>0</v>
+      </c>
       <c r="AG57" s="23"/>
       <c r="AH57" s="23"/>
       <c r="AI57" s="23"/>
@@ -39461,7 +39957,7 @@
         <v>698</v>
       </c>
       <c r="U58" s="14">
-        <f t="shared" ref="U58:AE58" si="2">SUM(U6:U57)</f>
+        <f t="shared" ref="U58:AF58" si="2">SUM(U6:U57)</f>
         <v>991</v>
       </c>
       <c r="V58" s="14">
@@ -39504,7 +40000,10 @@
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
-      <c r="AF58" s="24"/>
+      <c r="AF58" s="14">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
       <c r="AG58" s="24"/>
       <c r="AH58" s="24"/>
       <c r="AI58" s="24"/>
@@ -39631,7 +40130,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="BG4:BG5"/>
@@ -39662,14 +40160,6 @@
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -39692,13 +40182,22 @@
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="D3:AF3"/>
+    <mergeCell ref="D2:AF2"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="D2:AE2"/>
-    <mergeCell ref="D3:AE3"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -39711,11 +40210,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BD61"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AI58" sqref="AI58"/>
+      <selection pane="bottomRight" activeCell="AF60" sqref="AF60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -39724,52 +40223,55 @@
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="56" width="10.9140625" style="1" customWidth="1"/>
+    <col min="5" max="31" width="10.9140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.1640625" style="1" customWidth="1"/>
+    <col min="33" max="56" width="10.9140625" style="1" customWidth="1"/>
     <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="19"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
     </row>
     <row r="2" spans="1:56" ht="32.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="20"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
       <c r="AG2" s="20"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="20"/>
@@ -39796,39 +40298,39 @@
       <c r="BD2" s="20"/>
     </row>
     <row r="3" spans="1:56" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="44" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="21"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
       <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
@@ -39855,178 +40357,180 @@
       <c r="BD3" s="21"/>
     </row>
     <row r="4" spans="1:56" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="V4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="45" t="s">
+      <c r="W4" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="45" t="s">
+      <c r="X4" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="45" t="s">
+      <c r="Y4" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="45" t="s">
+      <c r="Z4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AB4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="45" t="s">
+      <c r="AC4" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="45" t="s">
+      <c r="AD4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="57" t="s">
+      <c r="AE4" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
+      <c r="AF4" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62"/>
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="62"/>
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
     </row>
     <row r="5" spans="1:56" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
-      <c r="BD5" s="54"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="62"/>
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="62"/>
     </row>
     <row r="6" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
@@ -40120,7 +40624,9 @@
       <c r="AE6" s="8">
         <v>35</v>
       </c>
-      <c r="AF6" s="22"/>
+      <c r="AF6" s="28">
+        <v>56</v>
+      </c>
       <c r="AG6" s="22"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
@@ -40237,7 +40743,9 @@
       <c r="AE7" s="8">
         <v>0</v>
       </c>
-      <c r="AF7" s="23"/>
+      <c r="AF7" s="26">
+        <v>1</v>
+      </c>
       <c r="AG7" s="23"/>
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
@@ -40354,7 +40862,9 @@
       <c r="AE8" s="8">
         <v>7</v>
       </c>
-      <c r="AF8" s="23"/>
+      <c r="AF8" s="26">
+        <v>6</v>
+      </c>
       <c r="AG8" s="23"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
@@ -40472,7 +40982,9 @@
       <c r="AE9" s="8">
         <v>49</v>
       </c>
-      <c r="AF9" s="23"/>
+      <c r="AF9" s="26">
+        <v>32</v>
+      </c>
       <c r="AG9" s="23"/>
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
@@ -40589,7 +41101,9 @@
       <c r="AE10" s="8">
         <v>0</v>
       </c>
-      <c r="AF10" s="23"/>
+      <c r="AF10" s="26">
+        <v>0</v>
+      </c>
       <c r="AG10" s="23"/>
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
@@ -40706,7 +41220,9 @@
       <c r="AE11" s="8">
         <v>1</v>
       </c>
-      <c r="AF11" s="23"/>
+      <c r="AF11" s="26">
+        <v>3</v>
+      </c>
       <c r="AG11" s="23"/>
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
@@ -40823,7 +41339,9 @@
       <c r="AE12" s="8">
         <v>2</v>
       </c>
-      <c r="AF12" s="23"/>
+      <c r="AF12" s="26">
+        <v>2</v>
+      </c>
       <c r="AG12" s="23"/>
       <c r="AH12" s="23"/>
       <c r="AI12" s="23"/>
@@ -40940,7 +41458,9 @@
       <c r="AE13" s="8">
         <v>3</v>
       </c>
-      <c r="AF13" s="22"/>
+      <c r="AF13" s="28">
+        <v>6</v>
+      </c>
       <c r="AG13" s="22"/>
       <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
@@ -41057,7 +41577,9 @@
       <c r="AE14" s="8">
         <v>5</v>
       </c>
-      <c r="AF14" s="23"/>
+      <c r="AF14" s="26">
+        <v>6</v>
+      </c>
       <c r="AG14" s="23"/>
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
@@ -41174,7 +41696,9 @@
       <c r="AE15" s="8">
         <v>2</v>
       </c>
-      <c r="AF15" s="23"/>
+      <c r="AF15" s="26">
+        <v>0</v>
+      </c>
       <c r="AG15" s="23"/>
       <c r="AH15" s="23"/>
       <c r="AI15" s="23"/>
@@ -41292,7 +41816,9 @@
       <c r="AE16" s="8">
         <v>43</v>
       </c>
-      <c r="AF16" s="22"/>
+      <c r="AF16" s="28">
+        <v>67</v>
+      </c>
       <c r="AG16" s="22"/>
       <c r="AH16" s="22"/>
       <c r="AI16" s="22"/>
@@ -41409,7 +41935,9 @@
       <c r="AE17" s="8">
         <v>57</v>
       </c>
-      <c r="AF17" s="22"/>
+      <c r="AF17" s="28">
+        <v>63</v>
+      </c>
       <c r="AG17" s="22"/>
       <c r="AH17" s="22"/>
       <c r="AI17" s="22"/>
@@ -41527,7 +42055,9 @@
       <c r="AE18" s="8">
         <v>558</v>
       </c>
-      <c r="AF18" s="22"/>
+      <c r="AF18" s="28">
+        <v>553</v>
+      </c>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
       <c r="AI18" s="22"/>
@@ -41555,7 +42085,7 @@
     </row>
     <row r="19" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -41645,7 +42175,9 @@
       <c r="AE19" s="8">
         <v>18</v>
       </c>
-      <c r="AF19" s="22"/>
+      <c r="AF19" s="28">
+        <v>9</v>
+      </c>
       <c r="AG19" s="22"/>
       <c r="AH19" s="22"/>
       <c r="AI19" s="22"/>
@@ -41673,7 +42205,7 @@
     </row>
     <row r="20" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -41761,7 +42293,9 @@
       <c r="AE20" s="8">
         <v>34</v>
       </c>
-      <c r="AF20" s="22"/>
+      <c r="AF20" s="28">
+        <v>26</v>
+      </c>
       <c r="AG20" s="22"/>
       <c r="AH20" s="22"/>
       <c r="AI20" s="22"/>
@@ -41789,7 +42323,7 @@
     </row>
     <row r="21" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
-      <c r="B21" s="51"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -41877,7 +42411,9 @@
       <c r="AE21" s="8">
         <v>10</v>
       </c>
-      <c r="AF21" s="22"/>
+      <c r="AF21" s="28">
+        <v>12</v>
+      </c>
       <c r="AG21" s="22"/>
       <c r="AH21" s="22"/>
       <c r="AI21" s="22"/>
@@ -41994,7 +42530,9 @@
       <c r="AE22" s="8">
         <v>10</v>
       </c>
-      <c r="AF22" s="23"/>
+      <c r="AF22" s="26">
+        <v>1</v>
+      </c>
       <c r="AG22" s="23"/>
       <c r="AH22" s="23"/>
       <c r="AI22" s="23"/>
@@ -42111,7 +42649,9 @@
       <c r="AE23" s="8">
         <v>0</v>
       </c>
-      <c r="AF23" s="23"/>
+      <c r="AF23" s="26">
+        <v>0</v>
+      </c>
       <c r="AG23" s="23"/>
       <c r="AH23" s="23"/>
       <c r="AI23" s="23"/>
@@ -42228,7 +42768,9 @@
       <c r="AE24" s="8">
         <v>2</v>
       </c>
-      <c r="AF24" s="22"/>
+      <c r="AF24" s="28">
+        <v>1</v>
+      </c>
       <c r="AG24" s="22"/>
       <c r="AH24" s="22"/>
       <c r="AI24" s="22"/>
@@ -42345,7 +42887,9 @@
       <c r="AE25" s="8">
         <v>1</v>
       </c>
-      <c r="AF25" s="23"/>
+      <c r="AF25" s="26">
+        <v>0</v>
+      </c>
       <c r="AG25" s="23"/>
       <c r="AH25" s="23"/>
       <c r="AI25" s="23"/>
@@ -42462,7 +43006,9 @@
       <c r="AE26" s="8">
         <v>4</v>
       </c>
-      <c r="AF26" s="23"/>
+      <c r="AF26" s="26">
+        <v>4</v>
+      </c>
       <c r="AG26" s="23"/>
       <c r="AH26" s="23"/>
       <c r="AI26" s="23"/>
@@ -42579,7 +43125,9 @@
       <c r="AE27" s="8">
         <v>0</v>
       </c>
-      <c r="AF27" s="23"/>
+      <c r="AF27" s="26">
+        <v>0</v>
+      </c>
       <c r="AG27" s="23"/>
       <c r="AH27" s="23"/>
       <c r="AI27" s="23"/>
@@ -42696,7 +43244,9 @@
       <c r="AE28" s="8">
         <v>1</v>
       </c>
-      <c r="AF28" s="22"/>
+      <c r="AF28" s="28">
+        <v>0</v>
+      </c>
       <c r="AG28" s="22"/>
       <c r="AH28" s="22"/>
       <c r="AI28" s="22"/>
@@ -42723,7 +43273,7 @@
       <c r="BD28" s="22"/>
     </row>
     <row r="29" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -42813,7 +43363,9 @@
       <c r="AE29" s="8">
         <v>3</v>
       </c>
-      <c r="AF29" s="23"/>
+      <c r="AF29" s="26">
+        <v>1</v>
+      </c>
       <c r="AG29" s="23"/>
       <c r="AH29" s="23"/>
       <c r="AI29" s="23"/>
@@ -42840,7 +43392,7 @@
       <c r="BD29" s="23"/>
     </row>
     <row r="30" spans="1:56" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="53"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -42928,7 +43480,9 @@
       <c r="AE30" s="8">
         <v>1</v>
       </c>
-      <c r="AF30" s="23"/>
+      <c r="AF30" s="26">
+        <v>3</v>
+      </c>
       <c r="AG30" s="23"/>
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
@@ -43046,7 +43600,9 @@
       <c r="AE31" s="8">
         <v>9</v>
       </c>
-      <c r="AF31" s="22"/>
+      <c r="AF31" s="28">
+        <v>4</v>
+      </c>
       <c r="AG31" s="22"/>
       <c r="AH31" s="22"/>
       <c r="AI31" s="22"/>
@@ -43163,7 +43719,9 @@
       <c r="AE32" s="8">
         <v>1</v>
       </c>
-      <c r="AF32" s="23"/>
+      <c r="AF32" s="26">
+        <v>1</v>
+      </c>
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="23"/>
@@ -43280,7 +43838,9 @@
       <c r="AE33" s="8">
         <v>0</v>
       </c>
-      <c r="AF33" s="23"/>
+      <c r="AF33" s="26">
+        <v>0</v>
+      </c>
       <c r="AG33" s="23"/>
       <c r="AH33" s="23"/>
       <c r="AI33" s="23"/>
@@ -43398,7 +43958,9 @@
       <c r="AE34" s="8">
         <v>14</v>
       </c>
-      <c r="AF34" s="22"/>
+      <c r="AF34" s="28">
+        <v>20</v>
+      </c>
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
       <c r="AI34" s="22"/>
@@ -43426,7 +43988,7 @@
     </row>
     <row r="35" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -43516,7 +44078,9 @@
       <c r="AE35" s="8">
         <v>149</v>
       </c>
-      <c r="AF35" s="22"/>
+      <c r="AF35" s="28">
+        <v>100</v>
+      </c>
       <c r="AG35" s="22"/>
       <c r="AH35" s="22"/>
       <c r="AI35" s="22"/>
@@ -43543,7 +44107,7 @@
       <c r="BD35" s="22"/>
     </row>
     <row r="36" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="51"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -43631,7 +44195,9 @@
       <c r="AE36" s="8">
         <v>5</v>
       </c>
-      <c r="AF36" s="22"/>
+      <c r="AF36" s="28">
+        <v>3</v>
+      </c>
       <c r="AG36" s="22"/>
       <c r="AH36" s="22"/>
       <c r="AI36" s="22"/>
@@ -43749,7 +44315,9 @@
       <c r="AE37" s="8">
         <v>26</v>
       </c>
-      <c r="AF37" s="22"/>
+      <c r="AF37" s="28">
+        <v>15</v>
+      </c>
       <c r="AG37" s="22"/>
       <c r="AH37" s="22"/>
       <c r="AI37" s="22"/>
@@ -43866,7 +44434,9 @@
       <c r="AE38" s="8">
         <v>5</v>
       </c>
-      <c r="AF38" s="23"/>
+      <c r="AF38" s="26">
+        <v>0</v>
+      </c>
       <c r="AG38" s="23"/>
       <c r="AH38" s="23"/>
       <c r="AI38" s="23"/>
@@ -43983,7 +44553,9 @@
       <c r="AE39" s="8">
         <v>4</v>
       </c>
-      <c r="AF39" s="23"/>
+      <c r="AF39" s="26">
+        <v>3</v>
+      </c>
       <c r="AG39" s="23"/>
       <c r="AH39" s="23"/>
       <c r="AI39" s="23"/>
@@ -44100,7 +44672,9 @@
       <c r="AE40" s="8">
         <v>0</v>
       </c>
-      <c r="AF40" s="23"/>
+      <c r="AF40" s="26">
+        <v>0</v>
+      </c>
       <c r="AG40" s="23"/>
       <c r="AH40" s="23"/>
       <c r="AI40" s="23"/>
@@ -44217,7 +44791,9 @@
       <c r="AE41" s="8">
         <v>0</v>
       </c>
-      <c r="AF41" s="23"/>
+      <c r="AF41" s="26">
+        <v>0</v>
+      </c>
       <c r="AG41" s="23"/>
       <c r="AH41" s="23"/>
       <c r="AI41" s="23"/>
@@ -44334,7 +44910,9 @@
       <c r="AE42" s="8">
         <v>4</v>
       </c>
-      <c r="AF42" s="23"/>
+      <c r="AF42" s="26">
+        <v>6</v>
+      </c>
       <c r="AG42" s="23"/>
       <c r="AH42" s="23"/>
       <c r="AI42" s="23"/>
@@ -44451,7 +45029,9 @@
       <c r="AE43" s="8">
         <v>14</v>
       </c>
-      <c r="AF43" s="23"/>
+      <c r="AF43" s="26">
+        <v>16</v>
+      </c>
       <c r="AG43" s="23"/>
       <c r="AH43" s="23"/>
       <c r="AI43" s="23"/>
@@ -44568,7 +45148,9 @@
       <c r="AE44" s="8">
         <v>0</v>
       </c>
-      <c r="AF44" s="23"/>
+      <c r="AF44" s="26">
+        <v>1</v>
+      </c>
       <c r="AG44" s="23"/>
       <c r="AH44" s="23"/>
       <c r="AI44" s="23"/>
@@ -44685,7 +45267,9 @@
       <c r="AE45" s="8">
         <v>6</v>
       </c>
-      <c r="AF45" s="22"/>
+      <c r="AF45" s="28">
+        <v>4</v>
+      </c>
       <c r="AG45" s="22"/>
       <c r="AH45" s="22"/>
       <c r="AI45" s="22"/>
@@ -44802,7 +45386,9 @@
       <c r="AE46" s="8">
         <v>6</v>
       </c>
-      <c r="AF46" s="23"/>
+      <c r="AF46" s="26">
+        <v>3</v>
+      </c>
       <c r="AG46" s="23"/>
       <c r="AH46" s="23"/>
       <c r="AI46" s="23"/>
@@ -44919,7 +45505,9 @@
       <c r="AE47" s="8">
         <v>1</v>
       </c>
-      <c r="AF47" s="23"/>
+      <c r="AF47" s="26">
+        <v>2</v>
+      </c>
       <c r="AG47" s="23"/>
       <c r="AH47" s="23"/>
       <c r="AI47" s="23"/>
@@ -45036,7 +45624,9 @@
       <c r="AE48" s="8">
         <v>2</v>
       </c>
-      <c r="AF48" s="23"/>
+      <c r="AF48" s="26">
+        <v>1</v>
+      </c>
       <c r="AG48" s="23"/>
       <c r="AH48" s="23"/>
       <c r="AI48" s="23"/>
@@ -45064,7 +45654,7 @@
     </row>
     <row r="49" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -45154,7 +45744,9 @@
       <c r="AE49" s="8">
         <v>15</v>
       </c>
-      <c r="AF49" s="22"/>
+      <c r="AF49" s="28">
+        <v>13</v>
+      </c>
       <c r="AG49" s="22"/>
       <c r="AH49" s="22"/>
       <c r="AI49" s="22"/>
@@ -45181,7 +45773,7 @@
       <c r="BD49" s="22"/>
     </row>
     <row r="50" spans="1:56" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="51"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -45269,7 +45861,9 @@
       <c r="AE50" s="8">
         <v>2</v>
       </c>
-      <c r="AF50" s="22"/>
+      <c r="AF50" s="28">
+        <v>2</v>
+      </c>
       <c r="AG50" s="22"/>
       <c r="AH50" s="22"/>
       <c r="AI50" s="22"/>
@@ -45386,7 +45980,9 @@
       <c r="AE51" s="8">
         <v>2</v>
       </c>
-      <c r="AF51" s="23"/>
+      <c r="AF51" s="26">
+        <v>3</v>
+      </c>
       <c r="AG51" s="23"/>
       <c r="AH51" s="23"/>
       <c r="AI51" s="23"/>
@@ -45503,7 +46099,9 @@
       <c r="AE52" s="8">
         <v>3</v>
       </c>
-      <c r="AF52" s="23"/>
+      <c r="AF52" s="26">
+        <v>2</v>
+      </c>
       <c r="AG52" s="23"/>
       <c r="AH52" s="23"/>
       <c r="AI52" s="23"/>
@@ -45620,7 +46218,9 @@
       <c r="AE53" s="8">
         <v>12</v>
       </c>
-      <c r="AF53" s="23"/>
+      <c r="AF53" s="26">
+        <v>7</v>
+      </c>
       <c r="AG53" s="23"/>
       <c r="AH53" s="23"/>
       <c r="AI53" s="23"/>
@@ -45737,7 +46337,9 @@
       <c r="AE54" s="8">
         <v>5</v>
       </c>
-      <c r="AF54" s="23"/>
+      <c r="AF54" s="26">
+        <v>9</v>
+      </c>
       <c r="AG54" s="23"/>
       <c r="AH54" s="23"/>
       <c r="AI54" s="23"/>
@@ -45854,7 +46456,9 @@
       <c r="AE55" s="8">
         <v>7</v>
       </c>
-      <c r="AF55" s="23"/>
+      <c r="AF55" s="26">
+        <v>6</v>
+      </c>
       <c r="AG55" s="23"/>
       <c r="AH55" s="23"/>
       <c r="AI55" s="23"/>
@@ -45971,7 +46575,9 @@
       <c r="AE56" s="8">
         <v>0</v>
       </c>
-      <c r="AF56" s="23"/>
+      <c r="AF56" s="26">
+        <v>0</v>
+      </c>
       <c r="AG56" s="23"/>
       <c r="AH56" s="23"/>
       <c r="AI56" s="23"/>
@@ -46088,7 +46694,9 @@
       <c r="AE57" s="8">
         <v>0</v>
       </c>
-      <c r="AF57" s="23"/>
+      <c r="AF57" s="26">
+        <v>0</v>
+      </c>
       <c r="AG57" s="23"/>
       <c r="AH57" s="23"/>
       <c r="AI57" s="23"/>
@@ -46144,7 +46752,7 @@
         <v>1305</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" ref="J58:AE58" si="0">SUM(J6:J57)</f>
+        <f t="shared" ref="J58:AF58" si="0">SUM(J6:J57)</f>
         <v>1163</v>
       </c>
       <c r="K58" s="14">
@@ -46231,7 +46839,10 @@
         <f t="shared" si="0"/>
         <v>1138</v>
       </c>
-      <c r="AF58" s="24"/>
+      <c r="AF58" s="14">
+        <f t="shared" si="0"/>
+        <v>1073</v>
+      </c>
       <c r="AG58" s="24"/>
       <c r="AH58" s="24"/>
       <c r="AI58" s="24"/>
@@ -46358,32 +46969,29 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="D2:AE2"/>
-    <mergeCell ref="D3:AE3"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="B19:B21"/>
@@ -46400,13 +47008,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B49:B50"/>
@@ -46421,6 +47022,16 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="D3:AF3"/>
+    <mergeCell ref="D2:AF2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\新　広報係\05_【大分類】広報\01_【中分類】広報\06【小分類】ホームページ関係\01_ホームページ更新関係\令和3年度\11月\ＪＯＢ031102-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\09【大】感染症関係\【中】新型コロナウイルス感染症関係\【小】令和３年度新型コロナウイルス感染症関係\★ コロナ受入困難事例集計\最新データ\DTホームページ公開\20211109\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B742FD-B4DF-4F88-BEA2-D5951CB17244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1FD83E-E64C-4D13-91E3-0A63F981E65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$CH$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$CH$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$CI$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$CI$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="274">
   <si>
     <t>都道府県</t>
   </si>
@@ -2242,6 +2242,54 @@
       <t>ダイ</t>
     </rPh>
     <rPh sb="25" eb="26">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/1(月)～
+11/7(日)分
+【11月第1週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/2(月)～
+11/8(日)分
+【11月第1週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
       <t>シュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -5113,13 +5161,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH61"/>
+  <dimension ref="A1:CI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BR6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BQ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BD2" sqref="BD2:CH2"/>
+      <selection pane="bottomRight" activeCell="CF55" sqref="CF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5130,11 +5178,11 @@
     <col min="4" max="56" width="11" style="1" customWidth="1"/>
     <col min="57" max="82" width="10.9140625" style="1" customWidth="1"/>
     <col min="83" max="83" width="11.08203125" style="1" customWidth="1"/>
-    <col min="84" max="86" width="11.1640625" style="1" customWidth="1"/>
-    <col min="87" max="16384" width="8.6640625" style="1"/>
+    <col min="84" max="87" width="11.1640625" style="1" customWidth="1"/>
+    <col min="88" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:87" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BA1" s="45" t="s">
         <v>143</v>
       </c>
@@ -5148,8 +5196,9 @@
       <c r="CF1" s="33"/>
       <c r="CG1" s="33"/>
       <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
     </row>
-    <row r="2" spans="1:86" ht="32.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:87" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="32" t="s">
@@ -5239,8 +5288,9 @@
       <c r="CF2" s="32"/>
       <c r="CG2" s="32"/>
       <c r="CH2" s="32"/>
+      <c r="CI2" s="32"/>
     </row>
-    <row r="3" spans="1:86" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
       <c r="D3" s="31" t="s">
@@ -5332,8 +5382,9 @@
       <c r="CF3" s="31"/>
       <c r="CG3" s="31"/>
       <c r="CH3" s="31"/>
+      <c r="CI3" s="31"/>
     </row>
-    <row r="4" spans="1:86" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:87" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="37" t="s">
         <v>0</v>
       </c>
@@ -5589,8 +5640,11 @@
       <c r="CH4" s="34" t="s">
         <v>270</v>
       </c>
+      <c r="CI4" s="34" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="5" spans="1:86" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:87" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="38"/>
       <c r="C5" s="44"/>
       <c r="D5" s="29"/>
@@ -5676,8 +5730,9 @@
       <c r="CF5" s="35"/>
       <c r="CG5" s="35"/>
       <c r="CH5" s="35"/>
+      <c r="CI5" s="35"/>
     </row>
-    <row r="6" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -5934,8 +5989,11 @@
       <c r="CH6" s="28">
         <v>65</v>
       </c>
+      <c r="CI6" s="28">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -6191,8 +6249,11 @@
       <c r="CH7" s="26">
         <v>2</v>
       </c>
+      <c r="CI7" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -6448,8 +6509,11 @@
       <c r="CH8" s="26">
         <v>5</v>
       </c>
+      <c r="CI8" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -6706,8 +6770,11 @@
       <c r="CH9" s="26">
         <v>39</v>
       </c>
+      <c r="CI9" s="26">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -6963,8 +7030,11 @@
       <c r="CH10" s="26">
         <v>0</v>
       </c>
+      <c r="CI10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -7220,8 +7290,11 @@
       <c r="CH11" s="26">
         <v>7</v>
       </c>
+      <c r="CI11" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -7477,8 +7550,11 @@
       <c r="CH12" s="26">
         <v>2</v>
       </c>
+      <c r="CI12" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -7734,8 +7810,11 @@
       <c r="CH13" s="28">
         <v>20</v>
       </c>
+      <c r="CI13" s="28">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -7991,8 +8070,11 @@
       <c r="CH14" s="26">
         <v>13</v>
       </c>
+      <c r="CI14" s="26">
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -8248,8 +8330,11 @@
       <c r="CH15" s="26">
         <v>1</v>
       </c>
+      <c r="CI15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -8506,8 +8591,11 @@
       <c r="CH16" s="28">
         <v>46</v>
       </c>
+      <c r="CI16" s="28">
+        <v>68</v>
+      </c>
     </row>
-    <row r="17" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -8763,8 +8851,11 @@
       <c r="CH17" s="28">
         <v>78</v>
       </c>
+      <c r="CI17" s="28">
+        <v>80</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -9021,8 +9112,11 @@
       <c r="CH18" s="28">
         <v>739</v>
       </c>
+      <c r="CI18" s="28">
+        <v>706</v>
+      </c>
     </row>
-    <row r="19" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="41" t="s">
         <v>27</v>
@@ -9279,8 +9373,11 @@
       <c r="CH19" s="28">
         <v>17</v>
       </c>
+      <c r="CI19" s="28">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="41"/>
       <c r="C20" s="9" t="s">
@@ -9535,8 +9632,11 @@
       <c r="CH20" s="28">
         <v>59</v>
       </c>
+      <c r="CI20" s="28">
+        <v>76</v>
+      </c>
     </row>
-    <row r="21" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="41"/>
       <c r="C21" s="9" t="s">
@@ -9791,8 +9891,11 @@
       <c r="CH21" s="28">
         <v>24</v>
       </c>
+      <c r="CI21" s="28">
+        <v>15</v>
+      </c>
     </row>
-    <row r="22" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -10048,8 +10151,11 @@
       <c r="CH22" s="26">
         <v>9</v>
       </c>
+      <c r="CI22" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -10305,8 +10411,11 @@
       <c r="CH23" s="26">
         <v>3</v>
       </c>
+      <c r="CI23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -10562,8 +10671,11 @@
       <c r="CH24" s="28">
         <v>6</v>
       </c>
+      <c r="CI24" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -10819,8 +10931,11 @@
       <c r="CH25" s="26">
         <v>0</v>
       </c>
+      <c r="CI25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -11076,8 +11191,11 @@
       <c r="CH26" s="26">
         <v>7</v>
       </c>
+      <c r="CI26" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -11333,8 +11451,11 @@
       <c r="CH27" s="26">
         <v>0</v>
       </c>
+      <c r="CI27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -11590,8 +11711,11 @@
       <c r="CH28" s="28">
         <v>0</v>
       </c>
+      <c r="CI28" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="42" t="s">
         <v>45</v>
       </c>
@@ -11847,8 +11971,11 @@
       <c r="CH29" s="26">
         <v>2</v>
       </c>
+      <c r="CI29" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="42"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -12102,8 +12229,11 @@
       <c r="CH30" s="26">
         <v>2</v>
       </c>
+      <c r="CI30" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -12360,8 +12490,11 @@
       <c r="CH31" s="28">
         <v>17</v>
       </c>
+      <c r="CI31" s="28">
+        <v>13</v>
+      </c>
     </row>
-    <row r="32" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -12617,8 +12750,11 @@
       <c r="CH32" s="26">
         <v>1</v>
       </c>
+      <c r="CI32" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -12874,8 +13010,11 @@
       <c r="CH33" s="26">
         <v>0</v>
       </c>
+      <c r="CI33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -13132,8 +13271,11 @@
       <c r="CH34" s="28">
         <v>16</v>
       </c>
+      <c r="CI34" s="28">
+        <v>17</v>
+      </c>
     </row>
-    <row r="35" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="41" t="s">
         <v>56</v>
@@ -13390,8 +13532,11 @@
       <c r="CH35" s="28">
         <v>165</v>
       </c>
+      <c r="CI35" s="28">
+        <v>182</v>
+      </c>
     </row>
-    <row r="36" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="41"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -13645,8 +13790,11 @@
       <c r="CH36" s="28">
         <v>9</v>
       </c>
+      <c r="CI36" s="28">
+        <v>13</v>
+      </c>
     </row>
-    <row r="37" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -13903,8 +14051,11 @@
       <c r="CH37" s="28">
         <v>22</v>
       </c>
+      <c r="CI37" s="28">
+        <v>23</v>
+      </c>
     </row>
-    <row r="38" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -14160,8 +14311,11 @@
       <c r="CH38" s="26">
         <v>3</v>
       </c>
+      <c r="CI38" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -14417,8 +14571,11 @@
       <c r="CH39" s="26">
         <v>3</v>
       </c>
+      <c r="CI39" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -14674,8 +14831,11 @@
       <c r="CH40" s="26">
         <v>0</v>
       </c>
+      <c r="CI40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -14931,8 +15091,11 @@
       <c r="CH41" s="26">
         <v>0</v>
       </c>
+      <c r="CI41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -15188,8 +15351,11 @@
       <c r="CH42" s="26">
         <v>3</v>
       </c>
+      <c r="CI42" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="43" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -15445,8 +15611,11 @@
       <c r="CH43" s="26">
         <v>36</v>
       </c>
+      <c r="CI43" s="26">
+        <v>30</v>
+      </c>
     </row>
-    <row r="44" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -15702,8 +15871,11 @@
       <c r="CH44" s="26">
         <v>1</v>
       </c>
+      <c r="CI44" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -15959,8 +16131,11 @@
       <c r="CH45" s="28">
         <v>4</v>
       </c>
+      <c r="CI45" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="46" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -16216,8 +16391,11 @@
       <c r="CH46" s="26">
         <v>3</v>
       </c>
+      <c r="CI46" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -16473,8 +16651,11 @@
       <c r="CH47" s="26">
         <v>3</v>
       </c>
+      <c r="CI47" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="48" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -16730,8 +16911,11 @@
       <c r="CH48" s="26">
         <v>3</v>
       </c>
+      <c r="CI48" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
       <c r="B49" s="41" t="s">
         <v>83</v>
@@ -16988,8 +17172,11 @@
       <c r="CH49" s="28">
         <v>11</v>
       </c>
+      <c r="CI49" s="28">
+        <v>12</v>
+      </c>
     </row>
-    <row r="50" spans="1:86" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="41"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -17243,8 +17430,11 @@
       <c r="CH50" s="28">
         <v>2</v>
       </c>
+      <c r="CI50" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -17500,8 +17690,11 @@
       <c r="CH51" s="26">
         <v>0</v>
       </c>
+      <c r="CI51" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="52" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -17757,8 +17950,11 @@
       <c r="CH52" s="26">
         <v>10</v>
       </c>
+      <c r="CI52" s="26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="53" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -18014,8 +18210,11 @@
       <c r="CH53" s="26">
         <v>6</v>
       </c>
+      <c r="CI53" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="54" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -18271,8 +18470,11 @@
       <c r="CH54" s="26">
         <v>6</v>
       </c>
+      <c r="CI54" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -18528,8 +18730,11 @@
       <c r="CH55" s="26">
         <v>9</v>
       </c>
+      <c r="CI55" s="26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="56" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -18785,8 +18990,11 @@
       <c r="CH56" s="26">
         <v>0</v>
       </c>
+      <c r="CI56" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -19042,8 +19250,11 @@
       <c r="CH57" s="26">
         <v>0</v>
       </c>
+      <c r="CI57" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -19329,7 +19540,7 @@
         <v>2376</v>
       </c>
       <c r="BV58" s="14">
-        <f t="shared" ref="BV58:CH58" si="3">SUM(BV6:BV57)</f>
+        <f t="shared" ref="BV58:CI58" si="3">SUM(BV6:BV57)</f>
         <v>2897</v>
       </c>
       <c r="BW58" s="14">
@@ -19380,8 +19591,12 @@
         <f t="shared" si="3"/>
         <v>1479</v>
       </c>
+      <c r="CI58" s="14">
+        <f t="shared" si="3"/>
+        <v>1488</v>
+      </c>
     </row>
-    <row r="59" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -19465,7 +19680,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -19549,7 +19764,7 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:86" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -19634,7 +19849,11 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="99">
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="BD3:CI3"/>
+    <mergeCell ref="BD2:CI2"/>
+    <mergeCell ref="CD1:CI1"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="CF4:CF5"/>
@@ -19726,9 +19945,6 @@
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BD3:CH3"/>
-    <mergeCell ref="BD2:CH2"/>
-    <mergeCell ref="CD1:CH1"/>
     <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="BI4:BI5"/>
@@ -19746,13 +19962,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:CH58"/>
+  <dimension ref="B1:CI58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="BP56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BD2" sqref="BD2:CH2"/>
+      <selection pane="bottomRight" activeCell="BX8" sqref="BX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -19763,11 +19979,11 @@
     <col min="4" max="55" width="11" style="1" customWidth="1"/>
     <col min="56" max="82" width="10.9140625" style="1" customWidth="1"/>
     <col min="83" max="83" width="11.08203125" style="1" customWidth="1"/>
-    <col min="84" max="86" width="11.1640625" style="1" customWidth="1"/>
-    <col min="87" max="16384" width="8.6640625" style="1"/>
+    <col min="84" max="87" width="11.1640625" style="1" customWidth="1"/>
+    <col min="88" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:86" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:87" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="BB1" s="50" t="s">
         <v>143</v>
       </c>
@@ -19781,8 +19997,9 @@
       <c r="CF1" s="51"/>
       <c r="CG1" s="51"/>
       <c r="CH1" s="51"/>
+      <c r="CI1" s="51"/>
     </row>
-    <row r="2" spans="2:86" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:87" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="32" t="s">
@@ -19872,8 +20089,9 @@
       <c r="CF2" s="32"/>
       <c r="CG2" s="32"/>
       <c r="CH2" s="32"/>
+      <c r="CI2" s="32"/>
     </row>
-    <row r="3" spans="2:86" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:87" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
       <c r="D3" s="31" t="s">
@@ -19965,8 +20183,9 @@
       <c r="CF3" s="31"/>
       <c r="CG3" s="31"/>
       <c r="CH3" s="31"/>
+      <c r="CI3" s="31"/>
     </row>
-    <row r="4" spans="2:86" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:87" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="37" t="s">
         <v>0</v>
       </c>
@@ -20222,8 +20441,11 @@
       <c r="CH4" s="34" t="s">
         <v>271</v>
       </c>
+      <c r="CI4" s="34" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="5" spans="2:86" ht="54.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:87" ht="54.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="38"/>
       <c r="C5" s="44"/>
       <c r="D5" s="53"/>
@@ -20309,8 +20531,9 @@
       <c r="CF5" s="35"/>
       <c r="CG5" s="35"/>
       <c r="CH5" s="35"/>
+      <c r="CI5" s="35"/>
     </row>
-    <row r="6" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -20566,8 +20789,11 @@
       <c r="CH6" s="26">
         <v>54</v>
       </c>
+      <c r="CI6" s="26">
+        <v>63</v>
+      </c>
     </row>
-    <row r="7" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -20823,8 +21049,11 @@
       <c r="CH7" s="26">
         <v>1</v>
       </c>
+      <c r="CI7" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -21080,8 +21309,11 @@
       <c r="CH8" s="26">
         <v>3</v>
       </c>
+      <c r="CI8" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -21337,8 +21569,11 @@
       <c r="CH9" s="26">
         <v>30</v>
       </c>
+      <c r="CI9" s="26">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -21594,8 +21829,11 @@
       <c r="CH10" s="26">
         <v>0</v>
       </c>
+      <c r="CI10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -21851,8 +22089,11 @@
       <c r="CH11" s="26">
         <v>4</v>
       </c>
+      <c r="CI11" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -22108,8 +22349,11 @@
       <c r="CH12" s="26">
         <v>1</v>
       </c>
+      <c r="CI12" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -22365,8 +22609,11 @@
       <c r="CH13" s="26">
         <v>5</v>
       </c>
+      <c r="CI13" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -22622,8 +22869,11 @@
       <c r="CH14" s="26">
         <v>7</v>
       </c>
+      <c r="CI14" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -22879,8 +23129,11 @@
       <c r="CH15" s="26">
         <v>0</v>
       </c>
+      <c r="CI15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -23136,8 +23389,11 @@
       <c r="CH16" s="26">
         <v>29</v>
       </c>
+      <c r="CI16" s="26">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -23393,8 +23649,11 @@
       <c r="CH17" s="26">
         <v>71</v>
       </c>
+      <c r="CI17" s="26">
+        <v>71</v>
+      </c>
     </row>
-    <row r="18" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -23650,8 +23909,11 @@
       <c r="CH18" s="26">
         <v>508</v>
       </c>
+      <c r="CI18" s="26">
+        <v>552</v>
+      </c>
     </row>
-    <row r="19" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="41" t="s">
         <v>27</v>
       </c>
@@ -23907,8 +24169,11 @@
       <c r="CH19" s="26">
         <v>13</v>
       </c>
+      <c r="CI19" s="26">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="41"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -24162,8 +24427,11 @@
       <c r="CH20" s="26">
         <v>47</v>
       </c>
+      <c r="CI20" s="26">
+        <v>65</v>
+      </c>
     </row>
-    <row r="21" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="41"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -24417,8 +24685,11 @@
       <c r="CH21" s="26">
         <v>31</v>
       </c>
+      <c r="CI21" s="26">
+        <v>23</v>
+      </c>
     </row>
-    <row r="22" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -24674,8 +24945,11 @@
       <c r="CH22" s="26">
         <v>16</v>
       </c>
+      <c r="CI22" s="26">
+        <v>13</v>
+      </c>
     </row>
-    <row r="23" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -24931,8 +25205,11 @@
       <c r="CH23" s="26">
         <v>0</v>
       </c>
+      <c r="CI23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -25188,8 +25465,11 @@
       <c r="CH24" s="26">
         <v>2</v>
       </c>
+      <c r="CI24" s="26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -25445,8 +25725,11 @@
       <c r="CH25" s="26">
         <v>0</v>
       </c>
+      <c r="CI25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -25702,8 +25985,11 @@
       <c r="CH26" s="26">
         <v>1</v>
       </c>
+      <c r="CI26" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -25959,8 +26245,11 @@
       <c r="CH27" s="26">
         <v>2</v>
       </c>
+      <c r="CI27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -26216,8 +26505,11 @@
       <c r="CH28" s="26">
         <v>0</v>
       </c>
+      <c r="CI28" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="42" t="s">
         <v>45</v>
       </c>
@@ -26473,8 +26765,11 @@
       <c r="CH29" s="26">
         <v>3</v>
       </c>
+      <c r="CI29" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="42"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -26728,8 +27023,11 @@
       <c r="CH30" s="26">
         <v>3</v>
       </c>
+      <c r="CI30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -26985,8 +27283,11 @@
       <c r="CH31" s="26">
         <v>12</v>
       </c>
+      <c r="CI31" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="32" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -27242,8 +27543,11 @@
       <c r="CH32" s="26">
         <v>2</v>
       </c>
+      <c r="CI32" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -27499,8 +27803,11 @@
       <c r="CH33" s="26">
         <v>0</v>
       </c>
+      <c r="CI33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -27756,8 +28063,11 @@
       <c r="CH34" s="26">
         <v>17</v>
       </c>
+      <c r="CI34" s="26">
+        <v>15</v>
+      </c>
     </row>
-    <row r="35" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="41" t="s">
         <v>56</v>
       </c>
@@ -28013,8 +28323,11 @@
       <c r="CH35" s="26">
         <v>193</v>
       </c>
+      <c r="CI35" s="26">
+        <v>177</v>
+      </c>
     </row>
-    <row r="36" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="41"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -28268,8 +28581,11 @@
       <c r="CH36" s="26">
         <v>8</v>
       </c>
+      <c r="CI36" s="26">
+        <v>11</v>
+      </c>
     </row>
-    <row r="37" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -28525,8 +28841,11 @@
       <c r="CH37" s="26">
         <v>8</v>
       </c>
+      <c r="CI37" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="38" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -28782,8 +29101,11 @@
       <c r="CH38" s="26">
         <v>2</v>
       </c>
+      <c r="CI38" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -29039,8 +29361,11 @@
       <c r="CH39" s="26">
         <v>1</v>
       </c>
+      <c r="CI39" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -29296,8 +29621,11 @@
       <c r="CH40" s="26">
         <v>0</v>
       </c>
+      <c r="CI40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -29553,8 +29881,11 @@
       <c r="CH41" s="26">
         <v>0</v>
       </c>
+      <c r="CI41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -29810,8 +30141,11 @@
       <c r="CH42" s="26">
         <v>4</v>
       </c>
+      <c r="CI42" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -30067,8 +30401,11 @@
       <c r="CH43" s="26">
         <v>26</v>
       </c>
+      <c r="CI43" s="26">
+        <v>38</v>
+      </c>
     </row>
-    <row r="44" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -30324,8 +30661,11 @@
       <c r="CH44" s="26">
         <v>5</v>
       </c>
+      <c r="CI44" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -30581,8 +30921,11 @@
       <c r="CH45" s="26">
         <v>1</v>
       </c>
+      <c r="CI45" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="46" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -30838,8 +31181,11 @@
       <c r="CH46" s="26">
         <v>6</v>
       </c>
+      <c r="CI46" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="47" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -31095,8 +31441,11 @@
       <c r="CH47" s="26">
         <v>0</v>
       </c>
+      <c r="CI47" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -31352,8 +31701,11 @@
       <c r="CH48" s="26">
         <v>3</v>
       </c>
+      <c r="CI48" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="41" t="s">
         <v>83</v>
       </c>
@@ -31609,8 +31961,11 @@
       <c r="CH49" s="26">
         <v>4</v>
       </c>
+      <c r="CI49" s="26">
+        <v>13</v>
+      </c>
     </row>
-    <row r="50" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="41"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -31864,8 +32219,11 @@
       <c r="CH50" s="26">
         <v>1</v>
       </c>
+      <c r="CI50" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -32121,8 +32479,11 @@
       <c r="CH51" s="26">
         <v>3</v>
       </c>
+      <c r="CI51" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -32378,8 +32739,11 @@
       <c r="CH52" s="26">
         <v>1</v>
       </c>
+      <c r="CI52" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="53" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -32635,8 +32999,11 @@
       <c r="CH53" s="26">
         <v>3</v>
       </c>
+      <c r="CI53" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="54" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -32892,8 +33259,11 @@
       <c r="CH54" s="26">
         <v>2</v>
       </c>
+      <c r="CI54" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="55" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -33149,8 +33519,11 @@
       <c r="CH55" s="26">
         <v>8</v>
       </c>
+      <c r="CI55" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -33406,8 +33779,11 @@
       <c r="CH56" s="26">
         <v>1</v>
       </c>
+      <c r="CI56" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -33663,8 +34039,11 @@
       <c r="CH57" s="26">
         <v>0</v>
       </c>
+      <c r="CI57" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:86" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -33945,7 +34324,7 @@
         <v>1344</v>
       </c>
       <c r="BU58" s="25">
-        <f t="shared" ref="BU58:CH58" si="3">SUM(BU6:BU57)</f>
+        <f t="shared" ref="BU58:CI58" si="3">SUM(BU6:BU57)</f>
         <v>1160</v>
       </c>
       <c r="BV58" s="25">
@@ -34000,9 +34379,17 @@
         <f t="shared" si="3"/>
         <v>1142</v>
       </c>
+      <c r="CI58" s="25">
+        <f t="shared" si="3"/>
+        <v>1241</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="98">
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="BD3:CI3"/>
+    <mergeCell ref="BD2:CI2"/>
+    <mergeCell ref="CC1:CI1"/>
     <mergeCell ref="CF4:CF5"/>
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="BI4:BI5"/>
@@ -34068,8 +34455,6 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="CC1:CH1"/>
-    <mergeCell ref="BD2:CH2"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:BC2"/>
@@ -34084,7 +34469,6 @@
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="BD3:CH3"/>
     <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BZ4:BZ5"/>
@@ -34113,13 +34497,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH61"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="X6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="T57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AL14" sqref="AL14"/>
+      <selection pane="bottomRight" activeCell="AK56" sqref="AK56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -34128,11 +34512,13 @@
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="34" width="10.9140625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="33" width="10.9140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.9140625" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:35" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="19"/>
       <c r="AC1" s="33" t="s">
         <v>143</v>
@@ -34142,8 +34528,9 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
     </row>
-    <row r="2" spans="1:34" ht="32.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:35" ht="32.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="54" t="s">
@@ -34179,8 +34566,9 @@
       <c r="AF2" s="54"/>
       <c r="AG2" s="54"/>
       <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
     </row>
-    <row r="3" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
       <c r="D3" s="31" t="s">
@@ -34216,8 +34604,9 @@
       <c r="AF3" s="31"/>
       <c r="AG3" s="31"/>
       <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
     </row>
-    <row r="4" spans="1:34" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:35" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="37" t="s">
         <v>0</v>
       </c>
@@ -34317,8 +34706,11 @@
       <c r="AH4" s="34" t="s">
         <v>270</v>
       </c>
+      <c r="AI4" s="34" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:35" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="38"/>
       <c r="C5" s="44"/>
       <c r="D5" s="30"/>
@@ -34352,8 +34744,9 @@
       <c r="AF5" s="35"/>
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -34454,8 +34847,11 @@
       <c r="AH6" s="28">
         <v>13</v>
       </c>
+      <c r="AI6" s="28">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -34555,8 +34951,11 @@
       <c r="AH7" s="26">
         <v>1</v>
       </c>
+      <c r="AI7" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -34656,8 +35055,11 @@
       <c r="AH8" s="26">
         <v>0</v>
       </c>
+      <c r="AI8" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -34758,8 +35160,11 @@
       <c r="AH9" s="26">
         <v>0</v>
       </c>
+      <c r="AI9" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -34859,8 +35264,11 @@
       <c r="AH10" s="26">
         <v>0</v>
       </c>
+      <c r="AI10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -34960,8 +35368,11 @@
       <c r="AH11" s="26">
         <v>1</v>
       </c>
+      <c r="AI11" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -35061,8 +35472,11 @@
       <c r="AH12" s="26">
         <v>0</v>
       </c>
+      <c r="AI12" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -35162,8 +35576,11 @@
       <c r="AH13" s="28">
         <v>5</v>
       </c>
+      <c r="AI13" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -35263,8 +35680,11 @@
       <c r="AH14" s="26">
         <v>2</v>
       </c>
+      <c r="AI14" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -35364,8 +35784,11 @@
       <c r="AH15" s="26">
         <v>0</v>
       </c>
+      <c r="AI15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -35466,8 +35889,11 @@
       <c r="AH16" s="28">
         <v>0</v>
       </c>
+      <c r="AI16" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -35567,8 +35993,11 @@
       <c r="AH17" s="28">
         <v>24</v>
       </c>
+      <c r="AI17" s="28">
+        <v>29</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -35669,8 +36098,11 @@
       <c r="AH18" s="28">
         <v>84</v>
       </c>
+      <c r="AI18" s="28">
+        <v>98</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="55" t="s">
         <v>27</v>
@@ -35771,8 +36203,11 @@
       <c r="AH19" s="28">
         <v>5</v>
       </c>
+      <c r="AI19" s="28">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
@@ -35871,8 +36306,11 @@
       <c r="AH20" s="28">
         <v>29</v>
       </c>
+      <c r="AI20" s="28">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="56"/>
       <c r="C21" s="9" t="s">
@@ -35971,8 +36409,11 @@
       <c r="AH21" s="28">
         <v>7</v>
       </c>
+      <c r="AI21" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -36072,8 +36513,11 @@
       <c r="AH22" s="26">
         <v>1</v>
       </c>
+      <c r="AI22" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -36173,8 +36617,11 @@
       <c r="AH23" s="26">
         <v>0</v>
       </c>
+      <c r="AI23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -36274,8 +36721,11 @@
       <c r="AH24" s="28">
         <v>2</v>
       </c>
+      <c r="AI24" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -36375,8 +36825,11 @@
       <c r="AH25" s="26">
         <v>0</v>
       </c>
+      <c r="AI25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -36476,8 +36929,11 @@
       <c r="AH26" s="26">
         <v>2</v>
       </c>
+      <c r="AI26" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -36577,8 +37033,11 @@
       <c r="AH27" s="26">
         <v>0</v>
       </c>
+      <c r="AI27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -36678,8 +37137,11 @@
       <c r="AH28" s="28">
         <v>0</v>
       </c>
+      <c r="AI28" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="57" t="s">
         <v>45</v>
       </c>
@@ -36779,8 +37241,11 @@
       <c r="AH29" s="26">
         <v>0</v>
       </c>
+      <c r="AI29" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="58"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
@@ -36878,8 +37343,11 @@
       <c r="AH30" s="26">
         <v>2</v>
       </c>
+      <c r="AI30" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -36980,8 +37448,11 @@
       <c r="AH31" s="28">
         <v>4</v>
       </c>
+      <c r="AI31" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -37081,8 +37552,11 @@
       <c r="AH32" s="26">
         <v>0</v>
       </c>
+      <c r="AI32" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -37182,8 +37656,11 @@
       <c r="AH33" s="26">
         <v>0</v>
       </c>
+      <c r="AI33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -37284,8 +37761,11 @@
       <c r="AH34" s="28">
         <v>1</v>
       </c>
+      <c r="AI34" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="55" t="s">
         <v>56</v>
@@ -37386,8 +37866,11 @@
       <c r="AH35" s="28">
         <v>32</v>
       </c>
+      <c r="AI35" s="28">
+        <v>43</v>
+      </c>
     </row>
-    <row r="36" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="56"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
@@ -37485,8 +37968,11 @@
       <c r="AH36" s="28">
         <v>7</v>
       </c>
+      <c r="AI36" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="37" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -37587,8 +38073,11 @@
       <c r="AH37" s="28">
         <v>2</v>
       </c>
+      <c r="AI37" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -37688,8 +38177,11 @@
       <c r="AH38" s="26">
         <v>1</v>
       </c>
+      <c r="AI38" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -37789,8 +38281,11 @@
       <c r="AH39" s="26">
         <v>1</v>
       </c>
+      <c r="AI39" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -37890,8 +38385,11 @@
       <c r="AH40" s="26">
         <v>0</v>
       </c>
+      <c r="AI40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -37991,8 +38489,11 @@
       <c r="AH41" s="26">
         <v>0</v>
       </c>
+      <c r="AI41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -38092,8 +38593,11 @@
       <c r="AH42" s="26">
         <v>2</v>
       </c>
+      <c r="AI42" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -38193,8 +38697,11 @@
       <c r="AH43" s="26">
         <v>11</v>
       </c>
+      <c r="AI43" s="26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="44" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -38294,8 +38801,11 @@
       <c r="AH44" s="26">
         <v>1</v>
       </c>
+      <c r="AI44" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -38395,8 +38905,11 @@
       <c r="AH45" s="28">
         <v>1</v>
       </c>
+      <c r="AI45" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -38496,8 +39009,11 @@
       <c r="AH46" s="26">
         <v>1</v>
       </c>
+      <c r="AI46" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -38597,8 +39113,11 @@
       <c r="AH47" s="26">
         <v>0</v>
       </c>
+      <c r="AI47" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -38698,8 +39217,11 @@
       <c r="AH48" s="26">
         <v>1</v>
       </c>
+      <c r="AI48" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3"/>
       <c r="B49" s="55" t="s">
         <v>83</v>
@@ -38800,8 +39322,11 @@
       <c r="AH49" s="28">
         <v>0</v>
       </c>
+      <c r="AI49" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="56"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
@@ -38899,8 +39424,11 @@
       <c r="AH50" s="28">
         <v>0</v>
       </c>
+      <c r="AI50" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -39000,8 +39528,11 @@
       <c r="AH51" s="26">
         <v>0</v>
       </c>
+      <c r="AI51" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -39101,8 +39632,11 @@
       <c r="AH52" s="26">
         <v>2</v>
       </c>
+      <c r="AI52" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -39202,8 +39736,11 @@
       <c r="AH53" s="26">
         <v>0</v>
       </c>
+      <c r="AI53" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -39303,8 +39840,11 @@
       <c r="AH54" s="26">
         <v>1</v>
       </c>
+      <c r="AI54" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="55" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -39404,8 +39944,11 @@
       <c r="AH55" s="26">
         <v>0</v>
       </c>
+      <c r="AI55" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -39505,8 +40048,11 @@
       <c r="AH56" s="26">
         <v>0</v>
       </c>
+      <c r="AI56" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -39606,8 +40152,11 @@
       <c r="AH57" s="26">
         <v>0</v>
       </c>
+      <c r="AI57" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -39736,8 +40285,12 @@
         <f>SUM(AH6:AH57)</f>
         <v>246</v>
       </c>
+      <c r="AI58" s="14">
+        <f>SUM(AI6:AI57)</f>
+        <v>284</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -39770,7 +40323,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -39803,7 +40356,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -39837,12 +40390,16 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="D2:AI2"/>
+    <mergeCell ref="D3:AI3"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AE4:AE5"/>
@@ -39864,9 +40421,6 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="D2:AH2"/>
-    <mergeCell ref="D3:AH3"/>
-    <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -39891,11 +40445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AL15" sqref="AL15"/>
+      <selection pane="bottomRight" activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -39920,6 +40474,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:57" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="46"/>
@@ -39957,7 +40512,7 @@
       <c r="AF2" s="32"/>
       <c r="AG2" s="32"/>
       <c r="AH2" s="32"/>
-      <c r="AI2" s="20"/>
+      <c r="AI2" s="32"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -40017,7 +40572,7 @@
       <c r="AF3" s="31"/>
       <c r="AG3" s="31"/>
       <c r="AH3" s="31"/>
-      <c r="AI3" s="21"/>
+      <c r="AI3" s="31"/>
       <c r="AJ3" s="21"/>
       <c r="AK3" s="21"/>
       <c r="AL3" s="21"/>
@@ -40141,7 +40696,9 @@
       <c r="AH4" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="AI4" s="60"/>
+      <c r="AI4" s="34" t="s">
+        <v>272</v>
+      </c>
       <c r="AJ4" s="60"/>
       <c r="AK4" s="60"/>
       <c r="AL4" s="60"/>
@@ -40199,7 +40756,7 @@
       <c r="AF5" s="35"/>
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
-      <c r="AI5" s="60"/>
+      <c r="AI5" s="35"/>
       <c r="AJ5" s="60"/>
       <c r="AK5" s="60"/>
       <c r="AL5" s="60"/>
@@ -40324,7 +40881,9 @@
       <c r="AH6" s="28">
         <v>52</v>
       </c>
-      <c r="AI6" s="22"/>
+      <c r="AI6" s="28">
+        <v>40</v>
+      </c>
       <c r="AJ6" s="22"/>
       <c r="AK6" s="22"/>
       <c r="AL6" s="22"/>
@@ -40448,7 +41007,9 @@
       <c r="AH7" s="26">
         <v>1</v>
       </c>
-      <c r="AI7" s="23"/>
+      <c r="AI7" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ7" s="23"/>
       <c r="AK7" s="23"/>
       <c r="AL7" s="23"/>
@@ -40572,7 +41133,9 @@
       <c r="AH8" s="26">
         <v>5</v>
       </c>
-      <c r="AI8" s="23"/>
+      <c r="AI8" s="26">
+        <v>5</v>
+      </c>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -40697,7 +41260,9 @@
       <c r="AH9" s="26">
         <v>39</v>
       </c>
-      <c r="AI9" s="23"/>
+      <c r="AI9" s="26">
+        <v>56</v>
+      </c>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -40821,7 +41386,9 @@
       <c r="AH10" s="26">
         <v>0</v>
       </c>
-      <c r="AI10" s="23"/>
+      <c r="AI10" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="23"/>
       <c r="AL10" s="23"/>
@@ -40945,7 +41512,9 @@
       <c r="AH11" s="26">
         <v>6</v>
       </c>
-      <c r="AI11" s="23"/>
+      <c r="AI11" s="26">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="23"/>
       <c r="AK11" s="23"/>
       <c r="AL11" s="23"/>
@@ -41069,7 +41638,9 @@
       <c r="AH12" s="26">
         <v>2</v>
       </c>
-      <c r="AI12" s="23"/>
+      <c r="AI12" s="26">
+        <v>2</v>
+      </c>
       <c r="AJ12" s="23"/>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
@@ -41193,7 +41764,9 @@
       <c r="AH13" s="28">
         <v>15</v>
       </c>
-      <c r="AI13" s="22"/>
+      <c r="AI13" s="28">
+        <v>11</v>
+      </c>
       <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
@@ -41317,7 +41890,9 @@
       <c r="AH14" s="26">
         <v>11</v>
       </c>
-      <c r="AI14" s="23"/>
+      <c r="AI14" s="26">
+        <v>13</v>
+      </c>
       <c r="AJ14" s="23"/>
       <c r="AK14" s="23"/>
       <c r="AL14" s="23"/>
@@ -41441,7 +42016,9 @@
       <c r="AH15" s="26">
         <v>1</v>
       </c>
-      <c r="AI15" s="23"/>
+      <c r="AI15" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
       <c r="AL15" s="23"/>
@@ -41566,7 +42143,9 @@
       <c r="AH16" s="28">
         <v>46</v>
       </c>
-      <c r="AI16" s="22"/>
+      <c r="AI16" s="28">
+        <v>68</v>
+      </c>
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
@@ -41690,7 +42269,9 @@
       <c r="AH17" s="28">
         <v>54</v>
       </c>
-      <c r="AI17" s="22"/>
+      <c r="AI17" s="28">
+        <v>51</v>
+      </c>
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
       <c r="AL17" s="22"/>
@@ -41815,7 +42396,9 @@
       <c r="AH18" s="28">
         <v>655</v>
       </c>
-      <c r="AI18" s="22"/>
+      <c r="AI18" s="28">
+        <v>608</v>
+      </c>
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
@@ -41940,7 +42523,9 @@
       <c r="AH19" s="28">
         <v>12</v>
       </c>
-      <c r="AI19" s="22"/>
+      <c r="AI19" s="28">
+        <v>7</v>
+      </c>
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
       <c r="AL19" s="22"/>
@@ -42063,7 +42648,9 @@
       <c r="AH20" s="28">
         <v>30</v>
       </c>
-      <c r="AI20" s="22"/>
+      <c r="AI20" s="28">
+        <v>44</v>
+      </c>
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
       <c r="AL20" s="22"/>
@@ -42186,7 +42773,9 @@
       <c r="AH21" s="28">
         <v>17</v>
       </c>
-      <c r="AI21" s="22"/>
+      <c r="AI21" s="28">
+        <v>11</v>
+      </c>
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
       <c r="AL21" s="22"/>
@@ -42310,7 +42899,9 @@
       <c r="AH22" s="26">
         <v>8</v>
       </c>
-      <c r="AI22" s="23"/>
+      <c r="AI22" s="26">
+        <v>2</v>
+      </c>
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
       <c r="AL22" s="23"/>
@@ -42434,7 +43025,9 @@
       <c r="AH23" s="26">
         <v>3</v>
       </c>
-      <c r="AI23" s="23"/>
+      <c r="AI23" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
       <c r="AL23" s="23"/>
@@ -42558,7 +43151,9 @@
       <c r="AH24" s="28">
         <v>4</v>
       </c>
-      <c r="AI24" s="22"/>
+      <c r="AI24" s="28">
+        <v>4</v>
+      </c>
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
       <c r="AL24" s="22"/>
@@ -42682,7 +43277,9 @@
       <c r="AH25" s="26">
         <v>0</v>
       </c>
-      <c r="AI25" s="23"/>
+      <c r="AI25" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ25" s="23"/>
       <c r="AK25" s="23"/>
       <c r="AL25" s="23"/>
@@ -42806,7 +43403,9 @@
       <c r="AH26" s="26">
         <v>5</v>
       </c>
-      <c r="AI26" s="23"/>
+      <c r="AI26" s="26">
+        <v>5</v>
+      </c>
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
       <c r="AL26" s="23"/>
@@ -42930,7 +43529,9 @@
       <c r="AH27" s="26">
         <v>0</v>
       </c>
-      <c r="AI27" s="23"/>
+      <c r="AI27" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
       <c r="AL27" s="23"/>
@@ -43054,7 +43655,9 @@
       <c r="AH28" s="28">
         <v>0</v>
       </c>
-      <c r="AI28" s="22"/>
+      <c r="AI28" s="28">
+        <v>0</v>
+      </c>
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
       <c r="AL28" s="22"/>
@@ -43178,7 +43781,9 @@
       <c r="AH29" s="26">
         <v>2</v>
       </c>
-      <c r="AI29" s="23"/>
+      <c r="AI29" s="26">
+        <v>2</v>
+      </c>
       <c r="AJ29" s="23"/>
       <c r="AK29" s="23"/>
       <c r="AL29" s="23"/>
@@ -43300,7 +43905,9 @@
       <c r="AH30" s="26">
         <v>0</v>
       </c>
-      <c r="AI30" s="23"/>
+      <c r="AI30" s="26">
+        <v>2</v>
+      </c>
       <c r="AJ30" s="23"/>
       <c r="AK30" s="23"/>
       <c r="AL30" s="23"/>
@@ -43425,7 +44032,9 @@
       <c r="AH31" s="28">
         <v>13</v>
       </c>
-      <c r="AI31" s="22"/>
+      <c r="AI31" s="28">
+        <v>9</v>
+      </c>
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
       <c r="AL31" s="22"/>
@@ -43549,7 +44158,9 @@
       <c r="AH32" s="26">
         <v>1</v>
       </c>
-      <c r="AI32" s="23"/>
+      <c r="AI32" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ32" s="23"/>
       <c r="AK32" s="23"/>
       <c r="AL32" s="23"/>
@@ -43673,7 +44284,9 @@
       <c r="AH33" s="26">
         <v>0</v>
       </c>
-      <c r="AI33" s="23"/>
+      <c r="AI33" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ33" s="23"/>
       <c r="AK33" s="23"/>
       <c r="AL33" s="23"/>
@@ -43798,7 +44411,9 @@
       <c r="AH34" s="28">
         <v>15</v>
       </c>
-      <c r="AI34" s="22"/>
+      <c r="AI34" s="28">
+        <v>15</v>
+      </c>
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
       <c r="AL34" s="22"/>
@@ -43923,7 +44538,9 @@
       <c r="AH35" s="28">
         <v>133</v>
       </c>
-      <c r="AI35" s="22"/>
+      <c r="AI35" s="28">
+        <v>139</v>
+      </c>
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
       <c r="AL35" s="22"/>
@@ -44045,7 +44662,9 @@
       <c r="AH36" s="28">
         <v>2</v>
       </c>
-      <c r="AI36" s="22"/>
+      <c r="AI36" s="28">
+        <v>9</v>
+      </c>
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
       <c r="AL36" s="22"/>
@@ -44170,7 +44789,9 @@
       <c r="AH37" s="28">
         <v>20</v>
       </c>
-      <c r="AI37" s="22"/>
+      <c r="AI37" s="28">
+        <v>17</v>
+      </c>
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
       <c r="AL37" s="22"/>
@@ -44294,7 +44915,9 @@
       <c r="AH38" s="26">
         <v>2</v>
       </c>
-      <c r="AI38" s="23"/>
+      <c r="AI38" s="26">
+        <v>6</v>
+      </c>
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
       <c r="AL38" s="23"/>
@@ -44418,7 +45041,9 @@
       <c r="AH39" s="26">
         <v>2</v>
       </c>
-      <c r="AI39" s="23"/>
+      <c r="AI39" s="26">
+        <v>2</v>
+      </c>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
       <c r="AL39" s="23"/>
@@ -44542,7 +45167,9 @@
       <c r="AH40" s="26">
         <v>0</v>
       </c>
-      <c r="AI40" s="23"/>
+      <c r="AI40" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="23"/>
       <c r="AL40" s="23"/>
@@ -44666,7 +45293,9 @@
       <c r="AH41" s="26">
         <v>0</v>
       </c>
-      <c r="AI41" s="23"/>
+      <c r="AI41" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="23"/>
       <c r="AL41" s="23"/>
@@ -44790,7 +45419,9 @@
       <c r="AH42" s="26">
         <v>1</v>
       </c>
-      <c r="AI42" s="23"/>
+      <c r="AI42" s="26">
+        <v>3</v>
+      </c>
       <c r="AJ42" s="23"/>
       <c r="AK42" s="23"/>
       <c r="AL42" s="23"/>
@@ -44914,7 +45545,9 @@
       <c r="AH43" s="26">
         <v>25</v>
       </c>
-      <c r="AI43" s="23"/>
+      <c r="AI43" s="26">
+        <v>14</v>
+      </c>
       <c r="AJ43" s="23"/>
       <c r="AK43" s="23"/>
       <c r="AL43" s="23"/>
@@ -45038,7 +45671,9 @@
       <c r="AH44" s="26">
         <v>0</v>
       </c>
-      <c r="AI44" s="23"/>
+      <c r="AI44" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ44" s="23"/>
       <c r="AK44" s="23"/>
       <c r="AL44" s="23"/>
@@ -45162,7 +45797,9 @@
       <c r="AH45" s="28">
         <v>3</v>
       </c>
-      <c r="AI45" s="22"/>
+      <c r="AI45" s="28">
+        <v>6</v>
+      </c>
       <c r="AJ45" s="22"/>
       <c r="AK45" s="22"/>
       <c r="AL45" s="22"/>
@@ -45286,7 +45923,9 @@
       <c r="AH46" s="26">
         <v>2</v>
       </c>
-      <c r="AI46" s="23"/>
+      <c r="AI46" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ46" s="23"/>
       <c r="AK46" s="23"/>
       <c r="AL46" s="23"/>
@@ -45410,7 +46049,9 @@
       <c r="AH47" s="26">
         <v>3</v>
       </c>
-      <c r="AI47" s="23"/>
+      <c r="AI47" s="26">
+        <v>2</v>
+      </c>
       <c r="AJ47" s="23"/>
       <c r="AK47" s="23"/>
       <c r="AL47" s="23"/>
@@ -45534,7 +46175,9 @@
       <c r="AH48" s="26">
         <v>2</v>
       </c>
-      <c r="AI48" s="23"/>
+      <c r="AI48" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ48" s="23"/>
       <c r="AK48" s="23"/>
       <c r="AL48" s="23"/>
@@ -45659,7 +46302,9 @@
       <c r="AH49" s="28">
         <v>11</v>
       </c>
-      <c r="AI49" s="22"/>
+      <c r="AI49" s="28">
+        <v>12</v>
+      </c>
       <c r="AJ49" s="22"/>
       <c r="AK49" s="22"/>
       <c r="AL49" s="22"/>
@@ -45781,7 +46426,9 @@
       <c r="AH50" s="28">
         <v>2</v>
       </c>
-      <c r="AI50" s="22"/>
+      <c r="AI50" s="28">
+        <v>2</v>
+      </c>
       <c r="AJ50" s="22"/>
       <c r="AK50" s="22"/>
       <c r="AL50" s="22"/>
@@ -45905,7 +46552,9 @@
       <c r="AH51" s="26">
         <v>0</v>
       </c>
-      <c r="AI51" s="23"/>
+      <c r="AI51" s="26">
+        <v>5</v>
+      </c>
       <c r="AJ51" s="23"/>
       <c r="AK51" s="23"/>
       <c r="AL51" s="23"/>
@@ -46029,7 +46678,9 @@
       <c r="AH52" s="26">
         <v>8</v>
       </c>
-      <c r="AI52" s="23"/>
+      <c r="AI52" s="26">
+        <v>7</v>
+      </c>
       <c r="AJ52" s="23"/>
       <c r="AK52" s="23"/>
       <c r="AL52" s="23"/>
@@ -46153,7 +46804,9 @@
       <c r="AH53" s="26">
         <v>6</v>
       </c>
-      <c r="AI53" s="23"/>
+      <c r="AI53" s="26">
+        <v>7</v>
+      </c>
       <c r="AJ53" s="23"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="23"/>
@@ -46277,7 +46930,9 @@
       <c r="AH54" s="26">
         <v>5</v>
       </c>
-      <c r="AI54" s="23"/>
+      <c r="AI54" s="26">
+        <v>4</v>
+      </c>
       <c r="AJ54" s="23"/>
       <c r="AK54" s="23"/>
       <c r="AL54" s="23"/>
@@ -46401,7 +47056,9 @@
       <c r="AH55" s="26">
         <v>9</v>
       </c>
-      <c r="AI55" s="23"/>
+      <c r="AI55" s="26">
+        <v>8</v>
+      </c>
       <c r="AJ55" s="23"/>
       <c r="AK55" s="23"/>
       <c r="AL55" s="23"/>
@@ -46525,7 +47182,9 @@
       <c r="AH56" s="26">
         <v>0</v>
       </c>
-      <c r="AI56" s="23"/>
+      <c r="AI56" s="26">
+        <v>3</v>
+      </c>
       <c r="AJ56" s="23"/>
       <c r="AK56" s="23"/>
       <c r="AL56" s="23"/>
@@ -46649,7 +47308,9 @@
       <c r="AH57" s="26">
         <v>0</v>
       </c>
-      <c r="AI57" s="23"/>
+      <c r="AI57" s="26">
+        <v>0</v>
+      </c>
       <c r="AJ57" s="23"/>
       <c r="AK57" s="23"/>
       <c r="AL57" s="23"/>
@@ -46703,7 +47364,7 @@
         <v>1305</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" ref="J58:AH58" si="0">SUM(J6:J57)</f>
+        <f t="shared" ref="J58:AI58" si="0">SUM(J6:J57)</f>
         <v>1163</v>
       </c>
       <c r="K58" s="14">
@@ -46802,7 +47463,10 @@
         <f t="shared" si="0"/>
         <v>1233</v>
       </c>
-      <c r="AI58" s="24"/>
+      <c r="AI58" s="14">
+        <f t="shared" si="0"/>
+        <v>1204</v>
+      </c>
       <c r="AJ58" s="24"/>
       <c r="AK58" s="24"/>
       <c r="AL58" s="24"/>
@@ -46928,7 +47592,9 @@
   </sheetData>
   <mergeCells count="64">
     <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="D3:AI3"/>
+    <mergeCell ref="D2:AI2"/>
+    <mergeCell ref="AC1:AI1"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
@@ -46955,8 +47621,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D3:AH3"/>
-    <mergeCell ref="D2:AH2"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\09【大】感染症関係\【中】新型コロナウイルス感染症関係\【小】令和３年度新型コロナウイルス感染症関係\★ コロナ受入困難事例集計\最新データ\DTホームページ公開\20211109\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\31116-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1FD83E-E64C-4D13-91E3-0A63F981E65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -23,8 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$CI$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$CI$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$AJ$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$AJ$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$CJ$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$CJ$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="277">
   <si>
     <t>都道府県</t>
   </si>
@@ -2294,11 +2295,63 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>11/8(月)～
+11/14(日)分
+【11月第2週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単位（件）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/9(月)～
+11/15(日)分
+【11月第2週】</t>
+    <rPh sb="5" eb="6">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;&quot;△ &quot;#,##0"/>
   </numFmts>
@@ -2614,7 +2667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2702,20 +2755,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2723,13 +2773,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2744,15 +2800,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2765,10 +2812,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2803,7 +2859,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="桁区切り" xfId="3" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5160,579 +5216,585 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BQ6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BW6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CF55" sqref="CF55"/>
+      <selection pane="bottomRight" activeCell="CJ4" sqref="CJ4:CJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="56" width="11" style="1" customWidth="1"/>
-    <col min="57" max="82" width="10.9140625" style="1" customWidth="1"/>
-    <col min="83" max="83" width="11.08203125" style="1" customWidth="1"/>
-    <col min="84" max="87" width="11.1640625" style="1" customWidth="1"/>
-    <col min="88" max="16384" width="8.6640625" style="1"/>
+    <col min="57" max="82" width="10.875" style="1" customWidth="1"/>
+    <col min="83" max="88" width="11.125" style="1" customWidth="1"/>
+    <col min="89" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BA1" s="45" t="s">
+    <row r="1" spans="1:88" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BA1" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
       <c r="BD1" s="19"/>
-      <c r="CD1" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="CE1" s="33"/>
-      <c r="CF1" s="33"/>
-      <c r="CG1" s="33"/>
-      <c r="CH1" s="33"/>
-      <c r="CI1" s="33"/>
+      <c r="CD1" s="19"/>
+      <c r="CE1" s="19"/>
+      <c r="CF1" s="19"/>
+      <c r="CG1" s="19"/>
+      <c r="CH1" s="19"/>
+      <c r="CI1" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="CJ1" s="30"/>
     </row>
-    <row r="2" spans="1:87" ht="32.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="32" t="s">
+    <row r="2" spans="1:88" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="32"/>
-      <c r="BP2" s="32"/>
-      <c r="BQ2" s="32"/>
-      <c r="BR2" s="32"/>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32"/>
-      <c r="BU2" s="32"/>
-      <c r="BV2" s="32"/>
-      <c r="BW2" s="32"/>
-      <c r="BX2" s="32"/>
-      <c r="BY2" s="32"/>
-      <c r="BZ2" s="32"/>
-      <c r="CA2" s="32"/>
-      <c r="CB2" s="32"/>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="32"/>
-      <c r="CG2" s="32"/>
-      <c r="CH2" s="32"/>
-      <c r="CI2" s="32"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="31"/>
     </row>
-    <row r="3" spans="1:87" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="31" t="s">
+    <row r="3" spans="1:88" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31" t="s">
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="31"/>
-      <c r="BW3" s="31"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="31"/>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="31"/>
-      <c r="CF3" s="31"/>
-      <c r="CG3" s="31"/>
-      <c r="CH3" s="31"/>
-      <c r="CI3" s="31"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="32"/>
     </row>
-    <row r="4" spans="1:87" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36" t="s">
+    <row r="4" spans="1:88" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="U4" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W4" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="36" t="s">
+      <c r="X4" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="36" t="s">
+      <c r="Z4" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="36" t="s">
+      <c r="AA4" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AC4" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="36" t="s">
+      <c r="AD4" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AE4" s="36" t="s">
+      <c r="AE4" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="AF4" s="36" t="s">
+      <c r="AF4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="36" t="s">
+      <c r="AG4" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" s="36" t="s">
+      <c r="AH4" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="AI4" s="36" t="s">
+      <c r="AI4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="AJ4" s="36" t="s">
+      <c r="AJ4" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="36" t="s">
+      <c r="AK4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="36" t="s">
+      <c r="AL4" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="AM4" s="36" t="s">
+      <c r="AM4" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="36" t="s">
+      <c r="AN4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AO4" s="36" t="s">
+      <c r="AO4" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="36" t="s">
+      <c r="AP4" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="36" t="s">
+      <c r="AQ4" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="AR4" s="30" t="s">
+      <c r="AR4" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="30" t="s">
+      <c r="AS4" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="30" t="s">
+      <c r="AT4" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="30" t="s">
+      <c r="AU4" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="AV4" s="30" t="s">
+      <c r="AV4" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="AW4" s="30" t="s">
+      <c r="AW4" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" s="30" t="s">
+      <c r="AX4" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="AY4" s="30" t="s">
+      <c r="AY4" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="AZ4" s="30" t="s">
+      <c r="AZ4" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="30" t="s">
+      <c r="BA4" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="BB4" s="30" t="s">
+      <c r="BB4" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="BC4" s="30" t="s">
+      <c r="BC4" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="BD4" s="29" t="s">
+      <c r="BD4" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="BE4" s="29" t="s">
+      <c r="BE4" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BF4" s="29" t="s">
+      <c r="BF4" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="29" t="s">
+      <c r="BG4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BH4" s="29" t="s">
+      <c r="BH4" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="BI4" s="29" t="s">
+      <c r="BI4" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="BJ4" s="29" t="s">
+      <c r="BJ4" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="BK4" s="29" t="s">
+      <c r="BK4" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="BL4" s="29" t="s">
+      <c r="BL4" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="BM4" s="29" t="s">
+      <c r="BM4" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="BN4" s="29" t="s">
+      <c r="BN4" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="BO4" s="29" t="s">
+      <c r="BO4" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="29" t="s">
+      <c r="BP4" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="BQ4" s="29" t="s">
+      <c r="BQ4" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="BR4" s="29" t="s">
+      <c r="BR4" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="BS4" s="29" t="s">
+      <c r="BS4" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="BT4" s="29" t="s">
+      <c r="BT4" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="BU4" s="29" t="s">
+      <c r="BU4" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="BV4" s="29" t="s">
+      <c r="BV4" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="30" t="s">
+      <c r="BW4" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="30" t="s">
+      <c r="BX4" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="30" t="s">
+      <c r="BY4" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="30" t="s">
+      <c r="BZ4" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="30" t="s">
+      <c r="CA4" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="30" t="s">
+      <c r="CB4" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="30" t="s">
+      <c r="CC4" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="30" t="s">
+      <c r="CD4" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="CE4" s="34" t="s">
+      <c r="CE4" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="CF4" s="34" t="s">
+      <c r="CF4" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="CG4" s="34" t="s">
+      <c r="CG4" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="CH4" s="34" t="s">
+      <c r="CH4" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="CI4" s="34" t="s">
+      <c r="CI4" s="33" t="s">
         <v>272</v>
       </c>
+      <c r="CJ4" s="33" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="38"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="30"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="30"/>
-      <c r="AW5" s="30"/>
-      <c r="AX5" s="30"/>
-      <c r="AY5" s="30"/>
-      <c r="AZ5" s="30"/>
-      <c r="BA5" s="30"/>
-      <c r="BB5" s="30"/>
-      <c r="BC5" s="30"/>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BI5" s="30"/>
-      <c r="BJ5" s="30"/>
-      <c r="BK5" s="30"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
-      <c r="BR5" s="30"/>
-      <c r="BS5" s="30"/>
-      <c r="BT5" s="30"/>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30"/>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="30"/>
-      <c r="CA5" s="30"/>
-      <c r="CB5" s="30"/>
-      <c r="CC5" s="30"/>
-      <c r="CD5" s="30"/>
-      <c r="CE5" s="35"/>
-      <c r="CF5" s="35"/>
-      <c r="CG5" s="35"/>
-      <c r="CH5" s="35"/>
-      <c r="CI5" s="35"/>
+    <row r="5" spans="1:88" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="49"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="36"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="36"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="36"/>
+      <c r="BS5" s="36"/>
+      <c r="BT5" s="36"/>
+      <c r="BU5" s="36"/>
+      <c r="BV5" s="36"/>
+      <c r="BW5" s="36"/>
+      <c r="BX5" s="36"/>
+      <c r="BY5" s="36"/>
+      <c r="BZ5" s="36"/>
+      <c r="CA5" s="36"/>
+      <c r="CB5" s="36"/>
+      <c r="CC5" s="36"/>
+      <c r="CD5" s="36"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
+      <c r="CJ5" s="34"/>
     </row>
-    <row r="6" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -5992,8 +6054,11 @@
       <c r="CI6" s="28">
         <v>48</v>
       </c>
+      <c r="CJ6" s="28">
+        <v>74</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -6252,8 +6317,11 @@
       <c r="CI7" s="26">
         <v>0</v>
       </c>
+      <c r="CJ7" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -6512,8 +6580,11 @@
       <c r="CI8" s="26">
         <v>5</v>
       </c>
+      <c r="CJ8" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -6773,8 +6844,11 @@
       <c r="CI9" s="26">
         <v>57</v>
       </c>
+      <c r="CJ9" s="26">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -7033,8 +7107,11 @@
       <c r="CI10" s="26">
         <v>0</v>
       </c>
+      <c r="CJ10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -7293,8 +7370,11 @@
       <c r="CI11" s="26">
         <v>5</v>
       </c>
+      <c r="CJ11" s="26">
+        <v>11</v>
+      </c>
     </row>
-    <row r="12" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -7553,8 +7633,11 @@
       <c r="CI12" s="26">
         <v>2</v>
       </c>
+      <c r="CJ12" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -7813,8 +7896,11 @@
       <c r="CI13" s="28">
         <v>15</v>
       </c>
+      <c r="CJ13" s="28">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -8073,8 +8159,11 @@
       <c r="CI14" s="26">
         <v>18</v>
       </c>
+      <c r="CJ14" s="26">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -8333,8 +8422,11 @@
       <c r="CI15" s="26">
         <v>0</v>
       </c>
+      <c r="CJ15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -8594,8 +8686,11 @@
       <c r="CI16" s="28">
         <v>68</v>
       </c>
+      <c r="CJ16" s="28">
+        <v>58</v>
+      </c>
     </row>
-    <row r="17" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -8854,8 +8949,11 @@
       <c r="CI17" s="28">
         <v>80</v>
       </c>
+      <c r="CJ17" s="28">
+        <v>58</v>
+      </c>
     </row>
-    <row r="18" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -9115,10 +9213,13 @@
       <c r="CI18" s="28">
         <v>706</v>
       </c>
+      <c r="CJ18" s="28">
+        <v>701</v>
+      </c>
     </row>
-    <row r="19" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -9376,10 +9477,13 @@
       <c r="CI19" s="28">
         <v>17</v>
       </c>
+      <c r="CJ19" s="28">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="41"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -9635,10 +9739,13 @@
       <c r="CI20" s="28">
         <v>76</v>
       </c>
+      <c r="CJ20" s="28">
+        <v>64</v>
+      </c>
     </row>
-    <row r="21" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -9894,8 +10001,11 @@
       <c r="CI21" s="28">
         <v>15</v>
       </c>
+      <c r="CJ21" s="28">
+        <v>13</v>
+      </c>
     </row>
-    <row r="22" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -10154,8 +10264,11 @@
       <c r="CI22" s="26">
         <v>2</v>
       </c>
+      <c r="CJ22" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -10414,8 +10527,11 @@
       <c r="CI23" s="26">
         <v>0</v>
       </c>
+      <c r="CJ23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -10674,8 +10790,11 @@
       <c r="CI24" s="28">
         <v>4</v>
       </c>
+      <c r="CJ24" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -10934,8 +11053,11 @@
       <c r="CI25" s="26">
         <v>0</v>
       </c>
+      <c r="CJ25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -11194,8 +11316,11 @@
       <c r="CI26" s="26">
         <v>7</v>
       </c>
+      <c r="CJ26" s="26">
+        <v>14</v>
+      </c>
     </row>
-    <row r="27" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -11454,8 +11579,11 @@
       <c r="CI27" s="26">
         <v>0</v>
       </c>
+      <c r="CJ27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -11714,9 +11842,12 @@
       <c r="CI28" s="28">
         <v>0</v>
       </c>
+      <c r="CJ28" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="42" t="s">
+    <row r="29" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -11974,9 +12105,12 @@
       <c r="CI29" s="26">
         <v>2</v>
       </c>
+      <c r="CJ29" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="42"/>
+    <row r="30" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="43"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -12232,8 +12366,11 @@
       <c r="CI30" s="26">
         <v>3</v>
       </c>
+      <c r="CJ30" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -12493,8 +12630,11 @@
       <c r="CI31" s="28">
         <v>13</v>
       </c>
+      <c r="CJ31" s="28">
+        <v>13</v>
+      </c>
     </row>
-    <row r="32" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -12753,8 +12893,11 @@
       <c r="CI32" s="26">
         <v>0</v>
       </c>
+      <c r="CJ32" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -13013,8 +13156,11 @@
       <c r="CI33" s="26">
         <v>0</v>
       </c>
+      <c r="CJ33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -13274,10 +13420,13 @@
       <c r="CI34" s="28">
         <v>17</v>
       </c>
+      <c r="CJ34" s="28">
+        <v>33</v>
+      </c>
     </row>
-    <row r="35" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -13535,9 +13684,12 @@
       <c r="CI35" s="28">
         <v>182</v>
       </c>
+      <c r="CJ35" s="28">
+        <v>178</v>
+      </c>
     </row>
-    <row r="36" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="41"/>
+    <row r="36" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="42"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -13793,8 +13945,11 @@
       <c r="CI36" s="28">
         <v>13</v>
       </c>
+      <c r="CJ36" s="28">
+        <v>26</v>
+      </c>
     </row>
-    <row r="37" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -14054,8 +14209,11 @@
       <c r="CI37" s="28">
         <v>23</v>
       </c>
+      <c r="CJ37" s="28">
+        <v>14</v>
+      </c>
     </row>
-    <row r="38" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -14314,8 +14472,11 @@
       <c r="CI38" s="26">
         <v>6</v>
       </c>
+      <c r="CJ38" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="39" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -14574,8 +14735,11 @@
       <c r="CI39" s="26">
         <v>3</v>
       </c>
+      <c r="CJ39" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -14834,8 +14998,11 @@
       <c r="CI40" s="26">
         <v>0</v>
       </c>
+      <c r="CJ40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -15094,8 +15261,11 @@
       <c r="CI41" s="26">
         <v>0</v>
       </c>
+      <c r="CJ41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -15354,8 +15524,11 @@
       <c r="CI42" s="26">
         <v>4</v>
       </c>
+      <c r="CJ42" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -15614,8 +15787,11 @@
       <c r="CI43" s="26">
         <v>30</v>
       </c>
+      <c r="CJ43" s="26">
+        <v>40</v>
+      </c>
     </row>
-    <row r="44" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -15874,8 +16050,11 @@
       <c r="CI44" s="26">
         <v>0</v>
       </c>
+      <c r="CJ44" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -16134,8 +16313,11 @@
       <c r="CI45" s="28">
         <v>6</v>
       </c>
+      <c r="CJ45" s="28">
+        <v>11</v>
+      </c>
     </row>
-    <row r="46" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -16394,8 +16576,11 @@
       <c r="CI46" s="26">
         <v>2</v>
       </c>
+      <c r="CJ46" s="26">
+        <v>13</v>
+      </c>
     </row>
-    <row r="47" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -16654,8 +16839,11 @@
       <c r="CI47" s="26">
         <v>4</v>
       </c>
+      <c r="CJ47" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -16914,10 +17102,13 @@
       <c r="CI48" s="26">
         <v>3</v>
       </c>
+      <c r="CJ48" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="42" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -17175,9 +17366,12 @@
       <c r="CI49" s="28">
         <v>12</v>
       </c>
+      <c r="CJ49" s="28">
+        <v>20</v>
+      </c>
     </row>
-    <row r="50" spans="1:87" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="41"/>
+    <row r="50" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="42"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -17433,8 +17627,11 @@
       <c r="CI50" s="28">
         <v>2</v>
       </c>
+      <c r="CJ50" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="51" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -17693,8 +17890,11 @@
       <c r="CI51" s="26">
         <v>5</v>
       </c>
+      <c r="CJ51" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -17953,8 +18153,11 @@
       <c r="CI52" s="26">
         <v>8</v>
       </c>
+      <c r="CJ52" s="26">
+        <v>17</v>
+      </c>
     </row>
-    <row r="53" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -18213,8 +18416,11 @@
       <c r="CI53" s="26">
         <v>7</v>
       </c>
+      <c r="CJ53" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="54" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -18473,8 +18679,11 @@
       <c r="CI54" s="26">
         <v>7</v>
       </c>
+      <c r="CJ54" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -18733,8 +18942,11 @@
       <c r="CI55" s="26">
         <v>8</v>
       </c>
+      <c r="CJ55" s="26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="56" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -18993,8 +19205,11 @@
       <c r="CI56" s="26">
         <v>3</v>
       </c>
+      <c r="CJ56" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -19253,8 +19468,11 @@
       <c r="CI57" s="26">
         <v>0</v>
       </c>
+      <c r="CJ57" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -19540,7 +19758,7 @@
         <v>2376</v>
       </c>
       <c r="BV58" s="14">
-        <f t="shared" ref="BV58:CI58" si="3">SUM(BV6:BV57)</f>
+        <f t="shared" ref="BV58:CJ58" si="3">SUM(BV6:BV57)</f>
         <v>2897</v>
       </c>
       <c r="BW58" s="14">
@@ -19595,8 +19813,12 @@
         <f t="shared" si="3"/>
         <v>1488</v>
       </c>
+      <c r="CJ58" s="14">
+        <f t="shared" si="3"/>
+        <v>1544</v>
+      </c>
     </row>
-    <row r="59" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -19680,7 +19902,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -19764,30 +19986,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:87" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="41"/>
+      <c r="W61" s="41"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -19849,71 +20071,8 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="BD3:CI3"/>
-    <mergeCell ref="BD2:CI2"/>
-    <mergeCell ref="CD1:CI1"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="Q4:Q5"/>
+  <mergeCells count="100">
     <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="D2:BC2"/>
-    <mergeCell ref="AR3:BC3"/>
-    <mergeCell ref="D3:AQ3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="D61:W61"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="AX4:AX5"/>
@@ -19922,13 +20081,68 @@
     <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="D2:BC2"/>
+    <mergeCell ref="AR3:BC3"/>
+    <mergeCell ref="D3:AQ3"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="D61:W61"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AU4:AU5"/>
     <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BW4:BW5"/>
@@ -19945,10 +20159,19 @@
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="CI1:CJ1"/>
+    <mergeCell ref="BD2:CJ2"/>
+    <mergeCell ref="BD3:CJ3"/>
     <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BK4:BK5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19961,579 +20184,585 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:CI58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:CJ58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BP56" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BX8" sqref="BX8"/>
+      <selection pane="bottomRight" activeCell="CB49" sqref="CB49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="55" width="11" style="1" customWidth="1"/>
-    <col min="56" max="82" width="10.9140625" style="1" customWidth="1"/>
-    <col min="83" max="83" width="11.08203125" style="1" customWidth="1"/>
-    <col min="84" max="87" width="11.1640625" style="1" customWidth="1"/>
-    <col min="88" max="16384" width="8.6640625" style="1"/>
+    <col min="56" max="82" width="10.875" style="1" customWidth="1"/>
+    <col min="83" max="88" width="11.125" style="1" customWidth="1"/>
+    <col min="89" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:87" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="BB1" s="50" t="s">
+    <row r="1" spans="2:88" ht="24" x14ac:dyDescent="0.4">
+      <c r="BB1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="50"/>
+      <c r="BC1" s="52"/>
       <c r="BI1" s="18"/>
-      <c r="CC1" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
-      <c r="CI1" s="51"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="CJ1" s="51"/>
     </row>
-    <row r="2" spans="2:87" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="32" t="s">
+    <row r="2" spans="2:88" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="32"/>
-      <c r="BP2" s="32"/>
-      <c r="BQ2" s="32"/>
-      <c r="BR2" s="32"/>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32"/>
-      <c r="BU2" s="32"/>
-      <c r="BV2" s="32"/>
-      <c r="BW2" s="32"/>
-      <c r="BX2" s="32"/>
-      <c r="BY2" s="32"/>
-      <c r="BZ2" s="32"/>
-      <c r="CA2" s="32"/>
-      <c r="CB2" s="32"/>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="32"/>
-      <c r="CG2" s="32"/>
-      <c r="CH2" s="32"/>
-      <c r="CI2" s="32"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="31"/>
     </row>
-    <row r="3" spans="2:87" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="31" t="s">
+    <row r="3" spans="2:88" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31" t="s">
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="31"/>
-      <c r="BW3" s="31"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="31"/>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="31"/>
-      <c r="CF3" s="31"/>
-      <c r="CG3" s="31"/>
-      <c r="CH3" s="31"/>
-      <c r="CI3" s="31"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="32"/>
     </row>
-    <row r="4" spans="2:87" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="2:88" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="52" t="s">
+      <c r="X4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="52" t="s">
+      <c r="AA4" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="52" t="s">
+      <c r="AB4" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="52" t="s">
+      <c r="AD4" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="52" t="s">
+      <c r="AE4" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="52" t="s">
+      <c r="AF4" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="52" t="s">
+      <c r="AG4" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AH4" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="52" t="s">
+      <c r="AI4" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="52" t="s">
+      <c r="AJ4" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="52" t="s">
+      <c r="AK4" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="52" t="s">
+      <c r="AL4" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="52" t="s">
+      <c r="AM4" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="52" t="s">
+      <c r="AN4" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="52" t="s">
+      <c r="AO4" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="52" t="s">
+      <c r="AP4" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="52" t="s">
+      <c r="AQ4" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="52" t="s">
+      <c r="AR4" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="52" t="s">
+      <c r="AS4" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="52" t="s">
+      <c r="AT4" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="52" t="s">
+      <c r="AU4" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="52" t="s">
+      <c r="AV4" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="52" t="s">
+      <c r="AW4" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="52" t="s">
+      <c r="AX4" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="52" t="s">
+      <c r="AY4" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="52" t="s">
+      <c r="AZ4" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="52" t="s">
+      <c r="BA4" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="52" t="s">
+      <c r="BB4" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="52" t="s">
+      <c r="BC4" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="BD4" s="30" t="s">
+      <c r="BD4" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="BE4" s="30" t="s">
+      <c r="BE4" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" s="30" t="s">
+      <c r="BF4" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="BG4" s="30" t="s">
+      <c r="BG4" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" s="30" t="s">
+      <c r="BH4" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="BI4" s="30" t="s">
+      <c r="BI4" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="BJ4" s="30" t="s">
+      <c r="BJ4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="BK4" s="30" t="s">
+      <c r="BK4" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BL4" s="30" t="s">
+      <c r="BL4" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="BM4" s="30" t="s">
+      <c r="BM4" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="BN4" s="30" t="s">
+      <c r="BN4" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="BO4" s="30" t="s">
+      <c r="BO4" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="BP4" s="30" t="s">
+      <c r="BP4" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="BQ4" s="30" t="s">
+      <c r="BQ4" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="BR4" s="30" t="s">
+      <c r="BR4" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="BS4" s="30" t="s">
+      <c r="BS4" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="BT4" s="30" t="s">
+      <c r="BT4" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="BU4" s="30" t="s">
+      <c r="BU4" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="BV4" s="30" t="s">
+      <c r="BV4" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="BW4" s="30" t="s">
+      <c r="BW4" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="BX4" s="30" t="s">
+      <c r="BX4" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="BY4" s="30" t="s">
+      <c r="BY4" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="BZ4" s="30" t="s">
+      <c r="BZ4" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="CA4" s="30" t="s">
+      <c r="CA4" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="CB4" s="30" t="s">
+      <c r="CB4" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="30" t="s">
+      <c r="CC4" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="30" t="s">
+      <c r="CD4" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="CE4" s="34" t="s">
+      <c r="CE4" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="CF4" s="34" t="s">
+      <c r="CF4" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="CG4" s="34" t="s">
+      <c r="CG4" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="CH4" s="34" t="s">
+      <c r="CH4" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="CI4" s="34" t="s">
+      <c r="CI4" s="33" t="s">
         <v>273</v>
       </c>
+      <c r="CJ4" s="33" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="5" spans="2:87" ht="54.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="38"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BI5" s="30"/>
-      <c r="BJ5" s="30"/>
-      <c r="BK5" s="30"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
-      <c r="BR5" s="30"/>
-      <c r="BS5" s="30"/>
-      <c r="BT5" s="30"/>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30"/>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="30"/>
-      <c r="CA5" s="30"/>
-      <c r="CB5" s="30"/>
-      <c r="CC5" s="30"/>
-      <c r="CD5" s="30"/>
-      <c r="CE5" s="35"/>
-      <c r="CF5" s="35"/>
-      <c r="CG5" s="35"/>
-      <c r="CH5" s="35"/>
-      <c r="CI5" s="35"/>
+    <row r="5" spans="2:88" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="49"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="54"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="54"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="36"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="36"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="36"/>
+      <c r="BS5" s="36"/>
+      <c r="BT5" s="36"/>
+      <c r="BU5" s="36"/>
+      <c r="BV5" s="36"/>
+      <c r="BW5" s="36"/>
+      <c r="BX5" s="36"/>
+      <c r="BY5" s="36"/>
+      <c r="BZ5" s="36"/>
+      <c r="CA5" s="36"/>
+      <c r="CB5" s="36"/>
+      <c r="CC5" s="36"/>
+      <c r="CD5" s="36"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
+      <c r="CJ5" s="34"/>
     </row>
-    <row r="6" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -20792,8 +21021,11 @@
       <c r="CI6" s="26">
         <v>63</v>
       </c>
+      <c r="CJ6" s="26">
+        <v>73</v>
+      </c>
     </row>
-    <row r="7" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -21052,8 +21284,11 @@
       <c r="CI7" s="26">
         <v>0</v>
       </c>
+      <c r="CJ7" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -21312,8 +21547,11 @@
       <c r="CI8" s="26">
         <v>6</v>
       </c>
+      <c r="CJ8" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -21572,8 +21810,11 @@
       <c r="CI9" s="26">
         <v>38</v>
       </c>
+      <c r="CJ9" s="26">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -21832,8 +22073,11 @@
       <c r="CI10" s="26">
         <v>0</v>
       </c>
+      <c r="CJ10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -22092,8 +22336,11 @@
       <c r="CI11" s="26">
         <v>9</v>
       </c>
+      <c r="CJ11" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -22352,8 +22599,11 @@
       <c r="CI12" s="26">
         <v>2</v>
       </c>
+      <c r="CJ12" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -22612,8 +22862,11 @@
       <c r="CI13" s="26">
         <v>9</v>
       </c>
+      <c r="CJ13" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -22872,8 +23125,11 @@
       <c r="CI14" s="26">
         <v>1</v>
       </c>
+      <c r="CJ14" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -23132,8 +23388,11 @@
       <c r="CI15" s="26">
         <v>0</v>
       </c>
+      <c r="CJ15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -23392,8 +23651,11 @@
       <c r="CI16" s="26">
         <v>36</v>
       </c>
+      <c r="CJ16" s="26">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -23652,8 +23914,11 @@
       <c r="CI17" s="26">
         <v>71</v>
       </c>
+      <c r="CJ17" s="26">
+        <v>53</v>
+      </c>
     </row>
-    <row r="18" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -23912,9 +24177,12 @@
       <c r="CI18" s="26">
         <v>552</v>
       </c>
+      <c r="CJ18" s="26">
+        <v>637</v>
+      </c>
     </row>
-    <row r="19" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="41" t="s">
+    <row r="19" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="42" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -24172,9 +24440,12 @@
       <c r="CI19" s="26">
         <v>20</v>
       </c>
+      <c r="CJ19" s="26">
+        <v>23</v>
+      </c>
     </row>
-    <row r="20" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="41"/>
+    <row r="20" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="42"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -24430,9 +24701,12 @@
       <c r="CI20" s="26">
         <v>65</v>
       </c>
+      <c r="CJ20" s="26">
+        <v>73</v>
+      </c>
     </row>
-    <row r="21" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="41"/>
+    <row r="21" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="42"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -24688,8 +24962,11 @@
       <c r="CI21" s="26">
         <v>23</v>
       </c>
+      <c r="CJ21" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -24948,8 +25225,11 @@
       <c r="CI22" s="26">
         <v>13</v>
       </c>
+      <c r="CJ22" s="26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="23" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -25208,8 +25488,11 @@
       <c r="CI23" s="26">
         <v>0</v>
       </c>
+      <c r="CJ23" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -25468,8 +25751,11 @@
       <c r="CI24" s="26">
         <v>8</v>
       </c>
+      <c r="CJ24" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -25728,8 +26014,11 @@
       <c r="CI25" s="26">
         <v>0</v>
       </c>
+      <c r="CJ25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -25988,8 +26277,11 @@
       <c r="CI26" s="26">
         <v>3</v>
       </c>
+      <c r="CJ26" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -26248,8 +26540,11 @@
       <c r="CI27" s="26">
         <v>0</v>
       </c>
+      <c r="CJ27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -26508,9 +26803,12 @@
       <c r="CI28" s="26">
         <v>1</v>
       </c>
+      <c r="CJ28" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="42" t="s">
+    <row r="29" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -26768,9 +27066,12 @@
       <c r="CI29" s="26">
         <v>1</v>
       </c>
+      <c r="CJ29" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="42"/>
+    <row r="30" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="43"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -27026,8 +27327,11 @@
       <c r="CI30" s="26">
         <v>0</v>
       </c>
+      <c r="CJ30" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -27286,8 +27590,11 @@
       <c r="CI31" s="26">
         <v>9</v>
       </c>
+      <c r="CJ31" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -27546,8 +27853,11 @@
       <c r="CI32" s="26">
         <v>0</v>
       </c>
+      <c r="CJ32" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -27806,8 +28116,11 @@
       <c r="CI33" s="26">
         <v>0</v>
       </c>
+      <c r="CJ33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -28066,9 +28379,12 @@
       <c r="CI34" s="26">
         <v>15</v>
       </c>
+      <c r="CJ34" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="35" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="41" t="s">
+    <row r="35" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -28326,9 +28642,12 @@
       <c r="CI35" s="26">
         <v>177</v>
       </c>
+      <c r="CJ35" s="26">
+        <v>186</v>
+      </c>
     </row>
-    <row r="36" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="41"/>
+    <row r="36" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="42"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -28584,8 +28903,11 @@
       <c r="CI36" s="26">
         <v>11</v>
       </c>
+      <c r="CJ36" s="26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="37" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -28844,8 +29166,11 @@
       <c r="CI37" s="26">
         <v>7</v>
       </c>
+      <c r="CJ37" s="26">
+        <v>14</v>
+      </c>
     </row>
-    <row r="38" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -29104,8 +29429,11 @@
       <c r="CI38" s="26">
         <v>6</v>
       </c>
+      <c r="CJ38" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -29364,8 +29692,11 @@
       <c r="CI39" s="26">
         <v>2</v>
       </c>
+      <c r="CJ39" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -29624,8 +29955,11 @@
       <c r="CI40" s="26">
         <v>0</v>
       </c>
+      <c r="CJ40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -29884,8 +30218,11 @@
       <c r="CI41" s="26">
         <v>0</v>
       </c>
+      <c r="CJ41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -30144,8 +30481,11 @@
       <c r="CI42" s="26">
         <v>1</v>
       </c>
+      <c r="CJ42" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -30404,8 +30744,11 @@
       <c r="CI43" s="26">
         <v>38</v>
       </c>
+      <c r="CJ43" s="26">
+        <v>24</v>
+      </c>
     </row>
-    <row r="44" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -30664,8 +31007,11 @@
       <c r="CI44" s="26">
         <v>4</v>
       </c>
+      <c r="CJ44" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="45" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -30924,8 +31270,11 @@
       <c r="CI45" s="26">
         <v>4</v>
       </c>
+      <c r="CJ45" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="46" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -31184,8 +31533,11 @@
       <c r="CI46" s="26">
         <v>4</v>
       </c>
+      <c r="CJ46" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="47" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -31444,8 +31796,11 @@
       <c r="CI47" s="26">
         <v>1</v>
       </c>
+      <c r="CJ47" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -31704,9 +32059,12 @@
       <c r="CI48" s="26">
         <v>1</v>
       </c>
+      <c r="CJ48" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="41" t="s">
+    <row r="49" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="42" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -31964,9 +32322,12 @@
       <c r="CI49" s="26">
         <v>13</v>
       </c>
+      <c r="CJ49" s="26">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="41"/>
+    <row r="50" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="42"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -32222,8 +32583,11 @@
       <c r="CI50" s="26">
         <v>2</v>
       </c>
+      <c r="CJ50" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -32482,8 +32846,11 @@
       <c r="CI51" s="26">
         <v>1</v>
       </c>
+      <c r="CJ51" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -32742,8 +33109,11 @@
       <c r="CI52" s="26">
         <v>3</v>
       </c>
+      <c r="CJ52" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -33002,8 +33372,11 @@
       <c r="CI53" s="26">
         <v>9</v>
       </c>
+      <c r="CJ53" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="54" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -33262,8 +33635,11 @@
       <c r="CI54" s="26">
         <v>6</v>
       </c>
+      <c r="CJ54" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -33522,8 +33898,11 @@
       <c r="CI55" s="26">
         <v>5</v>
       </c>
+      <c r="CJ55" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="56" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -33782,8 +34161,11 @@
       <c r="CI56" s="26">
         <v>1</v>
       </c>
+      <c r="CJ56" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -34042,8 +34424,11 @@
       <c r="CI57" s="26">
         <v>0</v>
       </c>
+      <c r="CJ57" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="2:87" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -34324,7 +34709,7 @@
         <v>1344</v>
       </c>
       <c r="BU58" s="25">
-        <f t="shared" ref="BU58:CI58" si="3">SUM(BU6:BU57)</f>
+        <f t="shared" ref="BU58:CJ58" si="3">SUM(BU6:BU57)</f>
         <v>1160</v>
       </c>
       <c r="BV58" s="25">
@@ -34383,26 +34768,14 @@
         <f t="shared" si="3"/>
         <v>1241</v>
       </c>
+      <c r="CJ58" s="25">
+        <f t="shared" si="3"/>
+        <v>1296</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="BD3:CI3"/>
-    <mergeCell ref="BD2:CI2"/>
-    <mergeCell ref="CC1:CI1"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BL4:BL5"/>
+  <mergeCells count="99">
     <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="BG4:BG5"/>
     <mergeCell ref="AY4:AY5"/>
@@ -34434,8 +34807,6 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="W4:W5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -34450,11 +34821,11 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:BC2"/>
@@ -34469,7 +34840,8 @@
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BZ4:BZ5"/>
     <mergeCell ref="CA4:CA5"/>
@@ -34484,6 +34856,24 @@
     <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="CI1:CJ1"/>
+    <mergeCell ref="BD3:CJ3"/>
+    <mergeCell ref="BD2:CJ2"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BL4:BL5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -34496,257 +34886,264 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ61"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="T57" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AK56" sqref="AK56"/>
+      <selection pane="bottomRight" activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="33" width="10.9140625" style="1" customWidth="1"/>
+    <col min="5" max="33" width="10.875" style="1" customWidth="1"/>
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.9140625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.6640625" style="1"/>
+    <col min="35" max="36" width="10.875" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
-      <c r="AC1" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ1" s="30"/>
     </row>
-    <row r="2" spans="1:35" ht="32.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="54" t="s">
+    <row r="2" spans="1:36" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
     </row>
-    <row r="3" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="31" t="s">
+    <row r="3" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
     </row>
-    <row r="4" spans="1:35" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="30" t="s">
+    <row r="4" spans="1:36" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="X4" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="30" t="s">
+      <c r="AA4" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="30" t="s">
+      <c r="AC4" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AD4" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AF4" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="AG4" s="34" t="s">
+      <c r="AG4" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="34" t="s">
+      <c r="AH4" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="AI4" s="34" t="s">
+      <c r="AI4" s="33" t="s">
         <v>272</v>
       </c>
+      <c r="AJ4" s="33" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="38"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
+    <row r="5" spans="1:36" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="49"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
     </row>
-    <row r="6" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -34850,8 +35247,11 @@
       <c r="AI6" s="28">
         <v>8</v>
       </c>
+      <c r="AJ6" s="28">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -34954,8 +35354,11 @@
       <c r="AI7" s="26">
         <v>0</v>
       </c>
+      <c r="AJ7" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -35058,8 +35461,11 @@
       <c r="AI8" s="26">
         <v>0</v>
       </c>
+      <c r="AJ8" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -35163,8 +35569,11 @@
       <c r="AI9" s="26">
         <v>1</v>
       </c>
+      <c r="AJ9" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -35267,8 +35676,11 @@
       <c r="AI10" s="26">
         <v>0</v>
       </c>
+      <c r="AJ10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -35371,8 +35783,11 @@
       <c r="AI11" s="26">
         <v>2</v>
       </c>
+      <c r="AJ11" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -35475,8 +35890,11 @@
       <c r="AI12" s="26">
         <v>0</v>
       </c>
+      <c r="AJ12" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -35579,8 +35997,11 @@
       <c r="AI13" s="28">
         <v>4</v>
       </c>
+      <c r="AJ13" s="28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -35683,8 +36104,11 @@
       <c r="AI14" s="26">
         <v>5</v>
       </c>
+      <c r="AJ14" s="26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -35787,8 +36211,11 @@
       <c r="AI15" s="26">
         <v>0</v>
       </c>
+      <c r="AJ15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -35892,8 +36319,11 @@
       <c r="AI16" s="28">
         <v>0</v>
       </c>
+      <c r="AJ16" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -35996,8 +36426,11 @@
       <c r="AI17" s="28">
         <v>29</v>
       </c>
+      <c r="AJ17" s="28">
+        <v>18</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -36101,10 +36534,13 @@
       <c r="AI18" s="28">
         <v>98</v>
       </c>
+      <c r="AJ18" s="28">
+        <v>96</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -36206,10 +36642,13 @@
       <c r="AI19" s="28">
         <v>10</v>
       </c>
+      <c r="AJ19" s="28">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -36309,10 +36748,13 @@
       <c r="AI20" s="28">
         <v>32</v>
       </c>
+      <c r="AJ20" s="28">
+        <v>26</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -36412,8 +36854,11 @@
       <c r="AI21" s="28">
         <v>4</v>
       </c>
+      <c r="AJ21" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -36516,8 +36961,11 @@
       <c r="AI22" s="26">
         <v>0</v>
       </c>
+      <c r="AJ22" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -36620,8 +37068,11 @@
       <c r="AI23" s="26">
         <v>0</v>
       </c>
+      <c r="AJ23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -36724,8 +37175,11 @@
       <c r="AI24" s="28">
         <v>0</v>
       </c>
+      <c r="AJ24" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -36828,8 +37282,11 @@
       <c r="AI25" s="26">
         <v>0</v>
       </c>
+      <c r="AJ25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -36932,8 +37389,11 @@
       <c r="AI26" s="26">
         <v>2</v>
       </c>
+      <c r="AJ26" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -37036,8 +37496,11 @@
       <c r="AI27" s="26">
         <v>0</v>
       </c>
+      <c r="AJ27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -37140,9 +37603,12 @@
       <c r="AI28" s="28">
         <v>0</v>
       </c>
+      <c r="AJ28" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="57" t="s">
+    <row r="29" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -37244,9 +37710,12 @@
       <c r="AI29" s="26">
         <v>0</v>
       </c>
+      <c r="AJ29" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="58"/>
+    <row r="30" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="59"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -37346,8 +37815,11 @@
       <c r="AI30" s="26">
         <v>1</v>
       </c>
+      <c r="AJ30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -37451,8 +37923,11 @@
       <c r="AI31" s="28">
         <v>4</v>
       </c>
+      <c r="AJ31" s="28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -37555,8 +38030,11 @@
       <c r="AI32" s="26">
         <v>0</v>
       </c>
+      <c r="AJ32" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -37659,8 +38137,11 @@
       <c r="AI33" s="26">
         <v>0</v>
       </c>
+      <c r="AJ33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -37764,10 +38245,13 @@
       <c r="AI34" s="28">
         <v>2</v>
       </c>
+      <c r="AJ34" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -37869,9 +38353,12 @@
       <c r="AI35" s="28">
         <v>43</v>
       </c>
+      <c r="AJ35" s="28">
+        <v>19</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="56"/>
+    <row r="36" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="57"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -37971,8 +38458,11 @@
       <c r="AI36" s="28">
         <v>4</v>
       </c>
+      <c r="AJ36" s="28">
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -38076,8 +38566,11 @@
       <c r="AI37" s="28">
         <v>6</v>
       </c>
+      <c r="AJ37" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -38180,8 +38673,11 @@
       <c r="AI38" s="26">
         <v>0</v>
       </c>
+      <c r="AJ38" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -38284,8 +38780,11 @@
       <c r="AI39" s="26">
         <v>1</v>
       </c>
+      <c r="AJ39" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -38388,8 +38887,11 @@
       <c r="AI40" s="26">
         <v>0</v>
       </c>
+      <c r="AJ40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -38492,8 +38994,11 @@
       <c r="AI41" s="26">
         <v>0</v>
       </c>
+      <c r="AJ41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -38596,8 +39101,11 @@
       <c r="AI42" s="26">
         <v>1</v>
       </c>
+      <c r="AJ42" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -38700,8 +39208,11 @@
       <c r="AI43" s="26">
         <v>16</v>
       </c>
+      <c r="AJ43" s="26">
+        <v>19</v>
+      </c>
     </row>
-    <row r="44" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -38804,8 +39315,11 @@
       <c r="AI44" s="26">
         <v>0</v>
       </c>
+      <c r="AJ44" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -38908,8 +39422,11 @@
       <c r="AI45" s="28">
         <v>0</v>
       </c>
+      <c r="AJ45" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -39012,8 +39529,11 @@
       <c r="AI46" s="26">
         <v>2</v>
       </c>
+      <c r="AJ46" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -39116,8 +39636,11 @@
       <c r="AI47" s="26">
         <v>2</v>
       </c>
+      <c r="AJ47" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -39220,10 +39743,13 @@
       <c r="AI48" s="26">
         <v>3</v>
       </c>
+      <c r="AJ48" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -39325,9 +39851,12 @@
       <c r="AI49" s="28">
         <v>0</v>
       </c>
+      <c r="AJ49" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:35" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="56"/>
+    <row r="50" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="57"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -39427,8 +39956,11 @@
       <c r="AI50" s="28">
         <v>0</v>
       </c>
+      <c r="AJ50" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -39531,8 +40063,11 @@
       <c r="AI51" s="26">
         <v>0</v>
       </c>
+      <c r="AJ51" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -39635,8 +40170,11 @@
       <c r="AI52" s="26">
         <v>1</v>
       </c>
+      <c r="AJ52" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="53" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -39739,8 +40277,11 @@
       <c r="AI53" s="26">
         <v>0</v>
       </c>
+      <c r="AJ53" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -39843,8 +40384,11 @@
       <c r="AI54" s="26">
         <v>3</v>
       </c>
+      <c r="AJ54" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="55" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -39947,8 +40491,11 @@
       <c r="AI55" s="26">
         <v>0</v>
       </c>
+      <c r="AJ55" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -40051,8 +40598,11 @@
       <c r="AI56" s="26">
         <v>0</v>
       </c>
+      <c r="AJ56" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -40155,8 +40705,11 @@
       <c r="AI57" s="26">
         <v>0</v>
       </c>
+      <c r="AJ57" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -40289,8 +40842,12 @@
         <f>SUM(AI6:AI57)</f>
         <v>284</v>
       </c>
+      <c r="AJ58" s="14">
+        <f>SUM(AJ6:AJ57)</f>
+        <v>268</v>
+      </c>
     </row>
-    <row r="59" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -40323,7 +40880,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -40356,7 +40913,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -40390,16 +40947,11 @@
       <c r="AE61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AF4:AF5"/>
+  <mergeCells count="43">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="D2:AI2"/>
-    <mergeCell ref="D3:AI3"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AE4:AE5"/>
@@ -40407,20 +40959,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="P4:P5"/>
@@ -40433,6 +40971,26 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="D2:AJ2"/>
+    <mergeCell ref="D3:AJ3"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AF4:AF5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -40442,78 +41000,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="M61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AM8" sqref="AM8"/>
+      <selection pane="bottomRight" activeCell="AJ98" sqref="AJ98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="31" width="10.9140625" style="1" customWidth="1"/>
-    <col min="32" max="33" width="11.1640625" style="1" customWidth="1"/>
-    <col min="34" max="57" width="10.9140625" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="31" width="10.875" style="1" customWidth="1"/>
+    <col min="32" max="33" width="11.125" style="1" customWidth="1"/>
+    <col min="34" max="57" width="10.875" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:57" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
-      <c r="AC1" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ1" s="30"/>
     </row>
-    <row r="2" spans="1:57" ht="32.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="32" t="s">
+    <row r="2" spans="1:57" ht="33" x14ac:dyDescent="0.4">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="20"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
@@ -40536,44 +41095,44 @@
       <c r="BD2" s="20"/>
       <c r="BE2" s="20"/>
     </row>
-    <row r="3" spans="1:57" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="31" t="s">
+    <row r="3" spans="1:57" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="21"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
       <c r="AK3" s="21"/>
       <c r="AL3" s="21"/>
       <c r="AM3" s="21"/>
@@ -40596,191 +41155,193 @@
       <c r="BD3" s="21"/>
       <c r="BE3" s="21"/>
     </row>
-    <row r="4" spans="1:57" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="30" t="s">
+    <row r="4" spans="1:57" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="X4" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="30" t="s">
+      <c r="AA4" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="30" t="s">
+      <c r="AC4" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AD4" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AF4" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="AG4" s="34" t="s">
+      <c r="AG4" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="34" t="s">
+      <c r="AH4" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="AI4" s="34" t="s">
+      <c r="AI4" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
+      <c r="AJ4" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="61"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="61"/>
+      <c r="BB4" s="61"/>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="61"/>
+      <c r="BE4" s="61"/>
     </row>
-    <row r="5" spans="1:57" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="38"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="60"/>
-      <c r="AP5" s="60"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="60"/>
-      <c r="AT5" s="60"/>
-      <c r="AU5" s="60"/>
-      <c r="AV5" s="60"/>
-      <c r="AW5" s="60"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="60"/>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="60"/>
-      <c r="BC5" s="60"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="60"/>
+    <row r="5" spans="1:57" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="49"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="61"/>
     </row>
-    <row r="6" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -40884,7 +41445,9 @@
       <c r="AI6" s="28">
         <v>40</v>
       </c>
-      <c r="AJ6" s="22"/>
+      <c r="AJ6" s="28">
+        <v>60</v>
+      </c>
       <c r="AK6" s="22"/>
       <c r="AL6" s="22"/>
       <c r="AM6" s="22"/>
@@ -40907,7 +41470,7 @@
       <c r="BD6" s="22"/>
       <c r="BE6" s="22"/>
     </row>
-    <row r="7" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -41010,7 +41573,9 @@
       <c r="AI7" s="26">
         <v>0</v>
       </c>
-      <c r="AJ7" s="23"/>
+      <c r="AJ7" s="26">
+        <v>0</v>
+      </c>
       <c r="AK7" s="23"/>
       <c r="AL7" s="23"/>
       <c r="AM7" s="23"/>
@@ -41033,7 +41598,7 @@
       <c r="BD7" s="23"/>
       <c r="BE7" s="23"/>
     </row>
-    <row r="8" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -41136,7 +41701,9 @@
       <c r="AI8" s="26">
         <v>5</v>
       </c>
-      <c r="AJ8" s="23"/>
+      <c r="AJ8" s="26">
+        <v>3</v>
+      </c>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
       <c r="AM8" s="23"/>
@@ -41159,7 +41726,7 @@
       <c r="BD8" s="23"/>
       <c r="BE8" s="23"/>
     </row>
-    <row r="9" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -41263,7 +41830,9 @@
       <c r="AI9" s="26">
         <v>56</v>
       </c>
-      <c r="AJ9" s="23"/>
+      <c r="AJ9" s="26">
+        <v>47</v>
+      </c>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
       <c r="AM9" s="23"/>
@@ -41286,7 +41855,7 @@
       <c r="BD9" s="23"/>
       <c r="BE9" s="23"/>
     </row>
-    <row r="10" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -41389,7 +41958,9 @@
       <c r="AI10" s="26">
         <v>0</v>
       </c>
-      <c r="AJ10" s="23"/>
+      <c r="AJ10" s="26">
+        <v>0</v>
+      </c>
       <c r="AK10" s="23"/>
       <c r="AL10" s="23"/>
       <c r="AM10" s="23"/>
@@ -41412,7 +41983,7 @@
       <c r="BD10" s="23"/>
       <c r="BE10" s="23"/>
     </row>
-    <row r="11" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -41515,7 +42086,9 @@
       <c r="AI11" s="26">
         <v>3</v>
       </c>
-      <c r="AJ11" s="23"/>
+      <c r="AJ11" s="26">
+        <v>8</v>
+      </c>
       <c r="AK11" s="23"/>
       <c r="AL11" s="23"/>
       <c r="AM11" s="23"/>
@@ -41538,7 +42111,7 @@
       <c r="BD11" s="23"/>
       <c r="BE11" s="23"/>
     </row>
-    <row r="12" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -41641,7 +42214,9 @@
       <c r="AI12" s="26">
         <v>2</v>
       </c>
-      <c r="AJ12" s="23"/>
+      <c r="AJ12" s="26">
+        <v>2</v>
+      </c>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
       <c r="AM12" s="23"/>
@@ -41664,7 +42239,7 @@
       <c r="BD12" s="23"/>
       <c r="BE12" s="23"/>
     </row>
-    <row r="13" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -41767,7 +42342,9 @@
       <c r="AI13" s="28">
         <v>11</v>
       </c>
-      <c r="AJ13" s="22"/>
+      <c r="AJ13" s="28">
+        <v>6</v>
+      </c>
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
       <c r="AM13" s="22"/>
@@ -41790,7 +42367,7 @@
       <c r="BD13" s="22"/>
       <c r="BE13" s="22"/>
     </row>
-    <row r="14" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -41893,7 +42470,9 @@
       <c r="AI14" s="26">
         <v>13</v>
       </c>
-      <c r="AJ14" s="23"/>
+      <c r="AJ14" s="26">
+        <v>15</v>
+      </c>
       <c r="AK14" s="23"/>
       <c r="AL14" s="23"/>
       <c r="AM14" s="23"/>
@@ -41916,7 +42495,7 @@
       <c r="BD14" s="23"/>
       <c r="BE14" s="23"/>
     </row>
-    <row r="15" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -42019,7 +42598,9 @@
       <c r="AI15" s="26">
         <v>0</v>
       </c>
-      <c r="AJ15" s="23"/>
+      <c r="AJ15" s="26">
+        <v>0</v>
+      </c>
       <c r="AK15" s="23"/>
       <c r="AL15" s="23"/>
       <c r="AM15" s="23"/>
@@ -42042,7 +42623,7 @@
       <c r="BD15" s="23"/>
       <c r="BE15" s="23"/>
     </row>
-    <row r="16" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -42146,7 +42727,9 @@
       <c r="AI16" s="28">
         <v>68</v>
       </c>
-      <c r="AJ16" s="22"/>
+      <c r="AJ16" s="28">
+        <v>58</v>
+      </c>
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
       <c r="AM16" s="22"/>
@@ -42169,7 +42752,7 @@
       <c r="BD16" s="22"/>
       <c r="BE16" s="22"/>
     </row>
-    <row r="17" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -42272,7 +42855,9 @@
       <c r="AI17" s="28">
         <v>51</v>
       </c>
-      <c r="AJ17" s="22"/>
+      <c r="AJ17" s="28">
+        <v>40</v>
+      </c>
       <c r="AK17" s="22"/>
       <c r="AL17" s="22"/>
       <c r="AM17" s="22"/>
@@ -42295,7 +42880,7 @@
       <c r="BD17" s="22"/>
       <c r="BE17" s="22"/>
     </row>
-    <row r="18" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -42399,7 +42984,9 @@
       <c r="AI18" s="28">
         <v>608</v>
       </c>
-      <c r="AJ18" s="22"/>
+      <c r="AJ18" s="28">
+        <v>605</v>
+      </c>
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
       <c r="AM18" s="22"/>
@@ -42422,9 +43009,9 @@
       <c r="BD18" s="22"/>
       <c r="BE18" s="22"/>
     </row>
-    <row r="19" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -42526,7 +43113,9 @@
       <c r="AI19" s="28">
         <v>7</v>
       </c>
-      <c r="AJ19" s="22"/>
+      <c r="AJ19" s="28">
+        <v>15</v>
+      </c>
       <c r="AK19" s="22"/>
       <c r="AL19" s="22"/>
       <c r="AM19" s="22"/>
@@ -42549,9 +43138,9 @@
       <c r="BD19" s="22"/>
       <c r="BE19" s="22"/>
     </row>
-    <row r="20" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -42651,7 +43240,9 @@
       <c r="AI20" s="28">
         <v>44</v>
       </c>
-      <c r="AJ20" s="22"/>
+      <c r="AJ20" s="28">
+        <v>38</v>
+      </c>
       <c r="AK20" s="22"/>
       <c r="AL20" s="22"/>
       <c r="AM20" s="22"/>
@@ -42674,9 +43265,9 @@
       <c r="BD20" s="22"/>
       <c r="BE20" s="22"/>
     </row>
-    <row r="21" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -42776,7 +43367,9 @@
       <c r="AI21" s="28">
         <v>11</v>
       </c>
-      <c r="AJ21" s="22"/>
+      <c r="AJ21" s="28">
+        <v>9</v>
+      </c>
       <c r="AK21" s="22"/>
       <c r="AL21" s="22"/>
       <c r="AM21" s="22"/>
@@ -42799,7 +43392,7 @@
       <c r="BD21" s="22"/>
       <c r="BE21" s="22"/>
     </row>
-    <row r="22" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -42902,7 +43495,9 @@
       <c r="AI22" s="26">
         <v>2</v>
       </c>
-      <c r="AJ22" s="23"/>
+      <c r="AJ22" s="26">
+        <v>3</v>
+      </c>
       <c r="AK22" s="23"/>
       <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
@@ -42925,7 +43520,7 @@
       <c r="BD22" s="23"/>
       <c r="BE22" s="23"/>
     </row>
-    <row r="23" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -43028,7 +43623,9 @@
       <c r="AI23" s="26">
         <v>0</v>
       </c>
-      <c r="AJ23" s="23"/>
+      <c r="AJ23" s="26">
+        <v>0</v>
+      </c>
       <c r="AK23" s="23"/>
       <c r="AL23" s="23"/>
       <c r="AM23" s="23"/>
@@ -43051,7 +43648,7 @@
       <c r="BD23" s="23"/>
       <c r="BE23" s="23"/>
     </row>
-    <row r="24" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -43154,7 +43751,9 @@
       <c r="AI24" s="28">
         <v>4</v>
       </c>
-      <c r="AJ24" s="22"/>
+      <c r="AJ24" s="28">
+        <v>6</v>
+      </c>
       <c r="AK24" s="22"/>
       <c r="AL24" s="22"/>
       <c r="AM24" s="22"/>
@@ -43177,7 +43776,7 @@
       <c r="BD24" s="22"/>
       <c r="BE24" s="22"/>
     </row>
-    <row r="25" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -43280,7 +43879,9 @@
       <c r="AI25" s="26">
         <v>0</v>
       </c>
-      <c r="AJ25" s="23"/>
+      <c r="AJ25" s="26">
+        <v>0</v>
+      </c>
       <c r="AK25" s="23"/>
       <c r="AL25" s="23"/>
       <c r="AM25" s="23"/>
@@ -43303,7 +43904,7 @@
       <c r="BD25" s="23"/>
       <c r="BE25" s="23"/>
     </row>
-    <row r="26" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -43406,7 +44007,9 @@
       <c r="AI26" s="26">
         <v>5</v>
       </c>
-      <c r="AJ26" s="23"/>
+      <c r="AJ26" s="26">
+        <v>8</v>
+      </c>
       <c r="AK26" s="23"/>
       <c r="AL26" s="23"/>
       <c r="AM26" s="23"/>
@@ -43429,7 +44032,7 @@
       <c r="BD26" s="23"/>
       <c r="BE26" s="23"/>
     </row>
-    <row r="27" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -43532,7 +44135,9 @@
       <c r="AI27" s="26">
         <v>0</v>
       </c>
-      <c r="AJ27" s="23"/>
+      <c r="AJ27" s="26">
+        <v>0</v>
+      </c>
       <c r="AK27" s="23"/>
       <c r="AL27" s="23"/>
       <c r="AM27" s="23"/>
@@ -43555,7 +44160,7 @@
       <c r="BD27" s="23"/>
       <c r="BE27" s="23"/>
     </row>
-    <row r="28" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -43658,7 +44263,9 @@
       <c r="AI28" s="28">
         <v>0</v>
       </c>
-      <c r="AJ28" s="22"/>
+      <c r="AJ28" s="28">
+        <v>2</v>
+      </c>
       <c r="AK28" s="22"/>
       <c r="AL28" s="22"/>
       <c r="AM28" s="22"/>
@@ -43681,8 +44288,8 @@
       <c r="BD28" s="22"/>
       <c r="BE28" s="22"/>
     </row>
-    <row r="29" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="57" t="s">
+    <row r="29" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -43784,7 +44391,9 @@
       <c r="AI29" s="26">
         <v>2</v>
       </c>
-      <c r="AJ29" s="23"/>
+      <c r="AJ29" s="26">
+        <v>0</v>
+      </c>
       <c r="AK29" s="23"/>
       <c r="AL29" s="23"/>
       <c r="AM29" s="23"/>
@@ -43807,8 +44416,8 @@
       <c r="BD29" s="23"/>
       <c r="BE29" s="23"/>
     </row>
-    <row r="30" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="58"/>
+    <row r="30" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="59"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -43908,7 +44517,9 @@
       <c r="AI30" s="26">
         <v>2</v>
       </c>
-      <c r="AJ30" s="23"/>
+      <c r="AJ30" s="26">
+        <v>4</v>
+      </c>
       <c r="AK30" s="23"/>
       <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
@@ -43931,7 +44542,7 @@
       <c r="BD30" s="23"/>
       <c r="BE30" s="23"/>
     </row>
-    <row r="31" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -44035,7 +44646,9 @@
       <c r="AI31" s="28">
         <v>9</v>
       </c>
-      <c r="AJ31" s="22"/>
+      <c r="AJ31" s="28">
+        <v>10</v>
+      </c>
       <c r="AK31" s="22"/>
       <c r="AL31" s="22"/>
       <c r="AM31" s="22"/>
@@ -44058,7 +44671,7 @@
       <c r="BD31" s="22"/>
       <c r="BE31" s="22"/>
     </row>
-    <row r="32" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -44161,7 +44774,9 @@
       <c r="AI32" s="26">
         <v>0</v>
       </c>
-      <c r="AJ32" s="23"/>
+      <c r="AJ32" s="26">
+        <v>2</v>
+      </c>
       <c r="AK32" s="23"/>
       <c r="AL32" s="23"/>
       <c r="AM32" s="23"/>
@@ -44184,7 +44799,7 @@
       <c r="BD32" s="23"/>
       <c r="BE32" s="23"/>
     </row>
-    <row r="33" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -44287,7 +44902,9 @@
       <c r="AI33" s="26">
         <v>0</v>
       </c>
-      <c r="AJ33" s="23"/>
+      <c r="AJ33" s="26">
+        <v>0</v>
+      </c>
       <c r="AK33" s="23"/>
       <c r="AL33" s="23"/>
       <c r="AM33" s="23"/>
@@ -44310,7 +44927,7 @@
       <c r="BD33" s="23"/>
       <c r="BE33" s="23"/>
     </row>
-    <row r="34" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -44414,7 +45031,9 @@
       <c r="AI34" s="28">
         <v>15</v>
       </c>
-      <c r="AJ34" s="22"/>
+      <c r="AJ34" s="28">
+        <v>27</v>
+      </c>
       <c r="AK34" s="22"/>
       <c r="AL34" s="22"/>
       <c r="AM34" s="22"/>
@@ -44437,9 +45056,9 @@
       <c r="BD34" s="22"/>
       <c r="BE34" s="22"/>
     </row>
-    <row r="35" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -44541,7 +45160,9 @@
       <c r="AI35" s="28">
         <v>139</v>
       </c>
-      <c r="AJ35" s="22"/>
+      <c r="AJ35" s="28">
+        <v>159</v>
+      </c>
       <c r="AK35" s="22"/>
       <c r="AL35" s="22"/>
       <c r="AM35" s="22"/>
@@ -44564,8 +45185,8 @@
       <c r="BD35" s="22"/>
       <c r="BE35" s="22"/>
     </row>
-    <row r="36" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="56"/>
+    <row r="36" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="57"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -44665,7 +45286,9 @@
       <c r="AI36" s="28">
         <v>9</v>
       </c>
-      <c r="AJ36" s="22"/>
+      <c r="AJ36" s="28">
+        <v>19</v>
+      </c>
       <c r="AK36" s="22"/>
       <c r="AL36" s="22"/>
       <c r="AM36" s="22"/>
@@ -44688,7 +45311,7 @@
       <c r="BD36" s="22"/>
       <c r="BE36" s="22"/>
     </row>
-    <row r="37" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -44792,7 +45415,9 @@
       <c r="AI37" s="28">
         <v>17</v>
       </c>
-      <c r="AJ37" s="22"/>
+      <c r="AJ37" s="28">
+        <v>12</v>
+      </c>
       <c r="AK37" s="22"/>
       <c r="AL37" s="22"/>
       <c r="AM37" s="22"/>
@@ -44815,7 +45440,7 @@
       <c r="BD37" s="22"/>
       <c r="BE37" s="22"/>
     </row>
-    <row r="38" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -44918,7 +45543,9 @@
       <c r="AI38" s="26">
         <v>6</v>
       </c>
-      <c r="AJ38" s="23"/>
+      <c r="AJ38" s="26">
+        <v>8</v>
+      </c>
       <c r="AK38" s="23"/>
       <c r="AL38" s="23"/>
       <c r="AM38" s="23"/>
@@ -44941,7 +45568,7 @@
       <c r="BD38" s="23"/>
       <c r="BE38" s="23"/>
     </row>
-    <row r="39" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -45044,7 +45671,9 @@
       <c r="AI39" s="26">
         <v>2</v>
       </c>
-      <c r="AJ39" s="23"/>
+      <c r="AJ39" s="26">
+        <v>2</v>
+      </c>
       <c r="AK39" s="23"/>
       <c r="AL39" s="23"/>
       <c r="AM39" s="23"/>
@@ -45067,7 +45696,7 @@
       <c r="BD39" s="23"/>
       <c r="BE39" s="23"/>
     </row>
-    <row r="40" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -45170,7 +45799,9 @@
       <c r="AI40" s="26">
         <v>0</v>
       </c>
-      <c r="AJ40" s="23"/>
+      <c r="AJ40" s="26">
+        <v>0</v>
+      </c>
       <c r="AK40" s="23"/>
       <c r="AL40" s="23"/>
       <c r="AM40" s="23"/>
@@ -45193,7 +45824,7 @@
       <c r="BD40" s="23"/>
       <c r="BE40" s="23"/>
     </row>
-    <row r="41" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -45296,7 +45927,9 @@
       <c r="AI41" s="26">
         <v>0</v>
       </c>
-      <c r="AJ41" s="23"/>
+      <c r="AJ41" s="26">
+        <v>0</v>
+      </c>
       <c r="AK41" s="23"/>
       <c r="AL41" s="23"/>
       <c r="AM41" s="23"/>
@@ -45319,7 +45952,7 @@
       <c r="BD41" s="23"/>
       <c r="BE41" s="23"/>
     </row>
-    <row r="42" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -45422,7 +46055,9 @@
       <c r="AI42" s="26">
         <v>3</v>
       </c>
-      <c r="AJ42" s="23"/>
+      <c r="AJ42" s="26">
+        <v>0</v>
+      </c>
       <c r="AK42" s="23"/>
       <c r="AL42" s="23"/>
       <c r="AM42" s="23"/>
@@ -45445,7 +46080,7 @@
       <c r="BD42" s="23"/>
       <c r="BE42" s="23"/>
     </row>
-    <row r="43" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -45548,7 +46183,9 @@
       <c r="AI43" s="26">
         <v>14</v>
       </c>
-      <c r="AJ43" s="23"/>
+      <c r="AJ43" s="26">
+        <v>21</v>
+      </c>
       <c r="AK43" s="23"/>
       <c r="AL43" s="23"/>
       <c r="AM43" s="23"/>
@@ -45571,7 +46208,7 @@
       <c r="BD43" s="23"/>
       <c r="BE43" s="23"/>
     </row>
-    <row r="44" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -45674,7 +46311,9 @@
       <c r="AI44" s="26">
         <v>0</v>
       </c>
-      <c r="AJ44" s="23"/>
+      <c r="AJ44" s="26">
+        <v>0</v>
+      </c>
       <c r="AK44" s="23"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
@@ -45697,7 +46336,7 @@
       <c r="BD44" s="23"/>
       <c r="BE44" s="23"/>
     </row>
-    <row r="45" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -45800,7 +46439,9 @@
       <c r="AI45" s="28">
         <v>6</v>
       </c>
-      <c r="AJ45" s="22"/>
+      <c r="AJ45" s="28">
+        <v>11</v>
+      </c>
       <c r="AK45" s="22"/>
       <c r="AL45" s="22"/>
       <c r="AM45" s="22"/>
@@ -45823,7 +46464,7 @@
       <c r="BD45" s="22"/>
       <c r="BE45" s="22"/>
     </row>
-    <row r="46" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -45926,7 +46567,9 @@
       <c r="AI46" s="26">
         <v>0</v>
       </c>
-      <c r="AJ46" s="23"/>
+      <c r="AJ46" s="26">
+        <v>13</v>
+      </c>
       <c r="AK46" s="23"/>
       <c r="AL46" s="23"/>
       <c r="AM46" s="23"/>
@@ -45949,7 +46592,7 @@
       <c r="BD46" s="23"/>
       <c r="BE46" s="23"/>
     </row>
-    <row r="47" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -46052,7 +46695,9 @@
       <c r="AI47" s="26">
         <v>2</v>
       </c>
-      <c r="AJ47" s="23"/>
+      <c r="AJ47" s="26">
+        <v>1</v>
+      </c>
       <c r="AK47" s="23"/>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
@@ -46075,7 +46720,7 @@
       <c r="BD47" s="23"/>
       <c r="BE47" s="23"/>
     </row>
-    <row r="48" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -46178,7 +46823,9 @@
       <c r="AI48" s="26">
         <v>0</v>
       </c>
-      <c r="AJ48" s="23"/>
+      <c r="AJ48" s="26">
+        <v>0</v>
+      </c>
       <c r="AK48" s="23"/>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
@@ -46201,9 +46848,9 @@
       <c r="BD48" s="23"/>
       <c r="BE48" s="23"/>
     </row>
-    <row r="49" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -46305,7 +46952,9 @@
       <c r="AI49" s="28">
         <v>12</v>
       </c>
-      <c r="AJ49" s="22"/>
+      <c r="AJ49" s="28">
+        <v>20</v>
+      </c>
       <c r="AK49" s="22"/>
       <c r="AL49" s="22"/>
       <c r="AM49" s="22"/>
@@ -46328,8 +46977,8 @@
       <c r="BD49" s="22"/>
       <c r="BE49" s="22"/>
     </row>
-    <row r="50" spans="1:57" s="4" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="56"/>
+    <row r="50" spans="1:57" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="57"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -46429,7 +47078,9 @@
       <c r="AI50" s="28">
         <v>2</v>
       </c>
-      <c r="AJ50" s="22"/>
+      <c r="AJ50" s="28">
+        <v>5</v>
+      </c>
       <c r="AK50" s="22"/>
       <c r="AL50" s="22"/>
       <c r="AM50" s="22"/>
@@ -46452,7 +47103,7 @@
       <c r="BD50" s="22"/>
       <c r="BE50" s="22"/>
     </row>
-    <row r="51" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -46555,7 +47206,9 @@
       <c r="AI51" s="26">
         <v>5</v>
       </c>
-      <c r="AJ51" s="23"/>
+      <c r="AJ51" s="26">
+        <v>1</v>
+      </c>
       <c r="AK51" s="23"/>
       <c r="AL51" s="23"/>
       <c r="AM51" s="23"/>
@@ -46578,7 +47231,7 @@
       <c r="BD51" s="23"/>
       <c r="BE51" s="23"/>
     </row>
-    <row r="52" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -46681,7 +47334,9 @@
       <c r="AI52" s="26">
         <v>7</v>
       </c>
-      <c r="AJ52" s="23"/>
+      <c r="AJ52" s="26">
+        <v>14</v>
+      </c>
       <c r="AK52" s="23"/>
       <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
@@ -46704,7 +47359,7 @@
       <c r="BD52" s="23"/>
       <c r="BE52" s="23"/>
     </row>
-    <row r="53" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -46807,7 +47462,9 @@
       <c r="AI53" s="26">
         <v>7</v>
       </c>
-      <c r="AJ53" s="23"/>
+      <c r="AJ53" s="26">
+        <v>9</v>
+      </c>
       <c r="AK53" s="23"/>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
@@ -46830,7 +47487,7 @@
       <c r="BD53" s="23"/>
       <c r="BE53" s="23"/>
     </row>
-    <row r="54" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -46933,7 +47590,9 @@
       <c r="AI54" s="26">
         <v>4</v>
       </c>
-      <c r="AJ54" s="23"/>
+      <c r="AJ54" s="26">
+        <v>4</v>
+      </c>
       <c r="AK54" s="23"/>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -46956,7 +47615,7 @@
       <c r="BD54" s="23"/>
       <c r="BE54" s="23"/>
     </row>
-    <row r="55" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -47059,7 +47718,9 @@
       <c r="AI55" s="26">
         <v>8</v>
       </c>
-      <c r="AJ55" s="23"/>
+      <c r="AJ55" s="26">
+        <v>8</v>
+      </c>
       <c r="AK55" s="23"/>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
@@ -47082,7 +47743,7 @@
       <c r="BD55" s="23"/>
       <c r="BE55" s="23"/>
     </row>
-    <row r="56" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -47185,7 +47846,9 @@
       <c r="AI56" s="26">
         <v>3</v>
       </c>
-      <c r="AJ56" s="23"/>
+      <c r="AJ56" s="26">
+        <v>0</v>
+      </c>
       <c r="AK56" s="23"/>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
@@ -47208,7 +47871,7 @@
       <c r="BD56" s="23"/>
       <c r="BE56" s="23"/>
     </row>
-    <row r="57" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -47311,7 +47974,9 @@
       <c r="AI57" s="26">
         <v>0</v>
       </c>
-      <c r="AJ57" s="23"/>
+      <c r="AJ57" s="26">
+        <v>1</v>
+      </c>
       <c r="AK57" s="23"/>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
@@ -47334,7 +47999,7 @@
       <c r="BD57" s="23"/>
       <c r="BE57" s="23"/>
     </row>
-    <row r="58" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -47364,7 +48029,7 @@
         <v>1305</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" ref="J58:AI58" si="0">SUM(J6:J57)</f>
+        <f t="shared" ref="J58:AJ58" si="0">SUM(J6:J57)</f>
         <v>1163</v>
       </c>
       <c r="K58" s="14">
@@ -47467,7 +48132,10 @@
         <f t="shared" si="0"/>
         <v>1204</v>
       </c>
-      <c r="AJ58" s="24"/>
+      <c r="AJ58" s="14">
+        <f t="shared" si="0"/>
+        <v>1276</v>
+      </c>
       <c r="AK58" s="24"/>
       <c r="AL58" s="24"/>
       <c r="AM58" s="24"/>
@@ -47490,7 +48158,7 @@
       <c r="BD58" s="24"/>
       <c r="BE58" s="24"/>
     </row>
-    <row r="59" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -47523,7 +48191,7 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -47556,7 +48224,7 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61" spans="1:57" ht="39.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:57" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -47591,15 +48259,10 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="D3:AI3"/>
-    <mergeCell ref="D2:AI2"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B49:B50"/>
@@ -47621,13 +48284,17 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D3:AJ3"/>
+    <mergeCell ref="D2:AJ2"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="BC4:BC5"/>
@@ -47644,6 +48311,7 @@
     <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>

--- a/emergencytransport_difficult.xlsx
+++ b/emergencytransport_difficult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U654397\Desktop\31116-1\アップ用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.177.108.11\daichi$\採用（自宅勤務者専用）\01_ITサービス事業部\01_案件フォルダ\3_グループ外案件\5004_消防庁\201904_W-119_2019年度消防庁HP更新\03_支給資材・原稿\JOB031124-1\ＪＯＢ031124-1\アップ用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="搬送困難事案（今回）" sheetId="42" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'うち非コロナ疑い事案（今回）'!$A$6:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'搬送困難事案（今回）'!$A$6:$CD$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'搬送困難事案（前年同期）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$AJ$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$AJ$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$CJ$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$CJ$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'うちコロナ疑い事案（今回）'!$A$1:$AK$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A$1:$AK$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'搬送困難事案（今回）'!$A$1:$CK$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'搬送困難事案（前年同期）'!$A$1:$CK$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'うちコロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'うち非コロナ疑い事案（今回）'!$A:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'搬送困難事案（今回）'!$A:$C</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="279">
   <si>
     <t>都道府県</t>
   </si>
@@ -2347,6 +2347,54 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>11/15(月)～
+11/21(日)分
+【11月第3週】</t>
+    <rPh sb="6" eb="7">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/16(月)～
+11/22(日)分
+【11月第3週】</t>
+    <rPh sb="6" eb="7">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2667,7 +2715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2767,7 +2815,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2782,12 +2830,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2799,6 +2841,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2824,17 +2872,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5217,13 +5262,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ61"/>
+  <dimension ref="A1:CK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BW6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="BX6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CJ4" sqref="CJ4:CJ5"/>
+      <selection pane="bottomRight" activeCell="CK4" sqref="CK4:CK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5233,11 +5278,11 @@
     <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="56" width="11" style="1" customWidth="1"/>
     <col min="57" max="82" width="10.875" style="1" customWidth="1"/>
-    <col min="83" max="88" width="11.125" style="1" customWidth="1"/>
-    <col min="89" max="16384" width="8.625" style="1"/>
+    <col min="83" max="89" width="11.125" style="1" customWidth="1"/>
+    <col min="90" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:89" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BA1" s="50" t="s">
         <v>143</v>
       </c>
@@ -5253,8 +5298,9 @@
         <v>275</v>
       </c>
       <c r="CJ1" s="30"/>
+      <c r="CK1" s="30"/>
     </row>
-    <row r="2" spans="1:88" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:89" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="44"/>
       <c r="C2" s="45"/>
       <c r="D2" s="31" t="s">
@@ -5346,8 +5392,9 @@
       <c r="CH2" s="31"/>
       <c r="CI2" s="31"/>
       <c r="CJ2" s="31"/>
+      <c r="CK2" s="31"/>
     </row>
-    <row r="3" spans="1:88" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:89" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
       <c r="D3" s="32" t="s">
@@ -5441,12 +5488,13 @@
       <c r="CH3" s="32"/>
       <c r="CI3" s="32"/>
       <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
     </row>
-    <row r="4" spans="1:88" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:89" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -5662,28 +5710,28 @@
       <c r="BV4" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="BW4" s="36" t="s">
+      <c r="BW4" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="BX4" s="36" t="s">
+      <c r="BX4" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="BY4" s="36" t="s">
+      <c r="BY4" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="BZ4" s="36" t="s">
+      <c r="BZ4" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="CA4" s="36" t="s">
+      <c r="CA4" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="CB4" s="36" t="s">
+      <c r="CB4" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="CC4" s="36" t="s">
+      <c r="CC4" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="CD4" s="36" t="s">
+      <c r="CD4" s="35" t="s">
         <v>236</v>
       </c>
       <c r="CE4" s="33" t="s">
@@ -5704,10 +5752,13 @@
       <c r="CJ4" s="33" t="s">
         <v>274</v>
       </c>
+      <c r="CK4" s="33" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:89" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="49"/>
-      <c r="C5" s="39"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -5793,8 +5844,9 @@
       <c r="CH5" s="34"/>
       <c r="CI5" s="34"/>
       <c r="CJ5" s="34"/>
+      <c r="CK5" s="34"/>
     </row>
-    <row r="6" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -6057,8 +6109,11 @@
       <c r="CJ6" s="28">
         <v>74</v>
       </c>
+      <c r="CK6" s="28">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -6320,8 +6375,11 @@
       <c r="CJ7" s="26">
         <v>0</v>
       </c>
+      <c r="CK7" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -6583,8 +6641,11 @@
       <c r="CJ8" s="26">
         <v>3</v>
       </c>
+      <c r="CK8" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -6847,8 +6908,11 @@
       <c r="CJ9" s="26">
         <v>48</v>
       </c>
+      <c r="CK9" s="26">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -7110,8 +7174,11 @@
       <c r="CJ10" s="26">
         <v>0</v>
       </c>
+      <c r="CK10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -7373,8 +7440,11 @@
       <c r="CJ11" s="26">
         <v>11</v>
       </c>
+      <c r="CK11" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -7636,8 +7706,11 @@
       <c r="CJ12" s="26">
         <v>2</v>
       </c>
+      <c r="CK12" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -7899,8 +7972,11 @@
       <c r="CJ13" s="28">
         <v>9</v>
       </c>
+      <c r="CK13" s="28">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -8162,8 +8238,11 @@
       <c r="CJ14" s="26">
         <v>23</v>
       </c>
+      <c r="CK14" s="26">
+        <v>17</v>
+      </c>
     </row>
-    <row r="15" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -8425,8 +8504,11 @@
       <c r="CJ15" s="26">
         <v>0</v>
       </c>
+      <c r="CK15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -8689,8 +8771,11 @@
       <c r="CJ16" s="28">
         <v>58</v>
       </c>
+      <c r="CK16" s="28">
+        <v>43</v>
+      </c>
     </row>
-    <row r="17" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -8952,8 +9037,11 @@
       <c r="CJ17" s="28">
         <v>58</v>
       </c>
+      <c r="CK17" s="28">
+        <v>82</v>
+      </c>
     </row>
-    <row r="18" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -9216,10 +9304,13 @@
       <c r="CJ18" s="28">
         <v>701</v>
       </c>
+      <c r="CK18" s="28">
+        <v>748</v>
+      </c>
     </row>
-    <row r="19" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -9480,10 +9571,13 @@
       <c r="CJ19" s="28">
         <v>34</v>
       </c>
+      <c r="CK19" s="28">
+        <v>23</v>
+      </c>
     </row>
-    <row r="20" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="42"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -9742,10 +9836,13 @@
       <c r="CJ20" s="28">
         <v>64</v>
       </c>
+      <c r="CK20" s="28">
+        <v>43</v>
+      </c>
     </row>
-    <row r="21" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="42"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -10004,8 +10101,11 @@
       <c r="CJ21" s="28">
         <v>13</v>
       </c>
+      <c r="CK21" s="28">
+        <v>11</v>
+      </c>
     </row>
-    <row r="22" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -10267,8 +10367,11 @@
       <c r="CJ22" s="26">
         <v>4</v>
       </c>
+      <c r="CK22" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -10530,8 +10633,11 @@
       <c r="CJ23" s="26">
         <v>0</v>
       </c>
+      <c r="CK23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -10793,8 +10899,11 @@
       <c r="CJ24" s="28">
         <v>6</v>
       </c>
+      <c r="CK24" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -11056,8 +11165,11 @@
       <c r="CJ25" s="26">
         <v>0</v>
       </c>
+      <c r="CK25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -11319,8 +11431,11 @@
       <c r="CJ26" s="26">
         <v>14</v>
       </c>
+      <c r="CK26" s="26">
+        <v>13</v>
+      </c>
     </row>
-    <row r="27" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -11582,8 +11697,11 @@
       <c r="CJ27" s="26">
         <v>0</v>
       </c>
+      <c r="CK27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -11845,9 +11963,12 @@
       <c r="CJ28" s="28">
         <v>2</v>
       </c>
+      <c r="CK28" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="43" t="s">
+    <row r="29" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -12108,9 +12229,12 @@
       <c r="CJ29" s="26">
         <v>0</v>
       </c>
+      <c r="CK29" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="43"/>
+    <row r="30" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="41"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -12369,8 +12493,11 @@
       <c r="CJ30" s="26">
         <v>4</v>
       </c>
+      <c r="CK30" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -12633,8 +12760,11 @@
       <c r="CJ31" s="28">
         <v>13</v>
       </c>
+      <c r="CK31" s="28">
+        <v>9</v>
+      </c>
     </row>
-    <row r="32" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -12896,8 +13026,11 @@
       <c r="CJ32" s="26">
         <v>2</v>
       </c>
+      <c r="CK32" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -13159,8 +13292,11 @@
       <c r="CJ33" s="26">
         <v>0</v>
       </c>
+      <c r="CK33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -13423,10 +13559,13 @@
       <c r="CJ34" s="28">
         <v>33</v>
       </c>
+      <c r="CK34" s="28">
+        <v>16</v>
+      </c>
     </row>
-    <row r="35" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -13687,9 +13826,12 @@
       <c r="CJ35" s="28">
         <v>178</v>
       </c>
+      <c r="CK35" s="28">
+        <v>137</v>
+      </c>
     </row>
-    <row r="36" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="42"/>
+    <row r="36" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="40"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -13948,8 +14090,11 @@
       <c r="CJ36" s="28">
         <v>26</v>
       </c>
+      <c r="CK36" s="28">
+        <v>17</v>
+      </c>
     </row>
-    <row r="37" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -14212,8 +14357,11 @@
       <c r="CJ37" s="28">
         <v>14</v>
       </c>
+      <c r="CK37" s="28">
+        <v>21</v>
+      </c>
     </row>
-    <row r="38" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -14475,8 +14623,11 @@
       <c r="CJ38" s="26">
         <v>10</v>
       </c>
+      <c r="CK38" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="39" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -14738,8 +14889,11 @@
       <c r="CJ39" s="26">
         <v>2</v>
       </c>
+      <c r="CK39" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -15001,8 +15155,11 @@
       <c r="CJ40" s="26">
         <v>0</v>
       </c>
+      <c r="CK40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -15264,8 +15421,11 @@
       <c r="CJ41" s="26">
         <v>0</v>
       </c>
+      <c r="CK41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -15527,8 +15687,11 @@
       <c r="CJ42" s="26">
         <v>1</v>
       </c>
+      <c r="CK42" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -15790,8 +15953,11 @@
       <c r="CJ43" s="26">
         <v>40</v>
       </c>
+      <c r="CK43" s="26">
+        <v>38</v>
+      </c>
     </row>
-    <row r="44" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -16053,8 +16219,11 @@
       <c r="CJ44" s="26">
         <v>0</v>
       </c>
+      <c r="CK44" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -16316,8 +16485,11 @@
       <c r="CJ45" s="28">
         <v>11</v>
       </c>
+      <c r="CK45" s="28">
+        <v>7</v>
+      </c>
     </row>
-    <row r="46" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -16579,8 +16751,11 @@
       <c r="CJ46" s="26">
         <v>13</v>
       </c>
+      <c r="CK46" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -16842,8 +17017,11 @@
       <c r="CJ47" s="26">
         <v>1</v>
       </c>
+      <c r="CK47" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -17105,10 +17283,13 @@
       <c r="CJ48" s="26">
         <v>3</v>
       </c>
+      <c r="CK48" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -17369,9 +17550,12 @@
       <c r="CJ49" s="28">
         <v>20</v>
       </c>
+      <c r="CK49" s="28">
+        <v>22</v>
+      </c>
     </row>
-    <row r="50" spans="1:88" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="42"/>
+    <row r="50" spans="1:89" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="40"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -17630,8 +17814,11 @@
       <c r="CJ50" s="28">
         <v>6</v>
       </c>
+      <c r="CK50" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -17893,8 +18080,11 @@
       <c r="CJ51" s="26">
         <v>1</v>
       </c>
+      <c r="CK51" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -18156,8 +18346,11 @@
       <c r="CJ52" s="26">
         <v>17</v>
       </c>
+      <c r="CK52" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="53" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -18419,8 +18612,11 @@
       <c r="CJ53" s="26">
         <v>9</v>
       </c>
+      <c r="CK53" s="26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="54" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -18682,8 +18878,11 @@
       <c r="CJ54" s="26">
         <v>7</v>
       </c>
+      <c r="CK54" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="55" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -18945,8 +19144,11 @@
       <c r="CJ55" s="26">
         <v>8</v>
       </c>
+      <c r="CK55" s="26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="56" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -19208,8 +19410,11 @@
       <c r="CJ56" s="26">
         <v>0</v>
       </c>
+      <c r="CK56" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -19471,8 +19676,11 @@
       <c r="CJ57" s="26">
         <v>1</v>
       </c>
+      <c r="CK57" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -19758,7 +19966,7 @@
         <v>2376</v>
       </c>
       <c r="BV58" s="14">
-        <f t="shared" ref="BV58:CJ58" si="3">SUM(BV6:BV57)</f>
+        <f t="shared" ref="BV58:CK58" si="3">SUM(BV6:BV57)</f>
         <v>2897</v>
       </c>
       <c r="BW58" s="14">
@@ -19817,8 +20025,12 @@
         <f t="shared" si="3"/>
         <v>1544</v>
       </c>
+      <c r="CK58" s="14">
+        <f t="shared" si="3"/>
+        <v>1471</v>
+      </c>
     </row>
-    <row r="59" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -19902,7 +20114,7 @@
       <c r="CC59" s="7"/>
       <c r="CD59" s="7"/>
     </row>
-    <row r="60" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -19986,30 +20198,30 @@
       <c r="CC60" s="7"/>
       <c r="CD60" s="7"/>
     </row>
-    <row r="61" spans="1:88" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:89" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="41"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -20071,16 +20283,17 @@
       <c r="CD61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AT4:AT5"/>
+  <mergeCells count="101">
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="D2:BC2"/>
     <mergeCell ref="AR3:BC3"/>
@@ -20097,6 +20310,14 @@
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="AL4:AL5"/>
@@ -20113,6 +20334,13 @@
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="D61:W61"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B19:B21"/>
@@ -20122,46 +20350,20 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="CI1:CJ1"/>
-    <mergeCell ref="BD2:CJ2"/>
-    <mergeCell ref="BD3:CJ3"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="BD2:CK2"/>
+    <mergeCell ref="BD3:CK3"/>
     <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="BI4:BI5"/>
@@ -20172,6 +20374,17 @@
     <mergeCell ref="CG4:CG5"/>
     <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="CK4:CK5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BG4:BG5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20185,13 +20398,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CJ58"/>
+  <dimension ref="B1:CK58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CB49" sqref="CB49"/>
+      <selection pane="bottomRight" activeCell="BD2" sqref="BD2:CK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20201,15 +20414,15 @@
     <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
     <col min="4" max="55" width="11" style="1" customWidth="1"/>
     <col min="56" max="82" width="10.875" style="1" customWidth="1"/>
-    <col min="83" max="88" width="11.125" style="1" customWidth="1"/>
-    <col min="89" max="16384" width="8.625" style="1"/>
+    <col min="83" max="89" width="11.125" style="1" customWidth="1"/>
+    <col min="90" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:88" ht="24" x14ac:dyDescent="0.4">
-      <c r="BB1" s="52" t="s">
+    <row r="1" spans="2:89" ht="24" x14ac:dyDescent="0.4">
+      <c r="BB1" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="BC1" s="52"/>
+      <c r="BC1" s="53"/>
       <c r="BI1" s="18"/>
       <c r="CC1" s="29"/>
       <c r="CD1" s="29"/>
@@ -20221,8 +20434,9 @@
         <v>275</v>
       </c>
       <c r="CJ1" s="51"/>
+      <c r="CK1" s="51"/>
     </row>
-    <row r="2" spans="2:88" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:89" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="44"/>
       <c r="C2" s="45"/>
       <c r="D2" s="31" t="s">
@@ -20314,8 +20528,9 @@
       <c r="CH2" s="31"/>
       <c r="CI2" s="31"/>
       <c r="CJ2" s="31"/>
+      <c r="CK2" s="31"/>
     </row>
-    <row r="3" spans="2:88" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:89" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
       <c r="D3" s="32" t="s">
@@ -20409,168 +20624,169 @@
       <c r="CH3" s="32"/>
       <c r="CI3" s="32"/>
       <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
     </row>
-    <row r="4" spans="2:88" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:89" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="N4" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="P4" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="53" t="s">
+      <c r="Q4" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="T4" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="U4" s="53" t="s">
+      <c r="U4" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="V4" s="53" t="s">
+      <c r="V4" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="53" t="s">
+      <c r="X4" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="53" t="s">
+      <c r="Y4" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="53" t="s">
+      <c r="Z4" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AA4" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" s="53" t="s">
+      <c r="AB4" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="53" t="s">
+      <c r="AC4" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="53" t="s">
+      <c r="AD4" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="AE4" s="53" t="s">
+      <c r="AE4" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="53" t="s">
+      <c r="AF4" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="53" t="s">
+      <c r="AG4" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="53" t="s">
+      <c r="AH4" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="53" t="s">
+      <c r="AI4" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AJ4" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AK4" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="AL4" s="53" t="s">
+      <c r="AL4" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AM4" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="53" t="s">
+      <c r="AN4" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" s="53" t="s">
+      <c r="AO4" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="AP4" s="53" t="s">
+      <c r="AP4" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="AQ4" s="53" t="s">
+      <c r="AQ4" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="AR4" s="53" t="s">
+      <c r="AR4" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="AS4" s="53" t="s">
+      <c r="AS4" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="AT4" s="53" t="s">
+      <c r="AT4" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="AU4" s="53" t="s">
+      <c r="AU4" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="AV4" s="53" t="s">
+      <c r="AV4" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="AW4" s="53" t="s">
+      <c r="AW4" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="AX4" s="53" t="s">
+      <c r="AX4" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY4" s="53" t="s">
+      <c r="AY4" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ4" s="53" t="s">
+      <c r="AZ4" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="BA4" s="53" t="s">
+      <c r="BA4" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="BB4" s="53" t="s">
+      <c r="BB4" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="BC4" s="53" t="s">
+      <c r="BC4" s="54" t="s">
         <v>187</v>
       </c>
       <c r="BD4" s="36" t="s">
@@ -20654,80 +20870,83 @@
       <c r="CD4" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="CE4" s="33" t="s">
+      <c r="CE4" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="CF4" s="33" t="s">
+      <c r="CF4" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="CG4" s="33" t="s">
+      <c r="CG4" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="CH4" s="33" t="s">
+      <c r="CH4" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="CI4" s="33" t="s">
+      <c r="CI4" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="CJ4" s="33" t="s">
+      <c r="CJ4" s="52" t="s">
         <v>276</v>
       </c>
+      <c r="CK4" s="52" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="5" spans="2:88" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:89" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="49"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
       <c r="BD5" s="36"/>
       <c r="BE5" s="36"/>
       <c r="BF5" s="36"/>
@@ -20761,8 +20980,9 @@
       <c r="CH5" s="34"/>
       <c r="CI5" s="34"/>
       <c r="CJ5" s="34"/>
+      <c r="CK5" s="34"/>
     </row>
-    <row r="6" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
@@ -21024,8 +21244,11 @@
       <c r="CJ6" s="26">
         <v>73</v>
       </c>
+      <c r="CK6" s="26">
+        <v>96</v>
+      </c>
     </row>
-    <row r="7" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -21287,8 +21510,11 @@
       <c r="CJ7" s="26">
         <v>1</v>
       </c>
+      <c r="CK7" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -21550,8 +21776,11 @@
       <c r="CJ8" s="26">
         <v>5</v>
       </c>
+      <c r="CK8" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -21813,8 +22042,11 @@
       <c r="CJ9" s="26">
         <v>32</v>
       </c>
+      <c r="CK9" s="26">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -22076,8 +22308,11 @@
       <c r="CJ10" s="26">
         <v>0</v>
       </c>
+      <c r="CK10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -22339,8 +22574,11 @@
       <c r="CJ11" s="26">
         <v>2</v>
       </c>
+      <c r="CK11" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -22602,8 +22840,11 @@
       <c r="CJ12" s="26">
         <v>0</v>
       </c>
+      <c r="CK12" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -22865,8 +23106,11 @@
       <c r="CJ13" s="26">
         <v>10</v>
       </c>
+      <c r="CK13" s="26">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -23128,8 +23372,11 @@
       <c r="CJ14" s="26">
         <v>1</v>
       </c>
+      <c r="CK14" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -23391,8 +23638,11 @@
       <c r="CJ15" s="26">
         <v>0</v>
       </c>
+      <c r="CK15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
@@ -23654,8 +23904,11 @@
       <c r="CJ16" s="26">
         <v>33</v>
       </c>
+      <c r="CK16" s="26">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -23917,8 +24170,11 @@
       <c r="CJ17" s="26">
         <v>53</v>
       </c>
+      <c r="CK17" s="26">
+        <v>65</v>
+      </c>
     </row>
-    <row r="18" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -24180,9 +24436,12 @@
       <c r="CJ18" s="26">
         <v>637</v>
       </c>
+      <c r="CK18" s="26">
+        <v>724</v>
+      </c>
     </row>
-    <row r="19" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="42" t="s">
+    <row r="19" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -24443,9 +24702,12 @@
       <c r="CJ19" s="26">
         <v>23</v>
       </c>
+      <c r="CK19" s="26">
+        <v>29</v>
+      </c>
     </row>
-    <row r="20" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="42"/>
+    <row r="20" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="40"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -24704,9 +24966,12 @@
       <c r="CJ20" s="26">
         <v>73</v>
       </c>
+      <c r="CK20" s="26">
+        <v>94</v>
+      </c>
     </row>
-    <row r="21" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="42"/>
+    <row r="21" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="40"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -24965,8 +25230,11 @@
       <c r="CJ21" s="26">
         <v>10</v>
       </c>
+      <c r="CK21" s="26">
+        <v>21</v>
+      </c>
     </row>
-    <row r="22" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -25228,8 +25496,11 @@
       <c r="CJ22" s="26">
         <v>16</v>
       </c>
+      <c r="CK22" s="26">
+        <v>14</v>
+      </c>
     </row>
-    <row r="23" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -25491,8 +25762,11 @@
       <c r="CJ23" s="26">
         <v>1</v>
       </c>
+      <c r="CK23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -25754,8 +26028,11 @@
       <c r="CJ24" s="26">
         <v>4</v>
       </c>
+      <c r="CK24" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -26017,8 +26294,11 @@
       <c r="CJ25" s="26">
         <v>0</v>
       </c>
+      <c r="CK25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -26280,8 +26560,11 @@
       <c r="CJ26" s="26">
         <v>7</v>
       </c>
+      <c r="CK26" s="26">
+        <v>14</v>
+      </c>
     </row>
-    <row r="27" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -26543,8 +26826,11 @@
       <c r="CJ27" s="26">
         <v>0</v>
       </c>
+      <c r="CK27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -26806,9 +27092,12 @@
       <c r="CJ28" s="26">
         <v>0</v>
       </c>
+      <c r="CK28" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="43" t="s">
+    <row r="29" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -27069,9 +27358,12 @@
       <c r="CJ29" s="26">
         <v>1</v>
       </c>
+      <c r="CK29" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="43"/>
+    <row r="30" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="41"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -27330,8 +27622,11 @@
       <c r="CJ30" s="26">
         <v>3</v>
       </c>
+      <c r="CK30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -27593,8 +27888,11 @@
       <c r="CJ31" s="26">
         <v>10</v>
       </c>
+      <c r="CK31" s="26">
+        <v>22</v>
+      </c>
     </row>
-    <row r="32" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -27856,8 +28154,11 @@
       <c r="CJ32" s="26">
         <v>0</v>
       </c>
+      <c r="CK32" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -28119,8 +28420,11 @@
       <c r="CJ33" s="26">
         <v>0</v>
       </c>
+      <c r="CK33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
@@ -28382,9 +28686,12 @@
       <c r="CJ34" s="26">
         <v>10</v>
       </c>
+      <c r="CK34" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="42" t="s">
+    <row r="35" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -28645,9 +28952,12 @@
       <c r="CJ35" s="26">
         <v>186</v>
       </c>
+      <c r="CK35" s="26">
+        <v>188</v>
+      </c>
     </row>
-    <row r="36" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="42"/>
+    <row r="36" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="40"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -28906,8 +29216,11 @@
       <c r="CJ36" s="26">
         <v>16</v>
       </c>
+      <c r="CK36" s="26">
+        <v>17</v>
+      </c>
     </row>
-    <row r="37" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
@@ -29169,8 +29482,11 @@
       <c r="CJ37" s="26">
         <v>14</v>
       </c>
+      <c r="CK37" s="26">
+        <v>14</v>
+      </c>
     </row>
-    <row r="38" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -29432,8 +29748,11 @@
       <c r="CJ38" s="26">
         <v>4</v>
       </c>
+      <c r="CK38" s="26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="39" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -29695,8 +30014,11 @@
       <c r="CJ39" s="26">
         <v>2</v>
       </c>
+      <c r="CK39" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -29958,8 +30280,11 @@
       <c r="CJ40" s="26">
         <v>0</v>
       </c>
+      <c r="CK40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -30221,8 +30546,11 @@
       <c r="CJ41" s="26">
         <v>0</v>
       </c>
+      <c r="CK41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -30484,8 +30812,11 @@
       <c r="CJ42" s="26">
         <v>2</v>
       </c>
+      <c r="CK42" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -30747,8 +31078,11 @@
       <c r="CJ43" s="26">
         <v>24</v>
       </c>
+      <c r="CK43" s="26">
+        <v>25</v>
+      </c>
     </row>
-    <row r="44" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -31010,8 +31344,11 @@
       <c r="CJ44" s="26">
         <v>5</v>
       </c>
+      <c r="CK44" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="45" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -31273,8 +31610,11 @@
       <c r="CJ45" s="26">
         <v>4</v>
       </c>
+      <c r="CK45" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -31536,8 +31876,11 @@
       <c r="CJ46" s="26">
         <v>3</v>
       </c>
+      <c r="CK46" s="26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="47" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -31799,8 +32142,11 @@
       <c r="CJ47" s="26">
         <v>0</v>
       </c>
+      <c r="CK47" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -32062,9 +32408,12 @@
       <c r="CJ48" s="26">
         <v>1</v>
       </c>
+      <c r="CK48" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="42" t="s">
+    <row r="49" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="40" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -32325,9 +32674,12 @@
       <c r="CJ49" s="26">
         <v>11</v>
       </c>
+      <c r="CK49" s="26">
+        <v>15</v>
+      </c>
     </row>
-    <row r="50" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="42"/>
+    <row r="50" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="40"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -32586,8 +32938,11 @@
       <c r="CJ50" s="26">
         <v>2</v>
       </c>
+      <c r="CK50" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -32849,8 +33204,11 @@
       <c r="CJ51" s="26">
         <v>2</v>
       </c>
+      <c r="CK51" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -33112,8 +33470,11 @@
       <c r="CJ52" s="26">
         <v>1</v>
       </c>
+      <c r="CK52" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -33375,8 +33736,11 @@
       <c r="CJ53" s="26">
         <v>4</v>
       </c>
+      <c r="CK53" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="54" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -33638,8 +34002,11 @@
       <c r="CJ54" s="26">
         <v>2</v>
       </c>
+      <c r="CK54" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -33901,8 +34268,11 @@
       <c r="CJ55" s="26">
         <v>6</v>
       </c>
+      <c r="CK55" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>96</v>
       </c>
@@ -34164,8 +34534,11 @@
       <c r="CJ56" s="26">
         <v>1</v>
       </c>
+      <c r="CK56" s="26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="57" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>98</v>
       </c>
@@ -34427,8 +34800,11 @@
       <c r="CJ57" s="26">
         <v>1</v>
       </c>
+      <c r="CK57" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
         <v>142</v>
@@ -34709,7 +35085,7 @@
         <v>1344</v>
       </c>
       <c r="BU58" s="25">
-        <f t="shared" ref="BU58:CJ58" si="3">SUM(BU6:BU57)</f>
+        <f t="shared" ref="BU58:CK58" si="3">SUM(BU6:BU57)</f>
         <v>1160</v>
       </c>
       <c r="BV58" s="25">
@@ -34772,9 +35148,13 @@
         <f t="shared" si="3"/>
         <v>1296</v>
       </c>
+      <c r="CK58" s="25">
+        <f t="shared" si="3"/>
+        <v>1504</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="100">
     <mergeCell ref="CE4:CE5"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="BG4:BG5"/>
@@ -34821,7 +35201,6 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="AX4:AX5"/>
@@ -34842,26 +35221,29 @@
     <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="T4:T5"/>
     <mergeCell ref="CC4:CC5"/>
     <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BV4:BV5"/>
     <mergeCell ref="BW4:BW5"/>
     <mergeCell ref="BX4:BX5"/>
     <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="BP4:BP5"/>
     <mergeCell ref="BR4:BR5"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="BD2:CK2"/>
+    <mergeCell ref="BD3:CK3"/>
+    <mergeCell ref="CK4:CK5"/>
     <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="CI1:CJ1"/>
-    <mergeCell ref="BD3:CJ3"/>
-    <mergeCell ref="BD2:CJ2"/>
     <mergeCell ref="CH4:CH5"/>
     <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="CI4:CI5"/>
@@ -34873,7 +35255,6 @@
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BL4:BL5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -34887,13 +35268,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ61"/>
+  <dimension ref="A1:AK61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AM21" sqref="AM21"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -34904,11 +35285,11 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="33" width="10.875" style="1" customWidth="1"/>
     <col min="34" max="34" width="11" style="1" customWidth="1"/>
-    <col min="35" max="36" width="10.875" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.625" style="1"/>
+    <col min="35" max="37" width="10.875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="19"/>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -34920,47 +35301,49 @@
         <v>275</v>
       </c>
       <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
     </row>
-    <row r="2" spans="1:36" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="44"/>
       <c r="C2" s="45"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
     </row>
-    <row r="3" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
       <c r="D3" s="32" t="s">
@@ -34998,12 +35381,13 @@
       <c r="AH3" s="32"/>
       <c r="AI3" s="32"/>
       <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
     </row>
-    <row r="4" spans="1:36" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -35087,28 +35471,31 @@
       <c r="AD4" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="AF4" s="33" t="s">
+      <c r="AF4" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="AG4" s="33" t="s">
+      <c r="AG4" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="33" t="s">
+      <c r="AH4" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="AI4" s="33" t="s">
+      <c r="AI4" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="AJ4" s="33" t="s">
+      <c r="AJ4" s="52" t="s">
         <v>274</v>
       </c>
+      <c r="AK4" s="52" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="49"/>
-      <c r="C5" s="39"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -35142,8 +35529,9 @@
       <c r="AH5" s="34"/>
       <c r="AI5" s="34"/>
       <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
     </row>
-    <row r="6" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -35250,8 +35638,11 @@
       <c r="AJ6" s="28">
         <v>14</v>
       </c>
+      <c r="AK6" s="28">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -35357,8 +35748,11 @@
       <c r="AJ7" s="26">
         <v>0</v>
       </c>
+      <c r="AK7" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -35464,8 +35858,11 @@
       <c r="AJ8" s="26">
         <v>0</v>
       </c>
+      <c r="AK8" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -35572,8 +35969,11 @@
       <c r="AJ9" s="26">
         <v>1</v>
       </c>
+      <c r="AK9" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -35679,8 +36079,11 @@
       <c r="AJ10" s="26">
         <v>0</v>
       </c>
+      <c r="AK10" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -35786,8 +36189,11 @@
       <c r="AJ11" s="26">
         <v>3</v>
       </c>
+      <c r="AK11" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
@@ -35893,8 +36299,11 @@
       <c r="AJ12" s="26">
         <v>0</v>
       </c>
+      <c r="AK12" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -36000,8 +36409,11 @@
       <c r="AJ13" s="28">
         <v>3</v>
       </c>
+      <c r="AK13" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -36107,8 +36519,11 @@
       <c r="AJ14" s="26">
         <v>8</v>
       </c>
+      <c r="AK14" s="26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -36214,8 +36629,11 @@
       <c r="AJ15" s="26">
         <v>0</v>
       </c>
+      <c r="AK15" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -36322,8 +36740,11 @@
       <c r="AJ16" s="28">
         <v>0</v>
       </c>
+      <c r="AK16" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -36429,8 +36850,11 @@
       <c r="AJ17" s="28">
         <v>18</v>
       </c>
+      <c r="AK17" s="28">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -36537,10 +36961,13 @@
       <c r="AJ18" s="28">
         <v>96</v>
       </c>
+      <c r="AK18" s="28">
+        <v>103</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -36645,10 +37072,13 @@
       <c r="AJ19" s="28">
         <v>19</v>
       </c>
+      <c r="AK19" s="28">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="60"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
@@ -36751,10 +37181,13 @@
       <c r="AJ20" s="28">
         <v>26</v>
       </c>
+      <c r="AK20" s="28">
+        <v>14</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="57"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
@@ -36857,8 +37290,11 @@
       <c r="AJ21" s="28">
         <v>4</v>
       </c>
+      <c r="AK21" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
@@ -36964,8 +37400,11 @@
       <c r="AJ22" s="26">
         <v>1</v>
       </c>
+      <c r="AK22" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -37071,8 +37510,11 @@
       <c r="AJ23" s="26">
         <v>0</v>
       </c>
+      <c r="AK23" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -37178,8 +37620,11 @@
       <c r="AJ24" s="28">
         <v>0</v>
       </c>
+      <c r="AK24" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -37285,8 +37730,11 @@
       <c r="AJ25" s="26">
         <v>0</v>
       </c>
+      <c r="AK25" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
         <v>39</v>
       </c>
@@ -37392,8 +37840,11 @@
       <c r="AJ26" s="26">
         <v>6</v>
       </c>
+      <c r="AK26" s="26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -37499,8 +37950,11 @@
       <c r="AJ27" s="26">
         <v>0</v>
       </c>
+      <c r="AK27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
@@ -37606,9 +38060,12 @@
       <c r="AJ28" s="28">
         <v>0</v>
       </c>
+      <c r="AK28" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="58" t="s">
+    <row r="29" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -37713,9 +38170,12 @@
       <c r="AJ29" s="26">
         <v>0</v>
       </c>
+      <c r="AK29" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="59"/>
+    <row r="30" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="58"/>
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
@@ -37818,8 +38278,11 @@
       <c r="AJ30" s="26">
         <v>0</v>
       </c>
+      <c r="AK30" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="11" t="s">
         <v>48</v>
@@ -37926,8 +38389,11 @@
       <c r="AJ31" s="28">
         <v>3</v>
       </c>
+      <c r="AK31" s="28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
@@ -38033,8 +38499,11 @@
       <c r="AJ32" s="26">
         <v>0</v>
       </c>
+      <c r="AK32" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
@@ -38140,8 +38609,11 @@
       <c r="AJ33" s="26">
         <v>0</v>
       </c>
+      <c r="AK33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="11" t="s">
         <v>54</v>
@@ -38248,10 +38720,13 @@
       <c r="AJ34" s="28">
         <v>6</v>
       </c>
+      <c r="AK34" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="55" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -38356,9 +38831,12 @@
       <c r="AJ35" s="28">
         <v>19</v>
       </c>
+      <c r="AK35" s="28">
+        <v>25</v>
+      </c>
     </row>
-    <row r="36" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="57"/>
+    <row r="36" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="56"/>
       <c r="C36" s="9" t="s">
         <v>58</v>
       </c>
@@ -38461,8 +38939,11 @@
       <c r="AJ36" s="28">
         <v>7</v>
       </c>
+      <c r="AK36" s="28">
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="11" t="s">
         <v>59</v>
@@ -38569,8 +39050,11 @@
       <c r="AJ37" s="28">
         <v>2</v>
       </c>
+      <c r="AK37" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="38" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>61</v>
       </c>
@@ -38676,8 +39160,11 @@
       <c r="AJ38" s="26">
         <v>2</v>
       </c>
+      <c r="AK38" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -38783,8 +39270,11 @@
       <c r="AJ39" s="26">
         <v>0</v>
       </c>
+      <c r="AK39" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -38890,8 +39380,11 @@
       <c r="AJ40" s="26">
         <v>0</v>
       </c>
+      <c r="AK40" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -38997,8 +39490,11 @@
       <c r="AJ41" s="26">
         <v>0</v>
       </c>
+      <c r="AK41" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10" t="s">
         <v>69</v>
       </c>
@@ -39104,8 +39600,11 @@
       <c r="AJ42" s="26">
         <v>1</v>
       </c>
+      <c r="AK42" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="43" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
         <v>71</v>
       </c>
@@ -39211,8 +39710,11 @@
       <c r="AJ43" s="26">
         <v>19</v>
       </c>
+      <c r="AK43" s="26">
+        <v>19</v>
+      </c>
     </row>
-    <row r="44" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>73</v>
       </c>
@@ -39318,8 +39820,11 @@
       <c r="AJ44" s="26">
         <v>0</v>
       </c>
+      <c r="AK44" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
@@ -39425,8 +39930,11 @@
       <c r="AJ45" s="28">
         <v>0</v>
       </c>
+      <c r="AK45" s="28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>77</v>
       </c>
@@ -39532,8 +40040,11 @@
       <c r="AJ46" s="26">
         <v>0</v>
       </c>
+      <c r="AK46" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>79</v>
       </c>
@@ -39639,8 +40150,11 @@
       <c r="AJ47" s="26">
         <v>0</v>
       </c>
+      <c r="AK47" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
@@ -39746,10 +40260,13 @@
       <c r="AJ48" s="26">
         <v>3</v>
       </c>
+      <c r="AK48" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="55" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -39854,9 +40371,12 @@
       <c r="AJ49" s="28">
         <v>0</v>
       </c>
+      <c r="AK49" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:36" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="57"/>
+    <row r="50" spans="1:37" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="56"/>
       <c r="C50" s="9" t="s">
         <v>85</v>
       </c>
@@ -39959,8 +40479,11 @@
       <c r="AJ50" s="28">
         <v>1</v>
       </c>
+      <c r="AK50" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
@@ -40066,8 +40589,11 @@
       <c r="AJ51" s="26">
         <v>0</v>
       </c>
+      <c r="AK51" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>88</v>
       </c>
@@ -40173,8 +40699,11 @@
       <c r="AJ52" s="26">
         <v>3</v>
       </c>
+      <c r="AK52" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
@@ -40280,8 +40809,11 @@
       <c r="AJ53" s="26">
         <v>0</v>
       </c>
+      <c r="AK53" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>92</v>
       </c>
@@ -40387,8 +40919,11 @@
       <c r="AJ54" s="26">
         <v>3</v>
       </c>
+      <c r="AK54" s="26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>94</v>
       </c>
@@ -40494,8 +41029,11 @@
       <c r="AJ55" s="26">
         <v>0</v>
       </c>
+      <c r="AK55" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
   